--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1734">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170564651489</t>
+    <t xml:space="preserve">1.00170576572418</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982317805290222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985255360603333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960579931735992</t>
+    <t xml:space="preserve">0.982317864894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985255300998688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960579872131348</t>
   </si>
   <si>
     <t xml:space="preserve">0.964105010032654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993480503559113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992893040180206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04576885700226</t>
+    <t xml:space="preserve">0.993480563163757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992893159389496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04576897621155</t>
   </si>
   <si>
     <t xml:space="preserve">1.04165637493134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02814364433289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03695631027222</t>
+    <t xml:space="preserve">1.02814376354218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03695642948151</t>
   </si>
   <si>
     <t xml:space="preserve">1.05693173408508</t>
@@ -89,43 +89,43 @@
     <t xml:space="preserve">1.13565814495087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14564573764801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14682078361511</t>
+    <t xml:space="preserve">1.1456458568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1468209028244</t>
   </si>
   <si>
     <t xml:space="preserve">1.11509525775909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12802052497864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1403580904007</t>
+    <t xml:space="preserve">1.12802040576935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14035820960999</t>
   </si>
   <si>
     <t xml:space="preserve">1.11098265647888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09100735187531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02755606174469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957642316818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853652894496918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829564988613129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840140283107758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810764610767365</t>
+    <t xml:space="preserve">1.09100723266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02755618095398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957642436027527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853653013706207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829565048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840140223503113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810764729976654</t>
   </si>
   <si>
     <t xml:space="preserve">0.81663978099823</t>
@@ -134,16 +134,16 @@
     <t xml:space="preserve">0.873040795326233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863640666007996</t>
+    <t xml:space="preserve">0.86364072561264</t>
   </si>
   <si>
     <t xml:space="preserve">0.872453331947327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887728631496429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881853461265564</t>
+    <t xml:space="preserve">0.887728691101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881853580474854</t>
   </si>
   <si>
     <t xml:space="preserve">0.860703110694885</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">0.842490255832672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850127875804901</t>
+    <t xml:space="preserve">0.850127995014191</t>
   </si>
   <si>
     <t xml:space="preserve">0.94001704454422</t>
@@ -164,16 +164,16 @@
     <t xml:space="preserve">0.916516602039337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895366191864014</t>
+    <t xml:space="preserve">0.895366251468658</t>
   </si>
   <si>
     <t xml:space="preserve">0.851890504360199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.807827115058899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776101469993591</t>
+    <t xml:space="preserve">0.807827174663544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776101589202881</t>
   </si>
   <si>
     <t xml:space="preserve">0.764938950538635</t>
@@ -182,70 +182,70 @@
     <t xml:space="preserve">0.757888734340668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831915140151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820164918899536</t>
+    <t xml:space="preserve">0.831915020942688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820164859294891</t>
   </si>
   <si>
     <t xml:space="preserve">0.817814826965332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828390061855316</t>
+    <t xml:space="preserve">0.828390002250671</t>
   </si>
   <si>
     <t xml:space="preserve">0.833677589893341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823102474212646</t>
+    <t xml:space="preserve">0.823102414608002</t>
   </si>
   <si>
     <t xml:space="preserve">0.817227363586426</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827215015888214</t>
+    <t xml:space="preserve">0.827214956283569</t>
   </si>
   <si>
     <t xml:space="preserve">0.828977584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843077778816223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865403234958649</t>
+    <t xml:space="preserve">0.843077719211578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865403115749359</t>
   </si>
   <si>
     <t xml:space="preserve">0.837790131568909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830740034580231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846602737903595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848953008651733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860115528106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846015393733978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834265112876892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822514891624451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845427870750427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868340790271759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920629143714905</t>
+    <t xml:space="preserve">0.830739974975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84660279750824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848952949047089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860115587711334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846015334129333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834265053272247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822514951229095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845427751541138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868340730667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92062920331955</t>
   </si>
   <si>
     <t xml:space="preserve">0.915929079055786</t>
@@ -254,43 +254,43 @@
     <t xml:space="preserve">0.905941426753998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893016159534454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553585529327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578221321106</t>
+    <t xml:space="preserve">0.89301609992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553525924683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578102111816</t>
   </si>
   <si>
     <t xml:space="preserve">0.869515776634216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882440984249115</t>
+    <t xml:space="preserve">0.88244104385376</t>
   </si>
   <si>
     <t xml:space="preserve">0.864228188991547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835440218448639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826039969921112</t>
+    <t xml:space="preserve">0.835440158843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826039910316467</t>
   </si>
   <si>
     <t xml:space="preserve">0.83015251159668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831327497959137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907116532325745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924741864204407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94530463218689</t>
+    <t xml:space="preserve">0.831327557563782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9071164727211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924741804599762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945304691791534</t>
   </si>
   <si>
     <t xml:space="preserve">0.93707948923111</t>
@@ -299,10 +299,10 @@
     <t xml:space="preserve">0.928854286670685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961768984794617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98744261264801</t>
+    <t xml:space="preserve">0.961769044399261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987442672252655</t>
   </si>
   <si>
     <t xml:space="preserve">0.994025588035583</t>
@@ -311,19 +311,19 @@
     <t xml:space="preserve">1.03483986854553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04010617733002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04076445102692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03615653514862</t>
+    <t xml:space="preserve">1.04010629653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04076457023621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03615641593933</t>
   </si>
   <si>
     <t xml:space="preserve">1.05327212810516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05261373519897</t>
+    <t xml:space="preserve">1.05261385440826</t>
   </si>
   <si>
     <t xml:space="preserve">1.05458867549896</t>
@@ -335,49 +335,49 @@
     <t xml:space="preserve">1.07367932796478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11646831035614</t>
+    <t xml:space="preserve">1.11646842956543</t>
   </si>
   <si>
     <t xml:space="preserve">1.09276986122131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03878951072693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02299058437347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982834577560425</t>
+    <t xml:space="preserve">1.03878962993622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02299046516418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98283463716507</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367314338684</t>
+    <t xml:space="preserve">0.993367195129395</t>
   </si>
   <si>
     <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07565414905548</t>
+    <t xml:space="preserve">1.07565426826477</t>
   </si>
   <si>
     <t xml:space="preserve">1.07302093505859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10132765769958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01574921607971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959136068820953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977568209171295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97230190038681</t>
+    <t xml:space="preserve">1.10132777690887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.015749335289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959135949611664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97756814956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972301781177521</t>
   </si>
   <si>
     <t xml:space="preserve">1.02628207206726</t>
@@ -389,13 +389,13 @@
     <t xml:space="preserve">1.02035737037659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961110830307007</t>
+    <t xml:space="preserve">0.961110770702362</t>
   </si>
   <si>
     <t xml:space="preserve">0.938728749752045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936095714569092</t>
+    <t xml:space="preserve">0.936095654964447</t>
   </si>
   <si>
     <t xml:space="preserve">0.956502676010132</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">0.951894700527191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936753988265991</t>
+    <t xml:space="preserve">0.936753928661346</t>
   </si>
   <si>
     <t xml:space="preserve">0.946628272533417</t>
@@ -413,31 +413,31 @@
     <t xml:space="preserve">0.939387142658234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949919819831848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94860315322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974276781082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954527914524078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997975528240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923588037490845</t>
+    <t xml:space="preserve">0.949919700622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948603212833405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974276721477509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954527854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997975409030914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9235879778862</t>
   </si>
   <si>
     <t xml:space="preserve">0.836034774780273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80970299243927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832085072994232</t>
+    <t xml:space="preserve">0.80970287322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832085013389587</t>
   </si>
   <si>
     <t xml:space="preserve">0.851833879947662</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">0.88869845867157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88409036397934</t>
+    <t xml:space="preserve">0.884090304374695</t>
   </si>
   <si>
     <t xml:space="preserve">0.871582686901093</t>
@@ -461,28 +461,28 @@
     <t xml:space="preserve">0.886723458766937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.890673220157623</t>
+    <t xml:space="preserve">0.890673279762268</t>
   </si>
   <si>
     <t xml:space="preserve">0.870924353599548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866974711418152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884748578071594</t>
+    <t xml:space="preserve">0.866974651813507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884748518466949</t>
   </si>
   <si>
     <t xml:space="preserve">0.88343209028244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87421578168869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870266199111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86434143781662</t>
+    <t xml:space="preserve">0.874215841293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870266139507294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864341497421265</t>
   </si>
   <si>
     <t xml:space="preserve">0.881457149982452</t>
@@ -494,10 +494,10 @@
     <t xml:space="preserve">0.887381792068481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880140542984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613037586212</t>
+    <t xml:space="preserve">0.880140483379364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613216400146</t>
   </si>
   <si>
     <t xml:space="preserve">0.934778988361359</t>
@@ -512,13 +512,13 @@
     <t xml:space="preserve">0.932145833969116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902522623538971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281374454498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903180778026581</t>
+    <t xml:space="preserve">0.902522683143616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281314849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90318089723587</t>
   </si>
   <si>
     <t xml:space="preserve">0.917005062103271</t>
@@ -527,37 +527,37 @@
     <t xml:space="preserve">0.940045297145844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934120714664459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911080360412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912396967411041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91371363401413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931487441062927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918980002403259</t>
+    <t xml:space="preserve">0.934120833873749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911080241203308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912397027015686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913713693618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931487500667572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918979942798615</t>
   </si>
   <si>
     <t xml:space="preserve">0.909763813018799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926879465579987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920296609401703</t>
+    <t xml:space="preserve">0.926879525184631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920296549797058</t>
   </si>
   <si>
     <t xml:space="preserve">0.9380704164505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964402377605438</t>
+    <t xml:space="preserve">0.964402318000793</t>
   </si>
   <si>
     <t xml:space="preserve">0.970326960086823</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">0.988759160041809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984151065349579</t>
+    <t xml:space="preserve">0.984151184558868</t>
   </si>
   <si>
     <t xml:space="preserve">0.992708921432495</t>
@@ -575,16 +575,16 @@
     <t xml:space="preserve">1.04142284393311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03549814224243</t>
+    <t xml:space="preserve">1.03549802303314</t>
   </si>
   <si>
     <t xml:space="preserve">1.03154838085175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05919671058655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03813135623932</t>
+    <t xml:space="preserve">1.05919682979584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03813147544861</t>
   </si>
   <si>
     <t xml:space="preserve">1.03023183345795</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">1.03418147563934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01838254928589</t>
+    <t xml:space="preserve">1.01838266849518</t>
   </si>
   <si>
     <t xml:space="preserve">1.03352332115173</t>
@@ -611,16 +611,16 @@
     <t xml:space="preserve">1.09211158752441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08618700504303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09013664722443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09935283660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08750355243683</t>
+    <t xml:space="preserve">1.08618688583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09013676643372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0993527173996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08750343322754</t>
   </si>
   <si>
     <t xml:space="preserve">1.07960391044617</t>
@@ -629,61 +629,61 @@
     <t xml:space="preserve">1.05788016319275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06380486488342</t>
+    <t xml:space="preserve">1.06380498409271</t>
   </si>
   <si>
     <t xml:space="preserve">1.13819217681885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11120212078094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.123051404953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08421194553375</t>
+    <t xml:space="preserve">1.11120200157166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12305128574371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08421182632446</t>
   </si>
   <si>
     <t xml:space="preserve">1.07697081565857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09145319461823</t>
+    <t xml:space="preserve">1.09145331382751</t>
   </si>
   <si>
     <t xml:space="preserve">1.096719622612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11778509616852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13095104694366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11186051368713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12568473815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13226759433746</t>
+    <t xml:space="preserve">1.11778497695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13095092773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11186039447784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12568461894989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13226747512817</t>
   </si>
   <si>
     <t xml:space="preserve">1.13885056972504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13621723651886</t>
+    <t xml:space="preserve">1.13621735572815</t>
   </si>
   <si>
     <t xml:space="preserve">1.14543342590332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14740836620331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15596616268158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14016699790955</t>
+    <t xml:space="preserve">1.14740824699402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15596628189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14016711711884</t>
   </si>
   <si>
     <t xml:space="preserve">1.14082539081573</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">1.1243679523468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12831771373749</t>
+    <t xml:space="preserve">1.12831783294678</t>
   </si>
   <si>
     <t xml:space="preserve">1.09079504013062</t>
@@ -704,22 +704,22 @@
     <t xml:space="preserve">1.0973778963089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08684527873993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0190407037735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02364873886108</t>
+    <t xml:space="preserve">1.08684515953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01904082298279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02364885807037</t>
   </si>
   <si>
     <t xml:space="preserve">1.02496552467346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02562379837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98810088634491</t>
+    <t xml:space="preserve">1.02562367916107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988100945949554</t>
   </si>
   <si>
     <t xml:space="preserve">0.940703690052032</t>
@@ -728,13 +728,13 @@
     <t xml:space="preserve">0.93346244096756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935437321662903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953869640827179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999950289726257</t>
+    <t xml:space="preserve">0.935437262058258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953869521617889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999950230121613</t>
   </si>
   <si>
     <t xml:space="preserve">1.00521659851074</t>
@@ -749,16 +749,16 @@
     <t xml:space="preserve">1.03088998794556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04603087902069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07170438766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13424241542816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10396087169647</t>
+    <t xml:space="preserve">1.0460307598114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07170450687408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13424253463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10396099090576</t>
   </si>
   <si>
     <t xml:space="preserve">1.10066938400269</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">1.0947448015213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12041819095612</t>
+    <t xml:space="preserve">1.12041831016541</t>
   </si>
   <si>
     <t xml:space="preserve">1.12765955924988</t>
@@ -779,19 +779,19 @@
     <t xml:space="preserve">1.1223931312561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11976003646851</t>
+    <t xml:space="preserve">1.11975991725922</t>
   </si>
   <si>
     <t xml:space="preserve">1.13490080833435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16715717315674</t>
+    <t xml:space="preserve">1.16715729236603</t>
   </si>
   <si>
     <t xml:space="preserve">1.16913211345673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1803230047226</t>
+    <t xml:space="preserve">1.18032312393188</t>
   </si>
   <si>
     <t xml:space="preserve">1.17176520824432</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">1.17374014854431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1790064573288</t>
+    <t xml:space="preserve">1.17900657653809</t>
   </si>
   <si>
     <t xml:space="preserve">1.18229806423187</t>
@@ -812,16 +812,16 @@
     <t xml:space="preserve">1.17308175563812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19941353797913</t>
+    <t xml:space="preserve">1.19941365718842</t>
   </si>
   <si>
     <t xml:space="preserve">1.21652936935425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21389615535736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22706210613251</t>
+    <t xml:space="preserve">1.21389603614807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22706198692322</t>
   </si>
   <si>
     <t xml:space="preserve">1.21784591674805</t>
@@ -830,19 +830,19 @@
     <t xml:space="preserve">1.204021692276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19546389579773</t>
+    <t xml:space="preserve">1.19546377658844</t>
   </si>
   <si>
     <t xml:space="preserve">1.22179567813873</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2277204990387</t>
+    <t xml:space="preserve">1.22772037982941</t>
   </si>
   <si>
     <t xml:space="preserve">1.21455442905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21587097644806</t>
+    <t xml:space="preserve">1.21587109565735</t>
   </si>
   <si>
     <t xml:space="preserve">1.23167014122009</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">1.26260995864868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27182626724243</t>
+    <t xml:space="preserve">1.27182614803314</t>
   </si>
   <si>
     <t xml:space="preserve">1.28696691989899</t>
@@ -869,28 +869,28 @@
     <t xml:space="preserve">1.3093489408493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32448983192444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32843947410583</t>
+    <t xml:space="preserve">1.32448971271515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32843935489655</t>
   </si>
   <si>
     <t xml:space="preserve">1.3613543510437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35213804244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35608780384064</t>
+    <t xml:space="preserve">1.35213792324066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35608792304993</t>
   </si>
   <si>
     <t xml:space="preserve">1.35872101783752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39163589477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40875148773193</t>
+    <t xml:space="preserve">1.3916357755661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40875160694122</t>
   </si>
   <si>
     <t xml:space="preserve">1.47721421718597</t>
@@ -899,12 +899,12 @@
     <t xml:space="preserve">1.48116385936737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169683456421</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.49169671535492</t>
   </si>
   <si>
+    <t xml:space="preserve">1.49169659614563</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.49031937122345</t>
   </si>
   <si>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">1.39803516864777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38701617717743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38288402557373</t>
+    <t xml:space="preserve">1.38701629638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38288390636444</t>
   </si>
   <si>
     <t xml:space="preserve">1.48343241214752</t>
@@ -932,19 +932,19 @@
     <t xml:space="preserve">1.43522441387177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43246948719025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45313012599945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51235735416412</t>
+    <t xml:space="preserve">1.43246960639954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45313024520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51235747337341</t>
   </si>
   <si>
     <t xml:space="preserve">1.57158446311951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53301787376404</t>
+    <t xml:space="preserve">1.53301799297333</t>
   </si>
   <si>
     <t xml:space="preserve">1.53990483283997</t>
@@ -953,22 +953,22 @@
     <t xml:space="preserve">1.51511192321777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4393562078476</t>
+    <t xml:space="preserve">1.43935632705688</t>
   </si>
   <si>
     <t xml:space="preserve">1.47792291641235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45175290107727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45863962173462</t>
+    <t xml:space="preserve">1.45175278186798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45863974094391</t>
   </si>
   <si>
     <t xml:space="preserve">1.42282795906067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41594111919403</t>
+    <t xml:space="preserve">1.41594099998474</t>
   </si>
   <si>
     <t xml:space="preserve">1.40354478359222</t>
@@ -980,31 +980,31 @@
     <t xml:space="preserve">1.44624316692352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43797898292542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45726215839386</t>
+    <t xml:space="preserve">1.4379791021347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45726227760315</t>
   </si>
   <si>
     <t xml:space="preserve">1.42558264732361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42971467971802</t>
+    <t xml:space="preserve">1.42971479892731</t>
   </si>
   <si>
     <t xml:space="preserve">1.44073379039764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43660175800323</t>
+    <t xml:space="preserve">1.43660163879395</t>
   </si>
   <si>
     <t xml:space="preserve">1.45588493347168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47654557228088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51786684989929</t>
+    <t xml:space="preserve">1.47654569149017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51786673069</t>
   </si>
   <si>
     <t xml:space="preserve">1.53164041042328</t>
@@ -1022,25 +1022,25 @@
     <t xml:space="preserve">1.52888584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33605349063873</t>
+    <t xml:space="preserve">1.33605337142944</t>
   </si>
   <si>
     <t xml:space="preserve">1.33811938762665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31194937229156</t>
+    <t xml:space="preserve">1.31194925308228</t>
   </si>
   <si>
     <t xml:space="preserve">1.27820360660553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25960910320282</t>
+    <t xml:space="preserve">1.25960898399353</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062797546387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28095841407776</t>
+    <t xml:space="preserve">1.28095829486847</t>
   </si>
   <si>
     <t xml:space="preserve">1.32021355628967</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">1.28233575820923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29542088508606</t>
+    <t xml:space="preserve">1.29542076587677</t>
   </si>
   <si>
     <t xml:space="preserve">1.2899112701416</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">1.33674204349518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32778918743134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33329856395721</t>
+    <t xml:space="preserve">1.32778906822205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3332986831665</t>
   </si>
   <si>
     <t xml:space="preserve">1.34018540382385</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">1.3739310503006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41180896759033</t>
+    <t xml:space="preserve">1.41180884838104</t>
   </si>
   <si>
     <t xml:space="preserve">1.41869580745697</t>
@@ -1094,13 +1094,13 @@
     <t xml:space="preserve">1.46001696586609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45037543773651</t>
+    <t xml:space="preserve">1.45037531852722</t>
   </si>
   <si>
     <t xml:space="preserve">1.44762063026428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40492212772369</t>
+    <t xml:space="preserve">1.4049220085144</t>
   </si>
   <si>
     <t xml:space="preserve">1.46414911746979</t>
@@ -1109,10 +1109,10 @@
     <t xml:space="preserve">1.48618710041046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51097989082336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56194281578064</t>
+    <t xml:space="preserve">1.51098001003265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56194269657135</t>
   </si>
   <si>
     <t xml:space="preserve">1.53852736949921</t>
@@ -1127,13 +1127,13 @@
     <t xml:space="preserve">1.57433915138245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51648926734924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51924431324005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50684785842896</t>
+    <t xml:space="preserve">1.51648914813995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51924419403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50684773921967</t>
   </si>
   <si>
     <t xml:space="preserve">1.49582874774933</t>
@@ -1142,10 +1142,10 @@
     <t xml:space="preserve">1.48756456375122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50822532176971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52750849723816</t>
+    <t xml:space="preserve">1.50822520256042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52750837802887</t>
   </si>
   <si>
     <t xml:space="preserve">1.5509238243103</t>
@@ -1154,25 +1154,25 @@
     <t xml:space="preserve">1.60050916671753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57847118377686</t>
+    <t xml:space="preserve">1.57847130298615</t>
   </si>
   <si>
     <t xml:space="preserve">1.62117004394531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61841511726379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58949053287506</t>
+    <t xml:space="preserve">1.6184149980545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58949041366577</t>
   </si>
   <si>
     <t xml:space="preserve">1.4848096370697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52062141895294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55230104923248</t>
+    <t xml:space="preserve">1.52062153816223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55230116844177</t>
   </si>
   <si>
     <t xml:space="preserve">1.5219988822937</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">1.43384695053101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41731858253479</t>
+    <t xml:space="preserve">1.4173184633255</t>
   </si>
   <si>
     <t xml:space="preserve">1.37599718570709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37117648124695</t>
+    <t xml:space="preserve">1.37117636203766</t>
   </si>
   <si>
     <t xml:space="preserve">1.38839364051819</t>
@@ -1202,22 +1202,22 @@
     <t xml:space="preserve">1.37530851364136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36360085010529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35051584243774</t>
+    <t xml:space="preserve">1.36360096931458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35051560401917</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34087431430817</t>
+    <t xml:space="preserve">1.34087419509888</t>
   </si>
   <si>
     <t xml:space="preserve">1.36222350597382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34294021129608</t>
+    <t xml:space="preserve">1.34294033050537</t>
   </si>
   <si>
     <t xml:space="preserve">1.36979901790619</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">1.36428952217102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36704421043396</t>
+    <t xml:space="preserve">1.36704432964325</t>
   </si>
   <si>
     <t xml:space="preserve">1.38977086544037</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">1.35533666610718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37737452983856</t>
+    <t xml:space="preserve">1.37737464904785</t>
   </si>
   <si>
     <t xml:space="preserve">1.36842167377472</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">1.22586333751678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25203359127045</t>
+    <t xml:space="preserve">1.25203347206116</t>
   </si>
   <si>
     <t xml:space="preserve">1.24721264839172</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">1.21002352237701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20589137077332</t>
+    <t xml:space="preserve">1.2058914899826</t>
   </si>
   <si>
     <t xml:space="preserve">1.21140098571777</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">1.15699470043182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1521737575531</t>
+    <t xml:space="preserve">1.15217387676239</t>
   </si>
   <si>
     <t xml:space="preserve">1.12600362300873</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12875854969025</t>
+    <t xml:space="preserve">1.12875843048096</t>
   </si>
   <si>
     <t xml:space="preserve">1.10052239894867</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">1.11429607868195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13082444667816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12669253349304</t>
+    <t xml:space="preserve">1.13082456588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12669241428375</t>
   </si>
   <si>
     <t xml:space="preserve">1.14322090148926</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">1.13357925415039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23137283325195</t>
+    <t xml:space="preserve">1.23137295246124</t>
   </si>
   <si>
     <t xml:space="preserve">1.18936288356781</t>
@@ -1340,28 +1340,28 @@
     <t xml:space="preserve">1.13564538955688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17283451557159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17558920383453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.176966547966</t>
+    <t xml:space="preserve">1.1728343963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17558932304382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17696666717529</t>
   </si>
   <si>
     <t xml:space="preserve">1.17076849937439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26029789447784</t>
+    <t xml:space="preserve">1.26029777526855</t>
   </si>
   <si>
     <t xml:space="preserve">1.3023077249527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27682626247406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30988323688507</t>
+    <t xml:space="preserve">1.27682638168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30988311767578</t>
   </si>
   <si>
     <t xml:space="preserve">1.31126058101654</t>
@@ -1373,25 +1373,25 @@
     <t xml:space="preserve">1.26649594306946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21071219444275</t>
+    <t xml:space="preserve">1.21071231365204</t>
   </si>
   <si>
     <t xml:space="preserve">1.22792947292328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25065612792969</t>
+    <t xml:space="preserve">1.2506560087204</t>
   </si>
   <si>
     <t xml:space="preserve">1.24239194393158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27200531959534</t>
+    <t xml:space="preserve">1.27200543880463</t>
   </si>
   <si>
     <t xml:space="preserve">1.29473197460175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29817545413971</t>
+    <t xml:space="preserve">1.298175573349</t>
   </si>
   <si>
     <t xml:space="preserve">1.3229683637619</t>
@@ -1403,16 +1403,16 @@
     <t xml:space="preserve">1.29335463047028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27958106994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26718461513519</t>
+    <t xml:space="preserve">1.279580950737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26718473434448</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26374113559723</t>
+    <t xml:space="preserve">1.26374125480652</t>
   </si>
   <si>
     <t xml:space="preserve">1.26993930339813</t>
@@ -1421,34 +1421,34 @@
     <t xml:space="preserve">1.29955291748047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32985508441925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3925256729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4090541601181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42007315158844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39114832878113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39665794372559</t>
+    <t xml:space="preserve">1.32985520362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39252579212189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40905427932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42007327079773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39114820957184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3966578245163</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34156274795532</t>
+    <t xml:space="preserve">1.34156286716461</t>
   </si>
   <si>
     <t xml:space="preserve">1.30781722068787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38794755935669</t>
+    <t xml:space="preserve">1.38794767856598</t>
   </si>
   <si>
     <t xml:space="preserve">1.41661822795868</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">1.36001229286194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38427186012268</t>
+    <t xml:space="preserve">1.38427197933197</t>
   </si>
   <si>
     <t xml:space="preserve">1.42543983459473</t>
@@ -1481,25 +1481,25 @@
     <t xml:space="preserve">1.43867242336273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47469449043274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48645663261414</t>
+    <t xml:space="preserve">1.47469437122345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48645675182343</t>
   </si>
   <si>
     <t xml:space="preserve">1.52468395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704061985016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49968910217285</t>
+    <t xml:space="preserve">1.50704050064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49968922138214</t>
   </si>
   <si>
     <t xml:space="preserve">1.4967485666275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49086761474609</t>
+    <t xml:space="preserve">1.4908674955368</t>
   </si>
   <si>
     <t xml:space="preserve">1.52615427970886</t>
@@ -1508,22 +1508,22 @@
     <t xml:space="preserve">1.51439189910889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56585192680359</t>
+    <t xml:space="preserve">1.56585204601288</t>
   </si>
   <si>
     <t xml:space="preserve">1.55555987358093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55261945724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5026296377182</t>
+    <t xml:space="preserve">1.55261933803558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50262975692749</t>
   </si>
   <si>
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792695999146</t>
+    <t xml:space="preserve">1.48792684078217</t>
   </si>
   <si>
     <t xml:space="preserve">1.47910523414612</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">1.50998115539551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5232138633728</t>
+    <t xml:space="preserve">1.52321374416351</t>
   </si>
   <si>
     <t xml:space="preserve">1.44455361366272</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">1.46366727352142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45558071136475</t>
+    <t xml:space="preserve">1.45558059215546</t>
   </si>
   <si>
     <t xml:space="preserve">1.45043480396271</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">1.43058586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4239696264267</t>
+    <t xml:space="preserve">1.42396950721741</t>
   </si>
   <si>
     <t xml:space="preserve">1.43940758705139</t>
@@ -1583,31 +1583,31 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4467591047287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46146178245544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48498630523682</t>
+    <t xml:space="preserve">1.44675898551941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46146190166473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48498642444611</t>
   </si>
   <si>
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762460708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5614413022995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57320332527161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55114912986755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5864360332489</t>
+    <t xml:space="preserve">1.52762472629547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56144118309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5732034444809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55114901065826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58643591403961</t>
   </si>
   <si>
     <t xml:space="preserve">1.59672784805298</t>
@@ -1628,46 +1628,46 @@
     <t xml:space="preserve">1.64377701282501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64524722099304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62760388851166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113871097565</t>
+    <t xml:space="preserve">1.64524710178375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62760376930237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113883018494</t>
   </si>
   <si>
     <t xml:space="preserve">1.62466335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59525752067566</t>
+    <t xml:space="preserve">1.59525763988495</t>
   </si>
   <si>
     <t xml:space="preserve">1.37471508979797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.395299077034</t>
+    <t xml:space="preserve">1.39529895782471</t>
   </si>
   <si>
     <t xml:space="preserve">1.40191531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147220134735</t>
+    <t xml:space="preserve">1.41147208213806</t>
   </si>
   <si>
     <t xml:space="preserve">1.408531665802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39970993995667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40118014812469</t>
+    <t xml:space="preserve">1.39971005916595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40118026733398</t>
   </si>
   <si>
     <t xml:space="preserve">1.39897477626801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43279123306274</t>
+    <t xml:space="preserve">1.43279135227203</t>
   </si>
   <si>
     <t xml:space="preserve">1.44822931289673</t>
@@ -1682,13 +1682,13 @@
     <t xml:space="preserve">1.39088821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37250971794128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3607474565506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3548663854599</t>
+    <t xml:space="preserve">1.37250959873199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36074733734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35486626625061</t>
   </si>
   <si>
     <t xml:space="preserve">1.3453094959259</t>
@@ -1697,58 +1697,58 @@
     <t xml:space="preserve">1.28943860530853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27179527282715</t>
+    <t xml:space="preserve">1.27179515361786</t>
   </si>
   <si>
     <t xml:space="preserve">1.28649806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21665966510773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25562214851379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25415182113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28355765342712</t>
+    <t xml:space="preserve">1.21665954589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2556220293045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25415170192719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28355753421783</t>
   </si>
   <si>
     <t xml:space="preserve">1.2975252866745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31590378284454</t>
+    <t xml:space="preserve">1.31590366363525</t>
   </si>
   <si>
     <t xml:space="preserve">1.30855226516724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31516861915588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28576290607452</t>
+    <t xml:space="preserve">1.31516873836517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28576278686523</t>
   </si>
   <si>
     <t xml:space="preserve">1.29017388820648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24974095821381</t>
+    <t xml:space="preserve">1.2497410774231</t>
   </si>
   <si>
     <t xml:space="preserve">1.27841150760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24091923236847</t>
+    <t xml:space="preserve">1.24091935157776</t>
   </si>
   <si>
     <t xml:space="preserve">1.24459493160248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25121116638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31222808361053</t>
+    <t xml:space="preserve">1.25121128559113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31222796440125</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
@@ -1766,22 +1766,22 @@
     <t xml:space="preserve">1.26811957359314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25782763957977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22180545330048</t>
+    <t xml:space="preserve">1.25782752037048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22180557250977</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327589988708</t>
+    <t xml:space="preserve">1.22327601909637</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23650848865509</t>
+    <t xml:space="preserve">1.2365083694458</t>
   </si>
   <si>
     <t xml:space="preserve">1.23356783390045</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">1.3225200176239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31663882732391</t>
+    <t xml:space="preserve">1.3166389465332</t>
   </si>
   <si>
     <t xml:space="preserve">1.29164409637451</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">1.26150321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25856268405914</t>
+    <t xml:space="preserve">1.25856280326843</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1817,16 +1817,16 @@
     <t xml:space="preserve">1.24680042266846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24312472343445</t>
+    <t xml:space="preserve">1.24312460422516</t>
   </si>
   <si>
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2879683971405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29679012298584</t>
+    <t xml:space="preserve">1.28796827793121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29679000377655</t>
   </si>
   <si>
     <t xml:space="preserve">1.24165439605713</t>
@@ -1835,10 +1835,10 @@
     <t xml:space="preserve">1.2401841878891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28870344161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27914655208588</t>
+    <t xml:space="preserve">1.28870356082916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27914667129517</t>
   </si>
   <si>
     <t xml:space="preserve">1.21004331111908</t>
@@ -1850,10 +1850,10 @@
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502774238586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28135204315186</t>
+    <t xml:space="preserve">1.28502786159515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28135216236115</t>
   </si>
   <si>
     <t xml:space="preserve">1.29311430454254</t>
@@ -1865,16 +1865,16 @@
     <t xml:space="preserve">1.38941788673401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36589336395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35119068622589</t>
+    <t xml:space="preserve">1.36589348316193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3511905670166</t>
   </si>
   <si>
     <t xml:space="preserve">1.32325518131256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32693088054657</t>
+    <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
     <t xml:space="preserve">1.31810915470123</t>
@@ -1889,28 +1889,28 @@
     <t xml:space="preserve">1.28723323345184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28429269790649</t>
+    <t xml:space="preserve">1.2842925786972</t>
   </si>
   <si>
     <t xml:space="preserve">1.3129631280899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33060646057129</t>
+    <t xml:space="preserve">1.33060657978058</t>
   </si>
   <si>
     <t xml:space="preserve">1.36736369132996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33428227901459</t>
+    <t xml:space="preserve">1.33428239822388</t>
   </si>
   <si>
     <t xml:space="preserve">1.35266077518463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31737411022186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27694129943848</t>
+    <t xml:space="preserve">1.31737399101257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27694118022919</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046582221985</t>
@@ -1919,10 +1919,10 @@
     <t xml:space="preserve">1.27767646312714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29826033115387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3034063577652</t>
+    <t xml:space="preserve">1.29826045036316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30340623855591</t>
   </si>
   <si>
     <t xml:space="preserve">1.27326548099518</t>
@@ -1931,19 +1931,19 @@
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134174346924</t>
+    <t xml:space="preserve">1.33134186267853</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531979560852</t>
+    <t xml:space="preserve">1.29531967639923</t>
   </si>
   <si>
     <t xml:space="preserve">1.2747358083725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27253031730652</t>
+    <t xml:space="preserve">1.27253043651581</t>
   </si>
   <si>
     <t xml:space="preserve">1.26958978176117</t>
@@ -1958,22 +1958,22 @@
     <t xml:space="preserve">1.21445417404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371901035309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21592438220978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20563244819641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22915709018707</t>
+    <t xml:space="preserve">1.21371912956238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21592450141907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2056325674057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22915697097778</t>
   </si>
   <si>
     <t xml:space="preserve">1.25194644927979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22989213466644</t>
+    <t xml:space="preserve">1.22989225387573</t>
   </si>
   <si>
     <t xml:space="preserve">1.2306272983551</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18137288093567</t>
+    <t xml:space="preserve">1.18137276172638</t>
   </si>
   <si>
     <t xml:space="preserve">1.17034566402435</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">1.15711319446564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13358867168427</t>
+    <t xml:space="preserve">1.13358855247498</t>
   </si>
   <si>
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448531150818</t>
+    <t xml:space="preserve">1.06448519229889</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
@@ -2030,19 +2030,19 @@
     <t xml:space="preserve">1.06522035598755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10859382152557</t>
+    <t xml:space="preserve">1.10859370231628</t>
   </si>
   <si>
     <t xml:space="preserve">1.08653962612152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0872745513916</t>
+    <t xml:space="preserve">1.08727467060089</t>
   </si>
   <si>
     <t xml:space="preserve">1.07624757289886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08713436126709</t>
+    <t xml:space="preserve">1.08713448047638</t>
   </si>
   <si>
     <t xml:space="preserve">1.10890829563141</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.05913960933685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0264790058136</t>
+    <t xml:space="preserve">1.02647888660431</t>
   </si>
   <si>
     <t xml:space="preserve">1.02181303501129</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.02259075641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995373487472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00548267364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00237226486206</t>
+    <t xml:space="preserve">0.995373427867889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00548279285431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00237214565277</t>
   </si>
   <si>
     <t xml:space="preserve">1.01248145103455</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.00159454345703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01714718341827</t>
+    <t xml:space="preserve">1.01714730262756</t>
   </si>
   <si>
     <t xml:space="preserve">1.03969871997833</t>
@@ -2093,31 +2093,31 @@
     <t xml:space="preserve">0.996151089668274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00081694126129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987597048282623</t>
+    <t xml:space="preserve">1.000816822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987597167491913</t>
   </si>
   <si>
     <t xml:space="preserve">0.965823292732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970489144325256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967378556728363</t>
+    <t xml:space="preserve">0.970489203929901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967378497123718</t>
   </si>
   <si>
     <t xml:space="preserve">0.998484075069427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991485238075256</t>
+    <t xml:space="preserve">0.991485297679901</t>
   </si>
   <si>
     <t xml:space="preserve">0.993040502071381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999261677265167</t>
+    <t xml:space="preserve">0.999261617660522</t>
   </si>
   <si>
     <t xml:space="preserve">1.02958941459656</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">1.0303670167923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581047058105</t>
+    <t xml:space="preserve">1.03581058979034</t>
   </si>
   <si>
     <t xml:space="preserve">1.08246862888336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05602896213531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10190963745117</t>
+    <t xml:space="preserve">1.0560290813446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10190951824188</t>
   </si>
   <si>
     <t xml:space="preserve">1.09413313865662</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">1.15789926052094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16645336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15090048313141</t>
+    <t xml:space="preserve">1.16645324230194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1509006023407</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612544536591</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">1.10968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13301491737366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13068199157715</t>
+    <t xml:space="preserve">1.13301503658295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13068211078644</t>
   </si>
   <si>
     <t xml:space="preserve">1.13145971298218</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">1.14467942714691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12368333339691</t>
+    <t xml:space="preserve">1.1236834526062</t>
   </si>
   <si>
     <t xml:space="preserve">1.10735297203064</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">1.11590695381165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12057280540466</t>
+    <t xml:space="preserve">1.12057268619537</t>
   </si>
   <si>
     <t xml:space="preserve">1.13534784317017</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.19678115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17345201969147</t>
+    <t xml:space="preserve">1.17345190048218</t>
   </si>
   <si>
     <t xml:space="preserve">1.18978226184845</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">1.22011005878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22088778018951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21077859401703</t>
+    <t xml:space="preserve">1.2208878993988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21077847480774</t>
   </si>
   <si>
     <t xml:space="preserve">1.19133758544922</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.25976955890656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27376699447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26987874507904</t>
+    <t xml:space="preserve">1.27376687526703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26987886428833</t>
   </si>
   <si>
     <t xml:space="preserve">1.27609992027283</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">1.33286726474762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34608697891235</t>
+    <t xml:space="preserve">1.34608709812164</t>
   </si>
   <si>
     <t xml:space="preserve">1.35852921009064</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">1.39896631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38807940483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37330424785614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35464096069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35619640350342</t>
+    <t xml:space="preserve">1.38807928562164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37330436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35464107990265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35619628429413</t>
   </si>
   <si>
     <t xml:space="preserve">1.33753311634064</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">1.3134263753891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28465378284454</t>
+    <t xml:space="preserve">1.28465390205383</t>
   </si>
   <si>
     <t xml:space="preserve">1.27143406867981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25821423530579</t>
+    <t xml:space="preserve">1.25821435451508</t>
   </si>
   <si>
     <t xml:space="preserve">1.25899183750153</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.25510370731354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23644053936005</t>
+    <t xml:space="preserve">1.23644042015076</t>
   </si>
   <si>
     <t xml:space="preserve">1.24343919754028</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">1.16412031650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15167808532715</t>
+    <t xml:space="preserve">1.15167820453644</t>
   </si>
   <si>
     <t xml:space="preserve">1.12757158279419</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">1.11823987960815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12135052680969</t>
+    <t xml:space="preserve">1.1213504076004</t>
   </si>
   <si>
     <t xml:space="preserve">1.12212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11357402801514</t>
+    <t xml:space="preserve">1.11357414722443</t>
   </si>
   <si>
     <t xml:space="preserve">1.10579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08868980407715</t>
+    <t xml:space="preserve">1.08868968486786</t>
   </si>
   <si>
     <t xml:space="preserve">1.11746227741241</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">1.14623475074768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10657525062561</t>
+    <t xml:space="preserve">1.1065753698349</t>
   </si>
   <si>
     <t xml:space="preserve">1.11201870441437</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.13923597335815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13379263877869</t>
+    <t xml:space="preserve">1.1337925195694</t>
   </si>
   <si>
     <t xml:space="preserve">1.05447375774384</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">1.04047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01403677463531</t>
+    <t xml:space="preserve">1.01403665542603</t>
   </si>
   <si>
     <t xml:space="preserve">1.01325905323029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996928691864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958824634552002</t>
+    <t xml:space="preserve">0.996928751468658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958824574947357</t>
   </si>
   <si>
     <t xml:space="preserve">0.942494213581085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948715388774872</t>
+    <t xml:space="preserve">0.948715329170227</t>
   </si>
   <si>
     <t xml:space="preserve">0.954936444759369</t>
@@ -2498,19 +2498,19 @@
     <t xml:space="preserve">1.00470507144928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990707635879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985264182090759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997706294059753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98370897769928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959602236747742</t>
+    <t xml:space="preserve">0.990707695484161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985264122486115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997706413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983708918094635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959602177143097</t>
   </si>
   <si>
     <t xml:space="preserve">0.884949207305908</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">0.88106107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894280850887299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855399072170258</t>
+    <t xml:space="preserve">0.894280791282654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855399131774902</t>
   </si>
   <si>
     <t xml:space="preserve">0.828181862831116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801742255687714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815739691257477</t>
+    <t xml:space="preserve">0.801742196083069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815739631652832</t>
   </si>
   <si>
     <t xml:space="preserve">0.752362310886383</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">0.678875803947449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.695594966411591</t>
+    <t xml:space="preserve">0.695595026016235</t>
   </si>
   <si>
     <t xml:space="preserve">0.687040984630585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683930456638336</t>
+    <t xml:space="preserve">0.683930397033691</t>
   </si>
   <si>
     <t xml:space="preserve">0.645048677921295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632217705249786</t>
+    <t xml:space="preserve">0.632217645645142</t>
   </si>
   <si>
     <t xml:space="preserve">0.592558324337006</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">0.612388014793396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611610352993011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575839042663574</t>
+    <t xml:space="preserve">0.611610293388367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575839102268219</t>
   </si>
   <si>
     <t xml:space="preserve">0.572339713573456</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">0.550177097320557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576227962970734</t>
+    <t xml:space="preserve">0.576227903366089</t>
   </si>
   <si>
     <t xml:space="preserve">0.565729856491089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.573506236076355</t>
+    <t xml:space="preserve">0.57350617647171</t>
   </si>
   <si>
     <t xml:space="preserve">0.567673921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660990178585052</t>
+    <t xml:space="preserve">0.660990238189697</t>
   </si>
   <si>
     <t xml:space="preserve">0.684319257736206</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.638049960136414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674209952354431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681208729743958</t>
+    <t xml:space="preserve">0.674210011959076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681208670139313</t>
   </si>
   <si>
     <t xml:space="preserve">0.657879650592804</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.643882215023041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640771687030792</t>
+    <t xml:space="preserve">0.640771627426147</t>
   </si>
   <si>
     <t xml:space="preserve">0.611999154090881</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">0.622108399868011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60577803850174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608111023902893</t>
+    <t xml:space="preserve">0.605778098106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608110964298248</t>
   </si>
   <si>
     <t xml:space="preserve">0.613165616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607333302497864</t>
+    <t xml:space="preserve">0.607333362102509</t>
   </si>
   <si>
     <t xml:space="preserve">0.626385390758514</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">0.621330797672272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598779380321503</t>
+    <t xml:space="preserve">0.598779320716858</t>
   </si>
   <si>
     <t xml:space="preserve">0.615498483181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559897541999817</t>
+    <t xml:space="preserve">0.559897601604462</t>
   </si>
   <si>
     <t xml:space="preserve">0.549399495124817</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">0.547844231128693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544344902038574</t>
+    <t xml:space="preserve">0.544344842433929</t>
   </si>
   <si>
     <t xml:space="preserve">0.547455430030823</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.57311737537384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59372466802597</t>
+    <t xml:space="preserve">0.593724727630615</t>
   </si>
   <si>
     <t xml:space="preserve">0.628329515457153</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">0.625996589660645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637661099433899</t>
+    <t xml:space="preserve">0.637661159038544</t>
   </si>
   <si>
     <t xml:space="preserve">0.61433207988739</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">0.654380261898041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632606446743011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585170686244965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586726009845734</t>
+    <t xml:space="preserve">0.632606506347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585170745849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586725950241089</t>
   </si>
   <si>
     <t xml:space="preserve">0.580893695354462</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">0.600334644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587892413139343</t>
+    <t xml:space="preserve">0.587892472743988</t>
   </si>
   <si>
     <t xml:space="preserve">0.580116093158722</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">0.576616764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583226680755615</t>
+    <t xml:space="preserve">0.58322662115097</t>
   </si>
   <si>
     <t xml:space="preserve">0.564563393592834</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">0.548233032226562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.541623175144196</t>
+    <t xml:space="preserve">0.541623115539551</t>
   </si>
   <si>
     <t xml:space="preserve">0.524903953075409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519460558891296</t>
+    <t xml:space="preserve">0.519460499286652</t>
   </si>
   <si>
     <t xml:space="preserve">0.515961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476690530776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489521533250809</t>
+    <t xml:space="preserve">0.4766905605793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489521563053131</t>
   </si>
   <si>
     <t xml:space="preserve">0.508962452411652</t>
@@ -2789,31 +2789,31 @@
     <t xml:space="preserve">0.491076827049255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50118613243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498464345932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486022174358368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497686743736267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48679980635643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477079421281815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474746435880661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459193736314774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444418698549271</t>
+    <t xml:space="preserve">0.501186072826385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498464375734329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48602220416069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497686713933945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486799836158752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477079391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474746465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459193795919418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444418668746948</t>
   </si>
   <si>
     <t xml:space="preserve">0.451806217432022</t>
@@ -2825,34 +2825,34 @@
     <t xml:space="preserve">0.485633373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478245824575424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49185448884964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508573591709137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467358946800232</t>
+    <t xml:space="preserve">0.478245854377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491854459047318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508573651313782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467358976602554</t>
   </si>
   <si>
     <t xml:space="preserve">0.455694437026978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463859558105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489132761955261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478634655475616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476301729679108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48252284526825</t>
+    <t xml:space="preserve">0.463859587907791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489132732152939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478634625673294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476301789283752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.482522875070572</t>
   </si>
   <si>
     <t xml:space="preserve">0.477857023477554</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">0.473580062389374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474357694387436</t>
+    <t xml:space="preserve">0.474357664585114</t>
   </si>
   <si>
     <t xml:space="preserve">0.46036022901535</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">0.464637249708176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463470757007599</t>
+    <t xml:space="preserve">0.463470786809921</t>
   </si>
   <si>
     <t xml:space="preserve">0.458027333021164</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">0.446751624345779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438975244760513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.436253517866135</t>
+    <t xml:space="preserve">0.438975214958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.436253547668457</t>
   </si>
   <si>
     <t xml:space="preserve">0.432754188776016</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">0.374820321798325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360200762748718</t>
+    <t xml:space="preserve">0.360200792551041</t>
   </si>
   <si>
     <t xml:space="preserve">0.355068385601044</t>
@@ -2933,22 +2933,22 @@
     <t xml:space="preserve">0.337649345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345892280340195</t>
+    <t xml:space="preserve">0.345892250537872</t>
   </si>
   <si>
     <t xml:space="preserve">0.331894844770432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346669912338257</t>
+    <t xml:space="preserve">0.346669942140579</t>
   </si>
   <si>
     <t xml:space="preserve">0.369376868009567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373576104640961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388040125370026</t>
+    <t xml:space="preserve">0.373576074838638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388040155172348</t>
   </si>
   <si>
     <t xml:space="preserve">0.396594107151031</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">0.36035630106926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34184855222702</t>
+    <t xml:space="preserve">0.341848582029343</t>
   </si>
   <si>
     <t xml:space="preserve">0.323962956666946</t>
@@ -2981,10 +2981,10 @@
     <t xml:space="preserve">0.337182760238647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359423130750656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351802289485931</t>
+    <t xml:space="preserve">0.359423100948334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351802319288254</t>
   </si>
   <si>
     <t xml:space="preserve">0.386484861373901</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">0.358645498752594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336405128240585</t>
+    <t xml:space="preserve">0.336405098438263</t>
   </si>
   <si>
     <t xml:space="preserve">0.341693043708801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356001526117325</t>
+    <t xml:space="preserve">0.356001555919647</t>
   </si>
   <si>
     <t xml:space="preserve">0.35413521528244</t>
@@ -3029,28 +3029,28 @@
     <t xml:space="preserve">0.390373021364212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417979091405869</t>
+    <t xml:space="preserve">0.417979121208191</t>
   </si>
   <si>
     <t xml:space="preserve">0.421478450298309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445585161447525</t>
+    <t xml:space="preserve">0.445585191249847</t>
   </si>
   <si>
     <t xml:space="preserve">0.437419980764389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440141677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462693154811859</t>
+    <t xml:space="preserve">0.440141707658768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462693125009537</t>
   </si>
   <si>
     <t xml:space="preserve">0.461137861013412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437031120061874</t>
+    <t xml:space="preserve">0.437031149864197</t>
   </si>
   <si>
     <t xml:space="preserve">0.419145524501801</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">0.45025098323822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446362763643265</t>
+    <t xml:space="preserve">0.446362793445587</t>
   </si>
   <si>
     <t xml:space="preserve">0.454139143228531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452972680330276</t>
+    <t xml:space="preserve">0.452972650527954</t>
   </si>
   <si>
     <t xml:space="preserve">0.457638502120972</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">0.472024768590927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448306888341904</t>
+    <t xml:space="preserve">0.448306858539581</t>
   </si>
   <si>
     <t xml:space="preserve">0.452583879232407</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">0.457249671220779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465803682804108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.461526721715927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462304323911667</t>
+    <t xml:space="preserve">0.465803653001785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.461526691913605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462304294109344</t>
   </si>
   <si>
     <t xml:space="preserve">0.472413599491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49613144993782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500408470630646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494187384843826</t>
+    <t xml:space="preserve">0.496131479740143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500408411026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494187414646149</t>
   </si>
   <si>
     <t xml:space="preserve">0.48213404417038</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">0.465414851903915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479801118373871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47046947479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.449084490537643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419923216104507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.432365328073502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430421262979507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431976497173309</t>
+    <t xml:space="preserve">0.479801088571548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.470469504594803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449084520339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419923186302185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.432365357875824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430421233177185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431976526975632</t>
   </si>
   <si>
     <t xml:space="preserve">0.421867281198502</t>
@@ -3146,19 +3146,19 @@
     <t xml:space="preserve">0.43119889497757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440919309854507</t>
+    <t xml:space="preserve">0.44091933965683</t>
   </si>
   <si>
     <t xml:space="preserve">0.442863434553146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466581344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566896319389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521404564380646</t>
+    <t xml:space="preserve">0.46658131480217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566896259784698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521404623985291</t>
   </si>
   <si>
     <t xml:space="preserve">0.530347406864166</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">0.500797271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494576156139374</t>
+    <t xml:space="preserve">0.494576185941696</t>
   </si>
   <si>
     <t xml:space="preserve">0.507795989513397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507018387317657</t>
+    <t xml:space="preserve">0.507018327713013</t>
   </si>
   <si>
     <t xml:space="preserve">0.504685461521149</t>
@@ -3209,40 +3209,40 @@
     <t xml:space="preserve">0.524126350879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513239502906799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50274133682251</t>
+    <t xml:space="preserve">0.513239443302155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502741396427155</t>
   </si>
   <si>
     <t xml:space="preserve">0.49652025103569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487577468156815</t>
+    <t xml:space="preserve">0.487577438354492</t>
   </si>
   <si>
     <t xml:space="preserve">0.480578750371933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493409782648087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485244572162628</t>
+    <t xml:space="preserve">0.493409723043442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485244601964951</t>
   </si>
   <si>
     <t xml:space="preserve">0.487188667058945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449473321437836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448695719242096</t>
+    <t xml:space="preserve">0.449473351240158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448695689439774</t>
   </si>
   <si>
     <t xml:space="preserve">0.44776251912117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446673840284348</t>
+    <t xml:space="preserve">0.44667387008667</t>
   </si>
   <si>
     <t xml:space="preserve">0.442630112171173</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">0.459427058696747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451184123754501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460982352495193</t>
+    <t xml:space="preserve">0.451184153556824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460982322692871</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096727132797</t>
@@ -3266,31 +3266,31 @@
     <t xml:space="preserve">0.449006766080856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450406521558762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456938624382019</t>
+    <t xml:space="preserve">0.450406551361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456938654184341</t>
   </si>
   <si>
     <t xml:space="preserve">0.442474603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461759984493256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446829348802567</t>
+    <t xml:space="preserve">0.461760014295578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446829319000244</t>
   </si>
   <si>
     <t xml:space="preserve">0.451961755752563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464714974164963</t>
+    <t xml:space="preserve">0.46471494436264</t>
   </si>
   <si>
     <t xml:space="preserve">0.458338350057602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453517019748688</t>
+    <t xml:space="preserve">0.453516989946365</t>
   </si>
   <si>
     <t xml:space="preserve">0.454916775226593</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">0.459115982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479178994894028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.495353817939758</t>
+    <t xml:space="preserve">0.479178965091705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.495353847742081</t>
   </si>
   <si>
     <t xml:space="preserve">0.527236878871918</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">0.526303708553314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534546673297882</t>
+    <t xml:space="preserve">0.534546613693237</t>
   </si>
   <si>
     <t xml:space="preserve">0.545589089393616</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">0.548077523708344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553209900856018</t>
+    <t xml:space="preserve">0.553209841251373</t>
   </si>
   <si>
     <t xml:space="preserve">0.57031786441803</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">0.57684999704361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60640013217926</t>
+    <t xml:space="preserve">0.606400191783905</t>
   </si>
   <si>
     <t xml:space="preserve">0.591003000736237</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">0.668610990047455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671566009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675143122673035</t>
+    <t xml:space="preserve">0.671566069126129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675143182277679</t>
   </si>
   <si>
     <t xml:space="preserve">0.671099424362183</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">0.655391216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649325668811798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650258839130402</t>
+    <t xml:space="preserve">0.649325609207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650258779525757</t>
   </si>
   <si>
     <t xml:space="preserve">0.629884779453278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613709986209869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590380907058716</t>
+    <t xml:space="preserve">0.613709926605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590380847454071</t>
   </si>
   <si>
     <t xml:space="preserve">0.586959302425385</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">0.597535133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58182692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552276790142059</t>
+    <t xml:space="preserve">0.581826865673065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552276730537415</t>
   </si>
   <si>
     <t xml:space="preserve">0.556009352207184</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">0.524592936038971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511839747428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500330686569214</t>
+    <t xml:space="preserve">0.511839687824249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500330746173859</t>
   </si>
   <si>
     <t xml:space="preserve">0.508729159832001</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">0.508107006549835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504529893398285</t>
+    <t xml:space="preserve">0.50452995300293</t>
   </si>
   <si>
     <t xml:space="preserve">0.507951498031616</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">0.506551802158356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497064620256424</t>
+    <t xml:space="preserve">0.497064590454102</t>
   </si>
   <si>
     <t xml:space="preserve">0.520860254764557</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">0.505774140357971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503285706043243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511995255947113</t>
+    <t xml:space="preserve">0.503285646438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511995196342468</t>
   </si>
   <si>
     <t xml:space="preserve">0.51246178150177</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">0.510595500469208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.52117133140564</t>
+    <t xml:space="preserve">0.521171271800995</t>
   </si>
   <si>
     <t xml:space="preserve">0.509817838668823</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">0.505463063716888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51743870973587</t>
+    <t xml:space="preserve">0.517438650131226</t>
   </si>
   <si>
     <t xml:space="preserve">0.517283141613007</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">0.500486195087433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494109630584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5203937292099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525215089321136</t>
+    <t xml:space="preserve">0.494109600782394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.520393669605255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525215029716492</t>
   </si>
   <si>
     <t xml:space="preserve">0.516038954257965</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">0.54496693611145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551965653896332</t>
+    <t xml:space="preserve">0.551965713500977</t>
   </si>
   <si>
     <t xml:space="preserve">0.541545391082764</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">0.549166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53781270980835</t>
+    <t xml:space="preserve">0.537812769412994</t>
   </si>
   <si>
     <t xml:space="preserve">0.553831994533539</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">0.567984998226166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583071112632751</t>
+    <t xml:space="preserve">0.583071172237396</t>
   </si>
   <si>
     <t xml:space="preserve">0.623663723468781</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">0.609821796417236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623352587223053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656168818473816</t>
+    <t xml:space="preserve">0.623352646827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656168878078461</t>
   </si>
   <si>
     <t xml:space="preserve">0.669388651847839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633928418159485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573583960533142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583848714828491</t>
+    <t xml:space="preserve">0.63392847776413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573584020137787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583848774433136</t>
   </si>
   <si>
     <t xml:space="preserve">0.589447736740112</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">0.552121222019196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557098150253296</t>
+    <t xml:space="preserve">0.557098090648651</t>
   </si>
   <si>
     <t xml:space="preserve">0.563008069992065</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">0.542167484760284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523659706115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522726595401764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502663612365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492865413427353</t>
+    <t xml:space="preserve">0.523659765720367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522726655006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502663552761078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492865383625031</t>
   </si>
   <si>
     <t xml:space="preserve">0.499553054571152</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">0.4955093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48975482583046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507484972476959</t>
+    <t xml:space="preserve">0.489754885435104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507484912872314</t>
   </si>
   <si>
     <t xml:space="preserve">0.523348689079285</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">0.52474844455719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513550460338593</t>
+    <t xml:space="preserve">0.513550519943237</t>
   </si>
   <si>
     <t xml:space="preserve">0.493643045425415</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">0.461293399333954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464092880487442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435786962509155</t>
+    <t xml:space="preserve">0.464092910289764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435786932706833</t>
   </si>
   <si>
     <t xml:space="preserve">0.432054281234741</t>
@@ -3683,19 +3683,19 @@
     <t xml:space="preserve">0.417745798826218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450095444917679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452739417552948</t>
+    <t xml:space="preserve">0.450095474720001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452739387750626</t>
   </si>
   <si>
     <t xml:space="preserve">0.43843087553978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435475885868073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430654525756836</t>
+    <t xml:space="preserve">0.43547585606575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430654555559158</t>
   </si>
   <si>
     <t xml:space="preserve">0.42536661028862</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">0.41525736451149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427232950925827</t>
+    <t xml:space="preserve">0.427232921123505</t>
   </si>
   <si>
     <t xml:space="preserve">0.424277931451797</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">0.412457853555679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422878175973892</t>
+    <t xml:space="preserve">0.422878205776215</t>
   </si>
   <si>
     <t xml:space="preserve">0.422722697257996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434542715549469</t>
+    <t xml:space="preserve">0.434542685747147</t>
   </si>
   <si>
     <t xml:space="preserve">0.424900054931641</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">0.43407616019249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436564594507217</t>
+    <t xml:space="preserve">0.436564564704895</t>
   </si>
   <si>
     <t xml:space="preserve">0.440608292818069</t>
@@ -3743,37 +3743,37 @@
     <t xml:space="preserve">0.443252235651016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462071001529694</t>
+    <t xml:space="preserve">0.462071031332016</t>
   </si>
   <si>
     <t xml:space="preserve">0.456005454063416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45647206902504</t>
+    <t xml:space="preserve">0.456472039222717</t>
   </si>
   <si>
     <t xml:space="preserve">0.446207284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453205943107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448851227760315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430032432079315</t>
+    <t xml:space="preserve">0.453205972909927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448851197957993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430032402276993</t>
   </si>
   <si>
     <t xml:space="preserve">0.443563312292099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457405209541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452117264270782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427543967962265</t>
+    <t xml:space="preserve">0.457405179738998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452117294073105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.427543997764587</t>
   </si>
   <si>
     <t xml:space="preserve">0.423344761133194</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">0.472802400588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466270238161087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480423212051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455227822065353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.441696971654892</t>
+    <t xml:space="preserve">0.466270297765732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480423241853714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455227792263031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441697001457214</t>
   </si>
   <si>
     <t xml:space="preserve">0.386173814535141</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">0.42863267660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40872523188591</t>
+    <t xml:space="preserve">0.408725261688232</t>
   </si>
   <si>
     <t xml:space="preserve">0.411058127880096</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">0.436098009347916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451495200395584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478401392698288</t>
+    <t xml:space="preserve">0.451495170593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478401362895966</t>
   </si>
   <si>
     <t xml:space="preserve">0.468914210796356</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">0.467203408479691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513083875179291</t>
+    <t xml:space="preserve">0.513083934783936</t>
   </si>
   <si>
     <t xml:space="preserve">0.515883386135101</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">0.54792195558548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542634010314941</t>
+    <t xml:space="preserve">0.542634069919586</t>
   </si>
   <si>
     <t xml:space="preserve">0.537346124649048</t>
@@ -3863,22 +3863,22 @@
     <t xml:space="preserve">0.551810145378113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572028696537018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619775474071503</t>
+    <t xml:space="preserve">0.572028636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619775533676147</t>
   </si>
   <si>
     <t xml:space="preserve">0.64403772354126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671877145767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705626487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705937564373016</t>
+    <t xml:space="preserve">0.671877086162567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705626428127289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705937504768372</t>
   </si>
   <si>
     <t xml:space="preserve">0.72786682844162</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">0.658968329429626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.639216363430023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662545502185822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682452976703644</t>
+    <t xml:space="preserve">0.639216423034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662545442581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682452917098999</t>
   </si>
   <si>
     <t xml:space="preserve">0.693650901317596</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">0.755084097385406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821183145046234</t>
+    <t xml:space="preserve">0.821183085441589</t>
   </si>
   <si>
     <t xml:space="preserve">0.744352698326111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771258890628815</t>
+    <t xml:space="preserve">0.771258950233459</t>
   </si>
   <si>
     <t xml:space="preserve">0.776546835899353</t>
@@ -3929,10 +3929,10 @@
     <t xml:space="preserve">0.765659928321838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835958182811737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880672216415405</t>
+    <t xml:space="preserve">0.835958242416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88067227602005</t>
   </si>
   <si>
     <t xml:space="preserve">0.936661899089813</t>
@@ -3944,22 +3944,22 @@
     <t xml:space="preserve">0.886893272399902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898168981075287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89155912399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918776392936707</t>
+    <t xml:space="preserve">0.898169040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891559064388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918776273727417</t>
   </si>
   <si>
     <t xml:space="preserve">0.897002577781677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925775170326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989152312278748</t>
+    <t xml:space="preserve">0.925775110721588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989152371883392</t>
   </si>
   <si>
     <t xml:space="preserve">0.989930033683777</t>
@@ -3986,10 +3986,10 @@
     <t xml:space="preserve">1.01442551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970877885818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976321339607239</t>
+    <t xml:space="preserve">0.970877945423126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976321399211884</t>
   </si>
   <si>
     <t xml:space="preserve">0.960768640041351</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">0.977487802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0241459608078</t>
+    <t xml:space="preserve">1.02414608001709</t>
   </si>
   <si>
     <t xml:space="preserve">1.11046350002289</t>
@@ -4028,19 +4028,19 @@
     <t xml:space="preserve">1.00859332084656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932598114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896224915981293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879116892814636</t>
+    <t xml:space="preserve">0.975932538509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896224975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879116952419281</t>
   </si>
   <si>
     <t xml:space="preserve">0.838291049003601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879505813121796</t>
+    <t xml:space="preserve">0.879505753517151</t>
   </si>
   <si>
     <t xml:space="preserve">0.903612434864044</t>
@@ -4055,37 +4055,37 @@
     <t xml:space="preserve">0.897780239582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919942855834961</t>
+    <t xml:space="preserve">0.919942796230316</t>
   </si>
   <si>
     <t xml:space="preserve">0.969711542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988763570785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961546361446381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04319798946381</t>
+    <t xml:space="preserve">0.988763511180878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961546301841736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0431981086731</t>
   </si>
   <si>
     <t xml:space="preserve">0.945604801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870951771736145</t>
+    <t xml:space="preserve">0.8709517121315</t>
   </si>
   <si>
     <t xml:space="preserve">0.827793002128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869785308837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839846432209015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845289766788483</t>
+    <t xml:space="preserve">0.869785368442535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83984637260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845289826393127</t>
   </si>
   <si>
     <t xml:space="preserve">0.862397789955139</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">0.908278286457062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924608647823334</t>
+    <t xml:space="preserve">0.924608588218689</t>
   </si>
   <si>
     <t xml:space="preserve">1.00314974784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05097448825836</t>
+    <t xml:space="preserve">1.05097436904907</t>
   </si>
   <si>
     <t xml:space="preserve">1.03658807277679</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">1.01831364631653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940938949584961</t>
+    <t xml:space="preserve">0.940939009189606</t>
   </si>
   <si>
     <t xml:space="preserve">0.949881851673126</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">0.854232609272003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874062240123749</t>
+    <t xml:space="preserve">0.874062299728394</t>
   </si>
   <si>
     <t xml:space="preserve">0.878339350223541</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">0.76690411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770325779914856</t>
+    <t xml:space="preserve">0.770325720310211</t>
   </si>
   <si>
     <t xml:space="preserve">0.770481288433075</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">0.78852242231369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779579699039459</t>
+    <t xml:space="preserve">0.779579639434814</t>
   </si>
   <si>
     <t xml:space="preserve">0.724911868572235</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">0.737353980541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.758194625377655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814962029457092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84956681728363</t>
+    <t xml:space="preserve">0.7581946849823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814961969852448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849566757678986</t>
   </si>
   <si>
     <t xml:space="preserve">0.807185649871826</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">0.797854006290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820016622543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81923907995224</t>
+    <t xml:space="preserve">0.82001668214798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819239020347595</t>
   </si>
   <si>
     <t xml:space="preserve">0.844901025295258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854621410369873</t>
+    <t xml:space="preserve">0.854621469974518</t>
   </si>
   <si>
     <t xml:space="preserve">0.865508377552032</t>
@@ -4229,16 +4229,16 @@
     <t xml:space="preserve">0.944049537181854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947548925876617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956102907657623</t>
+    <t xml:space="preserve">0.947548866271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956102848052979</t>
   </si>
   <si>
     <t xml:space="preserve">0.935106694698334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967767417430878</t>
+    <t xml:space="preserve">0.967767477035522</t>
   </si>
   <si>
     <t xml:space="preserve">0.926163911819458</t>
@@ -4259,25 +4259,25 @@
     <t xml:space="preserve">0.998872816562653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954158842563629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937439620494843</t>
+    <t xml:space="preserve">0.954158782958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937439560890198</t>
   </si>
   <si>
     <t xml:space="preserve">0.89194792509079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882616281509399</t>
+    <t xml:space="preserve">0.882616341114044</t>
   </si>
   <si>
     <t xml:space="preserve">0.858509600162506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836347043514252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815350770950317</t>
+    <t xml:space="preserve">0.836346983909607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815350830554962</t>
   </si>
   <si>
     <t xml:space="preserve">0.832070052623749</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">0.824682474136353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829348206520081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816906094551086</t>
+    <t xml:space="preserve">0.829348266124725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816906154155731</t>
   </si>
   <si>
     <t xml:space="preserve">0.849955677986145</t>
@@ -4298,13 +4298,13 @@
     <t xml:space="preserve">0.851510882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872507035732269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868618905544281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897391438484192</t>
+    <t xml:space="preserve">0.872507095336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868618845939636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897391378879547</t>
   </si>
   <si>
     <t xml:space="preserve">0.893503248691559</t>
@@ -4316,22 +4316,22 @@
     <t xml:space="preserve">0.926552653312683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912944138050079</t>
+    <t xml:space="preserve">0.912944078445435</t>
   </si>
   <si>
     <t xml:space="preserve">0.937828421592712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952214598655701</t>
+    <t xml:space="preserve">0.952214658260345</t>
   </si>
   <si>
     <t xml:space="preserve">0.971655607223511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988374769687653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0556401014328</t>
+    <t xml:space="preserve">0.988374829292297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05564022064209</t>
   </si>
   <si>
     <t xml:space="preserve">1.12290573120117</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">1.18006193637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19211530685425</t>
+    <t xml:space="preserve">1.19211518764496</t>
   </si>
   <si>
     <t xml:space="preserve">1.18667185306549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20494627952576</t>
+    <t xml:space="preserve">1.20494616031647</t>
   </si>
   <si>
     <t xml:space="preserve">1.15128934383392</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.23799574375153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698682785034</t>
+    <t xml:space="preserve">1.28698670864105</t>
   </si>
   <si>
     <t xml:space="preserve">1.14001369476318</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">1.12873804569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15362226963043</t>
+    <t xml:space="preserve">1.15362238883972</t>
   </si>
   <si>
     <t xml:space="preserve">1.16684210300446</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">1.16606450080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15245592594147</t>
+    <t xml:space="preserve">1.15245580673218</t>
   </si>
   <si>
     <t xml:space="preserve">1.10463130474091</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">1.10929703712463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0960773229599</t>
+    <t xml:space="preserve">1.09607720375061</t>
   </si>
   <si>
     <t xml:space="preserve">1.03853225708008</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">1.09491086006165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15401113033295</t>
+    <t xml:space="preserve">1.15401101112366</t>
   </si>
   <si>
     <t xml:space="preserve">1.08985614776611</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">1.08052456378937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02686774730682</t>
+    <t xml:space="preserve">1.02686762809753</t>
   </si>
   <si>
     <t xml:space="preserve">1.02064669132233</t>
@@ -4469,28 +4469,28 @@
     <t xml:space="preserve">1.02803421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00353860855103</t>
+    <t xml:space="preserve">1.00353872776031</t>
   </si>
   <si>
     <t xml:space="preserve">0.99459582567215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986819565296173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973210871219635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956491649150848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966212093830109</t>
+    <t xml:space="preserve">0.986819446086884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97321081161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956491708755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966212153434753</t>
   </si>
   <si>
     <t xml:space="preserve">0.953769981861115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940161347389221</t>
+    <t xml:space="preserve">0.940161287784576</t>
   </si>
   <si>
     <t xml:space="preserve">0.933551430702209</t>
@@ -4502,31 +4502,31 @@
     <t xml:space="preserve">0.912555277347565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880283355712891</t>
+    <t xml:space="preserve">0.880283415317535</t>
   </si>
   <si>
     <t xml:space="preserve">0.853066146373749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892336785793304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916832268238068</t>
+    <t xml:space="preserve">0.89233672618866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916832327842712</t>
   </si>
   <si>
     <t xml:space="preserve">0.889226198196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933162689208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933940172195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980987250804901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960379898548126</t>
+    <t xml:space="preserve">0.93316262960434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933940291404724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980987191200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960379838943481</t>
   </si>
   <si>
     <t xml:space="preserve">0.98448657989502</t>
@@ -5211,6 +5211,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.61699998378754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62800002098083</t>
   </si>
 </sst>
 </file>
@@ -61322,7 +61325,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6509375</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>1989833</v>
@@ -61343,6 +61346,32 @@
         <v>1732</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6493865741</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>1739210</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>1.62950003147125</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>1.61600005626678</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>1.62950003147125</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>1.62800002098083</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1735">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,34 +44,34 @@
     <t xml:space="preserve">SRS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982317864894867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985255300998688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960579872131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964105010032654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993480563163757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992893159389496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04576897621155</t>
+    <t xml:space="preserve">0.982317805290222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985255420207977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960579931735992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964104950428009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993480503559113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992892980575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04576909542084</t>
   </si>
   <si>
     <t xml:space="preserve">1.04165637493134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02814376354218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03695642948151</t>
+    <t xml:space="preserve">1.02814364433289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03695631027222</t>
   </si>
   <si>
     <t xml:space="preserve">1.05693173408508</t>
@@ -92,16 +92,16 @@
     <t xml:space="preserve">1.1456458568573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1468209028244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11509525775909</t>
+    <t xml:space="preserve">1.14682078361511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11509537696838</t>
   </si>
   <si>
     <t xml:space="preserve">1.12802040576935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14035820960999</t>
+    <t xml:space="preserve">1.1403580904007</t>
   </si>
   <si>
     <t xml:space="preserve">1.11098265647888</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">1.02755618095398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.957642436027527</t>
+    <t xml:space="preserve">0.957642376422882</t>
   </si>
   <si>
     <t xml:space="preserve">0.853653013706207</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">0.810764729976654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81663978099823</t>
+    <t xml:space="preserve">0.816639840602875</t>
   </si>
   <si>
     <t xml:space="preserve">0.873040795326233</t>
@@ -137,16 +137,16 @@
     <t xml:space="preserve">0.86364072561264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872453331947327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887728691101074</t>
+    <t xml:space="preserve">0.872453391551971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887728631496429</t>
   </si>
   <si>
     <t xml:space="preserve">0.881853580474854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860703110694885</t>
+    <t xml:space="preserve">0.86070317029953</t>
   </si>
   <si>
     <t xml:space="preserve">0.842490255832672</t>
@@ -155,16 +155,16 @@
     <t xml:space="preserve">0.850127995014191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94001704454422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904178977012634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916516602039337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895366251468658</t>
+    <t xml:space="preserve">0.94001692533493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904179036617279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916516661643982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895366191864014</t>
   </si>
   <si>
     <t xml:space="preserve">0.851890504360199</t>
@@ -173,16 +173,16 @@
     <t xml:space="preserve">0.807827174663544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776101589202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.764938950538635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.757888734340668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831915020942688</t>
+    <t xml:space="preserve">0.776101529598236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76493889093399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.757888674736023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831915080547333</t>
   </si>
   <si>
     <t xml:space="preserve">0.820164859294891</t>
@@ -197,13 +197,13 @@
     <t xml:space="preserve">0.833677589893341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823102414608002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817227363586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827214956283569</t>
+    <t xml:space="preserve">0.823102474212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817227303981781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827215015888214</t>
   </si>
   <si>
     <t xml:space="preserve">0.828977584838867</t>
@@ -212,34 +212,34 @@
     <t xml:space="preserve">0.843077719211578</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865403115749359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837790131568909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830739974975586</t>
+    <t xml:space="preserve">0.865403234958649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837790071964264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830740034580231</t>
   </si>
   <si>
     <t xml:space="preserve">0.84660279750824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848952949047089</t>
+    <t xml:space="preserve">0.848952889442444</t>
   </si>
   <si>
     <t xml:space="preserve">0.860115587711334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846015334129333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834265053272247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822514951229095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845427751541138</t>
+    <t xml:space="preserve">0.846015274524689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834265172481537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822514891624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845427870750427</t>
   </si>
   <si>
     <t xml:space="preserve">0.868340730667114</t>
@@ -248,40 +248,40 @@
     <t xml:space="preserve">0.92062920331955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915929079055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941426753998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89301609992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553525924683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578102111816</t>
+    <t xml:space="preserve">0.915929019451141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941545963287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893016159534454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553466320038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578221321106</t>
   </si>
   <si>
     <t xml:space="preserve">0.869515776634216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88244104385376</t>
+    <t xml:space="preserve">0.882440984249115</t>
   </si>
   <si>
     <t xml:space="preserve">0.864228188991547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835440158843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826039910316467</t>
+    <t xml:space="preserve">0.835440218448639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826040029525757</t>
   </si>
   <si>
     <t xml:space="preserve">0.83015251159668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831327557563782</t>
+    <t xml:space="preserve">0.831327497959137</t>
   </si>
   <si>
     <t xml:space="preserve">0.9071164727211</t>
@@ -290,40 +290,40 @@
     <t xml:space="preserve">0.924741804599762</t>
   </si>
   <si>
-    <t xml:space="preserve">0.945304691791534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93707948923111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928854286670685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961769044399261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987442672252655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994025588035583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03483986854553</t>
+    <t xml:space="preserve">0.945304572582245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937079548835754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92885422706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961769104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98744261264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994025468826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03483998775482</t>
   </si>
   <si>
     <t xml:space="preserve">1.04010629653931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04076457023621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03615641593933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05327212810516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05261385440826</t>
+    <t xml:space="preserve">1.04076445102692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03615653514862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05327200889587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05261373519897</t>
   </si>
   <si>
     <t xml:space="preserve">1.05458867549896</t>
@@ -332,55 +332,55 @@
     <t xml:space="preserve">1.05393040180206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07367932796478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11646842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09276986122131</t>
+    <t xml:space="preserve">1.07367944717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11646854877472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09276974201202</t>
   </si>
   <si>
     <t xml:space="preserve">1.03878962993622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02299046516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98283463716507</t>
+    <t xml:space="preserve">1.02299058437347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982834696769714</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367195129395</t>
+    <t xml:space="preserve">0.993367254734039</t>
   </si>
   <si>
     <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07565426826477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07302093505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10132777690887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.015749335289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959135949611664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97756814956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972301781177521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02628207206726</t>
+    <t xml:space="preserve">1.07565414905548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07302105426788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10132765769958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01574921607971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959136009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977568209171295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972301959991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02628195285797</t>
   </si>
   <si>
     <t xml:space="preserve">1.04668915271759</t>
@@ -389,16 +389,16 @@
     <t xml:space="preserve">1.02035737037659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961110770702362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938728749752045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936095654964447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956502676010132</t>
+    <t xml:space="preserve">0.961110889911652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9387286901474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936095714569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956502735614777</t>
   </si>
   <si>
     <t xml:space="preserve">0.951894700527191</t>
@@ -407,13 +407,13 @@
     <t xml:space="preserve">0.936753928661346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946628272533417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939387142658234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949919700622559</t>
+    <t xml:space="preserve">0.946628212928772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939387083053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949919760227203</t>
   </si>
   <si>
     <t xml:space="preserve">0.948603212833405</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">0.974276721477509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954527854919434</t>
+    <t xml:space="preserve">0.954527974128723</t>
   </si>
   <si>
     <t xml:space="preserve">0.997975409030914</t>
@@ -431,19 +431,19 @@
     <t xml:space="preserve">0.9235879778862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836034774780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80970287322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832085013389587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851833879947662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88869845867157</t>
+    <t xml:space="preserve">0.836034834384918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.809702932834625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832085072994232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851833999156952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88869833946228</t>
   </si>
   <si>
     <t xml:space="preserve">0.884090304374695</t>
@@ -452,19 +452,19 @@
     <t xml:space="preserve">0.871582686901093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87355762720108</t>
+    <t xml:space="preserve">0.873557686805725</t>
   </si>
   <si>
     <t xml:space="preserve">0.880798876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886723458766937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890673279762268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870924353599548</t>
+    <t xml:space="preserve">0.886723399162292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890673220157623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870924293994904</t>
   </si>
   <si>
     <t xml:space="preserve">0.866974651813507</t>
@@ -473,10 +473,10 @@
     <t xml:space="preserve">0.884748518466949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88343209028244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874215841293335</t>
+    <t xml:space="preserve">0.883431971073151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87421578168869</t>
   </si>
   <si>
     <t xml:space="preserve">0.870266139507294</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">0.881457149982452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882773697376251</t>
+    <t xml:space="preserve">0.882773756980896</t>
   </si>
   <si>
     <t xml:space="preserve">0.887381792068481</t>
@@ -497,13 +497,13 @@
     <t xml:space="preserve">0.880140483379364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921613216400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934778988361359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947944939136505</t>
+    <t xml:space="preserve">0.921613097190857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934779047966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94794487953186</t>
   </si>
   <si>
     <t xml:space="preserve">0.947286665439606</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">0.902522683143616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895281314849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90318089723587</t>
+    <t xml:space="preserve">0.895281374454498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903180837631226</t>
   </si>
   <si>
     <t xml:space="preserve">0.917005062103271</t>
@@ -527,10 +527,10 @@
     <t xml:space="preserve">0.940045297145844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934120833873749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911080241203308</t>
+    <t xml:space="preserve">0.934120714664459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911080360412598</t>
   </si>
   <si>
     <t xml:space="preserve">0.912397027015686</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">0.913713693618774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931487500667572</t>
+    <t xml:space="preserve">0.931487441062927</t>
   </si>
   <si>
     <t xml:space="preserve">0.918979942798615</t>
@@ -548,25 +548,25 @@
     <t xml:space="preserve">0.909763813018799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926879525184631</t>
+    <t xml:space="preserve">0.926879465579987</t>
   </si>
   <si>
     <t xml:space="preserve">0.920296549797058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9380704164505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964402318000793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970326960086823</t>
+    <t xml:space="preserve">0.938070476055145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964402377605438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970327019691467</t>
   </si>
   <si>
     <t xml:space="preserve">0.988759160041809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984151184558868</t>
+    <t xml:space="preserve">0.984151124954224</t>
   </si>
   <si>
     <t xml:space="preserve">0.992708921432495</t>
@@ -575,16 +575,16 @@
     <t xml:space="preserve">1.04142284393311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03549802303314</t>
+    <t xml:space="preserve">1.03549814224243</t>
   </si>
   <si>
     <t xml:space="preserve">1.03154838085175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05919682979584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03813147544861</t>
+    <t xml:space="preserve">1.05919671058655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03813135623932</t>
   </si>
   <si>
     <t xml:space="preserve">1.03023183345795</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">1.02167403697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03418147563934</t>
+    <t xml:space="preserve">1.03418159484863</t>
   </si>
   <si>
     <t xml:space="preserve">1.01838266849518</t>
@@ -623,13 +623,13 @@
     <t xml:space="preserve">1.08750343322754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07960391044617</t>
+    <t xml:space="preserve">1.07960402965546</t>
   </si>
   <si>
     <t xml:space="preserve">1.05788016319275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06380498409271</t>
+    <t xml:space="preserve">1.06380486488342</t>
   </si>
   <si>
     <t xml:space="preserve">1.13819217681885</t>
@@ -638,34 +638,34 @@
     <t xml:space="preserve">1.11120200157166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12305128574371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08421182632446</t>
+    <t xml:space="preserve">1.123051404953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08421194553375</t>
   </si>
   <si>
     <t xml:space="preserve">1.07697081565857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09145331382751</t>
+    <t xml:space="preserve">1.09145319461823</t>
   </si>
   <si>
     <t xml:space="preserve">1.096719622612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11778497695923</t>
+    <t xml:space="preserve">1.11778509616852</t>
   </si>
   <si>
     <t xml:space="preserve">1.13095092773438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11186039447784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12568461894989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13226747512817</t>
+    <t xml:space="preserve">1.11186051368713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12568473815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13226759433746</t>
   </si>
   <si>
     <t xml:space="preserve">1.13885056972504</t>
@@ -677,10 +677,10 @@
     <t xml:space="preserve">1.14543342590332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14740824699402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15596628189087</t>
+    <t xml:space="preserve">1.14740836620331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15596616268158</t>
   </si>
   <si>
     <t xml:space="preserve">1.14016711711884</t>
@@ -689,67 +689,67 @@
     <t xml:space="preserve">1.14082539081573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11910176277161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1243679523468</t>
+    <t xml:space="preserve">1.11910164356232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12436807155609</t>
   </si>
   <si>
     <t xml:space="preserve">1.12831783294678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09079504013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0973778963089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08684515953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01904082298279</t>
+    <t xml:space="preserve">1.09079492092133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09737801551819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08684527873993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0190407037735</t>
   </si>
   <si>
     <t xml:space="preserve">1.02364885807037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02496552467346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02562367916107</t>
+    <t xml:space="preserve">1.02496540546417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02562379837036</t>
   </si>
   <si>
     <t xml:space="preserve">0.988100945949554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940703690052032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93346244096756</t>
+    <t xml:space="preserve">0.940703630447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933462381362915</t>
   </si>
   <si>
     <t xml:space="preserve">0.935437262058258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953869521617889</t>
+    <t xml:space="preserve">0.953869640827179</t>
   </si>
   <si>
     <t xml:space="preserve">0.999950230121613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00521659851074</t>
+    <t xml:space="preserve">1.00521647930145</t>
   </si>
   <si>
     <t xml:space="preserve">1.0170658826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00916635990143</t>
+    <t xml:space="preserve">1.00916647911072</t>
   </si>
   <si>
     <t xml:space="preserve">1.03088998794556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0460307598114</t>
+    <t xml:space="preserve">1.04603087902069</t>
   </si>
   <si>
     <t xml:space="preserve">1.07170450687408</t>
@@ -758,28 +758,28 @@
     <t xml:space="preserve">1.13424253463745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10396099090576</t>
+    <t xml:space="preserve">1.10396087169647</t>
   </si>
   <si>
     <t xml:space="preserve">1.10066938400269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0947448015213</t>
+    <t xml:space="preserve">1.09474468231201</t>
   </si>
   <si>
     <t xml:space="preserve">1.12041831016541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12765955924988</t>
+    <t xml:space="preserve">1.12765967845917</t>
   </si>
   <si>
     <t xml:space="preserve">1.12634289264679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1223931312561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11975991725922</t>
+    <t xml:space="preserve">1.12239325046539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11976003646851</t>
   </si>
   <si>
     <t xml:space="preserve">1.13490080833435</t>
@@ -791,16 +791,16 @@
     <t xml:space="preserve">1.16913211345673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18032312393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17176520824432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16584074497223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17374014854431</t>
+    <t xml:space="preserve">1.1803230047226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17176532745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16584062576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1737402677536</t>
   </si>
   <si>
     <t xml:space="preserve">1.17900657653809</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">1.18229806423187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17308175563812</t>
+    <t xml:space="preserve">1.17308187484741</t>
   </si>
   <si>
     <t xml:space="preserve">1.19941365718842</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">1.21652936935425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21389603614807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22706198692322</t>
+    <t xml:space="preserve">1.21389615535736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22706210613251</t>
   </si>
   <si>
     <t xml:space="preserve">1.21784591674805</t>
@@ -830,25 +830,25 @@
     <t xml:space="preserve">1.204021692276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19546377658844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22179567813873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22772037982941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21455442905426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21587109565735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23167014122009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25339388847351</t>
+    <t xml:space="preserve">1.19546389579773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22179555892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2277204990387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21455430984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21587085723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23167026042938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25339376926422</t>
   </si>
   <si>
     <t xml:space="preserve">1.26853466033936</t>
@@ -863,31 +863,31 @@
     <t xml:space="preserve">1.27182614803314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28696691989899</t>
+    <t xml:space="preserve">1.28696703910828</t>
   </si>
   <si>
     <t xml:space="preserve">1.3093489408493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32448971271515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32843935489655</t>
+    <t xml:space="preserve">1.32448983192444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32843947410583</t>
   </si>
   <si>
     <t xml:space="preserve">1.3613543510437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35213792324066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35608792304993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35872101783752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3916357755661</t>
+    <t xml:space="preserve">1.35213804244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35608780384064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35872113704681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39163589477539</t>
   </si>
   <si>
     <t xml:space="preserve">1.40875160694122</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">1.48116385936737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169671535492</t>
+    <t xml:space="preserve">1.49169683456421</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169659614563</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">1.39803516864777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38701629638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38288390636444</t>
+    <t xml:space="preserve">1.38701617717743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38288402557373</t>
   </si>
   <si>
     <t xml:space="preserve">1.48343241214752</t>
@@ -932,25 +932,25 @@
     <t xml:space="preserve">1.43522441387177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43246960639954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45313024520874</t>
+    <t xml:space="preserve">1.43246948719025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45313012599945</t>
   </si>
   <si>
     <t xml:space="preserve">1.51235747337341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57158446311951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53301799297333</t>
+    <t xml:space="preserve">1.57158434391022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53301787376404</t>
   </si>
   <si>
     <t xml:space="preserve">1.53990483283997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51511192321777</t>
+    <t xml:space="preserve">1.51511204242706</t>
   </si>
   <si>
     <t xml:space="preserve">1.43935632705688</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">1.47792291641235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45175278186798</t>
+    <t xml:space="preserve">1.45175290107727</t>
   </si>
   <si>
     <t xml:space="preserve">1.45863974094391</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">1.42282795906067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41594099998474</t>
+    <t xml:space="preserve">1.41594111919403</t>
   </si>
   <si>
     <t xml:space="preserve">1.40354478359222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45450758934021</t>
+    <t xml:space="preserve">1.45450747013092</t>
   </si>
   <si>
     <t xml:space="preserve">1.44624316692352</t>
@@ -989,19 +989,19 @@
     <t xml:space="preserve">1.42558264732361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42971479892731</t>
+    <t xml:space="preserve">1.42971467971802</t>
   </si>
   <si>
     <t xml:space="preserve">1.44073379039764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43660163879395</t>
+    <t xml:space="preserve">1.43660175800323</t>
   </si>
   <si>
     <t xml:space="preserve">1.45588493347168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47654569149017</t>
+    <t xml:space="preserve">1.47654557228088</t>
   </si>
   <si>
     <t xml:space="preserve">1.51786673069</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">1.55643332004547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54403710365295</t>
+    <t xml:space="preserve">1.54403698444366</t>
   </si>
   <si>
     <t xml:space="preserve">1.52888584136963</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">1.27820360660553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25960898399353</t>
+    <t xml:space="preserve">1.25960910320282</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062797546387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28095829486847</t>
+    <t xml:space="preserve">1.28095841407776</t>
   </si>
   <si>
     <t xml:space="preserve">1.32021355628967</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258185863495</t>
+    <t xml:space="preserve">1.35258173942566</t>
   </si>
   <si>
     <t xml:space="preserve">1.29748690128326</t>
@@ -1058,13 +1058,13 @@
     <t xml:space="preserve">1.28233575820923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29542076587677</t>
+    <t xml:space="preserve">1.29542088508606</t>
   </si>
   <si>
     <t xml:space="preserve">1.2899112701416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31608140468597</t>
+    <t xml:space="preserve">1.31608152389526</t>
   </si>
   <si>
     <t xml:space="preserve">1.33674204349518</t>
@@ -1076,25 +1076,25 @@
     <t xml:space="preserve">1.3332986831665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34018540382385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33880805969238</t>
+    <t xml:space="preserve">1.34018552303314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33880817890167</t>
   </si>
   <si>
     <t xml:space="preserve">1.3739310503006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41180884838104</t>
+    <t xml:space="preserve">1.41180896759033</t>
   </si>
   <si>
     <t xml:space="preserve">1.41869580745697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46001696586609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45037531852722</t>
+    <t xml:space="preserve">1.46001708507538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45037543773651</t>
   </si>
   <si>
     <t xml:space="preserve">1.44762063026428</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">1.51098001003265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56194269657135</t>
+    <t xml:space="preserve">1.56194281578064</t>
   </si>
   <si>
     <t xml:space="preserve">1.53852736949921</t>
@@ -1127,13 +1127,13 @@
     <t xml:space="preserve">1.57433915138245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51648914813995</t>
+    <t xml:space="preserve">1.51648938655853</t>
   </si>
   <si>
     <t xml:space="preserve">1.51924419403076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50684773921967</t>
+    <t xml:space="preserve">1.50684785842896</t>
   </si>
   <si>
     <t xml:space="preserve">1.49582874774933</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">1.50822520256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52750837802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5509238243103</t>
+    <t xml:space="preserve">1.52750849723816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55092370510101</t>
   </si>
   <si>
     <t xml:space="preserve">1.60050916671753</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">1.62117004394531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6184149980545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58949041366577</t>
+    <t xml:space="preserve">1.61841511726379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58949053287506</t>
   </si>
   <si>
     <t xml:space="preserve">1.4848096370697</t>
@@ -1172,16 +1172,16 @@
     <t xml:space="preserve">1.52062153816223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55230116844177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5219988822937</t>
+    <t xml:space="preserve">1.55230104923248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52199900150299</t>
   </si>
   <si>
     <t xml:space="preserve">1.49720621109009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42145049571991</t>
+    <t xml:space="preserve">1.4214506149292</t>
   </si>
   <si>
     <t xml:space="preserve">1.43384695053101</t>
@@ -1193,31 +1193,31 @@
     <t xml:space="preserve">1.37599718570709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37117636203766</t>
+    <t xml:space="preserve">1.37117648124695</t>
   </si>
   <si>
     <t xml:space="preserve">1.38839364051819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37530851364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36360096931458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35051560401917</t>
+    <t xml:space="preserve">1.37530839443207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36360085010529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35051584243774</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34087419509888</t>
+    <t xml:space="preserve">1.34087431430817</t>
   </si>
   <si>
     <t xml:space="preserve">1.36222350597382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34294033050537</t>
+    <t xml:space="preserve">1.34294021129608</t>
   </si>
   <si>
     <t xml:space="preserve">1.36979901790619</t>
@@ -1226,10 +1226,10 @@
     <t xml:space="preserve">1.36428952217102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36704432964325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38977086544037</t>
+    <t xml:space="preserve">1.36704421043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38977098464966</t>
   </si>
   <si>
     <t xml:space="preserve">1.38012933731079</t>
@@ -1238,16 +1238,16 @@
     <t xml:space="preserve">1.35533666610718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37737464904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36842167377472</t>
+    <t xml:space="preserve">1.37737452983856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36842155456543</t>
   </si>
   <si>
     <t xml:space="preserve">1.36635553836823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21966528892517</t>
+    <t xml:space="preserve">1.21966516971588</t>
   </si>
   <si>
     <t xml:space="preserve">1.23963701725006</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">1.25134479999542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24927866458893</t>
+    <t xml:space="preserve">1.24927878379822</t>
   </si>
   <si>
     <t xml:space="preserve">1.22586333751678</t>
@@ -1268,19 +1268,19 @@
     <t xml:space="preserve">1.24721264839172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21553289890289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19900465011597</t>
+    <t xml:space="preserve">1.21553301811218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19900453090668</t>
   </si>
   <si>
     <t xml:space="preserve">1.22104263305664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21002352237701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2058914899826</t>
+    <t xml:space="preserve">1.2100236415863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20589137077332</t>
   </si>
   <si>
     <t xml:space="preserve">1.21140098571777</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">1.19969320297241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21277844905853</t>
+    <t xml:space="preserve">1.21277832984924</t>
   </si>
   <si>
     <t xml:space="preserve">1.1645702123642</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">1.15699470043182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15217387676239</t>
+    <t xml:space="preserve">1.1521737575531</t>
   </si>
   <si>
     <t xml:space="preserve">1.12600362300873</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">1.12669241428375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14322090148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13357925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23137295246124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18936288356781</t>
+    <t xml:space="preserve">1.14322078227997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1335791349411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23137283325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1893630027771</t>
   </si>
   <si>
     <t xml:space="preserve">1.17352306842804</t>
@@ -1343,22 +1343,22 @@
     <t xml:space="preserve">1.1728343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17558932304382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17696666717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17076849937439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26029777526855</t>
+    <t xml:space="preserve">1.17558920383453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.176966547966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1707683801651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26029789447784</t>
   </si>
   <si>
     <t xml:space="preserve">1.3023077249527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27682638168335</t>
+    <t xml:space="preserve">1.27682626247406</t>
   </si>
   <si>
     <t xml:space="preserve">1.30988311767578</t>
@@ -1373,25 +1373,25 @@
     <t xml:space="preserve">1.26649594306946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21071231365204</t>
+    <t xml:space="preserve">1.21071219444275</t>
   </si>
   <si>
     <t xml:space="preserve">1.22792947292328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2506560087204</t>
+    <t xml:space="preserve">1.25065612792969</t>
   </si>
   <si>
     <t xml:space="preserve">1.24239194393158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27200543880463</t>
+    <t xml:space="preserve">1.27200531959534</t>
   </si>
   <si>
     <t xml:space="preserve">1.29473197460175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.298175573349</t>
+    <t xml:space="preserve">1.29817545413971</t>
   </si>
   <si>
     <t xml:space="preserve">1.3229683637619</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">1.279580950737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26718473434448</t>
+    <t xml:space="preserve">1.26718461513519</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26374125480652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26993930339813</t>
+    <t xml:space="preserve">1.26374113559723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26993942260742</t>
   </si>
   <si>
     <t xml:space="preserve">1.29955291748047</t>
@@ -1424,25 +1424,25 @@
     <t xml:space="preserve">1.32985520362854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39252579212189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40905427932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42007327079773</t>
+    <t xml:space="preserve">1.3925256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4090541601181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42007315158844</t>
   </si>
   <si>
     <t xml:space="preserve">1.39114820957184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3966578245163</t>
+    <t xml:space="preserve">1.39665794372559</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34156286716461</t>
+    <t xml:space="preserve">1.34156274795532</t>
   </si>
   <si>
     <t xml:space="preserve">1.30781722068787</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">1.40265047550201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37692058086395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36001229286194</t>
+    <t xml:space="preserve">1.37692046165466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36001217365265</t>
   </si>
   <si>
     <t xml:space="preserve">1.38427197933197</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">1.42543983459473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41000187397003</t>
+    <t xml:space="preserve">1.41000175476074</t>
   </si>
   <si>
     <t xml:space="preserve">1.42176413536072</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">1.47469437122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48645675182343</t>
+    <t xml:space="preserve">1.48645663261414</t>
   </si>
   <si>
     <t xml:space="preserve">1.52468395233154</t>
@@ -1493,19 +1493,19 @@
     <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49968922138214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4967485666275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4908674955368</t>
+    <t xml:space="preserve">1.49968910217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49674868583679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49086761474609</t>
   </si>
   <si>
     <t xml:space="preserve">1.52615427970886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51439189910889</t>
+    <t xml:space="preserve">1.51439201831818</t>
   </si>
   <si>
     <t xml:space="preserve">1.56585204601288</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">1.55555987358093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55261933803558</t>
+    <t xml:space="preserve">1.55261945724487</t>
   </si>
   <si>
     <t xml:space="preserve">1.50262975692749</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792684078217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47910523414612</t>
+    <t xml:space="preserve">1.48792695999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47910535335541</t>
   </si>
   <si>
     <t xml:space="preserve">1.50115954875946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50998115539551</t>
+    <t xml:space="preserve">1.50998103618622</t>
   </si>
   <si>
     <t xml:space="preserve">1.52321374416351</t>
@@ -1544,19 +1544,19 @@
     <t xml:space="preserve">1.46660780906677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46366727352142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45558059215546</t>
+    <t xml:space="preserve">1.46366739273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45558071136475</t>
   </si>
   <si>
     <t xml:space="preserve">1.45043480396271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44381844997406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42911553382874</t>
+    <t xml:space="preserve">1.44381833076477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42911565303802</t>
   </si>
   <si>
     <t xml:space="preserve">1.37912607192993</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">1.43058586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42396950721741</t>
+    <t xml:space="preserve">1.4239696264267</t>
   </si>
   <si>
     <t xml:space="preserve">1.43940758705139</t>
@@ -1583,28 +1583,28 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44675898551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46146190166473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48498642444611</t>
+    <t xml:space="preserve">1.4467591047287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46146178245544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48498630523682</t>
   </si>
   <si>
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762472629547</t>
+    <t xml:space="preserve">1.52762460708618</t>
   </si>
   <si>
     <t xml:space="preserve">1.56144118309021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5732034444809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55114901065826</t>
+    <t xml:space="preserve">1.57320332527161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55114912986755</t>
   </si>
   <si>
     <t xml:space="preserve">1.58643591403961</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.57173311710358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57026278972626</t>
+    <t xml:space="preserve">1.57026267051697</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025249004364</t>
@@ -1625,16 +1625,16 @@
     <t xml:space="preserve">1.63495528697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64377701282501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64524710178375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62760376930237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113883018494</t>
+    <t xml:space="preserve">1.64377689361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64524722099304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62760388851166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113871097565</t>
   </si>
   <si>
     <t xml:space="preserve">1.62466335296631</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">1.37471508979797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39529895782471</t>
+    <t xml:space="preserve">1.395299077034</t>
   </si>
   <si>
     <t xml:space="preserve">1.40191531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147208213806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.408531665802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39971005916595</t>
+    <t xml:space="preserve">1.41147220134735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40853154659271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39970993995667</t>
   </si>
   <si>
     <t xml:space="preserve">1.40118026733398</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">1.35486626625061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3453094959259</t>
+    <t xml:space="preserve">1.34530937671661</t>
   </si>
   <si>
     <t xml:space="preserve">1.28943860530853</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">1.28649806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21665954589844</t>
+    <t xml:space="preserve">1.21665966510773</t>
   </si>
   <si>
     <t xml:space="preserve">1.2556220293045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25415170192719</t>
+    <t xml:space="preserve">1.25415182113647</t>
   </si>
   <si>
     <t xml:space="preserve">1.28355753421783</t>
@@ -1718,19 +1718,19 @@
     <t xml:space="preserve">1.2975252866745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31590366363525</t>
+    <t xml:space="preserve">1.31590378284454</t>
   </si>
   <si>
     <t xml:space="preserve">1.30855226516724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31516873836517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28576278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29017388820648</t>
+    <t xml:space="preserve">1.31516861915588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28576290607452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29017376899719</t>
   </si>
   <si>
     <t xml:space="preserve">1.2497410774231</t>
@@ -1739,16 +1739,16 @@
     <t xml:space="preserve">1.27841150760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24091935157776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24459493160248</t>
+    <t xml:space="preserve">1.24091923236847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24459505081177</t>
   </si>
   <si>
     <t xml:space="preserve">1.25121128559113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31222796440125</t>
+    <t xml:space="preserve">1.31222808361053</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">1.26591420173645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30928754806519</t>
+    <t xml:space="preserve">1.3092874288559</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811957359314</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327601909637</t>
+    <t xml:space="preserve">1.22327589988708</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2365083694458</t>
+    <t xml:space="preserve">1.23650848865509</t>
   </si>
   <si>
     <t xml:space="preserve">1.23356783390045</t>
@@ -1793,22 +1793,22 @@
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768664360046</t>
+    <t xml:space="preserve">1.22768676280975</t>
   </si>
   <si>
     <t xml:space="preserve">1.3225200176239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3166389465332</t>
+    <t xml:space="preserve">1.31663882732391</t>
   </si>
   <si>
     <t xml:space="preserve">1.29164409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26150321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25856280326843</t>
+    <t xml:space="preserve">1.26150333881378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25856256484985</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1817,25 +1817,25 @@
     <t xml:space="preserve">1.24680042266846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24312460422516</t>
+    <t xml:space="preserve">1.24312472343445</t>
   </si>
   <si>
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28796827793121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29679000377655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24165439605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2401841878891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28870356082916</t>
+    <t xml:space="preserve">1.2879683971405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29679012298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24165451526642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24018406867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28870344161987</t>
   </si>
   <si>
     <t xml:space="preserve">1.27914667129517</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502786159515</t>
+    <t xml:space="preserve">1.28502774238586</t>
   </si>
   <si>
     <t xml:space="preserve">1.28135216236115</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">1.36589348316193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3511905670166</t>
+    <t xml:space="preserve">1.35119068622589</t>
   </si>
   <si>
     <t xml:space="preserve">1.32325518131256</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31810915470123</t>
+    <t xml:space="preserve">1.31810927391052</t>
   </si>
   <si>
     <t xml:space="preserve">1.31149291992188</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">1.28723323345184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2842925786972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3129631280899</t>
+    <t xml:space="preserve">1.28429269790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31296324729919</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060657978058</t>
@@ -1904,10 +1904,10 @@
     <t xml:space="preserve">1.33428239822388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35266077518463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31737399101257</t>
+    <t xml:space="preserve">1.35266089439392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31737411022186</t>
   </si>
   <si>
     <t xml:space="preserve">1.27694118022919</t>
@@ -1916,37 +1916,37 @@
     <t xml:space="preserve">1.30046582221985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27767646312714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29826045036316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30340623855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27326548099518</t>
+    <t xml:space="preserve">1.27767634391785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29826033115387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3034063577652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27326560020447</t>
   </si>
   <si>
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134186267853</t>
+    <t xml:space="preserve">1.33134174346924</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531967639923</t>
+    <t xml:space="preserve">1.29531979560852</t>
   </si>
   <si>
     <t xml:space="preserve">1.2747358083725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27253043651581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26958978176117</t>
+    <t xml:space="preserve">1.27253031730652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26958990097046</t>
   </si>
   <si>
     <t xml:space="preserve">1.23797869682312</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">1.21445417404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371912956238</t>
+    <t xml:space="preserve">1.21371901035309</t>
   </si>
   <si>
     <t xml:space="preserve">1.21592450141907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2056325674057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22915697097778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25194644927979</t>
+    <t xml:space="preserve">1.20563244819641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22915709018707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2519463300705</t>
   </si>
   <si>
     <t xml:space="preserve">1.22989225387573</t>
@@ -1985,22 +1985,22 @@
     <t xml:space="preserve">1.21518933773041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22695159912109</t>
+    <t xml:space="preserve">1.2269514799118</t>
   </si>
   <si>
     <t xml:space="preserve">1.23724353313446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23871386051178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20857310295105</t>
+    <t xml:space="preserve">1.23871374130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20857298374176</t>
   </si>
   <si>
     <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18137276172638</t>
+    <t xml:space="preserve">1.18137288093567</t>
   </si>
   <si>
     <t xml:space="preserve">1.17034566402435</t>
@@ -2009,37 +2009,37 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711319446564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13358855247498</t>
+    <t xml:space="preserve">1.15711307525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13358867168427</t>
   </si>
   <si>
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448519229889</t>
+    <t xml:space="preserve">1.06448531150818</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0336092710495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06522035598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10859370231628</t>
+    <t xml:space="preserve">1.03360939025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06522047519684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10859382152557</t>
   </si>
   <si>
     <t xml:space="preserve">1.08653962612152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08727467060089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07624757289886</t>
+    <t xml:space="preserve">1.0872745513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07624745368958</t>
   </si>
   <si>
     <t xml:space="preserve">1.08713448047638</t>
@@ -5214,6 +5214,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.62800002098083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63750004768372</t>
   </si>
 </sst>
 </file>
@@ -61351,7 +61354,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6493865741</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>1739210</v>
@@ -61372,6 +61375,32 @@
         <v>1733</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6496412037</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>1316441</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>1.64250004291534</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>1.62399995326996</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>1.63499999046326</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>1.63750004768372</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1736">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170576572418</t>
+    <t xml:space="preserve">1.00170564651489</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">0.982317805290222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985255420207977</t>
+    <t xml:space="preserve">0.985255479812622</t>
   </si>
   <si>
     <t xml:space="preserve">0.960579931735992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964104950428009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993480503559113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992892980575562</t>
+    <t xml:space="preserve">0.964105069637299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993480443954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992893099784851</t>
   </si>
   <si>
     <t xml:space="preserve">1.04576909542084</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">1.03695631027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05693173408508</t>
+    <t xml:space="preserve">1.05693161487579</t>
   </si>
   <si>
     <t xml:space="preserve">1.02579367160797</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">1.07749450206757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08101963996887</t>
+    <t xml:space="preserve">1.08101952075958</t>
   </si>
   <si>
     <t xml:space="preserve">1.13565814495087</t>
@@ -95,82 +95,82 @@
     <t xml:space="preserve">1.14682078361511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11509537696838</t>
+    <t xml:space="preserve">1.11509525775909</t>
   </si>
   <si>
     <t xml:space="preserve">1.12802040576935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1403580904007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11098265647888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09100723266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02755618095398</t>
+    <t xml:space="preserve">1.14035820960999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11098277568817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09100735187531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02755606174469</t>
   </si>
   <si>
     <t xml:space="preserve">0.957642376422882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853653013706207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829565048217773</t>
+    <t xml:space="preserve">0.853652954101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829564988613129</t>
   </si>
   <si>
     <t xml:space="preserve">0.840140223503113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.810764729976654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816639840602875</t>
+    <t xml:space="preserve">0.810764670372009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81663978099823</t>
   </si>
   <si>
     <t xml:space="preserve">0.873040795326233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86364072561264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872453391551971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887728631496429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881853580474854</t>
+    <t xml:space="preserve">0.863640666007996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872453212738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887728571891785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881853520870209</t>
   </si>
   <si>
     <t xml:space="preserve">0.86070317029953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842490255832672</t>
+    <t xml:space="preserve">0.842490434646606</t>
   </si>
   <si>
     <t xml:space="preserve">0.850127995014191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94001692533493</t>
+    <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
     <t xml:space="preserve">0.904179036617279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916516661643982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895366191864014</t>
+    <t xml:space="preserve">0.916516602039337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895366370677948</t>
   </si>
   <si>
     <t xml:space="preserve">0.851890504360199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.807827174663544</t>
+    <t xml:space="preserve">0.807827234268188</t>
   </si>
   <si>
     <t xml:space="preserve">0.776101529598236</t>
@@ -182,13 +182,13 @@
     <t xml:space="preserve">0.757888674736023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831915080547333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820164859294891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817814826965332</t>
+    <t xml:space="preserve">0.831915140151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820164799690247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817814767360687</t>
   </si>
   <si>
     <t xml:space="preserve">0.828390002250671</t>
@@ -200,46 +200,46 @@
     <t xml:space="preserve">0.823102474212646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817227303981781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827215015888214</t>
+    <t xml:space="preserve">0.817227363586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827215075492859</t>
   </si>
   <si>
     <t xml:space="preserve">0.828977584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843077719211578</t>
+    <t xml:space="preserve">0.843077778816223</t>
   </si>
   <si>
     <t xml:space="preserve">0.865403234958649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837790071964264</t>
+    <t xml:space="preserve">0.837790191173553</t>
   </si>
   <si>
     <t xml:space="preserve">0.830740034580231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84660279750824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848952889442444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860115587711334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846015274524689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834265172481537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822514891624451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845427870750427</t>
+    <t xml:space="preserve">0.846602857112885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848953008651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860115647315979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846015393733978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834265232086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82251501083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845427811145782</t>
   </si>
   <si>
     <t xml:space="preserve">0.868340730667114</t>
@@ -248,43 +248,43 @@
     <t xml:space="preserve">0.92062920331955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915929019451141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941545963287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893016159534454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553466320038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578221321106</t>
+    <t xml:space="preserve">0.915929138660431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941426753998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893016219139099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553585529327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578340530396</t>
   </si>
   <si>
     <t xml:space="preserve">0.869515776634216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882440984249115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864228188991547</t>
+    <t xml:space="preserve">0.882441103458405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864228129386902</t>
   </si>
   <si>
     <t xml:space="preserve">0.835440218448639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826040029525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83015251159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831327497959137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9071164727211</t>
+    <t xml:space="preserve">0.826039969921112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830152571201324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831327557563782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907116413116455</t>
   </si>
   <si>
     <t xml:space="preserve">0.924741804599762</t>
@@ -293,37 +293,37 @@
     <t xml:space="preserve">0.945304572582245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.937079548835754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92885422706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961769104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98744261264801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994025468826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03483998775482</t>
+    <t xml:space="preserve">0.937079668045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928854465484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961769163608551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987442553043365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994025528430939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03483986854553</t>
   </si>
   <si>
     <t xml:space="preserve">1.04010629653931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04076445102692</t>
+    <t xml:space="preserve">1.04076457023621</t>
   </si>
   <si>
     <t xml:space="preserve">1.03615653514862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05327200889587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05261373519897</t>
+    <t xml:space="preserve">1.05327212810516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05261397361755</t>
   </si>
   <si>
     <t xml:space="preserve">1.05458867549896</t>
@@ -332,67 +332,67 @@
     <t xml:space="preserve">1.05393040180206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07367944717407</t>
+    <t xml:space="preserve">1.07367932796478</t>
   </si>
   <si>
     <t xml:space="preserve">1.11646854877472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09276974201202</t>
+    <t xml:space="preserve">1.09276986122131</t>
   </si>
   <si>
     <t xml:space="preserve">1.03878962993622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02299058437347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982834696769714</t>
+    <t xml:space="preserve">1.02299070358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98283451795578</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367254734039</t>
+    <t xml:space="preserve">0.993367314338684</t>
   </si>
   <si>
     <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07565414905548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07302105426788</t>
+    <t xml:space="preserve">1.07565402984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07302093505859</t>
   </si>
   <si>
     <t xml:space="preserve">1.10132765769958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01574921607971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959136009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977568209171295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972301959991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02628195285797</t>
+    <t xml:space="preserve">1.015749335289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959136068820953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977568089962006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97230190038681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02628207206726</t>
   </si>
   <si>
     <t xml:space="preserve">1.04668915271759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02035737037659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961110889911652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9387286901474</t>
+    <t xml:space="preserve">1.02035748958588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961110949516296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938728749752045</t>
   </si>
   <si>
     <t xml:space="preserve">0.936095714569092</t>
@@ -401,25 +401,25 @@
     <t xml:space="preserve">0.956502735614777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951894700527191</t>
+    <t xml:space="preserve">0.951894760131836</t>
   </si>
   <si>
     <t xml:space="preserve">0.936753928661346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946628212928772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939387083053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949919760227203</t>
+    <t xml:space="preserve">0.946628391742706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939387202262878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949919819831848</t>
   </si>
   <si>
     <t xml:space="preserve">0.948603212833405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974276721477509</t>
+    <t xml:space="preserve">0.974276781082153</t>
   </si>
   <si>
     <t xml:space="preserve">0.954527974128723</t>
@@ -431,16 +431,16 @@
     <t xml:space="preserve">0.9235879778862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836034834384918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809702932834625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832085072994232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851833999156952</t>
+    <t xml:space="preserve">0.836034774780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80970299243927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832085013389587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851833879947662</t>
   </si>
   <si>
     <t xml:space="preserve">0.88869833946228</t>
@@ -449,40 +449,40 @@
     <t xml:space="preserve">0.884090304374695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871582686901093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873557686805725</t>
+    <t xml:space="preserve">0.871582627296448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873557507991791</t>
   </si>
   <si>
     <t xml:space="preserve">0.880798876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886723399162292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890673220157623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870924293994904</t>
+    <t xml:space="preserve">0.886723518371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890673339366913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870924353599548</t>
   </si>
   <si>
     <t xml:space="preserve">0.866974651813507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884748518466949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883431971073151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87421578168869</t>
+    <t xml:space="preserve">0.884748637676239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883432030677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874215841293335</t>
   </si>
   <si>
     <t xml:space="preserve">0.870266139507294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864341497421265</t>
+    <t xml:space="preserve">0.864341378211975</t>
   </si>
   <si>
     <t xml:space="preserve">0.881457149982452</t>
@@ -491,37 +491,37 @@
     <t xml:space="preserve">0.882773756980896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887381792068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880140483379364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613097190857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934779047966003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94794487953186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947286665439606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932145833969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902522683143616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281374454498</t>
+    <t xml:space="preserve">0.887381851673126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880140542984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934779107570648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947944939136505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947286605834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932145893573761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902522563934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281314849854</t>
   </si>
   <si>
     <t xml:space="preserve">0.903180837631226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917005062103271</t>
+    <t xml:space="preserve">0.917005121707916</t>
   </si>
   <si>
     <t xml:space="preserve">0.940045297145844</t>
@@ -533,43 +533,43 @@
     <t xml:space="preserve">0.911080360412598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912397027015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913713693618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931487441062927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918979942798615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909763813018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926879465579987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920296549797058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938070476055145</t>
+    <t xml:space="preserve">0.912397086620331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91371363401413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931487500667572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91897988319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909763753414154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926879525184631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920296609401703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9380704164505</t>
   </si>
   <si>
     <t xml:space="preserve">0.964402377605438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970327019691467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988759160041809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984151124954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992708921432495</t>
+    <t xml:space="preserve">0.970326900482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988759279251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984151184558868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99270898103714</t>
   </si>
   <si>
     <t xml:space="preserve">1.04142284393311</t>
@@ -587,19 +587,19 @@
     <t xml:space="preserve">1.03813135623932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03023183345795</t>
+    <t xml:space="preserve">1.03023195266724</t>
   </si>
   <si>
     <t xml:space="preserve">1.02167403697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03418159484863</t>
+    <t xml:space="preserve">1.03418147563934</t>
   </si>
   <si>
     <t xml:space="preserve">1.01838266849518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03352332115173</t>
+    <t xml:space="preserve">1.03352344036102</t>
   </si>
   <si>
     <t xml:space="preserve">1.04208111763</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">1.09013676643372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0993527173996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08750343322754</t>
+    <t xml:space="preserve">1.09935283660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08750355243683</t>
   </si>
   <si>
     <t xml:space="preserve">1.07960402965546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05788016319275</t>
+    <t xml:space="preserve">1.05788028240204</t>
   </si>
   <si>
     <t xml:space="preserve">1.06380486488342</t>
@@ -635,46 +635,46 @@
     <t xml:space="preserve">1.13819217681885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11120200157166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.123051404953</t>
+    <t xml:space="preserve">1.11120212078094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12305128574371</t>
   </si>
   <si>
     <t xml:space="preserve">1.08421194553375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07697081565857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09145319461823</t>
+    <t xml:space="preserve">1.07697069644928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09145331382751</t>
   </si>
   <si>
     <t xml:space="preserve">1.096719622612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11778509616852</t>
+    <t xml:space="preserve">1.11778497695923</t>
   </si>
   <si>
     <t xml:space="preserve">1.13095092773438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11186051368713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12568473815918</t>
+    <t xml:space="preserve">1.11186039447784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12568461894989</t>
   </si>
   <si>
     <t xml:space="preserve">1.13226759433746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13885056972504</t>
+    <t xml:space="preserve">1.13885045051575</t>
   </si>
   <si>
     <t xml:space="preserve">1.13621735572815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14543342590332</t>
+    <t xml:space="preserve">1.14543330669403</t>
   </si>
   <si>
     <t xml:space="preserve">1.14740836620331</t>
@@ -683,22 +683,22 @@
     <t xml:space="preserve">1.15596616268158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14016711711884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14082539081573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11910164356232</t>
+    <t xml:space="preserve">1.14016699790955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14082551002502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11910176277161</t>
   </si>
   <si>
     <t xml:space="preserve">1.12436807155609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12831783294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09079492092133</t>
+    <t xml:space="preserve">1.12831771373749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09079480171204</t>
   </si>
   <si>
     <t xml:space="preserve">1.09737801551819</t>
@@ -707,16 +707,16 @@
     <t xml:space="preserve">1.08684527873993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0190407037735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02364885807037</t>
+    <t xml:space="preserve">1.01904082298279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02364873886108</t>
   </si>
   <si>
     <t xml:space="preserve">1.02496540546417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02562379837036</t>
+    <t xml:space="preserve">1.02562391757965</t>
   </si>
   <si>
     <t xml:space="preserve">0.988100945949554</t>
@@ -728,31 +728,31 @@
     <t xml:space="preserve">0.933462381362915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935437262058258</t>
+    <t xml:space="preserve">0.935437321662903</t>
   </si>
   <si>
     <t xml:space="preserve">0.953869640827179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999950230121613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00521647930145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0170658826828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916647911072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03088998794556</t>
+    <t xml:space="preserve">0.999950170516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00521659851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01706576347351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916635990143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03089010715485</t>
   </si>
   <si>
     <t xml:space="preserve">1.04603087902069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07170450687408</t>
+    <t xml:space="preserve">1.07170438766479</t>
   </si>
   <si>
     <t xml:space="preserve">1.13424253463745</t>
@@ -764,28 +764,28 @@
     <t xml:space="preserve">1.10066938400269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09474468231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12041831016541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12765967845917</t>
+    <t xml:space="preserve">1.0947448015213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12041819095612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12765955924988</t>
   </si>
   <si>
     <t xml:space="preserve">1.12634289264679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12239325046539</t>
+    <t xml:space="preserve">1.1223931312561</t>
   </si>
   <si>
     <t xml:space="preserve">1.11976003646851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13490080833435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16715729236603</t>
+    <t xml:space="preserve">1.13490068912506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16715717315674</t>
   </si>
   <si>
     <t xml:space="preserve">1.16913211345673</t>
@@ -800,28 +800,28 @@
     <t xml:space="preserve">1.16584062576294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1737402677536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17900657653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18229806423187</t>
+    <t xml:space="preserve">1.17374014854431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1790064573288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18229794502258</t>
   </si>
   <si>
     <t xml:space="preserve">1.17308187484741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19941365718842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21652936935425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21389615535736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22706210613251</t>
+    <t xml:space="preserve">1.19941353797913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21652925014496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21389603614807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22706198692322</t>
   </si>
   <si>
     <t xml:space="preserve">1.21784591674805</t>
@@ -836,19 +836,19 @@
     <t xml:space="preserve">1.22179555892944</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2277204990387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21455430984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21587085723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23167026042938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25339376926422</t>
+    <t xml:space="preserve">1.22772037982941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21455442905426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21587109565735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23167014122009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25339388847351</t>
   </si>
   <si>
     <t xml:space="preserve">1.26853466033936</t>
@@ -884,19 +884,19 @@
     <t xml:space="preserve">1.35608780384064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35872113704681</t>
+    <t xml:space="preserve">1.35872101783752</t>
   </si>
   <si>
     <t xml:space="preserve">1.39163589477539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40875160694122</t>
+    <t xml:space="preserve">1.40875148773193</t>
   </si>
   <si>
     <t xml:space="preserve">1.47721421718597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48116385936737</t>
+    <t xml:space="preserve">1.48116397857666</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169683456421</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">1.49169659614563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49031937122345</t>
+    <t xml:space="preserve">1.49031925201416</t>
   </si>
   <si>
     <t xml:space="preserve">1.48894190788269</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">1.47379088401794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39803516864777</t>
+    <t xml:space="preserve">1.39803528785706</t>
   </si>
   <si>
     <t xml:space="preserve">1.38701617717743</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">1.48343241214752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44899809360504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43522441387177</t>
+    <t xml:space="preserve">1.44899821281433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43522429466248</t>
   </si>
   <si>
     <t xml:space="preserve">1.43246948719025</t>
@@ -938,31 +938,31 @@
     <t xml:space="preserve">1.45313012599945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51235747337341</t>
+    <t xml:space="preserve">1.51235723495483</t>
   </si>
   <si>
     <t xml:space="preserve">1.57158434391022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53301787376404</t>
+    <t xml:space="preserve">1.53301799297333</t>
   </si>
   <si>
     <t xml:space="preserve">1.53990483283997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51511204242706</t>
+    <t xml:space="preserve">1.51511216163635</t>
   </si>
   <si>
     <t xml:space="preserve">1.43935632705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47792291641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45175290107727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45863974094391</t>
+    <t xml:space="preserve">1.47792279720306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45175278186798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45863962173462</t>
   </si>
   <si>
     <t xml:space="preserve">1.42282795906067</t>
@@ -971,49 +971,49 @@
     <t xml:space="preserve">1.41594111919403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40354478359222</t>
+    <t xml:space="preserve">1.40354466438293</t>
   </si>
   <si>
     <t xml:space="preserve">1.45450747013092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44624316692352</t>
+    <t xml:space="preserve">1.44624328613281</t>
   </si>
   <si>
     <t xml:space="preserve">1.4379791021347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45726227760315</t>
+    <t xml:space="preserve">1.45726215839386</t>
   </si>
   <si>
     <t xml:space="preserve">1.42558264732361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42971467971802</t>
+    <t xml:space="preserve">1.42971479892731</t>
   </si>
   <si>
     <t xml:space="preserve">1.44073379039764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43660175800323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45588493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47654557228088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51786673069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53164041042328</t>
+    <t xml:space="preserve">1.43660163879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45588505268097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47654545307159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51786684989929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53164052963257</t>
   </si>
   <si>
     <t xml:space="preserve">1.53577268123627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55643332004547</t>
+    <t xml:space="preserve">1.55643320083618</t>
   </si>
   <si>
     <t xml:space="preserve">1.54403698444366</t>
@@ -1022,19 +1022,19 @@
     <t xml:space="preserve">1.52888584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33605337142944</t>
+    <t xml:space="preserve">1.33605349063873</t>
   </si>
   <si>
     <t xml:space="preserve">1.33811938762665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31194925308228</t>
+    <t xml:space="preserve">1.31194937229156</t>
   </si>
   <si>
     <t xml:space="preserve">1.27820360660553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25960910320282</t>
+    <t xml:space="preserve">1.25960898399353</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062797546387</t>
@@ -1049,22 +1049,22 @@
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258173942566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29748690128326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28233575820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29542088508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2899112701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31608152389526</t>
+    <t xml:space="preserve">1.35258185863495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29748678207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28233563899994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29542076587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28991138935089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31608140468597</t>
   </si>
   <si>
     <t xml:space="preserve">1.33674204349518</t>
@@ -1073,43 +1073,43 @@
     <t xml:space="preserve">1.32778906822205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3332986831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34018552303314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33880817890167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3739310503006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41180896759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41869580745697</t>
+    <t xml:space="preserve">1.33329856395721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34018540382385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33880805969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37393116950989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41180884838104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41869568824768</t>
   </si>
   <si>
     <t xml:space="preserve">1.46001708507538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45037543773651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44762063026428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4049220085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46414911746979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48618710041046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51098001003265</t>
+    <t xml:space="preserve">1.45037531852722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44762074947357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40492212772369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46414923667908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48618721961975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51097989082336</t>
   </si>
   <si>
     <t xml:space="preserve">1.56194281578064</t>
@@ -1118,22 +1118,22 @@
     <t xml:space="preserve">1.53852736949921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52613115310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55918800830841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57433915138245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51648938655853</t>
+    <t xml:space="preserve">1.5261310338974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5591881275177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57433903217316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51648926734924</t>
   </si>
   <si>
     <t xml:space="preserve">1.51924419403076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50684785842896</t>
+    <t xml:space="preserve">1.50684773921967</t>
   </si>
   <si>
     <t xml:space="preserve">1.49582874774933</t>
@@ -1145,28 +1145,28 @@
     <t xml:space="preserve">1.50822520256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52750849723816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55092370510101</t>
+    <t xml:space="preserve">1.52750837802887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5509238243103</t>
   </si>
   <si>
     <t xml:space="preserve">1.60050916671753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57847130298615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62117004394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61841511726379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58949053287506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4848096370697</t>
+    <t xml:space="preserve">1.57847142219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62116992473602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6184149980545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58949017524719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48480975627899</t>
   </si>
   <si>
     <t xml:space="preserve">1.52062153816223</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">1.49720621109009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4214506149292</t>
+    <t xml:space="preserve">1.42145049571991</t>
   </si>
   <si>
     <t xml:space="preserve">1.43384695053101</t>
@@ -1190,52 +1190,52 @@
     <t xml:space="preserve">1.4173184633255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37599718570709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37117648124695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38839364051819</t>
+    <t xml:space="preserve">1.37599730491638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37117636203766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3883935213089</t>
   </si>
   <si>
     <t xml:space="preserve">1.37530839443207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36360085010529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35051584243774</t>
+    <t xml:space="preserve">1.363600730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35051572322845</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34087431430817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36222350597382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34294021129608</t>
+    <t xml:space="preserve">1.34087419509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36222338676453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34294033050537</t>
   </si>
   <si>
     <t xml:space="preserve">1.36979901790619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36428952217102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36704421043396</t>
+    <t xml:space="preserve">1.36428940296173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36704432964325</t>
   </si>
   <si>
     <t xml:space="preserve">1.38977098464966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38012933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35533666610718</t>
+    <t xml:space="preserve">1.3801292181015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35533654689789</t>
   </si>
   <si>
     <t xml:space="preserve">1.37737452983856</t>
@@ -1250,13 +1250,13 @@
     <t xml:space="preserve">1.21966516971588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23963701725006</t>
+    <t xml:space="preserve">1.23963713645935</t>
   </si>
   <si>
     <t xml:space="preserve">1.25134479999542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24927878379822</t>
+    <t xml:space="preserve">1.24927866458893</t>
   </si>
   <si>
     <t xml:space="preserve">1.22586333751678</t>
@@ -1265,49 +1265,49 @@
     <t xml:space="preserve">1.25203347206116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24721264839172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21553301811218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19900453090668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22104263305664</t>
+    <t xml:space="preserve">1.24721276760101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21553313732147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19900465011597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22104251384735</t>
   </si>
   <si>
     <t xml:space="preserve">1.2100236415863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20589137077332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21140098571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19969320297241</t>
+    <t xml:space="preserve">1.2058914899826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21140086650848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1996933221817</t>
   </si>
   <si>
     <t xml:space="preserve">1.21277832984924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1645702123642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15699470043182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1521737575531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12600362300873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12875843048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10052239894867</t>
+    <t xml:space="preserve">1.16457009315491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15699458122253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15217387676239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12600374221802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12875854969025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10052227973938</t>
   </si>
   <si>
     <t xml:space="preserve">1.10534310340881</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">1.14322078227997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1335791349411</t>
+    <t xml:space="preserve">1.13357925415039</t>
   </si>
   <si>
     <t xml:space="preserve">1.23137283325195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1893630027771</t>
+    <t xml:space="preserve">1.18936288356781</t>
   </si>
   <si>
     <t xml:space="preserve">1.17352306842804</t>
@@ -1340,31 +1340,31 @@
     <t xml:space="preserve">1.13564538955688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1728343963623</t>
+    <t xml:space="preserve">1.17283451557159</t>
   </si>
   <si>
     <t xml:space="preserve">1.17558920383453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.176966547966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1707683801651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26029789447784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3023077249527</t>
+    <t xml:space="preserve">1.17696666717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17076849937439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26029777526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30230760574341</t>
   </si>
   <si>
     <t xml:space="preserve">1.27682626247406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30988311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31126058101654</t>
+    <t xml:space="preserve">1.30988323688507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31126070022583</t>
   </si>
   <si>
     <t xml:space="preserve">1.25478827953339</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">1.26649594306946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21071219444275</t>
+    <t xml:space="preserve">1.21071231365204</t>
   </si>
   <si>
     <t xml:space="preserve">1.22792947292328</t>
@@ -1382,13 +1382,13 @@
     <t xml:space="preserve">1.25065612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24239194393158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27200531959534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29473197460175</t>
+    <t xml:space="preserve">1.24239182472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27200555801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29473221302032</t>
   </si>
   <si>
     <t xml:space="preserve">1.29817545413971</t>
@@ -1400,49 +1400,49 @@
     <t xml:space="preserve">1.30161893367767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29335463047028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.279580950737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26718461513519</t>
+    <t xml:space="preserve">1.29335474967957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27958106994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2671844959259</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26374113559723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26993942260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29955291748047</t>
+    <t xml:space="preserve">1.26374125480652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26993930339813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29955279827118</t>
   </si>
   <si>
     <t xml:space="preserve">1.32985520362854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3925256729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4090541601181</t>
+    <t xml:space="preserve">1.39252579212189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40905427932739</t>
   </si>
   <si>
     <t xml:space="preserve">1.42007315158844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39114820957184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39665794372559</t>
+    <t xml:space="preserve">1.39114832878113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3966578245163</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34156274795532</t>
+    <t xml:space="preserve">1.34156286716461</t>
   </si>
   <si>
     <t xml:space="preserve">1.30781722068787</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">1.40265047550201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37692046165466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36001217365265</t>
+    <t xml:space="preserve">1.37692058086395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36001229286194</t>
   </si>
   <si>
     <t xml:space="preserve">1.38427197933197</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">1.42543983459473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41000175476074</t>
+    <t xml:space="preserve">1.41000187397003</t>
   </si>
   <si>
     <t xml:space="preserve">1.42176413536072</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">1.47469437122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48645663261414</t>
+    <t xml:space="preserve">1.48645675182343</t>
   </si>
   <si>
     <t xml:space="preserve">1.52468395233154</t>
@@ -1493,19 +1493,19 @@
     <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49968910217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49674868583679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49086761474609</t>
+    <t xml:space="preserve">1.49968922138214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4967485666275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4908674955368</t>
   </si>
   <si>
     <t xml:space="preserve">1.52615427970886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51439201831818</t>
+    <t xml:space="preserve">1.51439189910889</t>
   </si>
   <si>
     <t xml:space="preserve">1.56585204601288</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">1.55555987358093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55261945724487</t>
+    <t xml:space="preserve">1.55261933803558</t>
   </si>
   <si>
     <t xml:space="preserve">1.50262975692749</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792695999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47910535335541</t>
+    <t xml:space="preserve">1.48792684078217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47910523414612</t>
   </si>
   <si>
     <t xml:space="preserve">1.50115954875946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50998103618622</t>
+    <t xml:space="preserve">1.50998115539551</t>
   </si>
   <si>
     <t xml:space="preserve">1.52321374416351</t>
@@ -1544,19 +1544,19 @@
     <t xml:space="preserve">1.46660780906677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46366739273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45558071136475</t>
+    <t xml:space="preserve">1.46366727352142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45558059215546</t>
   </si>
   <si>
     <t xml:space="preserve">1.45043480396271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44381833076477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42911565303802</t>
+    <t xml:space="preserve">1.44381844997406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42911553382874</t>
   </si>
   <si>
     <t xml:space="preserve">1.37912607192993</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">1.43058586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4239696264267</t>
+    <t xml:space="preserve">1.42396950721741</t>
   </si>
   <si>
     <t xml:space="preserve">1.43940758705139</t>
@@ -1583,28 +1583,28 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4467591047287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46146178245544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48498630523682</t>
+    <t xml:space="preserve">1.44675898551941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46146190166473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48498642444611</t>
   </si>
   <si>
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762460708618</t>
+    <t xml:space="preserve">1.52762472629547</t>
   </si>
   <si>
     <t xml:space="preserve">1.56144118309021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57320332527161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55114912986755</t>
+    <t xml:space="preserve">1.5732034444809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55114901065826</t>
   </si>
   <si>
     <t xml:space="preserve">1.58643591403961</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.57173311710358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57026267051697</t>
+    <t xml:space="preserve">1.57026278972626</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025249004364</t>
@@ -1625,16 +1625,16 @@
     <t xml:space="preserve">1.63495528697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64377689361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64524722099304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62760388851166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113871097565</t>
+    <t xml:space="preserve">1.64377701282501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64524710178375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62760376930237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113883018494</t>
   </si>
   <si>
     <t xml:space="preserve">1.62466335296631</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">1.37471508979797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.395299077034</t>
+    <t xml:space="preserve">1.39529895782471</t>
   </si>
   <si>
     <t xml:space="preserve">1.40191531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147220134735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40853154659271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39970993995667</t>
+    <t xml:space="preserve">1.41147208213806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.408531665802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39971005916595</t>
   </si>
   <si>
     <t xml:space="preserve">1.40118026733398</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">1.35486626625061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34530937671661</t>
+    <t xml:space="preserve">1.3453094959259</t>
   </si>
   <si>
     <t xml:space="preserve">1.28943860530853</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">1.28649806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21665966510773</t>
+    <t xml:space="preserve">1.21665954589844</t>
   </si>
   <si>
     <t xml:space="preserve">1.2556220293045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25415182113647</t>
+    <t xml:space="preserve">1.25415170192719</t>
   </si>
   <si>
     <t xml:space="preserve">1.28355753421783</t>
@@ -1718,19 +1718,19 @@
     <t xml:space="preserve">1.2975252866745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31590378284454</t>
+    <t xml:space="preserve">1.31590366363525</t>
   </si>
   <si>
     <t xml:space="preserve">1.30855226516724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31516861915588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28576290607452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29017376899719</t>
+    <t xml:space="preserve">1.31516873836517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28576278686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29017388820648</t>
   </si>
   <si>
     <t xml:space="preserve">1.2497410774231</t>
@@ -1739,16 +1739,16 @@
     <t xml:space="preserve">1.27841150760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24091923236847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24459505081177</t>
+    <t xml:space="preserve">1.24091935157776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24459493160248</t>
   </si>
   <si>
     <t xml:space="preserve">1.25121128559113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31222808361053</t>
+    <t xml:space="preserve">1.31222796440125</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">1.26591420173645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3092874288559</t>
+    <t xml:space="preserve">1.30928754806519</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811957359314</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327589988708</t>
+    <t xml:space="preserve">1.22327601909637</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23650848865509</t>
+    <t xml:space="preserve">1.2365083694458</t>
   </si>
   <si>
     <t xml:space="preserve">1.23356783390045</t>
@@ -1793,22 +1793,22 @@
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768676280975</t>
+    <t xml:space="preserve">1.22768664360046</t>
   </si>
   <si>
     <t xml:space="preserve">1.3225200176239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31663882732391</t>
+    <t xml:space="preserve">1.3166389465332</t>
   </si>
   <si>
     <t xml:space="preserve">1.29164409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26150333881378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25856256484985</t>
+    <t xml:space="preserve">1.26150321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25856280326843</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1817,25 +1817,25 @@
     <t xml:space="preserve">1.24680042266846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24312472343445</t>
+    <t xml:space="preserve">1.24312460422516</t>
   </si>
   <si>
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2879683971405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29679012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24165451526642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24018406867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28870344161987</t>
+    <t xml:space="preserve">1.28796827793121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29679000377655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24165439605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2401841878891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28870356082916</t>
   </si>
   <si>
     <t xml:space="preserve">1.27914667129517</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502774238586</t>
+    <t xml:space="preserve">1.28502786159515</t>
   </si>
   <si>
     <t xml:space="preserve">1.28135216236115</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">1.36589348316193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35119068622589</t>
+    <t xml:space="preserve">1.3511905670166</t>
   </si>
   <si>
     <t xml:space="preserve">1.32325518131256</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31810927391052</t>
+    <t xml:space="preserve">1.31810915470123</t>
   </si>
   <si>
     <t xml:space="preserve">1.31149291992188</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">1.28723323345184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28429269790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31296324729919</t>
+    <t xml:space="preserve">1.2842925786972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3129631280899</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060657978058</t>
@@ -1904,10 +1904,10 @@
     <t xml:space="preserve">1.33428239822388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35266089439392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31737411022186</t>
+    <t xml:space="preserve">1.35266077518463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31737399101257</t>
   </si>
   <si>
     <t xml:space="preserve">1.27694118022919</t>
@@ -1916,37 +1916,37 @@
     <t xml:space="preserve">1.30046582221985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27767634391785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29826033115387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3034063577652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27326560020447</t>
+    <t xml:space="preserve">1.27767646312714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29826045036316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30340623855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27326548099518</t>
   </si>
   <si>
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134174346924</t>
+    <t xml:space="preserve">1.33134186267853</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531979560852</t>
+    <t xml:space="preserve">1.29531967639923</t>
   </si>
   <si>
     <t xml:space="preserve">1.2747358083725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27253031730652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26958990097046</t>
+    <t xml:space="preserve">1.27253043651581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26958978176117</t>
   </si>
   <si>
     <t xml:space="preserve">1.23797869682312</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">1.21445417404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371901035309</t>
+    <t xml:space="preserve">1.21371912956238</t>
   </si>
   <si>
     <t xml:space="preserve">1.21592450141907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20563244819641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22915709018707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2519463300705</t>
+    <t xml:space="preserve">1.2056325674057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22915697097778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25194644927979</t>
   </si>
   <si>
     <t xml:space="preserve">1.22989225387573</t>
@@ -1985,22 +1985,22 @@
     <t xml:space="preserve">1.21518933773041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2269514799118</t>
+    <t xml:space="preserve">1.22695159912109</t>
   </si>
   <si>
     <t xml:space="preserve">1.23724353313446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23871374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20857298374176</t>
+    <t xml:space="preserve">1.23871386051178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20857310295105</t>
   </si>
   <si>
     <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18137288093567</t>
+    <t xml:space="preserve">1.18137276172638</t>
   </si>
   <si>
     <t xml:space="preserve">1.17034566402435</t>
@@ -2009,37 +2009,37 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711307525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13358867168427</t>
+    <t xml:space="preserve">1.15711319446564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13358855247498</t>
   </si>
   <si>
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448531150818</t>
+    <t xml:space="preserve">1.06448519229889</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03360939025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06522047519684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10859382152557</t>
+    <t xml:space="preserve">1.0336092710495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06522035598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10859370231628</t>
   </si>
   <si>
     <t xml:space="preserve">1.08653962612152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0872745513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07624745368958</t>
+    <t xml:space="preserve">1.08727467060089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07624757289886</t>
   </si>
   <si>
     <t xml:space="preserve">1.08713448047638</t>
@@ -5217,6 +5217,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.63750004768372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62999999523163</t>
   </si>
 </sst>
 </file>
@@ -61380,7 +61383,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6496412037</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>1316441</v>
@@ -61401,6 +61404,32 @@
         <v>1734</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6493055556</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>975721</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>1.63450002670288</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>1.62300002574921</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>1.62300002574921</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>1.62999999523163</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -44,25 +44,25 @@
     <t xml:space="preserve">SRS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982317805290222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985255479812622</t>
+    <t xml:space="preserve">0.982317924499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985255420207977</t>
   </si>
   <si>
     <t xml:space="preserve">0.960579931735992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964105069637299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993480443954468</t>
+    <t xml:space="preserve">0.964104950428009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993480503559113</t>
   </si>
   <si>
     <t xml:space="preserve">0.992893099784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04576909542084</t>
+    <t xml:space="preserve">1.04576897621155</t>
   </si>
   <si>
     <t xml:space="preserve">1.04165637493134</t>
@@ -74,22 +74,22 @@
     <t xml:space="preserve">1.03695631027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05693161487579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02579367160797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07749450206757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08101952075958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13565814495087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1456458568573</t>
+    <t xml:space="preserve">1.05693173408508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02579355239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07749462127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08101963996887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13565802574158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14564573764801</t>
   </si>
   <si>
     <t xml:space="preserve">1.14682078361511</t>
@@ -101,55 +101,55 @@
     <t xml:space="preserve">1.12802040576935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14035820960999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11098277568817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09100735187531</t>
+    <t xml:space="preserve">1.1403580904007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11098253726959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09100723266602</t>
   </si>
   <si>
     <t xml:space="preserve">1.02755606174469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.957642376422882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829564988613129</t>
+    <t xml:space="preserve">0.957642316818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853653013706207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829565048217773</t>
   </si>
   <si>
     <t xml:space="preserve">0.840140223503113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.810764670372009</t>
+    <t xml:space="preserve">0.810764729976654</t>
   </si>
   <si>
     <t xml:space="preserve">0.81663978099823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873040795326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863640666007996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872453212738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887728571891785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881853520870209</t>
+    <t xml:space="preserve">0.873040854930878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86364072561264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872453391551971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88772851228714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881853461265564</t>
   </si>
   <si>
     <t xml:space="preserve">0.86070317029953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842490434646606</t>
+    <t xml:space="preserve">0.842490255832672</t>
   </si>
   <si>
     <t xml:space="preserve">0.850127995014191</t>
@@ -158,103 +158,103 @@
     <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904179036617279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916516602039337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895366370677948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851890504360199</t>
+    <t xml:space="preserve">0.904178857803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916516423225403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895366251468658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851890623569489</t>
   </si>
   <si>
     <t xml:space="preserve">0.807827234268188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776101529598236</t>
+    <t xml:space="preserve">0.776101589202881</t>
   </si>
   <si>
     <t xml:space="preserve">0.76493889093399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757888674736023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831915140151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820164799690247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817814767360687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828390002250671</t>
+    <t xml:space="preserve">0.757888734340668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831915080547333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820164859294891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817814886569977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828390121459961</t>
   </si>
   <si>
     <t xml:space="preserve">0.833677589893341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823102474212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817227363586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827215075492859</t>
+    <t xml:space="preserve">0.823102533817291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817227423191071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827215015888214</t>
   </si>
   <si>
     <t xml:space="preserve">0.828977584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843077778816223</t>
+    <t xml:space="preserve">0.843077838420868</t>
   </si>
   <si>
     <t xml:space="preserve">0.865403234958649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837790191173553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830740034580231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846602857112885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848953008651733</t>
+    <t xml:space="preserve">0.837790250778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830740094184875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846602916717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848952949047089</t>
   </si>
   <si>
     <t xml:space="preserve">0.860115647315979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846015393733978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834265232086182</t>
+    <t xml:space="preserve">0.846015453338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834265172481537</t>
   </si>
   <si>
     <t xml:space="preserve">0.82251501083374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845427811145782</t>
+    <t xml:space="preserve">0.845427930355072</t>
   </si>
   <si>
     <t xml:space="preserve">0.868340730667114</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92062920331955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915929138660431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941426753998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893016219139099</t>
+    <t xml:space="preserve">0.920629262924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915929019451141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941545963287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893016159534454</t>
   </si>
   <si>
     <t xml:space="preserve">0.886553585529327</t>
@@ -263,58 +263,58 @@
     <t xml:space="preserve">0.866578340530396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869515776634216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882441103458405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864228129386902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835440218448639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826039969921112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830152571201324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831327557563782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907116413116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924741804599762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945304572582245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937079668045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928854465484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961769163608551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987442553043365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994025528430939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03483986854553</t>
+    <t xml:space="preserve">0.869515836238861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88244104385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864228188991547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835440337657928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826040089130402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830152630805969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831327497959137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9071164727211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924741744995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945304691791534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937079548835754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92885422706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961769104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98744261264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994025468826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03483998775482</t>
   </si>
   <si>
     <t xml:space="preserve">1.04010629653931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04076457023621</t>
+    <t xml:space="preserve">1.04076445102692</t>
   </si>
   <si>
     <t xml:space="preserve">1.03615653514862</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">1.05327212810516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05261397361755</t>
+    <t xml:space="preserve">1.05261385440826</t>
   </si>
   <si>
     <t xml:space="preserve">1.05458867549896</t>
@@ -344,25 +344,25 @@
     <t xml:space="preserve">1.03878962993622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02299070358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98283451795578</t>
+    <t xml:space="preserve">1.02299058437347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982834577560425</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367314338684</t>
+    <t xml:space="preserve">0.993367254734039</t>
   </si>
   <si>
     <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07565402984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07302093505859</t>
+    <t xml:space="preserve">1.07565414905548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07302105426788</t>
   </si>
   <si>
     <t xml:space="preserve">1.10132765769958</t>
@@ -371,25 +371,25 @@
     <t xml:space="preserve">1.015749335289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959136068820953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977568089962006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97230190038681</t>
+    <t xml:space="preserve">0.959136009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977568209171295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972301840782166</t>
   </si>
   <si>
     <t xml:space="preserve">1.02628207206726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04668915271759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02035748958588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961110949516296</t>
+    <t xml:space="preserve">1.04668927192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02035737037659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961110889911652</t>
   </si>
   <si>
     <t xml:space="preserve">0.938728749752045</t>
@@ -401,25 +401,25 @@
     <t xml:space="preserve">0.956502735614777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951894760131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936753928661346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946628391742706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939387202262878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949919819831848</t>
+    <t xml:space="preserve">0.951894700527191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936753809452057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946628212928772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939387083053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949919760227203</t>
   </si>
   <si>
     <t xml:space="preserve">0.948603212833405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974276781082153</t>
+    <t xml:space="preserve">0.974276721477509</t>
   </si>
   <si>
     <t xml:space="preserve">0.954527974128723</t>
@@ -431,13 +431,13 @@
     <t xml:space="preserve">0.9235879778862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836034774780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80970299243927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832085013389587</t>
+    <t xml:space="preserve">0.836034834384918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.809702932834625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832085072994232</t>
   </si>
   <si>
     <t xml:space="preserve">0.851833879947662</t>
@@ -449,79 +449,79 @@
     <t xml:space="preserve">0.884090304374695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871582627296448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873557507991791</t>
+    <t xml:space="preserve">0.871582686901093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873557567596436</t>
   </si>
   <si>
     <t xml:space="preserve">0.880798876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886723518371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890673339366913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870924353599548</t>
+    <t xml:space="preserve">0.886723399162292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890673220157623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870924413204193</t>
   </si>
   <si>
     <t xml:space="preserve">0.866974651813507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884748637676239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883432030677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874215841293335</t>
+    <t xml:space="preserve">0.884748518466949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883431971073151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87421578168869</t>
   </si>
   <si>
     <t xml:space="preserve">0.870266139507294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864341378211975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881457149982452</t>
+    <t xml:space="preserve">0.864341497421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881457030773163</t>
   </si>
   <si>
     <t xml:space="preserve">0.882773756980896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887381851673126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880140542984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613216400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934779107570648</t>
+    <t xml:space="preserve">0.887381792068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880140483379364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613097190857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934779047966003</t>
   </si>
   <si>
     <t xml:space="preserve">0.947944939136505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947286605834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932145893573761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902522563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281314849854</t>
+    <t xml:space="preserve">0.947286665439606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932145833969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902522683143616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281255245209</t>
   </si>
   <si>
     <t xml:space="preserve">0.903180837631226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917005121707916</t>
+    <t xml:space="preserve">0.917005062103271</t>
   </si>
   <si>
     <t xml:space="preserve">0.940045297145844</t>
@@ -530,46 +530,46 @@
     <t xml:space="preserve">0.934120714664459</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911080360412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912397086620331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91371363401413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931487500667572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91897988319397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909763753414154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926879525184631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920296609401703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9380704164505</t>
+    <t xml:space="preserve">0.911080479621887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912397027015686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913713574409485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931487560272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918979942798615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909763813018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926879465579987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920296549797058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93807053565979</t>
   </si>
   <si>
     <t xml:space="preserve">0.964402377605438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970326900482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988759279251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984151184558868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99270898103714</t>
+    <t xml:space="preserve">0.970327019691467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988759100437164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984151124954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992709040641785</t>
   </si>
   <si>
     <t xml:space="preserve">1.04142284393311</t>
@@ -578,7 +578,7 @@
     <t xml:space="preserve">1.03549814224243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03154838085175</t>
+    <t xml:space="preserve">1.03154850006104</t>
   </si>
   <si>
     <t xml:space="preserve">1.05919671058655</t>
@@ -587,25 +587,25 @@
     <t xml:space="preserve">1.03813135623932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03023195266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02167403697968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03418147563934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01838266849518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03352344036102</t>
+    <t xml:space="preserve">1.03023183345795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02167391777039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03418159484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01838254928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03352320194244</t>
   </si>
   <si>
     <t xml:space="preserve">1.04208111763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01443266868591</t>
+    <t xml:space="preserve">1.0144327878952</t>
   </si>
   <si>
     <t xml:space="preserve">1.09211158752441</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">1.09013676643372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09935283660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08750355243683</t>
+    <t xml:space="preserve">1.0993527173996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08750343322754</t>
   </si>
   <si>
     <t xml:space="preserve">1.07960402965546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05788028240204</t>
+    <t xml:space="preserve">1.05788016319275</t>
   </si>
   <si>
     <t xml:space="preserve">1.06380486488342</t>
@@ -635,10 +635,10 @@
     <t xml:space="preserve">1.13819217681885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11120212078094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12305128574371</t>
+    <t xml:space="preserve">1.11120200157166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.123051404953</t>
   </si>
   <si>
     <t xml:space="preserve">1.08421194553375</t>
@@ -653,28 +653,28 @@
     <t xml:space="preserve">1.096719622612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11778497695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13095092773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11186039447784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12568461894989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13226759433746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13885045051575</t>
+    <t xml:space="preserve">1.11778509616852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13095104694366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11186051368713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12568473815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13226747512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13885056972504</t>
   </si>
   <si>
     <t xml:space="preserve">1.13621735572815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14543330669403</t>
+    <t xml:space="preserve">1.14543342590332</t>
   </si>
   <si>
     <t xml:space="preserve">1.14740836620331</t>
@@ -683,22 +683,22 @@
     <t xml:space="preserve">1.15596616268158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14016699790955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14082551002502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11910176277161</t>
+    <t xml:space="preserve">1.14016711711884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14082539081573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11910164356232</t>
   </si>
   <si>
     <t xml:space="preserve">1.12436807155609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12831771373749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09079480171204</t>
+    <t xml:space="preserve">1.12831783294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09079492092133</t>
   </si>
   <si>
     <t xml:space="preserve">1.09737801551819</t>
@@ -707,19 +707,19 @@
     <t xml:space="preserve">1.08684527873993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01904082298279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02364873886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02496540546417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02562391757965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988100945949554</t>
+    <t xml:space="preserve">1.0190407037735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02364885807037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02496552467346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02562379837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988101065158844</t>
   </si>
   <si>
     <t xml:space="preserve">0.940703630447388</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">0.933462381362915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935437321662903</t>
+    <t xml:space="preserve">0.935437262058258</t>
   </si>
   <si>
     <t xml:space="preserve">0.953869640827179</t>
@@ -737,13 +737,13 @@
     <t xml:space="preserve">0.999950170516968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00521659851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01706576347351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916635990143</t>
+    <t xml:space="preserve">1.00521647930145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0170658826828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916647911072</t>
   </si>
   <si>
     <t xml:space="preserve">1.03089010715485</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">1.04603087902069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07170438766479</t>
+    <t xml:space="preserve">1.07170450687408</t>
   </si>
   <si>
     <t xml:space="preserve">1.13424253463745</t>
@@ -764,10 +764,10 @@
     <t xml:space="preserve">1.10066938400269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0947448015213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12041819095612</t>
+    <t xml:space="preserve">1.09474468231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12041831016541</t>
   </si>
   <si>
     <t xml:space="preserve">1.12765955924988</t>
@@ -776,13 +776,13 @@
     <t xml:space="preserve">1.12634289264679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1223931312561</t>
+    <t xml:space="preserve">1.12239325046539</t>
   </si>
   <si>
     <t xml:space="preserve">1.11976003646851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13490068912506</t>
+    <t xml:space="preserve">1.13490080833435</t>
   </si>
   <si>
     <t xml:space="preserve">1.16715717315674</t>
@@ -791,19 +791,19 @@
     <t xml:space="preserve">1.16913211345673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1803230047226</t>
+    <t xml:space="preserve">1.18032312393188</t>
   </si>
   <si>
     <t xml:space="preserve">1.17176532745361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16584062576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17374014854431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1790064573288</t>
+    <t xml:space="preserve">1.16584050655365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1737402677536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17900657653809</t>
   </si>
   <si>
     <t xml:space="preserve">1.18229794502258</t>
@@ -812,22 +812,22 @@
     <t xml:space="preserve">1.17308187484741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19941353797913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21652925014496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21389603614807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22706198692322</t>
+    <t xml:space="preserve">1.19941365718842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21652936935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21389615535736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22706210613251</t>
   </si>
   <si>
     <t xml:space="preserve">1.21784591674805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.204021692276</t>
+    <t xml:space="preserve">1.20402157306671</t>
   </si>
   <si>
     <t xml:space="preserve">1.19546389579773</t>
@@ -839,16 +839,16 @@
     <t xml:space="preserve">1.22772037982941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21455442905426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21587109565735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23167014122009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25339388847351</t>
+    <t xml:space="preserve">1.21455430984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21587085723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23167026042938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25339376926422</t>
   </si>
   <si>
     <t xml:space="preserve">1.26853466033936</t>
@@ -866,10 +866,10 @@
     <t xml:space="preserve">1.28696703910828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3093489408493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32448983192444</t>
+    <t xml:space="preserve">1.30934882164001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32448971271515</t>
   </si>
   <si>
     <t xml:space="preserve">1.32843947410583</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">1.40875148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47721421718597</t>
+    <t xml:space="preserve">1.47721409797668</t>
   </si>
   <si>
     <t xml:space="preserve">1.48116397857666</t>
@@ -902,19 +902,19 @@
     <t xml:space="preserve">1.49169683456421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169659614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49031925201416</t>
+    <t xml:space="preserve">1.49169647693634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49031937122345</t>
   </si>
   <si>
     <t xml:space="preserve">1.48894190788269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47379088401794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39803528785706</t>
+    <t xml:space="preserve">1.47379076480865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39803516864777</t>
   </si>
   <si>
     <t xml:space="preserve">1.38701617717743</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">1.48343241214752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44899821281433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43522429466248</t>
+    <t xml:space="preserve">1.44899809360504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43522441387177</t>
   </si>
   <si>
     <t xml:space="preserve">1.43246948719025</t>
@@ -944,16 +944,16 @@
     <t xml:space="preserve">1.57158434391022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53301799297333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53990483283997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51511216163635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43935632705688</t>
+    <t xml:space="preserve">1.53301787376404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53990471363068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51511204242706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43935644626617</t>
   </si>
   <si>
     <t xml:space="preserve">1.47792279720306</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">1.45175278186798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45863962173462</t>
+    <t xml:space="preserve">1.4586398601532</t>
   </si>
   <si>
     <t xml:space="preserve">1.42282795906067</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">1.41594111919403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40354466438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45450747013092</t>
+    <t xml:space="preserve">1.40354478359222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45450758934021</t>
   </si>
   <si>
     <t xml:space="preserve">1.44624328613281</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">1.4379791021347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45726215839386</t>
+    <t xml:space="preserve">1.45726227760315</t>
   </si>
   <si>
     <t xml:space="preserve">1.42558264732361</t>
@@ -995,13 +995,13 @@
     <t xml:space="preserve">1.44073379039764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43660163879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45588505268097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47654545307159</t>
+    <t xml:space="preserve">1.43660175800323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45588493347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47654569149017</t>
   </si>
   <si>
     <t xml:space="preserve">1.51786684989929</t>
@@ -1013,22 +1013,22 @@
     <t xml:space="preserve">1.53577268123627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55643320083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54403698444366</t>
+    <t xml:space="preserve">1.55643332004547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54403686523438</t>
   </si>
   <si>
     <t xml:space="preserve">1.52888584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33605349063873</t>
+    <t xml:space="preserve">1.33605337142944</t>
   </si>
   <si>
     <t xml:space="preserve">1.33811938762665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31194937229156</t>
+    <t xml:space="preserve">1.31194913387299</t>
   </si>
   <si>
     <t xml:space="preserve">1.27820360660553</t>
@@ -1043,28 +1043,28 @@
     <t xml:space="preserve">1.28095841407776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32021355628967</t>
+    <t xml:space="preserve">1.32021367549896</t>
   </si>
   <si>
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258185863495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29748678207397</t>
+    <t xml:space="preserve">1.35258173942566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29748690128326</t>
   </si>
   <si>
     <t xml:space="preserve">1.28233563899994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29542076587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28991138935089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31608140468597</t>
+    <t xml:space="preserve">1.29542088508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2899112701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31608152389526</t>
   </si>
   <si>
     <t xml:space="preserve">1.33674204349518</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">1.32778906822205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33329856395721</t>
+    <t xml:space="preserve">1.3332986831665</t>
   </si>
   <si>
     <t xml:space="preserve">1.34018540382385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33880805969238</t>
+    <t xml:space="preserve">1.33880817890167</t>
   </si>
   <si>
     <t xml:space="preserve">1.37393116950989</t>
@@ -1088,10 +1088,10 @@
     <t xml:space="preserve">1.41180884838104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41869568824768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46001708507538</t>
+    <t xml:space="preserve">1.41869580745697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46001696586609</t>
   </si>
   <si>
     <t xml:space="preserve">1.45037531852722</t>
@@ -1100,19 +1100,19 @@
     <t xml:space="preserve">1.44762074947357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40492212772369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46414923667908</t>
+    <t xml:space="preserve">1.4049220085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46414911746979</t>
   </si>
   <si>
     <t xml:space="preserve">1.48618721961975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51097989082336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56194281578064</t>
+    <t xml:space="preserve">1.51098001003265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56194257736206</t>
   </si>
   <si>
     <t xml:space="preserve">1.53852736949921</t>
@@ -1121,16 +1121,16 @@
     <t xml:space="preserve">1.5261310338974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5591881275177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57433903217316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51648926734924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51924419403076</t>
+    <t xml:space="preserve">1.55918800830841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57433915138245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51648938655853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51924407482147</t>
   </si>
   <si>
     <t xml:space="preserve">1.50684773921967</t>
@@ -1148,31 +1148,31 @@
     <t xml:space="preserve">1.52750837802887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5509238243103</t>
+    <t xml:space="preserve">1.55092370510101</t>
   </si>
   <si>
     <t xml:space="preserve">1.60050916671753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57847142219543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62116992473602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6184149980545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58949017524719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48480975627899</t>
+    <t xml:space="preserve">1.57847130298615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62116980552673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61841511726379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58949029445648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4848096370697</t>
   </si>
   <si>
     <t xml:space="preserve">1.52062153816223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55230104923248</t>
+    <t xml:space="preserve">1.55230116844177</t>
   </si>
   <si>
     <t xml:space="preserve">1.52199900150299</t>
@@ -1190,22 +1190,22 @@
     <t xml:space="preserve">1.4173184633255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37599730491638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37117636203766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3883935213089</t>
+    <t xml:space="preserve">1.37599718570709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37117648124695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38839364051819</t>
   </si>
   <si>
     <t xml:space="preserve">1.37530839443207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.363600730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35051572322845</t>
+    <t xml:space="preserve">1.36360085010529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35051584243774</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
@@ -1214,16 +1214,16 @@
     <t xml:space="preserve">1.34087419509888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36222338676453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34294033050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36979901790619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36428940296173</t>
+    <t xml:space="preserve">1.36222350597382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34294021129608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3697988986969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36428952217102</t>
   </si>
   <si>
     <t xml:space="preserve">1.36704432964325</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">1.3801292181015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35533654689789</t>
+    <t xml:space="preserve">1.35533666610718</t>
   </si>
   <si>
     <t xml:space="preserve">1.37737452983856</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">1.25134479999542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24927866458893</t>
+    <t xml:space="preserve">1.24927878379822</t>
   </si>
   <si>
     <t xml:space="preserve">1.22586333751678</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">1.25203347206116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24721276760101</t>
+    <t xml:space="preserve">1.24721264839172</t>
   </si>
   <si>
     <t xml:space="preserve">1.21553313732147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19900465011597</t>
+    <t xml:space="preserve">1.19900453090668</t>
   </si>
   <si>
     <t xml:space="preserve">1.22104251384735</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">1.2058914899826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21140086650848</t>
+    <t xml:space="preserve">1.21140098571777</t>
   </si>
   <si>
     <t xml:space="preserve">1.1996933221817</t>
@@ -1292,19 +1292,19 @@
     <t xml:space="preserve">1.21277832984924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16457009315491</t>
+    <t xml:space="preserve">1.1645702123642</t>
   </si>
   <si>
     <t xml:space="preserve">1.15699458122253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15217387676239</t>
+    <t xml:space="preserve">1.1521737575531</t>
   </si>
   <si>
     <t xml:space="preserve">1.12600374221802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12875854969025</t>
+    <t xml:space="preserve">1.12875843048096</t>
   </si>
   <si>
     <t xml:space="preserve">1.10052227973938</t>
@@ -1319,28 +1319,28 @@
     <t xml:space="preserve">1.13082456588745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12669241428375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14322078227997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13357925415039</t>
+    <t xml:space="preserve">1.12669229507446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14322090148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1335791349411</t>
   </si>
   <si>
     <t xml:space="preserve">1.23137283325195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18936288356781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17352306842804</t>
+    <t xml:space="preserve">1.18936312198639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17352318763733</t>
   </si>
   <si>
     <t xml:space="preserve">1.13564538955688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17283451557159</t>
+    <t xml:space="preserve">1.17283427715302</t>
   </si>
   <si>
     <t xml:space="preserve">1.17558920383453</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">1.17696666717529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17076849937439</t>
+    <t xml:space="preserve">1.1707683801651</t>
   </si>
   <si>
     <t xml:space="preserve">1.26029777526855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30230760574341</t>
+    <t xml:space="preserve">1.3023077249527</t>
   </si>
   <si>
     <t xml:space="preserve">1.27682626247406</t>
@@ -1364,16 +1364,16 @@
     <t xml:space="preserve">1.30988323688507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31126070022583</t>
+    <t xml:space="preserve">1.31126058101654</t>
   </si>
   <si>
     <t xml:space="preserve">1.25478827953339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26649594306946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21071231365204</t>
+    <t xml:space="preserve">1.26649582386017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21071219444275</t>
   </si>
   <si>
     <t xml:space="preserve">1.22792947292328</t>
@@ -1385,28 +1385,28 @@
     <t xml:space="preserve">1.24239182472229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27200555801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29473221302032</t>
+    <t xml:space="preserve">1.27200531959534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29473197460175</t>
   </si>
   <si>
     <t xml:space="preserve">1.29817545413971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3229683637619</t>
+    <t xml:space="preserve">1.32296824455261</t>
   </si>
   <si>
     <t xml:space="preserve">1.30161893367767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29335474967957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27958106994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2671844959259</t>
+    <t xml:space="preserve">1.29335463047028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.279580950737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26718461513519</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
@@ -1415,19 +1415,19 @@
     <t xml:space="preserve">1.26374125480652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26993930339813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29955279827118</t>
+    <t xml:space="preserve">1.26993942260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29955291748047</t>
   </si>
   <si>
     <t xml:space="preserve">1.32985520362854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39252579212189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40905427932739</t>
+    <t xml:space="preserve">1.3925256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4090541601181</t>
   </si>
   <si>
     <t xml:space="preserve">1.42007315158844</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">1.39114832878113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3966578245163</t>
+    <t xml:space="preserve">1.39665794372559</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">1.40265047550201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37692058086395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36001229286194</t>
+    <t xml:space="preserve">1.37692046165466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36001217365265</t>
   </si>
   <si>
     <t xml:space="preserve">1.38427197933197</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">1.42543983459473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41000187397003</t>
+    <t xml:space="preserve">1.41000175476074</t>
   </si>
   <si>
     <t xml:space="preserve">1.42176413536072</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">1.47469437122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48645675182343</t>
+    <t xml:space="preserve">1.48645663261414</t>
   </si>
   <si>
     <t xml:space="preserve">1.52468395233154</t>
@@ -1493,19 +1493,19 @@
     <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49968922138214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4967485666275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4908674955368</t>
+    <t xml:space="preserve">1.49968910217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49674868583679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49086761474609</t>
   </si>
   <si>
     <t xml:space="preserve">1.52615427970886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51439189910889</t>
+    <t xml:space="preserve">1.51439201831818</t>
   </si>
   <si>
     <t xml:space="preserve">1.56585204601288</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">1.55555987358093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55261933803558</t>
+    <t xml:space="preserve">1.55261945724487</t>
   </si>
   <si>
     <t xml:space="preserve">1.50262975692749</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792684078217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47910523414612</t>
+    <t xml:space="preserve">1.48792695999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47910535335541</t>
   </si>
   <si>
     <t xml:space="preserve">1.50115954875946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50998115539551</t>
+    <t xml:space="preserve">1.50998103618622</t>
   </si>
   <si>
     <t xml:space="preserve">1.52321374416351</t>
@@ -1544,19 +1544,19 @@
     <t xml:space="preserve">1.46660780906677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46366727352142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45558059215546</t>
+    <t xml:space="preserve">1.46366739273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45558071136475</t>
   </si>
   <si>
     <t xml:space="preserve">1.45043480396271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44381844997406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42911553382874</t>
+    <t xml:space="preserve">1.44381833076477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42911565303802</t>
   </si>
   <si>
     <t xml:space="preserve">1.37912607192993</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">1.43058586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42396950721741</t>
+    <t xml:space="preserve">1.4239696264267</t>
   </si>
   <si>
     <t xml:space="preserve">1.43940758705139</t>
@@ -1583,28 +1583,28 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44675898551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46146190166473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48498642444611</t>
+    <t xml:space="preserve">1.4467591047287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46146178245544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48498630523682</t>
   </si>
   <si>
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762472629547</t>
+    <t xml:space="preserve">1.52762460708618</t>
   </si>
   <si>
     <t xml:space="preserve">1.56144118309021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5732034444809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55114901065826</t>
+    <t xml:space="preserve">1.57320332527161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55114912986755</t>
   </si>
   <si>
     <t xml:space="preserve">1.58643591403961</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.57173311710358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57026278972626</t>
+    <t xml:space="preserve">1.57026267051697</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025249004364</t>
@@ -1625,16 +1625,16 @@
     <t xml:space="preserve">1.63495528697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64377701282501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64524710178375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62760376930237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113883018494</t>
+    <t xml:space="preserve">1.64377689361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64524722099304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62760388851166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113871097565</t>
   </si>
   <si>
     <t xml:space="preserve">1.62466335296631</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">1.37471508979797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39529895782471</t>
+    <t xml:space="preserve">1.395299077034</t>
   </si>
   <si>
     <t xml:space="preserve">1.40191531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147208213806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.408531665802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39971005916595</t>
+    <t xml:space="preserve">1.41147220134735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40853154659271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39970993995667</t>
   </si>
   <si>
     <t xml:space="preserve">1.40118026733398</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">1.35486626625061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3453094959259</t>
+    <t xml:space="preserve">1.34530937671661</t>
   </si>
   <si>
     <t xml:space="preserve">1.28943860530853</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">1.28649806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21665954589844</t>
+    <t xml:space="preserve">1.21665966510773</t>
   </si>
   <si>
     <t xml:space="preserve">1.2556220293045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25415170192719</t>
+    <t xml:space="preserve">1.25415182113647</t>
   </si>
   <si>
     <t xml:space="preserve">1.28355753421783</t>
@@ -1718,19 +1718,19 @@
     <t xml:space="preserve">1.2975252866745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31590366363525</t>
+    <t xml:space="preserve">1.31590378284454</t>
   </si>
   <si>
     <t xml:space="preserve">1.30855226516724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31516873836517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28576278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29017388820648</t>
+    <t xml:space="preserve">1.31516861915588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28576290607452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29017376899719</t>
   </si>
   <si>
     <t xml:space="preserve">1.2497410774231</t>
@@ -1739,16 +1739,16 @@
     <t xml:space="preserve">1.27841150760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24091935157776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24459493160248</t>
+    <t xml:space="preserve">1.24091923236847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24459505081177</t>
   </si>
   <si>
     <t xml:space="preserve">1.25121128559113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31222796440125</t>
+    <t xml:space="preserve">1.31222808361053</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">1.26591420173645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30928754806519</t>
+    <t xml:space="preserve">1.3092874288559</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811957359314</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327601909637</t>
+    <t xml:space="preserve">1.22327589988708</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2365083694458</t>
+    <t xml:space="preserve">1.23650848865509</t>
   </si>
   <si>
     <t xml:space="preserve">1.23356783390045</t>
@@ -1793,22 +1793,22 @@
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768664360046</t>
+    <t xml:space="preserve">1.22768676280975</t>
   </si>
   <si>
     <t xml:space="preserve">1.3225200176239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3166389465332</t>
+    <t xml:space="preserve">1.31663882732391</t>
   </si>
   <si>
     <t xml:space="preserve">1.29164409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26150321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25856280326843</t>
+    <t xml:space="preserve">1.26150333881378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25856256484985</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1817,25 +1817,25 @@
     <t xml:space="preserve">1.24680042266846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24312460422516</t>
+    <t xml:space="preserve">1.24312472343445</t>
   </si>
   <si>
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28796827793121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29679000377655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24165439605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2401841878891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28870356082916</t>
+    <t xml:space="preserve">1.2879683971405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29679012298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24165451526642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24018406867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28870344161987</t>
   </si>
   <si>
     <t xml:space="preserve">1.27914667129517</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502786159515</t>
+    <t xml:space="preserve">1.28502774238586</t>
   </si>
   <si>
     <t xml:space="preserve">1.28135216236115</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">1.36589348316193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3511905670166</t>
+    <t xml:space="preserve">1.35119068622589</t>
   </si>
   <si>
     <t xml:space="preserve">1.32325518131256</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31810915470123</t>
+    <t xml:space="preserve">1.31810927391052</t>
   </si>
   <si>
     <t xml:space="preserve">1.31149291992188</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">1.28723323345184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2842925786972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3129631280899</t>
+    <t xml:space="preserve">1.28429269790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31296324729919</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060657978058</t>
@@ -1904,10 +1904,10 @@
     <t xml:space="preserve">1.33428239822388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35266077518463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31737399101257</t>
+    <t xml:space="preserve">1.35266089439392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31737411022186</t>
   </si>
   <si>
     <t xml:space="preserve">1.27694118022919</t>
@@ -1916,37 +1916,37 @@
     <t xml:space="preserve">1.30046582221985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27767646312714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29826045036316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30340623855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27326548099518</t>
+    <t xml:space="preserve">1.27767634391785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29826033115387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3034063577652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27326560020447</t>
   </si>
   <si>
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134186267853</t>
+    <t xml:space="preserve">1.33134174346924</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531967639923</t>
+    <t xml:space="preserve">1.29531979560852</t>
   </si>
   <si>
     <t xml:space="preserve">1.2747358083725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27253043651581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26958978176117</t>
+    <t xml:space="preserve">1.27253031730652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26958990097046</t>
   </si>
   <si>
     <t xml:space="preserve">1.23797869682312</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">1.21445417404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371912956238</t>
+    <t xml:space="preserve">1.21371901035309</t>
   </si>
   <si>
     <t xml:space="preserve">1.21592450141907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2056325674057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22915697097778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25194644927979</t>
+    <t xml:space="preserve">1.20563244819641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22915709018707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2519463300705</t>
   </si>
   <si>
     <t xml:space="preserve">1.22989225387573</t>
@@ -1985,22 +1985,22 @@
     <t xml:space="preserve">1.21518933773041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22695159912109</t>
+    <t xml:space="preserve">1.2269514799118</t>
   </si>
   <si>
     <t xml:space="preserve">1.23724353313446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23871386051178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20857310295105</t>
+    <t xml:space="preserve">1.23871374130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20857298374176</t>
   </si>
   <si>
     <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18137276172638</t>
+    <t xml:space="preserve">1.18137288093567</t>
   </si>
   <si>
     <t xml:space="preserve">1.17034566402435</t>
@@ -2009,37 +2009,37 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711319446564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13358855247498</t>
+    <t xml:space="preserve">1.15711307525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13358867168427</t>
   </si>
   <si>
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448519229889</t>
+    <t xml:space="preserve">1.06448531150818</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0336092710495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06522035598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10859370231628</t>
+    <t xml:space="preserve">1.03360939025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06522047519684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10859382152557</t>
   </si>
   <si>
     <t xml:space="preserve">1.08653962612152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08727467060089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07624757289886</t>
+    <t xml:space="preserve">1.0872745513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07624745368958</t>
   </si>
   <si>
     <t xml:space="preserve">1.08713448047638</t>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1738">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170564651489</t>
+    <t xml:space="preserve">1.00170576572418</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982317805290222</t>
+    <t xml:space="preserve">0.982317745685577</t>
   </si>
   <si>
     <t xml:space="preserve">0.985255420207977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960579931735992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964105069637299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993480384349823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992892980575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04576909542084</t>
+    <t xml:space="preserve">0.960579872131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964105129241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993480563163757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992893159389496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04576897621155</t>
   </si>
   <si>
     <t xml:space="preserve">1.04165637493134</t>
@@ -74,31 +74,31 @@
     <t xml:space="preserve">1.03695631027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05693173408508</t>
+    <t xml:space="preserve">1.05693161487579</t>
   </si>
   <si>
     <t xml:space="preserve">1.02579367160797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07749462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08101963996887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13565802574158</t>
+    <t xml:space="preserve">1.07749450206757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08101975917816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13565814495087</t>
   </si>
   <si>
     <t xml:space="preserve">1.1456458568573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14682078361511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11509525775909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12802040576935</t>
+    <t xml:space="preserve">1.1468209028244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11509537696838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12802052497864</t>
   </si>
   <si>
     <t xml:space="preserve">1.1403580904007</t>
@@ -110,16 +110,16 @@
     <t xml:space="preserve">1.09100735187531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02755618095398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957642316818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853653013706207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829564988613129</t>
+    <t xml:space="preserve">1.02755606174469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957642436027527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853652954101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829565107822418</t>
   </si>
   <si>
     <t xml:space="preserve">0.840140163898468</t>
@@ -128,16 +128,16 @@
     <t xml:space="preserve">0.810764729976654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816639840602875</t>
+    <t xml:space="preserve">0.816639721393585</t>
   </si>
   <si>
     <t xml:space="preserve">0.873040795326233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863640785217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872453272342682</t>
+    <t xml:space="preserve">0.86364084482193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872453391551971</t>
   </si>
   <si>
     <t xml:space="preserve">0.887728631496429</t>
@@ -146,10 +146,10 @@
     <t xml:space="preserve">0.881853580474854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86070317029953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842490255832672</t>
+    <t xml:space="preserve">0.860703229904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842490315437317</t>
   </si>
   <si>
     <t xml:space="preserve">0.850127995014191</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90417891740799</t>
+    <t xml:space="preserve">0.904178977012634</t>
   </si>
   <si>
     <t xml:space="preserve">0.916516661643982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895366370677948</t>
+    <t xml:space="preserve">0.895366311073303</t>
   </si>
   <si>
     <t xml:space="preserve">0.851890504360199</t>
@@ -173,58 +173,58 @@
     <t xml:space="preserve">0.807827174663544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776101529598236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.764938831329346</t>
+    <t xml:space="preserve">0.776101589202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76493889093399</t>
   </si>
   <si>
     <t xml:space="preserve">0.757888674736023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831915199756622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820164859294891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817814826965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828390002250671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.833677589893341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823102355003357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817227303981781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827215015888214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828977525234222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.843077838420868</t>
+    <t xml:space="preserve">0.831915020942688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820164918899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817814767360687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828390061855316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833677709102631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823102414608002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817227244377136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827214896678925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828977704048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.843077778816223</t>
   </si>
   <si>
     <t xml:space="preserve">0.865403234958649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837790310382843</t>
+    <t xml:space="preserve">0.837790191173553</t>
   </si>
   <si>
     <t xml:space="preserve">0.830740094184875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846602916717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848952949047089</t>
+    <t xml:space="preserve">0.846602857112885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848952889442444</t>
   </si>
   <si>
     <t xml:space="preserve">0.860115587711334</t>
@@ -233,43 +233,43 @@
     <t xml:space="preserve">0.846015393733978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834265053272247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822514891624451</t>
+    <t xml:space="preserve">0.834265112876892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822514951229095</t>
   </si>
   <si>
     <t xml:space="preserve">0.845427870750427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868340730667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920629262924194</t>
+    <t xml:space="preserve">0.868340790271759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92062920331955</t>
   </si>
   <si>
     <t xml:space="preserve">0.915929138660431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905941486358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893016278743744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553466320038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578221321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869515776634216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882440984249115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864228129386902</t>
+    <t xml:space="preserve">0.905941367149353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893016159534454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553525924683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578161716461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869515895843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88244104385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864228248596191</t>
   </si>
   <si>
     <t xml:space="preserve">0.835440218448639</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">0.83015251159668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831327557563782</t>
+    <t xml:space="preserve">0.831327497959137</t>
   </si>
   <si>
     <t xml:space="preserve">0.907116591930389</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">0.924741804599762</t>
   </si>
   <si>
-    <t xml:space="preserve">0.945304572582245</t>
+    <t xml:space="preserve">0.945304691791534</t>
   </si>
   <si>
     <t xml:space="preserve">0.937079608440399</t>
@@ -299,73 +299,73 @@
     <t xml:space="preserve">0.92885434627533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961769104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98744261264801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994025528430939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03483986854553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04010629653931</t>
+    <t xml:space="preserve">0.961769044399261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987442672252655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994025468826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03483974933624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0401064157486</t>
   </si>
   <si>
     <t xml:space="preserve">1.04076457023621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03615653514862</t>
+    <t xml:space="preserve">1.03615641593933</t>
   </si>
   <si>
     <t xml:space="preserve">1.05327212810516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05261385440826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05458867549896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05393052101135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07367932796478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11646854877472</t>
+    <t xml:space="preserve">1.05261373519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05458879470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05393040180206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07367920875549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11646842956543</t>
   </si>
   <si>
     <t xml:space="preserve">1.09276974201202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03878974914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02299070358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982834696769714</t>
+    <t xml:space="preserve">1.03878962993622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02299046516418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98283463716507</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367254734039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07894563674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07565414905548</t>
+    <t xml:space="preserve">0.993367195129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07894575595856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07565426826477</t>
   </si>
   <si>
     <t xml:space="preserve">1.07302093505859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10132765769958</t>
+    <t xml:space="preserve">1.10132777690887</t>
   </si>
   <si>
     <t xml:space="preserve">1.015749335289</t>
@@ -374,55 +374,55 @@
     <t xml:space="preserve">0.959135949611664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97756814956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972301840782166</t>
+    <t xml:space="preserve">0.97756826877594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97230190038681</t>
   </si>
   <si>
     <t xml:space="preserve">1.02628207206726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04668927192688</t>
+    <t xml:space="preserve">1.04668915271759</t>
   </si>
   <si>
     <t xml:space="preserve">1.02035737037659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961110889911652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938728868961334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936095714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956502735614777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951894819736481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936753928661346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946628212928772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939387083053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949919760227203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948603272438049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974276721477509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954527854919434</t>
+    <t xml:space="preserve">0.961110770702362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938728809356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936095654964447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956502676010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951894700527191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936753809452057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946628272533417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939387142658234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949919819831848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948603212833405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974276840686798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954527914524078</t>
   </si>
   <si>
     <t xml:space="preserve">0.997975409030914</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">0.809702932834625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.832085072994232</t>
+    <t xml:space="preserve">0.832085013389587</t>
   </si>
   <si>
     <t xml:space="preserve">0.851833879947662</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">0.88869833946228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884090423583984</t>
+    <t xml:space="preserve">0.88409036397934</t>
   </si>
   <si>
     <t xml:space="preserve">0.871582686901093</t>
@@ -458,28 +458,28 @@
     <t xml:space="preserve">0.880798876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886723518371582</t>
+    <t xml:space="preserve">0.886723458766937</t>
   </si>
   <si>
     <t xml:space="preserve">0.890673339366913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870924413204193</t>
+    <t xml:space="preserve">0.870924353599548</t>
   </si>
   <si>
     <t xml:space="preserve">0.866974651813507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884748637676239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883431971073151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87421590089798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870266079902649</t>
+    <t xml:space="preserve">0.884748518466949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883432030677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874215841293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870266139507294</t>
   </si>
   <si>
     <t xml:space="preserve">0.864341497421265</t>
@@ -488,19 +488,19 @@
     <t xml:space="preserve">0.881457149982452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882773637771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887381911277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880140602588654</t>
+    <t xml:space="preserve">0.882773697376251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887381792068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880140542984009</t>
   </si>
   <si>
     <t xml:space="preserve">0.921613097190857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934778928756714</t>
+    <t xml:space="preserve">0.934778988361359</t>
   </si>
   <si>
     <t xml:space="preserve">0.947944939136505</t>
@@ -509,13 +509,13 @@
     <t xml:space="preserve">0.947286665439606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932145953178406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902522623538971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281255245209</t>
+    <t xml:space="preserve">0.932145833969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902522563934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281314849854</t>
   </si>
   <si>
     <t xml:space="preserve">0.90318089723587</t>
@@ -527,61 +527,61 @@
     <t xml:space="preserve">0.940045416355133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934120714664459</t>
+    <t xml:space="preserve">0.934120833873749</t>
   </si>
   <si>
     <t xml:space="preserve">0.911080360412598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912397027015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913713574409485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931487560272217</t>
+    <t xml:space="preserve">0.912396967411041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913713693618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931487441062927</t>
   </si>
   <si>
     <t xml:space="preserve">0.918979942798615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909763753414154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926879465579987</t>
+    <t xml:space="preserve">0.909763813018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926879405975342</t>
   </si>
   <si>
     <t xml:space="preserve">0.920296549797058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938070476055145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964402377605438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970326900482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988759160041809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984151124954224</t>
+    <t xml:space="preserve">0.9380704164505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964402437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970326840877533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988759219646454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984151184558868</t>
   </si>
   <si>
     <t xml:space="preserve">0.992708921432495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04142272472382</t>
+    <t xml:space="preserve">1.04142284393311</t>
   </si>
   <si>
     <t xml:space="preserve">1.03549814224243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03154850006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05919671058655</t>
+    <t xml:space="preserve">1.03154838085175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05919682979584</t>
   </si>
   <si>
     <t xml:space="preserve">1.03813135623932</t>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">1.03023183345795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02167391777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03418159484863</t>
+    <t xml:space="preserve">1.02167403697968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03418147563934</t>
   </si>
   <si>
     <t xml:space="preserve">1.01838254928589</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">1.03352332115173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04208099842072</t>
+    <t xml:space="preserve">1.04208111763</t>
   </si>
   <si>
     <t xml:space="preserve">1.01443266868591</t>
@@ -614,13 +614,13 @@
     <t xml:space="preserve">1.08618676662445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09013664722443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0993527173996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08750355243683</t>
+    <t xml:space="preserve">1.09013676643372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09935259819031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08750343322754</t>
   </si>
   <si>
     <t xml:space="preserve">1.07960391044617</t>
@@ -635,16 +635,16 @@
     <t xml:space="preserve">1.13819217681885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11120212078094</t>
+    <t xml:space="preserve">1.11120200157166</t>
   </si>
   <si>
     <t xml:space="preserve">1.123051404953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08421206474304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07697069644928</t>
+    <t xml:space="preserve">1.08421194553375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07697081565857</t>
   </si>
   <si>
     <t xml:space="preserve">1.09145331382751</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">1.13095092773438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11186051368713</t>
+    <t xml:space="preserve">1.11186039447784</t>
   </si>
   <si>
     <t xml:space="preserve">1.12568461894989</t>
@@ -671,16 +671,16 @@
     <t xml:space="preserve">1.13885056972504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13621735572815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14543354511261</t>
+    <t xml:space="preserve">1.13621723651886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14543342590332</t>
   </si>
   <si>
     <t xml:space="preserve">1.14740836620331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15596616268158</t>
+    <t xml:space="preserve">1.15596628189087</t>
   </si>
   <si>
     <t xml:space="preserve">1.14016711711884</t>
@@ -689,28 +689,28 @@
     <t xml:space="preserve">1.14082539081573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11910164356232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12436807155609</t>
+    <t xml:space="preserve">1.11910176277161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1243679523468</t>
   </si>
   <si>
     <t xml:space="preserve">1.12831783294678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09079492092133</t>
+    <t xml:space="preserve">1.09079504013062</t>
   </si>
   <si>
     <t xml:space="preserve">1.0973778963089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08684527873993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0190407037735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02364885807037</t>
+    <t xml:space="preserve">1.08684515953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01904082298279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02364873886108</t>
   </si>
   <si>
     <t xml:space="preserve">1.02496540546417</t>
@@ -722,58 +722,58 @@
     <t xml:space="preserve">0.988100945949554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940703749656677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933462381362915</t>
+    <t xml:space="preserve">0.940703690052032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93346244096756</t>
   </si>
   <si>
     <t xml:space="preserve">0.935437381267548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953869581222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999950349330902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00521647930145</t>
+    <t xml:space="preserve">0.953869521617889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999950230121613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00521659851074</t>
   </si>
   <si>
     <t xml:space="preserve">1.0170658826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00916635990143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03088998794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04603087902069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07170450687408</t>
+    <t xml:space="preserve">1.00916624069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03089010715485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0460307598114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07170438766479</t>
   </si>
   <si>
     <t xml:space="preserve">1.13424253463745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10396087169647</t>
+    <t xml:space="preserve">1.10396099090576</t>
   </si>
   <si>
     <t xml:space="preserve">1.10066938400269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09474468231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12041831016541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12765967845917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1263427734375</t>
+    <t xml:space="preserve">1.0947448015213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12041819095612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12765955924988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12634289264679</t>
   </si>
   <si>
     <t xml:space="preserve">1.1223931312561</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">1.16913211345673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1803230047226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17176532745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16584062576294</t>
+    <t xml:space="preserve">1.18032312393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17176520824432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16584074497223</t>
   </si>
   <si>
     <t xml:space="preserve">1.17374014854431</t>
@@ -815,10 +815,10 @@
     <t xml:space="preserve">1.19941365718842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21652948856354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21389615535736</t>
+    <t xml:space="preserve">1.21652936935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21389603614807</t>
   </si>
   <si>
     <t xml:space="preserve">1.22706198692322</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">1.204021692276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19546389579773</t>
+    <t xml:space="preserve">1.19546377658844</t>
   </si>
   <si>
     <t xml:space="preserve">1.22179555892944</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">1.25339388847351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26853466033936</t>
+    <t xml:space="preserve">1.26853454113007</t>
   </si>
   <si>
     <t xml:space="preserve">1.24417769908905</t>
@@ -860,31 +860,31 @@
     <t xml:space="preserve">1.26260995864868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27182626724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28696703910828</t>
+    <t xml:space="preserve">1.27182614803314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28696691989899</t>
   </si>
   <si>
     <t xml:space="preserve">1.3093489408493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32448983192444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32843935489655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3613543510437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35213816165924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35608780384064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35872113704681</t>
+    <t xml:space="preserve">1.32448971271515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32843947410583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36135423183441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35213792324066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35608792304993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35872101783752</t>
   </si>
   <si>
     <t xml:space="preserve">1.39163589477539</t>
@@ -893,79 +893,79 @@
     <t xml:space="preserve">1.40875148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47721409797668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48116409778595</t>
+    <t xml:space="preserve">1.47721421718597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48116385936737</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169671535492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169647693634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49031937122345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4889417886734</t>
+    <t xml:space="preserve">1.49169659614563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49031925201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48894190788269</t>
   </si>
   <si>
     <t xml:space="preserve">1.47379076480865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39803516864777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38701629638672</t>
+    <t xml:space="preserve">1.39803528785706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38701617717743</t>
   </si>
   <si>
     <t xml:space="preserve">1.38288402557373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48343253135681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44899821281433</t>
+    <t xml:space="preserve">1.48343229293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44899809360504</t>
   </si>
   <si>
     <t xml:space="preserve">1.43522441387177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43246960639954</t>
+    <t xml:space="preserve">1.43246948719025</t>
   </si>
   <si>
     <t xml:space="preserve">1.45313012599945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51235735416412</t>
+    <t xml:space="preserve">1.51235747337341</t>
   </si>
   <si>
     <t xml:space="preserve">1.57158434391022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53301787376404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53990471363068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51511216163635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43935644626617</t>
+    <t xml:space="preserve">1.53301799297333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53990483283997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51511192321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43935632705688</t>
   </si>
   <si>
     <t xml:space="preserve">1.47792291641235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45175290107727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45863974094391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42282795906067</t>
+    <t xml:space="preserve">1.45175278186798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45863962173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42282783985138</t>
   </si>
   <si>
     <t xml:space="preserve">1.41594099998474</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">1.45450758934021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44624328613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4379791021347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45726215839386</t>
+    <t xml:space="preserve">1.44624316692352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43797898292542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45726227760315</t>
   </si>
   <si>
     <t xml:space="preserve">1.42558264732361</t>
@@ -998,25 +998,25 @@
     <t xml:space="preserve">1.43660163879395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45588493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47654557228088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51786684989929</t>
+    <t xml:space="preserve">1.45588505268097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47654569149017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51786673069</t>
   </si>
   <si>
     <t xml:space="preserve">1.53164052963257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53577268123627</t>
+    <t xml:space="preserve">1.53577256202698</t>
   </si>
   <si>
     <t xml:space="preserve">1.55643332004547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54403686523438</t>
+    <t xml:space="preserve">1.54403710365295</t>
   </si>
   <si>
     <t xml:space="preserve">1.52888584136963</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">1.31194925308228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27820360660553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25960910320282</t>
+    <t xml:space="preserve">1.27820348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25960898399353</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062797546387</t>
@@ -1049,16 +1049,16 @@
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258173942566</t>
+    <t xml:space="preserve">1.35258197784424</t>
   </si>
   <si>
     <t xml:space="preserve">1.29748690128326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28233563899994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29542088508606</t>
+    <t xml:space="preserve">1.28233575820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29542076587677</t>
   </si>
   <si>
     <t xml:space="preserve">1.2899112701416</t>
@@ -1073,25 +1073,25 @@
     <t xml:space="preserve">1.32778906822205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33329856395721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34018552303314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33880817890167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37393116950989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41180884838104</t>
+    <t xml:space="preserve">1.3332986831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34018540382385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33880805969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3739310503006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41180896759033</t>
   </si>
   <si>
     <t xml:space="preserve">1.41869580745697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4600168466568</t>
+    <t xml:space="preserve">1.46001696586609</t>
   </si>
   <si>
     <t xml:space="preserve">1.45037543773651</t>
@@ -1100,10 +1100,10 @@
     <t xml:space="preserve">1.44762063026428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4049220085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46414911746979</t>
+    <t xml:space="preserve">1.40492212772369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46414923667908</t>
   </si>
   <si>
     <t xml:space="preserve">1.48618721961975</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">1.51098001003265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56194269657135</t>
+    <t xml:space="preserve">1.56194281578064</t>
   </si>
   <si>
     <t xml:space="preserve">1.53852736949921</t>
@@ -1124,10 +1124,10 @@
     <t xml:space="preserve">1.55918800830841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57433927059174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51648938655853</t>
+    <t xml:space="preserve">1.57433915138245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51648926734924</t>
   </si>
   <si>
     <t xml:space="preserve">1.51924419403076</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">1.49582874774933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48756456375122</t>
+    <t xml:space="preserve">1.48756468296051</t>
   </si>
   <si>
     <t xml:space="preserve">1.50822520256042</t>
@@ -1157,13 +1157,13 @@
     <t xml:space="preserve">1.57847130298615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62116992473602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61841511726379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58949029445648</t>
+    <t xml:space="preserve">1.62117004394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6184149980545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58949041366577</t>
   </si>
   <si>
     <t xml:space="preserve">1.4848096370697</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">1.52062153816223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55230104923248</t>
+    <t xml:space="preserve">1.55230116844177</t>
   </si>
   <si>
     <t xml:space="preserve">1.52199900150299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49720633029938</t>
+    <t xml:space="preserve">1.49720621109009</t>
   </si>
   <si>
     <t xml:space="preserve">1.42145049571991</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">1.37599718570709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37117660045624</t>
+    <t xml:space="preserve">1.37117648124695</t>
   </si>
   <si>
     <t xml:space="preserve">1.38839364051819</t>
@@ -1202,10 +1202,10 @@
     <t xml:space="preserve">1.37530851364136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36360085010529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35051572322845</t>
+    <t xml:space="preserve">1.36360096931458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35051560401917</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">1.34087419509888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36222350597382</t>
+    <t xml:space="preserve">1.36222338676453</t>
   </si>
   <si>
     <t xml:space="preserve">1.34294033050537</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">1.38977098464966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3801292181015</t>
+    <t xml:space="preserve">1.38012933731079</t>
   </si>
   <si>
     <t xml:space="preserve">1.35533666610718</t>
@@ -1241,13 +1241,13 @@
     <t xml:space="preserve">1.37737452983856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36842155456543</t>
+    <t xml:space="preserve">1.36842167377472</t>
   </si>
   <si>
     <t xml:space="preserve">1.36635553836823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21966516971588</t>
+    <t xml:space="preserve">1.21966528892517</t>
   </si>
   <si>
     <t xml:space="preserve">1.23963701725006</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">1.25134479999542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24927878379822</t>
+    <t xml:space="preserve">1.24927866458893</t>
   </si>
   <si>
     <t xml:space="preserve">1.22586333751678</t>
@@ -1268,31 +1268,31 @@
     <t xml:space="preserve">1.24721264839172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21553313732147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19900465011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22104251384735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21002352237701</t>
+    <t xml:space="preserve">1.21553301811218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19900453090668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22104263305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2100236415863</t>
   </si>
   <si>
     <t xml:space="preserve">1.20589137077332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21140086650848</t>
+    <t xml:space="preserve">1.21140098571777</t>
   </si>
   <si>
     <t xml:space="preserve">1.1996933221817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21277832984924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16457009315491</t>
+    <t xml:space="preserve">1.21277844905853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16457033157349</t>
   </si>
   <si>
     <t xml:space="preserve">1.15699458122253</t>
@@ -1301,31 +1301,31 @@
     <t xml:space="preserve">1.15217387676239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12600374221802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12875843048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10052227973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1053432226181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11429595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13082444667816</t>
+    <t xml:space="preserve">1.12600362300873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12875854969025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10052239894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10534310340881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11429607868195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13082456588745</t>
   </si>
   <si>
     <t xml:space="preserve">1.12669241428375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14322090148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1335791349411</t>
+    <t xml:space="preserve">1.14322078227997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13357937335968</t>
   </si>
   <si>
     <t xml:space="preserve">1.23137295246124</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">1.1893630027771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17352318763733</t>
+    <t xml:space="preserve">1.17352306842804</t>
   </si>
   <si>
     <t xml:space="preserve">1.13564538955688</t>
@@ -1343,16 +1343,16 @@
     <t xml:space="preserve">1.1728343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17558920383453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17696666717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1707683801651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26029765605927</t>
+    <t xml:space="preserve">1.17558932304382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.176966547966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17076849937439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26029777526855</t>
   </si>
   <si>
     <t xml:space="preserve">1.3023077249527</t>
@@ -1361,10 +1361,10 @@
     <t xml:space="preserve">1.27682638168335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30988323688507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31126070022583</t>
+    <t xml:space="preserve">1.30988311767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31126058101654</t>
   </si>
   <si>
     <t xml:space="preserve">1.25478827953339</t>
@@ -1373,25 +1373,25 @@
     <t xml:space="preserve">1.26649594306946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21071219444275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22792935371399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25065612792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24239182472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27200531959534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29473209381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29817545413971</t>
+    <t xml:space="preserve">1.21071231365204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22792947292328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2506560087204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24239194393158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27200543880463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29473197460175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.298175573349</t>
   </si>
   <si>
     <t xml:space="preserve">1.3229683637619</t>
@@ -1400,16 +1400,16 @@
     <t xml:space="preserve">1.30161893367767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29335474967957</t>
+    <t xml:space="preserve">1.29335463047028</t>
   </si>
   <si>
     <t xml:space="preserve">1.279580950737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26718461513519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24583542346954</t>
+    <t xml:space="preserve">1.26718473434448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
     <t xml:space="preserve">1.26374125480652</t>
@@ -1430,25 +1430,25 @@
     <t xml:space="preserve">1.40905427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42007327079773</t>
+    <t xml:space="preserve">1.42007339000702</t>
   </si>
   <si>
     <t xml:space="preserve">1.39114820957184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3966578245163</t>
+    <t xml:space="preserve">1.39665794372559</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34156286716461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30781733989716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38794767856598</t>
+    <t xml:space="preserve">1.34156274795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30781722068787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38794755935669</t>
   </si>
   <si>
     <t xml:space="preserve">1.41661822795868</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">1.41882359981537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40265047550201</t>
+    <t xml:space="preserve">1.4026505947113</t>
   </si>
   <si>
     <t xml:space="preserve">1.37692046165466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36001217365265</t>
+    <t xml:space="preserve">1.36001241207123</t>
   </si>
   <si>
     <t xml:space="preserve">1.38427197933197</t>
@@ -1472,10 +1472,10 @@
     <t xml:space="preserve">1.42543983459473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41000175476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42176413536072</t>
+    <t xml:space="preserve">1.41000187397003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42176425457001</t>
   </si>
   <si>
     <t xml:space="preserve">1.43867242336273</t>
@@ -1484,28 +1484,28 @@
     <t xml:space="preserve">1.47469437122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48645663261414</t>
+    <t xml:space="preserve">1.48645675182343</t>
   </si>
   <si>
     <t xml:space="preserve">1.52468395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704050064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49968910217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49674868583679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49086761474609</t>
+    <t xml:space="preserve">1.50704061985016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49968922138214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4967485666275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4908674955368</t>
   </si>
   <si>
     <t xml:space="preserve">1.52615427970886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51439201831818</t>
+    <t xml:space="preserve">1.51439189910889</t>
   </si>
   <si>
     <t xml:space="preserve">1.56585204601288</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792695999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47910535335541</t>
+    <t xml:space="preserve">1.48792684078217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47910523414612</t>
   </si>
   <si>
     <t xml:space="preserve">1.50115954875946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50998103618622</t>
+    <t xml:space="preserve">1.50998115539551</t>
   </si>
   <si>
     <t xml:space="preserve">1.52321374416351</t>
@@ -1541,10 +1541,10 @@
     <t xml:space="preserve">1.44455361366272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46660780906677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46366739273071</t>
+    <t xml:space="preserve">1.46660768985748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46366727352142</t>
   </si>
   <si>
     <t xml:space="preserve">1.45558071136475</t>
@@ -1553,10 +1553,10 @@
     <t xml:space="preserve">1.45043480396271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44381833076477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42911565303802</t>
+    <t xml:space="preserve">1.44381844997406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42911553382874</t>
   </si>
   <si>
     <t xml:space="preserve">1.37912607192993</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">1.40706133842468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43058586120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4239696264267</t>
+    <t xml:space="preserve">1.43058574199677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42396950721741</t>
   </si>
   <si>
     <t xml:space="preserve">1.43940758705139</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4467591047287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46146178245544</t>
+    <t xml:space="preserve">1.44675898551941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46146190166473</t>
   </si>
   <si>
     <t xml:space="preserve">1.48498630523682</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762460708618</t>
+    <t xml:space="preserve">1.52762472629547</t>
   </si>
   <si>
     <t xml:space="preserve">1.56144118309021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57320332527161</t>
+    <t xml:space="preserve">1.5732034444809</t>
   </si>
   <si>
     <t xml:space="preserve">1.55114912986755</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">1.57173311710358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57026267051697</t>
+    <t xml:space="preserve">1.57026278972626</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025249004364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63495528697968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64377689361572</t>
+    <t xml:space="preserve">1.63495516777039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64377701282501</t>
   </si>
   <si>
     <t xml:space="preserve">1.64524722099304</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">1.62760388851166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60113871097565</t>
+    <t xml:space="preserve">1.60113883018494</t>
   </si>
   <si>
     <t xml:space="preserve">1.62466335296631</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">1.40191531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147220134735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40853154659271</t>
+    <t xml:space="preserve">1.41147208213806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.408531665802</t>
   </si>
   <si>
     <t xml:space="preserve">1.39970993995667</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">1.43279135227203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44822931289673</t>
+    <t xml:space="preserve">1.44822919368744</t>
   </si>
   <si>
     <t xml:space="preserve">1.43205618858337</t>
@@ -1682,22 +1682,22 @@
     <t xml:space="preserve">1.39088821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37250959873199</t>
+    <t xml:space="preserve">1.37250971794128</t>
   </si>
   <si>
     <t xml:space="preserve">1.36074733734131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35486626625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34530937671661</t>
+    <t xml:space="preserve">1.3548663854599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3453094959259</t>
   </si>
   <si>
     <t xml:space="preserve">1.28943860530853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27179515361786</t>
+    <t xml:space="preserve">1.27179527282715</t>
   </si>
   <si>
     <t xml:space="preserve">1.28649806976318</t>
@@ -1715,10 +1715,10 @@
     <t xml:space="preserve">1.28355753421783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2975252866745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31590378284454</t>
+    <t xml:space="preserve">1.29752516746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31590366363525</t>
   </si>
   <si>
     <t xml:space="preserve">1.30855226516724</t>
@@ -1727,22 +1727,22 @@
     <t xml:space="preserve">1.31516861915588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28576290607452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29017376899719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2497410774231</t>
+    <t xml:space="preserve">1.28576278686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29017388820648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24974095821381</t>
   </si>
   <si>
     <t xml:space="preserve">1.27841150760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24091923236847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24459505081177</t>
+    <t xml:space="preserve">1.24091935157776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24459493160248</t>
   </si>
   <si>
     <t xml:space="preserve">1.25121128559113</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">1.26076805591583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26591420173645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3092874288559</t>
+    <t xml:space="preserve">1.26591408252716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30928754806519</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811957359314</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">1.25782752037048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22180557250977</t>
+    <t xml:space="preserve">1.22180569171906</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23650848865509</t>
+    <t xml:space="preserve">1.2365083694458</t>
   </si>
   <si>
     <t xml:space="preserve">1.23356783390045</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">1.29164409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26150333881378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25856256484985</t>
+    <t xml:space="preserve">1.26150321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25856280326843</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">1.24680042266846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24312472343445</t>
+    <t xml:space="preserve">1.24312460422516</t>
   </si>
   <si>
     <t xml:space="preserve">1.26885461807251</t>
@@ -1826,49 +1826,49 @@
     <t xml:space="preserve">1.2879683971405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29679012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24165451526642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24018406867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28870344161987</t>
+    <t xml:space="preserve">1.29679000377655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24165439605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2401841878891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28870356082916</t>
   </si>
   <si>
     <t xml:space="preserve">1.27914667129517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21004331111908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27032494544983</t>
+    <t xml:space="preserve">1.21004343032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27032506465912</t>
   </si>
   <si>
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502774238586</t>
+    <t xml:space="preserve">1.28502786159515</t>
   </si>
   <si>
     <t xml:space="preserve">1.28135216236115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29311430454254</t>
+    <t xml:space="preserve">1.29311442375183</t>
   </si>
   <si>
     <t xml:space="preserve">1.38059628009796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38941788673401</t>
+    <t xml:space="preserve">1.3894180059433</t>
   </si>
   <si>
     <t xml:space="preserve">1.36589348316193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35119068622589</t>
+    <t xml:space="preserve">1.3511905670166</t>
   </si>
   <si>
     <t xml:space="preserve">1.32325518131256</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31810927391052</t>
+    <t xml:space="preserve">1.31810915470123</t>
   </si>
   <si>
     <t xml:space="preserve">1.31149291992188</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">1.28723323345184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28429269790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31296324729919</t>
+    <t xml:space="preserve">1.2842925786972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3129631280899</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060657978058</t>
@@ -1901,31 +1901,31 @@
     <t xml:space="preserve">1.36736369132996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33428239822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35266089439392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31737411022186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27694118022919</t>
+    <t xml:space="preserve">1.33428227901459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35266077518463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31737399101257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27694129943848</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046582221985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27767634391785</t>
+    <t xml:space="preserve">1.27767646312714</t>
   </si>
   <si>
     <t xml:space="preserve">1.29826033115387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3034063577652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27326560020447</t>
+    <t xml:space="preserve">1.30340623855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27326548099518</t>
   </si>
   <si>
     <t xml:space="preserve">1.27620601654053</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531979560852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2747358083725</t>
+    <t xml:space="preserve">1.29531967639923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27473568916321</t>
   </si>
   <si>
     <t xml:space="preserve">1.27253031730652</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">1.21886503696442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21445417404175</t>
+    <t xml:space="preserve">1.21445405483246</t>
   </si>
   <si>
     <t xml:space="preserve">1.21371901035309</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">1.22915709018707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2519463300705</t>
+    <t xml:space="preserve">1.25194644927979</t>
   </si>
   <si>
     <t xml:space="preserve">1.22989225387573</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">1.21518933773041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2269514799118</t>
+    <t xml:space="preserve">1.22695159912109</t>
   </si>
   <si>
     <t xml:space="preserve">1.23724353313446</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18137288093567</t>
+    <t xml:space="preserve">1.18137276172638</t>
   </si>
   <si>
     <t xml:space="preserve">1.17034566402435</t>
@@ -2009,40 +2009,40 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711307525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13358867168427</t>
+    <t xml:space="preserve">1.15711319446564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13358855247498</t>
   </si>
   <si>
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448531150818</t>
+    <t xml:space="preserve">1.06448519229889</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03360939025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06522047519684</t>
+    <t xml:space="preserve">1.0336092710495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06522035598755</t>
   </si>
   <si>
     <t xml:space="preserve">1.10859382152557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08653962612152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0872745513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07624745368958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08713448047638</t>
+    <t xml:space="preserve">1.08653950691223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08727467060089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07624757289886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08713436126709</t>
   </si>
   <si>
     <t xml:space="preserve">1.10890829563141</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.05913960933685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02647888660431</t>
+    <t xml:space="preserve">1.0264790058136</t>
   </si>
   <si>
     <t xml:space="preserve">1.02181303501129</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.02259075641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995373427867889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00548279285431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00237214565277</t>
+    <t xml:space="preserve">0.995373487472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00548267364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00237226486206</t>
   </si>
   <si>
     <t xml:space="preserve">1.01248145103455</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.00159454345703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01714730262756</t>
+    <t xml:space="preserve">1.01714718341827</t>
   </si>
   <si>
     <t xml:space="preserve">1.03969871997833</t>
@@ -2093,31 +2093,31 @@
     <t xml:space="preserve">0.996151089668274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.000816822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987597167491913</t>
+    <t xml:space="preserve">1.00081694126129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987597048282623</t>
   </si>
   <si>
     <t xml:space="preserve">0.965823292732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970489203929901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967378497123718</t>
+    <t xml:space="preserve">0.970489144325256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967378556728363</t>
   </si>
   <si>
     <t xml:space="preserve">0.998484075069427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991485297679901</t>
+    <t xml:space="preserve">0.991485238075256</t>
   </si>
   <si>
     <t xml:space="preserve">0.993040502071381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999261617660522</t>
+    <t xml:space="preserve">0.999261677265167</t>
   </si>
   <si>
     <t xml:space="preserve">1.02958941459656</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">1.0303670167923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581058979034</t>
+    <t xml:space="preserve">1.03581047058105</t>
   </si>
   <si>
     <t xml:space="preserve">1.08246862888336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0560290813446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10190951824188</t>
+    <t xml:space="preserve">1.05602896213531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10190963745117</t>
   </si>
   <si>
     <t xml:space="preserve">1.09413313865662</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">1.15789926052094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16645324230194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1509006023407</t>
+    <t xml:space="preserve">1.16645336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15090048313141</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612544536591</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">1.10968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13301503658295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13068211078644</t>
+    <t xml:space="preserve">1.13301491737366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13068199157715</t>
   </si>
   <si>
     <t xml:space="preserve">1.13145971298218</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">1.14467942714691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1236834526062</t>
+    <t xml:space="preserve">1.12368333339691</t>
   </si>
   <si>
     <t xml:space="preserve">1.10735297203064</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">1.11590695381165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12057268619537</t>
+    <t xml:space="preserve">1.12057280540466</t>
   </si>
   <si>
     <t xml:space="preserve">1.13534784317017</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.19678115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17345190048218</t>
+    <t xml:space="preserve">1.17345201969147</t>
   </si>
   <si>
     <t xml:space="preserve">1.18978226184845</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">1.22011005878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2208878993988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21077847480774</t>
+    <t xml:space="preserve">1.22088778018951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21077859401703</t>
   </si>
   <si>
     <t xml:space="preserve">1.19133758544922</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.25976955890656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27376687526703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26987886428833</t>
+    <t xml:space="preserve">1.27376699447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26987874507904</t>
   </si>
   <si>
     <t xml:space="preserve">1.27609992027283</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">1.33286726474762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34608709812164</t>
+    <t xml:space="preserve">1.34608697891235</t>
   </si>
   <si>
     <t xml:space="preserve">1.35852921009064</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">1.39896631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38807928562164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37330436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35464107990265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35619628429413</t>
+    <t xml:space="preserve">1.38807940483093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37330424785614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35464096069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35619640350342</t>
   </si>
   <si>
     <t xml:space="preserve">1.33753311634064</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">1.3134263753891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28465390205383</t>
+    <t xml:space="preserve">1.28465378284454</t>
   </si>
   <si>
     <t xml:space="preserve">1.27143406867981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25821435451508</t>
+    <t xml:space="preserve">1.25821423530579</t>
   </si>
   <si>
     <t xml:space="preserve">1.25899183750153</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.25510370731354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23644042015076</t>
+    <t xml:space="preserve">1.23644053936005</t>
   </si>
   <si>
     <t xml:space="preserve">1.24343919754028</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">1.16412031650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15167820453644</t>
+    <t xml:space="preserve">1.15167808532715</t>
   </si>
   <si>
     <t xml:space="preserve">1.12757158279419</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">1.11823987960815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1213504076004</t>
+    <t xml:space="preserve">1.12135052680969</t>
   </si>
   <si>
     <t xml:space="preserve">1.12212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11357414722443</t>
+    <t xml:space="preserve">1.11357402801514</t>
   </si>
   <si>
     <t xml:space="preserve">1.10579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08868968486786</t>
+    <t xml:space="preserve">1.08868980407715</t>
   </si>
   <si>
     <t xml:space="preserve">1.11746227741241</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">1.14623475074768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1065753698349</t>
+    <t xml:space="preserve">1.10657525062561</t>
   </si>
   <si>
     <t xml:space="preserve">1.11201870441437</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.13923597335815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1337925195694</t>
+    <t xml:space="preserve">1.13379263877869</t>
   </si>
   <si>
     <t xml:space="preserve">1.05447375774384</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">1.04047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01403665542603</t>
+    <t xml:space="preserve">1.01403677463531</t>
   </si>
   <si>
     <t xml:space="preserve">1.01325905323029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996928751468658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958824574947357</t>
+    <t xml:space="preserve">0.996928691864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958824634552002</t>
   </si>
   <si>
     <t xml:space="preserve">0.942494213581085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948715329170227</t>
+    <t xml:space="preserve">0.948715388774872</t>
   </si>
   <si>
     <t xml:space="preserve">0.954936444759369</t>
@@ -2498,19 +2498,19 @@
     <t xml:space="preserve">1.00470507144928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990707695484161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985264122486115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997706413269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983708918094635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959602177143097</t>
+    <t xml:space="preserve">0.990707635879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985264182090759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997706294059753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98370897769928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959602236747742</t>
   </si>
   <si>
     <t xml:space="preserve">0.884949207305908</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">0.88106107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894280791282654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855399131774902</t>
+    <t xml:space="preserve">0.894280850887299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855399072170258</t>
   </si>
   <si>
     <t xml:space="preserve">0.828181862831116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801742196083069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815739631652832</t>
+    <t xml:space="preserve">0.801742255687714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815739691257477</t>
   </si>
   <si>
     <t xml:space="preserve">0.752362310886383</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">0.678875803947449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.695595026016235</t>
+    <t xml:space="preserve">0.695594966411591</t>
   </si>
   <si>
     <t xml:space="preserve">0.687040984630585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683930397033691</t>
+    <t xml:space="preserve">0.683930456638336</t>
   </si>
   <si>
     <t xml:space="preserve">0.645048677921295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632217645645142</t>
+    <t xml:space="preserve">0.632217705249786</t>
   </si>
   <si>
     <t xml:space="preserve">0.592558324337006</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">0.612388014793396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611610293388367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575839102268219</t>
+    <t xml:space="preserve">0.611610352993011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575839042663574</t>
   </si>
   <si>
     <t xml:space="preserve">0.572339713573456</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">0.550177097320557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576227903366089</t>
+    <t xml:space="preserve">0.576227962970734</t>
   </si>
   <si>
     <t xml:space="preserve">0.565729856491089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.57350617647171</t>
+    <t xml:space="preserve">0.573506236076355</t>
   </si>
   <si>
     <t xml:space="preserve">0.567673921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660990238189697</t>
+    <t xml:space="preserve">0.660990178585052</t>
   </si>
   <si>
     <t xml:space="preserve">0.684319257736206</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.638049960136414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674210011959076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681208670139313</t>
+    <t xml:space="preserve">0.674209952354431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681208729743958</t>
   </si>
   <si>
     <t xml:space="preserve">0.657879650592804</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.643882215023041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640771627426147</t>
+    <t xml:space="preserve">0.640771687030792</t>
   </si>
   <si>
     <t xml:space="preserve">0.611999154090881</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">0.622108399868011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.605778098106384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608110964298248</t>
+    <t xml:space="preserve">0.60577803850174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608111023902893</t>
   </si>
   <si>
     <t xml:space="preserve">0.613165616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607333362102509</t>
+    <t xml:space="preserve">0.607333302497864</t>
   </si>
   <si>
     <t xml:space="preserve">0.626385390758514</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">0.621330797672272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598779320716858</t>
+    <t xml:space="preserve">0.598779380321503</t>
   </si>
   <si>
     <t xml:space="preserve">0.615498483181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559897601604462</t>
+    <t xml:space="preserve">0.559897541999817</t>
   </si>
   <si>
     <t xml:space="preserve">0.549399495124817</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">0.547844231128693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544344842433929</t>
+    <t xml:space="preserve">0.544344902038574</t>
   </si>
   <si>
     <t xml:space="preserve">0.547455430030823</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.57311737537384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593724727630615</t>
+    <t xml:space="preserve">0.59372466802597</t>
   </si>
   <si>
     <t xml:space="preserve">0.628329515457153</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">0.625996589660645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637661159038544</t>
+    <t xml:space="preserve">0.637661099433899</t>
   </si>
   <si>
     <t xml:space="preserve">0.61433207988739</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">0.654380261898041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632606506347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585170745849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586725950241089</t>
+    <t xml:space="preserve">0.632606446743011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585170686244965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586726009845734</t>
   </si>
   <si>
     <t xml:space="preserve">0.580893695354462</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">0.600334644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587892472743988</t>
+    <t xml:space="preserve">0.587892413139343</t>
   </si>
   <si>
     <t xml:space="preserve">0.580116093158722</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">0.576616764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58322662115097</t>
+    <t xml:space="preserve">0.583226680755615</t>
   </si>
   <si>
     <t xml:space="preserve">0.564563393592834</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">0.548233032226562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.541623115539551</t>
+    <t xml:space="preserve">0.541623175144196</t>
   </si>
   <si>
     <t xml:space="preserve">0.524903953075409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519460499286652</t>
+    <t xml:space="preserve">0.519460558891296</t>
   </si>
   <si>
     <t xml:space="preserve">0.515961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4766905605793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489521563053131</t>
+    <t xml:space="preserve">0.476690530776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489521533250809</t>
   </si>
   <si>
     <t xml:space="preserve">0.508962452411652</t>
@@ -2789,31 +2789,31 @@
     <t xml:space="preserve">0.491076827049255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501186072826385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498464375734329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48602220416069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497686713933945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486799836158752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477079391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474746465682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459193795919418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444418668746948</t>
+    <t xml:space="preserve">0.50118613243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498464345932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486022174358368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497686743736267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48679980635643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477079421281815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474746435880661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459193736314774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444418698549271</t>
   </si>
   <si>
     <t xml:space="preserve">0.451806217432022</t>
@@ -2825,34 +2825,34 @@
     <t xml:space="preserve">0.485633373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478245854377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.491854459047318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508573651313782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467358976602554</t>
+    <t xml:space="preserve">0.478245824575424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49185448884964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508573591709137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467358946800232</t>
   </si>
   <si>
     <t xml:space="preserve">0.455694437026978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463859587907791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489132732152939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478634625673294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476301789283752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.482522875070572</t>
+    <t xml:space="preserve">0.463859558105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489132761955261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478634655475616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476301729679108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48252284526825</t>
   </si>
   <si>
     <t xml:space="preserve">0.477857023477554</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">0.473580062389374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474357664585114</t>
+    <t xml:space="preserve">0.474357694387436</t>
   </si>
   <si>
     <t xml:space="preserve">0.46036022901535</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">0.464637249708176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463470786809921</t>
+    <t xml:space="preserve">0.463470757007599</t>
   </si>
   <si>
     <t xml:space="preserve">0.458027333021164</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">0.446751624345779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438975214958191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.436253547668457</t>
+    <t xml:space="preserve">0.438975244760513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.436253517866135</t>
   </si>
   <si>
     <t xml:space="preserve">0.432754188776016</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">0.374820321798325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360200792551041</t>
+    <t xml:space="preserve">0.360200762748718</t>
   </si>
   <si>
     <t xml:space="preserve">0.355068385601044</t>
@@ -2933,22 +2933,22 @@
     <t xml:space="preserve">0.337649345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345892250537872</t>
+    <t xml:space="preserve">0.345892280340195</t>
   </si>
   <si>
     <t xml:space="preserve">0.331894844770432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346669942140579</t>
+    <t xml:space="preserve">0.346669912338257</t>
   </si>
   <si>
     <t xml:space="preserve">0.369376868009567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373576074838638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388040155172348</t>
+    <t xml:space="preserve">0.373576104640961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388040125370026</t>
   </si>
   <si>
     <t xml:space="preserve">0.396594107151031</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">0.36035630106926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341848582029343</t>
+    <t xml:space="preserve">0.34184855222702</t>
   </si>
   <si>
     <t xml:space="preserve">0.323962956666946</t>
@@ -2981,10 +2981,10 @@
     <t xml:space="preserve">0.337182760238647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359423100948334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351802319288254</t>
+    <t xml:space="preserve">0.359423130750656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351802289485931</t>
   </si>
   <si>
     <t xml:space="preserve">0.386484861373901</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">0.358645498752594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336405098438263</t>
+    <t xml:space="preserve">0.336405128240585</t>
   </si>
   <si>
     <t xml:space="preserve">0.341693043708801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356001555919647</t>
+    <t xml:space="preserve">0.356001526117325</t>
   </si>
   <si>
     <t xml:space="preserve">0.35413521528244</t>
@@ -3029,28 +3029,28 @@
     <t xml:space="preserve">0.390373021364212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417979121208191</t>
+    <t xml:space="preserve">0.417979091405869</t>
   </si>
   <si>
     <t xml:space="preserve">0.421478450298309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445585191249847</t>
+    <t xml:space="preserve">0.445585161447525</t>
   </si>
   <si>
     <t xml:space="preserve">0.437419980764389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440141707658768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462693125009537</t>
+    <t xml:space="preserve">0.440141677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462693154811859</t>
   </si>
   <si>
     <t xml:space="preserve">0.461137861013412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437031149864197</t>
+    <t xml:space="preserve">0.437031120061874</t>
   </si>
   <si>
     <t xml:space="preserve">0.419145524501801</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">0.45025098323822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446362793445587</t>
+    <t xml:space="preserve">0.446362763643265</t>
   </si>
   <si>
     <t xml:space="preserve">0.454139143228531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452972650527954</t>
+    <t xml:space="preserve">0.452972680330276</t>
   </si>
   <si>
     <t xml:space="preserve">0.457638502120972</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">0.472024768590927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448306858539581</t>
+    <t xml:space="preserve">0.448306888341904</t>
   </si>
   <si>
     <t xml:space="preserve">0.452583879232407</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">0.457249671220779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465803653001785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.461526691913605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462304294109344</t>
+    <t xml:space="preserve">0.465803682804108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.461526721715927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462304323911667</t>
   </si>
   <si>
     <t xml:space="preserve">0.472413599491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496131479740143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500408411026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494187414646149</t>
+    <t xml:space="preserve">0.49613144993782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500408470630646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494187384843826</t>
   </si>
   <si>
     <t xml:space="preserve">0.48213404417038</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">0.465414851903915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479801088571548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.470469504594803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.449084520339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419923186302185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.432365357875824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430421233177185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431976526975632</t>
+    <t xml:space="preserve">0.479801118373871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47046947479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449084490537643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419923216104507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.432365328073502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430421262979507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431976497173309</t>
   </si>
   <si>
     <t xml:space="preserve">0.421867281198502</t>
@@ -3146,19 +3146,19 @@
     <t xml:space="preserve">0.43119889497757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44091933965683</t>
+    <t xml:space="preserve">0.440919309854507</t>
   </si>
   <si>
     <t xml:space="preserve">0.442863434553146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46658131480217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566896259784698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521404623985291</t>
+    <t xml:space="preserve">0.466581344604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566896319389343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521404564380646</t>
   </si>
   <si>
     <t xml:space="preserve">0.530347406864166</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">0.500797271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494576185941696</t>
+    <t xml:space="preserve">0.494576156139374</t>
   </si>
   <si>
     <t xml:space="preserve">0.507795989513397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507018327713013</t>
+    <t xml:space="preserve">0.507018387317657</t>
   </si>
   <si>
     <t xml:space="preserve">0.504685461521149</t>
@@ -3209,40 +3209,40 @@
     <t xml:space="preserve">0.524126350879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513239443302155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502741396427155</t>
+    <t xml:space="preserve">0.513239502906799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50274133682251</t>
   </si>
   <si>
     <t xml:space="preserve">0.49652025103569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487577438354492</t>
+    <t xml:space="preserve">0.487577468156815</t>
   </si>
   <si>
     <t xml:space="preserve">0.480578750371933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493409723043442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485244601964951</t>
+    <t xml:space="preserve">0.493409782648087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485244572162628</t>
   </si>
   <si>
     <t xml:space="preserve">0.487188667058945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449473351240158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448695689439774</t>
+    <t xml:space="preserve">0.449473321437836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448695719242096</t>
   </si>
   <si>
     <t xml:space="preserve">0.44776251912117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44667387008667</t>
+    <t xml:space="preserve">0.446673840284348</t>
   </si>
   <si>
     <t xml:space="preserve">0.442630112171173</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">0.459427058696747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451184153556824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460982322692871</t>
+    <t xml:space="preserve">0.451184123754501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460982352495193</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096727132797</t>
@@ -3266,31 +3266,31 @@
     <t xml:space="preserve">0.449006766080856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450406551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456938654184341</t>
+    <t xml:space="preserve">0.450406521558762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456938624382019</t>
   </si>
   <si>
     <t xml:space="preserve">0.442474603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461760014295578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446829319000244</t>
+    <t xml:space="preserve">0.461759984493256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446829348802567</t>
   </si>
   <si>
     <t xml:space="preserve">0.451961755752563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46471494436264</t>
+    <t xml:space="preserve">0.464714974164963</t>
   </si>
   <si>
     <t xml:space="preserve">0.458338350057602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453516989946365</t>
+    <t xml:space="preserve">0.453517019748688</t>
   </si>
   <si>
     <t xml:space="preserve">0.454916775226593</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">0.459115982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479178965091705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.495353847742081</t>
+    <t xml:space="preserve">0.479178994894028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.495353817939758</t>
   </si>
   <si>
     <t xml:space="preserve">0.527236878871918</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">0.526303708553314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534546613693237</t>
+    <t xml:space="preserve">0.534546673297882</t>
   </si>
   <si>
     <t xml:space="preserve">0.545589089393616</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">0.548077523708344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553209841251373</t>
+    <t xml:space="preserve">0.553209900856018</t>
   </si>
   <si>
     <t xml:space="preserve">0.57031786441803</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">0.57684999704361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.606400191783905</t>
+    <t xml:space="preserve">0.60640013217926</t>
   </si>
   <si>
     <t xml:space="preserve">0.591003000736237</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">0.668610990047455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671566069126129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675143182277679</t>
+    <t xml:space="preserve">0.671566009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675143122673035</t>
   </si>
   <si>
     <t xml:space="preserve">0.671099424362183</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">0.655391216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649325609207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650258779525757</t>
+    <t xml:space="preserve">0.649325668811798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650258839130402</t>
   </si>
   <si>
     <t xml:space="preserve">0.629884779453278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613709926605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590380847454071</t>
+    <t xml:space="preserve">0.613709986209869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590380907058716</t>
   </si>
   <si>
     <t xml:space="preserve">0.586959302425385</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">0.597535133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.581826865673065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552276730537415</t>
+    <t xml:space="preserve">0.58182692527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552276790142059</t>
   </si>
   <si>
     <t xml:space="preserve">0.556009352207184</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">0.524592936038971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511839687824249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500330746173859</t>
+    <t xml:space="preserve">0.511839747428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500330686569214</t>
   </si>
   <si>
     <t xml:space="preserve">0.508729159832001</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">0.508107006549835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50452995300293</t>
+    <t xml:space="preserve">0.504529893398285</t>
   </si>
   <si>
     <t xml:space="preserve">0.507951498031616</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">0.506551802158356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497064590454102</t>
+    <t xml:space="preserve">0.497064620256424</t>
   </si>
   <si>
     <t xml:space="preserve">0.520860254764557</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">0.505774140357971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503285646438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511995196342468</t>
+    <t xml:space="preserve">0.503285706043243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511995255947113</t>
   </si>
   <si>
     <t xml:space="preserve">0.51246178150177</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">0.510595500469208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521171271800995</t>
+    <t xml:space="preserve">0.52117133140564</t>
   </si>
   <si>
     <t xml:space="preserve">0.509817838668823</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">0.505463063716888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517438650131226</t>
+    <t xml:space="preserve">0.51743870973587</t>
   </si>
   <si>
     <t xml:space="preserve">0.517283141613007</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">0.500486195087433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494109600782394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.520393669605255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525215029716492</t>
+    <t xml:space="preserve">0.494109630584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5203937292099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525215089321136</t>
   </si>
   <si>
     <t xml:space="preserve">0.516038954257965</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">0.54496693611145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551965713500977</t>
+    <t xml:space="preserve">0.551965653896332</t>
   </si>
   <si>
     <t xml:space="preserve">0.541545391082764</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">0.549166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.537812769412994</t>
+    <t xml:space="preserve">0.53781270980835</t>
   </si>
   <si>
     <t xml:space="preserve">0.553831994533539</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">0.567984998226166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583071172237396</t>
+    <t xml:space="preserve">0.583071112632751</t>
   </si>
   <si>
     <t xml:space="preserve">0.623663723468781</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">0.609821796417236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623352646827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656168878078461</t>
+    <t xml:space="preserve">0.623352587223053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656168818473816</t>
   </si>
   <si>
     <t xml:space="preserve">0.669388651847839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.63392847776413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573584020137787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583848774433136</t>
+    <t xml:space="preserve">0.633928418159485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573583960533142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583848714828491</t>
   </si>
   <si>
     <t xml:space="preserve">0.589447736740112</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">0.552121222019196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557098090648651</t>
+    <t xml:space="preserve">0.557098150253296</t>
   </si>
   <si>
     <t xml:space="preserve">0.563008069992065</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">0.542167484760284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523659765720367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522726655006409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502663552761078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492865383625031</t>
+    <t xml:space="preserve">0.523659706115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522726595401764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502663612365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492865413427353</t>
   </si>
   <si>
     <t xml:space="preserve">0.499553054571152</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">0.4955093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489754885435104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507484912872314</t>
+    <t xml:space="preserve">0.48975482583046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507484972476959</t>
   </si>
   <si>
     <t xml:space="preserve">0.523348689079285</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">0.52474844455719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513550519943237</t>
+    <t xml:space="preserve">0.513550460338593</t>
   </si>
   <si>
     <t xml:space="preserve">0.493643045425415</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">0.461293399333954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464092910289764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435786932706833</t>
+    <t xml:space="preserve">0.464092880487442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435786962509155</t>
   </si>
   <si>
     <t xml:space="preserve">0.432054281234741</t>
@@ -3683,19 +3683,19 @@
     <t xml:space="preserve">0.417745798826218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450095474720001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452739387750626</t>
+    <t xml:space="preserve">0.450095444917679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452739417552948</t>
   </si>
   <si>
     <t xml:space="preserve">0.43843087553978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43547585606575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430654555559158</t>
+    <t xml:space="preserve">0.435475885868073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430654525756836</t>
   </si>
   <si>
     <t xml:space="preserve">0.42536661028862</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">0.41525736451149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427232921123505</t>
+    <t xml:space="preserve">0.427232950925827</t>
   </si>
   <si>
     <t xml:space="preserve">0.424277931451797</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">0.412457853555679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422878205776215</t>
+    <t xml:space="preserve">0.422878175973892</t>
   </si>
   <si>
     <t xml:space="preserve">0.422722697257996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434542685747147</t>
+    <t xml:space="preserve">0.434542715549469</t>
   </si>
   <si>
     <t xml:space="preserve">0.424900054931641</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">0.43407616019249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436564564704895</t>
+    <t xml:space="preserve">0.436564594507217</t>
   </si>
   <si>
     <t xml:space="preserve">0.440608292818069</t>
@@ -3743,37 +3743,37 @@
     <t xml:space="preserve">0.443252235651016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462071031332016</t>
+    <t xml:space="preserve">0.462071001529694</t>
   </si>
   <si>
     <t xml:space="preserve">0.456005454063416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456472039222717</t>
+    <t xml:space="preserve">0.45647206902504</t>
   </si>
   <si>
     <t xml:space="preserve">0.446207284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453205972909927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448851197957993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430032402276993</t>
+    <t xml:space="preserve">0.453205943107605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448851227760315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430032432079315</t>
   </si>
   <si>
     <t xml:space="preserve">0.443563312292099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457405179738998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452117294073105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427543997764587</t>
+    <t xml:space="preserve">0.457405209541321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452117264270782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.427543967962265</t>
   </si>
   <si>
     <t xml:space="preserve">0.423344761133194</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">0.472802400588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466270297765732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480423241853714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455227792263031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.441697001457214</t>
+    <t xml:space="preserve">0.466270238161087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480423212051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455227822065353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441696971654892</t>
   </si>
   <si>
     <t xml:space="preserve">0.386173814535141</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">0.42863267660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408725261688232</t>
+    <t xml:space="preserve">0.40872523188591</t>
   </si>
   <si>
     <t xml:space="preserve">0.411058127880096</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">0.436098009347916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451495170593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478401362895966</t>
+    <t xml:space="preserve">0.451495200395584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478401392698288</t>
   </si>
   <si>
     <t xml:space="preserve">0.468914210796356</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">0.467203408479691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513083934783936</t>
+    <t xml:space="preserve">0.513083875179291</t>
   </si>
   <si>
     <t xml:space="preserve">0.515883386135101</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">0.54792195558548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542634069919586</t>
+    <t xml:space="preserve">0.542634010314941</t>
   </si>
   <si>
     <t xml:space="preserve">0.537346124649048</t>
@@ -3863,22 +3863,22 @@
     <t xml:space="preserve">0.551810145378113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572028636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619775533676147</t>
+    <t xml:space="preserve">0.572028696537018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619775474071503</t>
   </si>
   <si>
     <t xml:space="preserve">0.64403772354126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671877086162567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705626428127289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705937504768372</t>
+    <t xml:space="preserve">0.671877145767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705626487731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705937564373016</t>
   </si>
   <si>
     <t xml:space="preserve">0.72786682844162</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">0.658968329429626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.639216423034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662545442581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682452917098999</t>
+    <t xml:space="preserve">0.639216363430023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662545502185822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682452976703644</t>
   </si>
   <si>
     <t xml:space="preserve">0.693650901317596</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">0.755084097385406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821183085441589</t>
+    <t xml:space="preserve">0.821183145046234</t>
   </si>
   <si>
     <t xml:space="preserve">0.744352698326111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771258950233459</t>
+    <t xml:space="preserve">0.771258890628815</t>
   </si>
   <si>
     <t xml:space="preserve">0.776546835899353</t>
@@ -3929,10 +3929,10 @@
     <t xml:space="preserve">0.765659928321838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835958242416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88067227602005</t>
+    <t xml:space="preserve">0.835958182811737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880672216415405</t>
   </si>
   <si>
     <t xml:space="preserve">0.936661899089813</t>
@@ -3944,22 +3944,22 @@
     <t xml:space="preserve">0.886893272399902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898169040679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891559064388275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918776273727417</t>
+    <t xml:space="preserve">0.898168981075287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89155912399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918776392936707</t>
   </si>
   <si>
     <t xml:space="preserve">0.897002577781677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925775110721588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989152371883392</t>
+    <t xml:space="preserve">0.925775170326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989152312278748</t>
   </si>
   <si>
     <t xml:space="preserve">0.989930033683777</t>
@@ -3986,10 +3986,10 @@
     <t xml:space="preserve">1.01442551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970877945423126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976321399211884</t>
+    <t xml:space="preserve">0.970877885818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976321339607239</t>
   </si>
   <si>
     <t xml:space="preserve">0.960768640041351</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">0.977487802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02414608001709</t>
+    <t xml:space="preserve">1.0241459608078</t>
   </si>
   <si>
     <t xml:space="preserve">1.11046350002289</t>
@@ -4028,19 +4028,19 @@
     <t xml:space="preserve">1.00859332084656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932538509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896224975585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879116952419281</t>
+    <t xml:space="preserve">0.975932598114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896224915981293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879116892814636</t>
   </si>
   <si>
     <t xml:space="preserve">0.838291049003601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879505753517151</t>
+    <t xml:space="preserve">0.879505813121796</t>
   </si>
   <si>
     <t xml:space="preserve">0.903612434864044</t>
@@ -4055,37 +4055,37 @@
     <t xml:space="preserve">0.897780239582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919942796230316</t>
+    <t xml:space="preserve">0.919942855834961</t>
   </si>
   <si>
     <t xml:space="preserve">0.969711542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988763511180878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961546301841736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0431981086731</t>
+    <t xml:space="preserve">0.988763570785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961546361446381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04319798946381</t>
   </si>
   <si>
     <t xml:space="preserve">0.945604801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8709517121315</t>
+    <t xml:space="preserve">0.870951771736145</t>
   </si>
   <si>
     <t xml:space="preserve">0.827793002128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869785368442535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83984637260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845289826393127</t>
+    <t xml:space="preserve">0.869785308837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839846432209015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845289766788483</t>
   </si>
   <si>
     <t xml:space="preserve">0.862397789955139</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">0.908278286457062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924608588218689</t>
+    <t xml:space="preserve">0.924608647823334</t>
   </si>
   <si>
     <t xml:space="preserve">1.00314974784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05097436904907</t>
+    <t xml:space="preserve">1.05097448825836</t>
   </si>
   <si>
     <t xml:space="preserve">1.03658807277679</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">1.01831364631653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940939009189606</t>
+    <t xml:space="preserve">0.940938949584961</t>
   </si>
   <si>
     <t xml:space="preserve">0.949881851673126</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">0.854232609272003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874062299728394</t>
+    <t xml:space="preserve">0.874062240123749</t>
   </si>
   <si>
     <t xml:space="preserve">0.878339350223541</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">0.76690411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770325720310211</t>
+    <t xml:space="preserve">0.770325779914856</t>
   </si>
   <si>
     <t xml:space="preserve">0.770481288433075</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">0.78852242231369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779579639434814</t>
+    <t xml:space="preserve">0.779579699039459</t>
   </si>
   <si>
     <t xml:space="preserve">0.724911868572235</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">0.737353980541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7581946849823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814961969852448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849566757678986</t>
+    <t xml:space="preserve">0.758194625377655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814962029457092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84956681728363</t>
   </si>
   <si>
     <t xml:space="preserve">0.807185649871826</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">0.797854006290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82001668214798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819239020347595</t>
+    <t xml:space="preserve">0.820016622543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81923907995224</t>
   </si>
   <si>
     <t xml:space="preserve">0.844901025295258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854621469974518</t>
+    <t xml:space="preserve">0.854621410369873</t>
   </si>
   <si>
     <t xml:space="preserve">0.865508377552032</t>
@@ -4229,16 +4229,16 @@
     <t xml:space="preserve">0.944049537181854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947548866271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956102848052979</t>
+    <t xml:space="preserve">0.947548925876617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956102907657623</t>
   </si>
   <si>
     <t xml:space="preserve">0.935106694698334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967767477035522</t>
+    <t xml:space="preserve">0.967767417430878</t>
   </si>
   <si>
     <t xml:space="preserve">0.926163911819458</t>
@@ -4259,25 +4259,25 @@
     <t xml:space="preserve">0.998872816562653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954158782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937439560890198</t>
+    <t xml:space="preserve">0.954158842563629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937439620494843</t>
   </si>
   <si>
     <t xml:space="preserve">0.89194792509079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882616341114044</t>
+    <t xml:space="preserve">0.882616281509399</t>
   </si>
   <si>
     <t xml:space="preserve">0.858509600162506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836346983909607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815350830554962</t>
+    <t xml:space="preserve">0.836347043514252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815350770950317</t>
   </si>
   <si>
     <t xml:space="preserve">0.832070052623749</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">0.824682474136353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829348266124725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816906154155731</t>
+    <t xml:space="preserve">0.829348206520081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816906094551086</t>
   </si>
   <si>
     <t xml:space="preserve">0.849955677986145</t>
@@ -4298,13 +4298,13 @@
     <t xml:space="preserve">0.851510882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872507095336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868618845939636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897391378879547</t>
+    <t xml:space="preserve">0.872507035732269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868618905544281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897391438484192</t>
   </si>
   <si>
     <t xml:space="preserve">0.893503248691559</t>
@@ -4316,22 +4316,22 @@
     <t xml:space="preserve">0.926552653312683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912944078445435</t>
+    <t xml:space="preserve">0.912944138050079</t>
   </si>
   <si>
     <t xml:space="preserve">0.937828421592712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952214658260345</t>
+    <t xml:space="preserve">0.952214598655701</t>
   </si>
   <si>
     <t xml:space="preserve">0.971655607223511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988374829292297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05564022064209</t>
+    <t xml:space="preserve">0.988374769687653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0556401014328</t>
   </si>
   <si>
     <t xml:space="preserve">1.12290573120117</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">1.18006193637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19211518764496</t>
+    <t xml:space="preserve">1.19211530685425</t>
   </si>
   <si>
     <t xml:space="preserve">1.18667185306549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20494616031647</t>
+    <t xml:space="preserve">1.20494627952576</t>
   </si>
   <si>
     <t xml:space="preserve">1.15128934383392</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.23799574375153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698670864105</t>
+    <t xml:space="preserve">1.28698682785034</t>
   </si>
   <si>
     <t xml:space="preserve">1.14001369476318</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">1.12873804569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15362238883972</t>
+    <t xml:space="preserve">1.15362226963043</t>
   </si>
   <si>
     <t xml:space="preserve">1.16684210300446</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">1.16606450080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15245580673218</t>
+    <t xml:space="preserve">1.15245592594147</t>
   </si>
   <si>
     <t xml:space="preserve">1.10463130474091</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">1.10929703712463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09607720375061</t>
+    <t xml:space="preserve">1.0960773229599</t>
   </si>
   <si>
     <t xml:space="preserve">1.03853225708008</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">1.09491086006165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15401101112366</t>
+    <t xml:space="preserve">1.15401113033295</t>
   </si>
   <si>
     <t xml:space="preserve">1.08985614776611</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">1.08052456378937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02686762809753</t>
+    <t xml:space="preserve">1.02686774730682</t>
   </si>
   <si>
     <t xml:space="preserve">1.02064669132233</t>
@@ -4469,28 +4469,28 @@
     <t xml:space="preserve">1.02803421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00353872776031</t>
+    <t xml:space="preserve">1.00353860855103</t>
   </si>
   <si>
     <t xml:space="preserve">0.99459582567215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986819446086884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97321081161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956491708755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966212153434753</t>
+    <t xml:space="preserve">0.986819565296173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973210871219635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956491649150848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966212093830109</t>
   </si>
   <si>
     <t xml:space="preserve">0.953769981861115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940161287784576</t>
+    <t xml:space="preserve">0.940161347389221</t>
   </si>
   <si>
     <t xml:space="preserve">0.933551430702209</t>
@@ -4502,31 +4502,31 @@
     <t xml:space="preserve">0.912555277347565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880283415317535</t>
+    <t xml:space="preserve">0.880283355712891</t>
   </si>
   <si>
     <t xml:space="preserve">0.853066146373749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89233672618866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916832327842712</t>
+    <t xml:space="preserve">0.892336785793304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916832268238068</t>
   </si>
   <si>
     <t xml:space="preserve">0.889226198196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93316262960434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933940291404724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980987191200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960379838943481</t>
+    <t xml:space="preserve">0.933162689208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933940172195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980987250804901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960379898548126</t>
   </si>
   <si>
     <t xml:space="preserve">0.98448657989502</t>
@@ -5223,6 +5223,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.62399995326996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62600004673004</t>
   </si>
 </sst>
 </file>
@@ -61490,7 +61493,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.649375</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>2217811</v>
@@ -61511,6 +61514,32 @@
         <v>1736</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6494097222</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>960526</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>1.63300001621246</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>1.62100005149841</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>1.62100005149841</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>1.62600004673004</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -38,112 +38,112 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170576572418</t>
+    <t xml:space="preserve">1.00170564651489</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982317745685577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985255420207977</t>
+    <t xml:space="preserve">0.982317924499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985255479812622</t>
   </si>
   <si>
     <t xml:space="preserve">0.960579872131348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964105129241943</t>
+    <t xml:space="preserve">0.964104950428009</t>
   </si>
   <si>
     <t xml:space="preserve">0.993480563163757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992893159389496</t>
+    <t xml:space="preserve">0.992892980575562</t>
   </si>
   <si>
     <t xml:space="preserve">1.04576897621155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04165637493134</t>
+    <t xml:space="preserve">1.04165649414062</t>
   </si>
   <si>
     <t xml:space="preserve">1.02814376354218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03695631027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05693161487579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02579367160797</t>
+    <t xml:space="preserve">1.03695619106293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05693173408508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02579355239868</t>
   </si>
   <si>
     <t xml:space="preserve">1.07749450206757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08101975917816</t>
+    <t xml:space="preserve">1.08101963996887</t>
   </si>
   <si>
     <t xml:space="preserve">1.13565814495087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1456458568573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1468209028244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11509537696838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12802052497864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1403580904007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11098265647888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09100735187531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02755606174469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957642436027527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829565107822418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840140163898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810764729976654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816639721393585</t>
+    <t xml:space="preserve">1.14564573764801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14682078361511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11509525775909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12802040576935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14035820960999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11098277568817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09100723266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02755618095398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957642316818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853652894496918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829565048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840140223503113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810764670372009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816639840602875</t>
   </si>
   <si>
     <t xml:space="preserve">0.873040795326233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86364084482193</t>
+    <t xml:space="preserve">0.863640666007996</t>
   </si>
   <si>
     <t xml:space="preserve">0.872453391551971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887728631496429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881853580474854</t>
+    <t xml:space="preserve">0.887728571891785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881853520870209</t>
   </si>
   <si>
     <t xml:space="preserve">0.860703229904175</t>
@@ -164,16 +164,16 @@
     <t xml:space="preserve">0.916516661643982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895366311073303</t>
+    <t xml:space="preserve">0.895366191864014</t>
   </si>
   <si>
     <t xml:space="preserve">0.851890504360199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.807827174663544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776101589202881</t>
+    <t xml:space="preserve">0.807827115058899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776101529598236</t>
   </si>
   <si>
     <t xml:space="preserve">0.76493889093399</t>
@@ -182,19 +182,19 @@
     <t xml:space="preserve">0.757888674736023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831915020942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820164918899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817814767360687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828390061855316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.833677709102631</t>
+    <t xml:space="preserve">0.831915140151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820164859294891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817814826965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828390002250671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833677649497986</t>
   </si>
   <si>
     <t xml:space="preserve">0.823102414608002</t>
@@ -203,40 +203,40 @@
     <t xml:space="preserve">0.817227244377136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827214896678925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828977704048157</t>
+    <t xml:space="preserve">0.827215015888214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828977644443512</t>
   </si>
   <si>
     <t xml:space="preserve">0.843077778816223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865403234958649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837790191173553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830740094184875</t>
+    <t xml:space="preserve">0.865403175354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837790131568909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830740034580231</t>
   </si>
   <si>
     <t xml:space="preserve">0.846602857112885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848952889442444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860115587711334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846015393733978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834265112876892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822514951229095</t>
+    <t xml:space="preserve">0.848952949047089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860115528106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846015334129333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834265172481537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822514891624451</t>
   </si>
   <si>
     <t xml:space="preserve">0.845427870750427</t>
@@ -251,25 +251,25 @@
     <t xml:space="preserve">0.915929138660431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905941367149353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893016159534454</t>
+    <t xml:space="preserve">0.905941545963287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893016219139099</t>
   </si>
   <si>
     <t xml:space="preserve">0.886553525924683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866578161716461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869515895843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88244104385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864228248596191</t>
+    <t xml:space="preserve">0.866578221321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869515776634216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882440984249115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864228188991547</t>
   </si>
   <si>
     <t xml:space="preserve">0.835440218448639</t>
@@ -281,22 +281,22 @@
     <t xml:space="preserve">0.83015251159668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831327497959137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907116591930389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924741804599762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945304691791534</t>
+    <t xml:space="preserve">0.831327557563782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9071164727211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924741744995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945304572582245</t>
   </si>
   <si>
     <t xml:space="preserve">0.937079608440399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92885434627533</t>
+    <t xml:space="preserve">0.928854286670685</t>
   </si>
   <si>
     <t xml:space="preserve">0.961769044399261</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">0.994025468826294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03483974933624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0401064157486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04076457023621</t>
+    <t xml:space="preserve">1.03483998775482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04010629653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04076445102692</t>
   </si>
   <si>
     <t xml:space="preserve">1.03615641593933</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">1.05327212810516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05261373519897</t>
+    <t xml:space="preserve">1.05261385440826</t>
   </si>
   <si>
     <t xml:space="preserve">1.05458879470825</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">1.05393040180206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07367920875549</t>
+    <t xml:space="preserve">1.07367932796478</t>
   </si>
   <si>
     <t xml:space="preserve">1.11646842956543</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">1.02299046516418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98283463716507</t>
+    <t xml:space="preserve">0.982834696769714</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">0.993367195129395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07894575595856</t>
+    <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
     <t xml:space="preserve">1.07565426826477</t>
@@ -365,10 +365,10 @@
     <t xml:space="preserve">1.07302093505859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10132777690887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.015749335289</t>
+    <t xml:space="preserve">1.10132765769958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01574921607971</t>
   </si>
   <si>
     <t xml:space="preserve">0.959135949611664</t>
@@ -389,22 +389,22 @@
     <t xml:space="preserve">1.02035737037659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961110770702362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938728809356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936095654964447</t>
+    <t xml:space="preserve">0.961110889911652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9387286901474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936095714569092</t>
   </si>
   <si>
     <t xml:space="preserve">0.956502676010132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951894700527191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936753809452057</t>
+    <t xml:space="preserve">0.951894760131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936753928661346</t>
   </si>
   <si>
     <t xml:space="preserve">0.946628272533417</t>
@@ -413,13 +413,13 @@
     <t xml:space="preserve">0.939387142658234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949919819831848</t>
+    <t xml:space="preserve">0.949919760227203</t>
   </si>
   <si>
     <t xml:space="preserve">0.948603212833405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974276840686798</t>
+    <t xml:space="preserve">0.974276721477509</t>
   </si>
   <si>
     <t xml:space="preserve">0.954527914524078</t>
@@ -437,34 +437,34 @@
     <t xml:space="preserve">0.809702932834625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.832085013389587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851833879947662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88869833946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88409036397934</t>
+    <t xml:space="preserve">0.832085072994232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851833939552307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888698399066925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884090304374695</t>
   </si>
   <si>
     <t xml:space="preserve">0.871582686901093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873557567596436</t>
+    <t xml:space="preserve">0.87355762720108</t>
   </si>
   <si>
     <t xml:space="preserve">0.880798876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886723458766937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890673339366913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870924353599548</t>
+    <t xml:space="preserve">0.886723399162292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890673279762268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870924293994904</t>
   </si>
   <si>
     <t xml:space="preserve">0.866974651813507</t>
@@ -479,55 +479,55 @@
     <t xml:space="preserve">0.874215841293335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870266139507294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864341497421265</t>
+    <t xml:space="preserve">0.870266199111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86434143781662</t>
   </si>
   <si>
     <t xml:space="preserve">0.881457149982452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882773697376251</t>
+    <t xml:space="preserve">0.882773816585541</t>
   </si>
   <si>
     <t xml:space="preserve">0.887381792068481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880140542984009</t>
+    <t xml:space="preserve">0.880140483379364</t>
   </si>
   <si>
     <t xml:space="preserve">0.921613097190857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934778988361359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947944939136505</t>
+    <t xml:space="preserve">0.934779047966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94794487953186</t>
   </si>
   <si>
     <t xml:space="preserve">0.947286665439606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932145833969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902522563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281314849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90318089723587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917004942893982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940045416355133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934120833873749</t>
+    <t xml:space="preserve">0.932145893573761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902522683143616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281434059143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903180778026581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917005062103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940045356750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934120774269104</t>
   </si>
   <si>
     <t xml:space="preserve">0.911080360412598</t>
@@ -536,10 +536,10 @@
     <t xml:space="preserve">0.912396967411041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913713693618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931487441062927</t>
+    <t xml:space="preserve">0.91371363401413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931487500667572</t>
   </si>
   <si>
     <t xml:space="preserve">0.918979942798615</t>
@@ -548,19 +548,19 @@
     <t xml:space="preserve">0.909763813018799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926879405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920296549797058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9380704164505</t>
+    <t xml:space="preserve">0.926879525184631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920296609401703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938070476055145</t>
   </si>
   <si>
     <t xml:space="preserve">0.964402437210083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970326840877533</t>
+    <t xml:space="preserve">0.970326960086823</t>
   </si>
   <si>
     <t xml:space="preserve">0.988759219646454</t>
@@ -572,19 +572,19 @@
     <t xml:space="preserve">0.992708921432495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04142284393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03549814224243</t>
+    <t xml:space="preserve">1.0414229631424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03549802303314</t>
   </si>
   <si>
     <t xml:space="preserve">1.03154838085175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05919682979584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03813135623932</t>
+    <t xml:space="preserve">1.05919671058655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03813147544861</t>
   </si>
   <si>
     <t xml:space="preserve">1.03023183345795</t>
@@ -611,22 +611,22 @@
     <t xml:space="preserve">1.09211158752441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08618676662445</t>
+    <t xml:space="preserve">1.08618688583374</t>
   </si>
   <si>
     <t xml:space="preserve">1.09013676643372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09935259819031</t>
+    <t xml:space="preserve">1.0993527173996</t>
   </si>
   <si>
     <t xml:space="preserve">1.08750343322754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07960391044617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05788016319275</t>
+    <t xml:space="preserve">1.07960402965546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05788028240204</t>
   </si>
   <si>
     <t xml:space="preserve">1.06380486488342</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">1.11120200157166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.123051404953</t>
+    <t xml:space="preserve">1.12305128574371</t>
   </si>
   <si>
     <t xml:space="preserve">1.08421194553375</t>
@@ -647,13 +647,13 @@
     <t xml:space="preserve">1.07697081565857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09145331382751</t>
+    <t xml:space="preserve">1.09145319461823</t>
   </si>
   <si>
     <t xml:space="preserve">1.096719622612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11778509616852</t>
+    <t xml:space="preserve">1.11778497695923</t>
   </si>
   <si>
     <t xml:space="preserve">1.13095092773438</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">1.14740836620331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15596628189087</t>
+    <t xml:space="preserve">1.15596616268158</t>
   </si>
   <si>
     <t xml:space="preserve">1.14016711711884</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">1.14082539081573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11910176277161</t>
+    <t xml:space="preserve">1.11910164356232</t>
   </si>
   <si>
     <t xml:space="preserve">1.1243679523468</t>
@@ -701,19 +701,19 @@
     <t xml:space="preserve">1.09079504013062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0973778963089</t>
+    <t xml:space="preserve">1.09737801551819</t>
   </si>
   <si>
     <t xml:space="preserve">1.08684515953064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01904082298279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02364873886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02496540546417</t>
+    <t xml:space="preserve">1.0190407037735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02364885807037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02496552467346</t>
   </si>
   <si>
     <t xml:space="preserve">1.02562379837036</t>
@@ -728,10 +728,10 @@
     <t xml:space="preserve">0.93346244096756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935437381267548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953869521617889</t>
+    <t xml:space="preserve">0.935437262058258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953869640827179</t>
   </si>
   <si>
     <t xml:space="preserve">0.999950230121613</t>
@@ -743,34 +743,34 @@
     <t xml:space="preserve">1.0170658826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00916624069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03089010715485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0460307598114</t>
+    <t xml:space="preserve">1.00916635990143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03088998794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04603087902069</t>
   </si>
   <si>
     <t xml:space="preserve">1.07170438766479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13424253463745</t>
+    <t xml:space="preserve">1.13424241542816</t>
   </si>
   <si>
     <t xml:space="preserve">1.10396099090576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10066938400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0947448015213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12041819095612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12765955924988</t>
+    <t xml:space="preserve">1.10066950321198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09474468231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12041831016541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12765967845917</t>
   </si>
   <si>
     <t xml:space="preserve">1.12634289264679</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">1.11975991725922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13490068912506</t>
+    <t xml:space="preserve">1.13490080833435</t>
   </si>
   <si>
     <t xml:space="preserve">1.16715729236603</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">1.16913211345673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18032312393188</t>
+    <t xml:space="preserve">1.1803230047226</t>
   </si>
   <si>
     <t xml:space="preserve">1.17176520824432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16584074497223</t>
+    <t xml:space="preserve">1.16584062576294</t>
   </si>
   <si>
     <t xml:space="preserve">1.17374014854431</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">1.17900657653809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18229806423187</t>
+    <t xml:space="preserve">1.18229794502258</t>
   </si>
   <si>
     <t xml:space="preserve">1.17308175563812</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">1.21652936935425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21389603614807</t>
+    <t xml:space="preserve">1.21389615535736</t>
   </si>
   <si>
     <t xml:space="preserve">1.22706198692322</t>
@@ -827,13 +827,13 @@
     <t xml:space="preserve">1.21784591674805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.204021692276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19546377658844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22179555892944</t>
+    <t xml:space="preserve">1.20402181148529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19546389579773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22179567813873</t>
   </si>
   <si>
     <t xml:space="preserve">1.22772037982941</t>
@@ -842,16 +842,16 @@
     <t xml:space="preserve">1.21455442905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21587109565735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23167026042938</t>
+    <t xml:space="preserve">1.21587097644806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23167014122009</t>
   </si>
   <si>
     <t xml:space="preserve">1.25339388847351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26853454113007</t>
+    <t xml:space="preserve">1.26853466033936</t>
   </si>
   <si>
     <t xml:space="preserve">1.24417769908905</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">1.3093489408493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32448971271515</t>
+    <t xml:space="preserve">1.32448983192444</t>
   </si>
   <si>
     <t xml:space="preserve">1.32843947410583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36135423183441</t>
+    <t xml:space="preserve">1.3613543510437</t>
   </si>
   <si>
     <t xml:space="preserve">1.35213792324066</t>
@@ -884,13 +884,13 @@
     <t xml:space="preserve">1.35608792304993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35872101783752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39163589477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40875148773193</t>
+    <t xml:space="preserve">1.35872113704681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3916357755661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40875160694122</t>
   </si>
   <si>
     <t xml:space="preserve">1.47721421718597</t>
@@ -899,22 +899,22 @@
     <t xml:space="preserve">1.48116385936737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169671535492</t>
+    <t xml:space="preserve">1.49169683456421</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169659614563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49031925201416</t>
+    <t xml:space="preserve">1.49031937122345</t>
   </si>
   <si>
     <t xml:space="preserve">1.48894190788269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47379076480865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39803528785706</t>
+    <t xml:space="preserve">1.47379088401794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39803516864777</t>
   </si>
   <si>
     <t xml:space="preserve">1.38701617717743</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">1.38288402557373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48343229293823</t>
+    <t xml:space="preserve">1.48343241214752</t>
   </si>
   <si>
     <t xml:space="preserve">1.44899809360504</t>
@@ -944,13 +944,13 @@
     <t xml:space="preserve">1.57158434391022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53301799297333</t>
+    <t xml:space="preserve">1.53301787376404</t>
   </si>
   <si>
     <t xml:space="preserve">1.53990483283997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51511192321777</t>
+    <t xml:space="preserve">1.51511204242706</t>
   </si>
   <si>
     <t xml:space="preserve">1.43935632705688</t>
@@ -959,28 +959,28 @@
     <t xml:space="preserve">1.47792291641235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45175278186798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45863962173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42282783985138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41594099998474</t>
+    <t xml:space="preserve">1.45175290107727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45863974094391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42282795906067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41594111919403</t>
   </si>
   <si>
     <t xml:space="preserve">1.40354478359222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45450758934021</t>
+    <t xml:space="preserve">1.45450747013092</t>
   </si>
   <si>
     <t xml:space="preserve">1.44624316692352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43797898292542</t>
+    <t xml:space="preserve">1.4379791021347</t>
   </si>
   <si>
     <t xml:space="preserve">1.45726227760315</t>
@@ -989,34 +989,34 @@
     <t xml:space="preserve">1.42558264732361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42971479892731</t>
+    <t xml:space="preserve">1.42971467971802</t>
   </si>
   <si>
     <t xml:space="preserve">1.44073379039764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43660163879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45588505268097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47654569149017</t>
+    <t xml:space="preserve">1.43660175800323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45588493347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47654557228088</t>
   </si>
   <si>
     <t xml:space="preserve">1.51786673069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53164052963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53577256202698</t>
+    <t xml:space="preserve">1.53164041042328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53577268123627</t>
   </si>
   <si>
     <t xml:space="preserve">1.55643332004547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54403710365295</t>
+    <t xml:space="preserve">1.54403698444366</t>
   </si>
   <si>
     <t xml:space="preserve">1.52888584136963</t>
@@ -1031,16 +1031,16 @@
     <t xml:space="preserve">1.31194925308228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27820348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25960898399353</t>
+    <t xml:space="preserve">1.27820360660553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25960910320282</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062797546387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28095829486847</t>
+    <t xml:space="preserve">1.28095841407776</t>
   </si>
   <si>
     <t xml:space="preserve">1.32021355628967</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258197784424</t>
+    <t xml:space="preserve">1.35258173942566</t>
   </si>
   <si>
     <t xml:space="preserve">1.29748690128326</t>
@@ -1058,16 +1058,16 @@
     <t xml:space="preserve">1.28233575820923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29542076587677</t>
+    <t xml:space="preserve">1.29542088508606</t>
   </si>
   <si>
     <t xml:space="preserve">1.2899112701416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31608140468597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33674192428589</t>
+    <t xml:space="preserve">1.31608152389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33674204349518</t>
   </si>
   <si>
     <t xml:space="preserve">1.32778906822205</t>
@@ -1076,10 +1076,10 @@
     <t xml:space="preserve">1.3332986831665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34018540382385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33880805969238</t>
+    <t xml:space="preserve">1.34018552303314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33880817890167</t>
   </si>
   <si>
     <t xml:space="preserve">1.3739310503006</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">1.41869580745697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46001696586609</t>
+    <t xml:space="preserve">1.46001708507538</t>
   </si>
   <si>
     <t xml:space="preserve">1.45037543773651</t>
@@ -1100,13 +1100,13 @@
     <t xml:space="preserve">1.44762063026428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40492212772369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46414923667908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48618721961975</t>
+    <t xml:space="preserve">1.4049220085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46414911746979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48618710041046</t>
   </si>
   <si>
     <t xml:space="preserve">1.51098001003265</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">1.53852736949921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5261310338974</t>
+    <t xml:space="preserve">1.52613115310669</t>
   </si>
   <si>
     <t xml:space="preserve">1.55918800830841</t>
@@ -1127,25 +1127,25 @@
     <t xml:space="preserve">1.57433915138245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51648926734924</t>
+    <t xml:space="preserve">1.51648938655853</t>
   </si>
   <si>
     <t xml:space="preserve">1.51924419403076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50684773921967</t>
+    <t xml:space="preserve">1.50684785842896</t>
   </si>
   <si>
     <t xml:space="preserve">1.49582874774933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48756468296051</t>
+    <t xml:space="preserve">1.48756456375122</t>
   </si>
   <si>
     <t xml:space="preserve">1.50822520256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52750837802887</t>
+    <t xml:space="preserve">1.52750849723816</t>
   </si>
   <si>
     <t xml:space="preserve">1.55092370510101</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">1.62117004394531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6184149980545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58949041366577</t>
+    <t xml:space="preserve">1.61841511726379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58949053287506</t>
   </si>
   <si>
     <t xml:space="preserve">1.4848096370697</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">1.52062153816223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55230116844177</t>
+    <t xml:space="preserve">1.55230104923248</t>
   </si>
   <si>
     <t xml:space="preserve">1.52199900150299</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">1.49720621109009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42145049571991</t>
+    <t xml:space="preserve">1.4214506149292</t>
   </si>
   <si>
     <t xml:space="preserve">1.43384695053101</t>
@@ -1199,25 +1199,25 @@
     <t xml:space="preserve">1.38839364051819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37530851364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36360096931458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35051560401917</t>
+    <t xml:space="preserve">1.37530839443207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36360085010529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35051584243774</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34087419509888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36222338676453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34294033050537</t>
+    <t xml:space="preserve">1.34087431430817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36222350597382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34294021129608</t>
   </si>
   <si>
     <t xml:space="preserve">1.36979901790619</t>
@@ -1241,13 +1241,13 @@
     <t xml:space="preserve">1.37737452983856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36842167377472</t>
+    <t xml:space="preserve">1.36842155456543</t>
   </si>
   <si>
     <t xml:space="preserve">1.36635553836823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21966528892517</t>
+    <t xml:space="preserve">1.21966516971588</t>
   </si>
   <si>
     <t xml:space="preserve">1.23963701725006</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">1.25134479999542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24927866458893</t>
+    <t xml:space="preserve">1.24927878379822</t>
   </si>
   <si>
     <t xml:space="preserve">1.22586333751678</t>
@@ -1286,25 +1286,25 @@
     <t xml:space="preserve">1.21140098571777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1996933221817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21277844905853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16457033157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15699458122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15217387676239</t>
+    <t xml:space="preserve">1.19969320297241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21277832984924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1645702123642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15699470043182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1521737575531</t>
   </si>
   <si>
     <t xml:space="preserve">1.12600362300873</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12875854969025</t>
+    <t xml:space="preserve">1.12875843048096</t>
   </si>
   <si>
     <t xml:space="preserve">1.10052239894867</t>
@@ -1325,10 +1325,10 @@
     <t xml:space="preserve">1.14322078227997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13357937335968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23137295246124</t>
+    <t xml:space="preserve">1.1335791349411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23137283325195</t>
   </si>
   <si>
     <t xml:space="preserve">1.1893630027771</t>
@@ -1343,22 +1343,22 @@
     <t xml:space="preserve">1.1728343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17558932304382</t>
+    <t xml:space="preserve">1.17558920383453</t>
   </si>
   <si>
     <t xml:space="preserve">1.176966547966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17076849937439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26029777526855</t>
+    <t xml:space="preserve">1.1707683801651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26029789447784</t>
   </si>
   <si>
     <t xml:space="preserve">1.3023077249527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27682638168335</t>
+    <t xml:space="preserve">1.27682626247406</t>
   </si>
   <si>
     <t xml:space="preserve">1.30988311767578</t>
@@ -1373,25 +1373,25 @@
     <t xml:space="preserve">1.26649594306946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21071231365204</t>
+    <t xml:space="preserve">1.21071219444275</t>
   </si>
   <si>
     <t xml:space="preserve">1.22792947292328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2506560087204</t>
+    <t xml:space="preserve">1.25065612792969</t>
   </si>
   <si>
     <t xml:space="preserve">1.24239194393158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27200543880463</t>
+    <t xml:space="preserve">1.27200531959534</t>
   </si>
   <si>
     <t xml:space="preserve">1.29473197460175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.298175573349</t>
+    <t xml:space="preserve">1.29817545413971</t>
   </si>
   <si>
     <t xml:space="preserve">1.3229683637619</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">1.279580950737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26718473434448</t>
+    <t xml:space="preserve">1.26718461513519</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26374125480652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26993930339813</t>
+    <t xml:space="preserve">1.26374113559723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26993942260742</t>
   </si>
   <si>
     <t xml:space="preserve">1.29955291748047</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">1.3925256729126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40905427932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42007339000702</t>
+    <t xml:space="preserve">1.4090541601181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42007315158844</t>
   </si>
   <si>
     <t xml:space="preserve">1.39114820957184</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">1.30781722068787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38794755935669</t>
+    <t xml:space="preserve">1.38794767856598</t>
   </si>
   <si>
     <t xml:space="preserve">1.41661822795868</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">1.41882359981537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4026505947113</t>
+    <t xml:space="preserve">1.40265047550201</t>
   </si>
   <si>
     <t xml:space="preserve">1.37692046165466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36001241207123</t>
+    <t xml:space="preserve">1.36001217365265</t>
   </si>
   <si>
     <t xml:space="preserve">1.38427197933197</t>
@@ -1472,10 +1472,10 @@
     <t xml:space="preserve">1.42543983459473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41000187397003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42176425457001</t>
+    <t xml:space="preserve">1.41000175476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42176413536072</t>
   </si>
   <si>
     <t xml:space="preserve">1.43867242336273</t>
@@ -1484,28 +1484,28 @@
     <t xml:space="preserve">1.47469437122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48645675182343</t>
+    <t xml:space="preserve">1.48645663261414</t>
   </si>
   <si>
     <t xml:space="preserve">1.52468395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704061985016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49968922138214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4967485666275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4908674955368</t>
+    <t xml:space="preserve">1.50704050064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49968910217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49674868583679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49086761474609</t>
   </si>
   <si>
     <t xml:space="preserve">1.52615427970886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51439189910889</t>
+    <t xml:space="preserve">1.51439201831818</t>
   </si>
   <si>
     <t xml:space="preserve">1.56585204601288</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792684078217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47910523414612</t>
+    <t xml:space="preserve">1.48792695999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47910535335541</t>
   </si>
   <si>
     <t xml:space="preserve">1.50115954875946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50998115539551</t>
+    <t xml:space="preserve">1.50998103618622</t>
   </si>
   <si>
     <t xml:space="preserve">1.52321374416351</t>
@@ -1541,10 +1541,10 @@
     <t xml:space="preserve">1.44455361366272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46660768985748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46366727352142</t>
+    <t xml:space="preserve">1.46660780906677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46366739273071</t>
   </si>
   <si>
     <t xml:space="preserve">1.45558071136475</t>
@@ -1553,10 +1553,10 @@
     <t xml:space="preserve">1.45043480396271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44381844997406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42911553382874</t>
+    <t xml:space="preserve">1.44381833076477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42911565303802</t>
   </si>
   <si>
     <t xml:space="preserve">1.37912607192993</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">1.40706133842468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43058574199677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42396950721741</t>
+    <t xml:space="preserve">1.43058586120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4239696264267</t>
   </si>
   <si>
     <t xml:space="preserve">1.43940758705139</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44675898551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46146190166473</t>
+    <t xml:space="preserve">1.4467591047287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46146178245544</t>
   </si>
   <si>
     <t xml:space="preserve">1.48498630523682</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762472629547</t>
+    <t xml:space="preserve">1.52762460708618</t>
   </si>
   <si>
     <t xml:space="preserve">1.56144118309021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5732034444809</t>
+    <t xml:space="preserve">1.57320332527161</t>
   </si>
   <si>
     <t xml:space="preserve">1.55114912986755</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">1.57173311710358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57026278972626</t>
+    <t xml:space="preserve">1.57026267051697</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025249004364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63495516777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64377701282501</t>
+    <t xml:space="preserve">1.63495528697968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64377689361572</t>
   </si>
   <si>
     <t xml:space="preserve">1.64524722099304</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">1.62760388851166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60113883018494</t>
+    <t xml:space="preserve">1.60113871097565</t>
   </si>
   <si>
     <t xml:space="preserve">1.62466335296631</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">1.40191531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147208213806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.408531665802</t>
+    <t xml:space="preserve">1.41147220134735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40853154659271</t>
   </si>
   <si>
     <t xml:space="preserve">1.39970993995667</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">1.43279135227203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44822919368744</t>
+    <t xml:space="preserve">1.44822931289673</t>
   </si>
   <si>
     <t xml:space="preserve">1.43205618858337</t>
@@ -1682,22 +1682,22 @@
     <t xml:space="preserve">1.39088821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37250971794128</t>
+    <t xml:space="preserve">1.37250959873199</t>
   </si>
   <si>
     <t xml:space="preserve">1.36074733734131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3548663854599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3453094959259</t>
+    <t xml:space="preserve">1.35486626625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34530937671661</t>
   </si>
   <si>
     <t xml:space="preserve">1.28943860530853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27179527282715</t>
+    <t xml:space="preserve">1.27179515361786</t>
   </si>
   <si>
     <t xml:space="preserve">1.28649806976318</t>
@@ -1715,10 +1715,10 @@
     <t xml:space="preserve">1.28355753421783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29752516746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31590366363525</t>
+    <t xml:space="preserve">1.2975252866745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31590378284454</t>
   </si>
   <si>
     <t xml:space="preserve">1.30855226516724</t>
@@ -1727,22 +1727,22 @@
     <t xml:space="preserve">1.31516861915588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28576278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29017388820648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24974095821381</t>
+    <t xml:space="preserve">1.28576290607452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29017376899719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2497410774231</t>
   </si>
   <si>
     <t xml:space="preserve">1.27841150760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24091935157776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24459493160248</t>
+    <t xml:space="preserve">1.24091923236847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24459505081177</t>
   </si>
   <si>
     <t xml:space="preserve">1.25121128559113</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">1.26076805591583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26591408252716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30928754806519</t>
+    <t xml:space="preserve">1.26591420173645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3092874288559</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811957359314</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">1.25782752037048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22180569171906</t>
+    <t xml:space="preserve">1.22180557250977</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2365083694458</t>
+    <t xml:space="preserve">1.23650848865509</t>
   </si>
   <si>
     <t xml:space="preserve">1.23356783390045</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">1.29164409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26150321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25856280326843</t>
+    <t xml:space="preserve">1.26150333881378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25856256484985</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">1.24680042266846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24312460422516</t>
+    <t xml:space="preserve">1.24312472343445</t>
   </si>
   <si>
     <t xml:space="preserve">1.26885461807251</t>
@@ -1826,49 +1826,49 @@
     <t xml:space="preserve">1.2879683971405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29679000377655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24165439605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2401841878891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28870356082916</t>
+    <t xml:space="preserve">1.29679012298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24165451526642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24018406867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28870344161987</t>
   </si>
   <si>
     <t xml:space="preserve">1.27914667129517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21004343032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27032506465912</t>
+    <t xml:space="preserve">1.21004331111908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27032494544983</t>
   </si>
   <si>
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502786159515</t>
+    <t xml:space="preserve">1.28502774238586</t>
   </si>
   <si>
     <t xml:space="preserve">1.28135216236115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29311442375183</t>
+    <t xml:space="preserve">1.29311430454254</t>
   </si>
   <si>
     <t xml:space="preserve">1.38059628009796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3894180059433</t>
+    <t xml:space="preserve">1.38941788673401</t>
   </si>
   <si>
     <t xml:space="preserve">1.36589348316193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3511905670166</t>
+    <t xml:space="preserve">1.35119068622589</t>
   </si>
   <si>
     <t xml:space="preserve">1.32325518131256</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31810915470123</t>
+    <t xml:space="preserve">1.31810927391052</t>
   </si>
   <si>
     <t xml:space="preserve">1.31149291992188</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">1.28723323345184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2842925786972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3129631280899</t>
+    <t xml:space="preserve">1.28429269790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31296324729919</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060657978058</t>
@@ -1901,31 +1901,31 @@
     <t xml:space="preserve">1.36736369132996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33428227901459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35266077518463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31737399101257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27694129943848</t>
+    <t xml:space="preserve">1.33428239822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35266089439392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31737411022186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27694118022919</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046582221985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27767646312714</t>
+    <t xml:space="preserve">1.27767634391785</t>
   </si>
   <si>
     <t xml:space="preserve">1.29826033115387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30340623855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27326548099518</t>
+    <t xml:space="preserve">1.3034063577652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27326560020447</t>
   </si>
   <si>
     <t xml:space="preserve">1.27620601654053</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531967639923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27473568916321</t>
+    <t xml:space="preserve">1.29531979560852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2747358083725</t>
   </si>
   <si>
     <t xml:space="preserve">1.27253031730652</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">1.21886503696442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21445405483246</t>
+    <t xml:space="preserve">1.21445417404175</t>
   </si>
   <si>
     <t xml:space="preserve">1.21371901035309</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">1.22915709018707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25194644927979</t>
+    <t xml:space="preserve">1.2519463300705</t>
   </si>
   <si>
     <t xml:space="preserve">1.22989225387573</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">1.21518933773041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22695159912109</t>
+    <t xml:space="preserve">1.2269514799118</t>
   </si>
   <si>
     <t xml:space="preserve">1.23724353313446</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18137276172638</t>
+    <t xml:space="preserve">1.18137288093567</t>
   </si>
   <si>
     <t xml:space="preserve">1.17034566402435</t>
@@ -2009,40 +2009,40 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711319446564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13358855247498</t>
+    <t xml:space="preserve">1.15711307525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13358867168427</t>
   </si>
   <si>
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448519229889</t>
+    <t xml:space="preserve">1.06448531150818</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0336092710495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06522035598755</t>
+    <t xml:space="preserve">1.03360939025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06522047519684</t>
   </si>
   <si>
     <t xml:space="preserve">1.10859382152557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08653950691223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08727467060089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07624757289886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08713436126709</t>
+    <t xml:space="preserve">1.08653962612152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0872745513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07624745368958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08713448047638</t>
   </si>
   <si>
     <t xml:space="preserve">1.10890829563141</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.05913960933685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0264790058136</t>
+    <t xml:space="preserve">1.02647888660431</t>
   </si>
   <si>
     <t xml:space="preserve">1.02181303501129</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.02259075641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995373487472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00548267364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00237226486206</t>
+    <t xml:space="preserve">0.995373427867889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00548279285431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00237214565277</t>
   </si>
   <si>
     <t xml:space="preserve">1.01248145103455</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.00159454345703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01714718341827</t>
+    <t xml:space="preserve">1.01714730262756</t>
   </si>
   <si>
     <t xml:space="preserve">1.03969871997833</t>
@@ -2093,31 +2093,31 @@
     <t xml:space="preserve">0.996151089668274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00081694126129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987597048282623</t>
+    <t xml:space="preserve">1.000816822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987597167491913</t>
   </si>
   <si>
     <t xml:space="preserve">0.965823292732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970489144325256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967378556728363</t>
+    <t xml:space="preserve">0.970489203929901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967378497123718</t>
   </si>
   <si>
     <t xml:space="preserve">0.998484075069427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991485238075256</t>
+    <t xml:space="preserve">0.991485297679901</t>
   </si>
   <si>
     <t xml:space="preserve">0.993040502071381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999261677265167</t>
+    <t xml:space="preserve">0.999261617660522</t>
   </si>
   <si>
     <t xml:space="preserve">1.02958941459656</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">1.0303670167923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581047058105</t>
+    <t xml:space="preserve">1.03581058979034</t>
   </si>
   <si>
     <t xml:space="preserve">1.08246862888336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05602896213531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10190963745117</t>
+    <t xml:space="preserve">1.0560290813446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10190951824188</t>
   </si>
   <si>
     <t xml:space="preserve">1.09413313865662</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">1.15789926052094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16645336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15090048313141</t>
+    <t xml:space="preserve">1.16645324230194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1509006023407</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612544536591</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">1.10968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13301491737366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13068199157715</t>
+    <t xml:space="preserve">1.13301503658295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13068211078644</t>
   </si>
   <si>
     <t xml:space="preserve">1.13145971298218</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">1.14467942714691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12368333339691</t>
+    <t xml:space="preserve">1.1236834526062</t>
   </si>
   <si>
     <t xml:space="preserve">1.10735297203064</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">1.11590695381165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12057280540466</t>
+    <t xml:space="preserve">1.12057268619537</t>
   </si>
   <si>
     <t xml:space="preserve">1.13534784317017</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.19678115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17345201969147</t>
+    <t xml:space="preserve">1.17345190048218</t>
   </si>
   <si>
     <t xml:space="preserve">1.18978226184845</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">1.22011005878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22088778018951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21077859401703</t>
+    <t xml:space="preserve">1.2208878993988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21077847480774</t>
   </si>
   <si>
     <t xml:space="preserve">1.19133758544922</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.25976955890656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27376699447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26987874507904</t>
+    <t xml:space="preserve">1.27376687526703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26987886428833</t>
   </si>
   <si>
     <t xml:space="preserve">1.27609992027283</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">1.33286726474762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34608697891235</t>
+    <t xml:space="preserve">1.34608709812164</t>
   </si>
   <si>
     <t xml:space="preserve">1.35852921009064</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">1.39896631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38807940483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37330424785614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35464096069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35619640350342</t>
+    <t xml:space="preserve">1.38807928562164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37330436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35464107990265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35619628429413</t>
   </si>
   <si>
     <t xml:space="preserve">1.33753311634064</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">1.3134263753891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28465378284454</t>
+    <t xml:space="preserve">1.28465390205383</t>
   </si>
   <si>
     <t xml:space="preserve">1.27143406867981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25821423530579</t>
+    <t xml:space="preserve">1.25821435451508</t>
   </si>
   <si>
     <t xml:space="preserve">1.25899183750153</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.25510370731354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23644053936005</t>
+    <t xml:space="preserve">1.23644042015076</t>
   </si>
   <si>
     <t xml:space="preserve">1.24343919754028</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">1.16412031650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15167808532715</t>
+    <t xml:space="preserve">1.15167820453644</t>
   </si>
   <si>
     <t xml:space="preserve">1.12757158279419</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">1.11823987960815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12135052680969</t>
+    <t xml:space="preserve">1.1213504076004</t>
   </si>
   <si>
     <t xml:space="preserve">1.12212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11357402801514</t>
+    <t xml:space="preserve">1.11357414722443</t>
   </si>
   <si>
     <t xml:space="preserve">1.10579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08868980407715</t>
+    <t xml:space="preserve">1.08868968486786</t>
   </si>
   <si>
     <t xml:space="preserve">1.11746227741241</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">1.14623475074768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10657525062561</t>
+    <t xml:space="preserve">1.1065753698349</t>
   </si>
   <si>
     <t xml:space="preserve">1.11201870441437</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.13923597335815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13379263877869</t>
+    <t xml:space="preserve">1.1337925195694</t>
   </si>
   <si>
     <t xml:space="preserve">1.05447375774384</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">1.04047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01403677463531</t>
+    <t xml:space="preserve">1.01403665542603</t>
   </si>
   <si>
     <t xml:space="preserve">1.01325905323029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996928691864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958824634552002</t>
+    <t xml:space="preserve">0.996928751468658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958824574947357</t>
   </si>
   <si>
     <t xml:space="preserve">0.942494213581085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948715388774872</t>
+    <t xml:space="preserve">0.948715329170227</t>
   </si>
   <si>
     <t xml:space="preserve">0.954936444759369</t>
@@ -2498,19 +2498,19 @@
     <t xml:space="preserve">1.00470507144928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990707635879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985264182090759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997706294059753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98370897769928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959602236747742</t>
+    <t xml:space="preserve">0.990707695484161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985264122486115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997706413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983708918094635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959602177143097</t>
   </si>
   <si>
     <t xml:space="preserve">0.884949207305908</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">0.88106107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894280850887299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855399072170258</t>
+    <t xml:space="preserve">0.894280791282654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855399131774902</t>
   </si>
   <si>
     <t xml:space="preserve">0.828181862831116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801742255687714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815739691257477</t>
+    <t xml:space="preserve">0.801742196083069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815739631652832</t>
   </si>
   <si>
     <t xml:space="preserve">0.752362310886383</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">0.678875803947449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.695594966411591</t>
+    <t xml:space="preserve">0.695595026016235</t>
   </si>
   <si>
     <t xml:space="preserve">0.687040984630585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683930456638336</t>
+    <t xml:space="preserve">0.683930397033691</t>
   </si>
   <si>
     <t xml:space="preserve">0.645048677921295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632217705249786</t>
+    <t xml:space="preserve">0.632217645645142</t>
   </si>
   <si>
     <t xml:space="preserve">0.592558324337006</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">0.612388014793396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611610352993011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575839042663574</t>
+    <t xml:space="preserve">0.611610293388367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575839102268219</t>
   </si>
   <si>
     <t xml:space="preserve">0.572339713573456</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">0.550177097320557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576227962970734</t>
+    <t xml:space="preserve">0.576227903366089</t>
   </si>
   <si>
     <t xml:space="preserve">0.565729856491089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.573506236076355</t>
+    <t xml:space="preserve">0.57350617647171</t>
   </si>
   <si>
     <t xml:space="preserve">0.567673921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660990178585052</t>
+    <t xml:space="preserve">0.660990238189697</t>
   </si>
   <si>
     <t xml:space="preserve">0.684319257736206</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.638049960136414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674209952354431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681208729743958</t>
+    <t xml:space="preserve">0.674210011959076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681208670139313</t>
   </si>
   <si>
     <t xml:space="preserve">0.657879650592804</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.643882215023041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640771687030792</t>
+    <t xml:space="preserve">0.640771627426147</t>
   </si>
   <si>
     <t xml:space="preserve">0.611999154090881</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">0.622108399868011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60577803850174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608111023902893</t>
+    <t xml:space="preserve">0.605778098106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608110964298248</t>
   </si>
   <si>
     <t xml:space="preserve">0.613165616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607333302497864</t>
+    <t xml:space="preserve">0.607333362102509</t>
   </si>
   <si>
     <t xml:space="preserve">0.626385390758514</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">0.621330797672272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598779380321503</t>
+    <t xml:space="preserve">0.598779320716858</t>
   </si>
   <si>
     <t xml:space="preserve">0.615498483181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559897541999817</t>
+    <t xml:space="preserve">0.559897601604462</t>
   </si>
   <si>
     <t xml:space="preserve">0.549399495124817</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">0.547844231128693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544344902038574</t>
+    <t xml:space="preserve">0.544344842433929</t>
   </si>
   <si>
     <t xml:space="preserve">0.547455430030823</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.57311737537384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59372466802597</t>
+    <t xml:space="preserve">0.593724727630615</t>
   </si>
   <si>
     <t xml:space="preserve">0.628329515457153</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">0.625996589660645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637661099433899</t>
+    <t xml:space="preserve">0.637661159038544</t>
   </si>
   <si>
     <t xml:space="preserve">0.61433207988739</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">0.654380261898041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632606446743011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585170686244965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586726009845734</t>
+    <t xml:space="preserve">0.632606506347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585170745849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586725950241089</t>
   </si>
   <si>
     <t xml:space="preserve">0.580893695354462</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">0.600334644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587892413139343</t>
+    <t xml:space="preserve">0.587892472743988</t>
   </si>
   <si>
     <t xml:space="preserve">0.580116093158722</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">0.576616764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583226680755615</t>
+    <t xml:space="preserve">0.58322662115097</t>
   </si>
   <si>
     <t xml:space="preserve">0.564563393592834</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">0.548233032226562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.541623175144196</t>
+    <t xml:space="preserve">0.541623115539551</t>
   </si>
   <si>
     <t xml:space="preserve">0.524903953075409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519460558891296</t>
+    <t xml:space="preserve">0.519460499286652</t>
   </si>
   <si>
     <t xml:space="preserve">0.515961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476690530776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489521533250809</t>
+    <t xml:space="preserve">0.4766905605793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489521563053131</t>
   </si>
   <si>
     <t xml:space="preserve">0.508962452411652</t>
@@ -2789,31 +2789,31 @@
     <t xml:space="preserve">0.491076827049255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50118613243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498464345932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486022174358368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497686743736267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48679980635643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477079421281815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474746435880661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459193736314774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444418698549271</t>
+    <t xml:space="preserve">0.501186072826385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498464375734329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48602220416069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497686713933945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486799836158752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477079391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474746465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459193795919418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444418668746948</t>
   </si>
   <si>
     <t xml:space="preserve">0.451806217432022</t>
@@ -2825,34 +2825,34 @@
     <t xml:space="preserve">0.485633373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478245824575424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49185448884964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508573591709137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467358946800232</t>
+    <t xml:space="preserve">0.478245854377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491854459047318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508573651313782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467358976602554</t>
   </si>
   <si>
     <t xml:space="preserve">0.455694437026978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463859558105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489132761955261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478634655475616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476301729679108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48252284526825</t>
+    <t xml:space="preserve">0.463859587907791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489132732152939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478634625673294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476301789283752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.482522875070572</t>
   </si>
   <si>
     <t xml:space="preserve">0.477857023477554</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">0.473580062389374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474357694387436</t>
+    <t xml:space="preserve">0.474357664585114</t>
   </si>
   <si>
     <t xml:space="preserve">0.46036022901535</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">0.464637249708176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463470757007599</t>
+    <t xml:space="preserve">0.463470786809921</t>
   </si>
   <si>
     <t xml:space="preserve">0.458027333021164</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">0.446751624345779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438975244760513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.436253517866135</t>
+    <t xml:space="preserve">0.438975214958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.436253547668457</t>
   </si>
   <si>
     <t xml:space="preserve">0.432754188776016</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">0.374820321798325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360200762748718</t>
+    <t xml:space="preserve">0.360200792551041</t>
   </si>
   <si>
     <t xml:space="preserve">0.355068385601044</t>
@@ -2933,22 +2933,22 @@
     <t xml:space="preserve">0.337649345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345892280340195</t>
+    <t xml:space="preserve">0.345892250537872</t>
   </si>
   <si>
     <t xml:space="preserve">0.331894844770432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346669912338257</t>
+    <t xml:space="preserve">0.346669942140579</t>
   </si>
   <si>
     <t xml:space="preserve">0.369376868009567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373576104640961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388040125370026</t>
+    <t xml:space="preserve">0.373576074838638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388040155172348</t>
   </si>
   <si>
     <t xml:space="preserve">0.396594107151031</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">0.36035630106926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34184855222702</t>
+    <t xml:space="preserve">0.341848582029343</t>
   </si>
   <si>
     <t xml:space="preserve">0.323962956666946</t>
@@ -2981,10 +2981,10 @@
     <t xml:space="preserve">0.337182760238647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359423130750656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351802289485931</t>
+    <t xml:space="preserve">0.359423100948334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351802319288254</t>
   </si>
   <si>
     <t xml:space="preserve">0.386484861373901</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">0.358645498752594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336405128240585</t>
+    <t xml:space="preserve">0.336405098438263</t>
   </si>
   <si>
     <t xml:space="preserve">0.341693043708801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356001526117325</t>
+    <t xml:space="preserve">0.356001555919647</t>
   </si>
   <si>
     <t xml:space="preserve">0.35413521528244</t>
@@ -3029,28 +3029,28 @@
     <t xml:space="preserve">0.390373021364212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417979091405869</t>
+    <t xml:space="preserve">0.417979121208191</t>
   </si>
   <si>
     <t xml:space="preserve">0.421478450298309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445585161447525</t>
+    <t xml:space="preserve">0.445585191249847</t>
   </si>
   <si>
     <t xml:space="preserve">0.437419980764389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440141677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462693154811859</t>
+    <t xml:space="preserve">0.440141707658768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462693125009537</t>
   </si>
   <si>
     <t xml:space="preserve">0.461137861013412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437031120061874</t>
+    <t xml:space="preserve">0.437031149864197</t>
   </si>
   <si>
     <t xml:space="preserve">0.419145524501801</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">0.45025098323822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446362763643265</t>
+    <t xml:space="preserve">0.446362793445587</t>
   </si>
   <si>
     <t xml:space="preserve">0.454139143228531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452972680330276</t>
+    <t xml:space="preserve">0.452972650527954</t>
   </si>
   <si>
     <t xml:space="preserve">0.457638502120972</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">0.472024768590927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448306888341904</t>
+    <t xml:space="preserve">0.448306858539581</t>
   </si>
   <si>
     <t xml:space="preserve">0.452583879232407</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">0.457249671220779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465803682804108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.461526721715927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462304323911667</t>
+    <t xml:space="preserve">0.465803653001785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.461526691913605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462304294109344</t>
   </si>
   <si>
     <t xml:space="preserve">0.472413599491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49613144993782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500408470630646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494187384843826</t>
+    <t xml:space="preserve">0.496131479740143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500408411026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494187414646149</t>
   </si>
   <si>
     <t xml:space="preserve">0.48213404417038</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">0.465414851903915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479801118373871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47046947479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.449084490537643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419923216104507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.432365328073502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430421262979507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431976497173309</t>
+    <t xml:space="preserve">0.479801088571548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.470469504594803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449084520339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419923186302185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.432365357875824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430421233177185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431976526975632</t>
   </si>
   <si>
     <t xml:space="preserve">0.421867281198502</t>
@@ -3146,19 +3146,19 @@
     <t xml:space="preserve">0.43119889497757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440919309854507</t>
+    <t xml:space="preserve">0.44091933965683</t>
   </si>
   <si>
     <t xml:space="preserve">0.442863434553146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466581344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566896319389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521404564380646</t>
+    <t xml:space="preserve">0.46658131480217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566896259784698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521404623985291</t>
   </si>
   <si>
     <t xml:space="preserve">0.530347406864166</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">0.500797271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494576156139374</t>
+    <t xml:space="preserve">0.494576185941696</t>
   </si>
   <si>
     <t xml:space="preserve">0.507795989513397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507018387317657</t>
+    <t xml:space="preserve">0.507018327713013</t>
   </si>
   <si>
     <t xml:space="preserve">0.504685461521149</t>
@@ -3209,40 +3209,40 @@
     <t xml:space="preserve">0.524126350879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513239502906799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50274133682251</t>
+    <t xml:space="preserve">0.513239443302155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502741396427155</t>
   </si>
   <si>
     <t xml:space="preserve">0.49652025103569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487577468156815</t>
+    <t xml:space="preserve">0.487577438354492</t>
   </si>
   <si>
     <t xml:space="preserve">0.480578750371933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493409782648087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485244572162628</t>
+    <t xml:space="preserve">0.493409723043442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485244601964951</t>
   </si>
   <si>
     <t xml:space="preserve">0.487188667058945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449473321437836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448695719242096</t>
+    <t xml:space="preserve">0.449473351240158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448695689439774</t>
   </si>
   <si>
     <t xml:space="preserve">0.44776251912117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446673840284348</t>
+    <t xml:space="preserve">0.44667387008667</t>
   </si>
   <si>
     <t xml:space="preserve">0.442630112171173</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">0.459427058696747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451184123754501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460982352495193</t>
+    <t xml:space="preserve">0.451184153556824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460982322692871</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096727132797</t>
@@ -3266,31 +3266,31 @@
     <t xml:space="preserve">0.449006766080856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450406521558762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456938624382019</t>
+    <t xml:space="preserve">0.450406551361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456938654184341</t>
   </si>
   <si>
     <t xml:space="preserve">0.442474603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461759984493256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446829348802567</t>
+    <t xml:space="preserve">0.461760014295578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446829319000244</t>
   </si>
   <si>
     <t xml:space="preserve">0.451961755752563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464714974164963</t>
+    <t xml:space="preserve">0.46471494436264</t>
   </si>
   <si>
     <t xml:space="preserve">0.458338350057602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453517019748688</t>
+    <t xml:space="preserve">0.453516989946365</t>
   </si>
   <si>
     <t xml:space="preserve">0.454916775226593</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">0.459115982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479178994894028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.495353817939758</t>
+    <t xml:space="preserve">0.479178965091705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.495353847742081</t>
   </si>
   <si>
     <t xml:space="preserve">0.527236878871918</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">0.526303708553314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534546673297882</t>
+    <t xml:space="preserve">0.534546613693237</t>
   </si>
   <si>
     <t xml:space="preserve">0.545589089393616</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">0.548077523708344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553209900856018</t>
+    <t xml:space="preserve">0.553209841251373</t>
   </si>
   <si>
     <t xml:space="preserve">0.57031786441803</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">0.57684999704361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60640013217926</t>
+    <t xml:space="preserve">0.606400191783905</t>
   </si>
   <si>
     <t xml:space="preserve">0.591003000736237</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">0.668610990047455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671566009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675143122673035</t>
+    <t xml:space="preserve">0.671566069126129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675143182277679</t>
   </si>
   <si>
     <t xml:space="preserve">0.671099424362183</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">0.655391216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649325668811798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650258839130402</t>
+    <t xml:space="preserve">0.649325609207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650258779525757</t>
   </si>
   <si>
     <t xml:space="preserve">0.629884779453278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613709986209869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590380907058716</t>
+    <t xml:space="preserve">0.613709926605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590380847454071</t>
   </si>
   <si>
     <t xml:space="preserve">0.586959302425385</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">0.597535133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58182692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552276790142059</t>
+    <t xml:space="preserve">0.581826865673065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552276730537415</t>
   </si>
   <si>
     <t xml:space="preserve">0.556009352207184</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">0.524592936038971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511839747428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500330686569214</t>
+    <t xml:space="preserve">0.511839687824249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500330746173859</t>
   </si>
   <si>
     <t xml:space="preserve">0.508729159832001</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">0.508107006549835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504529893398285</t>
+    <t xml:space="preserve">0.50452995300293</t>
   </si>
   <si>
     <t xml:space="preserve">0.507951498031616</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">0.506551802158356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497064620256424</t>
+    <t xml:space="preserve">0.497064590454102</t>
   </si>
   <si>
     <t xml:space="preserve">0.520860254764557</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">0.505774140357971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503285706043243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511995255947113</t>
+    <t xml:space="preserve">0.503285646438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511995196342468</t>
   </si>
   <si>
     <t xml:space="preserve">0.51246178150177</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">0.510595500469208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.52117133140564</t>
+    <t xml:space="preserve">0.521171271800995</t>
   </si>
   <si>
     <t xml:space="preserve">0.509817838668823</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">0.505463063716888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51743870973587</t>
+    <t xml:space="preserve">0.517438650131226</t>
   </si>
   <si>
     <t xml:space="preserve">0.517283141613007</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">0.500486195087433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494109630584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5203937292099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525215089321136</t>
+    <t xml:space="preserve">0.494109600782394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.520393669605255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525215029716492</t>
   </si>
   <si>
     <t xml:space="preserve">0.516038954257965</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">0.54496693611145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551965653896332</t>
+    <t xml:space="preserve">0.551965713500977</t>
   </si>
   <si>
     <t xml:space="preserve">0.541545391082764</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">0.549166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53781270980835</t>
+    <t xml:space="preserve">0.537812769412994</t>
   </si>
   <si>
     <t xml:space="preserve">0.553831994533539</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">0.567984998226166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583071112632751</t>
+    <t xml:space="preserve">0.583071172237396</t>
   </si>
   <si>
     <t xml:space="preserve">0.623663723468781</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">0.609821796417236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623352587223053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656168818473816</t>
+    <t xml:space="preserve">0.623352646827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656168878078461</t>
   </si>
   <si>
     <t xml:space="preserve">0.669388651847839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633928418159485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573583960533142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583848714828491</t>
+    <t xml:space="preserve">0.63392847776413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573584020137787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583848774433136</t>
   </si>
   <si>
     <t xml:space="preserve">0.589447736740112</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">0.552121222019196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557098150253296</t>
+    <t xml:space="preserve">0.557098090648651</t>
   </si>
   <si>
     <t xml:space="preserve">0.563008069992065</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">0.542167484760284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523659706115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522726595401764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502663612365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492865413427353</t>
+    <t xml:space="preserve">0.523659765720367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522726655006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502663552761078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492865383625031</t>
   </si>
   <si>
     <t xml:space="preserve">0.499553054571152</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">0.4955093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48975482583046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507484972476959</t>
+    <t xml:space="preserve">0.489754885435104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507484912872314</t>
   </si>
   <si>
     <t xml:space="preserve">0.523348689079285</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">0.52474844455719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513550460338593</t>
+    <t xml:space="preserve">0.513550519943237</t>
   </si>
   <si>
     <t xml:space="preserve">0.493643045425415</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">0.461293399333954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464092880487442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435786962509155</t>
+    <t xml:space="preserve">0.464092910289764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435786932706833</t>
   </si>
   <si>
     <t xml:space="preserve">0.432054281234741</t>
@@ -3683,19 +3683,19 @@
     <t xml:space="preserve">0.417745798826218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450095444917679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452739417552948</t>
+    <t xml:space="preserve">0.450095474720001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452739387750626</t>
   </si>
   <si>
     <t xml:space="preserve">0.43843087553978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435475885868073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430654525756836</t>
+    <t xml:space="preserve">0.43547585606575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430654555559158</t>
   </si>
   <si>
     <t xml:space="preserve">0.42536661028862</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">0.41525736451149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427232950925827</t>
+    <t xml:space="preserve">0.427232921123505</t>
   </si>
   <si>
     <t xml:space="preserve">0.424277931451797</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">0.412457853555679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422878175973892</t>
+    <t xml:space="preserve">0.422878205776215</t>
   </si>
   <si>
     <t xml:space="preserve">0.422722697257996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434542715549469</t>
+    <t xml:space="preserve">0.434542685747147</t>
   </si>
   <si>
     <t xml:space="preserve">0.424900054931641</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">0.43407616019249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436564594507217</t>
+    <t xml:space="preserve">0.436564564704895</t>
   </si>
   <si>
     <t xml:space="preserve">0.440608292818069</t>
@@ -3743,37 +3743,37 @@
     <t xml:space="preserve">0.443252235651016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462071001529694</t>
+    <t xml:space="preserve">0.462071031332016</t>
   </si>
   <si>
     <t xml:space="preserve">0.456005454063416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45647206902504</t>
+    <t xml:space="preserve">0.456472039222717</t>
   </si>
   <si>
     <t xml:space="preserve">0.446207284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453205943107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448851227760315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430032432079315</t>
+    <t xml:space="preserve">0.453205972909927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448851197957993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430032402276993</t>
   </si>
   <si>
     <t xml:space="preserve">0.443563312292099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457405209541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452117264270782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427543967962265</t>
+    <t xml:space="preserve">0.457405179738998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452117294073105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.427543997764587</t>
   </si>
   <si>
     <t xml:space="preserve">0.423344761133194</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">0.472802400588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466270238161087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480423212051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455227822065353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.441696971654892</t>
+    <t xml:space="preserve">0.466270297765732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480423241853714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455227792263031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441697001457214</t>
   </si>
   <si>
     <t xml:space="preserve">0.386173814535141</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">0.42863267660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40872523188591</t>
+    <t xml:space="preserve">0.408725261688232</t>
   </si>
   <si>
     <t xml:space="preserve">0.411058127880096</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">0.436098009347916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451495200395584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478401392698288</t>
+    <t xml:space="preserve">0.451495170593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478401362895966</t>
   </si>
   <si>
     <t xml:space="preserve">0.468914210796356</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">0.467203408479691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513083875179291</t>
+    <t xml:space="preserve">0.513083934783936</t>
   </si>
   <si>
     <t xml:space="preserve">0.515883386135101</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">0.54792195558548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542634010314941</t>
+    <t xml:space="preserve">0.542634069919586</t>
   </si>
   <si>
     <t xml:space="preserve">0.537346124649048</t>
@@ -3863,22 +3863,22 @@
     <t xml:space="preserve">0.551810145378113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572028696537018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619775474071503</t>
+    <t xml:space="preserve">0.572028636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619775533676147</t>
   </si>
   <si>
     <t xml:space="preserve">0.64403772354126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671877145767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705626487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705937564373016</t>
+    <t xml:space="preserve">0.671877086162567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705626428127289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705937504768372</t>
   </si>
   <si>
     <t xml:space="preserve">0.72786682844162</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">0.658968329429626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.639216363430023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662545502185822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682452976703644</t>
+    <t xml:space="preserve">0.639216423034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662545442581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682452917098999</t>
   </si>
   <si>
     <t xml:space="preserve">0.693650901317596</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">0.755084097385406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821183145046234</t>
+    <t xml:space="preserve">0.821183085441589</t>
   </si>
   <si>
     <t xml:space="preserve">0.744352698326111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771258890628815</t>
+    <t xml:space="preserve">0.771258950233459</t>
   </si>
   <si>
     <t xml:space="preserve">0.776546835899353</t>
@@ -3929,10 +3929,10 @@
     <t xml:space="preserve">0.765659928321838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835958182811737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880672216415405</t>
+    <t xml:space="preserve">0.835958242416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88067227602005</t>
   </si>
   <si>
     <t xml:space="preserve">0.936661899089813</t>
@@ -3944,22 +3944,22 @@
     <t xml:space="preserve">0.886893272399902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898168981075287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89155912399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918776392936707</t>
+    <t xml:space="preserve">0.898169040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891559064388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918776273727417</t>
   </si>
   <si>
     <t xml:space="preserve">0.897002577781677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925775170326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989152312278748</t>
+    <t xml:space="preserve">0.925775110721588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989152371883392</t>
   </si>
   <si>
     <t xml:space="preserve">0.989930033683777</t>
@@ -3986,10 +3986,10 @@
     <t xml:space="preserve">1.01442551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970877885818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976321339607239</t>
+    <t xml:space="preserve">0.970877945423126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976321399211884</t>
   </si>
   <si>
     <t xml:space="preserve">0.960768640041351</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">0.977487802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0241459608078</t>
+    <t xml:space="preserve">1.02414608001709</t>
   </si>
   <si>
     <t xml:space="preserve">1.11046350002289</t>
@@ -4028,19 +4028,19 @@
     <t xml:space="preserve">1.00859332084656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932598114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896224915981293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879116892814636</t>
+    <t xml:space="preserve">0.975932538509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896224975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879116952419281</t>
   </si>
   <si>
     <t xml:space="preserve">0.838291049003601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879505813121796</t>
+    <t xml:space="preserve">0.879505753517151</t>
   </si>
   <si>
     <t xml:space="preserve">0.903612434864044</t>
@@ -4055,37 +4055,37 @@
     <t xml:space="preserve">0.897780239582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919942855834961</t>
+    <t xml:space="preserve">0.919942796230316</t>
   </si>
   <si>
     <t xml:space="preserve">0.969711542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988763570785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961546361446381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04319798946381</t>
+    <t xml:space="preserve">0.988763511180878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961546301841736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0431981086731</t>
   </si>
   <si>
     <t xml:space="preserve">0.945604801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870951771736145</t>
+    <t xml:space="preserve">0.8709517121315</t>
   </si>
   <si>
     <t xml:space="preserve">0.827793002128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869785308837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839846432209015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845289766788483</t>
+    <t xml:space="preserve">0.869785368442535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83984637260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845289826393127</t>
   </si>
   <si>
     <t xml:space="preserve">0.862397789955139</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">0.908278286457062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924608647823334</t>
+    <t xml:space="preserve">0.924608588218689</t>
   </si>
   <si>
     <t xml:space="preserve">1.00314974784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05097448825836</t>
+    <t xml:space="preserve">1.05097436904907</t>
   </si>
   <si>
     <t xml:space="preserve">1.03658807277679</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">1.01831364631653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940938949584961</t>
+    <t xml:space="preserve">0.940939009189606</t>
   </si>
   <si>
     <t xml:space="preserve">0.949881851673126</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">0.854232609272003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874062240123749</t>
+    <t xml:space="preserve">0.874062299728394</t>
   </si>
   <si>
     <t xml:space="preserve">0.878339350223541</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">0.76690411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770325779914856</t>
+    <t xml:space="preserve">0.770325720310211</t>
   </si>
   <si>
     <t xml:space="preserve">0.770481288433075</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">0.78852242231369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779579699039459</t>
+    <t xml:space="preserve">0.779579639434814</t>
   </si>
   <si>
     <t xml:space="preserve">0.724911868572235</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">0.737353980541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.758194625377655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814962029457092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84956681728363</t>
+    <t xml:space="preserve">0.7581946849823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814961969852448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849566757678986</t>
   </si>
   <si>
     <t xml:space="preserve">0.807185649871826</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">0.797854006290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820016622543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81923907995224</t>
+    <t xml:space="preserve">0.82001668214798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819239020347595</t>
   </si>
   <si>
     <t xml:space="preserve">0.844901025295258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854621410369873</t>
+    <t xml:space="preserve">0.854621469974518</t>
   </si>
   <si>
     <t xml:space="preserve">0.865508377552032</t>
@@ -4229,16 +4229,16 @@
     <t xml:space="preserve">0.944049537181854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947548925876617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956102907657623</t>
+    <t xml:space="preserve">0.947548866271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956102848052979</t>
   </si>
   <si>
     <t xml:space="preserve">0.935106694698334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967767417430878</t>
+    <t xml:space="preserve">0.967767477035522</t>
   </si>
   <si>
     <t xml:space="preserve">0.926163911819458</t>
@@ -4259,25 +4259,25 @@
     <t xml:space="preserve">0.998872816562653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954158842563629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937439620494843</t>
+    <t xml:space="preserve">0.954158782958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937439560890198</t>
   </si>
   <si>
     <t xml:space="preserve">0.89194792509079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882616281509399</t>
+    <t xml:space="preserve">0.882616341114044</t>
   </si>
   <si>
     <t xml:space="preserve">0.858509600162506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836347043514252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815350770950317</t>
+    <t xml:space="preserve">0.836346983909607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815350830554962</t>
   </si>
   <si>
     <t xml:space="preserve">0.832070052623749</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">0.824682474136353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829348206520081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816906094551086</t>
+    <t xml:space="preserve">0.829348266124725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816906154155731</t>
   </si>
   <si>
     <t xml:space="preserve">0.849955677986145</t>
@@ -4298,13 +4298,13 @@
     <t xml:space="preserve">0.851510882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872507035732269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868618905544281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897391438484192</t>
+    <t xml:space="preserve">0.872507095336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868618845939636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897391378879547</t>
   </si>
   <si>
     <t xml:space="preserve">0.893503248691559</t>
@@ -4316,22 +4316,22 @@
     <t xml:space="preserve">0.926552653312683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912944138050079</t>
+    <t xml:space="preserve">0.912944078445435</t>
   </si>
   <si>
     <t xml:space="preserve">0.937828421592712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952214598655701</t>
+    <t xml:space="preserve">0.952214658260345</t>
   </si>
   <si>
     <t xml:space="preserve">0.971655607223511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988374769687653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0556401014328</t>
+    <t xml:space="preserve">0.988374829292297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05564022064209</t>
   </si>
   <si>
     <t xml:space="preserve">1.12290573120117</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">1.18006193637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19211530685425</t>
+    <t xml:space="preserve">1.19211518764496</t>
   </si>
   <si>
     <t xml:space="preserve">1.18667185306549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20494627952576</t>
+    <t xml:space="preserve">1.20494616031647</t>
   </si>
   <si>
     <t xml:space="preserve">1.15128934383392</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.23799574375153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698682785034</t>
+    <t xml:space="preserve">1.28698670864105</t>
   </si>
   <si>
     <t xml:space="preserve">1.14001369476318</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">1.12873804569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15362226963043</t>
+    <t xml:space="preserve">1.15362238883972</t>
   </si>
   <si>
     <t xml:space="preserve">1.16684210300446</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">1.16606450080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15245592594147</t>
+    <t xml:space="preserve">1.15245580673218</t>
   </si>
   <si>
     <t xml:space="preserve">1.10463130474091</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">1.10929703712463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0960773229599</t>
+    <t xml:space="preserve">1.09607720375061</t>
   </si>
   <si>
     <t xml:space="preserve">1.03853225708008</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">1.09491086006165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15401113033295</t>
+    <t xml:space="preserve">1.15401101112366</t>
   </si>
   <si>
     <t xml:space="preserve">1.08985614776611</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">1.08052456378937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02686774730682</t>
+    <t xml:space="preserve">1.02686762809753</t>
   </si>
   <si>
     <t xml:space="preserve">1.02064669132233</t>
@@ -4469,28 +4469,28 @@
     <t xml:space="preserve">1.02803421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00353860855103</t>
+    <t xml:space="preserve">1.00353872776031</t>
   </si>
   <si>
     <t xml:space="preserve">0.99459582567215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986819565296173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973210871219635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956491649150848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966212093830109</t>
+    <t xml:space="preserve">0.986819446086884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97321081161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956491708755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966212153434753</t>
   </si>
   <si>
     <t xml:space="preserve">0.953769981861115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940161347389221</t>
+    <t xml:space="preserve">0.940161287784576</t>
   </si>
   <si>
     <t xml:space="preserve">0.933551430702209</t>
@@ -4502,31 +4502,31 @@
     <t xml:space="preserve">0.912555277347565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880283355712891</t>
+    <t xml:space="preserve">0.880283415317535</t>
   </si>
   <si>
     <t xml:space="preserve">0.853066146373749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892336785793304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916832268238068</t>
+    <t xml:space="preserve">0.89233672618866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916832327842712</t>
   </si>
   <si>
     <t xml:space="preserve">0.889226198196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933162689208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933940172195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980987250804901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960379898548126</t>
+    <t xml:space="preserve">0.93316262960434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933940291404724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980987191200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960379838943481</t>
   </si>
   <si>
     <t xml:space="preserve">0.98448657989502</t>
@@ -61519,7 +61519,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6494097222</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>960526</v>
@@ -61540,6 +61540,32 @@
         <v>1737</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6495486111</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>1629098</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>1.63549995422363</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>1.62150001525879</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>1.62199997901917</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>1.62600004673004</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170564651489</t>
+    <t xml:space="preserve">1.0017055273056</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982317924499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985255479812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960579872131348</t>
+    <t xml:space="preserve">0.982317805290222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985255420207977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960579812526703</t>
   </si>
   <si>
     <t xml:space="preserve">0.964104950428009</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993480563163757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992892980575562</t>
+    <t xml:space="preserve">0.993480503559113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992893040180206</t>
   </si>
   <si>
     <t xml:space="preserve">1.04576897621155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04165649414062</t>
+    <t xml:space="preserve">1.04165637493134</t>
   </si>
   <si>
     <t xml:space="preserve">1.02814376354218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03695619106293</t>
+    <t xml:space="preserve">1.03695631027222</t>
   </si>
   <si>
     <t xml:space="preserve">1.05693173408508</t>
@@ -86,28 +86,28 @@
     <t xml:space="preserve">1.08101963996887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13565814495087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14564573764801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14682078361511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11509525775909</t>
+    <t xml:space="preserve">1.13565802574158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1456458568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14682066440582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11509537696838</t>
   </si>
   <si>
     <t xml:space="preserve">1.12802040576935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14035820960999</t>
+    <t xml:space="preserve">1.1403580904007</t>
   </si>
   <si>
     <t xml:space="preserve">1.11098277568817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09100723266602</t>
+    <t xml:space="preserve">1.09100735187531</t>
   </si>
   <si>
     <t xml:space="preserve">1.02755618095398</t>
@@ -116,19 +116,19 @@
     <t xml:space="preserve">0.957642316818237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853652894496918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829565048217773</t>
+    <t xml:space="preserve">0.853652834892273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829564988613129</t>
   </si>
   <si>
     <t xml:space="preserve">0.840140223503113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.810764670372009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816639840602875</t>
+    <t xml:space="preserve">0.810764729976654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81663990020752</t>
   </si>
   <si>
     <t xml:space="preserve">0.873040795326233</t>
@@ -137,145 +137,145 @@
     <t xml:space="preserve">0.863640666007996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872453391551971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887728571891785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881853520870209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860703229904175</t>
+    <t xml:space="preserve">0.872453331947327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887728631496429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881853580474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86070317029953</t>
   </si>
   <si>
     <t xml:space="preserve">0.842490315437317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850127995014191</t>
+    <t xml:space="preserve">0.850128054618835</t>
   </si>
   <si>
     <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904178977012634</t>
+    <t xml:space="preserve">0.904178857803345</t>
   </si>
   <si>
     <t xml:space="preserve">0.916516661643982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895366191864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851890504360199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.807827115058899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776101529598236</t>
+    <t xml:space="preserve">0.895366311073303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851890444755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.807827234268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776101589202881</t>
   </si>
   <si>
     <t xml:space="preserve">0.76493889093399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757888674736023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831915140151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820164859294891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817814826965332</t>
+    <t xml:space="preserve">0.757888734340668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831915199756622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820164918899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817814767360687</t>
   </si>
   <si>
     <t xml:space="preserve">0.828390002250671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833677649497986</t>
+    <t xml:space="preserve">0.833677768707275</t>
   </si>
   <si>
     <t xml:space="preserve">0.823102414608002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817227244377136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827215015888214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828977644443512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.843077778816223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865403175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837790131568909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830740034580231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846602857112885</t>
+    <t xml:space="preserve">0.817227423191071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827214896678925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828977584838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.843077838420868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865403234958649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837790250778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83074015378952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84660279750824</t>
   </si>
   <si>
     <t xml:space="preserve">0.848952949047089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860115528106689</t>
+    <t xml:space="preserve">0.860115647315979</t>
   </si>
   <si>
     <t xml:space="preserve">0.846015334129333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834265172481537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822514891624451</t>
+    <t xml:space="preserve">0.834265112876892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822514951229095</t>
   </si>
   <si>
     <t xml:space="preserve">0.845427870750427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868340790271759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92062920331955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915929138660431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941545963287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893016219139099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553525924683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578221321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869515776634216</t>
+    <t xml:space="preserve">0.868340849876404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920629262924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915929198265076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941486358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893016159534454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553585529327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578280925751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869515836238861</t>
   </si>
   <si>
     <t xml:space="preserve">0.882440984249115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864228188991547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835440218448639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826040029525757</t>
+    <t xml:space="preserve">0.864228129386902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835440158843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826040089130402</t>
   </si>
   <si>
     <t xml:space="preserve">0.83015251159668</t>
@@ -290,22 +290,22 @@
     <t xml:space="preserve">0.924741744995117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.945304572582245</t>
+    <t xml:space="preserve">0.945304691791534</t>
   </si>
   <si>
     <t xml:space="preserve">0.937079608440399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928854286670685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961769044399261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987442672252655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994025468826294</t>
+    <t xml:space="preserve">0.92885434627533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961769104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98744261264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994025588035583</t>
   </si>
   <si>
     <t xml:space="preserve">1.03483998775482</t>
@@ -323,88 +323,88 @@
     <t xml:space="preserve">1.05327212810516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05261385440826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05458879470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05393040180206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07367932796478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11646842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09276974201202</t>
+    <t xml:space="preserve">1.05261373519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05458867549896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05393052101135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07367944717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11646854877472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09276986122131</t>
   </si>
   <si>
     <t xml:space="preserve">1.03878962993622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02299046516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982834696769714</t>
+    <t xml:space="preserve">1.02299058437347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98283463716507</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367195129395</t>
+    <t xml:space="preserve">0.993367373943329</t>
   </si>
   <si>
     <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07565426826477</t>
+    <t xml:space="preserve">1.07565414905548</t>
   </si>
   <si>
     <t xml:space="preserve">1.07302093505859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10132765769958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01574921607971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959135949611664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97756826877594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97230190038681</t>
+    <t xml:space="preserve">1.10132777690887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.015749335289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959136009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97756814956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972301840782166</t>
   </si>
   <si>
     <t xml:space="preserve">1.02628207206726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04668915271759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02035737037659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961110889911652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9387286901474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936095714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956502676010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951894760131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936753928661346</t>
+    <t xml:space="preserve">1.04668927192688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02035748958588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961110830307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938728868961334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936095654964447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956502616405487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951894640922546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936753869056702</t>
   </si>
   <si>
     <t xml:space="preserve">0.946628272533417</t>
@@ -413,43 +413,43 @@
     <t xml:space="preserve">0.939387142658234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949919760227203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948603212833405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974276721477509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954527914524078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997975409030914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9235879778862</t>
+    <t xml:space="preserve">0.949919641017914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94860315322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974276661872864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954527974128723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99797534942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923588037490845</t>
   </si>
   <si>
     <t xml:space="preserve">0.836034774780273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809702932834625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832085072994232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851833939552307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888698399066925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884090304374695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871582686901093</t>
+    <t xml:space="preserve">0.80970299243927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832085013389587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851833760738373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88869833946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88409036397934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871582746505737</t>
   </si>
   <si>
     <t xml:space="preserve">0.87355762720108</t>
@@ -458,76 +458,76 @@
     <t xml:space="preserve">0.880798876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886723399162292</t>
+    <t xml:space="preserve">0.886723577976227</t>
   </si>
   <si>
     <t xml:space="preserve">0.890673279762268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870924293994904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866974651813507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884748518466949</t>
+    <t xml:space="preserve">0.870924413204193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866974592208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884748637676239</t>
   </si>
   <si>
     <t xml:space="preserve">0.883432030677795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874215841293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870266199111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86434143781662</t>
+    <t xml:space="preserve">0.87421590089798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870266139507294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864341497421265</t>
   </si>
   <si>
     <t xml:space="preserve">0.881457149982452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882773816585541</t>
+    <t xml:space="preserve">0.882773637771606</t>
   </si>
   <si>
     <t xml:space="preserve">0.887381792068481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880140483379364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613097190857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934779047966003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94794487953186</t>
+    <t xml:space="preserve">0.880140542984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613156795502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934778988361359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947944939136505</t>
   </si>
   <si>
     <t xml:space="preserve">0.947286665439606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932145893573761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902522683143616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281434059143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903180778026581</t>
+    <t xml:space="preserve">0.932145953178406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902522504329681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281374454498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903180837631226</t>
   </si>
   <si>
     <t xml:space="preserve">0.917005062103271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940045356750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934120774269104</t>
+    <t xml:space="preserve">0.940045237541199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934120833873749</t>
   </si>
   <si>
     <t xml:space="preserve">0.911080360412598</t>
@@ -536,55 +536,55 @@
     <t xml:space="preserve">0.912396967411041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91371363401413</t>
+    <t xml:space="preserve">0.913713574409485</t>
   </si>
   <si>
     <t xml:space="preserve">0.931487500667572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918979942798615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909763813018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926879525184631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920296609401703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938070476055145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964402437210083</t>
+    <t xml:space="preserve">0.918980002403259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909763753414154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926879405975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920296490192413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93807053565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964402318000793</t>
   </si>
   <si>
     <t xml:space="preserve">0.970326960086823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988759219646454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984151184558868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992708921432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0414229631424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03549802303314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03154838085175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05919671058655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03813147544861</t>
+    <t xml:space="preserve">0.988759160041809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984151124954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99270898103714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04142284393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03549814224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03154850006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05919682979584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03813135623932</t>
   </si>
   <si>
     <t xml:space="preserve">1.03023183345795</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">1.01838254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03352332115173</t>
+    <t xml:space="preserve">1.03352344036102</t>
   </si>
   <si>
     <t xml:space="preserve">1.04208111763</t>
@@ -608,40 +608,40 @@
     <t xml:space="preserve">1.01443266868591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09211158752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08618688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09013676643372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0993527173996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08750343322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07960402965546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05788028240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06380486488342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13819217681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11120200157166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12305128574371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08421194553375</t>
+    <t xml:space="preserve">1.09211146831512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08618700504303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09013664722443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09935283660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08750355243683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07960391044617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05788016319275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06380498409271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13819229602814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11120212078094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.123051404953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08421206474304</t>
   </si>
   <si>
     <t xml:space="preserve">1.07697081565857</t>
@@ -665,19 +665,19 @@
     <t xml:space="preserve">1.12568461894989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13226759433746</t>
+    <t xml:space="preserve">1.13226747512817</t>
   </si>
   <si>
     <t xml:space="preserve">1.13885056972504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13621723651886</t>
+    <t xml:space="preserve">1.13621735572815</t>
   </si>
   <si>
     <t xml:space="preserve">1.14543342590332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14740836620331</t>
+    <t xml:space="preserve">1.14740824699402</t>
   </si>
   <si>
     <t xml:space="preserve">1.15596616268158</t>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">1.09737801551819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08684515953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0190407037735</t>
+    <t xml:space="preserve">1.08684527873993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01904082298279</t>
   </si>
   <si>
     <t xml:space="preserve">1.02364885807037</t>
@@ -716,25 +716,25 @@
     <t xml:space="preserve">1.02496552467346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02562379837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988100945949554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940703690052032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93346244096756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935437262058258</t>
+    <t xml:space="preserve">1.02562367916107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988101005554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940703749656677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93346232175827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935437321662903</t>
   </si>
   <si>
     <t xml:space="preserve">0.953869640827179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999950230121613</t>
+    <t xml:space="preserve">0.999950349330902</t>
   </si>
   <si>
     <t xml:space="preserve">1.00521659851074</t>
@@ -743,10 +743,10 @@
     <t xml:space="preserve">1.0170658826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00916635990143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03088998794556</t>
+    <t xml:space="preserve">1.00916647911072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03089010715485</t>
   </si>
   <si>
     <t xml:space="preserve">1.04603087902069</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">1.12041831016541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12765967845917</t>
+    <t xml:space="preserve">1.12765955924988</t>
   </si>
   <si>
     <t xml:space="preserve">1.12634289264679</t>
@@ -782,55 +782,55 @@
     <t xml:space="preserve">1.11975991725922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13490080833435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16715729236603</t>
+    <t xml:space="preserve">1.13490068912506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16715717315674</t>
   </si>
   <si>
     <t xml:space="preserve">1.16913211345673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1803230047226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17176520824432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16584062576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17374014854431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17900657653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18229794502258</t>
+    <t xml:space="preserve">1.18032312393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17176532745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16584074497223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17374002933502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17900669574738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18229806423187</t>
   </si>
   <si>
     <t xml:space="preserve">1.17308175563812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19941365718842</t>
+    <t xml:space="preserve">1.19941353797913</t>
   </si>
   <si>
     <t xml:space="preserve">1.21652936935425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21389615535736</t>
+    <t xml:space="preserve">1.21389603614807</t>
   </si>
   <si>
     <t xml:space="preserve">1.22706198692322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21784591674805</t>
+    <t xml:space="preserve">1.21784603595734</t>
   </si>
   <si>
     <t xml:space="preserve">1.20402181148529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19546389579773</t>
+    <t xml:space="preserve">1.19546401500702</t>
   </si>
   <si>
     <t xml:space="preserve">1.22179567813873</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">1.27182614803314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28696691989899</t>
+    <t xml:space="preserve">1.28696703910828</t>
   </si>
   <si>
     <t xml:space="preserve">1.3093489408493</t>
@@ -878,28 +878,28 @@
     <t xml:space="preserve">1.3613543510437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35213792324066</t>
+    <t xml:space="preserve">1.35213816165924</t>
   </si>
   <si>
     <t xml:space="preserve">1.35608792304993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35872113704681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3916357755661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40875160694122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47721421718597</t>
+    <t xml:space="preserve">1.35872101783752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39163589477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40875148773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47721409797668</t>
   </si>
   <si>
     <t xml:space="preserve">1.48116385936737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169683456421</t>
+    <t xml:space="preserve">1.49169671535492</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169659614563</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">1.39803516864777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38701617717743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38288402557373</t>
+    <t xml:space="preserve">1.38701629638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38288390636444</t>
   </si>
   <si>
     <t xml:space="preserve">1.48343241214752</t>
@@ -932,25 +932,25 @@
     <t xml:space="preserve">1.43522441387177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43246948719025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45313012599945</t>
+    <t xml:space="preserve">1.43246960639954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45313024520874</t>
   </si>
   <si>
     <t xml:space="preserve">1.51235747337341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57158434391022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53301787376404</t>
+    <t xml:space="preserve">1.57158446311951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53301799297333</t>
   </si>
   <si>
     <t xml:space="preserve">1.53990483283997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51511204242706</t>
+    <t xml:space="preserve">1.51511192321777</t>
   </si>
   <si>
     <t xml:space="preserve">1.43935632705688</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">1.47792291641235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45175290107727</t>
+    <t xml:space="preserve">1.45175278186798</t>
   </si>
   <si>
     <t xml:space="preserve">1.45863974094391</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">1.42282795906067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41594111919403</t>
+    <t xml:space="preserve">1.41594099998474</t>
   </si>
   <si>
     <t xml:space="preserve">1.40354478359222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45450747013092</t>
+    <t xml:space="preserve">1.45450758934021</t>
   </si>
   <si>
     <t xml:space="preserve">1.44624316692352</t>
@@ -989,19 +989,19 @@
     <t xml:space="preserve">1.42558264732361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42971467971802</t>
+    <t xml:space="preserve">1.42971479892731</t>
   </si>
   <si>
     <t xml:space="preserve">1.44073379039764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43660175800323</t>
+    <t xml:space="preserve">1.43660163879395</t>
   </si>
   <si>
     <t xml:space="preserve">1.45588493347168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47654557228088</t>
+    <t xml:space="preserve">1.47654569149017</t>
   </si>
   <si>
     <t xml:space="preserve">1.51786673069</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">1.55643332004547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54403698444366</t>
+    <t xml:space="preserve">1.54403710365295</t>
   </si>
   <si>
     <t xml:space="preserve">1.52888584136963</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">1.27820360660553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25960910320282</t>
+    <t xml:space="preserve">1.25960898399353</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062797546387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28095841407776</t>
+    <t xml:space="preserve">1.28095829486847</t>
   </si>
   <si>
     <t xml:space="preserve">1.32021355628967</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258173942566</t>
+    <t xml:space="preserve">1.35258185863495</t>
   </si>
   <si>
     <t xml:space="preserve">1.29748690128326</t>
@@ -1058,13 +1058,13 @@
     <t xml:space="preserve">1.28233575820923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29542088508606</t>
+    <t xml:space="preserve">1.29542076587677</t>
   </si>
   <si>
     <t xml:space="preserve">1.2899112701416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31608152389526</t>
+    <t xml:space="preserve">1.31608140468597</t>
   </si>
   <si>
     <t xml:space="preserve">1.33674204349518</t>
@@ -1076,25 +1076,25 @@
     <t xml:space="preserve">1.3332986831665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34018552303314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33880817890167</t>
+    <t xml:space="preserve">1.34018540382385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33880805969238</t>
   </si>
   <si>
     <t xml:space="preserve">1.3739310503006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41180896759033</t>
+    <t xml:space="preserve">1.41180884838104</t>
   </si>
   <si>
     <t xml:space="preserve">1.41869580745697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46001708507538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45037543773651</t>
+    <t xml:space="preserve">1.46001696586609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45037531852722</t>
   </si>
   <si>
     <t xml:space="preserve">1.44762063026428</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">1.51098001003265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56194281578064</t>
+    <t xml:space="preserve">1.56194269657135</t>
   </si>
   <si>
     <t xml:space="preserve">1.53852736949921</t>
@@ -1127,13 +1127,13 @@
     <t xml:space="preserve">1.57433915138245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51648938655853</t>
+    <t xml:space="preserve">1.51648914813995</t>
   </si>
   <si>
     <t xml:space="preserve">1.51924419403076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50684785842896</t>
+    <t xml:space="preserve">1.50684773921967</t>
   </si>
   <si>
     <t xml:space="preserve">1.49582874774933</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">1.50822520256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52750849723816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55092370510101</t>
+    <t xml:space="preserve">1.52750837802887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5509238243103</t>
   </si>
   <si>
     <t xml:space="preserve">1.60050916671753</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">1.62117004394531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61841511726379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58949053287506</t>
+    <t xml:space="preserve">1.6184149980545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58949041366577</t>
   </si>
   <si>
     <t xml:space="preserve">1.4848096370697</t>
@@ -1172,16 +1172,16 @@
     <t xml:space="preserve">1.52062153816223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55230104923248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52199900150299</t>
+    <t xml:space="preserve">1.55230116844177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5219988822937</t>
   </si>
   <si>
     <t xml:space="preserve">1.49720621109009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4214506149292</t>
+    <t xml:space="preserve">1.42145049571991</t>
   </si>
   <si>
     <t xml:space="preserve">1.43384695053101</t>
@@ -1193,31 +1193,31 @@
     <t xml:space="preserve">1.37599718570709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37117648124695</t>
+    <t xml:space="preserve">1.37117636203766</t>
   </si>
   <si>
     <t xml:space="preserve">1.38839364051819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37530839443207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36360085010529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35051584243774</t>
+    <t xml:space="preserve">1.37530851364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36360096931458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35051560401917</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34087431430817</t>
+    <t xml:space="preserve">1.34087419509888</t>
   </si>
   <si>
     <t xml:space="preserve">1.36222350597382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34294021129608</t>
+    <t xml:space="preserve">1.34294033050537</t>
   </si>
   <si>
     <t xml:space="preserve">1.36979901790619</t>
@@ -1226,10 +1226,10 @@
     <t xml:space="preserve">1.36428952217102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36704421043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38977098464966</t>
+    <t xml:space="preserve">1.36704432964325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38977086544037</t>
   </si>
   <si>
     <t xml:space="preserve">1.38012933731079</t>
@@ -1238,16 +1238,16 @@
     <t xml:space="preserve">1.35533666610718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37737452983856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36842155456543</t>
+    <t xml:space="preserve">1.37737464904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36842167377472</t>
   </si>
   <si>
     <t xml:space="preserve">1.36635553836823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21966516971588</t>
+    <t xml:space="preserve">1.21966528892517</t>
   </si>
   <si>
     <t xml:space="preserve">1.23963701725006</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">1.25134479999542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24927878379822</t>
+    <t xml:space="preserve">1.24927866458893</t>
   </si>
   <si>
     <t xml:space="preserve">1.22586333751678</t>
@@ -1268,19 +1268,19 @@
     <t xml:space="preserve">1.24721264839172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21553301811218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19900453090668</t>
+    <t xml:space="preserve">1.21553289890289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19900465011597</t>
   </si>
   <si>
     <t xml:space="preserve">1.22104263305664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2100236415863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20589137077332</t>
+    <t xml:space="preserve">1.21002352237701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2058914899826</t>
   </si>
   <si>
     <t xml:space="preserve">1.21140098571777</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">1.19969320297241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21277832984924</t>
+    <t xml:space="preserve">1.21277844905853</t>
   </si>
   <si>
     <t xml:space="preserve">1.1645702123642</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">1.15699470043182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1521737575531</t>
+    <t xml:space="preserve">1.15217387676239</t>
   </si>
   <si>
     <t xml:space="preserve">1.12600362300873</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">1.12669241428375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14322078227997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1335791349411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23137283325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1893630027771</t>
+    <t xml:space="preserve">1.14322090148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13357925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23137295246124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18936288356781</t>
   </si>
   <si>
     <t xml:space="preserve">1.17352306842804</t>
@@ -1343,22 +1343,22 @@
     <t xml:space="preserve">1.1728343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17558920383453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.176966547966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1707683801651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26029789447784</t>
+    <t xml:space="preserve">1.17558932304382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17696666717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17076849937439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26029777526855</t>
   </si>
   <si>
     <t xml:space="preserve">1.3023077249527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27682626247406</t>
+    <t xml:space="preserve">1.27682638168335</t>
   </si>
   <si>
     <t xml:space="preserve">1.30988311767578</t>
@@ -1373,25 +1373,25 @@
     <t xml:space="preserve">1.26649594306946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21071219444275</t>
+    <t xml:space="preserve">1.21071231365204</t>
   </si>
   <si>
     <t xml:space="preserve">1.22792947292328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25065612792969</t>
+    <t xml:space="preserve">1.2506560087204</t>
   </si>
   <si>
     <t xml:space="preserve">1.24239194393158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27200531959534</t>
+    <t xml:space="preserve">1.27200543880463</t>
   </si>
   <si>
     <t xml:space="preserve">1.29473197460175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29817545413971</t>
+    <t xml:space="preserve">1.298175573349</t>
   </si>
   <si>
     <t xml:space="preserve">1.3229683637619</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">1.279580950737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26718461513519</t>
+    <t xml:space="preserve">1.26718473434448</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26374113559723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26993942260742</t>
+    <t xml:space="preserve">1.26374125480652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26993930339813</t>
   </si>
   <si>
     <t xml:space="preserve">1.29955291748047</t>
@@ -1424,25 +1424,25 @@
     <t xml:space="preserve">1.32985520362854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3925256729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4090541601181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42007315158844</t>
+    <t xml:space="preserve">1.39252579212189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40905427932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42007327079773</t>
   </si>
   <si>
     <t xml:space="preserve">1.39114820957184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39665794372559</t>
+    <t xml:space="preserve">1.3966578245163</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34156274795532</t>
+    <t xml:space="preserve">1.34156286716461</t>
   </si>
   <si>
     <t xml:space="preserve">1.30781722068787</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">1.40265047550201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37692046165466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36001217365265</t>
+    <t xml:space="preserve">1.37692058086395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36001229286194</t>
   </si>
   <si>
     <t xml:space="preserve">1.38427197933197</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">1.42543983459473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41000175476074</t>
+    <t xml:space="preserve">1.41000187397003</t>
   </si>
   <si>
     <t xml:space="preserve">1.42176413536072</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">1.47469437122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48645663261414</t>
+    <t xml:space="preserve">1.48645675182343</t>
   </si>
   <si>
     <t xml:space="preserve">1.52468395233154</t>
@@ -1493,19 +1493,19 @@
     <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49968910217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49674868583679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49086761474609</t>
+    <t xml:space="preserve">1.49968922138214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4967485666275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4908674955368</t>
   </si>
   <si>
     <t xml:space="preserve">1.52615427970886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51439201831818</t>
+    <t xml:space="preserve">1.51439189910889</t>
   </si>
   <si>
     <t xml:space="preserve">1.56585204601288</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">1.55555987358093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55261945724487</t>
+    <t xml:space="preserve">1.55261933803558</t>
   </si>
   <si>
     <t xml:space="preserve">1.50262975692749</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792695999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47910535335541</t>
+    <t xml:space="preserve">1.48792684078217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47910523414612</t>
   </si>
   <si>
     <t xml:space="preserve">1.50115954875946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50998103618622</t>
+    <t xml:space="preserve">1.50998115539551</t>
   </si>
   <si>
     <t xml:space="preserve">1.52321374416351</t>
@@ -1544,19 +1544,19 @@
     <t xml:space="preserve">1.46660780906677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46366739273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45558071136475</t>
+    <t xml:space="preserve">1.46366727352142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45558059215546</t>
   </si>
   <si>
     <t xml:space="preserve">1.45043480396271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44381833076477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42911565303802</t>
+    <t xml:space="preserve">1.44381844997406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42911553382874</t>
   </si>
   <si>
     <t xml:space="preserve">1.37912607192993</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">1.43058586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4239696264267</t>
+    <t xml:space="preserve">1.42396950721741</t>
   </si>
   <si>
     <t xml:space="preserve">1.43940758705139</t>
@@ -1583,28 +1583,28 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4467591047287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46146178245544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48498630523682</t>
+    <t xml:space="preserve">1.44675898551941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46146190166473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48498642444611</t>
   </si>
   <si>
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762460708618</t>
+    <t xml:space="preserve">1.52762472629547</t>
   </si>
   <si>
     <t xml:space="preserve">1.56144118309021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57320332527161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55114912986755</t>
+    <t xml:space="preserve">1.5732034444809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55114901065826</t>
   </si>
   <si>
     <t xml:space="preserve">1.58643591403961</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.57173311710358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57026267051697</t>
+    <t xml:space="preserve">1.57026278972626</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025249004364</t>
@@ -1625,16 +1625,16 @@
     <t xml:space="preserve">1.63495528697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64377689361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64524722099304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62760388851166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113871097565</t>
+    <t xml:space="preserve">1.64377701282501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64524710178375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62760376930237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113883018494</t>
   </si>
   <si>
     <t xml:space="preserve">1.62466335296631</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">1.37471508979797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.395299077034</t>
+    <t xml:space="preserve">1.39529895782471</t>
   </si>
   <si>
     <t xml:space="preserve">1.40191531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147220134735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40853154659271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39970993995667</t>
+    <t xml:space="preserve">1.41147208213806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.408531665802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39971005916595</t>
   </si>
   <si>
     <t xml:space="preserve">1.40118026733398</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">1.35486626625061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34530937671661</t>
+    <t xml:space="preserve">1.3453094959259</t>
   </si>
   <si>
     <t xml:space="preserve">1.28943860530853</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">1.28649806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21665966510773</t>
+    <t xml:space="preserve">1.21665954589844</t>
   </si>
   <si>
     <t xml:space="preserve">1.2556220293045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25415182113647</t>
+    <t xml:space="preserve">1.25415170192719</t>
   </si>
   <si>
     <t xml:space="preserve">1.28355753421783</t>
@@ -1718,19 +1718,19 @@
     <t xml:space="preserve">1.2975252866745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31590378284454</t>
+    <t xml:space="preserve">1.31590366363525</t>
   </si>
   <si>
     <t xml:space="preserve">1.30855226516724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31516861915588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28576290607452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29017376899719</t>
+    <t xml:space="preserve">1.31516873836517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28576278686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29017388820648</t>
   </si>
   <si>
     <t xml:space="preserve">1.2497410774231</t>
@@ -1739,16 +1739,16 @@
     <t xml:space="preserve">1.27841150760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24091923236847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24459505081177</t>
+    <t xml:space="preserve">1.24091935157776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24459493160248</t>
   </si>
   <si>
     <t xml:space="preserve">1.25121128559113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31222808361053</t>
+    <t xml:space="preserve">1.31222796440125</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">1.26591420173645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3092874288559</t>
+    <t xml:space="preserve">1.30928754806519</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811957359314</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327589988708</t>
+    <t xml:space="preserve">1.22327601909637</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23650848865509</t>
+    <t xml:space="preserve">1.2365083694458</t>
   </si>
   <si>
     <t xml:space="preserve">1.23356783390045</t>
@@ -1793,22 +1793,22 @@
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768676280975</t>
+    <t xml:space="preserve">1.22768664360046</t>
   </si>
   <si>
     <t xml:space="preserve">1.3225200176239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31663882732391</t>
+    <t xml:space="preserve">1.3166389465332</t>
   </si>
   <si>
     <t xml:space="preserve">1.29164409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26150333881378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25856256484985</t>
+    <t xml:space="preserve">1.26150321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25856280326843</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1817,25 +1817,25 @@
     <t xml:space="preserve">1.24680042266846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24312472343445</t>
+    <t xml:space="preserve">1.24312460422516</t>
   </si>
   <si>
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2879683971405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29679012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24165451526642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24018406867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28870344161987</t>
+    <t xml:space="preserve">1.28796827793121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29679000377655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24165439605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2401841878891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28870356082916</t>
   </si>
   <si>
     <t xml:space="preserve">1.27914667129517</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502774238586</t>
+    <t xml:space="preserve">1.28502786159515</t>
   </si>
   <si>
     <t xml:space="preserve">1.28135216236115</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">1.36589348316193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35119068622589</t>
+    <t xml:space="preserve">1.3511905670166</t>
   </si>
   <si>
     <t xml:space="preserve">1.32325518131256</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31810927391052</t>
+    <t xml:space="preserve">1.31810915470123</t>
   </si>
   <si>
     <t xml:space="preserve">1.31149291992188</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">1.28723323345184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28429269790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31296324729919</t>
+    <t xml:space="preserve">1.2842925786972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3129631280899</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060657978058</t>
@@ -1904,10 +1904,10 @@
     <t xml:space="preserve">1.33428239822388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35266089439392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31737411022186</t>
+    <t xml:space="preserve">1.35266077518463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31737399101257</t>
   </si>
   <si>
     <t xml:space="preserve">1.27694118022919</t>
@@ -1916,37 +1916,37 @@
     <t xml:space="preserve">1.30046582221985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27767634391785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29826033115387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3034063577652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27326560020447</t>
+    <t xml:space="preserve">1.27767646312714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29826045036316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30340623855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27326548099518</t>
   </si>
   <si>
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134174346924</t>
+    <t xml:space="preserve">1.33134186267853</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531979560852</t>
+    <t xml:space="preserve">1.29531967639923</t>
   </si>
   <si>
     <t xml:space="preserve">1.2747358083725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27253031730652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26958990097046</t>
+    <t xml:space="preserve">1.27253043651581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26958978176117</t>
   </si>
   <si>
     <t xml:space="preserve">1.23797869682312</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">1.21445417404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371901035309</t>
+    <t xml:space="preserve">1.21371912956238</t>
   </si>
   <si>
     <t xml:space="preserve">1.21592450141907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20563244819641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22915709018707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2519463300705</t>
+    <t xml:space="preserve">1.2056325674057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22915697097778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25194644927979</t>
   </si>
   <si>
     <t xml:space="preserve">1.22989225387573</t>
@@ -1985,22 +1985,22 @@
     <t xml:space="preserve">1.21518933773041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2269514799118</t>
+    <t xml:space="preserve">1.22695159912109</t>
   </si>
   <si>
     <t xml:space="preserve">1.23724353313446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23871374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20857298374176</t>
+    <t xml:space="preserve">1.23871386051178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20857310295105</t>
   </si>
   <si>
     <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18137288093567</t>
+    <t xml:space="preserve">1.18137276172638</t>
   </si>
   <si>
     <t xml:space="preserve">1.17034566402435</t>
@@ -2009,37 +2009,37 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711307525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13358867168427</t>
+    <t xml:space="preserve">1.15711319446564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13358855247498</t>
   </si>
   <si>
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448531150818</t>
+    <t xml:space="preserve">1.06448519229889</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03360939025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06522047519684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10859382152557</t>
+    <t xml:space="preserve">1.0336092710495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06522035598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10859370231628</t>
   </si>
   <si>
     <t xml:space="preserve">1.08653962612152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0872745513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07624745368958</t>
+    <t xml:space="preserve">1.08727467060089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07624757289886</t>
   </si>
   <si>
     <t xml:space="preserve">1.08713448047638</t>
@@ -61545,7 +61545,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6495486111</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>1629098</v>
@@ -61566,6 +61566,32 @@
         <v>1737</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6493634259</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>1962919</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>1.62800002098083</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>1.61849999427795</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>1.62100005149841</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1739">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">SRS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982317805290222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985255420207977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960579812526703</t>
+    <t xml:space="preserve">0.982317924499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985255360603333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960579931735992</t>
   </si>
   <si>
     <t xml:space="preserve">0.964104950428009</t>
@@ -83,25 +83,25 @@
     <t xml:space="preserve">1.07749450206757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08101963996887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13565802574158</t>
+    <t xml:space="preserve">1.08101975917816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13565814495087</t>
   </si>
   <si>
     <t xml:space="preserve">1.1456458568573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14682066440582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11509537696838</t>
+    <t xml:space="preserve">1.14682078361511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11509525775909</t>
   </si>
   <si>
     <t xml:space="preserve">1.12802040576935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1403580904007</t>
+    <t xml:space="preserve">1.14035820960999</t>
   </si>
   <si>
     <t xml:space="preserve">1.11098277568817</t>
@@ -110,13 +110,13 @@
     <t xml:space="preserve">1.09100735187531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02755618095398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957642316818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853652834892273</t>
+    <t xml:space="preserve">1.02755606174469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957642197608948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853652954101562</t>
   </si>
   <si>
     <t xml:space="preserve">0.829564988613129</t>
@@ -137,19 +137,19 @@
     <t xml:space="preserve">0.863640666007996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872453331947327</t>
+    <t xml:space="preserve">0.872453391551971</t>
   </si>
   <si>
     <t xml:space="preserve">0.887728631496429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881853580474854</t>
+    <t xml:space="preserve">0.881853461265564</t>
   </si>
   <si>
     <t xml:space="preserve">0.86070317029953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842490315437317</t>
+    <t xml:space="preserve">0.842490255832672</t>
   </si>
   <si>
     <t xml:space="preserve">0.850128054618835</t>
@@ -158,43 +158,43 @@
     <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904178857803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916516661643982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895366311073303</t>
+    <t xml:space="preserve">0.904178977012634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916516482830048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895366132259369</t>
   </si>
   <si>
     <t xml:space="preserve">0.851890444755554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.807827234268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776101589202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76493889093399</t>
+    <t xml:space="preserve">0.807827174663544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776101529598236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.764938950538635</t>
   </si>
   <si>
     <t xml:space="preserve">0.757888734340668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831915199756622</t>
+    <t xml:space="preserve">0.831915140151978</t>
   </si>
   <si>
     <t xml:space="preserve">0.820164918899536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817814767360687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828390002250671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.833677768707275</t>
+    <t xml:space="preserve">0.817814826965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828390061855316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833677709102631</t>
   </si>
   <si>
     <t xml:space="preserve">0.823102414608002</t>
@@ -203,16 +203,16 @@
     <t xml:space="preserve">0.817227423191071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827214896678925</t>
+    <t xml:space="preserve">0.827215015888214</t>
   </si>
   <si>
     <t xml:space="preserve">0.828977584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843077838420868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865403234958649</t>
+    <t xml:space="preserve">0.843077778816223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865403294563293</t>
   </si>
   <si>
     <t xml:space="preserve">0.837790250778198</t>
@@ -221,19 +221,19 @@
     <t xml:space="preserve">0.83074015378952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84660279750824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848952949047089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860115647315979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846015334129333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834265112876892</t>
+    <t xml:space="preserve">0.846602857112885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848953008651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860115706920624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846015393733978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834265172481537</t>
   </si>
   <si>
     <t xml:space="preserve">0.822514951229095</t>
@@ -242,49 +242,49 @@
     <t xml:space="preserve">0.845427870750427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868340849876404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920629262924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915929198265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941486358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893016159534454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553585529327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578280925751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869515836238861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882440984249115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864228129386902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835440158843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826040089130402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83015251159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831327557563782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9071164727211</t>
+    <t xml:space="preserve">0.868340730667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920629143714905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915929079055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941426753998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89301609992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553645133972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578161716461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869515895843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88244104385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864228248596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835440278053284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826040029525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830152571201324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831327617168427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907116532325745</t>
   </si>
   <si>
     <t xml:space="preserve">0.924741744995117</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">0.945304691791534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.937079608440399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92885434627533</t>
+    <t xml:space="preserve">0.937079548835754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928854286670685</t>
   </si>
   <si>
     <t xml:space="preserve">0.961769104003906</t>
@@ -314,37 +314,37 @@
     <t xml:space="preserve">1.04010629653931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04076445102692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03615641593933</t>
+    <t xml:space="preserve">1.04076457023621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03615653514862</t>
   </si>
   <si>
     <t xml:space="preserve">1.05327212810516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05261373519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05458867549896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05393052101135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07367944717407</t>
+    <t xml:space="preserve">1.05261385440826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05458879470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05393040180206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07367932796478</t>
   </si>
   <si>
     <t xml:space="preserve">1.11646854877472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09276986122131</t>
+    <t xml:space="preserve">1.09276974201202</t>
   </si>
   <si>
     <t xml:space="preserve">1.03878962993622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02299058437347</t>
+    <t xml:space="preserve">1.02299046516418</t>
   </si>
   <si>
     <t xml:space="preserve">0.98283463716507</t>
@@ -356,28 +356,28 @@
     <t xml:space="preserve">0.993367373943329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07894563674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07565414905548</t>
+    <t xml:space="preserve">1.07894575595856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07565402984619</t>
   </si>
   <si>
     <t xml:space="preserve">1.07302093505859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10132777690887</t>
+    <t xml:space="preserve">1.10132765769958</t>
   </si>
   <si>
     <t xml:space="preserve">1.015749335289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959136009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97756814956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972301840782166</t>
+    <t xml:space="preserve">0.959135890007019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97756826877594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972301959991455</t>
   </si>
   <si>
     <t xml:space="preserve">1.02628207206726</t>
@@ -386,61 +386,61 @@
     <t xml:space="preserve">1.04668927192688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02035748958588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961110830307007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938728868961334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936095654964447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956502616405487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951894640922546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936753869056702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946628272533417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939387142658234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949919641017914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94860315322876</t>
+    <t xml:space="preserve">1.02035737037659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961110770702362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938728809356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936095714569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956502735614777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951894760131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936753809452057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946628391742706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939387083053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949919760227203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948603272438049</t>
   </si>
   <si>
     <t xml:space="preserve">0.974276661872864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954527974128723</t>
+    <t xml:space="preserve">0.954527854919434</t>
   </si>
   <si>
     <t xml:space="preserve">0.99797534942627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923588037490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836034774780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80970299243927</t>
+    <t xml:space="preserve">0.923587918281555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836034715175629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.809702932834625</t>
   </si>
   <si>
     <t xml:space="preserve">0.832085013389587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851833760738373</t>
+    <t xml:space="preserve">0.851833879947662</t>
   </si>
   <si>
     <t xml:space="preserve">0.88869833946228</t>
@@ -449,25 +449,25 @@
     <t xml:space="preserve">0.88409036397934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871582746505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87355762720108</t>
+    <t xml:space="preserve">0.871582686901093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873557567596436</t>
   </si>
   <si>
     <t xml:space="preserve">0.880798876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886723577976227</t>
+    <t xml:space="preserve">0.886723518371582</t>
   </si>
   <si>
     <t xml:space="preserve">0.890673279762268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870924413204193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866974592208862</t>
+    <t xml:space="preserve">0.870924353599548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866974651813507</t>
   </si>
   <si>
     <t xml:space="preserve">0.884748637676239</t>
@@ -476,16 +476,16 @@
     <t xml:space="preserve">0.883432030677795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87421590089798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870266139507294</t>
+    <t xml:space="preserve">0.874215841293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870266199111938</t>
   </si>
   <si>
     <t xml:space="preserve">0.864341497421265</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881457149982452</t>
+    <t xml:space="preserve">0.881457090377808</t>
   </si>
   <si>
     <t xml:space="preserve">0.882773637771606</t>
@@ -494,13 +494,13 @@
     <t xml:space="preserve">0.887381792068481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880140542984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613156795502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934778988361359</t>
+    <t xml:space="preserve">0.880140602588654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934779107570648</t>
   </si>
   <si>
     <t xml:space="preserve">0.947944939136505</t>
@@ -509,13 +509,13 @@
     <t xml:space="preserve">0.947286665439606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.932145953178406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902522504329681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281374454498</t>
+    <t xml:space="preserve">0.932145833969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902522563934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281434059143</t>
   </si>
   <si>
     <t xml:space="preserve">0.903180837631226</t>
@@ -524,46 +524,46 @@
     <t xml:space="preserve">0.917005062103271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940045237541199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934120833873749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911080360412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912396967411041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913713574409485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931487500667572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918980002403259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909763753414154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926879405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920296490192413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93807053565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964402318000793</t>
+    <t xml:space="preserve">0.940045416355133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934120714664459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911080420017242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912397027015686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91371363401413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931487560272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918979942798615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909763813018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926879525184631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920296430587769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938070476055145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964402258396149</t>
   </si>
   <si>
     <t xml:space="preserve">0.970326960086823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988759160041809</t>
+    <t xml:space="preserve">0.988759279251099</t>
   </si>
   <si>
     <t xml:space="preserve">0.984151124954224</t>
@@ -581,10 +581,10 @@
     <t xml:space="preserve">1.03154850006104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05919682979584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03813135623932</t>
+    <t xml:space="preserve">1.05919671058655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03813147544861</t>
   </si>
   <si>
     <t xml:space="preserve">1.03023183345795</t>
@@ -593,13 +593,13 @@
     <t xml:space="preserve">1.02167403697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03418147563934</t>
+    <t xml:space="preserve">1.03418159484863</t>
   </si>
   <si>
     <t xml:space="preserve">1.01838254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03352344036102</t>
+    <t xml:space="preserve">1.03352332115173</t>
   </si>
   <si>
     <t xml:space="preserve">1.04208111763</t>
@@ -608,55 +608,55 @@
     <t xml:space="preserve">1.01443266868591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09211146831512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08618700504303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09013664722443</t>
+    <t xml:space="preserve">1.09211158752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08618688583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09013676643372</t>
   </si>
   <si>
     <t xml:space="preserve">1.09935283660889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08750355243683</t>
+    <t xml:space="preserve">1.08750343322754</t>
   </si>
   <si>
     <t xml:space="preserve">1.07960391044617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05788016319275</t>
+    <t xml:space="preserve">1.05788028240204</t>
   </si>
   <si>
     <t xml:space="preserve">1.06380498409271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13819229602814</t>
+    <t xml:space="preserve">1.13819217681885</t>
   </si>
   <si>
     <t xml:space="preserve">1.11120212078094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.123051404953</t>
+    <t xml:space="preserve">1.12305152416229</t>
   </si>
   <si>
     <t xml:space="preserve">1.08421206474304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07697081565857</t>
+    <t xml:space="preserve">1.07697069644928</t>
   </si>
   <si>
     <t xml:space="preserve">1.09145319461823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.096719622612</t>
+    <t xml:space="preserve">1.09671974182129</t>
   </si>
   <si>
     <t xml:space="preserve">1.11778497695923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13095092773438</t>
+    <t xml:space="preserve">1.13095080852509</t>
   </si>
   <si>
     <t xml:space="preserve">1.11186039447784</t>
@@ -665,28 +665,28 @@
     <t xml:space="preserve">1.12568461894989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13226747512817</t>
+    <t xml:space="preserve">1.13226759433746</t>
   </si>
   <si>
     <t xml:space="preserve">1.13885056972504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13621735572815</t>
+    <t xml:space="preserve">1.13621723651886</t>
   </si>
   <si>
     <t xml:space="preserve">1.14543342590332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14740824699402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15596616268158</t>
+    <t xml:space="preserve">1.14740836620331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15596628189087</t>
   </si>
   <si>
     <t xml:space="preserve">1.14016711711884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14082539081573</t>
+    <t xml:space="preserve">1.14082527160645</t>
   </si>
   <si>
     <t xml:space="preserve">1.11910164356232</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">1.09737801551819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08684527873993</t>
+    <t xml:space="preserve">1.08684515953064</t>
   </si>
   <si>
     <t xml:space="preserve">1.01904082298279</t>
@@ -716,22 +716,22 @@
     <t xml:space="preserve">1.02496552467346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02562367916107</t>
+    <t xml:space="preserve">1.02562379837036</t>
   </si>
   <si>
     <t xml:space="preserve">0.988101005554199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940703749656677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93346232175827</t>
+    <t xml:space="preserve">0.940703690052032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93346244096756</t>
   </si>
   <si>
     <t xml:space="preserve">0.935437321662903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953869640827179</t>
+    <t xml:space="preserve">0.953869521617889</t>
   </si>
   <si>
     <t xml:space="preserve">0.999950349330902</t>
@@ -740,31 +740,31 @@
     <t xml:space="preserve">1.00521659851074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0170658826828</t>
+    <t xml:space="preserve">1.01706576347351</t>
   </si>
   <si>
     <t xml:space="preserve">1.00916647911072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03089010715485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04603087902069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07170438766479</t>
+    <t xml:space="preserve">1.03089022636414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0460307598114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07170426845551</t>
   </si>
   <si>
     <t xml:space="preserve">1.13424241542816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10396099090576</t>
+    <t xml:space="preserve">1.10396087169647</t>
   </si>
   <si>
     <t xml:space="preserve">1.10066950321198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09474468231201</t>
+    <t xml:space="preserve">1.0947448015213</t>
   </si>
   <si>
     <t xml:space="preserve">1.12041831016541</t>
@@ -773,10 +773,10 @@
     <t xml:space="preserve">1.12765955924988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12634289264679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1223931312561</t>
+    <t xml:space="preserve">1.12634301185608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12239325046539</t>
   </si>
   <si>
     <t xml:space="preserve">1.11975991725922</t>
@@ -785,25 +785,25 @@
     <t xml:space="preserve">1.13490068912506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16715717315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16913211345673</t>
+    <t xml:space="preserve">1.16715705394745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16913223266602</t>
   </si>
   <si>
     <t xml:space="preserve">1.18032312393188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17176532745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16584074497223</t>
+    <t xml:space="preserve">1.17176520824432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16584062576294</t>
   </si>
   <si>
     <t xml:space="preserve">1.17374002933502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17900669574738</t>
+    <t xml:space="preserve">1.1790064573288</t>
   </si>
   <si>
     <t xml:space="preserve">1.18229806423187</t>
@@ -815,31 +815,31 @@
     <t xml:space="preserve">1.19941353797913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21652936935425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21389603614807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22706198692322</t>
+    <t xml:space="preserve">1.21652925014496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21389615535736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22706186771393</t>
   </si>
   <si>
     <t xml:space="preserve">1.21784603595734</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20402181148529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19546401500702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22179567813873</t>
+    <t xml:space="preserve">1.204021692276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19546377658844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22179555892944</t>
   </si>
   <si>
     <t xml:space="preserve">1.22772037982941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21455442905426</t>
+    <t xml:space="preserve">1.21455454826355</t>
   </si>
   <si>
     <t xml:space="preserve">1.21587097644806</t>
@@ -848,19 +848,19 @@
     <t xml:space="preserve">1.23167014122009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25339388847351</t>
+    <t xml:space="preserve">1.25339376926422</t>
   </si>
   <si>
     <t xml:space="preserve">1.26853466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24417769908905</t>
+    <t xml:space="preserve">1.24417781829834</t>
   </si>
   <si>
     <t xml:space="preserve">1.26260995864868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27182614803314</t>
+    <t xml:space="preserve">1.27182626724243</t>
   </si>
   <si>
     <t xml:space="preserve">1.28696703910828</t>
@@ -869,10 +869,10 @@
     <t xml:space="preserve">1.3093489408493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32448983192444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32843947410583</t>
+    <t xml:space="preserve">1.32448971271515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32843935489655</t>
   </si>
   <si>
     <t xml:space="preserve">1.3613543510437</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">1.49169671535492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169659614563</t>
+    <t xml:space="preserve">1.49169647693634</t>
   </si>
   <si>
     <t xml:space="preserve">1.49031937122345</t>
@@ -914,13 +914,13 @@
     <t xml:space="preserve">1.47379088401794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39803516864777</t>
+    <t xml:space="preserve">1.39803528785706</t>
   </si>
   <si>
     <t xml:space="preserve">1.38701629638672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38288390636444</t>
+    <t xml:space="preserve">1.38288402557373</t>
   </si>
   <si>
     <t xml:space="preserve">1.48343241214752</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">1.45313024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51235747337341</t>
+    <t xml:space="preserve">1.51235735416412</t>
   </si>
   <si>
     <t xml:space="preserve">1.57158446311951</t>
@@ -947,34 +947,34 @@
     <t xml:space="preserve">1.53301799297333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53990483283997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51511192321777</t>
+    <t xml:space="preserve">1.53990471363068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51511204242706</t>
   </si>
   <si>
     <t xml:space="preserve">1.43935632705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47792291641235</t>
+    <t xml:space="preserve">1.47792279720306</t>
   </si>
   <si>
     <t xml:space="preserve">1.45175278186798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45863974094391</t>
+    <t xml:space="preserve">1.45863962173462</t>
   </si>
   <si>
     <t xml:space="preserve">1.42282795906067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41594099998474</t>
+    <t xml:space="preserve">1.41594111919403</t>
   </si>
   <si>
     <t xml:space="preserve">1.40354478359222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45450758934021</t>
+    <t xml:space="preserve">1.4545077085495</t>
   </si>
   <si>
     <t xml:space="preserve">1.44624316692352</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">1.45726227760315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42558264732361</t>
+    <t xml:space="preserve">1.4255827665329</t>
   </si>
   <si>
     <t xml:space="preserve">1.42971479892731</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">1.51786673069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53164041042328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53577268123627</t>
+    <t xml:space="preserve">1.53164052963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53577256202698</t>
   </si>
   <si>
     <t xml:space="preserve">1.55643332004547</t>
@@ -1031,16 +1031,16 @@
     <t xml:space="preserve">1.31194925308228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27820360660553</t>
+    <t xml:space="preserve">1.27820348739624</t>
   </si>
   <si>
     <t xml:space="preserve">1.25960898399353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27062797546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28095829486847</t>
+    <t xml:space="preserve">1.27062809467316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28095841407776</t>
   </si>
   <si>
     <t xml:space="preserve">1.32021355628967</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">1.35258185863495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29748690128326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28233575820923</t>
+    <t xml:space="preserve">1.29748678207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28233563899994</t>
   </si>
   <si>
     <t xml:space="preserve">1.29542076587677</t>
@@ -1073,10 +1073,10 @@
     <t xml:space="preserve">1.32778906822205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3332986831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34018540382385</t>
+    <t xml:space="preserve">1.33329856395721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34018528461456</t>
   </si>
   <si>
     <t xml:space="preserve">1.33880805969238</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">1.3739310503006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41180884838104</t>
+    <t xml:space="preserve">1.41180896759033</t>
   </si>
   <si>
     <t xml:space="preserve">1.41869580745697</t>
@@ -1097,49 +1097,49 @@
     <t xml:space="preserve">1.45037531852722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44762063026428</t>
+    <t xml:space="preserve">1.44762074947357</t>
   </si>
   <si>
     <t xml:space="preserve">1.4049220085144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46414911746979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48618710041046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51098001003265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56194269657135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53852736949921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52613115310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55918800830841</t>
+    <t xml:space="preserve">1.46414923667908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48618721961975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51097989082336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56194257736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5385274887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52613091468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55918788909912</t>
   </si>
   <si>
     <t xml:space="preserve">1.57433915138245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51648914813995</t>
+    <t xml:space="preserve">1.51648926734924</t>
   </si>
   <si>
     <t xml:space="preserve">1.51924419403076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50684773921967</t>
+    <t xml:space="preserve">1.50684762001038</t>
   </si>
   <si>
     <t xml:space="preserve">1.49582874774933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48756456375122</t>
+    <t xml:space="preserve">1.48756468296051</t>
   </si>
   <si>
     <t xml:space="preserve">1.50822520256042</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">1.57847130298615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62117004394531</t>
+    <t xml:space="preserve">1.62116992473602</t>
   </si>
   <si>
     <t xml:space="preserve">1.6184149980545</t>
@@ -1175,10 +1175,10 @@
     <t xml:space="preserve">1.55230116844177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5219988822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49720621109009</t>
+    <t xml:space="preserve">1.52199900150299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4972060918808</t>
   </si>
   <si>
     <t xml:space="preserve">1.42145049571991</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">1.4173184633255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37599718570709</t>
+    <t xml:space="preserve">1.37599730491638</t>
   </si>
   <si>
     <t xml:space="preserve">1.37117636203766</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">1.36360096931458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35051560401917</t>
+    <t xml:space="preserve">1.35051572322845</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
@@ -1214,16 +1214,16 @@
     <t xml:space="preserve">1.34087419509888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36222350597382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34294033050537</t>
+    <t xml:space="preserve">1.36222338676453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34294021129608</t>
   </si>
   <si>
     <t xml:space="preserve">1.36979901790619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36428952217102</t>
+    <t xml:space="preserve">1.36428964138031</t>
   </si>
   <si>
     <t xml:space="preserve">1.36704432964325</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">1.38012933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35533666610718</t>
+    <t xml:space="preserve">1.35533654689789</t>
   </si>
   <si>
     <t xml:space="preserve">1.37737464904785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36842167377472</t>
+    <t xml:space="preserve">1.36842155456543</t>
   </si>
   <si>
     <t xml:space="preserve">1.36635553836823</t>
@@ -1268,16 +1268,16 @@
     <t xml:space="preserve">1.24721264839172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21553289890289</t>
+    <t xml:space="preserve">1.21553301811218</t>
   </si>
   <si>
     <t xml:space="preserve">1.19900465011597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22104263305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21002352237701</t>
+    <t xml:space="preserve">1.22104251384735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2100236415863</t>
   </si>
   <si>
     <t xml:space="preserve">1.2058914899826</t>
@@ -1295,46 +1295,46 @@
     <t xml:space="preserve">1.1645702123642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15699470043182</t>
+    <t xml:space="preserve">1.15699458122253</t>
   </si>
   <si>
     <t xml:space="preserve">1.15217387676239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12600362300873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12875843048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10052239894867</t>
+    <t xml:space="preserve">1.12600374221802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12875854969025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10052227973938</t>
   </si>
   <si>
     <t xml:space="preserve">1.10534310340881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11429607868195</t>
+    <t xml:space="preserve">1.11429595947266</t>
   </si>
   <si>
     <t xml:space="preserve">1.13082456588745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12669241428375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14322090148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13357925415039</t>
+    <t xml:space="preserve">1.12669229507446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14322078227997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13357937335968</t>
   </si>
   <si>
     <t xml:space="preserve">1.23137295246124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18936288356781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17352306842804</t>
+    <t xml:space="preserve">1.1893630027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17352318763733</t>
   </si>
   <si>
     <t xml:space="preserve">1.13564538955688</t>
@@ -1343,13 +1343,13 @@
     <t xml:space="preserve">1.1728343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17558932304382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17696666717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17076849937439</t>
+    <t xml:space="preserve">1.17558920383453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.176966547966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1707683801651</t>
   </si>
   <si>
     <t xml:space="preserve">1.26029777526855</t>
@@ -1358,10 +1358,10 @@
     <t xml:space="preserve">1.3023077249527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27682638168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30988311767578</t>
+    <t xml:space="preserve">1.27682626247406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30988323688507</t>
   </si>
   <si>
     <t xml:space="preserve">1.31126058101654</t>
@@ -1373,19 +1373,19 @@
     <t xml:space="preserve">1.26649594306946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21071231365204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22792947292328</t>
+    <t xml:space="preserve">1.21071219444275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22792935371399</t>
   </si>
   <si>
     <t xml:space="preserve">1.2506560087204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24239194393158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27200543880463</t>
+    <t xml:space="preserve">1.24239182472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27200531959534</t>
   </si>
   <si>
     <t xml:space="preserve">1.29473197460175</t>
@@ -1394,19 +1394,19 @@
     <t xml:space="preserve">1.298175573349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3229683637619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30161893367767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29335463047028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.279580950737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26718473434448</t>
+    <t xml:space="preserve">1.32296824455261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30161905288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29335474967957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27958106994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26718461513519</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
@@ -1442,13 +1442,13 @@
     <t xml:space="preserve">1.3842613697052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34156286716461</t>
+    <t xml:space="preserve">1.3415629863739</t>
   </si>
   <si>
     <t xml:space="preserve">1.30781722068787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38794767856598</t>
+    <t xml:space="preserve">1.38794755935669</t>
   </si>
   <si>
     <t xml:space="preserve">1.41661822795868</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">1.41882359981537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40265047550201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37692058086395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36001229286194</t>
+    <t xml:space="preserve">1.4026505947113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37692046165466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36001241207123</t>
   </si>
   <si>
     <t xml:space="preserve">1.38427197933197</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">1.41000187397003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42176413536072</t>
+    <t xml:space="preserve">1.42176425457001</t>
   </si>
   <si>
     <t xml:space="preserve">1.43867242336273</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">1.52468395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704050064087</t>
+    <t xml:space="preserve">1.50704061985016</t>
   </si>
   <si>
     <t xml:space="preserve">1.49968922138214</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">1.55555987358093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55261933803558</t>
+    <t xml:space="preserve">1.55261945724487</t>
   </si>
   <si>
     <t xml:space="preserve">1.50262975692749</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">1.44455361366272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46660780906677</t>
+    <t xml:space="preserve">1.46660768985748</t>
   </si>
   <si>
     <t xml:space="preserve">1.46366727352142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45558059215546</t>
+    <t xml:space="preserve">1.45558071136475</t>
   </si>
   <si>
     <t xml:space="preserve">1.45043480396271</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">1.40706133842468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43058586120605</t>
+    <t xml:space="preserve">1.43058574199677</t>
   </si>
   <si>
     <t xml:space="preserve">1.42396950721741</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">1.46146190166473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48498642444611</t>
+    <t xml:space="preserve">1.48498630523682</t>
   </si>
   <si>
     <t xml:space="preserve">1.53350567817688</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">1.5732034444809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55114901065826</t>
+    <t xml:space="preserve">1.55114912986755</t>
   </si>
   <si>
     <t xml:space="preserve">1.58643591403961</t>
@@ -1622,16 +1622,16 @@
     <t xml:space="preserve">1.62025249004364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63495528697968</t>
+    <t xml:space="preserve">1.63495516777039</t>
   </si>
   <si>
     <t xml:space="preserve">1.64377701282501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64524710178375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62760376930237</t>
+    <t xml:space="preserve">1.64524722099304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62760388851166</t>
   </si>
   <si>
     <t xml:space="preserve">1.60113883018494</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">1.37471508979797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39529895782471</t>
+    <t xml:space="preserve">1.395299077034</t>
   </si>
   <si>
     <t xml:space="preserve">1.40191531181335</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.408531665802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39971005916595</t>
+    <t xml:space="preserve">1.39970993995667</t>
   </si>
   <si>
     <t xml:space="preserve">1.40118026733398</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">1.43279135227203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44822931289673</t>
+    <t xml:space="preserve">1.44822919368744</t>
   </si>
   <si>
     <t xml:space="preserve">1.43205618858337</t>
@@ -1682,13 +1682,13 @@
     <t xml:space="preserve">1.39088821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37250959873199</t>
+    <t xml:space="preserve">1.37250971794128</t>
   </si>
   <si>
     <t xml:space="preserve">1.36074733734131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35486626625061</t>
+    <t xml:space="preserve">1.3548663854599</t>
   </si>
   <si>
     <t xml:space="preserve">1.3453094959259</t>
@@ -1697,25 +1697,25 @@
     <t xml:space="preserve">1.28943860530853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27179515361786</t>
+    <t xml:space="preserve">1.27179527282715</t>
   </si>
   <si>
     <t xml:space="preserve">1.28649806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21665954589844</t>
+    <t xml:space="preserve">1.21665966510773</t>
   </si>
   <si>
     <t xml:space="preserve">1.2556220293045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25415170192719</t>
+    <t xml:space="preserve">1.25415182113647</t>
   </si>
   <si>
     <t xml:space="preserve">1.28355753421783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2975252866745</t>
+    <t xml:space="preserve">1.29752516746521</t>
   </si>
   <si>
     <t xml:space="preserve">1.31590366363525</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">1.30855226516724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31516873836517</t>
+    <t xml:space="preserve">1.31516861915588</t>
   </si>
   <si>
     <t xml:space="preserve">1.28576278686523</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">1.29017388820648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2497410774231</t>
+    <t xml:space="preserve">1.24974095821381</t>
   </si>
   <si>
     <t xml:space="preserve">1.27841150760651</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">1.25121128559113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31222796440125</t>
+    <t xml:space="preserve">1.31222808361053</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">1.26076805591583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26591420173645</t>
+    <t xml:space="preserve">1.26591408252716</t>
   </si>
   <si>
     <t xml:space="preserve">1.30928754806519</t>
@@ -1769,13 +1769,13 @@
     <t xml:space="preserve">1.25782752037048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22180557250977</t>
+    <t xml:space="preserve">1.22180569171906</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327601909637</t>
+    <t xml:space="preserve">1.22327589988708</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768664360046</t>
+    <t xml:space="preserve">1.22768676280975</t>
   </si>
   <si>
     <t xml:space="preserve">1.3225200176239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3166389465332</t>
+    <t xml:space="preserve">1.31663882732391</t>
   </si>
   <si>
     <t xml:space="preserve">1.29164409637451</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28796827793121</t>
+    <t xml:space="preserve">1.2879683971405</t>
   </si>
   <si>
     <t xml:space="preserve">1.29679000377655</t>
@@ -1841,10 +1841,10 @@
     <t xml:space="preserve">1.27914667129517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21004331111908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27032494544983</t>
+    <t xml:space="preserve">1.21004343032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27032506465912</t>
   </si>
   <si>
     <t xml:space="preserve">1.27988183498383</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">1.28135216236115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29311430454254</t>
+    <t xml:space="preserve">1.29311442375183</t>
   </si>
   <si>
     <t xml:space="preserve">1.38059628009796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38941788673401</t>
+    <t xml:space="preserve">1.3894180059433</t>
   </si>
   <si>
     <t xml:space="preserve">1.36589348316193</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">1.36736369132996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33428239822388</t>
+    <t xml:space="preserve">1.33428227901459</t>
   </si>
   <si>
     <t xml:space="preserve">1.35266077518463</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">1.31737399101257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27694118022919</t>
+    <t xml:space="preserve">1.27694129943848</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046582221985</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">1.27767646312714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29826045036316</t>
+    <t xml:space="preserve">1.29826033115387</t>
   </si>
   <si>
     <t xml:space="preserve">1.30340623855591</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134186267853</t>
+    <t xml:space="preserve">1.33134174346924</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
@@ -1940,13 +1940,13 @@
     <t xml:space="preserve">1.29531967639923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2747358083725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27253043651581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26958978176117</t>
+    <t xml:space="preserve">1.27473568916321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27253031730652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26958990097046</t>
   </si>
   <si>
     <t xml:space="preserve">1.23797869682312</t>
@@ -1955,19 +1955,19 @@
     <t xml:space="preserve">1.21886503696442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21445417404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21371912956238</t>
+    <t xml:space="preserve">1.21445405483246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21371901035309</t>
   </si>
   <si>
     <t xml:space="preserve">1.21592450141907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2056325674057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22915697097778</t>
+    <t xml:space="preserve">1.20563244819641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22915709018707</t>
   </si>
   <si>
     <t xml:space="preserve">1.25194644927979</t>
@@ -1991,10 +1991,10 @@
     <t xml:space="preserve">1.23724353313446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23871386051178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20857310295105</t>
+    <t xml:space="preserve">1.23871374130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20857298374176</t>
   </si>
   <si>
     <t xml:space="preserve">1.19313514232635</t>
@@ -2030,10 +2030,10 @@
     <t xml:space="preserve">1.06522035598755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10859370231628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08653962612152</t>
+    <t xml:space="preserve">1.10859382152557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08653950691223</t>
   </si>
   <si>
     <t xml:space="preserve">1.08727467060089</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">1.07624757289886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08713448047638</t>
+    <t xml:space="preserve">1.08713436126709</t>
   </si>
   <si>
     <t xml:space="preserve">1.10890829563141</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.05913960933685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02647888660431</t>
+    <t xml:space="preserve">1.0264790058136</t>
   </si>
   <si>
     <t xml:space="preserve">1.02181303501129</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.02259075641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995373427867889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00548279285431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00237214565277</t>
+    <t xml:space="preserve">0.995373487472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00548267364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00237226486206</t>
   </si>
   <si>
     <t xml:space="preserve">1.01248145103455</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.00159454345703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01714730262756</t>
+    <t xml:space="preserve">1.01714718341827</t>
   </si>
   <si>
     <t xml:space="preserve">1.03969871997833</t>
@@ -2093,31 +2093,31 @@
     <t xml:space="preserve">0.996151089668274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.000816822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987597167491913</t>
+    <t xml:space="preserve">1.00081694126129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987597048282623</t>
   </si>
   <si>
     <t xml:space="preserve">0.965823292732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970489203929901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967378497123718</t>
+    <t xml:space="preserve">0.970489144325256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967378556728363</t>
   </si>
   <si>
     <t xml:space="preserve">0.998484075069427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991485297679901</t>
+    <t xml:space="preserve">0.991485238075256</t>
   </si>
   <si>
     <t xml:space="preserve">0.993040502071381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999261617660522</t>
+    <t xml:space="preserve">0.999261677265167</t>
   </si>
   <si>
     <t xml:space="preserve">1.02958941459656</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">1.0303670167923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581058979034</t>
+    <t xml:space="preserve">1.03581047058105</t>
   </si>
   <si>
     <t xml:space="preserve">1.08246862888336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0560290813446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10190951824188</t>
+    <t xml:space="preserve">1.05602896213531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10190963745117</t>
   </si>
   <si>
     <t xml:space="preserve">1.09413313865662</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">1.15789926052094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16645324230194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1509006023407</t>
+    <t xml:space="preserve">1.16645336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15090048313141</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612544536591</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">1.10968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13301503658295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13068211078644</t>
+    <t xml:space="preserve">1.13301491737366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13068199157715</t>
   </si>
   <si>
     <t xml:space="preserve">1.13145971298218</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">1.14467942714691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1236834526062</t>
+    <t xml:space="preserve">1.12368333339691</t>
   </si>
   <si>
     <t xml:space="preserve">1.10735297203064</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">1.11590695381165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12057268619537</t>
+    <t xml:space="preserve">1.12057280540466</t>
   </si>
   <si>
     <t xml:space="preserve">1.13534784317017</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.19678115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17345190048218</t>
+    <t xml:space="preserve">1.17345201969147</t>
   </si>
   <si>
     <t xml:space="preserve">1.18978226184845</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">1.22011005878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2208878993988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21077847480774</t>
+    <t xml:space="preserve">1.22088778018951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21077859401703</t>
   </si>
   <si>
     <t xml:space="preserve">1.19133758544922</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.25976955890656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27376687526703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26987886428833</t>
+    <t xml:space="preserve">1.27376699447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26987874507904</t>
   </si>
   <si>
     <t xml:space="preserve">1.27609992027283</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">1.33286726474762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34608709812164</t>
+    <t xml:space="preserve">1.34608697891235</t>
   </si>
   <si>
     <t xml:space="preserve">1.35852921009064</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">1.39896631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38807928562164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37330436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35464107990265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35619628429413</t>
+    <t xml:space="preserve">1.38807940483093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37330424785614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35464096069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35619640350342</t>
   </si>
   <si>
     <t xml:space="preserve">1.33753311634064</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">1.3134263753891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28465390205383</t>
+    <t xml:space="preserve">1.28465378284454</t>
   </si>
   <si>
     <t xml:space="preserve">1.27143406867981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25821435451508</t>
+    <t xml:space="preserve">1.25821423530579</t>
   </si>
   <si>
     <t xml:space="preserve">1.25899183750153</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.25510370731354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23644042015076</t>
+    <t xml:space="preserve">1.23644053936005</t>
   </si>
   <si>
     <t xml:space="preserve">1.24343919754028</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">1.16412031650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15167820453644</t>
+    <t xml:space="preserve">1.15167808532715</t>
   </si>
   <si>
     <t xml:space="preserve">1.12757158279419</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">1.11823987960815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1213504076004</t>
+    <t xml:space="preserve">1.12135052680969</t>
   </si>
   <si>
     <t xml:space="preserve">1.12212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11357414722443</t>
+    <t xml:space="preserve">1.11357402801514</t>
   </si>
   <si>
     <t xml:space="preserve">1.10579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08868968486786</t>
+    <t xml:space="preserve">1.08868980407715</t>
   </si>
   <si>
     <t xml:space="preserve">1.11746227741241</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">1.14623475074768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1065753698349</t>
+    <t xml:space="preserve">1.10657525062561</t>
   </si>
   <si>
     <t xml:space="preserve">1.11201870441437</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.13923597335815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1337925195694</t>
+    <t xml:space="preserve">1.13379263877869</t>
   </si>
   <si>
     <t xml:space="preserve">1.05447375774384</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">1.04047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01403665542603</t>
+    <t xml:space="preserve">1.01403677463531</t>
   </si>
   <si>
     <t xml:space="preserve">1.01325905323029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996928751468658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958824574947357</t>
+    <t xml:space="preserve">0.996928691864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958824634552002</t>
   </si>
   <si>
     <t xml:space="preserve">0.942494213581085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948715329170227</t>
+    <t xml:space="preserve">0.948715388774872</t>
   </si>
   <si>
     <t xml:space="preserve">0.954936444759369</t>
@@ -2498,19 +2498,19 @@
     <t xml:space="preserve">1.00470507144928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990707695484161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985264122486115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997706413269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983708918094635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959602177143097</t>
+    <t xml:space="preserve">0.990707635879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985264182090759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997706294059753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98370897769928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959602236747742</t>
   </si>
   <si>
     <t xml:space="preserve">0.884949207305908</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">0.88106107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894280791282654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855399131774902</t>
+    <t xml:space="preserve">0.894280850887299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855399072170258</t>
   </si>
   <si>
     <t xml:space="preserve">0.828181862831116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801742196083069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815739631652832</t>
+    <t xml:space="preserve">0.801742255687714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815739691257477</t>
   </si>
   <si>
     <t xml:space="preserve">0.752362310886383</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">0.678875803947449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.695595026016235</t>
+    <t xml:space="preserve">0.695594966411591</t>
   </si>
   <si>
     <t xml:space="preserve">0.687040984630585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683930397033691</t>
+    <t xml:space="preserve">0.683930456638336</t>
   </si>
   <si>
     <t xml:space="preserve">0.645048677921295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632217645645142</t>
+    <t xml:space="preserve">0.632217705249786</t>
   </si>
   <si>
     <t xml:space="preserve">0.592558324337006</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">0.612388014793396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611610293388367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575839102268219</t>
+    <t xml:space="preserve">0.611610352993011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575839042663574</t>
   </si>
   <si>
     <t xml:space="preserve">0.572339713573456</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">0.550177097320557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576227903366089</t>
+    <t xml:space="preserve">0.576227962970734</t>
   </si>
   <si>
     <t xml:space="preserve">0.565729856491089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.57350617647171</t>
+    <t xml:space="preserve">0.573506236076355</t>
   </si>
   <si>
     <t xml:space="preserve">0.567673921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660990238189697</t>
+    <t xml:space="preserve">0.660990178585052</t>
   </si>
   <si>
     <t xml:space="preserve">0.684319257736206</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.638049960136414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674210011959076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681208670139313</t>
+    <t xml:space="preserve">0.674209952354431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681208729743958</t>
   </si>
   <si>
     <t xml:space="preserve">0.657879650592804</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.643882215023041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640771627426147</t>
+    <t xml:space="preserve">0.640771687030792</t>
   </si>
   <si>
     <t xml:space="preserve">0.611999154090881</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">0.622108399868011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.605778098106384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608110964298248</t>
+    <t xml:space="preserve">0.60577803850174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608111023902893</t>
   </si>
   <si>
     <t xml:space="preserve">0.613165616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607333362102509</t>
+    <t xml:space="preserve">0.607333302497864</t>
   </si>
   <si>
     <t xml:space="preserve">0.626385390758514</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">0.621330797672272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598779320716858</t>
+    <t xml:space="preserve">0.598779380321503</t>
   </si>
   <si>
     <t xml:space="preserve">0.615498483181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559897601604462</t>
+    <t xml:space="preserve">0.559897541999817</t>
   </si>
   <si>
     <t xml:space="preserve">0.549399495124817</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">0.547844231128693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544344842433929</t>
+    <t xml:space="preserve">0.544344902038574</t>
   </si>
   <si>
     <t xml:space="preserve">0.547455430030823</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.57311737537384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593724727630615</t>
+    <t xml:space="preserve">0.59372466802597</t>
   </si>
   <si>
     <t xml:space="preserve">0.628329515457153</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">0.625996589660645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637661159038544</t>
+    <t xml:space="preserve">0.637661099433899</t>
   </si>
   <si>
     <t xml:space="preserve">0.61433207988739</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">0.654380261898041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632606506347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585170745849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586725950241089</t>
+    <t xml:space="preserve">0.632606446743011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585170686244965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586726009845734</t>
   </si>
   <si>
     <t xml:space="preserve">0.580893695354462</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">0.600334644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587892472743988</t>
+    <t xml:space="preserve">0.587892413139343</t>
   </si>
   <si>
     <t xml:space="preserve">0.580116093158722</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">0.576616764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58322662115097</t>
+    <t xml:space="preserve">0.583226680755615</t>
   </si>
   <si>
     <t xml:space="preserve">0.564563393592834</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">0.548233032226562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.541623115539551</t>
+    <t xml:space="preserve">0.541623175144196</t>
   </si>
   <si>
     <t xml:space="preserve">0.524903953075409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519460499286652</t>
+    <t xml:space="preserve">0.519460558891296</t>
   </si>
   <si>
     <t xml:space="preserve">0.515961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4766905605793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489521563053131</t>
+    <t xml:space="preserve">0.476690530776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489521533250809</t>
   </si>
   <si>
     <t xml:space="preserve">0.508962452411652</t>
@@ -2789,31 +2789,31 @@
     <t xml:space="preserve">0.491076827049255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501186072826385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498464375734329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48602220416069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497686713933945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486799836158752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477079391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474746465682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459193795919418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444418668746948</t>
+    <t xml:space="preserve">0.50118613243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498464345932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486022174358368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497686743736267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48679980635643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477079421281815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474746435880661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459193736314774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444418698549271</t>
   </si>
   <si>
     <t xml:space="preserve">0.451806217432022</t>
@@ -2825,34 +2825,34 @@
     <t xml:space="preserve">0.485633373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478245854377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.491854459047318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508573651313782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467358976602554</t>
+    <t xml:space="preserve">0.478245824575424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49185448884964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508573591709137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467358946800232</t>
   </si>
   <si>
     <t xml:space="preserve">0.455694437026978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463859587907791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489132732152939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478634625673294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476301789283752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.482522875070572</t>
+    <t xml:space="preserve">0.463859558105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489132761955261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478634655475616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476301729679108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48252284526825</t>
   </si>
   <si>
     <t xml:space="preserve">0.477857023477554</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">0.473580062389374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474357664585114</t>
+    <t xml:space="preserve">0.474357694387436</t>
   </si>
   <si>
     <t xml:space="preserve">0.46036022901535</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">0.464637249708176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463470786809921</t>
+    <t xml:space="preserve">0.463470757007599</t>
   </si>
   <si>
     <t xml:space="preserve">0.458027333021164</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">0.446751624345779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438975214958191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.436253547668457</t>
+    <t xml:space="preserve">0.438975244760513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.436253517866135</t>
   </si>
   <si>
     <t xml:space="preserve">0.432754188776016</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">0.374820321798325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360200792551041</t>
+    <t xml:space="preserve">0.360200762748718</t>
   </si>
   <si>
     <t xml:space="preserve">0.355068385601044</t>
@@ -2933,22 +2933,22 @@
     <t xml:space="preserve">0.337649345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345892250537872</t>
+    <t xml:space="preserve">0.345892280340195</t>
   </si>
   <si>
     <t xml:space="preserve">0.331894844770432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346669942140579</t>
+    <t xml:space="preserve">0.346669912338257</t>
   </si>
   <si>
     <t xml:space="preserve">0.369376868009567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373576074838638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388040155172348</t>
+    <t xml:space="preserve">0.373576104640961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388040125370026</t>
   </si>
   <si>
     <t xml:space="preserve">0.396594107151031</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">0.36035630106926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341848582029343</t>
+    <t xml:space="preserve">0.34184855222702</t>
   </si>
   <si>
     <t xml:space="preserve">0.323962956666946</t>
@@ -2981,10 +2981,10 @@
     <t xml:space="preserve">0.337182760238647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359423100948334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351802319288254</t>
+    <t xml:space="preserve">0.359423130750656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351802289485931</t>
   </si>
   <si>
     <t xml:space="preserve">0.386484861373901</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">0.358645498752594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336405098438263</t>
+    <t xml:space="preserve">0.336405128240585</t>
   </si>
   <si>
     <t xml:space="preserve">0.341693043708801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356001555919647</t>
+    <t xml:space="preserve">0.356001526117325</t>
   </si>
   <si>
     <t xml:space="preserve">0.35413521528244</t>
@@ -3029,28 +3029,28 @@
     <t xml:space="preserve">0.390373021364212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417979121208191</t>
+    <t xml:space="preserve">0.417979091405869</t>
   </si>
   <si>
     <t xml:space="preserve">0.421478450298309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445585191249847</t>
+    <t xml:space="preserve">0.445585161447525</t>
   </si>
   <si>
     <t xml:space="preserve">0.437419980764389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440141707658768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462693125009537</t>
+    <t xml:space="preserve">0.440141677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462693154811859</t>
   </si>
   <si>
     <t xml:space="preserve">0.461137861013412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437031149864197</t>
+    <t xml:space="preserve">0.437031120061874</t>
   </si>
   <si>
     <t xml:space="preserve">0.419145524501801</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">0.45025098323822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446362793445587</t>
+    <t xml:space="preserve">0.446362763643265</t>
   </si>
   <si>
     <t xml:space="preserve">0.454139143228531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452972650527954</t>
+    <t xml:space="preserve">0.452972680330276</t>
   </si>
   <si>
     <t xml:space="preserve">0.457638502120972</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">0.472024768590927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448306858539581</t>
+    <t xml:space="preserve">0.448306888341904</t>
   </si>
   <si>
     <t xml:space="preserve">0.452583879232407</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">0.457249671220779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465803653001785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.461526691913605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462304294109344</t>
+    <t xml:space="preserve">0.465803682804108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.461526721715927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462304323911667</t>
   </si>
   <si>
     <t xml:space="preserve">0.472413599491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496131479740143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500408411026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494187414646149</t>
+    <t xml:space="preserve">0.49613144993782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500408470630646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494187384843826</t>
   </si>
   <si>
     <t xml:space="preserve">0.48213404417038</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">0.465414851903915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479801088571548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.470469504594803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.449084520339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419923186302185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.432365357875824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430421233177185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431976526975632</t>
+    <t xml:space="preserve">0.479801118373871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47046947479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449084490537643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419923216104507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.432365328073502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430421262979507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431976497173309</t>
   </si>
   <si>
     <t xml:space="preserve">0.421867281198502</t>
@@ -3146,19 +3146,19 @@
     <t xml:space="preserve">0.43119889497757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44091933965683</t>
+    <t xml:space="preserve">0.440919309854507</t>
   </si>
   <si>
     <t xml:space="preserve">0.442863434553146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46658131480217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566896259784698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521404623985291</t>
+    <t xml:space="preserve">0.466581344604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566896319389343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521404564380646</t>
   </si>
   <si>
     <t xml:space="preserve">0.530347406864166</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">0.500797271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494576185941696</t>
+    <t xml:space="preserve">0.494576156139374</t>
   </si>
   <si>
     <t xml:space="preserve">0.507795989513397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507018327713013</t>
+    <t xml:space="preserve">0.507018387317657</t>
   </si>
   <si>
     <t xml:space="preserve">0.504685461521149</t>
@@ -3209,40 +3209,40 @@
     <t xml:space="preserve">0.524126350879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513239443302155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502741396427155</t>
+    <t xml:space="preserve">0.513239502906799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50274133682251</t>
   </si>
   <si>
     <t xml:space="preserve">0.49652025103569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487577438354492</t>
+    <t xml:space="preserve">0.487577468156815</t>
   </si>
   <si>
     <t xml:space="preserve">0.480578750371933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493409723043442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485244601964951</t>
+    <t xml:space="preserve">0.493409782648087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485244572162628</t>
   </si>
   <si>
     <t xml:space="preserve">0.487188667058945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449473351240158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448695689439774</t>
+    <t xml:space="preserve">0.449473321437836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448695719242096</t>
   </si>
   <si>
     <t xml:space="preserve">0.44776251912117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44667387008667</t>
+    <t xml:space="preserve">0.446673840284348</t>
   </si>
   <si>
     <t xml:space="preserve">0.442630112171173</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">0.459427058696747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451184153556824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460982322692871</t>
+    <t xml:space="preserve">0.451184123754501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460982352495193</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096727132797</t>
@@ -3266,31 +3266,31 @@
     <t xml:space="preserve">0.449006766080856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450406551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456938654184341</t>
+    <t xml:space="preserve">0.450406521558762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456938624382019</t>
   </si>
   <si>
     <t xml:space="preserve">0.442474603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461760014295578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446829319000244</t>
+    <t xml:space="preserve">0.461759984493256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446829348802567</t>
   </si>
   <si>
     <t xml:space="preserve">0.451961755752563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46471494436264</t>
+    <t xml:space="preserve">0.464714974164963</t>
   </si>
   <si>
     <t xml:space="preserve">0.458338350057602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453516989946365</t>
+    <t xml:space="preserve">0.453517019748688</t>
   </si>
   <si>
     <t xml:space="preserve">0.454916775226593</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">0.459115982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479178965091705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.495353847742081</t>
+    <t xml:space="preserve">0.479178994894028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.495353817939758</t>
   </si>
   <si>
     <t xml:space="preserve">0.527236878871918</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">0.526303708553314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534546613693237</t>
+    <t xml:space="preserve">0.534546673297882</t>
   </si>
   <si>
     <t xml:space="preserve">0.545589089393616</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">0.548077523708344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553209841251373</t>
+    <t xml:space="preserve">0.553209900856018</t>
   </si>
   <si>
     <t xml:space="preserve">0.57031786441803</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">0.57684999704361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.606400191783905</t>
+    <t xml:space="preserve">0.60640013217926</t>
   </si>
   <si>
     <t xml:space="preserve">0.591003000736237</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">0.668610990047455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671566069126129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675143182277679</t>
+    <t xml:space="preserve">0.671566009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675143122673035</t>
   </si>
   <si>
     <t xml:space="preserve">0.671099424362183</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">0.655391216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649325609207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650258779525757</t>
+    <t xml:space="preserve">0.649325668811798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650258839130402</t>
   </si>
   <si>
     <t xml:space="preserve">0.629884779453278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613709926605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590380847454071</t>
+    <t xml:space="preserve">0.613709986209869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590380907058716</t>
   </si>
   <si>
     <t xml:space="preserve">0.586959302425385</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">0.597535133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.581826865673065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552276730537415</t>
+    <t xml:space="preserve">0.58182692527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552276790142059</t>
   </si>
   <si>
     <t xml:space="preserve">0.556009352207184</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">0.524592936038971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511839687824249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500330746173859</t>
+    <t xml:space="preserve">0.511839747428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500330686569214</t>
   </si>
   <si>
     <t xml:space="preserve">0.508729159832001</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">0.508107006549835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50452995300293</t>
+    <t xml:space="preserve">0.504529893398285</t>
   </si>
   <si>
     <t xml:space="preserve">0.507951498031616</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">0.506551802158356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497064590454102</t>
+    <t xml:space="preserve">0.497064620256424</t>
   </si>
   <si>
     <t xml:space="preserve">0.520860254764557</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">0.505774140357971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503285646438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511995196342468</t>
+    <t xml:space="preserve">0.503285706043243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511995255947113</t>
   </si>
   <si>
     <t xml:space="preserve">0.51246178150177</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">0.510595500469208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521171271800995</t>
+    <t xml:space="preserve">0.52117133140564</t>
   </si>
   <si>
     <t xml:space="preserve">0.509817838668823</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">0.505463063716888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517438650131226</t>
+    <t xml:space="preserve">0.51743870973587</t>
   </si>
   <si>
     <t xml:space="preserve">0.517283141613007</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">0.500486195087433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494109600782394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.520393669605255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525215029716492</t>
+    <t xml:space="preserve">0.494109630584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5203937292099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525215089321136</t>
   </si>
   <si>
     <t xml:space="preserve">0.516038954257965</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">0.54496693611145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551965713500977</t>
+    <t xml:space="preserve">0.551965653896332</t>
   </si>
   <si>
     <t xml:space="preserve">0.541545391082764</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">0.549166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.537812769412994</t>
+    <t xml:space="preserve">0.53781270980835</t>
   </si>
   <si>
     <t xml:space="preserve">0.553831994533539</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">0.567984998226166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583071172237396</t>
+    <t xml:space="preserve">0.583071112632751</t>
   </si>
   <si>
     <t xml:space="preserve">0.623663723468781</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">0.609821796417236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623352646827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656168878078461</t>
+    <t xml:space="preserve">0.623352587223053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656168818473816</t>
   </si>
   <si>
     <t xml:space="preserve">0.669388651847839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.63392847776413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573584020137787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583848774433136</t>
+    <t xml:space="preserve">0.633928418159485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573583960533142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583848714828491</t>
   </si>
   <si>
     <t xml:space="preserve">0.589447736740112</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">0.552121222019196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557098090648651</t>
+    <t xml:space="preserve">0.557098150253296</t>
   </si>
   <si>
     <t xml:space="preserve">0.563008069992065</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">0.542167484760284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523659765720367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522726655006409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502663552761078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492865383625031</t>
+    <t xml:space="preserve">0.523659706115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522726595401764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502663612365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492865413427353</t>
   </si>
   <si>
     <t xml:space="preserve">0.499553054571152</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">0.4955093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489754885435104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507484912872314</t>
+    <t xml:space="preserve">0.48975482583046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507484972476959</t>
   </si>
   <si>
     <t xml:space="preserve">0.523348689079285</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">0.52474844455719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513550519943237</t>
+    <t xml:space="preserve">0.513550460338593</t>
   </si>
   <si>
     <t xml:space="preserve">0.493643045425415</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">0.461293399333954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464092910289764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435786932706833</t>
+    <t xml:space="preserve">0.464092880487442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435786962509155</t>
   </si>
   <si>
     <t xml:space="preserve">0.432054281234741</t>
@@ -3683,19 +3683,19 @@
     <t xml:space="preserve">0.417745798826218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450095474720001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452739387750626</t>
+    <t xml:space="preserve">0.450095444917679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452739417552948</t>
   </si>
   <si>
     <t xml:space="preserve">0.43843087553978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43547585606575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430654555559158</t>
+    <t xml:space="preserve">0.435475885868073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430654525756836</t>
   </si>
   <si>
     <t xml:space="preserve">0.42536661028862</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">0.41525736451149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427232921123505</t>
+    <t xml:space="preserve">0.427232950925827</t>
   </si>
   <si>
     <t xml:space="preserve">0.424277931451797</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">0.412457853555679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422878205776215</t>
+    <t xml:space="preserve">0.422878175973892</t>
   </si>
   <si>
     <t xml:space="preserve">0.422722697257996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434542685747147</t>
+    <t xml:space="preserve">0.434542715549469</t>
   </si>
   <si>
     <t xml:space="preserve">0.424900054931641</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">0.43407616019249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436564564704895</t>
+    <t xml:space="preserve">0.436564594507217</t>
   </si>
   <si>
     <t xml:space="preserve">0.440608292818069</t>
@@ -3743,37 +3743,37 @@
     <t xml:space="preserve">0.443252235651016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462071031332016</t>
+    <t xml:space="preserve">0.462071001529694</t>
   </si>
   <si>
     <t xml:space="preserve">0.456005454063416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456472039222717</t>
+    <t xml:space="preserve">0.45647206902504</t>
   </si>
   <si>
     <t xml:space="preserve">0.446207284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453205972909927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448851197957993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430032402276993</t>
+    <t xml:space="preserve">0.453205943107605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448851227760315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430032432079315</t>
   </si>
   <si>
     <t xml:space="preserve">0.443563312292099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457405179738998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452117294073105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427543997764587</t>
+    <t xml:space="preserve">0.457405209541321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452117264270782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.427543967962265</t>
   </si>
   <si>
     <t xml:space="preserve">0.423344761133194</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">0.472802400588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466270297765732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480423241853714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455227792263031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.441697001457214</t>
+    <t xml:space="preserve">0.466270238161087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480423212051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455227822065353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441696971654892</t>
   </si>
   <si>
     <t xml:space="preserve">0.386173814535141</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">0.42863267660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408725261688232</t>
+    <t xml:space="preserve">0.40872523188591</t>
   </si>
   <si>
     <t xml:space="preserve">0.411058127880096</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">0.436098009347916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451495170593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478401362895966</t>
+    <t xml:space="preserve">0.451495200395584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478401392698288</t>
   </si>
   <si>
     <t xml:space="preserve">0.468914210796356</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">0.467203408479691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513083934783936</t>
+    <t xml:space="preserve">0.513083875179291</t>
   </si>
   <si>
     <t xml:space="preserve">0.515883386135101</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">0.54792195558548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542634069919586</t>
+    <t xml:space="preserve">0.542634010314941</t>
   </si>
   <si>
     <t xml:space="preserve">0.537346124649048</t>
@@ -3863,22 +3863,22 @@
     <t xml:space="preserve">0.551810145378113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572028636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619775533676147</t>
+    <t xml:space="preserve">0.572028696537018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619775474071503</t>
   </si>
   <si>
     <t xml:space="preserve">0.64403772354126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671877086162567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705626428127289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705937504768372</t>
+    <t xml:space="preserve">0.671877145767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705626487731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705937564373016</t>
   </si>
   <si>
     <t xml:space="preserve">0.72786682844162</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">0.658968329429626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.639216423034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662545442581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682452917098999</t>
+    <t xml:space="preserve">0.639216363430023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662545502185822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682452976703644</t>
   </si>
   <si>
     <t xml:space="preserve">0.693650901317596</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">0.755084097385406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821183085441589</t>
+    <t xml:space="preserve">0.821183145046234</t>
   </si>
   <si>
     <t xml:space="preserve">0.744352698326111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771258950233459</t>
+    <t xml:space="preserve">0.771258890628815</t>
   </si>
   <si>
     <t xml:space="preserve">0.776546835899353</t>
@@ -3929,10 +3929,10 @@
     <t xml:space="preserve">0.765659928321838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835958242416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88067227602005</t>
+    <t xml:space="preserve">0.835958182811737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880672216415405</t>
   </si>
   <si>
     <t xml:space="preserve">0.936661899089813</t>
@@ -3944,22 +3944,22 @@
     <t xml:space="preserve">0.886893272399902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898169040679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891559064388275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918776273727417</t>
+    <t xml:space="preserve">0.898168981075287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89155912399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918776392936707</t>
   </si>
   <si>
     <t xml:space="preserve">0.897002577781677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925775110721588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989152371883392</t>
+    <t xml:space="preserve">0.925775170326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989152312278748</t>
   </si>
   <si>
     <t xml:space="preserve">0.989930033683777</t>
@@ -3986,10 +3986,10 @@
     <t xml:space="preserve">1.01442551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970877945423126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976321399211884</t>
+    <t xml:space="preserve">0.970877885818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976321339607239</t>
   </si>
   <si>
     <t xml:space="preserve">0.960768640041351</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">0.977487802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02414608001709</t>
+    <t xml:space="preserve">1.0241459608078</t>
   </si>
   <si>
     <t xml:space="preserve">1.11046350002289</t>
@@ -4028,19 +4028,19 @@
     <t xml:space="preserve">1.00859332084656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932538509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896224975585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879116952419281</t>
+    <t xml:space="preserve">0.975932598114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896224915981293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879116892814636</t>
   </si>
   <si>
     <t xml:space="preserve">0.838291049003601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879505753517151</t>
+    <t xml:space="preserve">0.879505813121796</t>
   </si>
   <si>
     <t xml:space="preserve">0.903612434864044</t>
@@ -4055,37 +4055,37 @@
     <t xml:space="preserve">0.897780239582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919942796230316</t>
+    <t xml:space="preserve">0.919942855834961</t>
   </si>
   <si>
     <t xml:space="preserve">0.969711542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988763511180878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961546301841736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0431981086731</t>
+    <t xml:space="preserve">0.988763570785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961546361446381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04319798946381</t>
   </si>
   <si>
     <t xml:space="preserve">0.945604801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8709517121315</t>
+    <t xml:space="preserve">0.870951771736145</t>
   </si>
   <si>
     <t xml:space="preserve">0.827793002128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869785368442535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83984637260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845289826393127</t>
+    <t xml:space="preserve">0.869785308837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839846432209015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845289766788483</t>
   </si>
   <si>
     <t xml:space="preserve">0.862397789955139</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">0.908278286457062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924608588218689</t>
+    <t xml:space="preserve">0.924608647823334</t>
   </si>
   <si>
     <t xml:space="preserve">1.00314974784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05097436904907</t>
+    <t xml:space="preserve">1.05097448825836</t>
   </si>
   <si>
     <t xml:space="preserve">1.03658807277679</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">1.01831364631653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940939009189606</t>
+    <t xml:space="preserve">0.940938949584961</t>
   </si>
   <si>
     <t xml:space="preserve">0.949881851673126</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">0.854232609272003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874062299728394</t>
+    <t xml:space="preserve">0.874062240123749</t>
   </si>
   <si>
     <t xml:space="preserve">0.878339350223541</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">0.76690411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770325720310211</t>
+    <t xml:space="preserve">0.770325779914856</t>
   </si>
   <si>
     <t xml:space="preserve">0.770481288433075</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">0.78852242231369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779579639434814</t>
+    <t xml:space="preserve">0.779579699039459</t>
   </si>
   <si>
     <t xml:space="preserve">0.724911868572235</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">0.737353980541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7581946849823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814961969852448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849566757678986</t>
+    <t xml:space="preserve">0.758194625377655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814962029457092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84956681728363</t>
   </si>
   <si>
     <t xml:space="preserve">0.807185649871826</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">0.797854006290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82001668214798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819239020347595</t>
+    <t xml:space="preserve">0.820016622543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81923907995224</t>
   </si>
   <si>
     <t xml:space="preserve">0.844901025295258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854621469974518</t>
+    <t xml:space="preserve">0.854621410369873</t>
   </si>
   <si>
     <t xml:space="preserve">0.865508377552032</t>
@@ -4229,16 +4229,16 @@
     <t xml:space="preserve">0.944049537181854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947548866271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956102848052979</t>
+    <t xml:space="preserve">0.947548925876617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956102907657623</t>
   </si>
   <si>
     <t xml:space="preserve">0.935106694698334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967767477035522</t>
+    <t xml:space="preserve">0.967767417430878</t>
   </si>
   <si>
     <t xml:space="preserve">0.926163911819458</t>
@@ -4259,25 +4259,25 @@
     <t xml:space="preserve">0.998872816562653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954158782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937439560890198</t>
+    <t xml:space="preserve">0.954158842563629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937439620494843</t>
   </si>
   <si>
     <t xml:space="preserve">0.89194792509079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882616341114044</t>
+    <t xml:space="preserve">0.882616281509399</t>
   </si>
   <si>
     <t xml:space="preserve">0.858509600162506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836346983909607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815350830554962</t>
+    <t xml:space="preserve">0.836347043514252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815350770950317</t>
   </si>
   <si>
     <t xml:space="preserve">0.832070052623749</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">0.824682474136353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829348266124725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816906154155731</t>
+    <t xml:space="preserve">0.829348206520081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816906094551086</t>
   </si>
   <si>
     <t xml:space="preserve">0.849955677986145</t>
@@ -4298,13 +4298,13 @@
     <t xml:space="preserve">0.851510882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872507095336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868618845939636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897391378879547</t>
+    <t xml:space="preserve">0.872507035732269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868618905544281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897391438484192</t>
   </si>
   <si>
     <t xml:space="preserve">0.893503248691559</t>
@@ -4316,22 +4316,22 @@
     <t xml:space="preserve">0.926552653312683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912944078445435</t>
+    <t xml:space="preserve">0.912944138050079</t>
   </si>
   <si>
     <t xml:space="preserve">0.937828421592712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952214658260345</t>
+    <t xml:space="preserve">0.952214598655701</t>
   </si>
   <si>
     <t xml:space="preserve">0.971655607223511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988374829292297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05564022064209</t>
+    <t xml:space="preserve">0.988374769687653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0556401014328</t>
   </si>
   <si>
     <t xml:space="preserve">1.12290573120117</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">1.18006193637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19211518764496</t>
+    <t xml:space="preserve">1.19211530685425</t>
   </si>
   <si>
     <t xml:space="preserve">1.18667185306549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20494616031647</t>
+    <t xml:space="preserve">1.20494627952576</t>
   </si>
   <si>
     <t xml:space="preserve">1.15128934383392</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.23799574375153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698670864105</t>
+    <t xml:space="preserve">1.28698682785034</t>
   </si>
   <si>
     <t xml:space="preserve">1.14001369476318</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">1.12873804569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15362238883972</t>
+    <t xml:space="preserve">1.15362226963043</t>
   </si>
   <si>
     <t xml:space="preserve">1.16684210300446</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">1.16606450080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15245580673218</t>
+    <t xml:space="preserve">1.15245592594147</t>
   </si>
   <si>
     <t xml:space="preserve">1.10463130474091</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">1.10929703712463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09607720375061</t>
+    <t xml:space="preserve">1.0960773229599</t>
   </si>
   <si>
     <t xml:space="preserve">1.03853225708008</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">1.09491086006165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15401101112366</t>
+    <t xml:space="preserve">1.15401113033295</t>
   </si>
   <si>
     <t xml:space="preserve">1.08985614776611</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">1.08052456378937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02686762809753</t>
+    <t xml:space="preserve">1.02686774730682</t>
   </si>
   <si>
     <t xml:space="preserve">1.02064669132233</t>
@@ -4469,28 +4469,28 @@
     <t xml:space="preserve">1.02803421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00353872776031</t>
+    <t xml:space="preserve">1.00353860855103</t>
   </si>
   <si>
     <t xml:space="preserve">0.99459582567215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986819446086884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97321081161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956491708755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966212153434753</t>
+    <t xml:space="preserve">0.986819565296173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973210871219635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956491649150848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966212093830109</t>
   </si>
   <si>
     <t xml:space="preserve">0.953769981861115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940161287784576</t>
+    <t xml:space="preserve">0.940161347389221</t>
   </si>
   <si>
     <t xml:space="preserve">0.933551430702209</t>
@@ -4502,31 +4502,31 @@
     <t xml:space="preserve">0.912555277347565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880283415317535</t>
+    <t xml:space="preserve">0.880283355712891</t>
   </si>
   <si>
     <t xml:space="preserve">0.853066146373749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89233672618866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916832327842712</t>
+    <t xml:space="preserve">0.892336785793304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916832268238068</t>
   </si>
   <si>
     <t xml:space="preserve">0.889226198196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93316262960434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933940291404724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980987191200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960379838943481</t>
+    <t xml:space="preserve">0.933162689208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933940172195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980987250804901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960379898548126</t>
   </si>
   <si>
     <t xml:space="preserve">0.98448657989502</t>
@@ -5226,6 +5226,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.62600004673004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62300002574921</t>
   </si>
 </sst>
 </file>
@@ -61571,7 +61574,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6493634259</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>1962919</v>
@@ -61592,6 +61595,32 @@
         <v>1726</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6495833333</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>1731629</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>1.62699997425079</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>1.61800003051758</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>1.61800003051758</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>1.62300002574921</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1740">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0017055273056</t>
+    <t xml:space="preserve">1.00170564651489</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982317924499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985255360603333</t>
+    <t xml:space="preserve">0.982317805290222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985255539417267</t>
   </si>
   <si>
     <t xml:space="preserve">0.960579931735992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964104950428009</t>
+    <t xml:space="preserve">0.964105069637299</t>
   </si>
   <si>
     <t xml:space="preserve">0.993480503559113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992893040180206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04576897621155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04165637493134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02814376354218</t>
+    <t xml:space="preserve">0.992892980575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04576909542084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04165625572205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02814364433289</t>
   </si>
   <si>
     <t xml:space="preserve">1.03695631027222</t>
@@ -77,19 +77,19 @@
     <t xml:space="preserve">1.05693173408508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02579355239868</t>
+    <t xml:space="preserve">1.02579367160797</t>
   </si>
   <si>
     <t xml:space="preserve">1.07749450206757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08101975917816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13565814495087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1456458568573</t>
+    <t xml:space="preserve">1.08101963996887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13565802574158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14564597606659</t>
   </si>
   <si>
     <t xml:space="preserve">1.14682078361511</t>
@@ -101,10 +101,10 @@
     <t xml:space="preserve">1.12802040576935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14035820960999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11098277568817</t>
+    <t xml:space="preserve">1.1403580904007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11098265647888</t>
   </si>
   <si>
     <t xml:space="preserve">1.09100735187531</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">1.02755606174469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.957642197608948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829564988613129</t>
+    <t xml:space="preserve">0.957642316818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853652894496918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829565048217773</t>
   </si>
   <si>
     <t xml:space="preserve">0.840140223503113</t>
@@ -128,22 +128,22 @@
     <t xml:space="preserve">0.810764729976654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81663990020752</t>
+    <t xml:space="preserve">0.816639840602875</t>
   </si>
   <si>
     <t xml:space="preserve">0.873040795326233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863640666007996</t>
+    <t xml:space="preserve">0.863640606403351</t>
   </si>
   <si>
     <t xml:space="preserve">0.872453391551971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887728631496429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881853461265564</t>
+    <t xml:space="preserve">0.887728691101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881853640079498</t>
   </si>
   <si>
     <t xml:space="preserve">0.86070317029953</t>
@@ -152,82 +152,82 @@
     <t xml:space="preserve">0.842490255832672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850128054618835</t>
+    <t xml:space="preserve">0.850127995014191</t>
   </si>
   <si>
     <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904178977012634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916516482830048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895366132259369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851890444755554</t>
+    <t xml:space="preserve">0.904178857803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916516661643982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895366370677948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851890504360199</t>
   </si>
   <si>
     <t xml:space="preserve">0.807827174663544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776101529598236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.764938950538635</t>
+    <t xml:space="preserve">0.776101589202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76493889093399</t>
   </si>
   <si>
     <t xml:space="preserve">0.757888734340668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831915140151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820164918899536</t>
+    <t xml:space="preserve">0.831915080547333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820164978504181</t>
   </si>
   <si>
     <t xml:space="preserve">0.817814826965332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828390061855316</t>
+    <t xml:space="preserve">0.828390121459961</t>
   </si>
   <si>
     <t xml:space="preserve">0.833677709102631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823102414608002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817227423191071</t>
+    <t xml:space="preserve">0.823102355003357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817227303981781</t>
   </si>
   <si>
     <t xml:space="preserve">0.827215015888214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828977584838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.843077778816223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865403294563293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837790250778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83074015378952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846602857112885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848953008651733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860115706920624</t>
+    <t xml:space="preserve">0.828977525234222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.843077838420868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865403234958649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837790191173553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830740094184875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84660279750824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848952949047089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860115587711334</t>
   </si>
   <si>
     <t xml:space="preserve">0.846015393733978</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">0.834265172481537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822514951229095</t>
+    <t xml:space="preserve">0.82251501083374</t>
   </si>
   <si>
     <t xml:space="preserve">0.845427870750427</t>
@@ -245,67 +245,67 @@
     <t xml:space="preserve">0.868340730667114</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920629143714905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915929079055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941426753998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89301609992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553645133972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578161716461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869515895843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88244104385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864228248596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835440278053284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826040029525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830152571201324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831327617168427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907116532325745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924741744995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945304691791534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937079548835754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928854286670685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961769104003906</t>
+    <t xml:space="preserve">0.92062920331955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915929138660431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941486358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893016278743744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553585529327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578221321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869515776634216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882440984249115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864228188991547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835440099239349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826040148735046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830152630805969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831327557563782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9071164727211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924741804599762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945304572582245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937079608440399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92885422706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961769223213196</t>
   </si>
   <si>
     <t xml:space="preserve">0.98744261264801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.994025588035583</t>
+    <t xml:space="preserve">0.994025528430939</t>
   </si>
   <si>
     <t xml:space="preserve">1.03483998775482</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">1.04010629653931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04076457023621</t>
+    <t xml:space="preserve">1.04076445102692</t>
   </si>
   <si>
     <t xml:space="preserve">1.03615653514862</t>
@@ -326,37 +326,37 @@
     <t xml:space="preserve">1.05261385440826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05458879470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05393040180206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07367932796478</t>
+    <t xml:space="preserve">1.05458867549896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05393052101135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07367944717407</t>
   </si>
   <si>
     <t xml:space="preserve">1.11646854877472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09276974201202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03878962993622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02299046516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98283463716507</t>
+    <t xml:space="preserve">1.09276986122131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03878974914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02299058437347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982834577560425</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367373943329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07894575595856</t>
+    <t xml:space="preserve">0.993367314338684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
     <t xml:space="preserve">1.07565402984619</t>
@@ -365,19 +365,19 @@
     <t xml:space="preserve">1.07302093505859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10132765769958</t>
+    <t xml:space="preserve">1.10132777690887</t>
   </si>
   <si>
     <t xml:space="preserve">1.015749335289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959135890007019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97756826877594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972301959991455</t>
+    <t xml:space="preserve">0.959136009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977568209171295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972301840782166</t>
   </si>
   <si>
     <t xml:space="preserve">1.02628207206726</t>
@@ -392,22 +392,22 @@
     <t xml:space="preserve">0.961110770702362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938728809356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936095714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956502735614777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951894760131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936753809452057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946628391742706</t>
+    <t xml:space="preserve">0.938728749752045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936095595359802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956502616405487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951894700527191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936753928661346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946628332138062</t>
   </si>
   <si>
     <t xml:space="preserve">0.939387083053589</t>
@@ -416,37 +416,37 @@
     <t xml:space="preserve">0.949919760227203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948603272438049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974276661872864</t>
+    <t xml:space="preserve">0.948603212833405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974276721477509</t>
   </si>
   <si>
     <t xml:space="preserve">0.954527854919434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99797534942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923587918281555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836034715175629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809702932834625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832085013389587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851833879947662</t>
+    <t xml:space="preserve">0.997975289821625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9235879778862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836034834384918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.809703052043915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832085072994232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851833760738373</t>
   </si>
   <si>
     <t xml:space="preserve">0.88869833946228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88409036397934</t>
+    <t xml:space="preserve">0.884090304374695</t>
   </si>
   <si>
     <t xml:space="preserve">0.871582686901093</t>
@@ -461,10 +461,10 @@
     <t xml:space="preserve">0.886723518371582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.890673279762268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870924353599548</t>
+    <t xml:space="preserve">0.890673220157623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870924413204193</t>
   </si>
   <si>
     <t xml:space="preserve">0.866974651813507</t>
@@ -473,19 +473,19 @@
     <t xml:space="preserve">0.884748637676239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883432030677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874215841293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870266199111938</t>
+    <t xml:space="preserve">0.883431971073151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87421590089798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870266139507294</t>
   </si>
   <si>
     <t xml:space="preserve">0.864341497421265</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881457090377808</t>
+    <t xml:space="preserve">0.881457149982452</t>
   </si>
   <si>
     <t xml:space="preserve">0.882773637771606</t>
@@ -494,13 +494,13 @@
     <t xml:space="preserve">0.887381792068481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880140602588654</t>
+    <t xml:space="preserve">0.880140483379364</t>
   </si>
   <si>
     <t xml:space="preserve">0.921613216400146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934779107570648</t>
+    <t xml:space="preserve">0.934779047966003</t>
   </si>
   <si>
     <t xml:space="preserve">0.947944939136505</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">0.932145833969116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902522563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281434059143</t>
+    <t xml:space="preserve">0.902522623538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281374454498</t>
   </si>
   <si>
     <t xml:space="preserve">0.903180837631226</t>
@@ -524,52 +524,52 @@
     <t xml:space="preserve">0.917005062103271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940045416355133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934120714664459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911080420017242</t>
+    <t xml:space="preserve">0.940045297145844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934120833873749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911080360412598</t>
   </si>
   <si>
     <t xml:space="preserve">0.912397027015686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91371363401413</t>
+    <t xml:space="preserve">0.913713574409485</t>
   </si>
   <si>
     <t xml:space="preserve">0.931487560272217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918979942798615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909763813018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926879525184631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920296430587769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938070476055145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964402258396149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970326960086823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988759279251099</t>
+    <t xml:space="preserve">0.918980062007904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909763753414154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926879465579987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920296549797058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93807053565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964402377605438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970326900482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988759160041809</t>
   </si>
   <si>
     <t xml:space="preserve">0.984151124954224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99270898103714</t>
+    <t xml:space="preserve">0.992709040641785</t>
   </si>
   <si>
     <t xml:space="preserve">1.04142284393311</t>
@@ -578,28 +578,28 @@
     <t xml:space="preserve">1.03549814224243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03154850006104</t>
+    <t xml:space="preserve">1.03154838085175</t>
   </si>
   <si>
     <t xml:space="preserve">1.05919671058655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03813147544861</t>
+    <t xml:space="preserve">1.03813123703003</t>
   </si>
   <si>
     <t xml:space="preserve">1.03023183345795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02167403697968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03418159484863</t>
+    <t xml:space="preserve">1.02167391777039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03418147563934</t>
   </si>
   <si>
     <t xml:space="preserve">1.01838254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03352332115173</t>
+    <t xml:space="preserve">1.03352344036102</t>
   </si>
   <si>
     <t xml:space="preserve">1.04208111763</t>
@@ -608,16 +608,16 @@
     <t xml:space="preserve">1.01443266868591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09211158752441</t>
+    <t xml:space="preserve">1.09211146831512</t>
   </si>
   <si>
     <t xml:space="preserve">1.08618688583374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09013676643372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09935283660889</t>
+    <t xml:space="preserve">1.09013664722443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0993527173996</t>
   </si>
   <si>
     <t xml:space="preserve">1.08750343322754</t>
@@ -626,19 +626,19 @@
     <t xml:space="preserve">1.07960391044617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05788028240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06380498409271</t>
+    <t xml:space="preserve">1.05788016319275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06380486488342</t>
   </si>
   <si>
     <t xml:space="preserve">1.13819217681885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11120212078094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12305152416229</t>
+    <t xml:space="preserve">1.11120200157166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.123051404953</t>
   </si>
   <si>
     <t xml:space="preserve">1.08421206474304</t>
@@ -647,25 +647,25 @@
     <t xml:space="preserve">1.07697069644928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09145319461823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09671974182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11778497695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13095080852509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11186039447784</t>
+    <t xml:space="preserve">1.09145331382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.096719622612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11778509616852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13095092773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11186051368713</t>
   </si>
   <si>
     <t xml:space="preserve">1.12568461894989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13226759433746</t>
+    <t xml:space="preserve">1.13226747512817</t>
   </si>
   <si>
     <t xml:space="preserve">1.13885056972504</t>
@@ -674,19 +674,19 @@
     <t xml:space="preserve">1.13621723651886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14543342590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14740836620331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15596628189087</t>
+    <t xml:space="preserve">1.14543354511261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14740824699402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15596616268158</t>
   </si>
   <si>
     <t xml:space="preserve">1.14016711711884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14082527160645</t>
+    <t xml:space="preserve">1.14082539081573</t>
   </si>
   <si>
     <t xml:space="preserve">1.11910164356232</t>
@@ -698,70 +698,70 @@
     <t xml:space="preserve">1.12831783294678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09079504013062</t>
+    <t xml:space="preserve">1.09079492092133</t>
   </si>
   <si>
     <t xml:space="preserve">1.09737801551819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08684515953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01904082298279</t>
+    <t xml:space="preserve">1.08684527873993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0190407037735</t>
   </si>
   <si>
     <t xml:space="preserve">1.02364885807037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02496552467346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02562379837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988101005554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940703690052032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93346244096756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935437321662903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953869521617889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999950349330902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00521659851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01706576347351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916647911072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03089022636414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0460307598114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07170426845551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13424241542816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10396087169647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10066950321198</t>
+    <t xml:space="preserve">1.02496540546417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02562367916107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988101065158844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940703749656677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933462381362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935437381267548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953869581222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999950230121613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00521647930145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0170658826828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916635990143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03089010715485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04603087902069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07170438766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13424253463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10396099090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10066938400269</t>
   </si>
   <si>
     <t xml:space="preserve">1.0947448015213</t>
@@ -770,13 +770,13 @@
     <t xml:space="preserve">1.12041831016541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12765955924988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12634301185608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12239325046539</t>
+    <t xml:space="preserve">1.12765944004059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12634289264679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1223931312561</t>
   </si>
   <si>
     <t xml:space="preserve">1.11975991725922</t>
@@ -785,52 +785,52 @@
     <t xml:space="preserve">1.13490068912506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16715705394745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16913223266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18032312393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17176520824432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16584062576294</t>
+    <t xml:space="preserve">1.16715717315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16913211345673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1803230047226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1717654466629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16584074497223</t>
   </si>
   <si>
     <t xml:space="preserve">1.17374002933502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1790064573288</t>
+    <t xml:space="preserve">1.17900657653809</t>
   </si>
   <si>
     <t xml:space="preserve">1.18229806423187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17308175563812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19941353797913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21652925014496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21389615535736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22706186771393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21784603595734</t>
+    <t xml:space="preserve">1.17308187484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19941365718842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21652936935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21389603614807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22706198692322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21784591674805</t>
   </si>
   <si>
     <t xml:space="preserve">1.204021692276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19546377658844</t>
+    <t xml:space="preserve">1.19546389579773</t>
   </si>
   <si>
     <t xml:space="preserve">1.22179555892944</t>
@@ -839,70 +839,70 @@
     <t xml:space="preserve">1.22772037982941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21455454826355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21587097644806</t>
+    <t xml:space="preserve">1.21455442905426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21587109565735</t>
   </si>
   <si>
     <t xml:space="preserve">1.23167014122009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25339376926422</t>
+    <t xml:space="preserve">1.25339388847351</t>
   </si>
   <si>
     <t xml:space="preserve">1.26853466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24417781829834</t>
+    <t xml:space="preserve">1.24417757987976</t>
   </si>
   <si>
     <t xml:space="preserve">1.26260995864868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27182626724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28696703910828</t>
+    <t xml:space="preserve">1.27182614803314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28696691989899</t>
   </si>
   <si>
     <t xml:space="preserve">1.3093489408493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32448971271515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32843935489655</t>
+    <t xml:space="preserve">1.32448983192444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32843947410583</t>
   </si>
   <si>
     <t xml:space="preserve">1.3613543510437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35213816165924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35608792304993</t>
+    <t xml:space="preserve">1.35213804244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35608780384064</t>
   </si>
   <si>
     <t xml:space="preserve">1.35872101783752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39163589477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40875148773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47721409797668</t>
+    <t xml:space="preserve">1.3916357755661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40875160694122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4772139787674</t>
   </si>
   <si>
     <t xml:space="preserve">1.48116385936737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169671535492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49169647693634</t>
+    <t xml:space="preserve">1.49169683456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49169659614563</t>
   </si>
   <si>
     <t xml:space="preserve">1.49031937122345</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">1.47379088401794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39803528785706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38701629638672</t>
+    <t xml:space="preserve">1.39803516864777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38701617717743</t>
   </si>
   <si>
     <t xml:space="preserve">1.38288402557373</t>
@@ -932,22 +932,22 @@
     <t xml:space="preserve">1.43522441387177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43246960639954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45313024520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51235735416412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57158446311951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53301799297333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53990471363068</t>
+    <t xml:space="preserve">1.43246948719025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45313012599945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51235747337341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57158434391022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53301787376404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53990483283997</t>
   </si>
   <si>
     <t xml:space="preserve">1.51511204242706</t>
@@ -956,13 +956,13 @@
     <t xml:space="preserve">1.43935632705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47792279720306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45175278186798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45863962173462</t>
+    <t xml:space="preserve">1.47792291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45175290107727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45863974094391</t>
   </si>
   <si>
     <t xml:space="preserve">1.42282795906067</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">1.40354478359222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4545077085495</t>
+    <t xml:space="preserve">1.45450747013092</t>
   </si>
   <si>
     <t xml:space="preserve">1.44624316692352</t>
@@ -986,37 +986,37 @@
     <t xml:space="preserve">1.45726227760315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4255827665329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42971479892731</t>
+    <t xml:space="preserve">1.42558264732361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42971467971802</t>
   </si>
   <si>
     <t xml:space="preserve">1.44073379039764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43660163879395</t>
+    <t xml:space="preserve">1.43660175800323</t>
   </si>
   <si>
     <t xml:space="preserve">1.45588493347168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47654569149017</t>
+    <t xml:space="preserve">1.47654557228088</t>
   </si>
   <si>
     <t xml:space="preserve">1.51786673069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53164052963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53577256202698</t>
+    <t xml:space="preserve">1.53164041042328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53577268123627</t>
   </si>
   <si>
     <t xml:space="preserve">1.55643332004547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54403710365295</t>
+    <t xml:space="preserve">1.54403698444366</t>
   </si>
   <si>
     <t xml:space="preserve">1.52888584136963</t>
@@ -1031,13 +1031,13 @@
     <t xml:space="preserve">1.31194925308228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27820348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25960898399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27062809467316</t>
+    <t xml:space="preserve">1.27820360660553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25960910320282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27062797546387</t>
   </si>
   <si>
     <t xml:space="preserve">1.28095841407776</t>
@@ -1049,22 +1049,22 @@
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258185863495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29748678207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28233563899994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29542076587677</t>
+    <t xml:space="preserve">1.35258173942566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29748690128326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28233575820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29542088508606</t>
   </si>
   <si>
     <t xml:space="preserve">1.2899112701416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31608140468597</t>
+    <t xml:space="preserve">1.31608152389526</t>
   </si>
   <si>
     <t xml:space="preserve">1.33674204349518</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">1.32778906822205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33329856395721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34018528461456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33880805969238</t>
+    <t xml:space="preserve">1.3332986831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34018552303314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33880817890167</t>
   </si>
   <si>
     <t xml:space="preserve">1.3739310503006</t>
@@ -1091,64 +1091,64 @@
     <t xml:space="preserve">1.41869580745697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46001696586609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45037531852722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44762074947357</t>
+    <t xml:space="preserve">1.46001708507538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45037543773651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44762063026428</t>
   </si>
   <si>
     <t xml:space="preserve">1.4049220085144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46414923667908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48618721961975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51097989082336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56194257736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5385274887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52613091468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55918788909912</t>
+    <t xml:space="preserve">1.46414911746979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48618710041046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51098001003265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56194281578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53852736949921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52613115310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55918800830841</t>
   </si>
   <si>
     <t xml:space="preserve">1.57433915138245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51648926734924</t>
+    <t xml:space="preserve">1.51648938655853</t>
   </si>
   <si>
     <t xml:space="preserve">1.51924419403076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50684762001038</t>
+    <t xml:space="preserve">1.50684785842896</t>
   </si>
   <si>
     <t xml:space="preserve">1.49582874774933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48756468296051</t>
+    <t xml:space="preserve">1.48756456375122</t>
   </si>
   <si>
     <t xml:space="preserve">1.50822520256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52750837802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5509238243103</t>
+    <t xml:space="preserve">1.52750849723816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55092370510101</t>
   </si>
   <si>
     <t xml:space="preserve">1.60050916671753</t>
@@ -1157,13 +1157,13 @@
     <t xml:space="preserve">1.57847130298615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62116992473602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6184149980545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58949041366577</t>
+    <t xml:space="preserve">1.62117004394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61841511726379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58949053287506</t>
   </si>
   <si>
     <t xml:space="preserve">1.4848096370697</t>
@@ -1172,16 +1172,16 @@
     <t xml:space="preserve">1.52062153816223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55230116844177</t>
+    <t xml:space="preserve">1.55230104923248</t>
   </si>
   <si>
     <t xml:space="preserve">1.52199900150299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4972060918808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42145049571991</t>
+    <t xml:space="preserve">1.49720621109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4214506149292</t>
   </si>
   <si>
     <t xml:space="preserve">1.43384695053101</t>
@@ -1190,31 +1190,31 @@
     <t xml:space="preserve">1.4173184633255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37599730491638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37117636203766</t>
+    <t xml:space="preserve">1.37599718570709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37117648124695</t>
   </si>
   <si>
     <t xml:space="preserve">1.38839364051819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37530851364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36360096931458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35051572322845</t>
+    <t xml:space="preserve">1.37530839443207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36360085010529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35051584243774</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34087419509888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36222338676453</t>
+    <t xml:space="preserve">1.34087431430817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36222350597382</t>
   </si>
   <si>
     <t xml:space="preserve">1.34294021129608</t>
@@ -1223,22 +1223,22 @@
     <t xml:space="preserve">1.36979901790619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36428964138031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36704432964325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38977086544037</t>
+    <t xml:space="preserve">1.36428952217102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36704421043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38977098464966</t>
   </si>
   <si>
     <t xml:space="preserve">1.38012933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35533654689789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37737464904785</t>
+    <t xml:space="preserve">1.35533666610718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37737452983856</t>
   </si>
   <si>
     <t xml:space="preserve">1.36842155456543</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">1.36635553836823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21966528892517</t>
+    <t xml:space="preserve">1.21966516971588</t>
   </si>
   <si>
     <t xml:space="preserve">1.23963701725006</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">1.25134479999542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24927866458893</t>
+    <t xml:space="preserve">1.24927878379822</t>
   </si>
   <si>
     <t xml:space="preserve">1.22586333751678</t>
@@ -1271,16 +1271,16 @@
     <t xml:space="preserve">1.21553301811218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19900465011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22104251384735</t>
+    <t xml:space="preserve">1.19900453090668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22104263305664</t>
   </si>
   <si>
     <t xml:space="preserve">1.2100236415863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2058914899826</t>
+    <t xml:space="preserve">1.20589137077332</t>
   </si>
   <si>
     <t xml:space="preserve">1.21140098571777</t>
@@ -1289,52 +1289,52 @@
     <t xml:space="preserve">1.19969320297241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21277844905853</t>
+    <t xml:space="preserve">1.21277832984924</t>
   </si>
   <si>
     <t xml:space="preserve">1.1645702123642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15699458122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15217387676239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12600374221802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12875854969025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10052227973938</t>
+    <t xml:space="preserve">1.15699470043182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1521737575531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12600362300873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12875843048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10052239894867</t>
   </si>
   <si>
     <t xml:space="preserve">1.10534310340881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11429595947266</t>
+    <t xml:space="preserve">1.11429607868195</t>
   </si>
   <si>
     <t xml:space="preserve">1.13082456588745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12669229507446</t>
+    <t xml:space="preserve">1.12669241428375</t>
   </si>
   <si>
     <t xml:space="preserve">1.14322078227997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13357937335968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23137295246124</t>
+    <t xml:space="preserve">1.1335791349411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23137283325195</t>
   </si>
   <si>
     <t xml:space="preserve">1.1893630027771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17352318763733</t>
+    <t xml:space="preserve">1.17352306842804</t>
   </si>
   <si>
     <t xml:space="preserve">1.13564538955688</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">1.1707683801651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26029777526855</t>
+    <t xml:space="preserve">1.26029789447784</t>
   </si>
   <si>
     <t xml:space="preserve">1.3023077249527</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">1.27682626247406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30988323688507</t>
+    <t xml:space="preserve">1.30988311767578</t>
   </si>
   <si>
     <t xml:space="preserve">1.31126058101654</t>
@@ -1376,13 +1376,13 @@
     <t xml:space="preserve">1.21071219444275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22792935371399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2506560087204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24239182472229</t>
+    <t xml:space="preserve">1.22792947292328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25065612792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24239194393158</t>
   </si>
   <si>
     <t xml:space="preserve">1.27200531959534</t>
@@ -1391,19 +1391,19 @@
     <t xml:space="preserve">1.29473197460175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.298175573349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32296824455261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30161905288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29335474967957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27958106994629</t>
+    <t xml:space="preserve">1.29817545413971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3229683637619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30161893367767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29335463047028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.279580950737</t>
   </si>
   <si>
     <t xml:space="preserve">1.26718461513519</t>
@@ -1412,10 +1412,10 @@
     <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26374125480652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26993930339813</t>
+    <t xml:space="preserve">1.26374113559723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26993942260742</t>
   </si>
   <si>
     <t xml:space="preserve">1.29955291748047</t>
@@ -1424,31 +1424,31 @@
     <t xml:space="preserve">1.32985520362854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39252579212189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40905427932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42007327079773</t>
+    <t xml:space="preserve">1.3925256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4090541601181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42007315158844</t>
   </si>
   <si>
     <t xml:space="preserve">1.39114820957184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3966578245163</t>
+    <t xml:space="preserve">1.39665794372559</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3415629863739</t>
+    <t xml:space="preserve">1.34156274795532</t>
   </si>
   <si>
     <t xml:space="preserve">1.30781722068787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38794755935669</t>
+    <t xml:space="preserve">1.38794767856598</t>
   </si>
   <si>
     <t xml:space="preserve">1.41661822795868</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">1.41882359981537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4026505947113</t>
+    <t xml:space="preserve">1.40265047550201</t>
   </si>
   <si>
     <t xml:space="preserve">1.37692046165466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36001241207123</t>
+    <t xml:space="preserve">1.36001217365265</t>
   </si>
   <si>
     <t xml:space="preserve">1.38427197933197</t>
@@ -1472,10 +1472,10 @@
     <t xml:space="preserve">1.42543983459473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41000187397003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42176425457001</t>
+    <t xml:space="preserve">1.41000175476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42176413536072</t>
   </si>
   <si>
     <t xml:space="preserve">1.43867242336273</t>
@@ -1484,28 +1484,28 @@
     <t xml:space="preserve">1.47469437122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48645675182343</t>
+    <t xml:space="preserve">1.48645663261414</t>
   </si>
   <si>
     <t xml:space="preserve">1.52468395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704061985016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49968922138214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4967485666275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4908674955368</t>
+    <t xml:space="preserve">1.50704050064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49968910217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49674868583679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49086761474609</t>
   </si>
   <si>
     <t xml:space="preserve">1.52615427970886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51439189910889</t>
+    <t xml:space="preserve">1.51439201831818</t>
   </si>
   <si>
     <t xml:space="preserve">1.56585204601288</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792684078217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47910523414612</t>
+    <t xml:space="preserve">1.48792695999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47910535335541</t>
   </si>
   <si>
     <t xml:space="preserve">1.50115954875946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50998115539551</t>
+    <t xml:space="preserve">1.50998103618622</t>
   </si>
   <si>
     <t xml:space="preserve">1.52321374416351</t>
@@ -1541,10 +1541,10 @@
     <t xml:space="preserve">1.44455361366272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46660768985748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46366727352142</t>
+    <t xml:space="preserve">1.46660780906677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46366739273071</t>
   </si>
   <si>
     <t xml:space="preserve">1.45558071136475</t>
@@ -1553,10 +1553,10 @@
     <t xml:space="preserve">1.45043480396271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44381844997406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42911553382874</t>
+    <t xml:space="preserve">1.44381833076477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42911565303802</t>
   </si>
   <si>
     <t xml:space="preserve">1.37912607192993</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">1.40706133842468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43058574199677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42396950721741</t>
+    <t xml:space="preserve">1.43058586120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4239696264267</t>
   </si>
   <si>
     <t xml:space="preserve">1.43940758705139</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44675898551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46146190166473</t>
+    <t xml:space="preserve">1.4467591047287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46146178245544</t>
   </si>
   <si>
     <t xml:space="preserve">1.48498630523682</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762472629547</t>
+    <t xml:space="preserve">1.52762460708618</t>
   </si>
   <si>
     <t xml:space="preserve">1.56144118309021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5732034444809</t>
+    <t xml:space="preserve">1.57320332527161</t>
   </si>
   <si>
     <t xml:space="preserve">1.55114912986755</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">1.57173311710358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57026278972626</t>
+    <t xml:space="preserve">1.57026267051697</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025249004364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63495516777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64377701282501</t>
+    <t xml:space="preserve">1.63495528697968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64377689361572</t>
   </si>
   <si>
     <t xml:space="preserve">1.64524722099304</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">1.62760388851166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60113883018494</t>
+    <t xml:space="preserve">1.60113871097565</t>
   </si>
   <si>
     <t xml:space="preserve">1.62466335296631</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">1.40191531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147208213806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.408531665802</t>
+    <t xml:space="preserve">1.41147220134735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40853154659271</t>
   </si>
   <si>
     <t xml:space="preserve">1.39970993995667</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">1.43279135227203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44822919368744</t>
+    <t xml:space="preserve">1.44822931289673</t>
   </si>
   <si>
     <t xml:space="preserve">1.43205618858337</t>
@@ -1682,22 +1682,22 @@
     <t xml:space="preserve">1.39088821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37250971794128</t>
+    <t xml:space="preserve">1.37250959873199</t>
   </si>
   <si>
     <t xml:space="preserve">1.36074733734131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3548663854599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3453094959259</t>
+    <t xml:space="preserve">1.35486626625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34530937671661</t>
   </si>
   <si>
     <t xml:space="preserve">1.28943860530853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27179527282715</t>
+    <t xml:space="preserve">1.27179515361786</t>
   </si>
   <si>
     <t xml:space="preserve">1.28649806976318</t>
@@ -1715,10 +1715,10 @@
     <t xml:space="preserve">1.28355753421783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29752516746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31590366363525</t>
+    <t xml:space="preserve">1.2975252866745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31590378284454</t>
   </si>
   <si>
     <t xml:space="preserve">1.30855226516724</t>
@@ -1727,22 +1727,22 @@
     <t xml:space="preserve">1.31516861915588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28576278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29017388820648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24974095821381</t>
+    <t xml:space="preserve">1.28576290607452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29017376899719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2497410774231</t>
   </si>
   <si>
     <t xml:space="preserve">1.27841150760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24091935157776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24459493160248</t>
+    <t xml:space="preserve">1.24091923236847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24459505081177</t>
   </si>
   <si>
     <t xml:space="preserve">1.25121128559113</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">1.26076805591583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26591408252716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30928754806519</t>
+    <t xml:space="preserve">1.26591420173645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3092874288559</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811957359314</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">1.25782752037048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22180569171906</t>
+    <t xml:space="preserve">1.22180557250977</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2365083694458</t>
+    <t xml:space="preserve">1.23650848865509</t>
   </si>
   <si>
     <t xml:space="preserve">1.23356783390045</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">1.29164409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26150321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25856280326843</t>
+    <t xml:space="preserve">1.26150333881378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25856256484985</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">1.24680042266846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24312460422516</t>
+    <t xml:space="preserve">1.24312472343445</t>
   </si>
   <si>
     <t xml:space="preserve">1.26885461807251</t>
@@ -1826,49 +1826,49 @@
     <t xml:space="preserve">1.2879683971405</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29679000377655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24165439605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2401841878891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28870356082916</t>
+    <t xml:space="preserve">1.29679012298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24165451526642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24018406867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28870344161987</t>
   </si>
   <si>
     <t xml:space="preserve">1.27914667129517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21004343032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27032506465912</t>
+    <t xml:space="preserve">1.21004331111908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27032494544983</t>
   </si>
   <si>
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502786159515</t>
+    <t xml:space="preserve">1.28502774238586</t>
   </si>
   <si>
     <t xml:space="preserve">1.28135216236115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29311442375183</t>
+    <t xml:space="preserve">1.29311430454254</t>
   </si>
   <si>
     <t xml:space="preserve">1.38059628009796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3894180059433</t>
+    <t xml:space="preserve">1.38941788673401</t>
   </si>
   <si>
     <t xml:space="preserve">1.36589348316193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3511905670166</t>
+    <t xml:space="preserve">1.35119068622589</t>
   </si>
   <si>
     <t xml:space="preserve">1.32325518131256</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31810915470123</t>
+    <t xml:space="preserve">1.31810927391052</t>
   </si>
   <si>
     <t xml:space="preserve">1.31149291992188</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">1.28723323345184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2842925786972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3129631280899</t>
+    <t xml:space="preserve">1.28429269790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31296324729919</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060657978058</t>
@@ -1901,31 +1901,31 @@
     <t xml:space="preserve">1.36736369132996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33428227901459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35266077518463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31737399101257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27694129943848</t>
+    <t xml:space="preserve">1.33428239822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35266089439392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31737411022186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27694118022919</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046582221985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27767646312714</t>
+    <t xml:space="preserve">1.27767634391785</t>
   </si>
   <si>
     <t xml:space="preserve">1.29826033115387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30340623855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27326548099518</t>
+    <t xml:space="preserve">1.3034063577652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27326560020447</t>
   </si>
   <si>
     <t xml:space="preserve">1.27620601654053</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531967639923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27473568916321</t>
+    <t xml:space="preserve">1.29531979560852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2747358083725</t>
   </si>
   <si>
     <t xml:space="preserve">1.27253031730652</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">1.21886503696442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21445405483246</t>
+    <t xml:space="preserve">1.21445417404175</t>
   </si>
   <si>
     <t xml:space="preserve">1.21371901035309</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">1.22915709018707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25194644927979</t>
+    <t xml:space="preserve">1.2519463300705</t>
   </si>
   <si>
     <t xml:space="preserve">1.22989225387573</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">1.21518933773041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22695159912109</t>
+    <t xml:space="preserve">1.2269514799118</t>
   </si>
   <si>
     <t xml:space="preserve">1.23724353313446</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18137276172638</t>
+    <t xml:space="preserve">1.18137288093567</t>
   </si>
   <si>
     <t xml:space="preserve">1.17034566402435</t>
@@ -2009,40 +2009,40 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711319446564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13358855247498</t>
+    <t xml:space="preserve">1.15711307525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13358867168427</t>
   </si>
   <si>
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448519229889</t>
+    <t xml:space="preserve">1.06448531150818</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0336092710495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06522035598755</t>
+    <t xml:space="preserve">1.03360939025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06522047519684</t>
   </si>
   <si>
     <t xml:space="preserve">1.10859382152557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08653950691223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08727467060089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07624757289886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08713436126709</t>
+    <t xml:space="preserve">1.08653962612152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0872745513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07624745368958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08713448047638</t>
   </si>
   <si>
     <t xml:space="preserve">1.10890829563141</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.05913960933685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0264790058136</t>
+    <t xml:space="preserve">1.02647888660431</t>
   </si>
   <si>
     <t xml:space="preserve">1.02181303501129</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.02259075641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995373487472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00548267364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00237226486206</t>
+    <t xml:space="preserve">0.995373427867889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00548279285431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00237214565277</t>
   </si>
   <si>
     <t xml:space="preserve">1.01248145103455</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.00159454345703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01714718341827</t>
+    <t xml:space="preserve">1.01714730262756</t>
   </si>
   <si>
     <t xml:space="preserve">1.03969871997833</t>
@@ -2093,31 +2093,31 @@
     <t xml:space="preserve">0.996151089668274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00081694126129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987597048282623</t>
+    <t xml:space="preserve">1.000816822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987597167491913</t>
   </si>
   <si>
     <t xml:space="preserve">0.965823292732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970489144325256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967378556728363</t>
+    <t xml:space="preserve">0.970489203929901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967378497123718</t>
   </si>
   <si>
     <t xml:space="preserve">0.998484075069427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991485238075256</t>
+    <t xml:space="preserve">0.991485297679901</t>
   </si>
   <si>
     <t xml:space="preserve">0.993040502071381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999261677265167</t>
+    <t xml:space="preserve">0.999261617660522</t>
   </si>
   <si>
     <t xml:space="preserve">1.02958941459656</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">1.0303670167923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581047058105</t>
+    <t xml:space="preserve">1.03581058979034</t>
   </si>
   <si>
     <t xml:space="preserve">1.08246862888336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05602896213531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10190963745117</t>
+    <t xml:space="preserve">1.0560290813446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10190951824188</t>
   </si>
   <si>
     <t xml:space="preserve">1.09413313865662</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">1.15789926052094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16645336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15090048313141</t>
+    <t xml:space="preserve">1.16645324230194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1509006023407</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612544536591</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">1.10968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13301491737366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13068199157715</t>
+    <t xml:space="preserve">1.13301503658295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13068211078644</t>
   </si>
   <si>
     <t xml:space="preserve">1.13145971298218</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">1.14467942714691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12368333339691</t>
+    <t xml:space="preserve">1.1236834526062</t>
   </si>
   <si>
     <t xml:space="preserve">1.10735297203064</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">1.11590695381165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12057280540466</t>
+    <t xml:space="preserve">1.12057268619537</t>
   </si>
   <si>
     <t xml:space="preserve">1.13534784317017</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.19678115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17345201969147</t>
+    <t xml:space="preserve">1.17345190048218</t>
   </si>
   <si>
     <t xml:space="preserve">1.18978226184845</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">1.22011005878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22088778018951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21077859401703</t>
+    <t xml:space="preserve">1.2208878993988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21077847480774</t>
   </si>
   <si>
     <t xml:space="preserve">1.19133758544922</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.25976955890656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27376699447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26987874507904</t>
+    <t xml:space="preserve">1.27376687526703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26987886428833</t>
   </si>
   <si>
     <t xml:space="preserve">1.27609992027283</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">1.33286726474762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34608697891235</t>
+    <t xml:space="preserve">1.34608709812164</t>
   </si>
   <si>
     <t xml:space="preserve">1.35852921009064</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">1.39896631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38807940483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37330424785614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35464096069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35619640350342</t>
+    <t xml:space="preserve">1.38807928562164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37330436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35464107990265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35619628429413</t>
   </si>
   <si>
     <t xml:space="preserve">1.33753311634064</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">1.3134263753891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28465378284454</t>
+    <t xml:space="preserve">1.28465390205383</t>
   </si>
   <si>
     <t xml:space="preserve">1.27143406867981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25821423530579</t>
+    <t xml:space="preserve">1.25821435451508</t>
   </si>
   <si>
     <t xml:space="preserve">1.25899183750153</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.25510370731354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23644053936005</t>
+    <t xml:space="preserve">1.23644042015076</t>
   </si>
   <si>
     <t xml:space="preserve">1.24343919754028</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">1.16412031650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15167808532715</t>
+    <t xml:space="preserve">1.15167820453644</t>
   </si>
   <si>
     <t xml:space="preserve">1.12757158279419</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">1.11823987960815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12135052680969</t>
+    <t xml:space="preserve">1.1213504076004</t>
   </si>
   <si>
     <t xml:space="preserve">1.12212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11357402801514</t>
+    <t xml:space="preserve">1.11357414722443</t>
   </si>
   <si>
     <t xml:space="preserve">1.10579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08868980407715</t>
+    <t xml:space="preserve">1.08868968486786</t>
   </si>
   <si>
     <t xml:space="preserve">1.11746227741241</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">1.14623475074768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10657525062561</t>
+    <t xml:space="preserve">1.1065753698349</t>
   </si>
   <si>
     <t xml:space="preserve">1.11201870441437</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.13923597335815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13379263877869</t>
+    <t xml:space="preserve">1.1337925195694</t>
   </si>
   <si>
     <t xml:space="preserve">1.05447375774384</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">1.04047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01403677463531</t>
+    <t xml:space="preserve">1.01403665542603</t>
   </si>
   <si>
     <t xml:space="preserve">1.01325905323029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996928691864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958824634552002</t>
+    <t xml:space="preserve">0.996928751468658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958824574947357</t>
   </si>
   <si>
     <t xml:space="preserve">0.942494213581085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948715388774872</t>
+    <t xml:space="preserve">0.948715329170227</t>
   </si>
   <si>
     <t xml:space="preserve">0.954936444759369</t>
@@ -2498,19 +2498,19 @@
     <t xml:space="preserve">1.00470507144928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990707635879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985264182090759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997706294059753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98370897769928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959602236747742</t>
+    <t xml:space="preserve">0.990707695484161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985264122486115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997706413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983708918094635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959602177143097</t>
   </si>
   <si>
     <t xml:space="preserve">0.884949207305908</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">0.88106107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894280850887299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855399072170258</t>
+    <t xml:space="preserve">0.894280791282654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855399131774902</t>
   </si>
   <si>
     <t xml:space="preserve">0.828181862831116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801742255687714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815739691257477</t>
+    <t xml:space="preserve">0.801742196083069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815739631652832</t>
   </si>
   <si>
     <t xml:space="preserve">0.752362310886383</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">0.678875803947449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.695594966411591</t>
+    <t xml:space="preserve">0.695595026016235</t>
   </si>
   <si>
     <t xml:space="preserve">0.687040984630585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683930456638336</t>
+    <t xml:space="preserve">0.683930397033691</t>
   </si>
   <si>
     <t xml:space="preserve">0.645048677921295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632217705249786</t>
+    <t xml:space="preserve">0.632217645645142</t>
   </si>
   <si>
     <t xml:space="preserve">0.592558324337006</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">0.612388014793396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611610352993011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575839042663574</t>
+    <t xml:space="preserve">0.611610293388367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575839102268219</t>
   </si>
   <si>
     <t xml:space="preserve">0.572339713573456</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">0.550177097320557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576227962970734</t>
+    <t xml:space="preserve">0.576227903366089</t>
   </si>
   <si>
     <t xml:space="preserve">0.565729856491089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.573506236076355</t>
+    <t xml:space="preserve">0.57350617647171</t>
   </si>
   <si>
     <t xml:space="preserve">0.567673921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660990178585052</t>
+    <t xml:space="preserve">0.660990238189697</t>
   </si>
   <si>
     <t xml:space="preserve">0.684319257736206</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.638049960136414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674209952354431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681208729743958</t>
+    <t xml:space="preserve">0.674210011959076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681208670139313</t>
   </si>
   <si>
     <t xml:space="preserve">0.657879650592804</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.643882215023041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640771687030792</t>
+    <t xml:space="preserve">0.640771627426147</t>
   </si>
   <si>
     <t xml:space="preserve">0.611999154090881</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">0.622108399868011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60577803850174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608111023902893</t>
+    <t xml:space="preserve">0.605778098106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608110964298248</t>
   </si>
   <si>
     <t xml:space="preserve">0.613165616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607333302497864</t>
+    <t xml:space="preserve">0.607333362102509</t>
   </si>
   <si>
     <t xml:space="preserve">0.626385390758514</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">0.621330797672272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598779380321503</t>
+    <t xml:space="preserve">0.598779320716858</t>
   </si>
   <si>
     <t xml:space="preserve">0.615498483181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559897541999817</t>
+    <t xml:space="preserve">0.559897601604462</t>
   </si>
   <si>
     <t xml:space="preserve">0.549399495124817</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">0.547844231128693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544344902038574</t>
+    <t xml:space="preserve">0.544344842433929</t>
   </si>
   <si>
     <t xml:space="preserve">0.547455430030823</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.57311737537384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59372466802597</t>
+    <t xml:space="preserve">0.593724727630615</t>
   </si>
   <si>
     <t xml:space="preserve">0.628329515457153</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">0.625996589660645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637661099433899</t>
+    <t xml:space="preserve">0.637661159038544</t>
   </si>
   <si>
     <t xml:space="preserve">0.61433207988739</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">0.654380261898041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632606446743011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585170686244965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586726009845734</t>
+    <t xml:space="preserve">0.632606506347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585170745849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586725950241089</t>
   </si>
   <si>
     <t xml:space="preserve">0.580893695354462</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">0.600334644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587892413139343</t>
+    <t xml:space="preserve">0.587892472743988</t>
   </si>
   <si>
     <t xml:space="preserve">0.580116093158722</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">0.576616764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583226680755615</t>
+    <t xml:space="preserve">0.58322662115097</t>
   </si>
   <si>
     <t xml:space="preserve">0.564563393592834</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">0.548233032226562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.541623175144196</t>
+    <t xml:space="preserve">0.541623115539551</t>
   </si>
   <si>
     <t xml:space="preserve">0.524903953075409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519460558891296</t>
+    <t xml:space="preserve">0.519460499286652</t>
   </si>
   <si>
     <t xml:space="preserve">0.515961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476690530776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489521533250809</t>
+    <t xml:space="preserve">0.4766905605793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489521563053131</t>
   </si>
   <si>
     <t xml:space="preserve">0.508962452411652</t>
@@ -2789,31 +2789,31 @@
     <t xml:space="preserve">0.491076827049255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50118613243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498464345932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486022174358368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497686743736267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48679980635643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477079421281815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474746435880661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459193736314774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444418698549271</t>
+    <t xml:space="preserve">0.501186072826385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498464375734329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48602220416069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497686713933945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486799836158752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477079391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474746465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459193795919418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444418668746948</t>
   </si>
   <si>
     <t xml:space="preserve">0.451806217432022</t>
@@ -2825,34 +2825,34 @@
     <t xml:space="preserve">0.485633373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478245824575424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49185448884964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508573591709137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467358946800232</t>
+    <t xml:space="preserve">0.478245854377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491854459047318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508573651313782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467358976602554</t>
   </si>
   <si>
     <t xml:space="preserve">0.455694437026978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463859558105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489132761955261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478634655475616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476301729679108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48252284526825</t>
+    <t xml:space="preserve">0.463859587907791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489132732152939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478634625673294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476301789283752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.482522875070572</t>
   </si>
   <si>
     <t xml:space="preserve">0.477857023477554</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">0.473580062389374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474357694387436</t>
+    <t xml:space="preserve">0.474357664585114</t>
   </si>
   <si>
     <t xml:space="preserve">0.46036022901535</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">0.464637249708176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463470757007599</t>
+    <t xml:space="preserve">0.463470786809921</t>
   </si>
   <si>
     <t xml:space="preserve">0.458027333021164</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">0.446751624345779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438975244760513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.436253517866135</t>
+    <t xml:space="preserve">0.438975214958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.436253547668457</t>
   </si>
   <si>
     <t xml:space="preserve">0.432754188776016</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">0.374820321798325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360200762748718</t>
+    <t xml:space="preserve">0.360200792551041</t>
   </si>
   <si>
     <t xml:space="preserve">0.355068385601044</t>
@@ -2933,22 +2933,22 @@
     <t xml:space="preserve">0.337649345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345892280340195</t>
+    <t xml:space="preserve">0.345892250537872</t>
   </si>
   <si>
     <t xml:space="preserve">0.331894844770432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346669912338257</t>
+    <t xml:space="preserve">0.346669942140579</t>
   </si>
   <si>
     <t xml:space="preserve">0.369376868009567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373576104640961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388040125370026</t>
+    <t xml:space="preserve">0.373576074838638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388040155172348</t>
   </si>
   <si>
     <t xml:space="preserve">0.396594107151031</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">0.36035630106926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34184855222702</t>
+    <t xml:space="preserve">0.341848582029343</t>
   </si>
   <si>
     <t xml:space="preserve">0.323962956666946</t>
@@ -2981,10 +2981,10 @@
     <t xml:space="preserve">0.337182760238647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359423130750656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351802289485931</t>
+    <t xml:space="preserve">0.359423100948334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351802319288254</t>
   </si>
   <si>
     <t xml:space="preserve">0.386484861373901</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">0.358645498752594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336405128240585</t>
+    <t xml:space="preserve">0.336405098438263</t>
   </si>
   <si>
     <t xml:space="preserve">0.341693043708801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356001526117325</t>
+    <t xml:space="preserve">0.356001555919647</t>
   </si>
   <si>
     <t xml:space="preserve">0.35413521528244</t>
@@ -3029,28 +3029,28 @@
     <t xml:space="preserve">0.390373021364212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417979091405869</t>
+    <t xml:space="preserve">0.417979121208191</t>
   </si>
   <si>
     <t xml:space="preserve">0.421478450298309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445585161447525</t>
+    <t xml:space="preserve">0.445585191249847</t>
   </si>
   <si>
     <t xml:space="preserve">0.437419980764389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440141677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462693154811859</t>
+    <t xml:space="preserve">0.440141707658768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462693125009537</t>
   </si>
   <si>
     <t xml:space="preserve">0.461137861013412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437031120061874</t>
+    <t xml:space="preserve">0.437031149864197</t>
   </si>
   <si>
     <t xml:space="preserve">0.419145524501801</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">0.45025098323822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446362763643265</t>
+    <t xml:space="preserve">0.446362793445587</t>
   </si>
   <si>
     <t xml:space="preserve">0.454139143228531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452972680330276</t>
+    <t xml:space="preserve">0.452972650527954</t>
   </si>
   <si>
     <t xml:space="preserve">0.457638502120972</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">0.472024768590927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448306888341904</t>
+    <t xml:space="preserve">0.448306858539581</t>
   </si>
   <si>
     <t xml:space="preserve">0.452583879232407</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">0.457249671220779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465803682804108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.461526721715927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462304323911667</t>
+    <t xml:space="preserve">0.465803653001785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.461526691913605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462304294109344</t>
   </si>
   <si>
     <t xml:space="preserve">0.472413599491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49613144993782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500408470630646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494187384843826</t>
+    <t xml:space="preserve">0.496131479740143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500408411026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494187414646149</t>
   </si>
   <si>
     <t xml:space="preserve">0.48213404417038</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">0.465414851903915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479801118373871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47046947479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.449084490537643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419923216104507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.432365328073502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430421262979507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431976497173309</t>
+    <t xml:space="preserve">0.479801088571548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.470469504594803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449084520339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419923186302185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.432365357875824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430421233177185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431976526975632</t>
   </si>
   <si>
     <t xml:space="preserve">0.421867281198502</t>
@@ -3146,19 +3146,19 @@
     <t xml:space="preserve">0.43119889497757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440919309854507</t>
+    <t xml:space="preserve">0.44091933965683</t>
   </si>
   <si>
     <t xml:space="preserve">0.442863434553146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466581344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566896319389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521404564380646</t>
+    <t xml:space="preserve">0.46658131480217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566896259784698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521404623985291</t>
   </si>
   <si>
     <t xml:space="preserve">0.530347406864166</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">0.500797271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494576156139374</t>
+    <t xml:space="preserve">0.494576185941696</t>
   </si>
   <si>
     <t xml:space="preserve">0.507795989513397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507018387317657</t>
+    <t xml:space="preserve">0.507018327713013</t>
   </si>
   <si>
     <t xml:space="preserve">0.504685461521149</t>
@@ -3209,40 +3209,40 @@
     <t xml:space="preserve">0.524126350879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513239502906799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50274133682251</t>
+    <t xml:space="preserve">0.513239443302155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502741396427155</t>
   </si>
   <si>
     <t xml:space="preserve">0.49652025103569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487577468156815</t>
+    <t xml:space="preserve">0.487577438354492</t>
   </si>
   <si>
     <t xml:space="preserve">0.480578750371933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493409782648087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485244572162628</t>
+    <t xml:space="preserve">0.493409723043442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485244601964951</t>
   </si>
   <si>
     <t xml:space="preserve">0.487188667058945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449473321437836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448695719242096</t>
+    <t xml:space="preserve">0.449473351240158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448695689439774</t>
   </si>
   <si>
     <t xml:space="preserve">0.44776251912117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446673840284348</t>
+    <t xml:space="preserve">0.44667387008667</t>
   </si>
   <si>
     <t xml:space="preserve">0.442630112171173</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">0.459427058696747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451184123754501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460982352495193</t>
+    <t xml:space="preserve">0.451184153556824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460982322692871</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096727132797</t>
@@ -3266,31 +3266,31 @@
     <t xml:space="preserve">0.449006766080856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450406521558762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456938624382019</t>
+    <t xml:space="preserve">0.450406551361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456938654184341</t>
   </si>
   <si>
     <t xml:space="preserve">0.442474603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461759984493256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446829348802567</t>
+    <t xml:space="preserve">0.461760014295578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446829319000244</t>
   </si>
   <si>
     <t xml:space="preserve">0.451961755752563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464714974164963</t>
+    <t xml:space="preserve">0.46471494436264</t>
   </si>
   <si>
     <t xml:space="preserve">0.458338350057602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453517019748688</t>
+    <t xml:space="preserve">0.453516989946365</t>
   </si>
   <si>
     <t xml:space="preserve">0.454916775226593</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">0.459115982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479178994894028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.495353817939758</t>
+    <t xml:space="preserve">0.479178965091705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.495353847742081</t>
   </si>
   <si>
     <t xml:space="preserve">0.527236878871918</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">0.526303708553314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534546673297882</t>
+    <t xml:space="preserve">0.534546613693237</t>
   </si>
   <si>
     <t xml:space="preserve">0.545589089393616</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">0.548077523708344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553209900856018</t>
+    <t xml:space="preserve">0.553209841251373</t>
   </si>
   <si>
     <t xml:space="preserve">0.57031786441803</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">0.57684999704361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60640013217926</t>
+    <t xml:space="preserve">0.606400191783905</t>
   </si>
   <si>
     <t xml:space="preserve">0.591003000736237</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">0.668610990047455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671566009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675143122673035</t>
+    <t xml:space="preserve">0.671566069126129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675143182277679</t>
   </si>
   <si>
     <t xml:space="preserve">0.671099424362183</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">0.655391216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649325668811798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650258839130402</t>
+    <t xml:space="preserve">0.649325609207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650258779525757</t>
   </si>
   <si>
     <t xml:space="preserve">0.629884779453278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613709986209869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590380907058716</t>
+    <t xml:space="preserve">0.613709926605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590380847454071</t>
   </si>
   <si>
     <t xml:space="preserve">0.586959302425385</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">0.597535133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58182692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552276790142059</t>
+    <t xml:space="preserve">0.581826865673065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552276730537415</t>
   </si>
   <si>
     <t xml:space="preserve">0.556009352207184</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">0.524592936038971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511839747428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500330686569214</t>
+    <t xml:space="preserve">0.511839687824249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500330746173859</t>
   </si>
   <si>
     <t xml:space="preserve">0.508729159832001</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">0.508107006549835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504529893398285</t>
+    <t xml:space="preserve">0.50452995300293</t>
   </si>
   <si>
     <t xml:space="preserve">0.507951498031616</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">0.506551802158356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497064620256424</t>
+    <t xml:space="preserve">0.497064590454102</t>
   </si>
   <si>
     <t xml:space="preserve">0.520860254764557</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">0.505774140357971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503285706043243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511995255947113</t>
+    <t xml:space="preserve">0.503285646438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511995196342468</t>
   </si>
   <si>
     <t xml:space="preserve">0.51246178150177</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">0.510595500469208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.52117133140564</t>
+    <t xml:space="preserve">0.521171271800995</t>
   </si>
   <si>
     <t xml:space="preserve">0.509817838668823</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">0.505463063716888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51743870973587</t>
+    <t xml:space="preserve">0.517438650131226</t>
   </si>
   <si>
     <t xml:space="preserve">0.517283141613007</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">0.500486195087433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494109630584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5203937292099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525215089321136</t>
+    <t xml:space="preserve">0.494109600782394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.520393669605255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525215029716492</t>
   </si>
   <si>
     <t xml:space="preserve">0.516038954257965</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">0.54496693611145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551965653896332</t>
+    <t xml:space="preserve">0.551965713500977</t>
   </si>
   <si>
     <t xml:space="preserve">0.541545391082764</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">0.549166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53781270980835</t>
+    <t xml:space="preserve">0.537812769412994</t>
   </si>
   <si>
     <t xml:space="preserve">0.553831994533539</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">0.567984998226166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583071112632751</t>
+    <t xml:space="preserve">0.583071172237396</t>
   </si>
   <si>
     <t xml:space="preserve">0.623663723468781</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">0.609821796417236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623352587223053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656168818473816</t>
+    <t xml:space="preserve">0.623352646827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656168878078461</t>
   </si>
   <si>
     <t xml:space="preserve">0.669388651847839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633928418159485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573583960533142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583848714828491</t>
+    <t xml:space="preserve">0.63392847776413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573584020137787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583848774433136</t>
   </si>
   <si>
     <t xml:space="preserve">0.589447736740112</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">0.552121222019196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557098150253296</t>
+    <t xml:space="preserve">0.557098090648651</t>
   </si>
   <si>
     <t xml:space="preserve">0.563008069992065</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">0.542167484760284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523659706115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522726595401764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502663612365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492865413427353</t>
+    <t xml:space="preserve">0.523659765720367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522726655006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502663552761078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492865383625031</t>
   </si>
   <si>
     <t xml:space="preserve">0.499553054571152</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">0.4955093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48975482583046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507484972476959</t>
+    <t xml:space="preserve">0.489754885435104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507484912872314</t>
   </si>
   <si>
     <t xml:space="preserve">0.523348689079285</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">0.52474844455719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513550460338593</t>
+    <t xml:space="preserve">0.513550519943237</t>
   </si>
   <si>
     <t xml:space="preserve">0.493643045425415</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">0.461293399333954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464092880487442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435786962509155</t>
+    <t xml:space="preserve">0.464092910289764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435786932706833</t>
   </si>
   <si>
     <t xml:space="preserve">0.432054281234741</t>
@@ -3683,19 +3683,19 @@
     <t xml:space="preserve">0.417745798826218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450095444917679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452739417552948</t>
+    <t xml:space="preserve">0.450095474720001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452739387750626</t>
   </si>
   <si>
     <t xml:space="preserve">0.43843087553978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435475885868073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430654525756836</t>
+    <t xml:space="preserve">0.43547585606575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430654555559158</t>
   </si>
   <si>
     <t xml:space="preserve">0.42536661028862</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">0.41525736451149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427232950925827</t>
+    <t xml:space="preserve">0.427232921123505</t>
   </si>
   <si>
     <t xml:space="preserve">0.424277931451797</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">0.412457853555679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422878175973892</t>
+    <t xml:space="preserve">0.422878205776215</t>
   </si>
   <si>
     <t xml:space="preserve">0.422722697257996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434542715549469</t>
+    <t xml:space="preserve">0.434542685747147</t>
   </si>
   <si>
     <t xml:space="preserve">0.424900054931641</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">0.43407616019249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436564594507217</t>
+    <t xml:space="preserve">0.436564564704895</t>
   </si>
   <si>
     <t xml:space="preserve">0.440608292818069</t>
@@ -3743,37 +3743,37 @@
     <t xml:space="preserve">0.443252235651016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462071001529694</t>
+    <t xml:space="preserve">0.462071031332016</t>
   </si>
   <si>
     <t xml:space="preserve">0.456005454063416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45647206902504</t>
+    <t xml:space="preserve">0.456472039222717</t>
   </si>
   <si>
     <t xml:space="preserve">0.446207284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453205943107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448851227760315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430032432079315</t>
+    <t xml:space="preserve">0.453205972909927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448851197957993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430032402276993</t>
   </si>
   <si>
     <t xml:space="preserve">0.443563312292099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457405209541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452117264270782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427543967962265</t>
+    <t xml:space="preserve">0.457405179738998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452117294073105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.427543997764587</t>
   </si>
   <si>
     <t xml:space="preserve">0.423344761133194</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">0.472802400588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466270238161087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480423212051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455227822065353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.441696971654892</t>
+    <t xml:space="preserve">0.466270297765732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480423241853714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455227792263031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441697001457214</t>
   </si>
   <si>
     <t xml:space="preserve">0.386173814535141</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">0.42863267660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40872523188591</t>
+    <t xml:space="preserve">0.408725261688232</t>
   </si>
   <si>
     <t xml:space="preserve">0.411058127880096</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">0.436098009347916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451495200395584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478401392698288</t>
+    <t xml:space="preserve">0.451495170593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478401362895966</t>
   </si>
   <si>
     <t xml:space="preserve">0.468914210796356</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">0.467203408479691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513083875179291</t>
+    <t xml:space="preserve">0.513083934783936</t>
   </si>
   <si>
     <t xml:space="preserve">0.515883386135101</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">0.54792195558548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542634010314941</t>
+    <t xml:space="preserve">0.542634069919586</t>
   </si>
   <si>
     <t xml:space="preserve">0.537346124649048</t>
@@ -3863,22 +3863,22 @@
     <t xml:space="preserve">0.551810145378113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572028696537018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619775474071503</t>
+    <t xml:space="preserve">0.572028636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619775533676147</t>
   </si>
   <si>
     <t xml:space="preserve">0.64403772354126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671877145767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705626487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705937564373016</t>
+    <t xml:space="preserve">0.671877086162567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705626428127289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705937504768372</t>
   </si>
   <si>
     <t xml:space="preserve">0.72786682844162</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">0.658968329429626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.639216363430023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662545502185822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682452976703644</t>
+    <t xml:space="preserve">0.639216423034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662545442581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682452917098999</t>
   </si>
   <si>
     <t xml:space="preserve">0.693650901317596</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">0.755084097385406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821183145046234</t>
+    <t xml:space="preserve">0.821183085441589</t>
   </si>
   <si>
     <t xml:space="preserve">0.744352698326111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771258890628815</t>
+    <t xml:space="preserve">0.771258950233459</t>
   </si>
   <si>
     <t xml:space="preserve">0.776546835899353</t>
@@ -3929,10 +3929,10 @@
     <t xml:space="preserve">0.765659928321838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835958182811737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880672216415405</t>
+    <t xml:space="preserve">0.835958242416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88067227602005</t>
   </si>
   <si>
     <t xml:space="preserve">0.936661899089813</t>
@@ -3944,22 +3944,22 @@
     <t xml:space="preserve">0.886893272399902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898168981075287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89155912399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918776392936707</t>
+    <t xml:space="preserve">0.898169040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891559064388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918776273727417</t>
   </si>
   <si>
     <t xml:space="preserve">0.897002577781677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925775170326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989152312278748</t>
+    <t xml:space="preserve">0.925775110721588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989152371883392</t>
   </si>
   <si>
     <t xml:space="preserve">0.989930033683777</t>
@@ -3986,10 +3986,10 @@
     <t xml:space="preserve">1.01442551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970877885818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976321339607239</t>
+    <t xml:space="preserve">0.970877945423126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976321399211884</t>
   </si>
   <si>
     <t xml:space="preserve">0.960768640041351</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">0.977487802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0241459608078</t>
+    <t xml:space="preserve">1.02414608001709</t>
   </si>
   <si>
     <t xml:space="preserve">1.11046350002289</t>
@@ -4028,19 +4028,19 @@
     <t xml:space="preserve">1.00859332084656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932598114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896224915981293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879116892814636</t>
+    <t xml:space="preserve">0.975932538509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896224975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879116952419281</t>
   </si>
   <si>
     <t xml:space="preserve">0.838291049003601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879505813121796</t>
+    <t xml:space="preserve">0.879505753517151</t>
   </si>
   <si>
     <t xml:space="preserve">0.903612434864044</t>
@@ -4055,37 +4055,37 @@
     <t xml:space="preserve">0.897780239582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919942855834961</t>
+    <t xml:space="preserve">0.919942796230316</t>
   </si>
   <si>
     <t xml:space="preserve">0.969711542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988763570785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961546361446381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04319798946381</t>
+    <t xml:space="preserve">0.988763511180878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961546301841736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0431981086731</t>
   </si>
   <si>
     <t xml:space="preserve">0.945604801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870951771736145</t>
+    <t xml:space="preserve">0.8709517121315</t>
   </si>
   <si>
     <t xml:space="preserve">0.827793002128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869785308837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839846432209015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845289766788483</t>
+    <t xml:space="preserve">0.869785368442535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83984637260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845289826393127</t>
   </si>
   <si>
     <t xml:space="preserve">0.862397789955139</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">0.908278286457062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924608647823334</t>
+    <t xml:space="preserve">0.924608588218689</t>
   </si>
   <si>
     <t xml:space="preserve">1.00314974784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05097448825836</t>
+    <t xml:space="preserve">1.05097436904907</t>
   </si>
   <si>
     <t xml:space="preserve">1.03658807277679</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">1.01831364631653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940938949584961</t>
+    <t xml:space="preserve">0.940939009189606</t>
   </si>
   <si>
     <t xml:space="preserve">0.949881851673126</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">0.854232609272003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874062240123749</t>
+    <t xml:space="preserve">0.874062299728394</t>
   </si>
   <si>
     <t xml:space="preserve">0.878339350223541</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">0.76690411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770325779914856</t>
+    <t xml:space="preserve">0.770325720310211</t>
   </si>
   <si>
     <t xml:space="preserve">0.770481288433075</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">0.78852242231369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779579699039459</t>
+    <t xml:space="preserve">0.779579639434814</t>
   </si>
   <si>
     <t xml:space="preserve">0.724911868572235</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">0.737353980541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.758194625377655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814962029457092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84956681728363</t>
+    <t xml:space="preserve">0.7581946849823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814961969852448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849566757678986</t>
   </si>
   <si>
     <t xml:space="preserve">0.807185649871826</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">0.797854006290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820016622543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81923907995224</t>
+    <t xml:space="preserve">0.82001668214798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819239020347595</t>
   </si>
   <si>
     <t xml:space="preserve">0.844901025295258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854621410369873</t>
+    <t xml:space="preserve">0.854621469974518</t>
   </si>
   <si>
     <t xml:space="preserve">0.865508377552032</t>
@@ -4229,16 +4229,16 @@
     <t xml:space="preserve">0.944049537181854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947548925876617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956102907657623</t>
+    <t xml:space="preserve">0.947548866271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956102848052979</t>
   </si>
   <si>
     <t xml:space="preserve">0.935106694698334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967767417430878</t>
+    <t xml:space="preserve">0.967767477035522</t>
   </si>
   <si>
     <t xml:space="preserve">0.926163911819458</t>
@@ -4259,25 +4259,25 @@
     <t xml:space="preserve">0.998872816562653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954158842563629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937439620494843</t>
+    <t xml:space="preserve">0.954158782958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937439560890198</t>
   </si>
   <si>
     <t xml:space="preserve">0.89194792509079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882616281509399</t>
+    <t xml:space="preserve">0.882616341114044</t>
   </si>
   <si>
     <t xml:space="preserve">0.858509600162506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836347043514252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815350770950317</t>
+    <t xml:space="preserve">0.836346983909607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815350830554962</t>
   </si>
   <si>
     <t xml:space="preserve">0.832070052623749</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">0.824682474136353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829348206520081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816906094551086</t>
+    <t xml:space="preserve">0.829348266124725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816906154155731</t>
   </si>
   <si>
     <t xml:space="preserve">0.849955677986145</t>
@@ -4298,13 +4298,13 @@
     <t xml:space="preserve">0.851510882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872507035732269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868618905544281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897391438484192</t>
+    <t xml:space="preserve">0.872507095336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868618845939636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897391378879547</t>
   </si>
   <si>
     <t xml:space="preserve">0.893503248691559</t>
@@ -4316,22 +4316,22 @@
     <t xml:space="preserve">0.926552653312683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912944138050079</t>
+    <t xml:space="preserve">0.912944078445435</t>
   </si>
   <si>
     <t xml:space="preserve">0.937828421592712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952214598655701</t>
+    <t xml:space="preserve">0.952214658260345</t>
   </si>
   <si>
     <t xml:space="preserve">0.971655607223511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988374769687653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0556401014328</t>
+    <t xml:space="preserve">0.988374829292297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05564022064209</t>
   </si>
   <si>
     <t xml:space="preserve">1.12290573120117</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">1.18006193637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19211530685425</t>
+    <t xml:space="preserve">1.19211518764496</t>
   </si>
   <si>
     <t xml:space="preserve">1.18667185306549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20494627952576</t>
+    <t xml:space="preserve">1.20494616031647</t>
   </si>
   <si>
     <t xml:space="preserve">1.15128934383392</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.23799574375153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698682785034</t>
+    <t xml:space="preserve">1.28698670864105</t>
   </si>
   <si>
     <t xml:space="preserve">1.14001369476318</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">1.12873804569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15362226963043</t>
+    <t xml:space="preserve">1.15362238883972</t>
   </si>
   <si>
     <t xml:space="preserve">1.16684210300446</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">1.16606450080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15245592594147</t>
+    <t xml:space="preserve">1.15245580673218</t>
   </si>
   <si>
     <t xml:space="preserve">1.10463130474091</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">1.10929703712463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0960773229599</t>
+    <t xml:space="preserve">1.09607720375061</t>
   </si>
   <si>
     <t xml:space="preserve">1.03853225708008</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">1.09491086006165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15401113033295</t>
+    <t xml:space="preserve">1.15401101112366</t>
   </si>
   <si>
     <t xml:space="preserve">1.08985614776611</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">1.08052456378937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02686774730682</t>
+    <t xml:space="preserve">1.02686762809753</t>
   </si>
   <si>
     <t xml:space="preserve">1.02064669132233</t>
@@ -4469,28 +4469,28 @@
     <t xml:space="preserve">1.02803421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00353860855103</t>
+    <t xml:space="preserve">1.00353872776031</t>
   </si>
   <si>
     <t xml:space="preserve">0.99459582567215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986819565296173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973210871219635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956491649150848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966212093830109</t>
+    <t xml:space="preserve">0.986819446086884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97321081161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956491708755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966212153434753</t>
   </si>
   <si>
     <t xml:space="preserve">0.953769981861115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940161347389221</t>
+    <t xml:space="preserve">0.940161287784576</t>
   </si>
   <si>
     <t xml:space="preserve">0.933551430702209</t>
@@ -4502,31 +4502,31 @@
     <t xml:space="preserve">0.912555277347565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880283355712891</t>
+    <t xml:space="preserve">0.880283415317535</t>
   </si>
   <si>
     <t xml:space="preserve">0.853066146373749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892336785793304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916832268238068</t>
+    <t xml:space="preserve">0.89233672618866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916832327842712</t>
   </si>
   <si>
     <t xml:space="preserve">0.889226198196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933162689208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933940172195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980987250804901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960379898548126</t>
+    <t xml:space="preserve">0.93316262960434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933940291404724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980987191200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960379838943481</t>
   </si>
   <si>
     <t xml:space="preserve">0.98448657989502</t>
@@ -5229,6 +5229,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.62300002574921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62000000476837</t>
   </si>
 </sst>
 </file>
@@ -61600,7 +61603,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6495833333</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>1731629</v>
@@ -61621,6 +61624,32 @@
         <v>1738</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6495486111</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>2086920</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>1.62650001049042</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>1.61899995803833</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>1.62300002574921</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>1.62000000476837</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="1741">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170564651489</t>
+    <t xml:space="preserve">1.00170576572418</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">0.982317805290222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985255539417267</t>
+    <t xml:space="preserve">0.985255479812622</t>
   </si>
   <si>
     <t xml:space="preserve">0.960579931735992</t>
@@ -56,16 +56,16 @@
     <t xml:space="preserve">0.964105069637299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993480503559113</t>
+    <t xml:space="preserve">0.993480563163757</t>
   </si>
   <si>
     <t xml:space="preserve">0.992892980575562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04576909542084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04165625572205</t>
+    <t xml:space="preserve">1.04576897621155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04165637493134</t>
   </si>
   <si>
     <t xml:space="preserve">1.02814364433289</t>
@@ -74,34 +74,34 @@
     <t xml:space="preserve">1.03695631027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05693173408508</t>
+    <t xml:space="preserve">1.05693161487579</t>
   </si>
   <si>
     <t xml:space="preserve">1.02579367160797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07749450206757</t>
+    <t xml:space="preserve">1.07749462127686</t>
   </si>
   <si>
     <t xml:space="preserve">1.08101963996887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13565802574158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14564597606659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14682078361511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11509525775909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12802040576935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1403580904007</t>
+    <t xml:space="preserve">1.13565814495087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1456458568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14682066440582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1150951385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12802028656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14035820960999</t>
   </si>
   <si>
     <t xml:space="preserve">1.11098265647888</t>
@@ -110,46 +110,46 @@
     <t xml:space="preserve">1.09100735187531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02755606174469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957642316818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853652894496918</t>
+    <t xml:space="preserve">1.02755618095398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957642376422882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853652954101562</t>
   </si>
   <si>
     <t xml:space="preserve">0.829565048217773</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840140223503113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810764729976654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816639840602875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873040795326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863640606403351</t>
+    <t xml:space="preserve">0.840140163898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810764670372009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81663978099823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873040676116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863640666007996</t>
   </si>
   <si>
     <t xml:space="preserve">0.872453391551971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887728691101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881853640079498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86070317029953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842490255832672</t>
+    <t xml:space="preserve">0.887728631496429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881853580474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860703229904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842490315437317</t>
   </si>
   <si>
     <t xml:space="preserve">0.850127995014191</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904178857803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916516661643982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895366370677948</t>
+    <t xml:space="preserve">0.904178977012634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916516602039337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895366311073303</t>
   </si>
   <si>
     <t xml:space="preserve">0.851890504360199</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">0.776101589202881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76493889093399</t>
+    <t xml:space="preserve">0.764938950538635</t>
   </si>
   <si>
     <t xml:space="preserve">0.757888734340668</t>
@@ -185,25 +185,25 @@
     <t xml:space="preserve">0.831915080547333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820164978504181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817814826965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828390121459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.833677709102631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823102355003357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817227303981781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827215015888214</t>
+    <t xml:space="preserve">0.820164859294891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817814886569977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828390002250671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833677649497986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823102474212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817227363586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827215075492859</t>
   </si>
   <si>
     <t xml:space="preserve">0.828977525234222</t>
@@ -212,19 +212,19 @@
     <t xml:space="preserve">0.843077838420868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865403234958649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837790191173553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830740094184875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84660279750824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848952949047089</t>
+    <t xml:space="preserve">0.865403294563293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837790250778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830740034580231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846602857112885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848953008651733</t>
   </si>
   <si>
     <t xml:space="preserve">0.860115587711334</t>
@@ -233,31 +233,31 @@
     <t xml:space="preserve">0.846015393733978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834265172481537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82251501083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845427870750427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868340730667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92062920331955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915929138660431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941486358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893016278743744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553585529327</t>
+    <t xml:space="preserve">0.834265112876892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822514951229095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845427811145782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868340790271759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920629143714905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915929198265076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941367149353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893016159534454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553525924683</t>
   </si>
   <si>
     <t xml:space="preserve">0.866578221321106</t>
@@ -266,49 +266,49 @@
     <t xml:space="preserve">0.869515776634216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882440984249115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864228188991547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835440099239349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826040148735046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830152630805969</t>
+    <t xml:space="preserve">0.88244104385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864228129386902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835440158843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826039969921112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830152571201324</t>
   </si>
   <si>
     <t xml:space="preserve">0.831327557563782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9071164727211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924741804599762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945304572582245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937079608440399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92885422706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961769223213196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98744261264801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994025528430939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03483998775482</t>
+    <t xml:space="preserve">0.907116413116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924741744995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945304691791534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937079548835754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928854405879974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961769163608551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987442553043365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994025647640228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03483986854553</t>
   </si>
   <si>
     <t xml:space="preserve">1.04010629653931</t>
@@ -323,31 +323,31 @@
     <t xml:space="preserve">1.05327212810516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05261385440826</t>
+    <t xml:space="preserve">1.05261397361755</t>
   </si>
   <si>
     <t xml:space="preserve">1.05458867549896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05393052101135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07367944717407</t>
+    <t xml:space="preserve">1.05393040180206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07367932796478</t>
   </si>
   <si>
     <t xml:space="preserve">1.11646854877472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09276986122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03878974914551</t>
+    <t xml:space="preserve">1.09276974201202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03878951072693</t>
   </si>
   <si>
     <t xml:space="preserve">1.02299058437347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982834577560425</t>
+    <t xml:space="preserve">0.98283463716507</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">0.993367314338684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07894563674927</t>
+    <t xml:space="preserve">1.07894575595856</t>
   </si>
   <si>
     <t xml:space="preserve">1.07565402984619</t>
@@ -365,49 +365,49 @@
     <t xml:space="preserve">1.07302093505859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10132777690887</t>
+    <t xml:space="preserve">1.10132765769958</t>
   </si>
   <si>
     <t xml:space="preserve">1.015749335289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959136009216309</t>
+    <t xml:space="preserve">0.959136068820953</t>
   </si>
   <si>
     <t xml:space="preserve">0.977568209171295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972301840782166</t>
+    <t xml:space="preserve">0.97230190038681</t>
   </si>
   <si>
     <t xml:space="preserve">1.02628207206726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04668927192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02035737037659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961110770702362</t>
+    <t xml:space="preserve">1.04668915271759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02035748958588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961110830307007</t>
   </si>
   <si>
     <t xml:space="preserve">0.938728749752045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936095595359802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956502616405487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951894700527191</t>
+    <t xml:space="preserve">0.936095714569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956502735614777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951894760131836</t>
   </si>
   <si>
     <t xml:space="preserve">0.936753928661346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946628332138062</t>
+    <t xml:space="preserve">0.946628391742706</t>
   </si>
   <si>
     <t xml:space="preserve">0.939387083053589</t>
@@ -419,37 +419,37 @@
     <t xml:space="preserve">0.948603212833405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974276721477509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954527854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997975289821625</t>
+    <t xml:space="preserve">0.974276781082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954527974128723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997975409030914</t>
   </si>
   <si>
     <t xml:space="preserve">0.9235879778862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836034834384918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809703052043915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832085072994232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851833760738373</t>
+    <t xml:space="preserve">0.836034774780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80970299243927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832085013389587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851833879947662</t>
   </si>
   <si>
     <t xml:space="preserve">0.88869833946228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884090304374695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871582686901093</t>
+    <t xml:space="preserve">0.88409036397934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871582627296448</t>
   </si>
   <si>
     <t xml:space="preserve">0.873557567596436</t>
@@ -461,136 +461,136 @@
     <t xml:space="preserve">0.886723518371582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.890673220157623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870924413204193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866974651813507</t>
+    <t xml:space="preserve">0.890673339366913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870924293994904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866974711418152</t>
   </si>
   <si>
     <t xml:space="preserve">0.884748637676239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883431971073151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87421590089798</t>
+    <t xml:space="preserve">0.883432030677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874215841293335</t>
   </si>
   <si>
     <t xml:space="preserve">0.870266139507294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864341497421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881457149982452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882773637771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887381792068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880140483379364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613216400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934779047966003</t>
+    <t xml:space="preserve">0.86434143781662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881457209587097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882773756980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887381851673126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880140602588654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613097190857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934779107570648</t>
   </si>
   <si>
     <t xml:space="preserve">0.947944939136505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947286665439606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932145833969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902522623538971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281374454498</t>
+    <t xml:space="preserve">0.947286605834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932145893573761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902522504329681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281314849854</t>
   </si>
   <si>
     <t xml:space="preserve">0.903180837631226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917005062103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940045297145844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934120833873749</t>
+    <t xml:space="preserve">0.917005002498627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940045416355133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93412059545517</t>
   </si>
   <si>
     <t xml:space="preserve">0.911080360412598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912397027015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913713574409485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931487560272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918980062007904</t>
+    <t xml:space="preserve">0.912396967411041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91371363401413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931487500667572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918980002403259</t>
   </si>
   <si>
     <t xml:space="preserve">0.909763753414154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926879465579987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920296549797058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93807053565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964402377605438</t>
+    <t xml:space="preserve">0.926879525184631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920296609401703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9380704164505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964402258396149</t>
   </si>
   <si>
     <t xml:space="preserve">0.970326900482178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988759160041809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984151124954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992709040641785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04142284393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03549814224243</t>
+    <t xml:space="preserve">0.988759279251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984151184558868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99270886182785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0414229631424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03549802303314</t>
   </si>
   <si>
     <t xml:space="preserve">1.03154838085175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05919671058655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03813123703003</t>
+    <t xml:space="preserve">1.05919682979584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03813135623932</t>
   </si>
   <si>
     <t xml:space="preserve">1.03023183345795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02167391777039</t>
+    <t xml:space="preserve">1.02167403697968</t>
   </si>
   <si>
     <t xml:space="preserve">1.03418147563934</t>
@@ -608,37 +608,37 @@
     <t xml:space="preserve">1.01443266868591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09211146831512</t>
+    <t xml:space="preserve">1.09211158752441</t>
   </si>
   <si>
     <t xml:space="preserve">1.08618688583374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09013664722443</t>
+    <t xml:space="preserve">1.09013676643372</t>
   </si>
   <si>
     <t xml:space="preserve">1.0993527173996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08750343322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07960391044617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05788016319275</t>
+    <t xml:space="preserve">1.08750355243683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07960402965546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05788028240204</t>
   </si>
   <si>
     <t xml:space="preserve">1.06380486488342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13819217681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11120200157166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.123051404953</t>
+    <t xml:space="preserve">1.13819229602814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11120223999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12305128574371</t>
   </si>
   <si>
     <t xml:space="preserve">1.08421206474304</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">1.09145331382751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.096719622612</t>
+    <t xml:space="preserve">1.09671974182129</t>
   </si>
   <si>
     <t xml:space="preserve">1.11778509616852</t>
@@ -659,88 +659,88 @@
     <t xml:space="preserve">1.13095092773438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11186051368713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12568461894989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13226747512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13885056972504</t>
+    <t xml:space="preserve">1.11186039447784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1256844997406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13226759433746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13885045051575</t>
   </si>
   <si>
     <t xml:space="preserve">1.13621723651886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14543354511261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14740824699402</t>
+    <t xml:space="preserve">1.14543330669403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14740836620331</t>
   </si>
   <si>
     <t xml:space="preserve">1.15596616268158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14016711711884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14082539081573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11910164356232</t>
+    <t xml:space="preserve">1.14016699790955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14082551002502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11910176277161</t>
   </si>
   <si>
     <t xml:space="preserve">1.1243679523468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12831783294678</t>
+    <t xml:space="preserve">1.12831771373749</t>
   </si>
   <si>
     <t xml:space="preserve">1.09079492092133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09737801551819</t>
+    <t xml:space="preserve">1.0973778963089</t>
   </si>
   <si>
     <t xml:space="preserve">1.08684527873993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0190407037735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02364885807037</t>
+    <t xml:space="preserve">1.01904082298279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02364873886108</t>
   </si>
   <si>
     <t xml:space="preserve">1.02496540546417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02562367916107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988101065158844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940703749656677</t>
+    <t xml:space="preserve">1.02562391757965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988100945949554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940703630447388</t>
   </si>
   <si>
     <t xml:space="preserve">0.933462381362915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935437381267548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953869581222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999950230121613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00521647930145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0170658826828</t>
+    <t xml:space="preserve">0.935437440872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953869640827179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999950289726257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00521659851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01706576347351</t>
   </si>
   <si>
     <t xml:space="preserve">1.00916635990143</t>
@@ -758,7 +758,7 @@
     <t xml:space="preserve">1.13424253463745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10396099090576</t>
+    <t xml:space="preserve">1.10396087169647</t>
   </si>
   <si>
     <t xml:space="preserve">1.10066938400269</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">1.0947448015213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12041831016541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12765944004059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12634289264679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1223931312561</t>
+    <t xml:space="preserve">1.12041819095612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12765955924988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12634301185608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12239325046539</t>
   </si>
   <si>
     <t xml:space="preserve">1.11975991725922</t>
@@ -785,37 +785,37 @@
     <t xml:space="preserve">1.13490068912506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16715717315674</t>
+    <t xml:space="preserve">1.16715705394745</t>
   </si>
   <si>
     <t xml:space="preserve">1.16913211345673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1803230047226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1717654466629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16584074497223</t>
+    <t xml:space="preserve">1.18032312393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17176520824432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16584062576294</t>
   </si>
   <si>
     <t xml:space="preserve">1.17374002933502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17900657653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18229806423187</t>
+    <t xml:space="preserve">1.1790064573288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18229794502258</t>
   </si>
   <si>
     <t xml:space="preserve">1.17308187484741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19941365718842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21652936935425</t>
+    <t xml:space="preserve">1.19941353797913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21652925014496</t>
   </si>
   <si>
     <t xml:space="preserve">1.21389603614807</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">1.26853466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24417757987976</t>
+    <t xml:space="preserve">1.24417781829834</t>
   </si>
   <si>
     <t xml:space="preserve">1.26260995864868</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">1.27182614803314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28696691989899</t>
+    <t xml:space="preserve">1.28696703910828</t>
   </si>
   <si>
     <t xml:space="preserve">1.3093489408493</t>
@@ -887,25 +887,25 @@
     <t xml:space="preserve">1.35872101783752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3916357755661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40875160694122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4772139787674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48116385936737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49169683456421</t>
+    <t xml:space="preserve">1.39163589477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40875148773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47721421718597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48116397857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49169671535492</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169659614563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49031937122345</t>
+    <t xml:space="preserve">1.49031925201416</t>
   </si>
   <si>
     <t xml:space="preserve">1.48894190788269</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">1.47379088401794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39803516864777</t>
+    <t xml:space="preserve">1.39803528785706</t>
   </si>
   <si>
     <t xml:space="preserve">1.38701617717743</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">1.48343241214752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44899809360504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43522441387177</t>
+    <t xml:space="preserve">1.44899821281433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43522429466248</t>
   </si>
   <si>
     <t xml:space="preserve">1.43246948719025</t>
@@ -938,31 +938,31 @@
     <t xml:space="preserve">1.45313012599945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51235747337341</t>
+    <t xml:space="preserve">1.51235723495483</t>
   </si>
   <si>
     <t xml:space="preserve">1.57158434391022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53301787376404</t>
+    <t xml:space="preserve">1.53301799297333</t>
   </si>
   <si>
     <t xml:space="preserve">1.53990483283997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51511204242706</t>
+    <t xml:space="preserve">1.51511216163635</t>
   </si>
   <si>
     <t xml:space="preserve">1.43935632705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47792291641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45175290107727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45863974094391</t>
+    <t xml:space="preserve">1.47792279720306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45175278186798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45863962173462</t>
   </si>
   <si>
     <t xml:space="preserve">1.42282795906067</t>
@@ -971,49 +971,49 @@
     <t xml:space="preserve">1.41594111919403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40354478359222</t>
+    <t xml:space="preserve">1.40354466438293</t>
   </si>
   <si>
     <t xml:space="preserve">1.45450747013092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44624316692352</t>
+    <t xml:space="preserve">1.44624328613281</t>
   </si>
   <si>
     <t xml:space="preserve">1.4379791021347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45726227760315</t>
+    <t xml:space="preserve">1.45726215839386</t>
   </si>
   <si>
     <t xml:space="preserve">1.42558264732361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42971467971802</t>
+    <t xml:space="preserve">1.42971479892731</t>
   </si>
   <si>
     <t xml:space="preserve">1.44073379039764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43660175800323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45588493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47654557228088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51786673069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53164041042328</t>
+    <t xml:space="preserve">1.43660163879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45588505268097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47654545307159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51786684989929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53164052963257</t>
   </si>
   <si>
     <t xml:space="preserve">1.53577268123627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55643332004547</t>
+    <t xml:space="preserve">1.55643320083618</t>
   </si>
   <si>
     <t xml:space="preserve">1.54403698444366</t>
@@ -1022,19 +1022,19 @@
     <t xml:space="preserve">1.52888584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33605337142944</t>
+    <t xml:space="preserve">1.33605349063873</t>
   </si>
   <si>
     <t xml:space="preserve">1.33811938762665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31194925308228</t>
+    <t xml:space="preserve">1.31194937229156</t>
   </si>
   <si>
     <t xml:space="preserve">1.27820360660553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25960910320282</t>
+    <t xml:space="preserve">1.25960898399353</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062797546387</t>
@@ -1049,22 +1049,22 @@
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258173942566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29748690128326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28233575820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29542088508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2899112701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31608152389526</t>
+    <t xml:space="preserve">1.35258185863495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29748678207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28233563899994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29542076587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28991138935089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31608140468597</t>
   </si>
   <si>
     <t xml:space="preserve">1.33674204349518</t>
@@ -1073,43 +1073,43 @@
     <t xml:space="preserve">1.32778906822205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3332986831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34018552303314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33880817890167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3739310503006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41180896759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41869580745697</t>
+    <t xml:space="preserve">1.33329856395721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34018540382385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33880805969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37393116950989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41180884838104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41869568824768</t>
   </si>
   <si>
     <t xml:space="preserve">1.46001708507538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45037543773651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44762063026428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4049220085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46414911746979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48618710041046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51098001003265</t>
+    <t xml:space="preserve">1.45037531852722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44762074947357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40492212772369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46414923667908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48618721961975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51097989082336</t>
   </si>
   <si>
     <t xml:space="preserve">1.56194281578064</t>
@@ -1118,22 +1118,22 @@
     <t xml:space="preserve">1.53852736949921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52613115310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55918800830841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57433915138245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51648938655853</t>
+    <t xml:space="preserve">1.5261310338974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5591881275177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57433903217316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51648926734924</t>
   </si>
   <si>
     <t xml:space="preserve">1.51924419403076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50684785842896</t>
+    <t xml:space="preserve">1.50684773921967</t>
   </si>
   <si>
     <t xml:space="preserve">1.49582874774933</t>
@@ -1145,28 +1145,28 @@
     <t xml:space="preserve">1.50822520256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52750849723816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55092370510101</t>
+    <t xml:space="preserve">1.52750837802887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5509238243103</t>
   </si>
   <si>
     <t xml:space="preserve">1.60050916671753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57847130298615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62117004394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61841511726379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58949053287506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4848096370697</t>
+    <t xml:space="preserve">1.57847142219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62116992473602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6184149980545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58949017524719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48480975627899</t>
   </si>
   <si>
     <t xml:space="preserve">1.52062153816223</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">1.49720621109009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4214506149292</t>
+    <t xml:space="preserve">1.42145049571991</t>
   </si>
   <si>
     <t xml:space="preserve">1.43384695053101</t>
@@ -1190,52 +1190,52 @@
     <t xml:space="preserve">1.4173184633255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37599718570709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37117648124695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38839364051819</t>
+    <t xml:space="preserve">1.37599730491638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37117636203766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3883935213089</t>
   </si>
   <si>
     <t xml:space="preserve">1.37530839443207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36360085010529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35051584243774</t>
+    <t xml:space="preserve">1.363600730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35051572322845</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34087431430817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36222350597382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34294021129608</t>
+    <t xml:space="preserve">1.34087419509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36222338676453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34294033050537</t>
   </si>
   <si>
     <t xml:space="preserve">1.36979901790619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36428952217102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36704421043396</t>
+    <t xml:space="preserve">1.36428940296173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36704432964325</t>
   </si>
   <si>
     <t xml:space="preserve">1.38977098464966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38012933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35533666610718</t>
+    <t xml:space="preserve">1.3801292181015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35533654689789</t>
   </si>
   <si>
     <t xml:space="preserve">1.37737452983856</t>
@@ -1250,13 +1250,13 @@
     <t xml:space="preserve">1.21966516971588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23963701725006</t>
+    <t xml:space="preserve">1.23963713645935</t>
   </si>
   <si>
     <t xml:space="preserve">1.25134479999542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24927878379822</t>
+    <t xml:space="preserve">1.24927866458893</t>
   </si>
   <si>
     <t xml:space="preserve">1.22586333751678</t>
@@ -1265,49 +1265,49 @@
     <t xml:space="preserve">1.25203347206116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24721264839172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21553301811218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19900453090668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22104263305664</t>
+    <t xml:space="preserve">1.24721276760101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21553313732147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19900465011597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22104251384735</t>
   </si>
   <si>
     <t xml:space="preserve">1.2100236415863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20589137077332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21140098571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19969320297241</t>
+    <t xml:space="preserve">1.2058914899826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21140086650848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1996933221817</t>
   </si>
   <si>
     <t xml:space="preserve">1.21277832984924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1645702123642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15699470043182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1521737575531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12600362300873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12875843048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10052239894867</t>
+    <t xml:space="preserve">1.16457009315491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15699458122253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15217387676239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12600374221802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12875854969025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10052227973938</t>
   </si>
   <si>
     <t xml:space="preserve">1.10534310340881</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">1.14322078227997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1335791349411</t>
+    <t xml:space="preserve">1.13357925415039</t>
   </si>
   <si>
     <t xml:space="preserve">1.23137283325195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1893630027771</t>
+    <t xml:space="preserve">1.18936288356781</t>
   </si>
   <si>
     <t xml:space="preserve">1.17352306842804</t>
@@ -1340,31 +1340,31 @@
     <t xml:space="preserve">1.13564538955688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1728343963623</t>
+    <t xml:space="preserve">1.17283451557159</t>
   </si>
   <si>
     <t xml:space="preserve">1.17558920383453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.176966547966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1707683801651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26029789447784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3023077249527</t>
+    <t xml:space="preserve">1.17696666717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17076849937439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26029777526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30230760574341</t>
   </si>
   <si>
     <t xml:space="preserve">1.27682626247406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30988311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31126058101654</t>
+    <t xml:space="preserve">1.30988323688507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31126070022583</t>
   </si>
   <si>
     <t xml:space="preserve">1.25478827953339</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">1.26649594306946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21071219444275</t>
+    <t xml:space="preserve">1.21071231365204</t>
   </si>
   <si>
     <t xml:space="preserve">1.22792947292328</t>
@@ -1382,13 +1382,13 @@
     <t xml:space="preserve">1.25065612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24239194393158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27200531959534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29473197460175</t>
+    <t xml:space="preserve">1.24239182472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27200555801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29473221302032</t>
   </si>
   <si>
     <t xml:space="preserve">1.29817545413971</t>
@@ -1400,49 +1400,49 @@
     <t xml:space="preserve">1.30161893367767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29335463047028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.279580950737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26718461513519</t>
+    <t xml:space="preserve">1.29335474967957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27958106994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2671844959259</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26374113559723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26993942260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29955291748047</t>
+    <t xml:space="preserve">1.26374125480652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26993930339813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29955279827118</t>
   </si>
   <si>
     <t xml:space="preserve">1.32985520362854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3925256729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4090541601181</t>
+    <t xml:space="preserve">1.39252579212189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40905427932739</t>
   </si>
   <si>
     <t xml:space="preserve">1.42007315158844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39114820957184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39665794372559</t>
+    <t xml:space="preserve">1.39114832878113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3966578245163</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34156274795532</t>
+    <t xml:space="preserve">1.34156286716461</t>
   </si>
   <si>
     <t xml:space="preserve">1.30781722068787</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">1.40265047550201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37692046165466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36001217365265</t>
+    <t xml:space="preserve">1.37692058086395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36001229286194</t>
   </si>
   <si>
     <t xml:space="preserve">1.38427197933197</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">1.42543983459473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41000175476074</t>
+    <t xml:space="preserve">1.41000187397003</t>
   </si>
   <si>
     <t xml:space="preserve">1.42176413536072</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">1.47469437122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48645663261414</t>
+    <t xml:space="preserve">1.48645675182343</t>
   </si>
   <si>
     <t xml:space="preserve">1.52468395233154</t>
@@ -1493,19 +1493,19 @@
     <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49968910217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49674868583679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49086761474609</t>
+    <t xml:space="preserve">1.49968922138214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4967485666275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4908674955368</t>
   </si>
   <si>
     <t xml:space="preserve">1.52615427970886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51439201831818</t>
+    <t xml:space="preserve">1.51439189910889</t>
   </si>
   <si>
     <t xml:space="preserve">1.56585204601288</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">1.55555987358093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55261945724487</t>
+    <t xml:space="preserve">1.55261933803558</t>
   </si>
   <si>
     <t xml:space="preserve">1.50262975692749</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792695999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47910535335541</t>
+    <t xml:space="preserve">1.48792684078217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47910523414612</t>
   </si>
   <si>
     <t xml:space="preserve">1.50115954875946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50998103618622</t>
+    <t xml:space="preserve">1.50998115539551</t>
   </si>
   <si>
     <t xml:space="preserve">1.52321374416351</t>
@@ -1544,19 +1544,19 @@
     <t xml:space="preserve">1.46660780906677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46366739273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45558071136475</t>
+    <t xml:space="preserve">1.46366727352142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45558059215546</t>
   </si>
   <si>
     <t xml:space="preserve">1.45043480396271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44381833076477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42911565303802</t>
+    <t xml:space="preserve">1.44381844997406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42911553382874</t>
   </si>
   <si>
     <t xml:space="preserve">1.37912607192993</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">1.43058586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4239696264267</t>
+    <t xml:space="preserve">1.42396950721741</t>
   </si>
   <si>
     <t xml:space="preserve">1.43940758705139</t>
@@ -1583,28 +1583,28 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4467591047287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46146178245544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48498630523682</t>
+    <t xml:space="preserve">1.44675898551941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46146190166473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48498642444611</t>
   </si>
   <si>
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762460708618</t>
+    <t xml:space="preserve">1.52762472629547</t>
   </si>
   <si>
     <t xml:space="preserve">1.56144118309021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57320332527161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55114912986755</t>
+    <t xml:space="preserve">1.5732034444809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55114901065826</t>
   </si>
   <si>
     <t xml:space="preserve">1.58643591403961</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.57173311710358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57026267051697</t>
+    <t xml:space="preserve">1.57026278972626</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025249004364</t>
@@ -1625,16 +1625,16 @@
     <t xml:space="preserve">1.63495528697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64377689361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64524722099304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62760388851166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113871097565</t>
+    <t xml:space="preserve">1.64377701282501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64524710178375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62760376930237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113883018494</t>
   </si>
   <si>
     <t xml:space="preserve">1.62466335296631</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">1.37471508979797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.395299077034</t>
+    <t xml:space="preserve">1.39529895782471</t>
   </si>
   <si>
     <t xml:space="preserve">1.40191531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147220134735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40853154659271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39970993995667</t>
+    <t xml:space="preserve">1.41147208213806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.408531665802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39971005916595</t>
   </si>
   <si>
     <t xml:space="preserve">1.40118026733398</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">1.35486626625061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34530937671661</t>
+    <t xml:space="preserve">1.3453094959259</t>
   </si>
   <si>
     <t xml:space="preserve">1.28943860530853</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">1.28649806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21665966510773</t>
+    <t xml:space="preserve">1.21665954589844</t>
   </si>
   <si>
     <t xml:space="preserve">1.2556220293045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25415182113647</t>
+    <t xml:space="preserve">1.25415170192719</t>
   </si>
   <si>
     <t xml:space="preserve">1.28355753421783</t>
@@ -1718,19 +1718,19 @@
     <t xml:space="preserve">1.2975252866745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31590378284454</t>
+    <t xml:space="preserve">1.31590366363525</t>
   </si>
   <si>
     <t xml:space="preserve">1.30855226516724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31516861915588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28576290607452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29017376899719</t>
+    <t xml:space="preserve">1.31516873836517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28576278686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29017388820648</t>
   </si>
   <si>
     <t xml:space="preserve">1.2497410774231</t>
@@ -1739,16 +1739,16 @@
     <t xml:space="preserve">1.27841150760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24091923236847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24459505081177</t>
+    <t xml:space="preserve">1.24091935157776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24459493160248</t>
   </si>
   <si>
     <t xml:space="preserve">1.25121128559113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31222808361053</t>
+    <t xml:space="preserve">1.31222796440125</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">1.26591420173645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3092874288559</t>
+    <t xml:space="preserve">1.30928754806519</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811957359314</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327589988708</t>
+    <t xml:space="preserve">1.22327601909637</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23650848865509</t>
+    <t xml:space="preserve">1.2365083694458</t>
   </si>
   <si>
     <t xml:space="preserve">1.23356783390045</t>
@@ -1793,22 +1793,22 @@
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768676280975</t>
+    <t xml:space="preserve">1.22768664360046</t>
   </si>
   <si>
     <t xml:space="preserve">1.3225200176239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31663882732391</t>
+    <t xml:space="preserve">1.3166389465332</t>
   </si>
   <si>
     <t xml:space="preserve">1.29164409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26150333881378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25856256484985</t>
+    <t xml:space="preserve">1.26150321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25856280326843</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1817,25 +1817,25 @@
     <t xml:space="preserve">1.24680042266846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24312472343445</t>
+    <t xml:space="preserve">1.24312460422516</t>
   </si>
   <si>
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2879683971405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29679012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24165451526642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24018406867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28870344161987</t>
+    <t xml:space="preserve">1.28796827793121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29679000377655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24165439605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2401841878891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28870356082916</t>
   </si>
   <si>
     <t xml:space="preserve">1.27914667129517</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502774238586</t>
+    <t xml:space="preserve">1.28502786159515</t>
   </si>
   <si>
     <t xml:space="preserve">1.28135216236115</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">1.36589348316193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35119068622589</t>
+    <t xml:space="preserve">1.3511905670166</t>
   </si>
   <si>
     <t xml:space="preserve">1.32325518131256</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31810927391052</t>
+    <t xml:space="preserve">1.31810915470123</t>
   </si>
   <si>
     <t xml:space="preserve">1.31149291992188</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">1.28723323345184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28429269790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31296324729919</t>
+    <t xml:space="preserve">1.2842925786972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3129631280899</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060657978058</t>
@@ -1904,10 +1904,10 @@
     <t xml:space="preserve">1.33428239822388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35266089439392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31737411022186</t>
+    <t xml:space="preserve">1.35266077518463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31737399101257</t>
   </si>
   <si>
     <t xml:space="preserve">1.27694118022919</t>
@@ -1916,37 +1916,37 @@
     <t xml:space="preserve">1.30046582221985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27767634391785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29826033115387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3034063577652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27326560020447</t>
+    <t xml:space="preserve">1.27767646312714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29826045036316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30340623855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27326548099518</t>
   </si>
   <si>
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134174346924</t>
+    <t xml:space="preserve">1.33134186267853</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531979560852</t>
+    <t xml:space="preserve">1.29531967639923</t>
   </si>
   <si>
     <t xml:space="preserve">1.2747358083725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27253031730652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26958990097046</t>
+    <t xml:space="preserve">1.27253043651581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26958978176117</t>
   </si>
   <si>
     <t xml:space="preserve">1.23797869682312</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">1.21445417404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371901035309</t>
+    <t xml:space="preserve">1.21371912956238</t>
   </si>
   <si>
     <t xml:space="preserve">1.21592450141907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20563244819641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22915709018707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2519463300705</t>
+    <t xml:space="preserve">1.2056325674057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22915697097778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25194644927979</t>
   </si>
   <si>
     <t xml:space="preserve">1.22989225387573</t>
@@ -1985,22 +1985,22 @@
     <t xml:space="preserve">1.21518933773041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2269514799118</t>
+    <t xml:space="preserve">1.22695159912109</t>
   </si>
   <si>
     <t xml:space="preserve">1.23724353313446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23871374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20857298374176</t>
+    <t xml:space="preserve">1.23871386051178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20857310295105</t>
   </si>
   <si>
     <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18137288093567</t>
+    <t xml:space="preserve">1.18137276172638</t>
   </si>
   <si>
     <t xml:space="preserve">1.17034566402435</t>
@@ -2009,37 +2009,37 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711307525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13358867168427</t>
+    <t xml:space="preserve">1.15711319446564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13358855247498</t>
   </si>
   <si>
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448531150818</t>
+    <t xml:space="preserve">1.06448519229889</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03360939025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06522047519684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10859382152557</t>
+    <t xml:space="preserve">1.0336092710495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06522035598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10859370231628</t>
   </si>
   <si>
     <t xml:space="preserve">1.08653962612152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0872745513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07624745368958</t>
+    <t xml:space="preserve">1.08727467060089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07624757289886</t>
   </si>
   <si>
     <t xml:space="preserve">1.08713448047638</t>
@@ -5232,6 +5232,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.62000000476837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61749994754791</t>
   </si>
 </sst>
 </file>
@@ -61629,7 +61632,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6495486111</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>2086920</v>
@@ -61650,6 +61653,32 @@
         <v>1739</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6493981481</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>2106546</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>1.62549996376038</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>1.61749994754791</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>1.62300002574921</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>1.61749994754791</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170576572418</t>
+    <t xml:space="preserve">1.0017055273056</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">0.982317805290222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985255479812622</t>
+    <t xml:space="preserve">0.985255360603333</t>
   </si>
   <si>
     <t xml:space="preserve">0.960579931735992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964105069637299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993480563163757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992892980575562</t>
+    <t xml:space="preserve">0.964105010032654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993480503559113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992893040180206</t>
   </si>
   <si>
     <t xml:space="preserve">1.04576897621155</t>
@@ -74,31 +74,31 @@
     <t xml:space="preserve">1.03695631027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05693161487579</t>
+    <t xml:space="preserve">1.05693173408508</t>
   </si>
   <si>
     <t xml:space="preserve">1.02579367160797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07749462127686</t>
+    <t xml:space="preserve">1.07749450206757</t>
   </si>
   <si>
     <t xml:space="preserve">1.08101963996887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13565814495087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1456458568573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14682066440582</t>
+    <t xml:space="preserve">1.13565802574158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14564573764801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14682078361511</t>
   </si>
   <si>
     <t xml:space="preserve">1.1150951385498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12802028656006</t>
+    <t xml:space="preserve">1.12802040576935</t>
   </si>
   <si>
     <t xml:space="preserve">1.14035820960999</t>
@@ -107,13 +107,13 @@
     <t xml:space="preserve">1.11098265647888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09100735187531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02755618095398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957642376422882</t>
+    <t xml:space="preserve">1.09100723266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02755606174469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957642436027527</t>
   </si>
   <si>
     <t xml:space="preserve">0.853652954101562</t>
@@ -122,19 +122,19 @@
     <t xml:space="preserve">0.829565048217773</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840140163898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810764670372009</t>
+    <t xml:space="preserve">0.840140283107758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810764729976654</t>
   </si>
   <si>
     <t xml:space="preserve">0.81663978099823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873040676116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863640666007996</t>
+    <t xml:space="preserve">0.873040795326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86364072561264</t>
   </si>
   <si>
     <t xml:space="preserve">0.872453391551971</t>
@@ -146,10 +146,10 @@
     <t xml:space="preserve">0.881853580474854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860703229904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842490315437317</t>
+    <t xml:space="preserve">0.86070328950882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842490375041962</t>
   </si>
   <si>
     <t xml:space="preserve">0.850127995014191</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904178977012634</t>
+    <t xml:space="preserve">0.90417891740799</t>
   </si>
   <si>
     <t xml:space="preserve">0.916516602039337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895366311073303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851890504360199</t>
+    <t xml:space="preserve">0.895366251468658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851890563964844</t>
   </si>
   <si>
     <t xml:space="preserve">0.807827174663544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776101589202881</t>
+    <t xml:space="preserve">0.776101648807526</t>
   </si>
   <si>
     <t xml:space="preserve">0.764938950538635</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">0.757888734340668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831915080547333</t>
+    <t xml:space="preserve">0.831915140151978</t>
   </si>
   <si>
     <t xml:space="preserve">0.820164859294891</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">0.817814886569977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828390002250671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.833677649497986</t>
+    <t xml:space="preserve">0.828390061855316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833677589893341</t>
   </si>
   <si>
     <t xml:space="preserve">0.823102474212646</t>
@@ -203,31 +203,31 @@
     <t xml:space="preserve">0.817227363586426</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827215075492859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828977525234222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.843077838420868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865403294563293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837790250778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830740034580231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846602857112885</t>
+    <t xml:space="preserve">0.827215015888214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828977644443512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.843077778816223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865403234958649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837790310382843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830740094184875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846602916717529</t>
   </si>
   <si>
     <t xml:space="preserve">0.848953008651733</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860115587711334</t>
+    <t xml:space="preserve">0.860115647315979</t>
   </si>
   <si>
     <t xml:space="preserve">0.846015393733978</t>
@@ -236,76 +236,76 @@
     <t xml:space="preserve">0.834265112876892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822514951229095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845427811145782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868340790271759</t>
+    <t xml:space="preserve">0.822514891624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845427930355072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868340730667114</t>
   </si>
   <si>
     <t xml:space="preserve">0.920629143714905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915929198265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941367149353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893016159534454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553525924683</t>
+    <t xml:space="preserve">0.915929079055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941486358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89301609992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553645133972</t>
   </si>
   <si>
     <t xml:space="preserve">0.866578221321106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869515776634216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88244104385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864228129386902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835440158843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826039969921112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830152571201324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831327557563782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907116413116455</t>
+    <t xml:space="preserve">0.869515836238861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882440984249115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864228188991547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835440218448639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826040089130402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83015251159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831327617168427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9071164727211</t>
   </si>
   <si>
     <t xml:space="preserve">0.924741744995117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.945304691791534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937079548835754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928854405879974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961769163608551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987442553043365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994025647640228</t>
+    <t xml:space="preserve">0.94530463218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93707948923111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928854286670685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961769223213196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98744261264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994025588035583</t>
   </si>
   <si>
     <t xml:space="preserve">1.03483986854553</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">1.05327212810516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05261397361755</t>
+    <t xml:space="preserve">1.05261385440826</t>
   </si>
   <si>
     <t xml:space="preserve">1.05458867549896</t>
@@ -335,19 +335,19 @@
     <t xml:space="preserve">1.07367932796478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11646854877472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09276974201202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03878951072693</t>
+    <t xml:space="preserve">1.11646842956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09276986122131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03878962993622</t>
   </si>
   <si>
     <t xml:space="preserve">1.02299058437347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98283463716507</t>
+    <t xml:space="preserve">0.982834577560425</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
@@ -356,16 +356,16 @@
     <t xml:space="preserve">0.993367314338684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07894575595856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07565402984619</t>
+    <t xml:space="preserve">1.07894563674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07565414905548</t>
   </si>
   <si>
     <t xml:space="preserve">1.07302093505859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10132765769958</t>
+    <t xml:space="preserve">1.10132777690887</t>
   </si>
   <si>
     <t xml:space="preserve">1.015749335289</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">0.977568209171295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97230190038681</t>
+    <t xml:space="preserve">0.972301781177521</t>
   </si>
   <si>
     <t xml:space="preserve">1.02628207206726</t>
@@ -386,61 +386,61 @@
     <t xml:space="preserve">1.04668915271759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02035748958588</t>
+    <t xml:space="preserve">1.02035737037659</t>
   </si>
   <si>
     <t xml:space="preserve">0.961110830307007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938728749752045</t>
+    <t xml:space="preserve">0.938728809356689</t>
   </si>
   <si>
     <t xml:space="preserve">0.936095714569092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956502735614777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951894760131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936753928661346</t>
+    <t xml:space="preserve">0.956502676010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951894700527191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936753869056702</t>
   </si>
   <si>
     <t xml:space="preserve">0.946628391742706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939387083053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949919760227203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948603212833405</t>
+    <t xml:space="preserve">0.939387142658234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949919700622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94860315322876</t>
   </si>
   <si>
     <t xml:space="preserve">0.974276781082153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954527974128723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997975409030914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9235879778862</t>
+    <t xml:space="preserve">0.954527914524078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997975289821625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923588037490845</t>
   </si>
   <si>
     <t xml:space="preserve">0.836034774780273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80970299243927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832085013389587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851833879947662</t>
+    <t xml:space="preserve">0.809703052043915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832085072994232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851833760738373</t>
   </si>
   <si>
     <t xml:space="preserve">0.88869833946228</t>
@@ -449,10 +449,10 @@
     <t xml:space="preserve">0.88409036397934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871582627296448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873557567596436</t>
+    <t xml:space="preserve">0.871582686901093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87355762720108</t>
   </si>
   <si>
     <t xml:space="preserve">0.880798876285553</t>
@@ -461,73 +461,73 @@
     <t xml:space="preserve">0.886723518371582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.890673339366913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870924293994904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866974711418152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884748637676239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883432030677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874215841293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870266139507294</t>
+    <t xml:space="preserve">0.890673220157623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870924353599548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866974651813507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884748578071594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883431971073151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87421590089798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870266199111938</t>
   </si>
   <si>
     <t xml:space="preserve">0.86434143781662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881457209587097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882773756980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887381851673126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880140602588654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613097190857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934779107570648</t>
+    <t xml:space="preserve">0.881457149982452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882773697376251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887381792068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880140542984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613156795502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934778988361359</t>
   </si>
   <si>
     <t xml:space="preserve">0.947944939136505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947286605834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932145893573761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902522504329681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281314849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903180837631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917005002498627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940045416355133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93412059545517</t>
+    <t xml:space="preserve">0.947286665439606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932145833969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902522623538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281374454498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903180778026581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917005062103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940045297145844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934120833873749</t>
   </si>
   <si>
     <t xml:space="preserve">0.911080360412598</t>
@@ -536,10 +536,10 @@
     <t xml:space="preserve">0.912396967411041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91371363401413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931487500667572</t>
+    <t xml:space="preserve">0.913713574409485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931487560272217</t>
   </si>
   <si>
     <t xml:space="preserve">0.918980002403259</t>
@@ -548,40 +548,40 @@
     <t xml:space="preserve">0.909763753414154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926879525184631</t>
+    <t xml:space="preserve">0.926879465579987</t>
   </si>
   <si>
     <t xml:space="preserve">0.920296609401703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9380704164505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964402258396149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970326900482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988759279251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984151184558868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99270886182785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0414229631424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03549802303314</t>
+    <t xml:space="preserve">0.93807053565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964402377605438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970326960086823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988759160041809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984151065349579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992709040641785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04142284393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03549814224243</t>
   </si>
   <si>
     <t xml:space="preserve">1.03154838085175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05919682979584</t>
+    <t xml:space="preserve">1.05919671058655</t>
   </si>
   <si>
     <t xml:space="preserve">1.03813135623932</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">1.03023183345795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02167403697968</t>
+    <t xml:space="preserve">1.02167391777039</t>
   </si>
   <si>
     <t xml:space="preserve">1.03418147563934</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">1.01838254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03352344036102</t>
+    <t xml:space="preserve">1.03352332115173</t>
   </si>
   <si>
     <t xml:space="preserve">1.04208111763</t>
@@ -611,70 +611,70 @@
     <t xml:space="preserve">1.09211158752441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08618688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09013676643372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0993527173996</t>
+    <t xml:space="preserve">1.08618700504303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09013664722443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09935283660889</t>
   </si>
   <si>
     <t xml:space="preserve">1.08750355243683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07960402965546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05788028240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06380486488342</t>
+    <t xml:space="preserve">1.07960391044617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05788016319275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06380498409271</t>
   </si>
   <si>
     <t xml:space="preserve">1.13819229602814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11120223999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12305128574371</t>
+    <t xml:space="preserve">1.11120212078094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.123051404953</t>
   </si>
   <si>
     <t xml:space="preserve">1.08421206474304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07697069644928</t>
+    <t xml:space="preserve">1.07697081565857</t>
   </si>
   <si>
     <t xml:space="preserve">1.09145331382751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09671974182129</t>
+    <t xml:space="preserve">1.096719622612</t>
   </si>
   <si>
     <t xml:space="preserve">1.11778509616852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13095092773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11186039447784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1256844997406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13226759433746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13885045051575</t>
+    <t xml:space="preserve">1.13095104694366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11186051368713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12568461894989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13226747512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13885056972504</t>
   </si>
   <si>
     <t xml:space="preserve">1.13621723651886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14543330669403</t>
+    <t xml:space="preserve">1.14543354511261</t>
   </si>
   <si>
     <t xml:space="preserve">1.14740836620331</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">1.14016699790955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14082551002502</t>
+    <t xml:space="preserve">1.14082539081573</t>
   </si>
   <si>
     <t xml:space="preserve">1.11910176277161</t>
@@ -707,31 +707,31 @@
     <t xml:space="preserve">1.08684527873993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01904082298279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02364873886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02496540546417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02562391757965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988100945949554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940703630447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933462381362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935437440872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953869640827179</t>
+    <t xml:space="preserve">1.0190407037735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02364885807037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02496552467346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02562367916107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988101005554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940703690052032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93346232175827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935437381267548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953869521617889</t>
   </si>
   <si>
     <t xml:space="preserve">0.999950289726257</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">1.00521659851074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01706576347351</t>
+    <t xml:space="preserve">1.01706600189209</t>
   </si>
   <si>
     <t xml:space="preserve">1.00916635990143</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">1.0947448015213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12041819095612</t>
+    <t xml:space="preserve">1.12041831016541</t>
   </si>
   <si>
     <t xml:space="preserve">1.12765955924988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12634301185608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12239325046539</t>
+    <t xml:space="preserve">1.12634289264679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12239301204681</t>
   </si>
   <si>
     <t xml:space="preserve">1.11975991725922</t>
@@ -785,19 +785,19 @@
     <t xml:space="preserve">1.13490068912506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16715705394745</t>
+    <t xml:space="preserve">1.16715717315674</t>
   </si>
   <si>
     <t xml:space="preserve">1.16913211345673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18032312393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17176520824432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16584062576294</t>
+    <t xml:space="preserve">1.1803230047226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17176532745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16584074497223</t>
   </si>
   <si>
     <t xml:space="preserve">1.17374002933502</t>
@@ -806,19 +806,19 @@
     <t xml:space="preserve">1.1790064573288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18229794502258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17308187484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19941353797913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21652925014496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21389603614807</t>
+    <t xml:space="preserve">1.18229806423187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17308175563812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19941365718842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21652936935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21389615535736</t>
   </si>
   <si>
     <t xml:space="preserve">1.22706198692322</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">1.19546389579773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22179555892944</t>
+    <t xml:space="preserve">1.22179567813873</t>
   </si>
   <si>
     <t xml:space="preserve">1.22772037982941</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">1.26853466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24417781829834</t>
+    <t xml:space="preserve">1.24417769908905</t>
   </si>
   <si>
     <t xml:space="preserve">1.26260995864868</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">1.27182614803314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28696703910828</t>
+    <t xml:space="preserve">1.28696691989899</t>
   </si>
   <si>
     <t xml:space="preserve">1.3093489408493</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">1.3613543510437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35213804244995</t>
+    <t xml:space="preserve">1.35213816165924</t>
   </si>
   <si>
     <t xml:space="preserve">1.35608780384064</t>
@@ -887,25 +887,25 @@
     <t xml:space="preserve">1.35872101783752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39163589477539</t>
+    <t xml:space="preserve">1.3916357755661</t>
   </si>
   <si>
     <t xml:space="preserve">1.40875148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47721421718597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48116397857666</t>
+    <t xml:space="preserve">1.4772139787674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48116385936737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49169683456421</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169671535492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169659614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49031925201416</t>
+    <t xml:space="preserve">1.49031937122345</t>
   </si>
   <si>
     <t xml:space="preserve">1.48894190788269</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">1.47379088401794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39803528785706</t>
+    <t xml:space="preserve">1.39803516864777</t>
   </si>
   <si>
     <t xml:space="preserve">1.38701617717743</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">1.48343241214752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44899821281433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43522429466248</t>
+    <t xml:space="preserve">1.44899809360504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43522441387177</t>
   </si>
   <si>
     <t xml:space="preserve">1.43246948719025</t>
@@ -938,28 +938,28 @@
     <t xml:space="preserve">1.45313012599945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51235723495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57158434391022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53301799297333</t>
+    <t xml:space="preserve">1.51235735416412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57158446311951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53301787376404</t>
   </si>
   <si>
     <t xml:space="preserve">1.53990483283997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51511216163635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43935632705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47792279720306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45175278186798</t>
+    <t xml:space="preserve">1.51511192321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4393562078476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47792291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45175290107727</t>
   </si>
   <si>
     <t xml:space="preserve">1.45863962173462</t>
@@ -971,16 +971,16 @@
     <t xml:space="preserve">1.41594111919403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40354466438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45450747013092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44624328613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4379791021347</t>
+    <t xml:space="preserve">1.40354478359222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45450758934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44624316692352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43797898292542</t>
   </si>
   <si>
     <t xml:space="preserve">1.45726215839386</t>
@@ -989,34 +989,34 @@
     <t xml:space="preserve">1.42558264732361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42971479892731</t>
+    <t xml:space="preserve">1.42971467971802</t>
   </si>
   <si>
     <t xml:space="preserve">1.44073379039764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43660163879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45588505268097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47654545307159</t>
+    <t xml:space="preserve">1.43660175800323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45588493347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47654557228088</t>
   </si>
   <si>
     <t xml:space="preserve">1.51786684989929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53164052963257</t>
+    <t xml:space="preserve">1.53164041042328</t>
   </si>
   <si>
     <t xml:space="preserve">1.53577268123627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55643320083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54403698444366</t>
+    <t xml:space="preserve">1.55643332004547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54403710365295</t>
   </si>
   <si>
     <t xml:space="preserve">1.52888584136963</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">1.27820360660553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25960898399353</t>
+    <t xml:space="preserve">1.25960910320282</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062797546387</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">1.35258185863495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29748678207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28233563899994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29542076587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28991138935089</t>
+    <t xml:space="preserve">1.29748690128326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28233575820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29542088508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2899112701416</t>
   </si>
   <si>
     <t xml:space="preserve">1.31608140468597</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">1.33674204349518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32778906822205</t>
+    <t xml:space="preserve">1.32778918743134</t>
   </si>
   <si>
     <t xml:space="preserve">1.33329856395721</t>
@@ -1082,31 +1082,31 @@
     <t xml:space="preserve">1.33880805969238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37393116950989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41180884838104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41869568824768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46001708507538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45037531852722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44762074947357</t>
+    <t xml:space="preserve">1.3739310503006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41180896759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41869580745697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46001696586609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45037543773651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44762063026428</t>
   </si>
   <si>
     <t xml:space="preserve">1.40492212772369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46414923667908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48618721961975</t>
+    <t xml:space="preserve">1.46414911746979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48618710041046</t>
   </si>
   <si>
     <t xml:space="preserve">1.51097989082336</t>
@@ -1118,22 +1118,22 @@
     <t xml:space="preserve">1.53852736949921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5261310338974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5591881275177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57433903217316</t>
+    <t xml:space="preserve">1.52613115310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55918800830841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57433915138245</t>
   </si>
   <si>
     <t xml:space="preserve">1.51648926734924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51924419403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50684773921967</t>
+    <t xml:space="preserve">1.51924431324005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50684785842896</t>
   </si>
   <si>
     <t xml:space="preserve">1.49582874774933</t>
@@ -1142,10 +1142,10 @@
     <t xml:space="preserve">1.48756456375122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50822520256042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52750837802887</t>
+    <t xml:space="preserve">1.50822532176971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52750849723816</t>
   </si>
   <si>
     <t xml:space="preserve">1.5509238243103</t>
@@ -1154,28 +1154,28 @@
     <t xml:space="preserve">1.60050916671753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57847142219543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62116992473602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6184149980545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58949017524719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48480975627899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52062153816223</t>
+    <t xml:space="preserve">1.57847118377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62117004394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61841511726379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58949053287506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4848096370697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52062141895294</t>
   </si>
   <si>
     <t xml:space="preserve">1.55230104923248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52199900150299</t>
+    <t xml:space="preserve">1.5219988822937</t>
   </si>
   <si>
     <t xml:space="preserve">1.49720621109009</t>
@@ -1187,70 +1187,70 @@
     <t xml:space="preserve">1.43384695053101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4173184633255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37599730491638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37117636203766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3883935213089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37530839443207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.363600730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35051572322845</t>
+    <t xml:space="preserve">1.41731858253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37599718570709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37117648124695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38839364051819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37530851364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36360085010529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35051584243774</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34087419509888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36222338676453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34294033050537</t>
+    <t xml:space="preserve">1.34087431430817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36222350597382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34294021129608</t>
   </si>
   <si>
     <t xml:space="preserve">1.36979901790619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36428940296173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36704432964325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38977098464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3801292181015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35533654689789</t>
+    <t xml:space="preserve">1.36428952217102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36704421043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38977086544037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38012933731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35533666610718</t>
   </si>
   <si>
     <t xml:space="preserve">1.37737452983856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36842155456543</t>
+    <t xml:space="preserve">1.36842167377472</t>
   </si>
   <si>
     <t xml:space="preserve">1.36635553836823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21966516971588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23963713645935</t>
+    <t xml:space="preserve">1.21966528892517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23963701725006</t>
   </si>
   <si>
     <t xml:space="preserve">1.25134479999542</t>
@@ -1262,52 +1262,52 @@
     <t xml:space="preserve">1.22586333751678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25203347206116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24721276760101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21553313732147</t>
+    <t xml:space="preserve">1.25203359127045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24721264839172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21553289890289</t>
   </si>
   <si>
     <t xml:space="preserve">1.19900465011597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22104251384735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2100236415863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2058914899826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21140086650848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1996933221817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21277832984924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16457009315491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15699458122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15217387676239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12600374221802</t>
+    <t xml:space="preserve">1.22104263305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21002352237701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20589137077332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21140098571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19969320297241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21277844905853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1645702123642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15699470043182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1521737575531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12600362300873</t>
   </si>
   <si>
     <t xml:space="preserve">1.12875854969025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10052227973938</t>
+    <t xml:space="preserve">1.10052239894867</t>
   </si>
   <si>
     <t xml:space="preserve">1.10534310340881</t>
@@ -1316,13 +1316,13 @@
     <t xml:space="preserve">1.11429607868195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13082456588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12669241428375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14322078227997</t>
+    <t xml:space="preserve">1.13082444667816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12669253349304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14322090148926</t>
   </si>
   <si>
     <t xml:space="preserve">1.13357925415039</t>
@@ -1346,16 +1346,16 @@
     <t xml:space="preserve">1.17558920383453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17696666717529</t>
+    <t xml:space="preserve">1.176966547966</t>
   </si>
   <si>
     <t xml:space="preserve">1.17076849937439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26029777526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30230760574341</t>
+    <t xml:space="preserve">1.26029789447784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3023077249527</t>
   </si>
   <si>
     <t xml:space="preserve">1.27682626247406</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">1.30988323688507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31126070022583</t>
+    <t xml:space="preserve">1.31126058101654</t>
   </si>
   <si>
     <t xml:space="preserve">1.25478827953339</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">1.26649594306946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21071231365204</t>
+    <t xml:space="preserve">1.21071219444275</t>
   </si>
   <si>
     <t xml:space="preserve">1.22792947292328</t>
@@ -1382,13 +1382,13 @@
     <t xml:space="preserve">1.25065612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24239182472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27200555801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29473221302032</t>
+    <t xml:space="preserve">1.24239194393158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27200531959534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29473197460175</t>
   </si>
   <si>
     <t xml:space="preserve">1.29817545413971</t>
@@ -1400,34 +1400,34 @@
     <t xml:space="preserve">1.30161893367767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29335474967957</t>
+    <t xml:space="preserve">1.29335463047028</t>
   </si>
   <si>
     <t xml:space="preserve">1.27958106994629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2671844959259</t>
+    <t xml:space="preserve">1.26718461513519</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26374125480652</t>
+    <t xml:space="preserve">1.26374113559723</t>
   </si>
   <si>
     <t xml:space="preserve">1.26993930339813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29955279827118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32985520362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39252579212189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40905427932739</t>
+    <t xml:space="preserve">1.29955291748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32985508441925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3925256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4090541601181</t>
   </si>
   <si>
     <t xml:space="preserve">1.42007315158844</t>
@@ -1436,19 +1436,19 @@
     <t xml:space="preserve">1.39114832878113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3966578245163</t>
+    <t xml:space="preserve">1.39665794372559</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34156286716461</t>
+    <t xml:space="preserve">1.34156274795532</t>
   </si>
   <si>
     <t xml:space="preserve">1.30781722068787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38794767856598</t>
+    <t xml:space="preserve">1.38794755935669</t>
   </si>
   <si>
     <t xml:space="preserve">1.41661822795868</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">1.36001229286194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38427197933197</t>
+    <t xml:space="preserve">1.38427186012268</t>
   </si>
   <si>
     <t xml:space="preserve">1.42543983459473</t>
@@ -1481,25 +1481,25 @@
     <t xml:space="preserve">1.43867242336273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47469437122345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48645675182343</t>
+    <t xml:space="preserve">1.47469449043274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48645663261414</t>
   </si>
   <si>
     <t xml:space="preserve">1.52468395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704050064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49968922138214</t>
+    <t xml:space="preserve">1.50704061985016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49968910217285</t>
   </si>
   <si>
     <t xml:space="preserve">1.4967485666275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4908674955368</t>
+    <t xml:space="preserve">1.49086761474609</t>
   </si>
   <si>
     <t xml:space="preserve">1.52615427970886</t>
@@ -1508,22 +1508,22 @@
     <t xml:space="preserve">1.51439189910889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56585204601288</t>
+    <t xml:space="preserve">1.56585192680359</t>
   </si>
   <si>
     <t xml:space="preserve">1.55555987358093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55261933803558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50262975692749</t>
+    <t xml:space="preserve">1.55261945724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5026296377182</t>
   </si>
   <si>
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792684078217</t>
+    <t xml:space="preserve">1.48792695999146</t>
   </si>
   <si>
     <t xml:space="preserve">1.47910523414612</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">1.50998115539551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52321374416351</t>
+    <t xml:space="preserve">1.5232138633728</t>
   </si>
   <si>
     <t xml:space="preserve">1.44455361366272</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">1.46366727352142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45558059215546</t>
+    <t xml:space="preserve">1.45558071136475</t>
   </si>
   <si>
     <t xml:space="preserve">1.45043480396271</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">1.43058586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42396950721741</t>
+    <t xml:space="preserve">1.4239696264267</t>
   </si>
   <si>
     <t xml:space="preserve">1.43940758705139</t>
@@ -1583,31 +1583,31 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44675898551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46146190166473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48498642444611</t>
+    <t xml:space="preserve">1.4467591047287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46146178245544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48498630523682</t>
   </si>
   <si>
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762472629547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56144118309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5732034444809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55114901065826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58643591403961</t>
+    <t xml:space="preserve">1.52762460708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5614413022995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57320332527161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55114912986755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5864360332489</t>
   </si>
   <si>
     <t xml:space="preserve">1.59672784805298</t>
@@ -1628,46 +1628,46 @@
     <t xml:space="preserve">1.64377701282501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64524710178375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62760376930237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113883018494</t>
+    <t xml:space="preserve">1.64524722099304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62760388851166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113871097565</t>
   </si>
   <si>
     <t xml:space="preserve">1.62466335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59525763988495</t>
+    <t xml:space="preserve">1.59525752067566</t>
   </si>
   <si>
     <t xml:space="preserve">1.37471508979797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39529895782471</t>
+    <t xml:space="preserve">1.395299077034</t>
   </si>
   <si>
     <t xml:space="preserve">1.40191531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147208213806</t>
+    <t xml:space="preserve">1.41147220134735</t>
   </si>
   <si>
     <t xml:space="preserve">1.408531665802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39971005916595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40118026733398</t>
+    <t xml:space="preserve">1.39970993995667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40118014812469</t>
   </si>
   <si>
     <t xml:space="preserve">1.39897477626801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43279135227203</t>
+    <t xml:space="preserve">1.43279123306274</t>
   </si>
   <si>
     <t xml:space="preserve">1.44822931289673</t>
@@ -1682,13 +1682,13 @@
     <t xml:space="preserve">1.39088821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37250959873199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36074733734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35486626625061</t>
+    <t xml:space="preserve">1.37250971794128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3607474565506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3548663854599</t>
   </si>
   <si>
     <t xml:space="preserve">1.3453094959259</t>
@@ -1697,58 +1697,58 @@
     <t xml:space="preserve">1.28943860530853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27179515361786</t>
+    <t xml:space="preserve">1.27179527282715</t>
   </si>
   <si>
     <t xml:space="preserve">1.28649806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21665954589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2556220293045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25415170192719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28355753421783</t>
+    <t xml:space="preserve">1.21665966510773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25562214851379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25415182113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28355765342712</t>
   </si>
   <si>
     <t xml:space="preserve">1.2975252866745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31590366363525</t>
+    <t xml:space="preserve">1.31590378284454</t>
   </si>
   <si>
     <t xml:space="preserve">1.30855226516724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31516873836517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28576278686523</t>
+    <t xml:space="preserve">1.31516861915588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28576290607452</t>
   </si>
   <si>
     <t xml:space="preserve">1.29017388820648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2497410774231</t>
+    <t xml:space="preserve">1.24974095821381</t>
   </si>
   <si>
     <t xml:space="preserve">1.27841150760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24091935157776</t>
+    <t xml:space="preserve">1.24091923236847</t>
   </si>
   <si>
     <t xml:space="preserve">1.24459493160248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25121128559113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31222796440125</t>
+    <t xml:space="preserve">1.25121116638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31222808361053</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
@@ -1766,22 +1766,22 @@
     <t xml:space="preserve">1.26811957359314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25782752037048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22180557250977</t>
+    <t xml:space="preserve">1.25782763957977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22180545330048</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327601909637</t>
+    <t xml:space="preserve">1.22327589988708</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2365083694458</t>
+    <t xml:space="preserve">1.23650848865509</t>
   </si>
   <si>
     <t xml:space="preserve">1.23356783390045</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">1.3225200176239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3166389465332</t>
+    <t xml:space="preserve">1.31663882732391</t>
   </si>
   <si>
     <t xml:space="preserve">1.29164409637451</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">1.26150321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25856280326843</t>
+    <t xml:space="preserve">1.25856268405914</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1817,16 +1817,16 @@
     <t xml:space="preserve">1.24680042266846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24312460422516</t>
+    <t xml:space="preserve">1.24312472343445</t>
   </si>
   <si>
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28796827793121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29679000377655</t>
+    <t xml:space="preserve">1.2879683971405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29679012298584</t>
   </si>
   <si>
     <t xml:space="preserve">1.24165439605713</t>
@@ -1835,10 +1835,10 @@
     <t xml:space="preserve">1.2401841878891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28870356082916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27914667129517</t>
+    <t xml:space="preserve">1.28870344161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27914655208588</t>
   </si>
   <si>
     <t xml:space="preserve">1.21004331111908</t>
@@ -1850,10 +1850,10 @@
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502786159515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28135216236115</t>
+    <t xml:space="preserve">1.28502774238586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28135204315186</t>
   </si>
   <si>
     <t xml:space="preserve">1.29311430454254</t>
@@ -1865,16 +1865,16 @@
     <t xml:space="preserve">1.38941788673401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36589348316193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3511905670166</t>
+    <t xml:space="preserve">1.36589336395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35119068622589</t>
   </si>
   <si>
     <t xml:space="preserve">1.32325518131256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32693076133728</t>
+    <t xml:space="preserve">1.32693088054657</t>
   </si>
   <si>
     <t xml:space="preserve">1.31810915470123</t>
@@ -1889,28 +1889,28 @@
     <t xml:space="preserve">1.28723323345184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2842925786972</t>
+    <t xml:space="preserve">1.28429269790649</t>
   </si>
   <si>
     <t xml:space="preserve">1.3129631280899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33060657978058</t>
+    <t xml:space="preserve">1.33060646057129</t>
   </si>
   <si>
     <t xml:space="preserve">1.36736369132996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33428239822388</t>
+    <t xml:space="preserve">1.33428227901459</t>
   </si>
   <si>
     <t xml:space="preserve">1.35266077518463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31737399101257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27694118022919</t>
+    <t xml:space="preserve">1.31737411022186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27694129943848</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046582221985</t>
@@ -1919,10 +1919,10 @@
     <t xml:space="preserve">1.27767646312714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29826045036316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30340623855591</t>
+    <t xml:space="preserve">1.29826033115387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3034063577652</t>
   </si>
   <si>
     <t xml:space="preserve">1.27326548099518</t>
@@ -1931,19 +1931,19 @@
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134186267853</t>
+    <t xml:space="preserve">1.33134174346924</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531967639923</t>
+    <t xml:space="preserve">1.29531979560852</t>
   </si>
   <si>
     <t xml:space="preserve">1.2747358083725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27253043651581</t>
+    <t xml:space="preserve">1.27253031730652</t>
   </si>
   <si>
     <t xml:space="preserve">1.26958978176117</t>
@@ -1958,22 +1958,22 @@
     <t xml:space="preserve">1.21445417404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371912956238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21592450141907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2056325674057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22915697097778</t>
+    <t xml:space="preserve">1.21371901035309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21592438220978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20563244819641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22915709018707</t>
   </si>
   <si>
     <t xml:space="preserve">1.25194644927979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22989225387573</t>
+    <t xml:space="preserve">1.22989213466644</t>
   </si>
   <si>
     <t xml:space="preserve">1.2306272983551</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18137276172638</t>
+    <t xml:space="preserve">1.18137288093567</t>
   </si>
   <si>
     <t xml:space="preserve">1.17034566402435</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">1.15711319446564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13358855247498</t>
+    <t xml:space="preserve">1.13358867168427</t>
   </si>
   <si>
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448519229889</t>
+    <t xml:space="preserve">1.06448531150818</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
@@ -2030,19 +2030,19 @@
     <t xml:space="preserve">1.06522035598755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10859370231628</t>
+    <t xml:space="preserve">1.10859382152557</t>
   </si>
   <si>
     <t xml:space="preserve">1.08653962612152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08727467060089</t>
+    <t xml:space="preserve">1.0872745513916</t>
   </si>
   <si>
     <t xml:space="preserve">1.07624757289886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08713448047638</t>
+    <t xml:space="preserve">1.08713436126709</t>
   </si>
   <si>
     <t xml:space="preserve">1.10890829563141</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.05913960933685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02647888660431</t>
+    <t xml:space="preserve">1.0264790058136</t>
   </si>
   <si>
     <t xml:space="preserve">1.02181303501129</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.02259075641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995373427867889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00548279285431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00237214565277</t>
+    <t xml:space="preserve">0.995373487472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00548267364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00237226486206</t>
   </si>
   <si>
     <t xml:space="preserve">1.01248145103455</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.00159454345703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01714730262756</t>
+    <t xml:space="preserve">1.01714718341827</t>
   </si>
   <si>
     <t xml:space="preserve">1.03969871997833</t>
@@ -2093,31 +2093,31 @@
     <t xml:space="preserve">0.996151089668274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.000816822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987597167491913</t>
+    <t xml:space="preserve">1.00081694126129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987597048282623</t>
   </si>
   <si>
     <t xml:space="preserve">0.965823292732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970489203929901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967378497123718</t>
+    <t xml:space="preserve">0.970489144325256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967378556728363</t>
   </si>
   <si>
     <t xml:space="preserve">0.998484075069427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991485297679901</t>
+    <t xml:space="preserve">0.991485238075256</t>
   </si>
   <si>
     <t xml:space="preserve">0.993040502071381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999261617660522</t>
+    <t xml:space="preserve">0.999261677265167</t>
   </si>
   <si>
     <t xml:space="preserve">1.02958941459656</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">1.0303670167923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581058979034</t>
+    <t xml:space="preserve">1.03581047058105</t>
   </si>
   <si>
     <t xml:space="preserve">1.08246862888336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0560290813446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10190951824188</t>
+    <t xml:space="preserve">1.05602896213531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10190963745117</t>
   </si>
   <si>
     <t xml:space="preserve">1.09413313865662</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">1.15789926052094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16645324230194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1509006023407</t>
+    <t xml:space="preserve">1.16645336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15090048313141</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612544536591</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">1.10968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13301503658295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13068211078644</t>
+    <t xml:space="preserve">1.13301491737366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13068199157715</t>
   </si>
   <si>
     <t xml:space="preserve">1.13145971298218</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">1.14467942714691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1236834526062</t>
+    <t xml:space="preserve">1.12368333339691</t>
   </si>
   <si>
     <t xml:space="preserve">1.10735297203064</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">1.11590695381165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12057268619537</t>
+    <t xml:space="preserve">1.12057280540466</t>
   </si>
   <si>
     <t xml:space="preserve">1.13534784317017</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.19678115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17345190048218</t>
+    <t xml:space="preserve">1.17345201969147</t>
   </si>
   <si>
     <t xml:space="preserve">1.18978226184845</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">1.22011005878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2208878993988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21077847480774</t>
+    <t xml:space="preserve">1.22088778018951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21077859401703</t>
   </si>
   <si>
     <t xml:space="preserve">1.19133758544922</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.25976955890656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27376687526703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26987886428833</t>
+    <t xml:space="preserve">1.27376699447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26987874507904</t>
   </si>
   <si>
     <t xml:space="preserve">1.27609992027283</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">1.33286726474762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34608709812164</t>
+    <t xml:space="preserve">1.34608697891235</t>
   </si>
   <si>
     <t xml:space="preserve">1.35852921009064</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">1.39896631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38807928562164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37330436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35464107990265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35619628429413</t>
+    <t xml:space="preserve">1.38807940483093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37330424785614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35464096069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35619640350342</t>
   </si>
   <si>
     <t xml:space="preserve">1.33753311634064</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">1.3134263753891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28465390205383</t>
+    <t xml:space="preserve">1.28465378284454</t>
   </si>
   <si>
     <t xml:space="preserve">1.27143406867981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25821435451508</t>
+    <t xml:space="preserve">1.25821423530579</t>
   </si>
   <si>
     <t xml:space="preserve">1.25899183750153</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.25510370731354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23644042015076</t>
+    <t xml:space="preserve">1.23644053936005</t>
   </si>
   <si>
     <t xml:space="preserve">1.24343919754028</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">1.16412031650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15167820453644</t>
+    <t xml:space="preserve">1.15167808532715</t>
   </si>
   <si>
     <t xml:space="preserve">1.12757158279419</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">1.11823987960815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1213504076004</t>
+    <t xml:space="preserve">1.12135052680969</t>
   </si>
   <si>
     <t xml:space="preserve">1.12212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11357414722443</t>
+    <t xml:space="preserve">1.11357402801514</t>
   </si>
   <si>
     <t xml:space="preserve">1.10579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08868968486786</t>
+    <t xml:space="preserve">1.08868980407715</t>
   </si>
   <si>
     <t xml:space="preserve">1.11746227741241</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">1.14623475074768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1065753698349</t>
+    <t xml:space="preserve">1.10657525062561</t>
   </si>
   <si>
     <t xml:space="preserve">1.11201870441437</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.13923597335815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1337925195694</t>
+    <t xml:space="preserve">1.13379263877869</t>
   </si>
   <si>
     <t xml:space="preserve">1.05447375774384</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">1.04047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01403665542603</t>
+    <t xml:space="preserve">1.01403677463531</t>
   </si>
   <si>
     <t xml:space="preserve">1.01325905323029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996928751468658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958824574947357</t>
+    <t xml:space="preserve">0.996928691864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958824634552002</t>
   </si>
   <si>
     <t xml:space="preserve">0.942494213581085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948715329170227</t>
+    <t xml:space="preserve">0.948715388774872</t>
   </si>
   <si>
     <t xml:space="preserve">0.954936444759369</t>
@@ -2498,19 +2498,19 @@
     <t xml:space="preserve">1.00470507144928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990707695484161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985264122486115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997706413269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983708918094635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959602177143097</t>
+    <t xml:space="preserve">0.990707635879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985264182090759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997706294059753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98370897769928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959602236747742</t>
   </si>
   <si>
     <t xml:space="preserve">0.884949207305908</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">0.88106107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894280791282654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855399131774902</t>
+    <t xml:space="preserve">0.894280850887299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855399072170258</t>
   </si>
   <si>
     <t xml:space="preserve">0.828181862831116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801742196083069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815739631652832</t>
+    <t xml:space="preserve">0.801742255687714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815739691257477</t>
   </si>
   <si>
     <t xml:space="preserve">0.752362310886383</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">0.678875803947449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.695595026016235</t>
+    <t xml:space="preserve">0.695594966411591</t>
   </si>
   <si>
     <t xml:space="preserve">0.687040984630585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683930397033691</t>
+    <t xml:space="preserve">0.683930456638336</t>
   </si>
   <si>
     <t xml:space="preserve">0.645048677921295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632217645645142</t>
+    <t xml:space="preserve">0.632217705249786</t>
   </si>
   <si>
     <t xml:space="preserve">0.592558324337006</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">0.612388014793396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611610293388367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575839102268219</t>
+    <t xml:space="preserve">0.611610352993011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575839042663574</t>
   </si>
   <si>
     <t xml:space="preserve">0.572339713573456</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">0.550177097320557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576227903366089</t>
+    <t xml:space="preserve">0.576227962970734</t>
   </si>
   <si>
     <t xml:space="preserve">0.565729856491089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.57350617647171</t>
+    <t xml:space="preserve">0.573506236076355</t>
   </si>
   <si>
     <t xml:space="preserve">0.567673921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660990238189697</t>
+    <t xml:space="preserve">0.660990178585052</t>
   </si>
   <si>
     <t xml:space="preserve">0.684319257736206</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.638049960136414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674210011959076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681208670139313</t>
+    <t xml:space="preserve">0.674209952354431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681208729743958</t>
   </si>
   <si>
     <t xml:space="preserve">0.657879650592804</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.643882215023041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640771627426147</t>
+    <t xml:space="preserve">0.640771687030792</t>
   </si>
   <si>
     <t xml:space="preserve">0.611999154090881</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">0.622108399868011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.605778098106384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608110964298248</t>
+    <t xml:space="preserve">0.60577803850174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608111023902893</t>
   </si>
   <si>
     <t xml:space="preserve">0.613165616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607333362102509</t>
+    <t xml:space="preserve">0.607333302497864</t>
   </si>
   <si>
     <t xml:space="preserve">0.626385390758514</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">0.621330797672272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598779320716858</t>
+    <t xml:space="preserve">0.598779380321503</t>
   </si>
   <si>
     <t xml:space="preserve">0.615498483181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559897601604462</t>
+    <t xml:space="preserve">0.559897541999817</t>
   </si>
   <si>
     <t xml:space="preserve">0.549399495124817</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">0.547844231128693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544344842433929</t>
+    <t xml:space="preserve">0.544344902038574</t>
   </si>
   <si>
     <t xml:space="preserve">0.547455430030823</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.57311737537384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593724727630615</t>
+    <t xml:space="preserve">0.59372466802597</t>
   </si>
   <si>
     <t xml:space="preserve">0.628329515457153</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">0.625996589660645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637661159038544</t>
+    <t xml:space="preserve">0.637661099433899</t>
   </si>
   <si>
     <t xml:space="preserve">0.61433207988739</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">0.654380261898041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632606506347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585170745849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586725950241089</t>
+    <t xml:space="preserve">0.632606446743011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585170686244965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586726009845734</t>
   </si>
   <si>
     <t xml:space="preserve">0.580893695354462</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">0.600334644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587892472743988</t>
+    <t xml:space="preserve">0.587892413139343</t>
   </si>
   <si>
     <t xml:space="preserve">0.580116093158722</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">0.576616764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58322662115097</t>
+    <t xml:space="preserve">0.583226680755615</t>
   </si>
   <si>
     <t xml:space="preserve">0.564563393592834</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">0.548233032226562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.541623115539551</t>
+    <t xml:space="preserve">0.541623175144196</t>
   </si>
   <si>
     <t xml:space="preserve">0.524903953075409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519460499286652</t>
+    <t xml:space="preserve">0.519460558891296</t>
   </si>
   <si>
     <t xml:space="preserve">0.515961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4766905605793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489521563053131</t>
+    <t xml:space="preserve">0.476690530776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489521533250809</t>
   </si>
   <si>
     <t xml:space="preserve">0.508962452411652</t>
@@ -2789,31 +2789,31 @@
     <t xml:space="preserve">0.491076827049255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501186072826385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498464375734329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48602220416069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497686713933945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486799836158752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477079391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474746465682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459193795919418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444418668746948</t>
+    <t xml:space="preserve">0.50118613243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498464345932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486022174358368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497686743736267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48679980635643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477079421281815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474746435880661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459193736314774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444418698549271</t>
   </si>
   <si>
     <t xml:space="preserve">0.451806217432022</t>
@@ -2825,34 +2825,34 @@
     <t xml:space="preserve">0.485633373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478245854377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.491854459047318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508573651313782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467358976602554</t>
+    <t xml:space="preserve">0.478245824575424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49185448884964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508573591709137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467358946800232</t>
   </si>
   <si>
     <t xml:space="preserve">0.455694437026978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463859587907791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489132732152939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478634625673294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476301789283752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.482522875070572</t>
+    <t xml:space="preserve">0.463859558105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489132761955261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478634655475616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476301729679108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48252284526825</t>
   </si>
   <si>
     <t xml:space="preserve">0.477857023477554</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">0.473580062389374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474357664585114</t>
+    <t xml:space="preserve">0.474357694387436</t>
   </si>
   <si>
     <t xml:space="preserve">0.46036022901535</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">0.464637249708176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463470786809921</t>
+    <t xml:space="preserve">0.463470757007599</t>
   </si>
   <si>
     <t xml:space="preserve">0.458027333021164</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">0.446751624345779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438975214958191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.436253547668457</t>
+    <t xml:space="preserve">0.438975244760513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.436253517866135</t>
   </si>
   <si>
     <t xml:space="preserve">0.432754188776016</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">0.374820321798325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360200792551041</t>
+    <t xml:space="preserve">0.360200762748718</t>
   </si>
   <si>
     <t xml:space="preserve">0.355068385601044</t>
@@ -2933,22 +2933,22 @@
     <t xml:space="preserve">0.337649345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345892250537872</t>
+    <t xml:space="preserve">0.345892280340195</t>
   </si>
   <si>
     <t xml:space="preserve">0.331894844770432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346669942140579</t>
+    <t xml:space="preserve">0.346669912338257</t>
   </si>
   <si>
     <t xml:space="preserve">0.369376868009567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373576074838638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388040155172348</t>
+    <t xml:space="preserve">0.373576104640961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388040125370026</t>
   </si>
   <si>
     <t xml:space="preserve">0.396594107151031</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">0.36035630106926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341848582029343</t>
+    <t xml:space="preserve">0.34184855222702</t>
   </si>
   <si>
     <t xml:space="preserve">0.323962956666946</t>
@@ -2981,10 +2981,10 @@
     <t xml:space="preserve">0.337182760238647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359423100948334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351802319288254</t>
+    <t xml:space="preserve">0.359423130750656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351802289485931</t>
   </si>
   <si>
     <t xml:space="preserve">0.386484861373901</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">0.358645498752594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336405098438263</t>
+    <t xml:space="preserve">0.336405128240585</t>
   </si>
   <si>
     <t xml:space="preserve">0.341693043708801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356001555919647</t>
+    <t xml:space="preserve">0.356001526117325</t>
   </si>
   <si>
     <t xml:space="preserve">0.35413521528244</t>
@@ -3029,28 +3029,28 @@
     <t xml:space="preserve">0.390373021364212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417979121208191</t>
+    <t xml:space="preserve">0.417979091405869</t>
   </si>
   <si>
     <t xml:space="preserve">0.421478450298309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445585191249847</t>
+    <t xml:space="preserve">0.445585161447525</t>
   </si>
   <si>
     <t xml:space="preserve">0.437419980764389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440141707658768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462693125009537</t>
+    <t xml:space="preserve">0.440141677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462693154811859</t>
   </si>
   <si>
     <t xml:space="preserve">0.461137861013412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437031149864197</t>
+    <t xml:space="preserve">0.437031120061874</t>
   </si>
   <si>
     <t xml:space="preserve">0.419145524501801</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">0.45025098323822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446362793445587</t>
+    <t xml:space="preserve">0.446362763643265</t>
   </si>
   <si>
     <t xml:space="preserve">0.454139143228531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452972650527954</t>
+    <t xml:space="preserve">0.452972680330276</t>
   </si>
   <si>
     <t xml:space="preserve">0.457638502120972</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">0.472024768590927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448306858539581</t>
+    <t xml:space="preserve">0.448306888341904</t>
   </si>
   <si>
     <t xml:space="preserve">0.452583879232407</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">0.457249671220779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465803653001785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.461526691913605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462304294109344</t>
+    <t xml:space="preserve">0.465803682804108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.461526721715927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462304323911667</t>
   </si>
   <si>
     <t xml:space="preserve">0.472413599491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496131479740143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500408411026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494187414646149</t>
+    <t xml:space="preserve">0.49613144993782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500408470630646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494187384843826</t>
   </si>
   <si>
     <t xml:space="preserve">0.48213404417038</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">0.465414851903915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479801088571548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.470469504594803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.449084520339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419923186302185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.432365357875824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430421233177185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431976526975632</t>
+    <t xml:space="preserve">0.479801118373871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47046947479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449084490537643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419923216104507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.432365328073502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430421262979507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431976497173309</t>
   </si>
   <si>
     <t xml:space="preserve">0.421867281198502</t>
@@ -3146,19 +3146,19 @@
     <t xml:space="preserve">0.43119889497757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44091933965683</t>
+    <t xml:space="preserve">0.440919309854507</t>
   </si>
   <si>
     <t xml:space="preserve">0.442863434553146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46658131480217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566896259784698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521404623985291</t>
+    <t xml:space="preserve">0.466581344604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566896319389343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521404564380646</t>
   </si>
   <si>
     <t xml:space="preserve">0.530347406864166</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">0.500797271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494576185941696</t>
+    <t xml:space="preserve">0.494576156139374</t>
   </si>
   <si>
     <t xml:space="preserve">0.507795989513397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507018327713013</t>
+    <t xml:space="preserve">0.507018387317657</t>
   </si>
   <si>
     <t xml:space="preserve">0.504685461521149</t>
@@ -3209,40 +3209,40 @@
     <t xml:space="preserve">0.524126350879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513239443302155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502741396427155</t>
+    <t xml:space="preserve">0.513239502906799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50274133682251</t>
   </si>
   <si>
     <t xml:space="preserve">0.49652025103569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487577438354492</t>
+    <t xml:space="preserve">0.487577468156815</t>
   </si>
   <si>
     <t xml:space="preserve">0.480578750371933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493409723043442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485244601964951</t>
+    <t xml:space="preserve">0.493409782648087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485244572162628</t>
   </si>
   <si>
     <t xml:space="preserve">0.487188667058945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449473351240158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448695689439774</t>
+    <t xml:space="preserve">0.449473321437836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448695719242096</t>
   </si>
   <si>
     <t xml:space="preserve">0.44776251912117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44667387008667</t>
+    <t xml:space="preserve">0.446673840284348</t>
   </si>
   <si>
     <t xml:space="preserve">0.442630112171173</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">0.459427058696747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451184153556824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460982322692871</t>
+    <t xml:space="preserve">0.451184123754501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460982352495193</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096727132797</t>
@@ -3266,31 +3266,31 @@
     <t xml:space="preserve">0.449006766080856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450406551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456938654184341</t>
+    <t xml:space="preserve">0.450406521558762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456938624382019</t>
   </si>
   <si>
     <t xml:space="preserve">0.442474603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461760014295578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446829319000244</t>
+    <t xml:space="preserve">0.461759984493256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446829348802567</t>
   </si>
   <si>
     <t xml:space="preserve">0.451961755752563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46471494436264</t>
+    <t xml:space="preserve">0.464714974164963</t>
   </si>
   <si>
     <t xml:space="preserve">0.458338350057602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453516989946365</t>
+    <t xml:space="preserve">0.453517019748688</t>
   </si>
   <si>
     <t xml:space="preserve">0.454916775226593</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">0.459115982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479178965091705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.495353847742081</t>
+    <t xml:space="preserve">0.479178994894028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.495353817939758</t>
   </si>
   <si>
     <t xml:space="preserve">0.527236878871918</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">0.526303708553314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534546613693237</t>
+    <t xml:space="preserve">0.534546673297882</t>
   </si>
   <si>
     <t xml:space="preserve">0.545589089393616</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">0.548077523708344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553209841251373</t>
+    <t xml:space="preserve">0.553209900856018</t>
   </si>
   <si>
     <t xml:space="preserve">0.57031786441803</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">0.57684999704361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.606400191783905</t>
+    <t xml:space="preserve">0.60640013217926</t>
   </si>
   <si>
     <t xml:space="preserve">0.591003000736237</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">0.668610990047455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671566069126129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675143182277679</t>
+    <t xml:space="preserve">0.671566009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675143122673035</t>
   </si>
   <si>
     <t xml:space="preserve">0.671099424362183</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">0.655391216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649325609207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650258779525757</t>
+    <t xml:space="preserve">0.649325668811798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650258839130402</t>
   </si>
   <si>
     <t xml:space="preserve">0.629884779453278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613709926605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590380847454071</t>
+    <t xml:space="preserve">0.613709986209869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590380907058716</t>
   </si>
   <si>
     <t xml:space="preserve">0.586959302425385</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">0.597535133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.581826865673065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552276730537415</t>
+    <t xml:space="preserve">0.58182692527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552276790142059</t>
   </si>
   <si>
     <t xml:space="preserve">0.556009352207184</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">0.524592936038971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511839687824249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500330746173859</t>
+    <t xml:space="preserve">0.511839747428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500330686569214</t>
   </si>
   <si>
     <t xml:space="preserve">0.508729159832001</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">0.508107006549835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50452995300293</t>
+    <t xml:space="preserve">0.504529893398285</t>
   </si>
   <si>
     <t xml:space="preserve">0.507951498031616</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">0.506551802158356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497064590454102</t>
+    <t xml:space="preserve">0.497064620256424</t>
   </si>
   <si>
     <t xml:space="preserve">0.520860254764557</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">0.505774140357971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503285646438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511995196342468</t>
+    <t xml:space="preserve">0.503285706043243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511995255947113</t>
   </si>
   <si>
     <t xml:space="preserve">0.51246178150177</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">0.510595500469208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521171271800995</t>
+    <t xml:space="preserve">0.52117133140564</t>
   </si>
   <si>
     <t xml:space="preserve">0.509817838668823</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">0.505463063716888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517438650131226</t>
+    <t xml:space="preserve">0.51743870973587</t>
   </si>
   <si>
     <t xml:space="preserve">0.517283141613007</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">0.500486195087433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494109600782394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.520393669605255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525215029716492</t>
+    <t xml:space="preserve">0.494109630584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5203937292099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525215089321136</t>
   </si>
   <si>
     <t xml:space="preserve">0.516038954257965</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">0.54496693611145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551965713500977</t>
+    <t xml:space="preserve">0.551965653896332</t>
   </si>
   <si>
     <t xml:space="preserve">0.541545391082764</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">0.549166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.537812769412994</t>
+    <t xml:space="preserve">0.53781270980835</t>
   </si>
   <si>
     <t xml:space="preserve">0.553831994533539</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">0.567984998226166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583071172237396</t>
+    <t xml:space="preserve">0.583071112632751</t>
   </si>
   <si>
     <t xml:space="preserve">0.623663723468781</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">0.609821796417236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623352646827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656168878078461</t>
+    <t xml:space="preserve">0.623352587223053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656168818473816</t>
   </si>
   <si>
     <t xml:space="preserve">0.669388651847839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.63392847776413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573584020137787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583848774433136</t>
+    <t xml:space="preserve">0.633928418159485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573583960533142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583848714828491</t>
   </si>
   <si>
     <t xml:space="preserve">0.589447736740112</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">0.552121222019196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557098090648651</t>
+    <t xml:space="preserve">0.557098150253296</t>
   </si>
   <si>
     <t xml:space="preserve">0.563008069992065</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">0.542167484760284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523659765720367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522726655006409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502663552761078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492865383625031</t>
+    <t xml:space="preserve">0.523659706115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522726595401764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502663612365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492865413427353</t>
   </si>
   <si>
     <t xml:space="preserve">0.499553054571152</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">0.4955093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489754885435104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507484912872314</t>
+    <t xml:space="preserve">0.48975482583046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507484972476959</t>
   </si>
   <si>
     <t xml:space="preserve">0.523348689079285</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">0.52474844455719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513550519943237</t>
+    <t xml:space="preserve">0.513550460338593</t>
   </si>
   <si>
     <t xml:space="preserve">0.493643045425415</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">0.461293399333954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464092910289764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435786932706833</t>
+    <t xml:space="preserve">0.464092880487442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435786962509155</t>
   </si>
   <si>
     <t xml:space="preserve">0.432054281234741</t>
@@ -3683,19 +3683,19 @@
     <t xml:space="preserve">0.417745798826218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450095474720001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452739387750626</t>
+    <t xml:space="preserve">0.450095444917679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452739417552948</t>
   </si>
   <si>
     <t xml:space="preserve">0.43843087553978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43547585606575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430654555559158</t>
+    <t xml:space="preserve">0.435475885868073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430654525756836</t>
   </si>
   <si>
     <t xml:space="preserve">0.42536661028862</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">0.41525736451149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427232921123505</t>
+    <t xml:space="preserve">0.427232950925827</t>
   </si>
   <si>
     <t xml:space="preserve">0.424277931451797</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">0.412457853555679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422878205776215</t>
+    <t xml:space="preserve">0.422878175973892</t>
   </si>
   <si>
     <t xml:space="preserve">0.422722697257996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434542685747147</t>
+    <t xml:space="preserve">0.434542715549469</t>
   </si>
   <si>
     <t xml:space="preserve">0.424900054931641</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">0.43407616019249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436564564704895</t>
+    <t xml:space="preserve">0.436564594507217</t>
   </si>
   <si>
     <t xml:space="preserve">0.440608292818069</t>
@@ -3743,37 +3743,37 @@
     <t xml:space="preserve">0.443252235651016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462071031332016</t>
+    <t xml:space="preserve">0.462071001529694</t>
   </si>
   <si>
     <t xml:space="preserve">0.456005454063416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456472039222717</t>
+    <t xml:space="preserve">0.45647206902504</t>
   </si>
   <si>
     <t xml:space="preserve">0.446207284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453205972909927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448851197957993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430032402276993</t>
+    <t xml:space="preserve">0.453205943107605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448851227760315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430032432079315</t>
   </si>
   <si>
     <t xml:space="preserve">0.443563312292099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457405179738998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452117294073105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427543997764587</t>
+    <t xml:space="preserve">0.457405209541321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452117264270782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.427543967962265</t>
   </si>
   <si>
     <t xml:space="preserve">0.423344761133194</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">0.472802400588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466270297765732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480423241853714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455227792263031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.441697001457214</t>
+    <t xml:space="preserve">0.466270238161087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480423212051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455227822065353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441696971654892</t>
   </si>
   <si>
     <t xml:space="preserve">0.386173814535141</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">0.42863267660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408725261688232</t>
+    <t xml:space="preserve">0.40872523188591</t>
   </si>
   <si>
     <t xml:space="preserve">0.411058127880096</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">0.436098009347916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451495170593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478401362895966</t>
+    <t xml:space="preserve">0.451495200395584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478401392698288</t>
   </si>
   <si>
     <t xml:space="preserve">0.468914210796356</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">0.467203408479691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513083934783936</t>
+    <t xml:space="preserve">0.513083875179291</t>
   </si>
   <si>
     <t xml:space="preserve">0.515883386135101</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">0.54792195558548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542634069919586</t>
+    <t xml:space="preserve">0.542634010314941</t>
   </si>
   <si>
     <t xml:space="preserve">0.537346124649048</t>
@@ -3863,22 +3863,22 @@
     <t xml:space="preserve">0.551810145378113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572028636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619775533676147</t>
+    <t xml:space="preserve">0.572028696537018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619775474071503</t>
   </si>
   <si>
     <t xml:space="preserve">0.64403772354126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671877086162567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705626428127289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705937504768372</t>
+    <t xml:space="preserve">0.671877145767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705626487731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705937564373016</t>
   </si>
   <si>
     <t xml:space="preserve">0.72786682844162</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">0.658968329429626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.639216423034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662545442581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682452917098999</t>
+    <t xml:space="preserve">0.639216363430023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662545502185822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682452976703644</t>
   </si>
   <si>
     <t xml:space="preserve">0.693650901317596</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">0.755084097385406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821183085441589</t>
+    <t xml:space="preserve">0.821183145046234</t>
   </si>
   <si>
     <t xml:space="preserve">0.744352698326111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771258950233459</t>
+    <t xml:space="preserve">0.771258890628815</t>
   </si>
   <si>
     <t xml:space="preserve">0.776546835899353</t>
@@ -3929,10 +3929,10 @@
     <t xml:space="preserve">0.765659928321838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835958242416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88067227602005</t>
+    <t xml:space="preserve">0.835958182811737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880672216415405</t>
   </si>
   <si>
     <t xml:space="preserve">0.936661899089813</t>
@@ -3944,22 +3944,22 @@
     <t xml:space="preserve">0.886893272399902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898169040679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891559064388275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918776273727417</t>
+    <t xml:space="preserve">0.898168981075287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89155912399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918776392936707</t>
   </si>
   <si>
     <t xml:space="preserve">0.897002577781677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925775110721588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989152371883392</t>
+    <t xml:space="preserve">0.925775170326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989152312278748</t>
   </si>
   <si>
     <t xml:space="preserve">0.989930033683777</t>
@@ -3986,10 +3986,10 @@
     <t xml:space="preserve">1.01442551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970877945423126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976321399211884</t>
+    <t xml:space="preserve">0.970877885818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976321339607239</t>
   </si>
   <si>
     <t xml:space="preserve">0.960768640041351</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">0.977487802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02414608001709</t>
+    <t xml:space="preserve">1.0241459608078</t>
   </si>
   <si>
     <t xml:space="preserve">1.11046350002289</t>
@@ -4028,19 +4028,19 @@
     <t xml:space="preserve">1.00859332084656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932538509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896224975585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879116952419281</t>
+    <t xml:space="preserve">0.975932598114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896224915981293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879116892814636</t>
   </si>
   <si>
     <t xml:space="preserve">0.838291049003601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879505753517151</t>
+    <t xml:space="preserve">0.879505813121796</t>
   </si>
   <si>
     <t xml:space="preserve">0.903612434864044</t>
@@ -4055,37 +4055,37 @@
     <t xml:space="preserve">0.897780239582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919942796230316</t>
+    <t xml:space="preserve">0.919942855834961</t>
   </si>
   <si>
     <t xml:space="preserve">0.969711542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988763511180878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961546301841736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0431981086731</t>
+    <t xml:space="preserve">0.988763570785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961546361446381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04319798946381</t>
   </si>
   <si>
     <t xml:space="preserve">0.945604801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8709517121315</t>
+    <t xml:space="preserve">0.870951771736145</t>
   </si>
   <si>
     <t xml:space="preserve">0.827793002128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869785368442535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83984637260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845289826393127</t>
+    <t xml:space="preserve">0.869785308837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839846432209015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845289766788483</t>
   </si>
   <si>
     <t xml:space="preserve">0.862397789955139</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">0.908278286457062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924608588218689</t>
+    <t xml:space="preserve">0.924608647823334</t>
   </si>
   <si>
     <t xml:space="preserve">1.00314974784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05097436904907</t>
+    <t xml:space="preserve">1.05097448825836</t>
   </si>
   <si>
     <t xml:space="preserve">1.03658807277679</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">1.01831364631653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940939009189606</t>
+    <t xml:space="preserve">0.940938949584961</t>
   </si>
   <si>
     <t xml:space="preserve">0.949881851673126</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">0.854232609272003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874062299728394</t>
+    <t xml:space="preserve">0.874062240123749</t>
   </si>
   <si>
     <t xml:space="preserve">0.878339350223541</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">0.76690411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770325720310211</t>
+    <t xml:space="preserve">0.770325779914856</t>
   </si>
   <si>
     <t xml:space="preserve">0.770481288433075</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">0.78852242231369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779579639434814</t>
+    <t xml:space="preserve">0.779579699039459</t>
   </si>
   <si>
     <t xml:space="preserve">0.724911868572235</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">0.737353980541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7581946849823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814961969852448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849566757678986</t>
+    <t xml:space="preserve">0.758194625377655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814962029457092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84956681728363</t>
   </si>
   <si>
     <t xml:space="preserve">0.807185649871826</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">0.797854006290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82001668214798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819239020347595</t>
+    <t xml:space="preserve">0.820016622543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81923907995224</t>
   </si>
   <si>
     <t xml:space="preserve">0.844901025295258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854621469974518</t>
+    <t xml:space="preserve">0.854621410369873</t>
   </si>
   <si>
     <t xml:space="preserve">0.865508377552032</t>
@@ -4229,16 +4229,16 @@
     <t xml:space="preserve">0.944049537181854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947548866271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956102848052979</t>
+    <t xml:space="preserve">0.947548925876617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956102907657623</t>
   </si>
   <si>
     <t xml:space="preserve">0.935106694698334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967767477035522</t>
+    <t xml:space="preserve">0.967767417430878</t>
   </si>
   <si>
     <t xml:space="preserve">0.926163911819458</t>
@@ -4259,25 +4259,25 @@
     <t xml:space="preserve">0.998872816562653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954158782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937439560890198</t>
+    <t xml:space="preserve">0.954158842563629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937439620494843</t>
   </si>
   <si>
     <t xml:space="preserve">0.89194792509079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882616341114044</t>
+    <t xml:space="preserve">0.882616281509399</t>
   </si>
   <si>
     <t xml:space="preserve">0.858509600162506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836346983909607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815350830554962</t>
+    <t xml:space="preserve">0.836347043514252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815350770950317</t>
   </si>
   <si>
     <t xml:space="preserve">0.832070052623749</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">0.824682474136353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829348266124725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816906154155731</t>
+    <t xml:space="preserve">0.829348206520081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816906094551086</t>
   </si>
   <si>
     <t xml:space="preserve">0.849955677986145</t>
@@ -4298,13 +4298,13 @@
     <t xml:space="preserve">0.851510882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872507095336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868618845939636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897391378879547</t>
+    <t xml:space="preserve">0.872507035732269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868618905544281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897391438484192</t>
   </si>
   <si>
     <t xml:space="preserve">0.893503248691559</t>
@@ -4316,22 +4316,22 @@
     <t xml:space="preserve">0.926552653312683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912944078445435</t>
+    <t xml:space="preserve">0.912944138050079</t>
   </si>
   <si>
     <t xml:space="preserve">0.937828421592712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952214658260345</t>
+    <t xml:space="preserve">0.952214598655701</t>
   </si>
   <si>
     <t xml:space="preserve">0.971655607223511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988374829292297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05564022064209</t>
+    <t xml:space="preserve">0.988374769687653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0556401014328</t>
   </si>
   <si>
     <t xml:space="preserve">1.12290573120117</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">1.18006193637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19211518764496</t>
+    <t xml:space="preserve">1.19211530685425</t>
   </si>
   <si>
     <t xml:space="preserve">1.18667185306549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20494616031647</t>
+    <t xml:space="preserve">1.20494627952576</t>
   </si>
   <si>
     <t xml:space="preserve">1.15128934383392</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.23799574375153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698670864105</t>
+    <t xml:space="preserve">1.28698682785034</t>
   </si>
   <si>
     <t xml:space="preserve">1.14001369476318</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">1.12873804569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15362238883972</t>
+    <t xml:space="preserve">1.15362226963043</t>
   </si>
   <si>
     <t xml:space="preserve">1.16684210300446</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">1.16606450080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15245580673218</t>
+    <t xml:space="preserve">1.15245592594147</t>
   </si>
   <si>
     <t xml:space="preserve">1.10463130474091</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">1.10929703712463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09607720375061</t>
+    <t xml:space="preserve">1.0960773229599</t>
   </si>
   <si>
     <t xml:space="preserve">1.03853225708008</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">1.09491086006165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15401101112366</t>
+    <t xml:space="preserve">1.15401113033295</t>
   </si>
   <si>
     <t xml:space="preserve">1.08985614776611</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">1.08052456378937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02686762809753</t>
+    <t xml:space="preserve">1.02686774730682</t>
   </si>
   <si>
     <t xml:space="preserve">1.02064669132233</t>
@@ -4469,28 +4469,28 @@
     <t xml:space="preserve">1.02803421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00353872776031</t>
+    <t xml:space="preserve">1.00353860855103</t>
   </si>
   <si>
     <t xml:space="preserve">0.99459582567215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986819446086884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97321081161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956491708755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966212153434753</t>
+    <t xml:space="preserve">0.986819565296173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973210871219635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956491649150848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966212093830109</t>
   </si>
   <si>
     <t xml:space="preserve">0.953769981861115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940161287784576</t>
+    <t xml:space="preserve">0.940161347389221</t>
   </si>
   <si>
     <t xml:space="preserve">0.933551430702209</t>
@@ -4502,31 +4502,31 @@
     <t xml:space="preserve">0.912555277347565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880283415317535</t>
+    <t xml:space="preserve">0.880283355712891</t>
   </si>
   <si>
     <t xml:space="preserve">0.853066146373749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89233672618866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916832327842712</t>
+    <t xml:space="preserve">0.892336785793304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916832268238068</t>
   </si>
   <si>
     <t xml:space="preserve">0.889226198196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93316262960434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933940291404724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980987191200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960379838943481</t>
+    <t xml:space="preserve">0.933162689208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933940172195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980987250804901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960379898548126</t>
   </si>
   <si>
     <t xml:space="preserve">0.98448657989502</t>
@@ -61658,7 +61658,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6493981481</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>2106546</v>
@@ -61670,7 +61670,7 @@
         <v>1.61749994754791</v>
       </c>
       <c r="E2158" t="n">
-        <v>1.62300002574921</v>
+        <v>1.61899995803833</v>
       </c>
       <c r="F2158" t="n">
         <v>1.61749994754791</v>
@@ -61679,6 +61679,32 @@
         <v>1740</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6493402778</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>1822182</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>1.62300002574921</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>1.61049997806549</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>1.61049997806549</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>1.61749994754791</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0017055273056</t>
+    <t xml:space="preserve">1.00170576572418</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
@@ -47,10 +47,10 @@
     <t xml:space="preserve">0.982317805290222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985255360603333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960579931735992</t>
+    <t xml:space="preserve">0.985255479812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960580050945282</t>
   </si>
   <si>
     <t xml:space="preserve">0.964105010032654</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">1.04165637493134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02814364433289</t>
+    <t xml:space="preserve">1.02814376354218</t>
   </si>
   <si>
     <t xml:space="preserve">1.03695631027222</t>
@@ -80,34 +80,34 @@
     <t xml:space="preserve">1.02579367160797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07749450206757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08101963996887</t>
+    <t xml:space="preserve">1.07749462127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08101952075958</t>
   </si>
   <si>
     <t xml:space="preserve">1.13565802574158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14564573764801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14682078361511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1150951385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12802040576935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14035820960999</t>
+    <t xml:space="preserve">1.1456458568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1468209028244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11509525775909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12802052497864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14035832881927</t>
   </si>
   <si>
     <t xml:space="preserve">1.11098265647888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09100723266602</t>
+    <t xml:space="preserve">1.09100747108459</t>
   </si>
   <si>
     <t xml:space="preserve">1.02755606174469</t>
@@ -116,13 +116,13 @@
     <t xml:space="preserve">0.957642436027527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829565048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840140283107758</t>
+    <t xml:space="preserve">0.853653013706207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829564988613129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840140223503113</t>
   </si>
   <si>
     <t xml:space="preserve">0.810764729976654</t>
@@ -131,28 +131,28 @@
     <t xml:space="preserve">0.81663978099823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873040795326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86364072561264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872453391551971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887728631496429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881853580474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86070328950882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842490375041962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850127995014191</t>
+    <t xml:space="preserve">0.873040854930878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863640606403351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872453331947327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887728452682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881853520870209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86070317029953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842490255832672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850127875804901</t>
   </si>
   <si>
     <t xml:space="preserve">0.94001704454422</t>
@@ -161,19 +161,19 @@
     <t xml:space="preserve">0.90417891740799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916516602039337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895366251468658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851890563964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.807827174663544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776101648807526</t>
+    <t xml:space="preserve">0.916516721248627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895366311073303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851890444755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.807827234268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776101529598236</t>
   </si>
   <si>
     <t xml:space="preserve">0.764938950538635</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.831915140151978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820164859294891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817814886569977</t>
+    <t xml:space="preserve">0.820164799690247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817814767360687</t>
   </si>
   <si>
     <t xml:space="preserve">0.828390061855316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833677589893341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823102474212646</t>
+    <t xml:space="preserve">0.833677709102631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823102414608002</t>
   </si>
   <si>
     <t xml:space="preserve">0.817227363586426</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">0.828977644443512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843077778816223</t>
+    <t xml:space="preserve">0.843077838420868</t>
   </si>
   <si>
     <t xml:space="preserve">0.865403234958649</t>
@@ -221,25 +221,25 @@
     <t xml:space="preserve">0.830740094184875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846602916717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848953008651733</t>
+    <t xml:space="preserve">0.84660279750824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848952949047089</t>
   </si>
   <si>
     <t xml:space="preserve">0.860115647315979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846015393733978</t>
+    <t xml:space="preserve">0.846015334129333</t>
   </si>
   <si>
     <t xml:space="preserve">0.834265112876892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822514891624451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845427930355072</t>
+    <t xml:space="preserve">0.822514951229095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845427870750427</t>
   </si>
   <si>
     <t xml:space="preserve">0.868340730667114</t>
@@ -254,16 +254,16 @@
     <t xml:space="preserve">0.905941486358643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89301609992981</t>
+    <t xml:space="preserve">0.893016159534454</t>
   </si>
   <si>
     <t xml:space="preserve">0.886553645133972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866578221321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869515836238861</t>
+    <t xml:space="preserve">0.866578280925751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869515776634216</t>
   </si>
   <si>
     <t xml:space="preserve">0.882440984249115</t>
@@ -272,37 +272,37 @@
     <t xml:space="preserve">0.864228188991547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835440218448639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826040089130402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83015251159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831327617168427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9071164727211</t>
+    <t xml:space="preserve">0.835440158843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826039910316467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830152571201324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831327497959137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907116591930389</t>
   </si>
   <si>
     <t xml:space="preserve">0.924741744995117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94530463218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93707948923111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928854286670685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961769223213196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98744261264801</t>
+    <t xml:space="preserve">0.9453045129776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937079548835754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92885422706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961769104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9874427318573</t>
   </si>
   <si>
     <t xml:space="preserve">0.994025588035583</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">1.03483986854553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04010629653931</t>
+    <t xml:space="preserve">1.04010617733002</t>
   </si>
   <si>
     <t xml:space="preserve">1.04076445102692</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">1.05261385440826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05458867549896</t>
+    <t xml:space="preserve">1.05458879470825</t>
   </si>
   <si>
     <t xml:space="preserve">1.05393040180206</t>
@@ -338,16 +338,16 @@
     <t xml:space="preserve">1.11646842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09276986122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03878962993622</t>
+    <t xml:space="preserve">1.09276974201202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03878951072693</t>
   </si>
   <si>
     <t xml:space="preserve">1.02299058437347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982834577560425</t>
+    <t xml:space="preserve">0.982834696769714</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07565414905548</t>
+    <t xml:space="preserve">1.07565402984619</t>
   </si>
   <si>
     <t xml:space="preserve">1.07302093505859</t>
@@ -368,16 +368,16 @@
     <t xml:space="preserve">1.10132777690887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.015749335289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959136068820953</t>
+    <t xml:space="preserve">1.01574921607971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959135949611664</t>
   </si>
   <si>
     <t xml:space="preserve">0.977568209171295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972301781177521</t>
+    <t xml:space="preserve">0.97230190038681</t>
   </si>
   <si>
     <t xml:space="preserve">1.02628207206726</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">1.02035737037659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961110830307007</t>
+    <t xml:space="preserve">0.961110889911652</t>
   </si>
   <si>
     <t xml:space="preserve">0.938728809356689</t>
@@ -398,10 +398,10 @@
     <t xml:space="preserve">0.936095714569092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956502676010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951894700527191</t>
+    <t xml:space="preserve">0.956502795219421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951894819736481</t>
   </si>
   <si>
     <t xml:space="preserve">0.936753869056702</t>
@@ -419,49 +419,49 @@
     <t xml:space="preserve">0.94860315322876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974276781082153</t>
+    <t xml:space="preserve">0.974276661872864</t>
   </si>
   <si>
     <t xml:space="preserve">0.954527914524078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997975289821625</t>
+    <t xml:space="preserve">0.997975409030914</t>
   </si>
   <si>
     <t xml:space="preserve">0.923588037490845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836034774780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809703052043915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832085072994232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851833760738373</t>
+    <t xml:space="preserve">0.836034715175629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80970299243927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832085132598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851833820343018</t>
   </si>
   <si>
     <t xml:space="preserve">0.88869833946228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88409036397934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871582686901093</t>
+    <t xml:space="preserve">0.88409024477005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871582627296448</t>
   </si>
   <si>
     <t xml:space="preserve">0.87355762720108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880798876285553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886723518371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890673220157623</t>
+    <t xml:space="preserve">0.880798757076263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886723339557648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890673339366913</t>
   </si>
   <si>
     <t xml:space="preserve">0.870924353599548</t>
@@ -470,19 +470,19 @@
     <t xml:space="preserve">0.866974651813507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884748578071594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883431971073151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87421590089798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870266199111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86434143781662</t>
+    <t xml:space="preserve">0.884748637676239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88343209028244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87421578168869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870266139507294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864341497421265</t>
   </si>
   <si>
     <t xml:space="preserve">0.881457149982452</t>
@@ -491,10 +491,10 @@
     <t xml:space="preserve">0.882773697376251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887381792068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880140542984009</t>
+    <t xml:space="preserve">0.887381851673126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880140602588654</t>
   </si>
   <si>
     <t xml:space="preserve">0.921613156795502</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">0.934778988361359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947944939136505</t>
+    <t xml:space="preserve">0.94794487953186</t>
   </si>
   <si>
     <t xml:space="preserve">0.947286665439606</t>
@@ -512,46 +512,46 @@
     <t xml:space="preserve">0.932145833969116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902522623538971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281374454498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903180778026581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917005062103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940045297145844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934120833873749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911080360412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912396967411041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913713574409485</t>
+    <t xml:space="preserve">0.902522563934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281434059143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903180837631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917005181312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940045416355133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934120714664459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911080420017242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912397027015686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91371363401413</t>
   </si>
   <si>
     <t xml:space="preserve">0.931487560272217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918980002403259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909763753414154</t>
+    <t xml:space="preserve">0.91897988319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909763813018799</t>
   </si>
   <si>
     <t xml:space="preserve">0.926879465579987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920296609401703</t>
+    <t xml:space="preserve">0.920296490192413</t>
   </si>
   <si>
     <t xml:space="preserve">0.93807053565979</t>
@@ -563,10 +563,10 @@
     <t xml:space="preserve">0.970326960086823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988759160041809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984151065349579</t>
+    <t xml:space="preserve">0.988759279251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984151303768158</t>
   </si>
   <si>
     <t xml:space="preserve">0.992709040641785</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">1.04142284393311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03549814224243</t>
+    <t xml:space="preserve">1.03549826145172</t>
   </si>
   <si>
     <t xml:space="preserve">1.03154838085175</t>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">1.03023183345795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02167391777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03418147563934</t>
+    <t xml:space="preserve">1.02167403697968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03418159484863</t>
   </si>
   <si>
     <t xml:space="preserve">1.01838254928589</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">1.04208111763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01443266868591</t>
+    <t xml:space="preserve">1.0144327878952</t>
   </si>
   <si>
     <t xml:space="preserve">1.09211158752441</t>
@@ -626,13 +626,13 @@
     <t xml:space="preserve">1.07960391044617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05788016319275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06380498409271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13819229602814</t>
+    <t xml:space="preserve">1.05788028240204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06380486488342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13819217681885</t>
   </si>
   <si>
     <t xml:space="preserve">1.11120212078094</t>
@@ -641,16 +641,16 @@
     <t xml:space="preserve">1.123051404953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08421206474304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07697081565857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09145331382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.096719622612</t>
+    <t xml:space="preserve">1.08421194553375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07697069644928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09145307540894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09671974182129</t>
   </si>
   <si>
     <t xml:space="preserve">1.11778509616852</t>
@@ -662,10 +662,10 @@
     <t xml:space="preserve">1.11186051368713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12568461894989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13226747512817</t>
+    <t xml:space="preserve">1.12568473815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13226759433746</t>
   </si>
   <si>
     <t xml:space="preserve">1.13885056972504</t>
@@ -680,19 +680,19 @@
     <t xml:space="preserve">1.14740836620331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15596616268158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14016699790955</t>
+    <t xml:space="preserve">1.15596628189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14016711711884</t>
   </si>
   <si>
     <t xml:space="preserve">1.14082539081573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11910176277161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1243679523468</t>
+    <t xml:space="preserve">1.11910164356232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12436807155609</t>
   </si>
   <si>
     <t xml:space="preserve">1.12831771373749</t>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">1.0973778963089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08684527873993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0190407037735</t>
+    <t xml:space="preserve">1.08684515953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01904082298279</t>
   </si>
   <si>
     <t xml:space="preserve">1.02364885807037</t>
@@ -719,16 +719,16 @@
     <t xml:space="preserve">1.02562367916107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988101005554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940703690052032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93346232175827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935437381267548</t>
+    <t xml:space="preserve">0.98810088634491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940703570842743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93346244096756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935437321662903</t>
   </si>
   <si>
     <t xml:space="preserve">0.953869521617889</t>
@@ -737,10 +737,10 @@
     <t xml:space="preserve">0.999950289726257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00521659851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01706600189209</t>
+    <t xml:space="preserve">1.00521647930145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0170658826828</t>
   </si>
   <si>
     <t xml:space="preserve">1.00916635990143</t>
@@ -749,16 +749,16 @@
     <t xml:space="preserve">1.03089010715485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04603087902069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07170438766479</t>
+    <t xml:space="preserve">1.0460307598114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07170450687408</t>
   </si>
   <si>
     <t xml:space="preserve">1.13424253463745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10396087169647</t>
+    <t xml:space="preserve">1.10396099090576</t>
   </si>
   <si>
     <t xml:space="preserve">1.10066938400269</t>
@@ -767,19 +767,19 @@
     <t xml:space="preserve">1.0947448015213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12041831016541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12765955924988</t>
+    <t xml:space="preserve">1.12041819095612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12765944004059</t>
   </si>
   <si>
     <t xml:space="preserve">1.12634289264679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12239301204681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11975991725922</t>
+    <t xml:space="preserve">1.1223931312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11976003646851</t>
   </si>
   <si>
     <t xml:space="preserve">1.13490068912506</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">1.17176532745361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16584074497223</t>
+    <t xml:space="preserve">1.16584050655365</t>
   </si>
   <si>
     <t xml:space="preserve">1.17374002933502</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">1.204021692276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19546389579773</t>
+    <t xml:space="preserve">1.19546377658844</t>
   </si>
   <si>
     <t xml:space="preserve">1.22179567813873</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">1.22772037982941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21455442905426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21587109565735</t>
+    <t xml:space="preserve">1.21455454826355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21587097644806</t>
   </si>
   <si>
     <t xml:space="preserve">1.23167014122009</t>
@@ -851,13 +851,13 @@
     <t xml:space="preserve">1.25339388847351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26853466033936</t>
+    <t xml:space="preserve">1.26853477954865</t>
   </si>
   <si>
     <t xml:space="preserve">1.24417769908905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26260995864868</t>
+    <t xml:space="preserve">1.26260983943939</t>
   </si>
   <si>
     <t xml:space="preserve">1.27182614803314</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">1.28696691989899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3093489408493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32448983192444</t>
+    <t xml:space="preserve">1.30934882164001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32448971271515</t>
   </si>
   <si>
     <t xml:space="preserve">1.32843947410583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3613543510437</t>
+    <t xml:space="preserve">1.36135423183441</t>
   </si>
   <si>
     <t xml:space="preserve">1.35213816165924</t>
@@ -887,34 +887,34 @@
     <t xml:space="preserve">1.35872101783752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3916357755661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40875148773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4772139787674</t>
+    <t xml:space="preserve">1.39163589477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40875160694122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47721421718597</t>
   </si>
   <si>
     <t xml:space="preserve">1.48116385936737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169683456421</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.49169671535492</t>
   </si>
   <si>
+    <t xml:space="preserve">1.49169659614563</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.49031937122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48894190788269</t>
+    <t xml:space="preserve">1.4889417886734</t>
   </si>
   <si>
     <t xml:space="preserve">1.47379088401794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39803516864777</t>
+    <t xml:space="preserve">1.39803528785706</t>
   </si>
   <si>
     <t xml:space="preserve">1.38701617717743</t>
@@ -938,34 +938,34 @@
     <t xml:space="preserve">1.45313012599945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51235735416412</t>
+    <t xml:space="preserve">1.51235723495483</t>
   </si>
   <si>
     <t xml:space="preserve">1.57158446311951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53301787376404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53990483283997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51511192321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4393562078476</t>
+    <t xml:space="preserve">1.53301799297333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53990471363068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51511216163635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43935644626617</t>
   </si>
   <si>
     <t xml:space="preserve">1.47792291641235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45175290107727</t>
+    <t xml:space="preserve">1.45175278186798</t>
   </si>
   <si>
     <t xml:space="preserve">1.45863962173462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42282795906067</t>
+    <t xml:space="preserve">1.42282783985138</t>
   </si>
   <si>
     <t xml:space="preserve">1.41594111919403</t>
@@ -977,25 +977,25 @@
     <t xml:space="preserve">1.45450758934021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44624316692352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43797898292542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45726215839386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42558264732361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42971467971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44073379039764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43660175800323</t>
+    <t xml:space="preserve">1.44624328613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4379791021347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45726227760315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4255827665329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42971479892731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44073367118835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43660163879395</t>
   </si>
   <si>
     <t xml:space="preserve">1.45588493347168</t>
@@ -1004,10 +1004,10 @@
     <t xml:space="preserve">1.47654557228088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51786684989929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53164041042328</t>
+    <t xml:space="preserve">1.51786673069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53164052963257</t>
   </si>
   <si>
     <t xml:space="preserve">1.53577268123627</t>
@@ -1022,22 +1022,22 @@
     <t xml:space="preserve">1.52888584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33605349063873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33811938762665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31194937229156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27820360660553</t>
+    <t xml:space="preserve">1.33605337142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33811950683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31194925308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27820348739624</t>
   </si>
   <si>
     <t xml:space="preserve">1.25960910320282</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27062797546387</t>
+    <t xml:space="preserve">1.27062809467316</t>
   </si>
   <si>
     <t xml:space="preserve">1.28095841407776</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">1.35258185863495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29748690128326</t>
+    <t xml:space="preserve">1.29748678207397</t>
   </si>
   <si>
     <t xml:space="preserve">1.28233575820923</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">1.32778918743134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33329856395721</t>
+    <t xml:space="preserve">1.3332986831665</t>
   </si>
   <si>
     <t xml:space="preserve">1.34018540382385</t>
@@ -1082,10 +1082,10 @@
     <t xml:space="preserve">1.33880805969238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3739310503006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41180896759033</t>
+    <t xml:space="preserve">1.37393116950989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41180884838104</t>
   </si>
   <si>
     <t xml:space="preserve">1.41869580745697</t>
@@ -1094,25 +1094,25 @@
     <t xml:space="preserve">1.46001696586609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45037543773651</t>
+    <t xml:space="preserve">1.45037531852722</t>
   </si>
   <si>
     <t xml:space="preserve">1.44762063026428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40492212772369</t>
+    <t xml:space="preserve">1.4049220085144</t>
   </si>
   <si>
     <t xml:space="preserve">1.46414911746979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48618710041046</t>
+    <t xml:space="preserve">1.48618721961975</t>
   </si>
   <si>
     <t xml:space="preserve">1.51097989082336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56194281578064</t>
+    <t xml:space="preserve">1.56194269657135</t>
   </si>
   <si>
     <t xml:space="preserve">1.53852736949921</t>
@@ -1121,58 +1121,58 @@
     <t xml:space="preserve">1.52613115310669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55918800830841</t>
+    <t xml:space="preserve">1.55918788909912</t>
   </si>
   <si>
     <t xml:space="preserve">1.57433915138245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51648926734924</t>
+    <t xml:space="preserve">1.51648938655853</t>
   </si>
   <si>
     <t xml:space="preserve">1.51924431324005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50684785842896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49582874774933</t>
+    <t xml:space="preserve">1.50684773921967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49582886695862</t>
   </si>
   <si>
     <t xml:space="preserve">1.48756456375122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50822532176971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52750849723816</t>
+    <t xml:space="preserve">1.50822520256042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52750837802887</t>
   </si>
   <si>
     <t xml:space="preserve">1.5509238243103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60050916671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57847118377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62117004394531</t>
+    <t xml:space="preserve">1.60050928592682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57847130298615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62116992473602</t>
   </si>
   <si>
     <t xml:space="preserve">1.61841511726379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58949053287506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4848096370697</t>
+    <t xml:space="preserve">1.58949041366577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48480975627899</t>
   </si>
   <si>
     <t xml:space="preserve">1.52062141895294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55230104923248</t>
+    <t xml:space="preserve">1.55230116844177</t>
   </si>
   <si>
     <t xml:space="preserve">1.5219988822937</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">1.49720621109009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42145049571991</t>
+    <t xml:space="preserve">1.42145037651062</t>
   </si>
   <si>
     <t xml:space="preserve">1.43384695053101</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">1.37599718570709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37117648124695</t>
+    <t xml:space="preserve">1.37117636203766</t>
   </si>
   <si>
     <t xml:space="preserve">1.38839364051819</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">1.37048768997192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34087431430817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36222350597382</t>
+    <t xml:space="preserve">1.34087419509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36222362518311</t>
   </si>
   <si>
     <t xml:space="preserve">1.34294021129608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36979901790619</t>
+    <t xml:space="preserve">1.3697988986969</t>
   </si>
   <si>
     <t xml:space="preserve">1.36428952217102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36704421043396</t>
+    <t xml:space="preserve">1.36704444885254</t>
   </si>
   <si>
     <t xml:space="preserve">1.38977086544037</t>
@@ -1244,10 +1244,10 @@
     <t xml:space="preserve">1.36842167377472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36635553836823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21966528892517</t>
+    <t xml:space="preserve">1.36635541915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21966516971588</t>
   </si>
   <si>
     <t xml:space="preserve">1.23963701725006</t>
@@ -1262,13 +1262,13 @@
     <t xml:space="preserve">1.22586333751678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25203359127045</t>
+    <t xml:space="preserve">1.25203347206116</t>
   </si>
   <si>
     <t xml:space="preserve">1.24721264839172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21553289890289</t>
+    <t xml:space="preserve">1.21553301811218</t>
   </si>
   <si>
     <t xml:space="preserve">1.19900465011597</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">1.22104263305664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21002352237701</t>
+    <t xml:space="preserve">1.2100236415863</t>
   </si>
   <si>
     <t xml:space="preserve">1.20589137077332</t>
@@ -1295,37 +1295,37 @@
     <t xml:space="preserve">1.1645702123642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15699470043182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1521737575531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12600362300873</t>
+    <t xml:space="preserve">1.15699458122253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15217387676239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12600374221802</t>
   </si>
   <si>
     <t xml:space="preserve">1.12875854969025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10052239894867</t>
+    <t xml:space="preserve">1.10052227973938</t>
   </si>
   <si>
     <t xml:space="preserve">1.10534310340881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11429607868195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13082444667816</t>
+    <t xml:space="preserve">1.11429595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13082456588745</t>
   </si>
   <si>
     <t xml:space="preserve">1.12669253349304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14322090148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13357925415039</t>
+    <t xml:space="preserve">1.14322078227997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13357937335968</t>
   </si>
   <si>
     <t xml:space="preserve">1.23137283325195</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">1.13564538955688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17283451557159</t>
+    <t xml:space="preserve">1.1728343963623</t>
   </si>
   <si>
     <t xml:space="preserve">1.17558920383453</t>
@@ -1349,16 +1349,16 @@
     <t xml:space="preserve">1.176966547966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17076849937439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26029789447784</t>
+    <t xml:space="preserve">1.1707683801651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26029777526855</t>
   </si>
   <si>
     <t xml:space="preserve">1.3023077249527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27682626247406</t>
+    <t xml:space="preserve">1.27682614326477</t>
   </si>
   <si>
     <t xml:space="preserve">1.30988323688507</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">1.25065612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24239194393158</t>
+    <t xml:space="preserve">1.24239182472229</t>
   </si>
   <si>
     <t xml:space="preserve">1.27200531959534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29473197460175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29817545413971</t>
+    <t xml:space="preserve">1.29473209381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.298175573349</t>
   </si>
   <si>
     <t xml:space="preserve">1.3229683637619</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">1.30161893367767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29335463047028</t>
+    <t xml:space="preserve">1.29335474967957</t>
   </si>
   <si>
     <t xml:space="preserve">1.27958106994629</t>
@@ -1427,25 +1427,25 @@
     <t xml:space="preserve">1.3925256729126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4090541601181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42007315158844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39114832878113</t>
+    <t xml:space="preserve">1.40905427932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42007327079773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39114844799042</t>
   </si>
   <si>
     <t xml:space="preserve">1.39665794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3842613697052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34156274795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30781722068787</t>
+    <t xml:space="preserve">1.38426148891449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34156286716461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30781710147858</t>
   </si>
   <si>
     <t xml:space="preserve">1.38794755935669</t>
@@ -1457,16 +1457,16 @@
     <t xml:space="preserve">1.41882359981537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40265047550201</t>
+    <t xml:space="preserve">1.4026505947113</t>
   </si>
   <si>
     <t xml:space="preserve">1.37692058086395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36001229286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38427186012268</t>
+    <t xml:space="preserve">1.36001241207123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38427197933197</t>
   </si>
   <si>
     <t xml:space="preserve">1.42543983459473</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">1.41000187397003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42176413536072</t>
+    <t xml:space="preserve">1.42176425457001</t>
   </si>
   <si>
     <t xml:space="preserve">1.43867242336273</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">1.49086761474609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52615427970886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51439189910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56585192680359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55555987358093</t>
+    <t xml:space="preserve">1.52615439891815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51439201831818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56585204601288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55555999279022</t>
   </si>
   <si>
     <t xml:space="preserve">1.55261945724487</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792695999146</t>
+    <t xml:space="preserve">1.48792684078217</t>
   </si>
   <si>
     <t xml:space="preserve">1.47910523414612</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">1.50998115539551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5232138633728</t>
+    <t xml:space="preserve">1.52321374416351</t>
   </si>
   <si>
     <t xml:space="preserve">1.44455361366272</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">1.45558071136475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45043480396271</t>
+    <t xml:space="preserve">1.45043468475342</t>
   </si>
   <si>
     <t xml:space="preserve">1.44381844997406</t>
@@ -1562,10 +1562,10 @@
     <t xml:space="preserve">1.37912607192993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39235854148865</t>
+    <t xml:space="preserve">1.38574230670929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39235866069794</t>
   </si>
   <si>
     <t xml:space="preserve">1.40706133842468</t>
@@ -1583,13 +1583,13 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4467591047287</t>
+    <t xml:space="preserve">1.44675898551941</t>
   </si>
   <si>
     <t xml:space="preserve">1.46146178245544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48498630523682</t>
+    <t xml:space="preserve">1.48498642444611</t>
   </si>
   <si>
     <t xml:space="preserve">1.53350567817688</t>
@@ -1598,10 +1598,10 @@
     <t xml:space="preserve">1.52762460708618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5614413022995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57320332527161</t>
+    <t xml:space="preserve">1.56144118309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5732034444809</t>
   </si>
   <si>
     <t xml:space="preserve">1.55114912986755</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">1.5864360332489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59672784805298</t>
+    <t xml:space="preserve">1.59672796726227</t>
   </si>
   <si>
     <t xml:space="preserve">1.57173311710358</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">1.57026278972626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025249004364</t>
+    <t xml:space="preserve">1.62025237083435</t>
   </si>
   <si>
     <t xml:space="preserve">1.63495528697968</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">1.62466335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59525752067566</t>
+    <t xml:space="preserve">1.59525763988495</t>
   </si>
   <si>
     <t xml:space="preserve">1.37471508979797</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">1.43279123306274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44822931289673</t>
+    <t xml:space="preserve">1.44822919368744</t>
   </si>
   <si>
     <t xml:space="preserve">1.43205618858337</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">1.37250971794128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3607474565506</t>
+    <t xml:space="preserve">1.36074733734131</t>
   </si>
   <si>
     <t xml:space="preserve">1.3548663854599</t>
@@ -1712,10 +1712,10 @@
     <t xml:space="preserve">1.25415182113647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28355765342712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2975252866745</t>
+    <t xml:space="preserve">1.28355753421783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29752516746521</t>
   </si>
   <si>
     <t xml:space="preserve">1.31590378284454</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">1.31516861915588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28576290607452</t>
+    <t xml:space="preserve">1.28576278686523</t>
   </si>
   <si>
     <t xml:space="preserve">1.29017388820648</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">1.26076805591583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26591420173645</t>
+    <t xml:space="preserve">1.26591408252716</t>
   </si>
   <si>
     <t xml:space="preserve">1.30928754806519</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">1.26811957359314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25782763957977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22180545330048</t>
+    <t xml:space="preserve">1.25782752037048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22180557250977</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">1.22327589988708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23283278942108</t>
+    <t xml:space="preserve">1.23283290863037</t>
   </si>
   <si>
     <t xml:space="preserve">1.23650848865509</t>
@@ -1787,16 +1787,16 @@
     <t xml:space="preserve">1.23356783390045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22842192649841</t>
+    <t xml:space="preserve">1.22842180728912</t>
   </si>
   <si>
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768664360046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3225200176239</t>
+    <t xml:space="preserve">1.22768676280975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32252013683319</t>
   </si>
   <si>
     <t xml:space="preserve">1.31663882732391</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">1.26150321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25856268405914</t>
+    <t xml:space="preserve">1.25856280326843</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">1.24312472343445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26885461807251</t>
+    <t xml:space="preserve">1.2688547372818</t>
   </si>
   <si>
     <t xml:space="preserve">1.2879683971405</t>
@@ -1838,10 +1838,10 @@
     <t xml:space="preserve">1.28870344161987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27914655208588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21004331111908</t>
+    <t xml:space="preserve">1.27914667129517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21004343032837</t>
   </si>
   <si>
     <t xml:space="preserve">1.27032494544983</t>
@@ -1850,19 +1850,19 @@
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502774238586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28135204315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29311430454254</t>
+    <t xml:space="preserve">1.28502786159515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28135216236115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29311442375183</t>
   </si>
   <si>
     <t xml:space="preserve">1.38059628009796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38941788673401</t>
+    <t xml:space="preserve">1.3894180059433</t>
   </si>
   <si>
     <t xml:space="preserve">1.36589336395264</t>
@@ -1871,16 +1871,16 @@
     <t xml:space="preserve">1.35119068622589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32325518131256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32693088054657</t>
+    <t xml:space="preserve">1.32325506210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
     <t xml:space="preserve">1.31810915470123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31149291992188</t>
+    <t xml:space="preserve">1.31149280071259</t>
   </si>
   <si>
     <t xml:space="preserve">1.30414152145386</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">1.3129631280899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33060646057129</t>
+    <t xml:space="preserve">1.33060657978058</t>
   </si>
   <si>
     <t xml:space="preserve">1.36736369132996</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531979560852</t>
+    <t xml:space="preserve">1.29531967639923</t>
   </si>
   <si>
     <t xml:space="preserve">1.2747358083725</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">1.23797869682312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21886503696442</t>
+    <t xml:space="preserve">1.21886491775513</t>
   </si>
   <si>
     <t xml:space="preserve">1.21445417404175</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">1.21371901035309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21592438220978</t>
+    <t xml:space="preserve">1.21592450141907</t>
   </si>
   <si>
     <t xml:space="preserve">1.20563244819641</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">1.25194644927979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22989213466644</t>
+    <t xml:space="preserve">1.22989225387573</t>
   </si>
   <si>
     <t xml:space="preserve">1.2306272983551</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">1.23871386051178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20857310295105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19313514232635</t>
+    <t xml:space="preserve">1.20857298374176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19313502311707</t>
   </si>
   <si>
     <t xml:space="preserve">1.18137288093567</t>
@@ -2009,16 +2009,16 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711319446564</t>
+    <t xml:space="preserve">1.15711307525635</t>
   </si>
   <si>
     <t xml:space="preserve">1.13358867168427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09168553352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06448531150818</t>
+    <t xml:space="preserve">1.09168541431427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06448519229889</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
@@ -2033,10 +2033,10 @@
     <t xml:space="preserve">1.10859382152557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08653962612152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0872745513916</t>
+    <t xml:space="preserve">1.08653950691223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08727467060089</t>
   </si>
   <si>
     <t xml:space="preserve">1.07624757289886</t>
@@ -61684,7 +61684,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6493402778</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>1822182</v>
@@ -61705,6 +61705,32 @@
         <v>1740</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6497453704</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>1256380</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>1.62150001525879</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>1.61600005626678</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>1.61800003051758</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>1.61699998378754</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1742">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170576572418</t>
+    <t xml:space="preserve">1.00170564651489</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">0.964105010032654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993480503559113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992893040180206</t>
+    <t xml:space="preserve">0.993480384349823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992893159389496</t>
   </si>
   <si>
     <t xml:space="preserve">1.04576897621155</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">1.02579367160797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07749462127686</t>
+    <t xml:space="preserve">1.07749450206757</t>
   </si>
   <si>
     <t xml:space="preserve">1.08101952075958</t>
@@ -92,10 +92,10 @@
     <t xml:space="preserve">1.1456458568573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1468209028244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11509525775909</t>
+    <t xml:space="preserve">1.14682078361511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1150951385498</t>
   </si>
   <si>
     <t xml:space="preserve">1.12802052497864</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">1.11098265647888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09100747108459</t>
+    <t xml:space="preserve">1.09100735187531</t>
   </si>
   <si>
     <t xml:space="preserve">1.02755606174469</t>
@@ -116,16 +116,16 @@
     <t xml:space="preserve">0.957642436027527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853653013706207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829564988613129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840140223503113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810764729976654</t>
+    <t xml:space="preserve">0.853653073310852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829565048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840140163898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810764670372009</t>
   </si>
   <si>
     <t xml:space="preserve">0.81663978099823</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">0.872453331947327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887728452682495</t>
+    <t xml:space="preserve">0.887728571891785</t>
   </si>
   <si>
     <t xml:space="preserve">0.881853520870209</t>
@@ -149,13 +149,13 @@
     <t xml:space="preserve">0.86070317029953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842490255832672</t>
+    <t xml:space="preserve">0.842490315437317</t>
   </si>
   <si>
     <t xml:space="preserve">0.850127875804901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94001704454422</t>
+    <t xml:space="preserve">0.94001716375351</t>
   </si>
   <si>
     <t xml:space="preserve">0.90417891740799</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">0.895366311073303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851890444755554</t>
+    <t xml:space="preserve">0.851890504360199</t>
   </si>
   <si>
     <t xml:space="preserve">0.807827234268188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776101529598236</t>
+    <t xml:space="preserve">0.776101469993591</t>
   </si>
   <si>
     <t xml:space="preserve">0.764938950538635</t>
@@ -182,40 +182,40 @@
     <t xml:space="preserve">0.757888734340668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831915140151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820164799690247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817814767360687</t>
+    <t xml:space="preserve">0.831915080547333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820164859294891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817814707756042</t>
   </si>
   <si>
     <t xml:space="preserve">0.828390061855316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833677709102631</t>
+    <t xml:space="preserve">0.833677649497986</t>
   </si>
   <si>
     <t xml:space="preserve">0.823102414608002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817227363586426</t>
+    <t xml:space="preserve">0.817227423191071</t>
   </si>
   <si>
     <t xml:space="preserve">0.827215015888214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828977644443512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.843077838420868</t>
+    <t xml:space="preserve">0.828977584838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.843077719211578</t>
   </si>
   <si>
     <t xml:space="preserve">0.865403234958649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837790310382843</t>
+    <t xml:space="preserve">0.837790250778198</t>
   </si>
   <si>
     <t xml:space="preserve">0.830740094184875</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">0.84660279750824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848952949047089</t>
+    <t xml:space="preserve">0.848952889442444</t>
   </si>
   <si>
     <t xml:space="preserve">0.860115647315979</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">0.920629143714905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915929079055786</t>
+    <t xml:space="preserve">0.915929198265076</t>
   </si>
   <si>
     <t xml:space="preserve">0.905941486358643</t>
@@ -263,28 +263,28 @@
     <t xml:space="preserve">0.866578280925751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869515776634216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882440984249115</t>
+    <t xml:space="preserve">0.869515657424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882441103458405</t>
   </si>
   <si>
     <t xml:space="preserve">0.864228188991547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835440158843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826039910316467</t>
+    <t xml:space="preserve">0.835440218448639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826039969921112</t>
   </si>
   <si>
     <t xml:space="preserve">0.830152571201324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831327497959137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907116591930389</t>
+    <t xml:space="preserve">0.831327557563782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907116532325745</t>
   </si>
   <si>
     <t xml:space="preserve">0.924741744995117</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">0.937079548835754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92885422706604</t>
+    <t xml:space="preserve">0.928854286670685</t>
   </si>
   <si>
     <t xml:space="preserve">0.961769104003906</t>
@@ -5235,6 +5235,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.61749994754791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61800003051758</t>
   </si>
 </sst>
 </file>
@@ -61710,7 +61713,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6497453704</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>1256380</v>
@@ -61731,6 +61734,32 @@
         <v>1732</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6497222222</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>1017541</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>1.62450003623962</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>1.61099994182587</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>1.61500000953674</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>1.61800003051758</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1743">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,16 +47,16 @@
     <t xml:space="preserve">0.982317805290222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985255479812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960580050945282</t>
+    <t xml:space="preserve">0.985255360603333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960579931735992</t>
   </si>
   <si>
     <t xml:space="preserve">0.964105010032654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993480384349823</t>
+    <t xml:space="preserve">0.993480503559113</t>
   </si>
   <si>
     <t xml:space="preserve">0.992893159389496</t>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">1.04165637493134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02814376354218</t>
+    <t xml:space="preserve">1.02814364433289</t>
   </si>
   <si>
     <t xml:space="preserve">1.03695631027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05693173408508</t>
+    <t xml:space="preserve">1.05693161487579</t>
   </si>
   <si>
     <t xml:space="preserve">1.02579367160797</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">1.07749450206757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08101952075958</t>
+    <t xml:space="preserve">1.08101963996887</t>
   </si>
   <si>
     <t xml:space="preserve">1.13565802574158</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">1.1456458568573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14682078361511</t>
+    <t xml:space="preserve">1.1468209028244</t>
   </si>
   <si>
     <t xml:space="preserve">1.1150951385498</t>
@@ -101,13 +101,13 @@
     <t xml:space="preserve">1.12802052497864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14035832881927</t>
+    <t xml:space="preserve">1.14035820960999</t>
   </si>
   <si>
     <t xml:space="preserve">1.11098265647888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09100735187531</t>
+    <t xml:space="preserve">1.09100723266602</t>
   </si>
   <si>
     <t xml:space="preserve">1.02755606174469</t>
@@ -116,13 +116,13 @@
     <t xml:space="preserve">0.957642436027527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853653073310852</t>
+    <t xml:space="preserve">0.853652954101562</t>
   </si>
   <si>
     <t xml:space="preserve">0.829565048217773</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840140163898468</t>
+    <t xml:space="preserve">0.840140283107758</t>
   </si>
   <si>
     <t xml:space="preserve">0.810764670372009</t>
@@ -131,25 +131,25 @@
     <t xml:space="preserve">0.81663978099823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873040854930878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863640606403351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872453331947327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887728571891785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881853520870209</t>
+    <t xml:space="preserve">0.873040914535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86364072561264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872453391551971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887728631496429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881853580474854</t>
   </si>
   <si>
     <t xml:space="preserve">0.86070317029953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842490315437317</t>
+    <t xml:space="preserve">0.842490375041962</t>
   </si>
   <si>
     <t xml:space="preserve">0.850127875804901</t>
@@ -161,61 +161,61 @@
     <t xml:space="preserve">0.90417891740799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916516721248627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895366311073303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851890504360199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.807827234268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776101469993591</t>
+    <t xml:space="preserve">0.916516602039337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895366370677948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851890563964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.807827174663544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776101589202881</t>
   </si>
   <si>
     <t xml:space="preserve">0.764938950538635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757888734340668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831915080547333</t>
+    <t xml:space="preserve">0.757888793945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831915140151978</t>
   </si>
   <si>
     <t xml:space="preserve">0.820164859294891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817814707756042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828390061855316</t>
+    <t xml:space="preserve">0.817814767360687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828390002250671</t>
   </si>
   <si>
     <t xml:space="preserve">0.833677649497986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823102414608002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817227423191071</t>
+    <t xml:space="preserve">0.823102474212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817227363586426</t>
   </si>
   <si>
     <t xml:space="preserve">0.827215015888214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828977584838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.843077719211578</t>
+    <t xml:space="preserve">0.828977525234222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.843077778816223</t>
   </si>
   <si>
     <t xml:space="preserve">0.865403234958649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837790250778198</t>
+    <t xml:space="preserve">0.837790310382843</t>
   </si>
   <si>
     <t xml:space="preserve">0.830740094184875</t>
@@ -230,46 +230,46 @@
     <t xml:space="preserve">0.860115647315979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846015334129333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834265112876892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822514951229095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845427870750427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868340730667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920629143714905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915929198265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941486358643</t>
+    <t xml:space="preserve">0.846015393733978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834265232086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822514891624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845427811145782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868340849876404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920629262924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915929079055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941545963287</t>
   </si>
   <si>
     <t xml:space="preserve">0.893016159534454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886553645133972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578280925751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869515657424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882441103458405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864228188991547</t>
+    <t xml:space="preserve">0.886553406715393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578221321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869515836238861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882440984249115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864228069782257</t>
   </si>
   <si>
     <t xml:space="preserve">0.835440218448639</t>
@@ -278,22 +278,22 @@
     <t xml:space="preserve">0.826039969921112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830152571201324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831327557563782</t>
+    <t xml:space="preserve">0.83015251159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831327617168427</t>
   </si>
   <si>
     <t xml:space="preserve">0.907116532325745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924741744995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9453045129776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937079548835754</t>
+    <t xml:space="preserve">0.924741864204407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94530463218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93707948923111</t>
   </si>
   <si>
     <t xml:space="preserve">0.928854286670685</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">0.961769104003906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9874427318573</t>
+    <t xml:space="preserve">0.98744261264801</t>
   </si>
   <si>
     <t xml:space="preserve">0.994025588035583</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">1.11646842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09276974201202</t>
+    <t xml:space="preserve">1.09276986122131</t>
   </si>
   <si>
     <t xml:space="preserve">1.03878951072693</t>
@@ -347,37 +347,37 @@
     <t xml:space="preserve">1.02299058437347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982834696769714</t>
+    <t xml:space="preserve">0.982834577560425</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367314338684</t>
+    <t xml:space="preserve">0.993367195129395</t>
   </si>
   <si>
     <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07565402984619</t>
+    <t xml:space="preserve">1.07565414905548</t>
   </si>
   <si>
     <t xml:space="preserve">1.07302093505859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10132777690887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01574921607971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959135949611664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977568209171295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97230190038681</t>
+    <t xml:space="preserve">1.10132765769958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.015749335289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959136068820953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977568328380585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972301781177521</t>
   </si>
   <si>
     <t xml:space="preserve">1.02628207206726</t>
@@ -398,19 +398,19 @@
     <t xml:space="preserve">0.936095714569092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956502795219421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951894819736481</t>
+    <t xml:space="preserve">0.956502676010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951894700527191</t>
   </si>
   <si>
     <t xml:space="preserve">0.936753869056702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946628391742706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939387142658234</t>
+    <t xml:space="preserve">0.946628272533417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939387261867523</t>
   </si>
   <si>
     <t xml:space="preserve">0.949919700622559</t>
@@ -419,70 +419,70 @@
     <t xml:space="preserve">0.94860315322876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974276661872864</t>
+    <t xml:space="preserve">0.974276781082153</t>
   </si>
   <si>
     <t xml:space="preserve">0.954527914524078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997975409030914</t>
+    <t xml:space="preserve">0.997975528240204</t>
   </si>
   <si>
     <t xml:space="preserve">0.923588037490845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836034715175629</t>
+    <t xml:space="preserve">0.836034774780273</t>
   </si>
   <si>
     <t xml:space="preserve">0.80970299243927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.832085132598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851833820343018</t>
+    <t xml:space="preserve">0.832085072994232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851833879947662</t>
   </si>
   <si>
     <t xml:space="preserve">0.88869833946228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88409024477005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871582627296448</t>
+    <t xml:space="preserve">0.88409036397934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871582686901093</t>
   </si>
   <si>
     <t xml:space="preserve">0.87355762720108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880798757076263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886723339557648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890673339366913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870924353599548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866974651813507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884748637676239</t>
+    <t xml:space="preserve">0.880798876285553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886723458766937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890673220157623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870924413204193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866974711418152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884748578071594</t>
   </si>
   <si>
     <t xml:space="preserve">0.88343209028244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87421578168869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870266139507294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864341497421265</t>
+    <t xml:space="preserve">0.87421590089798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870266199111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864341557025909</t>
   </si>
   <si>
     <t xml:space="preserve">0.881457149982452</t>
@@ -491,19 +491,19 @@
     <t xml:space="preserve">0.882773697376251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887381851673126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880140602588654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613156795502</t>
+    <t xml:space="preserve">0.887381792068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880140542984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613037586212</t>
   </si>
   <si>
     <t xml:space="preserve">0.934778988361359</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94794487953186</t>
+    <t xml:space="preserve">0.947944939136505</t>
   </si>
   <si>
     <t xml:space="preserve">0.947286665439606</t>
@@ -512,16 +512,16 @@
     <t xml:space="preserve">0.932145833969116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902522563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281434059143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903180837631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917005181312561</t>
+    <t xml:space="preserve">0.902522623538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281255245209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903180778026581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917005062103271</t>
   </si>
   <si>
     <t xml:space="preserve">0.940045416355133</t>
@@ -530,13 +530,13 @@
     <t xml:space="preserve">0.934120714664459</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911080420017242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912397027015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91371363401413</t>
+    <t xml:space="preserve">0.911080360412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912396967411041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913713574409485</t>
   </si>
   <si>
     <t xml:space="preserve">0.931487560272217</t>
@@ -551,10 +551,10 @@
     <t xml:space="preserve">0.926879465579987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920296490192413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93807053565979</t>
+    <t xml:space="preserve">0.920296609401703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9380704164505</t>
   </si>
   <si>
     <t xml:space="preserve">0.964402377605438</t>
@@ -563,10 +563,10 @@
     <t xml:space="preserve">0.970326960086823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988759279251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984151303768158</t>
+    <t xml:space="preserve">0.988759160041809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984151184558868</t>
   </si>
   <si>
     <t xml:space="preserve">0.992709040641785</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">1.04142284393311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03549826145172</t>
+    <t xml:space="preserve">1.03549814224243</t>
   </si>
   <si>
     <t xml:space="preserve">1.03154838085175</t>
@@ -593,25 +593,25 @@
     <t xml:space="preserve">1.02167403697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03418159484863</t>
+    <t xml:space="preserve">1.03418147563934</t>
   </si>
   <si>
     <t xml:space="preserve">1.01838254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03352332115173</t>
+    <t xml:space="preserve">1.03352320194244</t>
   </si>
   <si>
     <t xml:space="preserve">1.04208111763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0144327878952</t>
+    <t xml:space="preserve">1.01443266868591</t>
   </si>
   <si>
     <t xml:space="preserve">1.09211158752441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08618700504303</t>
+    <t xml:space="preserve">1.08618688583374</t>
   </si>
   <si>
     <t xml:space="preserve">1.09013664722443</t>
@@ -620,19 +620,19 @@
     <t xml:space="preserve">1.09935283660889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08750355243683</t>
+    <t xml:space="preserve">1.08750343322754</t>
   </si>
   <si>
     <t xml:space="preserve">1.07960391044617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05788028240204</t>
+    <t xml:space="preserve">1.05788016319275</t>
   </si>
   <si>
     <t xml:space="preserve">1.06380486488342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13819217681885</t>
+    <t xml:space="preserve">1.13819229602814</t>
   </si>
   <si>
     <t xml:space="preserve">1.11120212078094</t>
@@ -644,25 +644,25 @@
     <t xml:space="preserve">1.08421194553375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07697069644928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09145307540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09671974182129</t>
+    <t xml:space="preserve">1.07697081565857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09145331382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.096719622612</t>
   </si>
   <si>
     <t xml:space="preserve">1.11778509616852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13095104694366</t>
+    <t xml:space="preserve">1.13095116615295</t>
   </si>
   <si>
     <t xml:space="preserve">1.11186051368713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12568473815918</t>
+    <t xml:space="preserve">1.12568461894989</t>
   </si>
   <si>
     <t xml:space="preserve">1.13226759433746</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">1.13621723651886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14543354511261</t>
+    <t xml:space="preserve">1.14543342590332</t>
   </si>
   <si>
     <t xml:space="preserve">1.14740836620331</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">1.14082539081573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11910164356232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12436807155609</t>
+    <t xml:space="preserve">1.11910176277161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1243679523468</t>
   </si>
   <si>
     <t xml:space="preserve">1.12831771373749</t>
@@ -716,16 +716,16 @@
     <t xml:space="preserve">1.02496552467346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02562367916107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98810088634491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940703570842743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93346244096756</t>
+    <t xml:space="preserve">1.02562379837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988101005554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940703690052032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93346232175827</t>
   </si>
   <si>
     <t xml:space="preserve">0.935437321662903</t>
@@ -737,28 +737,28 @@
     <t xml:space="preserve">0.999950289726257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00521647930145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0170658826828</t>
+    <t xml:space="preserve">1.00521659851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01706600189209</t>
   </si>
   <si>
     <t xml:space="preserve">1.00916635990143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03089010715485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0460307598114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07170450687408</t>
+    <t xml:space="preserve">1.03088998794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04603087902069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07170438766479</t>
   </si>
   <si>
     <t xml:space="preserve">1.13424253463745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10396099090576</t>
+    <t xml:space="preserve">1.10396087169647</t>
   </si>
   <si>
     <t xml:space="preserve">1.10066938400269</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">1.12041819095612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12765944004059</t>
+    <t xml:space="preserve">1.12765955924988</t>
   </si>
   <si>
     <t xml:space="preserve">1.12634289264679</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">1.11976003646851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13490068912506</t>
+    <t xml:space="preserve">1.13490080833435</t>
   </si>
   <si>
     <t xml:space="preserve">1.16715717315674</t>
@@ -794,25 +794,25 @@
     <t xml:space="preserve">1.1803230047226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17176532745361</t>
+    <t xml:space="preserve">1.17176520824432</t>
   </si>
   <si>
     <t xml:space="preserve">1.16584050655365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17374002933502</t>
+    <t xml:space="preserve">1.17374014854431</t>
   </si>
   <si>
     <t xml:space="preserve">1.1790064573288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18229806423187</t>
+    <t xml:space="preserve">1.18229794502258</t>
   </si>
   <si>
     <t xml:space="preserve">1.17308175563812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19941365718842</t>
+    <t xml:space="preserve">1.19941353797913</t>
   </si>
   <si>
     <t xml:space="preserve">1.21652936935425</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">1.21389615535736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22706198692322</t>
+    <t xml:space="preserve">1.22706210613251</t>
   </si>
   <si>
     <t xml:space="preserve">1.21784591674805</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">1.204021692276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19546377658844</t>
+    <t xml:space="preserve">1.19546389579773</t>
   </si>
   <si>
     <t xml:space="preserve">1.22179567813873</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">1.22772037982941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21455454826355</t>
+    <t xml:space="preserve">1.21455442905426</t>
   </si>
   <si>
     <t xml:space="preserve">1.21587097644806</t>
@@ -851,19 +851,19 @@
     <t xml:space="preserve">1.25339388847351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26853477954865</t>
+    <t xml:space="preserve">1.26853466033936</t>
   </si>
   <si>
     <t xml:space="preserve">1.24417769908905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26260983943939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27182614803314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28696691989899</t>
+    <t xml:space="preserve">1.26260995864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27182626724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28696703910828</t>
   </si>
   <si>
     <t xml:space="preserve">1.30934882164001</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">1.32448971271515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32843947410583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36135423183441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35213816165924</t>
+    <t xml:space="preserve">1.32843935489655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3613543510437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35213804244995</t>
   </si>
   <si>
     <t xml:space="preserve">1.35608780384064</t>
@@ -890,13 +890,13 @@
     <t xml:space="preserve">1.39163589477539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40875160694122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47721421718597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48116385936737</t>
+    <t xml:space="preserve">1.40875148773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47721409797668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48116397857666</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169671535492</t>
@@ -908,13 +908,13 @@
     <t xml:space="preserve">1.49031937122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4889417886734</t>
+    <t xml:space="preserve">1.48894190788269</t>
   </si>
   <si>
     <t xml:space="preserve">1.47379088401794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39803528785706</t>
+    <t xml:space="preserve">1.39803516864777</t>
   </si>
   <si>
     <t xml:space="preserve">1.38701617717743</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">1.57158446311951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53301799297333</t>
+    <t xml:space="preserve">1.53301787376404</t>
   </si>
   <si>
     <t xml:space="preserve">1.53990471363068</t>
@@ -953,25 +953,25 @@
     <t xml:space="preserve">1.51511216163635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43935644626617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47792291641235</t>
+    <t xml:space="preserve">1.43935632705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47792279720306</t>
   </si>
   <si>
     <t xml:space="preserve">1.45175278186798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45863962173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42282783985138</t>
+    <t xml:space="preserve">1.45863974094391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42282795906067</t>
   </si>
   <si>
     <t xml:space="preserve">1.41594111919403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40354478359222</t>
+    <t xml:space="preserve">1.40354466438293</t>
   </si>
   <si>
     <t xml:space="preserve">1.45450758934021</t>
@@ -980,31 +980,31 @@
     <t xml:space="preserve">1.44624328613281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4379791021347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45726227760315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4255827665329</t>
+    <t xml:space="preserve">1.43797898292542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45726215839386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42558264732361</t>
   </si>
   <si>
     <t xml:space="preserve">1.42971479892731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44073367118835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43660163879395</t>
+    <t xml:space="preserve">1.44073379039764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43660175800323</t>
   </si>
   <si>
     <t xml:space="preserve">1.45588493347168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47654557228088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51786673069</t>
+    <t xml:space="preserve">1.47654569149017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51786684989929</t>
   </si>
   <si>
     <t xml:space="preserve">1.53164052963257</t>
@@ -1016,34 +1016,34 @@
     <t xml:space="preserve">1.55643332004547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54403710365295</t>
+    <t xml:space="preserve">1.54403698444366</t>
   </si>
   <si>
     <t xml:space="preserve">1.52888584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33605337142944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33811950683594</t>
+    <t xml:space="preserve">1.33605349063873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33811938762665</t>
   </si>
   <si>
     <t xml:space="preserve">1.31194925308228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27820348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25960910320282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27062809467316</t>
+    <t xml:space="preserve">1.27820360660553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25960898399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27062797546387</t>
   </si>
   <si>
     <t xml:space="preserve">1.28095841407776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32021355628967</t>
+    <t xml:space="preserve">1.32021367549896</t>
   </si>
   <si>
     <t xml:space="preserve">1.33743071556091</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">1.35258185863495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29748678207397</t>
+    <t xml:space="preserve">1.29748690128326</t>
   </si>
   <si>
     <t xml:space="preserve">1.28233575820923</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">1.32778918743134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3332986831665</t>
+    <t xml:space="preserve">1.33329856395721</t>
   </si>
   <si>
     <t xml:space="preserve">1.34018540382385</t>
@@ -1112,37 +1112,37 @@
     <t xml:space="preserve">1.51097989082336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56194269657135</t>
+    <t xml:space="preserve">1.56194257736206</t>
   </si>
   <si>
     <t xml:space="preserve">1.53852736949921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52613115310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55918788909912</t>
+    <t xml:space="preserve">1.5261310338974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55918800830841</t>
   </si>
   <si>
     <t xml:space="preserve">1.57433915138245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51648938655853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51924431324005</t>
+    <t xml:space="preserve">1.51648926734924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51924419403076</t>
   </si>
   <si>
     <t xml:space="preserve">1.50684773921967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49582886695862</t>
+    <t xml:space="preserve">1.49582862854004</t>
   </si>
   <si>
     <t xml:space="preserve">1.48756456375122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50822520256042</t>
+    <t xml:space="preserve">1.50822532176971</t>
   </si>
   <si>
     <t xml:space="preserve">1.52750837802887</t>
@@ -1151,22 +1151,22 @@
     <t xml:space="preserve">1.5509238243103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60050928592682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57847130298615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62116992473602</t>
+    <t xml:space="preserve">1.60050916671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57847118377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62116980552673</t>
   </si>
   <si>
     <t xml:space="preserve">1.61841511726379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58949041366577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48480975627899</t>
+    <t xml:space="preserve">1.58949029445648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4848096370697</t>
   </si>
   <si>
     <t xml:space="preserve">1.52062141895294</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">1.55230116844177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5219988822937</t>
+    <t xml:space="preserve">1.52199900150299</t>
   </si>
   <si>
     <t xml:space="preserve">1.49720621109009</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">1.37599718570709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37117636203766</t>
+    <t xml:space="preserve">1.37117648124695</t>
   </si>
   <si>
     <t xml:space="preserve">1.38839364051819</t>
@@ -1214,10 +1214,10 @@
     <t xml:space="preserve">1.34087419509888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36222362518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34294021129608</t>
+    <t xml:space="preserve">1.36222350597382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34294033050537</t>
   </si>
   <si>
     <t xml:space="preserve">1.3697988986969</t>
@@ -1226,13 +1226,13 @@
     <t xml:space="preserve">1.36428952217102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36704444885254</t>
+    <t xml:space="preserve">1.36704432964325</t>
   </si>
   <si>
     <t xml:space="preserve">1.38977086544037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38012933731079</t>
+    <t xml:space="preserve">1.3801292181015</t>
   </si>
   <si>
     <t xml:space="preserve">1.35533666610718</t>
@@ -1244,13 +1244,13 @@
     <t xml:space="preserve">1.36842167377472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36635541915894</t>
+    <t xml:space="preserve">1.36635553836823</t>
   </si>
   <si>
     <t xml:space="preserve">1.21966516971588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23963701725006</t>
+    <t xml:space="preserve">1.23963713645935</t>
   </si>
   <si>
     <t xml:space="preserve">1.25134479999542</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">1.22586333751678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25203347206116</t>
+    <t xml:space="preserve">1.25203359127045</t>
   </si>
   <si>
     <t xml:space="preserve">1.24721264839172</t>
@@ -1274,22 +1274,22 @@
     <t xml:space="preserve">1.19900465011597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22104263305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2100236415863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20589137077332</t>
+    <t xml:space="preserve">1.22104251384735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21002352237701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2058914899826</t>
   </si>
   <si>
     <t xml:space="preserve">1.21140098571777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19969320297241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21277844905853</t>
+    <t xml:space="preserve">1.1996933221817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21277832984924</t>
   </si>
   <si>
     <t xml:space="preserve">1.1645702123642</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">1.15699458122253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15217387676239</t>
+    <t xml:space="preserve">1.1521737575531</t>
   </si>
   <si>
     <t xml:space="preserve">1.12600374221802</t>
@@ -1313,25 +1313,25 @@
     <t xml:space="preserve">1.10534310340881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11429595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13082456588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12669253349304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14322078227997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13357937335968</t>
+    <t xml:space="preserve">1.11429607868195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13082444667816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12669241428375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14322090148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13357925415039</t>
   </si>
   <si>
     <t xml:space="preserve">1.23137283325195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18936288356781</t>
+    <t xml:space="preserve">1.1893630027771</t>
   </si>
   <si>
     <t xml:space="preserve">1.17352306842804</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">1.17558920383453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.176966547966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1707683801651</t>
+    <t xml:space="preserve">1.17696666717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17076849937439</t>
   </si>
   <si>
     <t xml:space="preserve">1.26029777526855</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">1.3023077249527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27682614326477</t>
+    <t xml:space="preserve">1.27682626247406</t>
   </si>
   <si>
     <t xml:space="preserve">1.30988323688507</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">1.25478827953339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26649594306946</t>
+    <t xml:space="preserve">1.26649582386017</t>
   </si>
   <si>
     <t xml:space="preserve">1.21071219444275</t>
@@ -1388,19 +1388,19 @@
     <t xml:space="preserve">1.27200531959534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29473209381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.298175573349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3229683637619</t>
+    <t xml:space="preserve">1.29473197460175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29817545413971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32296824455261</t>
   </si>
   <si>
     <t xml:space="preserve">1.30161893367767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29335474967957</t>
+    <t xml:space="preserve">1.29335463047028</t>
   </si>
   <si>
     <t xml:space="preserve">1.27958106994629</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26374113559723</t>
+    <t xml:space="preserve">1.26374125480652</t>
   </si>
   <si>
     <t xml:space="preserve">1.26993930339813</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">1.3925256729126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40905427932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42007327079773</t>
+    <t xml:space="preserve">1.4090541601181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42007315158844</t>
   </si>
   <si>
     <t xml:space="preserve">1.39114844799042</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">1.39665794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38426148891449</t>
+    <t xml:space="preserve">1.3842613697052</t>
   </si>
   <si>
     <t xml:space="preserve">1.34156286716461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30781710147858</t>
+    <t xml:space="preserve">1.30781722068787</t>
   </si>
   <si>
     <t xml:space="preserve">1.38794755935669</t>
@@ -1457,16 +1457,16 @@
     <t xml:space="preserve">1.41882359981537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4026505947113</t>
+    <t xml:space="preserve">1.40265047550201</t>
   </si>
   <si>
     <t xml:space="preserve">1.37692058086395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36001241207123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38427197933197</t>
+    <t xml:space="preserve">1.36001229286194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38427186012268</t>
   </si>
   <si>
     <t xml:space="preserve">1.42543983459473</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">1.41000187397003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42176425457001</t>
+    <t xml:space="preserve">1.42176413536072</t>
   </si>
   <si>
     <t xml:space="preserve">1.43867242336273</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">1.49086761474609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52615439891815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51439201831818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56585204601288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55555999279022</t>
+    <t xml:space="preserve">1.52615427970886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51439189910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56585192680359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55555987358093</t>
   </si>
   <si>
     <t xml:space="preserve">1.55261945724487</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792684078217</t>
+    <t xml:space="preserve">1.48792695999146</t>
   </si>
   <si>
     <t xml:space="preserve">1.47910523414612</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">1.50998115539551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52321374416351</t>
+    <t xml:space="preserve">1.5232138633728</t>
   </si>
   <si>
     <t xml:space="preserve">1.44455361366272</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">1.45558071136475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45043468475342</t>
+    <t xml:space="preserve">1.45043480396271</t>
   </si>
   <si>
     <t xml:space="preserve">1.44381844997406</t>
@@ -1562,10 +1562,10 @@
     <t xml:space="preserve">1.37912607192993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38574230670929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39235866069794</t>
+    <t xml:space="preserve">1.3857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39235854148865</t>
   </si>
   <si>
     <t xml:space="preserve">1.40706133842468</t>
@@ -1583,13 +1583,13 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44675898551941</t>
+    <t xml:space="preserve">1.4467591047287</t>
   </si>
   <si>
     <t xml:space="preserve">1.46146178245544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48498642444611</t>
+    <t xml:space="preserve">1.48498630523682</t>
   </si>
   <si>
     <t xml:space="preserve">1.53350567817688</t>
@@ -1598,10 +1598,10 @@
     <t xml:space="preserve">1.52762460708618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56144118309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5732034444809</t>
+    <t xml:space="preserve">1.5614413022995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57320332527161</t>
   </si>
   <si>
     <t xml:space="preserve">1.55114912986755</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">1.5864360332489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59672796726227</t>
+    <t xml:space="preserve">1.59672784805298</t>
   </si>
   <si>
     <t xml:space="preserve">1.57173311710358</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">1.57026278972626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62025237083435</t>
+    <t xml:space="preserve">1.62025249004364</t>
   </si>
   <si>
     <t xml:space="preserve">1.63495528697968</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">1.62466335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59525763988495</t>
+    <t xml:space="preserve">1.59525752067566</t>
   </si>
   <si>
     <t xml:space="preserve">1.37471508979797</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">1.43279123306274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44822919368744</t>
+    <t xml:space="preserve">1.44822931289673</t>
   </si>
   <si>
     <t xml:space="preserve">1.43205618858337</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">1.37250971794128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36074733734131</t>
+    <t xml:space="preserve">1.3607474565506</t>
   </si>
   <si>
     <t xml:space="preserve">1.3548663854599</t>
@@ -1712,10 +1712,10 @@
     <t xml:space="preserve">1.25415182113647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28355753421783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29752516746521</t>
+    <t xml:space="preserve">1.28355765342712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2975252866745</t>
   </si>
   <si>
     <t xml:space="preserve">1.31590378284454</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">1.31516861915588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28576278686523</t>
+    <t xml:space="preserve">1.28576290607452</t>
   </si>
   <si>
     <t xml:space="preserve">1.29017388820648</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">1.26076805591583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26591408252716</t>
+    <t xml:space="preserve">1.26591420173645</t>
   </si>
   <si>
     <t xml:space="preserve">1.30928754806519</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">1.26811957359314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25782752037048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22180557250977</t>
+    <t xml:space="preserve">1.25782763957977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22180545330048</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">1.22327589988708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23283290863037</t>
+    <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
     <t xml:space="preserve">1.23650848865509</t>
@@ -1787,16 +1787,16 @@
     <t xml:space="preserve">1.23356783390045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22842180728912</t>
+    <t xml:space="preserve">1.22842192649841</t>
   </si>
   <si>
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768676280975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32252013683319</t>
+    <t xml:space="preserve">1.22768664360046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3225200176239</t>
   </si>
   <si>
     <t xml:space="preserve">1.31663882732391</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">1.26150321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25856280326843</t>
+    <t xml:space="preserve">1.25856268405914</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">1.24312472343445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2688547372818</t>
+    <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
     <t xml:space="preserve">1.2879683971405</t>
@@ -1838,10 +1838,10 @@
     <t xml:space="preserve">1.28870344161987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27914667129517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21004343032837</t>
+    <t xml:space="preserve">1.27914655208588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21004331111908</t>
   </si>
   <si>
     <t xml:space="preserve">1.27032494544983</t>
@@ -1850,19 +1850,19 @@
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502786159515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28135216236115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29311442375183</t>
+    <t xml:space="preserve">1.28502774238586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28135204315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29311430454254</t>
   </si>
   <si>
     <t xml:space="preserve">1.38059628009796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3894180059433</t>
+    <t xml:space="preserve">1.38941788673401</t>
   </si>
   <si>
     <t xml:space="preserve">1.36589336395264</t>
@@ -1871,16 +1871,16 @@
     <t xml:space="preserve">1.35119068622589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32325506210327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32693076133728</t>
+    <t xml:space="preserve">1.32325518131256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32693088054657</t>
   </si>
   <si>
     <t xml:space="preserve">1.31810915470123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31149280071259</t>
+    <t xml:space="preserve">1.31149291992188</t>
   </si>
   <si>
     <t xml:space="preserve">1.30414152145386</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">1.3129631280899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33060657978058</t>
+    <t xml:space="preserve">1.33060646057129</t>
   </si>
   <si>
     <t xml:space="preserve">1.36736369132996</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531967639923</t>
+    <t xml:space="preserve">1.29531979560852</t>
   </si>
   <si>
     <t xml:space="preserve">1.2747358083725</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">1.23797869682312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21886491775513</t>
+    <t xml:space="preserve">1.21886503696442</t>
   </si>
   <si>
     <t xml:space="preserve">1.21445417404175</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">1.21371901035309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21592450141907</t>
+    <t xml:space="preserve">1.21592438220978</t>
   </si>
   <si>
     <t xml:space="preserve">1.20563244819641</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">1.25194644927979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22989225387573</t>
+    <t xml:space="preserve">1.22989213466644</t>
   </si>
   <si>
     <t xml:space="preserve">1.2306272983551</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">1.23871386051178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20857298374176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19313502311707</t>
+    <t xml:space="preserve">1.20857310295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
     <t xml:space="preserve">1.18137288093567</t>
@@ -2009,16 +2009,16 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711307525635</t>
+    <t xml:space="preserve">1.15711319446564</t>
   </si>
   <si>
     <t xml:space="preserve">1.13358867168427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09168541431427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06448519229889</t>
+    <t xml:space="preserve">1.09168553352356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06448531150818</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
@@ -2033,10 +2033,10 @@
     <t xml:space="preserve">1.10859382152557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08653950691223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08727467060089</t>
+    <t xml:space="preserve">1.08653962612152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0872745513916</t>
   </si>
   <si>
     <t xml:space="preserve">1.07624757289886</t>
@@ -5238,6 +5238,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.61800003051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61899995803833</t>
   </si>
 </sst>
 </file>
@@ -61739,7 +61742,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6497222222</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>1017541</v>
@@ -61760,6 +61763,32 @@
         <v>1741</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6510300926</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>1271809</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>1.62249994277954</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>1.61300003528595</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>1.61600005626678</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>1.61899995803833</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1744">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,28 +50,28 @@
     <t xml:space="preserve">0.985255360603333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960579931735992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964105010032654</t>
+    <t xml:space="preserve">0.960579872131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964104950428009</t>
   </si>
   <si>
     <t xml:space="preserve">0.993480503559113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992893159389496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04576897621155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04165637493134</t>
+    <t xml:space="preserve">0.992893099784851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04576909542084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04165649414062</t>
   </si>
   <si>
     <t xml:space="preserve">1.02814364433289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03695631027222</t>
+    <t xml:space="preserve">1.03695619106293</t>
   </si>
   <si>
     <t xml:space="preserve">1.05693161487579</t>
@@ -83,34 +83,34 @@
     <t xml:space="preserve">1.07749450206757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08101963996887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13565802574158</t>
+    <t xml:space="preserve">1.08101975917816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13565814495087</t>
   </si>
   <si>
     <t xml:space="preserve">1.1456458568573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1468209028244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1150951385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12802052497864</t>
+    <t xml:space="preserve">1.14682078361511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11509525775909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12802040576935</t>
   </si>
   <si>
     <t xml:space="preserve">1.14035820960999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11098265647888</t>
+    <t xml:space="preserve">1.11098277568817</t>
   </si>
   <si>
     <t xml:space="preserve">1.09100723266602</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02755606174469</t>
+    <t xml:space="preserve">1.02755618095398</t>
   </si>
   <si>
     <t xml:space="preserve">0.957642436027527</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">0.829565048217773</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840140283107758</t>
+    <t xml:space="preserve">0.840140342712402</t>
   </si>
   <si>
     <t xml:space="preserve">0.810764670372009</t>
@@ -131,61 +131,61 @@
     <t xml:space="preserve">0.81663978099823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873040914535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86364072561264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872453391551971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887728631496429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881853580474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86070317029953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842490375041962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850127875804901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94001716375351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90417891740799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916516602039337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895366370677948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851890563964844</t>
+    <t xml:space="preserve">0.873040735721588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863640666007996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872453331947327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887728691101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881853520870209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860703110694885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842490255832672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850127935409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94001704454422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904178857803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916516661643982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895366311073303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851890444755554</t>
   </si>
   <si>
     <t xml:space="preserve">0.807827174663544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776101589202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.764938950538635</t>
+    <t xml:space="preserve">0.776101529598236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76493889093399</t>
   </si>
   <si>
     <t xml:space="preserve">0.757888793945312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831915140151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820164859294891</t>
+    <t xml:space="preserve">0.831915080547333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820164978504181</t>
   </si>
   <si>
     <t xml:space="preserve">0.817814767360687</t>
@@ -194,19 +194,19 @@
     <t xml:space="preserve">0.828390002250671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833677649497986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823102474212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817227363586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827215015888214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828977525234222</t>
+    <t xml:space="preserve">0.833677589893341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823102533817291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817227303981781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827215075492859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828977644443512</t>
   </si>
   <si>
     <t xml:space="preserve">0.843077778816223</t>
@@ -215,64 +215,64 @@
     <t xml:space="preserve">0.865403234958649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837790310382843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830740094184875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84660279750824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848952889442444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860115647315979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846015393733978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834265232086182</t>
+    <t xml:space="preserve">0.837790131568909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830740034580231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846602857112885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848953068256378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860115468502045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846015334129333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834265053272247</t>
   </si>
   <si>
     <t xml:space="preserve">0.822514891624451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845427811145782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868340849876404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920629262924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915929079055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941545963287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893016159534454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553406715393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578221321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869515836238861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882440984249115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864228069782257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835440218448639</t>
+    <t xml:space="preserve">0.845427870750427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868340790271759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92062920331955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915929019451141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941486358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89301609992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553585529327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578280925751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869515776634216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88244092464447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864228129386902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835440158843994</t>
   </si>
   <si>
     <t xml:space="preserve">0.826039969921112</t>
@@ -284,13 +284,13 @@
     <t xml:space="preserve">0.831327617168427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907116532325745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924741864204407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94530463218689</t>
+    <t xml:space="preserve">0.9071164727211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924741744995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945304691791534</t>
   </si>
   <si>
     <t xml:space="preserve">0.93707948923111</t>
@@ -299,25 +299,25 @@
     <t xml:space="preserve">0.928854286670685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961769104003906</t>
+    <t xml:space="preserve">0.961768984794617</t>
   </si>
   <si>
     <t xml:space="preserve">0.98744261264801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.994025588035583</t>
+    <t xml:space="preserve">0.994025528430939</t>
   </si>
   <si>
     <t xml:space="preserve">1.03483986854553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04010617733002</t>
+    <t xml:space="preserve">1.04010629653931</t>
   </si>
   <si>
     <t xml:space="preserve">1.04076445102692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03615653514862</t>
+    <t xml:space="preserve">1.03615641593933</t>
   </si>
   <si>
     <t xml:space="preserve">1.05327212810516</t>
@@ -326,22 +326,22 @@
     <t xml:space="preserve">1.05261385440826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05458879470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05393040180206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07367932796478</t>
+    <t xml:space="preserve">1.05458867549896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05393028259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07367944717407</t>
   </si>
   <si>
     <t xml:space="preserve">1.11646842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09276986122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03878951072693</t>
+    <t xml:space="preserve">1.09276974201202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03878962993622</t>
   </si>
   <si>
     <t xml:space="preserve">1.02299058437347</t>
@@ -353,16 +353,16 @@
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367195129395</t>
+    <t xml:space="preserve">0.993367314338684</t>
   </si>
   <si>
     <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07565414905548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07302093505859</t>
+    <t xml:space="preserve">1.07565426826477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07302105426788</t>
   </si>
   <si>
     <t xml:space="preserve">1.10132765769958</t>
@@ -371,19 +371,19 @@
     <t xml:space="preserve">1.015749335289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959136068820953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977568328380585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972301781177521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02628207206726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04668915271759</t>
+    <t xml:space="preserve">0.959136009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977568209171295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972301840782166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02628195285797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04668927192688</t>
   </si>
   <si>
     <t xml:space="preserve">1.02035737037659</t>
@@ -392,85 +392,85 @@
     <t xml:space="preserve">0.961110889911652</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938728809356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936095714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956502676010132</t>
+    <t xml:space="preserve">0.938728749752045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936095595359802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956502735614777</t>
   </si>
   <si>
     <t xml:space="preserve">0.951894700527191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936753869056702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946628272533417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939387261867523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949919700622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94860315322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974276781082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954527914524078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997975528240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923588037490845</t>
+    <t xml:space="preserve">0.936753988265991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946628332138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939387083053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949919760227203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948603212833405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974276721477509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954527854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997975409030914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9235879778862</t>
   </si>
   <si>
     <t xml:space="preserve">0.836034774780273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80970299243927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832085072994232</t>
+    <t xml:space="preserve">0.809702932834625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832085013389587</t>
   </si>
   <si>
     <t xml:space="preserve">0.851833879947662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88869833946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88409036397934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871582686901093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87355762720108</t>
+    <t xml:space="preserve">0.88869845867157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884090304374695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871582627296448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873557567596436</t>
   </si>
   <si>
     <t xml:space="preserve">0.880798876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886723458766937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890673220157623</t>
+    <t xml:space="preserve">0.886723518371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890673339366913</t>
   </si>
   <si>
     <t xml:space="preserve">0.870924413204193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866974711418152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884748578071594</t>
+    <t xml:space="preserve">0.866974651813507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884748518466949</t>
   </si>
   <si>
     <t xml:space="preserve">0.88343209028244</t>
@@ -479,28 +479,28 @@
     <t xml:space="preserve">0.87421590089798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870266199111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864341557025909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881457149982452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882773697376251</t>
+    <t xml:space="preserve">0.870266079902649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864341497421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881457030773163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882773637771606</t>
   </si>
   <si>
     <t xml:space="preserve">0.887381792068481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880140542984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613037586212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934778988361359</t>
+    <t xml:space="preserve">0.880140602588654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613097190857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934778928756714</t>
   </si>
   <si>
     <t xml:space="preserve">0.947944939136505</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">0.902522623538971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895281255245209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903180778026581</t>
+    <t xml:space="preserve">0.895281374454498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90318089723587</t>
   </si>
   <si>
     <t xml:space="preserve">0.917005062103271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940045416355133</t>
+    <t xml:space="preserve">0.940045297145844</t>
   </si>
   <si>
     <t xml:space="preserve">0.934120714664459</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">0.911080360412598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912396967411041</t>
+    <t xml:space="preserve">0.912397146224976</t>
   </si>
   <si>
     <t xml:space="preserve">0.913713574409485</t>
@@ -542,34 +542,34 @@
     <t xml:space="preserve">0.931487560272217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91897988319397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909763813018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.926879465579987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920296609401703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9380704164505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964402377605438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970326960086823</t>
+    <t xml:space="preserve">0.918980062007904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909763753414154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926879584789276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920296490192413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938070476055145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964402318000793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970327019691467</t>
   </si>
   <si>
     <t xml:space="preserve">0.988759160041809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984151184558868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992709040641785</t>
+    <t xml:space="preserve">0.984151124954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992708921432495</t>
   </si>
   <si>
     <t xml:space="preserve">1.04142284393311</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">1.03154838085175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05919671058655</t>
+    <t xml:space="preserve">1.05919682979584</t>
   </si>
   <si>
     <t xml:space="preserve">1.03813135623932</t>
@@ -593,13 +593,13 @@
     <t xml:space="preserve">1.02167403697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03418147563934</t>
+    <t xml:space="preserve">1.03418159484863</t>
   </si>
   <si>
     <t xml:space="preserve">1.01838254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03352320194244</t>
+    <t xml:space="preserve">1.03352344036102</t>
   </si>
   <si>
     <t xml:space="preserve">1.04208111763</t>
@@ -608,16 +608,16 @@
     <t xml:space="preserve">1.01443266868591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09211158752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08618688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09013664722443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09935283660889</t>
+    <t xml:space="preserve">1.09211146831512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08618676662445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09013676643372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0993527173996</t>
   </si>
   <si>
     <t xml:space="preserve">1.08750343322754</t>
@@ -632,16 +632,16 @@
     <t xml:space="preserve">1.06380486488342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13819229602814</t>
+    <t xml:space="preserve">1.13819217681885</t>
   </si>
   <si>
     <t xml:space="preserve">1.11120212078094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.123051404953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08421194553375</t>
+    <t xml:space="preserve">1.12305128574371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08421182632446</t>
   </si>
   <si>
     <t xml:space="preserve">1.07697081565857</t>
@@ -656,16 +656,16 @@
     <t xml:space="preserve">1.11778509616852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13095116615295</t>
+    <t xml:space="preserve">1.13095092773438</t>
   </si>
   <si>
     <t xml:space="preserve">1.11186051368713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12568461894989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13226759433746</t>
+    <t xml:space="preserve">1.12568473815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13226747512817</t>
   </si>
   <si>
     <t xml:space="preserve">1.13885056972504</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">1.14543342590332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14740836620331</t>
+    <t xml:space="preserve">1.14740824699402</t>
   </si>
   <si>
     <t xml:space="preserve">1.15596628189087</t>
@@ -701,10 +701,10 @@
     <t xml:space="preserve">1.09079492092133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0973778963089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08684515953064</t>
+    <t xml:space="preserve">1.09737801551819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08684527873993</t>
   </si>
   <si>
     <t xml:space="preserve">1.01904082298279</t>
@@ -713,46 +713,46 @@
     <t xml:space="preserve">1.02364885807037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02496552467346</t>
+    <t xml:space="preserve">1.02496540546417</t>
   </si>
   <si>
     <t xml:space="preserve">1.02562379837036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988101005554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940703690052032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93346232175827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935437321662903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953869521617889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999950289726257</t>
+    <t xml:space="preserve">0.988100945949554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940703630447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933462500572205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935437381267548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953869462013245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999950230121613</t>
   </si>
   <si>
     <t xml:space="preserve">1.00521659851074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01706600189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916635990143</t>
+    <t xml:space="preserve">1.0170658826828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916647911072</t>
   </si>
   <si>
     <t xml:space="preserve">1.03088998794556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04603087902069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07170438766479</t>
+    <t xml:space="preserve">1.0460307598114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07170450687408</t>
   </si>
   <si>
     <t xml:space="preserve">1.13424253463745</t>
@@ -767,13 +767,13 @@
     <t xml:space="preserve">1.0947448015213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12041819095612</t>
+    <t xml:space="preserve">1.12041831016541</t>
   </si>
   <si>
     <t xml:space="preserve">1.12765955924988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12634289264679</t>
+    <t xml:space="preserve">1.1263427734375</t>
   </si>
   <si>
     <t xml:space="preserve">1.1223931312561</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">1.13490080833435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16715717315674</t>
+    <t xml:space="preserve">1.16715729236603</t>
   </si>
   <si>
     <t xml:space="preserve">1.16913211345673</t>
@@ -794,25 +794,25 @@
     <t xml:space="preserve">1.1803230047226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17176520824432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16584050655365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17374014854431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1790064573288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18229794502258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17308175563812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19941353797913</t>
+    <t xml:space="preserve">1.17176532745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16584074497223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1737402677536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17900657653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18229806423187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17308187484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19941365718842</t>
   </si>
   <si>
     <t xml:space="preserve">1.21652936935425</t>
@@ -833,22 +833,22 @@
     <t xml:space="preserve">1.19546389579773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22179567813873</t>
+    <t xml:space="preserve">1.22179555892944</t>
   </si>
   <si>
     <t xml:space="preserve">1.22772037982941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21455442905426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21587097644806</t>
+    <t xml:space="preserve">1.21455430984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21587109565735</t>
   </si>
   <si>
     <t xml:space="preserve">1.23167014122009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25339388847351</t>
+    <t xml:space="preserve">1.25339376926422</t>
   </si>
   <si>
     <t xml:space="preserve">1.26853466033936</t>
@@ -860,19 +860,19 @@
     <t xml:space="preserve">1.26260995864868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27182626724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28696703910828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30934882164001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32448971271515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32843935489655</t>
+    <t xml:space="preserve">1.27182614803314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28696691989899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3093489408493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32448983192444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32843947410583</t>
   </si>
   <si>
     <t xml:space="preserve">1.3613543510437</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">1.35213804244995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35608780384064</t>
+    <t xml:space="preserve">1.35608792304993</t>
   </si>
   <si>
     <t xml:space="preserve">1.35872101783752</t>
@@ -893,13 +893,13 @@
     <t xml:space="preserve">1.40875148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47721409797668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48116397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49169671535492</t>
+    <t xml:space="preserve">1.47721421718597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48116385936737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49169683456421</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169659614563</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">1.49031937122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48894190788269</t>
+    <t xml:space="preserve">1.4889417886734</t>
   </si>
   <si>
     <t xml:space="preserve">1.47379088401794</t>
@@ -938,28 +938,28 @@
     <t xml:space="preserve">1.45313012599945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51235723495483</t>
+    <t xml:space="preserve">1.51235747337341</t>
   </si>
   <si>
     <t xml:space="preserve">1.57158446311951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53301787376404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53990471363068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51511216163635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43935632705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47792279720306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45175278186798</t>
+    <t xml:space="preserve">1.53301799297333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53990483283997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51511204242706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43935644626617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47792291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45175290107727</t>
   </si>
   <si>
     <t xml:space="preserve">1.45863974094391</t>
@@ -968,22 +968,22 @@
     <t xml:space="preserve">1.42282795906067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41594111919403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40354466438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45450758934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44624328613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43797898292542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45726215839386</t>
+    <t xml:space="preserve">1.41594099998474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40354478359222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45450747013092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44624316692352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4379791021347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45726227760315</t>
   </si>
   <si>
     <t xml:space="preserve">1.42558264732361</t>
@@ -995,19 +995,19 @@
     <t xml:space="preserve">1.44073379039764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43660175800323</t>
+    <t xml:space="preserve">1.43660163879395</t>
   </si>
   <si>
     <t xml:space="preserve">1.45588493347168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47654569149017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51786684989929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53164052963257</t>
+    <t xml:space="preserve">1.47654557228088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51786673069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53164041042328</t>
   </si>
   <si>
     <t xml:space="preserve">1.53577268123627</t>
@@ -1016,13 +1016,13 @@
     <t xml:space="preserve">1.55643332004547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54403698444366</t>
+    <t xml:space="preserve">1.54403710365295</t>
   </si>
   <si>
     <t xml:space="preserve">1.52888584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33605349063873</t>
+    <t xml:space="preserve">1.33605325222015</t>
   </si>
   <si>
     <t xml:space="preserve">1.33811938762665</t>
@@ -1034,16 +1034,16 @@
     <t xml:space="preserve">1.27820360660553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25960898399353</t>
+    <t xml:space="preserve">1.25960910320282</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062797546387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28095841407776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32021367549896</t>
+    <t xml:space="preserve">1.28095829486847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32021355628967</t>
   </si>
   <si>
     <t xml:space="preserve">1.33743071556091</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">1.28233575820923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29542088508606</t>
+    <t xml:space="preserve">1.29542076587677</t>
   </si>
   <si>
     <t xml:space="preserve">1.2899112701416</t>
@@ -1070,19 +1070,19 @@
     <t xml:space="preserve">1.33674204349518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32778918743134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33329856395721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34018540382385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33880805969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37393116950989</t>
+    <t xml:space="preserve">1.32778906822205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3332986831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34018552303314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33880817890167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3739310503006</t>
   </si>
   <si>
     <t xml:space="preserve">1.41180884838104</t>
@@ -1091,10 +1091,10 @@
     <t xml:space="preserve">1.41869580745697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46001696586609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45037531852722</t>
+    <t xml:space="preserve">1.46001708507538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45037543773651</t>
   </si>
   <si>
     <t xml:space="preserve">1.44762063026428</t>
@@ -1106,25 +1106,25 @@
     <t xml:space="preserve">1.46414911746979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48618721961975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51097989082336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56194257736206</t>
+    <t xml:space="preserve">1.48618710041046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51098001003265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56194281578064</t>
   </si>
   <si>
     <t xml:space="preserve">1.53852736949921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5261310338974</t>
+    <t xml:space="preserve">1.52613115310669</t>
   </si>
   <si>
     <t xml:space="preserve">1.55918800830841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57433915138245</t>
+    <t xml:space="preserve">1.57433927059174</t>
   </si>
   <si>
     <t xml:space="preserve">1.51648926734924</t>
@@ -1136,43 +1136,43 @@
     <t xml:space="preserve">1.50684773921967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49582862854004</t>
+    <t xml:space="preserve">1.49582874774933</t>
   </si>
   <si>
     <t xml:space="preserve">1.48756456375122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50822532176971</t>
+    <t xml:space="preserve">1.50822520256042</t>
   </si>
   <si>
     <t xml:space="preserve">1.52750837802887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5509238243103</t>
+    <t xml:space="preserve">1.55092370510101</t>
   </si>
   <si>
     <t xml:space="preserve">1.60050916671753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57847118377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62116980552673</t>
+    <t xml:space="preserve">1.57847130298615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62116992473602</t>
   </si>
   <si>
     <t xml:space="preserve">1.61841511726379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58949029445648</t>
+    <t xml:space="preserve">1.58949041366577</t>
   </si>
   <si>
     <t xml:space="preserve">1.4848096370697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52062141895294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55230116844177</t>
+    <t xml:space="preserve">1.52062153816223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55230104923248</t>
   </si>
   <si>
     <t xml:space="preserve">1.52199900150299</t>
@@ -1181,13 +1181,13 @@
     <t xml:space="preserve">1.49720621109009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42145037651062</t>
+    <t xml:space="preserve">1.42145049571991</t>
   </si>
   <si>
     <t xml:space="preserve">1.43384695053101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41731858253479</t>
+    <t xml:space="preserve">1.4173184633255</t>
   </si>
   <si>
     <t xml:space="preserve">1.37599718570709</t>
@@ -1199,13 +1199,13 @@
     <t xml:space="preserve">1.38839364051819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37530851364136</t>
+    <t xml:space="preserve">1.37530839443207</t>
   </si>
   <si>
     <t xml:space="preserve">1.36360085010529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35051584243774</t>
+    <t xml:space="preserve">1.35051572322845</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
@@ -1217,25 +1217,25 @@
     <t xml:space="preserve">1.36222350597382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34294033050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3697988986969</t>
+    <t xml:space="preserve">1.34294021129608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36979901790619</t>
   </si>
   <si>
     <t xml:space="preserve">1.36428952217102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36704432964325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38977086544037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3801292181015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35533666610718</t>
+    <t xml:space="preserve">1.36704421043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38977098464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38012933731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35533654689789</t>
   </si>
   <si>
     <t xml:space="preserve">1.37737452983856</t>
@@ -1244,25 +1244,25 @@
     <t xml:space="preserve">1.36842167377472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36635553836823</t>
+    <t xml:space="preserve">1.36635541915894</t>
   </si>
   <si>
     <t xml:space="preserve">1.21966516971588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23963713645935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25134479999542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24927866458893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22586333751678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25203359127045</t>
+    <t xml:space="preserve">1.23963701725006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25134491920471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24927878379822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22586345672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25203347206116</t>
   </si>
   <si>
     <t xml:space="preserve">1.24721264839172</t>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">1.21553301811218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19900465011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22104251384735</t>
+    <t xml:space="preserve">1.19900453090668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22104263305664</t>
   </si>
   <si>
     <t xml:space="preserve">1.21002352237701</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">1.21140098571777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1996933221817</t>
+    <t xml:space="preserve">1.19969320297241</t>
   </si>
   <si>
     <t xml:space="preserve">1.21277832984924</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">1.1645702123642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15699458122253</t>
+    <t xml:space="preserve">1.15699470043182</t>
   </si>
   <si>
     <t xml:space="preserve">1.1521737575531</t>
@@ -1304,34 +1304,34 @@
     <t xml:space="preserve">1.12600374221802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12875854969025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10052227973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10534310340881</t>
+    <t xml:space="preserve">1.12875843048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10052239894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1053432226181</t>
   </si>
   <si>
     <t xml:space="preserve">1.11429607868195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13082444667816</t>
+    <t xml:space="preserve">1.13082456588745</t>
   </si>
   <si>
     <t xml:space="preserve">1.12669241428375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14322090148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13357925415039</t>
+    <t xml:space="preserve">1.14322078227997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1335791349411</t>
   </si>
   <si>
     <t xml:space="preserve">1.23137283325195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1893630027771</t>
+    <t xml:space="preserve">1.18936288356781</t>
   </si>
   <si>
     <t xml:space="preserve">1.17352306842804</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">1.1728343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17558920383453</t>
+    <t xml:space="preserve">1.17558932304382</t>
   </si>
   <si>
     <t xml:space="preserve">1.17696666717529</t>
@@ -1358,19 +1358,19 @@
     <t xml:space="preserve">1.3023077249527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27682626247406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30988323688507</t>
+    <t xml:space="preserve">1.27682638168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30988311767578</t>
   </si>
   <si>
     <t xml:space="preserve">1.31126058101654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25478827953339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26649582386017</t>
+    <t xml:space="preserve">1.2547881603241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26649606227875</t>
   </si>
   <si>
     <t xml:space="preserve">1.21071219444275</t>
@@ -1382,19 +1382,19 @@
     <t xml:space="preserve">1.25065612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24239182472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27200531959534</t>
+    <t xml:space="preserve">1.24239194393158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27200543880463</t>
   </si>
   <si>
     <t xml:space="preserve">1.29473197460175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29817545413971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32296824455261</t>
+    <t xml:space="preserve">1.298175573349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3229683637619</t>
   </si>
   <si>
     <t xml:space="preserve">1.30161893367767</t>
@@ -1403,16 +1403,16 @@
     <t xml:space="preserve">1.29335463047028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27958106994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26718461513519</t>
+    <t xml:space="preserve">1.279580950737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26718473434448</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26374125480652</t>
+    <t xml:space="preserve">1.26374113559723</t>
   </si>
   <si>
     <t xml:space="preserve">1.26993930339813</t>
@@ -1421,22 +1421,22 @@
     <t xml:space="preserve">1.29955291748047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32985508441925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3925256729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4090541601181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42007315158844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39114844799042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39665794372559</t>
+    <t xml:space="preserve">1.32985520362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39252579212189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40905427932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42007327079773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39114820957184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3966578245163</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
@@ -1445,10 +1445,10 @@
     <t xml:space="preserve">1.34156286716461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30781722068787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38794755935669</t>
+    <t xml:space="preserve">1.30781733989716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38794767856598</t>
   </si>
   <si>
     <t xml:space="preserve">1.41661822795868</t>
@@ -1460,16 +1460,16 @@
     <t xml:space="preserve">1.40265047550201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37692058086395</t>
+    <t xml:space="preserve">1.37692046165466</t>
   </si>
   <si>
     <t xml:space="preserve">1.36001229286194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38427186012268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42543983459473</t>
+    <t xml:space="preserve">1.38427197933197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42543995380402</t>
   </si>
   <si>
     <t xml:space="preserve">1.41000187397003</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">1.43867242336273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47469449043274</t>
+    <t xml:space="preserve">1.47469437122345</t>
   </si>
   <si>
     <t xml:space="preserve">1.48645663261414</t>
@@ -1490,10 +1490,10 @@
     <t xml:space="preserve">1.52468395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704061985016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49968910217285</t>
+    <t xml:space="preserve">1.50704050064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49968922138214</t>
   </si>
   <si>
     <t xml:space="preserve">1.4967485666275</t>
@@ -1505,10 +1505,10 @@
     <t xml:space="preserve">1.52615427970886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51439189910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56585192680359</t>
+    <t xml:space="preserve">1.51439201831818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56585204601288</t>
   </si>
   <si>
     <t xml:space="preserve">1.55555987358093</t>
@@ -1517,25 +1517,25 @@
     <t xml:space="preserve">1.55261945724487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5026296377182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5349760055542</t>
+    <t xml:space="preserve">1.50262975692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53497612476349</t>
   </si>
   <si>
     <t xml:space="preserve">1.48792695999146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47910523414612</t>
+    <t xml:space="preserve">1.47910535335541</t>
   </si>
   <si>
     <t xml:space="preserve">1.50115954875946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50998115539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5232138633728</t>
+    <t xml:space="preserve">1.50998103618622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52321374416351</t>
   </si>
   <si>
     <t xml:space="preserve">1.44455361366272</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">1.42911553382874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37912607192993</t>
+    <t xml:space="preserve">1.37912595272064</t>
   </si>
   <si>
     <t xml:space="preserve">1.3857421875</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">1.4239696264267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43940758705139</t>
+    <t xml:space="preserve">1.4394074678421</t>
   </si>
   <si>
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4467591047287</t>
+    <t xml:space="preserve">1.44675898551941</t>
   </si>
   <si>
     <t xml:space="preserve">1.46146178245544</t>
@@ -1595,19 +1595,19 @@
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762460708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5614413022995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57320332527161</t>
+    <t xml:space="preserve">1.52762472629547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56144118309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5732034444809</t>
   </si>
   <si>
     <t xml:space="preserve">1.55114912986755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5864360332489</t>
+    <t xml:space="preserve">1.58643591403961</t>
   </si>
   <si>
     <t xml:space="preserve">1.59672784805298</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">1.64377701282501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64524722099304</t>
+    <t xml:space="preserve">1.64524710178375</t>
   </si>
   <si>
     <t xml:space="preserve">1.62760388851166</t>
@@ -1637,10 +1637,10 @@
     <t xml:space="preserve">1.60113871097565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62466335296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59525752067566</t>
+    <t xml:space="preserve">1.62466323375702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59525775909424</t>
   </si>
   <si>
     <t xml:space="preserve">1.37471508979797</t>
@@ -1661,16 +1661,16 @@
     <t xml:space="preserve">1.39970993995667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40118014812469</t>
+    <t xml:space="preserve">1.40118026733398</t>
   </si>
   <si>
     <t xml:space="preserve">1.39897477626801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43279123306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44822931289673</t>
+    <t xml:space="preserve">1.43279135227203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44822919368744</t>
   </si>
   <si>
     <t xml:space="preserve">1.43205618858337</t>
@@ -1682,22 +1682,22 @@
     <t xml:space="preserve">1.39088821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37250971794128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3607474565506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3548663854599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3453094959259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28943860530853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27179527282715</t>
+    <t xml:space="preserve">1.37250959873199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36074733734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35486626625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34530937671661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28943872451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27179515361786</t>
   </si>
   <si>
     <t xml:space="preserve">1.28649806976318</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">1.25415182113647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28355765342712</t>
+    <t xml:space="preserve">1.28355753421783</t>
   </si>
   <si>
     <t xml:space="preserve">1.2975252866745</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">1.28576290607452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29017388820648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24974095821381</t>
+    <t xml:space="preserve">1.29017376899719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2497410774231</t>
   </si>
   <si>
     <t xml:space="preserve">1.27841150760651</t>
@@ -1745,19 +1745,19 @@
     <t xml:space="preserve">1.24459493160248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25121116638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31222808361053</t>
+    <t xml:space="preserve">1.25121128559113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31222796440125</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26076805591583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26591420173645</t>
+    <t xml:space="preserve">1.26076817512512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26591408252716</t>
   </si>
   <si>
     <t xml:space="preserve">1.30928754806519</t>
@@ -1766,16 +1766,16 @@
     <t xml:space="preserve">1.26811957359314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25782763957977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22180545330048</t>
+    <t xml:space="preserve">1.25782752037048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22180557250977</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327589988708</t>
+    <t xml:space="preserve">1.22327601909637</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
@@ -1823,13 +1823,13 @@
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2879683971405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29679012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24165439605713</t>
+    <t xml:space="preserve">1.28796827793121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29679000377655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24165451526642</t>
   </si>
   <si>
     <t xml:space="preserve">1.2401841878891</t>
@@ -1838,10 +1838,10 @@
     <t xml:space="preserve">1.28870344161987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27914655208588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21004331111908</t>
+    <t xml:space="preserve">1.27914667129517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21004343032837</t>
   </si>
   <si>
     <t xml:space="preserve">1.27032494544983</t>
@@ -1853,19 +1853,19 @@
     <t xml:space="preserve">1.28502774238586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28135204315186</t>
+    <t xml:space="preserve">1.28135216236115</t>
   </si>
   <si>
     <t xml:space="preserve">1.29311430454254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38059628009796</t>
+    <t xml:space="preserve">1.38059616088867</t>
   </si>
   <si>
     <t xml:space="preserve">1.38941788673401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36589336395264</t>
+    <t xml:space="preserve">1.36589348316193</t>
   </si>
   <si>
     <t xml:space="preserve">1.35119068622589</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">1.32325518131256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32693088054657</t>
+    <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
     <t xml:space="preserve">1.31810915470123</t>
@@ -1892,31 +1892,31 @@
     <t xml:space="preserve">1.28429269790649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3129631280899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33060646057129</t>
+    <t xml:space="preserve">1.31296324729919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33060657978058</t>
   </si>
   <si>
     <t xml:space="preserve">1.36736369132996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33428227901459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35266077518463</t>
+    <t xml:space="preserve">1.33428239822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35266089439392</t>
   </si>
   <si>
     <t xml:space="preserve">1.31737411022186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27694129943848</t>
+    <t xml:space="preserve">1.27694118022919</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046582221985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27767646312714</t>
+    <t xml:space="preserve">1.27767634391785</t>
   </si>
   <si>
     <t xml:space="preserve">1.29826033115387</t>
@@ -1925,25 +1925,25 @@
     <t xml:space="preserve">1.3034063577652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27326548099518</t>
+    <t xml:space="preserve">1.27326560020447</t>
   </si>
   <si>
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134174346924</t>
+    <t xml:space="preserve">1.33134186267853</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531979560852</t>
+    <t xml:space="preserve">1.29531967639923</t>
   </si>
   <si>
     <t xml:space="preserve">1.2747358083725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27253031730652</t>
+    <t xml:space="preserve">1.27253043651581</t>
   </si>
   <si>
     <t xml:space="preserve">1.26958978176117</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">1.23797869682312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21886503696442</t>
+    <t xml:space="preserve">1.21886491775513</t>
   </si>
   <si>
     <t xml:space="preserve">1.21445417404175</t>
@@ -1961,25 +1961,25 @@
     <t xml:space="preserve">1.21371901035309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21592438220978</t>
+    <t xml:space="preserve">1.21592450141907</t>
   </si>
   <si>
     <t xml:space="preserve">1.20563244819641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22915709018707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25194644927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22989213466644</t>
+    <t xml:space="preserve">1.22915697097778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2519463300705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22989225387573</t>
   </si>
   <si>
     <t xml:space="preserve">1.2306272983551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21224880218506</t>
+    <t xml:space="preserve">1.21224868297577</t>
   </si>
   <si>
     <t xml:space="preserve">1.21518933773041</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711319446564</t>
+    <t xml:space="preserve">1.15711307525635</t>
   </si>
   <si>
     <t xml:space="preserve">1.13358867168427</t>
@@ -2018,16 +2018,16 @@
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448531150818</t>
+    <t xml:space="preserve">1.06448519229889</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0336092710495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06522035598755</t>
+    <t xml:space="preserve">1.03360939025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06522047519684</t>
   </si>
   <si>
     <t xml:space="preserve">1.10859382152557</t>
@@ -2036,13 +2036,13 @@
     <t xml:space="preserve">1.08653962612152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0872745513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07624757289886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08713436126709</t>
+    <t xml:space="preserve">1.08727467060089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07624745368958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08713448047638</t>
   </si>
   <si>
     <t xml:space="preserve">1.10890829563141</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.05913960933685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0264790058136</t>
+    <t xml:space="preserve">1.02647888660431</t>
   </si>
   <si>
     <t xml:space="preserve">1.02181303501129</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.02259075641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995373487472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00548267364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00237226486206</t>
+    <t xml:space="preserve">0.995373427867889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00548279285431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00237214565277</t>
   </si>
   <si>
     <t xml:space="preserve">1.01248145103455</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.00159454345703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01714718341827</t>
+    <t xml:space="preserve">1.01714730262756</t>
   </si>
   <si>
     <t xml:space="preserve">1.03969871997833</t>
@@ -2093,31 +2093,31 @@
     <t xml:space="preserve">0.996151089668274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00081694126129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987597048282623</t>
+    <t xml:space="preserve">1.000816822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987597167491913</t>
   </si>
   <si>
     <t xml:space="preserve">0.965823292732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970489144325256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967378556728363</t>
+    <t xml:space="preserve">0.970489203929901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967378497123718</t>
   </si>
   <si>
     <t xml:space="preserve">0.998484075069427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991485238075256</t>
+    <t xml:space="preserve">0.991485297679901</t>
   </si>
   <si>
     <t xml:space="preserve">0.993040502071381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999261677265167</t>
+    <t xml:space="preserve">0.999261617660522</t>
   </si>
   <si>
     <t xml:space="preserve">1.02958941459656</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">1.0303670167923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581047058105</t>
+    <t xml:space="preserve">1.03581058979034</t>
   </si>
   <si>
     <t xml:space="preserve">1.08246862888336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05602896213531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10190963745117</t>
+    <t xml:space="preserve">1.0560290813446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10190951824188</t>
   </si>
   <si>
     <t xml:space="preserve">1.09413313865662</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">1.15789926052094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16645336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15090048313141</t>
+    <t xml:space="preserve">1.16645324230194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1509006023407</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612544536591</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">1.10968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13301491737366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13068199157715</t>
+    <t xml:space="preserve">1.13301503658295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13068211078644</t>
   </si>
   <si>
     <t xml:space="preserve">1.13145971298218</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">1.14467942714691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12368333339691</t>
+    <t xml:space="preserve">1.1236834526062</t>
   </si>
   <si>
     <t xml:space="preserve">1.10735297203064</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">1.11590695381165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12057280540466</t>
+    <t xml:space="preserve">1.12057268619537</t>
   </si>
   <si>
     <t xml:space="preserve">1.13534784317017</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.19678115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17345201969147</t>
+    <t xml:space="preserve">1.17345190048218</t>
   </si>
   <si>
     <t xml:space="preserve">1.18978226184845</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">1.22011005878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22088778018951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21077859401703</t>
+    <t xml:space="preserve">1.2208878993988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21077847480774</t>
   </si>
   <si>
     <t xml:space="preserve">1.19133758544922</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.25976955890656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27376699447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26987874507904</t>
+    <t xml:space="preserve">1.27376687526703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26987886428833</t>
   </si>
   <si>
     <t xml:space="preserve">1.27609992027283</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">1.33286726474762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34608697891235</t>
+    <t xml:space="preserve">1.34608709812164</t>
   </si>
   <si>
     <t xml:space="preserve">1.35852921009064</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">1.39896631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38807940483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37330424785614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35464096069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35619640350342</t>
+    <t xml:space="preserve">1.38807928562164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37330436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35464107990265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35619628429413</t>
   </si>
   <si>
     <t xml:space="preserve">1.33753311634064</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">1.3134263753891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28465378284454</t>
+    <t xml:space="preserve">1.28465390205383</t>
   </si>
   <si>
     <t xml:space="preserve">1.27143406867981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25821423530579</t>
+    <t xml:space="preserve">1.25821435451508</t>
   </si>
   <si>
     <t xml:space="preserve">1.25899183750153</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.25510370731354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23644053936005</t>
+    <t xml:space="preserve">1.23644042015076</t>
   </si>
   <si>
     <t xml:space="preserve">1.24343919754028</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">1.16412031650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15167808532715</t>
+    <t xml:space="preserve">1.15167820453644</t>
   </si>
   <si>
     <t xml:space="preserve">1.12757158279419</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">1.11823987960815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12135052680969</t>
+    <t xml:space="preserve">1.1213504076004</t>
   </si>
   <si>
     <t xml:space="preserve">1.12212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11357402801514</t>
+    <t xml:space="preserve">1.11357414722443</t>
   </si>
   <si>
     <t xml:space="preserve">1.10579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08868980407715</t>
+    <t xml:space="preserve">1.08868968486786</t>
   </si>
   <si>
     <t xml:space="preserve">1.11746227741241</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">1.14623475074768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10657525062561</t>
+    <t xml:space="preserve">1.1065753698349</t>
   </si>
   <si>
     <t xml:space="preserve">1.11201870441437</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.13923597335815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13379263877869</t>
+    <t xml:space="preserve">1.1337925195694</t>
   </si>
   <si>
     <t xml:space="preserve">1.05447375774384</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">1.04047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01403677463531</t>
+    <t xml:space="preserve">1.01403665542603</t>
   </si>
   <si>
     <t xml:space="preserve">1.01325905323029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996928691864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958824634552002</t>
+    <t xml:space="preserve">0.996928751468658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958824574947357</t>
   </si>
   <si>
     <t xml:space="preserve">0.942494213581085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948715388774872</t>
+    <t xml:space="preserve">0.948715329170227</t>
   </si>
   <si>
     <t xml:space="preserve">0.954936444759369</t>
@@ -2498,19 +2498,19 @@
     <t xml:space="preserve">1.00470507144928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990707635879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985264182090759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997706294059753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98370897769928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959602236747742</t>
+    <t xml:space="preserve">0.990707695484161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985264122486115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997706413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983708918094635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959602177143097</t>
   </si>
   <si>
     <t xml:space="preserve">0.884949207305908</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">0.88106107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894280850887299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855399072170258</t>
+    <t xml:space="preserve">0.894280791282654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855399131774902</t>
   </si>
   <si>
     <t xml:space="preserve">0.828181862831116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801742255687714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815739691257477</t>
+    <t xml:space="preserve">0.801742196083069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815739631652832</t>
   </si>
   <si>
     <t xml:space="preserve">0.752362310886383</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">0.678875803947449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.695594966411591</t>
+    <t xml:space="preserve">0.695595026016235</t>
   </si>
   <si>
     <t xml:space="preserve">0.687040984630585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683930456638336</t>
+    <t xml:space="preserve">0.683930397033691</t>
   </si>
   <si>
     <t xml:space="preserve">0.645048677921295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632217705249786</t>
+    <t xml:space="preserve">0.632217645645142</t>
   </si>
   <si>
     <t xml:space="preserve">0.592558324337006</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">0.612388014793396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611610352993011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575839042663574</t>
+    <t xml:space="preserve">0.611610293388367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575839102268219</t>
   </si>
   <si>
     <t xml:space="preserve">0.572339713573456</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">0.550177097320557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576227962970734</t>
+    <t xml:space="preserve">0.576227903366089</t>
   </si>
   <si>
     <t xml:space="preserve">0.565729856491089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.573506236076355</t>
+    <t xml:space="preserve">0.57350617647171</t>
   </si>
   <si>
     <t xml:space="preserve">0.567673921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660990178585052</t>
+    <t xml:space="preserve">0.660990238189697</t>
   </si>
   <si>
     <t xml:space="preserve">0.684319257736206</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.638049960136414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674209952354431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681208729743958</t>
+    <t xml:space="preserve">0.674210011959076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681208670139313</t>
   </si>
   <si>
     <t xml:space="preserve">0.657879650592804</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.643882215023041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640771687030792</t>
+    <t xml:space="preserve">0.640771627426147</t>
   </si>
   <si>
     <t xml:space="preserve">0.611999154090881</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">0.622108399868011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60577803850174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608111023902893</t>
+    <t xml:space="preserve">0.605778098106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608110964298248</t>
   </si>
   <si>
     <t xml:space="preserve">0.613165616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607333302497864</t>
+    <t xml:space="preserve">0.607333362102509</t>
   </si>
   <si>
     <t xml:space="preserve">0.626385390758514</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">0.621330797672272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598779380321503</t>
+    <t xml:space="preserve">0.598779320716858</t>
   </si>
   <si>
     <t xml:space="preserve">0.615498483181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559897541999817</t>
+    <t xml:space="preserve">0.559897601604462</t>
   </si>
   <si>
     <t xml:space="preserve">0.549399495124817</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">0.547844231128693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544344902038574</t>
+    <t xml:space="preserve">0.544344842433929</t>
   </si>
   <si>
     <t xml:space="preserve">0.547455430030823</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.57311737537384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59372466802597</t>
+    <t xml:space="preserve">0.593724727630615</t>
   </si>
   <si>
     <t xml:space="preserve">0.628329515457153</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">0.625996589660645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637661099433899</t>
+    <t xml:space="preserve">0.637661159038544</t>
   </si>
   <si>
     <t xml:space="preserve">0.61433207988739</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">0.654380261898041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632606446743011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585170686244965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586726009845734</t>
+    <t xml:space="preserve">0.632606506347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585170745849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586725950241089</t>
   </si>
   <si>
     <t xml:space="preserve">0.580893695354462</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">0.600334644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587892413139343</t>
+    <t xml:space="preserve">0.587892472743988</t>
   </si>
   <si>
     <t xml:space="preserve">0.580116093158722</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">0.576616764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583226680755615</t>
+    <t xml:space="preserve">0.58322662115097</t>
   </si>
   <si>
     <t xml:space="preserve">0.564563393592834</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">0.548233032226562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.541623175144196</t>
+    <t xml:space="preserve">0.541623115539551</t>
   </si>
   <si>
     <t xml:space="preserve">0.524903953075409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519460558891296</t>
+    <t xml:space="preserve">0.519460499286652</t>
   </si>
   <si>
     <t xml:space="preserve">0.515961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476690530776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489521533250809</t>
+    <t xml:space="preserve">0.4766905605793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489521563053131</t>
   </si>
   <si>
     <t xml:space="preserve">0.508962452411652</t>
@@ -2789,31 +2789,31 @@
     <t xml:space="preserve">0.491076827049255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50118613243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498464345932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486022174358368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497686743736267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48679980635643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477079421281815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474746435880661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459193736314774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444418698549271</t>
+    <t xml:space="preserve">0.501186072826385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498464375734329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48602220416069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497686713933945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486799836158752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477079391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474746465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459193795919418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444418668746948</t>
   </si>
   <si>
     <t xml:space="preserve">0.451806217432022</t>
@@ -2825,34 +2825,34 @@
     <t xml:space="preserve">0.485633373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478245824575424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49185448884964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508573591709137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467358946800232</t>
+    <t xml:space="preserve">0.478245854377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491854459047318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508573651313782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467358976602554</t>
   </si>
   <si>
     <t xml:space="preserve">0.455694437026978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463859558105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489132761955261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478634655475616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476301729679108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48252284526825</t>
+    <t xml:space="preserve">0.463859587907791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489132732152939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478634625673294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476301789283752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.482522875070572</t>
   </si>
   <si>
     <t xml:space="preserve">0.477857023477554</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">0.473580062389374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474357694387436</t>
+    <t xml:space="preserve">0.474357664585114</t>
   </si>
   <si>
     <t xml:space="preserve">0.46036022901535</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">0.464637249708176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463470757007599</t>
+    <t xml:space="preserve">0.463470786809921</t>
   </si>
   <si>
     <t xml:space="preserve">0.458027333021164</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">0.446751624345779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438975244760513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.436253517866135</t>
+    <t xml:space="preserve">0.438975214958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.436253547668457</t>
   </si>
   <si>
     <t xml:space="preserve">0.432754188776016</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">0.374820321798325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360200762748718</t>
+    <t xml:space="preserve">0.360200792551041</t>
   </si>
   <si>
     <t xml:space="preserve">0.355068385601044</t>
@@ -2933,22 +2933,22 @@
     <t xml:space="preserve">0.337649345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345892280340195</t>
+    <t xml:space="preserve">0.345892250537872</t>
   </si>
   <si>
     <t xml:space="preserve">0.331894844770432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346669912338257</t>
+    <t xml:space="preserve">0.346669942140579</t>
   </si>
   <si>
     <t xml:space="preserve">0.369376868009567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373576104640961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388040125370026</t>
+    <t xml:space="preserve">0.373576074838638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388040155172348</t>
   </si>
   <si>
     <t xml:space="preserve">0.396594107151031</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">0.36035630106926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34184855222702</t>
+    <t xml:space="preserve">0.341848582029343</t>
   </si>
   <si>
     <t xml:space="preserve">0.323962956666946</t>
@@ -2981,10 +2981,10 @@
     <t xml:space="preserve">0.337182760238647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359423130750656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351802289485931</t>
+    <t xml:space="preserve">0.359423100948334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351802319288254</t>
   </si>
   <si>
     <t xml:space="preserve">0.386484861373901</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">0.358645498752594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336405128240585</t>
+    <t xml:space="preserve">0.336405098438263</t>
   </si>
   <si>
     <t xml:space="preserve">0.341693043708801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356001526117325</t>
+    <t xml:space="preserve">0.356001555919647</t>
   </si>
   <si>
     <t xml:space="preserve">0.35413521528244</t>
@@ -3029,28 +3029,28 @@
     <t xml:space="preserve">0.390373021364212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417979091405869</t>
+    <t xml:space="preserve">0.417979121208191</t>
   </si>
   <si>
     <t xml:space="preserve">0.421478450298309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445585161447525</t>
+    <t xml:space="preserve">0.445585191249847</t>
   </si>
   <si>
     <t xml:space="preserve">0.437419980764389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440141677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462693154811859</t>
+    <t xml:space="preserve">0.440141707658768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462693125009537</t>
   </si>
   <si>
     <t xml:space="preserve">0.461137861013412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437031120061874</t>
+    <t xml:space="preserve">0.437031149864197</t>
   </si>
   <si>
     <t xml:space="preserve">0.419145524501801</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">0.45025098323822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446362763643265</t>
+    <t xml:space="preserve">0.446362793445587</t>
   </si>
   <si>
     <t xml:space="preserve">0.454139143228531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452972680330276</t>
+    <t xml:space="preserve">0.452972650527954</t>
   </si>
   <si>
     <t xml:space="preserve">0.457638502120972</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">0.472024768590927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448306888341904</t>
+    <t xml:space="preserve">0.448306858539581</t>
   </si>
   <si>
     <t xml:space="preserve">0.452583879232407</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">0.457249671220779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465803682804108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.461526721715927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462304323911667</t>
+    <t xml:space="preserve">0.465803653001785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.461526691913605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462304294109344</t>
   </si>
   <si>
     <t xml:space="preserve">0.472413599491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49613144993782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500408470630646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494187384843826</t>
+    <t xml:space="preserve">0.496131479740143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500408411026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494187414646149</t>
   </si>
   <si>
     <t xml:space="preserve">0.48213404417038</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">0.465414851903915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479801118373871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47046947479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.449084490537643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419923216104507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.432365328073502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430421262979507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431976497173309</t>
+    <t xml:space="preserve">0.479801088571548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.470469504594803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449084520339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419923186302185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.432365357875824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430421233177185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431976526975632</t>
   </si>
   <si>
     <t xml:space="preserve">0.421867281198502</t>
@@ -3146,19 +3146,19 @@
     <t xml:space="preserve">0.43119889497757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440919309854507</t>
+    <t xml:space="preserve">0.44091933965683</t>
   </si>
   <si>
     <t xml:space="preserve">0.442863434553146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466581344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566896319389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521404564380646</t>
+    <t xml:space="preserve">0.46658131480217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566896259784698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521404623985291</t>
   </si>
   <si>
     <t xml:space="preserve">0.530347406864166</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">0.500797271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494576156139374</t>
+    <t xml:space="preserve">0.494576185941696</t>
   </si>
   <si>
     <t xml:space="preserve">0.507795989513397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507018387317657</t>
+    <t xml:space="preserve">0.507018327713013</t>
   </si>
   <si>
     <t xml:space="preserve">0.504685461521149</t>
@@ -3209,40 +3209,40 @@
     <t xml:space="preserve">0.524126350879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513239502906799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50274133682251</t>
+    <t xml:space="preserve">0.513239443302155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502741396427155</t>
   </si>
   <si>
     <t xml:space="preserve">0.49652025103569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487577468156815</t>
+    <t xml:space="preserve">0.487577438354492</t>
   </si>
   <si>
     <t xml:space="preserve">0.480578750371933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493409782648087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485244572162628</t>
+    <t xml:space="preserve">0.493409723043442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485244601964951</t>
   </si>
   <si>
     <t xml:space="preserve">0.487188667058945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449473321437836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448695719242096</t>
+    <t xml:space="preserve">0.449473351240158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448695689439774</t>
   </si>
   <si>
     <t xml:space="preserve">0.44776251912117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446673840284348</t>
+    <t xml:space="preserve">0.44667387008667</t>
   </si>
   <si>
     <t xml:space="preserve">0.442630112171173</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">0.459427058696747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451184123754501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460982352495193</t>
+    <t xml:space="preserve">0.451184153556824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460982322692871</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096727132797</t>
@@ -3266,31 +3266,31 @@
     <t xml:space="preserve">0.449006766080856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450406521558762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456938624382019</t>
+    <t xml:space="preserve">0.450406551361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456938654184341</t>
   </si>
   <si>
     <t xml:space="preserve">0.442474603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461759984493256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446829348802567</t>
+    <t xml:space="preserve">0.461760014295578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446829319000244</t>
   </si>
   <si>
     <t xml:space="preserve">0.451961755752563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464714974164963</t>
+    <t xml:space="preserve">0.46471494436264</t>
   </si>
   <si>
     <t xml:space="preserve">0.458338350057602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453517019748688</t>
+    <t xml:space="preserve">0.453516989946365</t>
   </si>
   <si>
     <t xml:space="preserve">0.454916775226593</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">0.459115982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479178994894028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.495353817939758</t>
+    <t xml:space="preserve">0.479178965091705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.495353847742081</t>
   </si>
   <si>
     <t xml:space="preserve">0.527236878871918</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">0.526303708553314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534546673297882</t>
+    <t xml:space="preserve">0.534546613693237</t>
   </si>
   <si>
     <t xml:space="preserve">0.545589089393616</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">0.548077523708344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553209900856018</t>
+    <t xml:space="preserve">0.553209841251373</t>
   </si>
   <si>
     <t xml:space="preserve">0.57031786441803</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">0.57684999704361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60640013217926</t>
+    <t xml:space="preserve">0.606400191783905</t>
   </si>
   <si>
     <t xml:space="preserve">0.591003000736237</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">0.668610990047455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671566009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675143122673035</t>
+    <t xml:space="preserve">0.671566069126129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675143182277679</t>
   </si>
   <si>
     <t xml:space="preserve">0.671099424362183</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">0.655391216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649325668811798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650258839130402</t>
+    <t xml:space="preserve">0.649325609207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650258779525757</t>
   </si>
   <si>
     <t xml:space="preserve">0.629884779453278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613709986209869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590380907058716</t>
+    <t xml:space="preserve">0.613709926605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590380847454071</t>
   </si>
   <si>
     <t xml:space="preserve">0.586959302425385</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">0.597535133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58182692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552276790142059</t>
+    <t xml:space="preserve">0.581826865673065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552276730537415</t>
   </si>
   <si>
     <t xml:space="preserve">0.556009352207184</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">0.524592936038971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511839747428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500330686569214</t>
+    <t xml:space="preserve">0.511839687824249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500330746173859</t>
   </si>
   <si>
     <t xml:space="preserve">0.508729159832001</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">0.508107006549835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504529893398285</t>
+    <t xml:space="preserve">0.50452995300293</t>
   </si>
   <si>
     <t xml:space="preserve">0.507951498031616</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">0.506551802158356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497064620256424</t>
+    <t xml:space="preserve">0.497064590454102</t>
   </si>
   <si>
     <t xml:space="preserve">0.520860254764557</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">0.505774140357971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503285706043243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511995255947113</t>
+    <t xml:space="preserve">0.503285646438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511995196342468</t>
   </si>
   <si>
     <t xml:space="preserve">0.51246178150177</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">0.510595500469208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.52117133140564</t>
+    <t xml:space="preserve">0.521171271800995</t>
   </si>
   <si>
     <t xml:space="preserve">0.509817838668823</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">0.505463063716888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51743870973587</t>
+    <t xml:space="preserve">0.517438650131226</t>
   </si>
   <si>
     <t xml:space="preserve">0.517283141613007</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">0.500486195087433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494109630584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5203937292099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525215089321136</t>
+    <t xml:space="preserve">0.494109600782394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.520393669605255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525215029716492</t>
   </si>
   <si>
     <t xml:space="preserve">0.516038954257965</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">0.54496693611145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551965653896332</t>
+    <t xml:space="preserve">0.551965713500977</t>
   </si>
   <si>
     <t xml:space="preserve">0.541545391082764</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">0.549166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53781270980835</t>
+    <t xml:space="preserve">0.537812769412994</t>
   </si>
   <si>
     <t xml:space="preserve">0.553831994533539</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">0.567984998226166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583071112632751</t>
+    <t xml:space="preserve">0.583071172237396</t>
   </si>
   <si>
     <t xml:space="preserve">0.623663723468781</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">0.609821796417236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623352587223053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656168818473816</t>
+    <t xml:space="preserve">0.623352646827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656168878078461</t>
   </si>
   <si>
     <t xml:space="preserve">0.669388651847839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633928418159485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573583960533142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583848714828491</t>
+    <t xml:space="preserve">0.63392847776413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573584020137787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583848774433136</t>
   </si>
   <si>
     <t xml:space="preserve">0.589447736740112</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">0.552121222019196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557098150253296</t>
+    <t xml:space="preserve">0.557098090648651</t>
   </si>
   <si>
     <t xml:space="preserve">0.563008069992065</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">0.542167484760284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523659706115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522726595401764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502663612365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492865413427353</t>
+    <t xml:space="preserve">0.523659765720367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522726655006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502663552761078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492865383625031</t>
   </si>
   <si>
     <t xml:space="preserve">0.499553054571152</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">0.4955093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48975482583046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507484972476959</t>
+    <t xml:space="preserve">0.489754885435104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507484912872314</t>
   </si>
   <si>
     <t xml:space="preserve">0.523348689079285</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">0.52474844455719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513550460338593</t>
+    <t xml:space="preserve">0.513550519943237</t>
   </si>
   <si>
     <t xml:space="preserve">0.493643045425415</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">0.461293399333954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464092880487442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435786962509155</t>
+    <t xml:space="preserve">0.464092910289764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435786932706833</t>
   </si>
   <si>
     <t xml:space="preserve">0.432054281234741</t>
@@ -3683,19 +3683,19 @@
     <t xml:space="preserve">0.417745798826218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450095444917679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452739417552948</t>
+    <t xml:space="preserve">0.450095474720001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452739387750626</t>
   </si>
   <si>
     <t xml:space="preserve">0.43843087553978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435475885868073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430654525756836</t>
+    <t xml:space="preserve">0.43547585606575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430654555559158</t>
   </si>
   <si>
     <t xml:space="preserve">0.42536661028862</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">0.41525736451149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427232950925827</t>
+    <t xml:space="preserve">0.427232921123505</t>
   </si>
   <si>
     <t xml:space="preserve">0.424277931451797</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">0.412457853555679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422878175973892</t>
+    <t xml:space="preserve">0.422878205776215</t>
   </si>
   <si>
     <t xml:space="preserve">0.422722697257996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434542715549469</t>
+    <t xml:space="preserve">0.434542685747147</t>
   </si>
   <si>
     <t xml:space="preserve">0.424900054931641</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">0.43407616019249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436564594507217</t>
+    <t xml:space="preserve">0.436564564704895</t>
   </si>
   <si>
     <t xml:space="preserve">0.440608292818069</t>
@@ -3743,37 +3743,37 @@
     <t xml:space="preserve">0.443252235651016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462071001529694</t>
+    <t xml:space="preserve">0.462071031332016</t>
   </si>
   <si>
     <t xml:space="preserve">0.456005454063416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45647206902504</t>
+    <t xml:space="preserve">0.456472039222717</t>
   </si>
   <si>
     <t xml:space="preserve">0.446207284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453205943107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448851227760315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430032432079315</t>
+    <t xml:space="preserve">0.453205972909927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448851197957993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430032402276993</t>
   </si>
   <si>
     <t xml:space="preserve">0.443563312292099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457405209541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452117264270782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427543967962265</t>
+    <t xml:space="preserve">0.457405179738998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452117294073105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.427543997764587</t>
   </si>
   <si>
     <t xml:space="preserve">0.423344761133194</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">0.472802400588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466270238161087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480423212051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455227822065353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.441696971654892</t>
+    <t xml:space="preserve">0.466270297765732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480423241853714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455227792263031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441697001457214</t>
   </si>
   <si>
     <t xml:space="preserve">0.386173814535141</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">0.42863267660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40872523188591</t>
+    <t xml:space="preserve">0.408725261688232</t>
   </si>
   <si>
     <t xml:space="preserve">0.411058127880096</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">0.436098009347916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451495200395584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478401392698288</t>
+    <t xml:space="preserve">0.451495170593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478401362895966</t>
   </si>
   <si>
     <t xml:space="preserve">0.468914210796356</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">0.467203408479691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513083875179291</t>
+    <t xml:space="preserve">0.513083934783936</t>
   </si>
   <si>
     <t xml:space="preserve">0.515883386135101</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">0.54792195558548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542634010314941</t>
+    <t xml:space="preserve">0.542634069919586</t>
   </si>
   <si>
     <t xml:space="preserve">0.537346124649048</t>
@@ -3863,22 +3863,22 @@
     <t xml:space="preserve">0.551810145378113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572028696537018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619775474071503</t>
+    <t xml:space="preserve">0.572028636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619775533676147</t>
   </si>
   <si>
     <t xml:space="preserve">0.64403772354126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671877145767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705626487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705937564373016</t>
+    <t xml:space="preserve">0.671877086162567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705626428127289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705937504768372</t>
   </si>
   <si>
     <t xml:space="preserve">0.72786682844162</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">0.658968329429626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.639216363430023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662545502185822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682452976703644</t>
+    <t xml:space="preserve">0.639216423034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662545442581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682452917098999</t>
   </si>
   <si>
     <t xml:space="preserve">0.693650901317596</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">0.755084097385406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821183145046234</t>
+    <t xml:space="preserve">0.821183085441589</t>
   </si>
   <si>
     <t xml:space="preserve">0.744352698326111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771258890628815</t>
+    <t xml:space="preserve">0.771258950233459</t>
   </si>
   <si>
     <t xml:space="preserve">0.776546835899353</t>
@@ -3929,10 +3929,10 @@
     <t xml:space="preserve">0.765659928321838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835958182811737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880672216415405</t>
+    <t xml:space="preserve">0.835958242416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88067227602005</t>
   </si>
   <si>
     <t xml:space="preserve">0.936661899089813</t>
@@ -3944,22 +3944,22 @@
     <t xml:space="preserve">0.886893272399902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898168981075287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89155912399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918776392936707</t>
+    <t xml:space="preserve">0.898169040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891559064388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918776273727417</t>
   </si>
   <si>
     <t xml:space="preserve">0.897002577781677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925775170326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989152312278748</t>
+    <t xml:space="preserve">0.925775110721588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989152371883392</t>
   </si>
   <si>
     <t xml:space="preserve">0.989930033683777</t>
@@ -3986,10 +3986,10 @@
     <t xml:space="preserve">1.01442551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970877885818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976321339607239</t>
+    <t xml:space="preserve">0.970877945423126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976321399211884</t>
   </si>
   <si>
     <t xml:space="preserve">0.960768640041351</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">0.977487802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0241459608078</t>
+    <t xml:space="preserve">1.02414608001709</t>
   </si>
   <si>
     <t xml:space="preserve">1.11046350002289</t>
@@ -4028,19 +4028,19 @@
     <t xml:space="preserve">1.00859332084656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932598114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896224915981293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879116892814636</t>
+    <t xml:space="preserve">0.975932538509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896224975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879116952419281</t>
   </si>
   <si>
     <t xml:space="preserve">0.838291049003601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879505813121796</t>
+    <t xml:space="preserve">0.879505753517151</t>
   </si>
   <si>
     <t xml:space="preserve">0.903612434864044</t>
@@ -4055,37 +4055,37 @@
     <t xml:space="preserve">0.897780239582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919942855834961</t>
+    <t xml:space="preserve">0.919942796230316</t>
   </si>
   <si>
     <t xml:space="preserve">0.969711542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988763570785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961546361446381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04319798946381</t>
+    <t xml:space="preserve">0.988763511180878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961546301841736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0431981086731</t>
   </si>
   <si>
     <t xml:space="preserve">0.945604801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870951771736145</t>
+    <t xml:space="preserve">0.8709517121315</t>
   </si>
   <si>
     <t xml:space="preserve">0.827793002128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869785308837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839846432209015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845289766788483</t>
+    <t xml:space="preserve">0.869785368442535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83984637260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845289826393127</t>
   </si>
   <si>
     <t xml:space="preserve">0.862397789955139</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">0.908278286457062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924608647823334</t>
+    <t xml:space="preserve">0.924608588218689</t>
   </si>
   <si>
     <t xml:space="preserve">1.00314974784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05097448825836</t>
+    <t xml:space="preserve">1.05097436904907</t>
   </si>
   <si>
     <t xml:space="preserve">1.03658807277679</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">1.01831364631653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940938949584961</t>
+    <t xml:space="preserve">0.940939009189606</t>
   </si>
   <si>
     <t xml:space="preserve">0.949881851673126</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">0.854232609272003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874062240123749</t>
+    <t xml:space="preserve">0.874062299728394</t>
   </si>
   <si>
     <t xml:space="preserve">0.878339350223541</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">0.76690411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770325779914856</t>
+    <t xml:space="preserve">0.770325720310211</t>
   </si>
   <si>
     <t xml:space="preserve">0.770481288433075</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">0.78852242231369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779579699039459</t>
+    <t xml:space="preserve">0.779579639434814</t>
   </si>
   <si>
     <t xml:space="preserve">0.724911868572235</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">0.737353980541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.758194625377655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814962029457092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84956681728363</t>
+    <t xml:space="preserve">0.7581946849823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814961969852448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849566757678986</t>
   </si>
   <si>
     <t xml:space="preserve">0.807185649871826</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">0.797854006290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820016622543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81923907995224</t>
+    <t xml:space="preserve">0.82001668214798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819239020347595</t>
   </si>
   <si>
     <t xml:space="preserve">0.844901025295258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854621410369873</t>
+    <t xml:space="preserve">0.854621469974518</t>
   </si>
   <si>
     <t xml:space="preserve">0.865508377552032</t>
@@ -4229,16 +4229,16 @@
     <t xml:space="preserve">0.944049537181854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947548925876617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956102907657623</t>
+    <t xml:space="preserve">0.947548866271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956102848052979</t>
   </si>
   <si>
     <t xml:space="preserve">0.935106694698334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967767417430878</t>
+    <t xml:space="preserve">0.967767477035522</t>
   </si>
   <si>
     <t xml:space="preserve">0.926163911819458</t>
@@ -4259,25 +4259,25 @@
     <t xml:space="preserve">0.998872816562653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954158842563629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937439620494843</t>
+    <t xml:space="preserve">0.954158782958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937439560890198</t>
   </si>
   <si>
     <t xml:space="preserve">0.89194792509079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882616281509399</t>
+    <t xml:space="preserve">0.882616341114044</t>
   </si>
   <si>
     <t xml:space="preserve">0.858509600162506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836347043514252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815350770950317</t>
+    <t xml:space="preserve">0.836346983909607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815350830554962</t>
   </si>
   <si>
     <t xml:space="preserve">0.832070052623749</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">0.824682474136353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829348206520081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816906094551086</t>
+    <t xml:space="preserve">0.829348266124725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816906154155731</t>
   </si>
   <si>
     <t xml:space="preserve">0.849955677986145</t>
@@ -4298,13 +4298,13 @@
     <t xml:space="preserve">0.851510882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872507035732269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868618905544281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897391438484192</t>
+    <t xml:space="preserve">0.872507095336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868618845939636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897391378879547</t>
   </si>
   <si>
     <t xml:space="preserve">0.893503248691559</t>
@@ -4316,22 +4316,22 @@
     <t xml:space="preserve">0.926552653312683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912944138050079</t>
+    <t xml:space="preserve">0.912944078445435</t>
   </si>
   <si>
     <t xml:space="preserve">0.937828421592712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952214598655701</t>
+    <t xml:space="preserve">0.952214658260345</t>
   </si>
   <si>
     <t xml:space="preserve">0.971655607223511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988374769687653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0556401014328</t>
+    <t xml:space="preserve">0.988374829292297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05564022064209</t>
   </si>
   <si>
     <t xml:space="preserve">1.12290573120117</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">1.18006193637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19211530685425</t>
+    <t xml:space="preserve">1.19211518764496</t>
   </si>
   <si>
     <t xml:space="preserve">1.18667185306549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20494627952576</t>
+    <t xml:space="preserve">1.20494616031647</t>
   </si>
   <si>
     <t xml:space="preserve">1.15128934383392</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.23799574375153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698682785034</t>
+    <t xml:space="preserve">1.28698670864105</t>
   </si>
   <si>
     <t xml:space="preserve">1.14001369476318</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">1.12873804569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15362226963043</t>
+    <t xml:space="preserve">1.15362238883972</t>
   </si>
   <si>
     <t xml:space="preserve">1.16684210300446</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">1.16606450080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15245592594147</t>
+    <t xml:space="preserve">1.15245580673218</t>
   </si>
   <si>
     <t xml:space="preserve">1.10463130474091</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">1.10929703712463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0960773229599</t>
+    <t xml:space="preserve">1.09607720375061</t>
   </si>
   <si>
     <t xml:space="preserve">1.03853225708008</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">1.09491086006165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15401113033295</t>
+    <t xml:space="preserve">1.15401101112366</t>
   </si>
   <si>
     <t xml:space="preserve">1.08985614776611</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">1.08052456378937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02686774730682</t>
+    <t xml:space="preserve">1.02686762809753</t>
   </si>
   <si>
     <t xml:space="preserve">1.02064669132233</t>
@@ -4469,28 +4469,28 @@
     <t xml:space="preserve">1.02803421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00353860855103</t>
+    <t xml:space="preserve">1.00353872776031</t>
   </si>
   <si>
     <t xml:space="preserve">0.99459582567215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986819565296173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973210871219635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956491649150848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966212093830109</t>
+    <t xml:space="preserve">0.986819446086884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97321081161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956491708755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966212153434753</t>
   </si>
   <si>
     <t xml:space="preserve">0.953769981861115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940161347389221</t>
+    <t xml:space="preserve">0.940161287784576</t>
   </si>
   <si>
     <t xml:space="preserve">0.933551430702209</t>
@@ -4502,31 +4502,31 @@
     <t xml:space="preserve">0.912555277347565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880283355712891</t>
+    <t xml:space="preserve">0.880283415317535</t>
   </si>
   <si>
     <t xml:space="preserve">0.853066146373749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892336785793304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916832268238068</t>
+    <t xml:space="preserve">0.89233672618866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916832327842712</t>
   </si>
   <si>
     <t xml:space="preserve">0.889226198196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933162689208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933940172195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980987250804901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960379898548126</t>
+    <t xml:space="preserve">0.93316262960434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933940291404724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980987191200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960379838943481</t>
   </si>
   <si>
     <t xml:space="preserve">0.98448657989502</t>
@@ -5241,6 +5241,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.61899995803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62049996852875</t>
   </si>
 </sst>
 </file>
@@ -61768,7 +61771,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6510300926</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>1271809</v>
@@ -61789,6 +61792,32 @@
         <v>1742</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6495138889</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>1302622</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>1.62300002574921</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>1.61349999904633</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>1.62000000476837</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>1.62049996852875</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="1744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1745">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">SRS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982317805290222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985255360603333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960579872131348</t>
+    <t xml:space="preserve">0.982317924499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985255300998688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960579931735992</t>
   </si>
   <si>
     <t xml:space="preserve">0.964104950428009</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">0.993480503559113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992893099784851</t>
+    <t xml:space="preserve">0.992892980575562</t>
   </si>
   <si>
     <t xml:space="preserve">1.04576909542084</t>
@@ -71,10 +71,10 @@
     <t xml:space="preserve">1.02814364433289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03695619106293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05693161487579</t>
+    <t xml:space="preserve">1.03695631027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05693173408508</t>
   </si>
   <si>
     <t xml:space="preserve">1.02579367160797</t>
@@ -83,118 +83,118 @@
     <t xml:space="preserve">1.07749450206757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08101975917816</t>
+    <t xml:space="preserve">1.08101963996887</t>
   </si>
   <si>
     <t xml:space="preserve">1.13565814495087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1456458568573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14682078361511</t>
+    <t xml:space="preserve">1.14564573764801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1468209028244</t>
   </si>
   <si>
     <t xml:space="preserve">1.11509525775909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12802040576935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14035820960999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11098277568817</t>
+    <t xml:space="preserve">1.12802028656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1403580904007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11098265647888</t>
   </si>
   <si>
     <t xml:space="preserve">1.09100723266602</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02755618095398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957642436027527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829565048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840140342712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810764670372009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81663978099823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873040735721588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863640666007996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872453331947327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887728691101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881853520870209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860703110694885</t>
+    <t xml:space="preserve">1.02755606174469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957642316818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853652894496918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829564988613129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840140163898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810764729976654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816639840602875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873040854930878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86364072561264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872453391551971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887728631496429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881853461265564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86070305109024</t>
   </si>
   <si>
     <t xml:space="preserve">0.842490255832672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850127935409546</t>
+    <t xml:space="preserve">0.850127995014191</t>
   </si>
   <si>
     <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904178857803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916516661643982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895366311073303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851890444755554</t>
+    <t xml:space="preserve">0.904179036617279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916516542434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895366251468658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851890504360199</t>
   </si>
   <si>
     <t xml:space="preserve">0.807827174663544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776101529598236</t>
+    <t xml:space="preserve">0.776101589202881</t>
   </si>
   <si>
     <t xml:space="preserve">0.76493889093399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757888793945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831915080547333</t>
+    <t xml:space="preserve">0.757888734340668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831915199756622</t>
   </si>
   <si>
     <t xml:space="preserve">0.820164978504181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817814767360687</t>
+    <t xml:space="preserve">0.817814886569977</t>
   </si>
   <si>
     <t xml:space="preserve">0.828390002250671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833677589893341</t>
+    <t xml:space="preserve">0.833677709102631</t>
   </si>
   <si>
     <t xml:space="preserve">0.823102533817291</t>
@@ -203,37 +203,37 @@
     <t xml:space="preserve">0.817227303981781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827215075492859</t>
+    <t xml:space="preserve">0.827215015888214</t>
   </si>
   <si>
     <t xml:space="preserve">0.828977644443512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843077778816223</t>
+    <t xml:space="preserve">0.843077838420868</t>
   </si>
   <si>
     <t xml:space="preserve">0.865403234958649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837790131568909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830740034580231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846602857112885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848953068256378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860115468502045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846015334129333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834265053272247</t>
+    <t xml:space="preserve">0.837790250778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830740094184875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846602916717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848952949047089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860115766525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846015453338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834265232086182</t>
   </si>
   <si>
     <t xml:space="preserve">0.822514891624451</t>
@@ -242,64 +242,64 @@
     <t xml:space="preserve">0.845427870750427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868340790271759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92062920331955</t>
+    <t xml:space="preserve">0.868340730667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92062908411026</t>
   </si>
   <si>
     <t xml:space="preserve">0.915929019451141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905941486358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89301609992981</t>
+    <t xml:space="preserve">0.905941545963287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893016159534454</t>
   </si>
   <si>
     <t xml:space="preserve">0.886553585529327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866578280925751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869515776634216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88244092464447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864228129386902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835440158843994</t>
+    <t xml:space="preserve">0.866578340530396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869515836238861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88244104385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864228188991547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835440218448639</t>
   </si>
   <si>
     <t xml:space="preserve">0.826039969921112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83015251159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831327617168427</t>
+    <t xml:space="preserve">0.830152630805969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831327557563782</t>
   </si>
   <si>
     <t xml:space="preserve">0.9071164727211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924741744995117</t>
+    <t xml:space="preserve">0.924741804599762</t>
   </si>
   <si>
     <t xml:space="preserve">0.945304691791534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93707948923111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928854286670685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961768984794617</t>
+    <t xml:space="preserve">0.937079548835754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92885422706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961769223213196</t>
   </si>
   <si>
     <t xml:space="preserve">0.98744261264801</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">1.04010629653931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04076445102692</t>
+    <t xml:space="preserve">1.04076457023621</t>
   </si>
   <si>
     <t xml:space="preserve">1.03615641593933</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">1.05327212810516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05261385440826</t>
+    <t xml:space="preserve">1.05261373519897</t>
   </si>
   <si>
     <t xml:space="preserve">1.05458867549896</t>
@@ -332,16 +332,16 @@
     <t xml:space="preserve">1.05393028259277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07367944717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11646842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09276974201202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03878962993622</t>
+    <t xml:space="preserve">1.07367932796478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11646854877472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09276986122131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03878951072693</t>
   </si>
   <si>
     <t xml:space="preserve">1.02299058437347</t>
@@ -350,16 +350,16 @@
     <t xml:space="preserve">0.982834577560425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01245784759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993367314338684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07894563674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07565426826477</t>
+    <t xml:space="preserve">1.0124579668045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993367254734039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07894575595856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07565414905548</t>
   </si>
   <si>
     <t xml:space="preserve">1.07302105426788</t>
@@ -377,13 +377,13 @@
     <t xml:space="preserve">0.977568209171295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972301840782166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02628195285797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04668927192688</t>
+    <t xml:space="preserve">0.972301959991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02628207206726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04668915271759</t>
   </si>
   <si>
     <t xml:space="preserve">1.02035737037659</t>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">0.938728749752045</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936095595359802</t>
+    <t xml:space="preserve">0.936095714569092</t>
   </si>
   <si>
     <t xml:space="preserve">0.956502735614777</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">0.951894700527191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936753988265991</t>
+    <t xml:space="preserve">0.936753928661346</t>
   </si>
   <si>
     <t xml:space="preserve">0.946628332138062</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">0.949919760227203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948603212833405</t>
+    <t xml:space="preserve">0.948603093624115</t>
   </si>
   <si>
     <t xml:space="preserve">0.974276721477509</t>
@@ -425,25 +425,25 @@
     <t xml:space="preserve">0.954527854919434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997975409030914</t>
+    <t xml:space="preserve">0.997975289821625</t>
   </si>
   <si>
     <t xml:space="preserve">0.9235879778862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836034774780273</t>
+    <t xml:space="preserve">0.836034834384918</t>
   </si>
   <si>
     <t xml:space="preserve">0.809702932834625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.832085013389587</t>
+    <t xml:space="preserve">0.832085072994232</t>
   </si>
   <si>
     <t xml:space="preserve">0.851833879947662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88869845867157</t>
+    <t xml:space="preserve">0.88869833946228</t>
   </si>
   <si>
     <t xml:space="preserve">0.884090304374695</t>
@@ -455,10 +455,10 @@
     <t xml:space="preserve">0.873557567596436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880798876285553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886723518371582</t>
+    <t xml:space="preserve">0.880798816680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886723399162292</t>
   </si>
   <si>
     <t xml:space="preserve">0.890673339366913</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">0.866974651813507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884748518466949</t>
+    <t xml:space="preserve">0.884748637676239</t>
   </si>
   <si>
     <t xml:space="preserve">0.88343209028244</t>
@@ -482,10 +482,10 @@
     <t xml:space="preserve">0.870266079902649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864341497421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881457030773163</t>
+    <t xml:space="preserve">0.864341378211975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881457149982452</t>
   </si>
   <si>
     <t xml:space="preserve">0.882773637771606</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">0.887381792068481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880140602588654</t>
+    <t xml:space="preserve">0.880140483379364</t>
   </si>
   <si>
     <t xml:space="preserve">0.921613097190857</t>
@@ -506,19 +506,19 @@
     <t xml:space="preserve">0.947944939136505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947286665439606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932145833969116</t>
+    <t xml:space="preserve">0.947286546230316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932145774364471</t>
   </si>
   <si>
     <t xml:space="preserve">0.902522623538971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895281374454498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90318089723587</t>
+    <t xml:space="preserve">0.895281255245209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903180837631226</t>
   </si>
   <si>
     <t xml:space="preserve">0.917005062103271</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">0.911080360412598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912397146224976</t>
+    <t xml:space="preserve">0.912397027015686</t>
   </si>
   <si>
     <t xml:space="preserve">0.913713574409485</t>
@@ -542,16 +542,16 @@
     <t xml:space="preserve">0.931487560272217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918980062007904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909763753414154</t>
+    <t xml:space="preserve">0.918979942798615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909763813018799</t>
   </si>
   <si>
     <t xml:space="preserve">0.926879584789276</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920296490192413</t>
+    <t xml:space="preserve">0.920296549797058</t>
   </si>
   <si>
     <t xml:space="preserve">0.938070476055145</t>
@@ -563,13 +563,13 @@
     <t xml:space="preserve">0.970327019691467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988759160041809</t>
+    <t xml:space="preserve">0.988759279251099</t>
   </si>
   <si>
     <t xml:space="preserve">0.984151124954224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992708921432495</t>
+    <t xml:space="preserve">0.992709040641785</t>
   </si>
   <si>
     <t xml:space="preserve">1.04142284393311</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">1.03154838085175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05919682979584</t>
+    <t xml:space="preserve">1.05919671058655</t>
   </si>
   <si>
     <t xml:space="preserve">1.03813135623932</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">1.03418159484863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01838254928589</t>
+    <t xml:space="preserve">1.01838266849518</t>
   </si>
   <si>
     <t xml:space="preserve">1.03352344036102</t>
@@ -605,19 +605,19 @@
     <t xml:space="preserve">1.04208111763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01443266868591</t>
+    <t xml:space="preserve">1.0144327878952</t>
   </si>
   <si>
     <t xml:space="preserve">1.09211146831512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08618676662445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09013676643372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0993527173996</t>
+    <t xml:space="preserve">1.08618688583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09013664722443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09935259819031</t>
   </si>
   <si>
     <t xml:space="preserve">1.08750343322754</t>
@@ -632,22 +632,22 @@
     <t xml:space="preserve">1.06380486488342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13819217681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11120212078094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12305128574371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08421182632446</t>
+    <t xml:space="preserve">1.13819205760956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11120200157166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.123051404953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08421194553375</t>
   </si>
   <si>
     <t xml:space="preserve">1.07697081565857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09145331382751</t>
+    <t xml:space="preserve">1.09145319461823</t>
   </si>
   <si>
     <t xml:space="preserve">1.096719622612</t>
@@ -659,25 +659,25 @@
     <t xml:space="preserve">1.13095092773438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11186051368713</t>
+    <t xml:space="preserve">1.11186039447784</t>
   </si>
   <si>
     <t xml:space="preserve">1.12568473815918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13226747512817</t>
+    <t xml:space="preserve">1.13226759433746</t>
   </si>
   <si>
     <t xml:space="preserve">1.13885056972504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13621723651886</t>
+    <t xml:space="preserve">1.13621735572815</t>
   </si>
   <si>
     <t xml:space="preserve">1.14543342590332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14740824699402</t>
+    <t xml:space="preserve">1.14740836620331</t>
   </si>
   <si>
     <t xml:space="preserve">1.15596628189087</t>
@@ -686,16 +686,16 @@
     <t xml:space="preserve">1.14016711711884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14082539081573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11910176277161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1243679523468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12831771373749</t>
+    <t xml:space="preserve">1.14082551002502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11910164356232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12436807155609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12831783294678</t>
   </si>
   <si>
     <t xml:space="preserve">1.09079492092133</t>
@@ -722,34 +722,34 @@
     <t xml:space="preserve">0.988100945949554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940703630447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933462500572205</t>
+    <t xml:space="preserve">0.940703749656677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93346232175827</t>
   </si>
   <si>
     <t xml:space="preserve">0.935437381267548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953869462013245</t>
+    <t xml:space="preserve">0.953869640827179</t>
   </si>
   <si>
     <t xml:space="preserve">0.999950230121613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00521659851074</t>
+    <t xml:space="preserve">1.00521647930145</t>
   </si>
   <si>
     <t xml:space="preserve">1.0170658826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00916647911072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03088998794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0460307598114</t>
+    <t xml:space="preserve">1.00916635990143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03089010715485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04603087902069</t>
   </si>
   <si>
     <t xml:space="preserve">1.07170450687408</t>
@@ -761,22 +761,22 @@
     <t xml:space="preserve">1.10396087169647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10066938400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0947448015213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12041831016541</t>
+    <t xml:space="preserve">1.1006692647934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09474468231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12041819095612</t>
   </si>
   <si>
     <t xml:space="preserve">1.12765955924988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1263427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1223931312561</t>
+    <t xml:space="preserve">1.12634289264679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12239325046539</t>
   </si>
   <si>
     <t xml:space="preserve">1.11976003646851</t>
@@ -785,10 +785,10 @@
     <t xml:space="preserve">1.13490080833435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16715729236603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16913211345673</t>
+    <t xml:space="preserve">1.16715717315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16913199424744</t>
   </si>
   <si>
     <t xml:space="preserve">1.1803230047226</t>
@@ -797,16 +797,16 @@
     <t xml:space="preserve">1.17176532745361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16584074497223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1737402677536</t>
+    <t xml:space="preserve">1.16584062576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17374014854431</t>
   </si>
   <si>
     <t xml:space="preserve">1.17900657653809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18229806423187</t>
+    <t xml:space="preserve">1.18229794502258</t>
   </si>
   <si>
     <t xml:space="preserve">1.17308187484741</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">1.21652936935425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21389615535736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22706210613251</t>
+    <t xml:space="preserve">1.21389603614807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22706198692322</t>
   </si>
   <si>
     <t xml:space="preserve">1.21784591674805</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">1.19546389579773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22179555892944</t>
+    <t xml:space="preserve">1.22179567813873</t>
   </si>
   <si>
     <t xml:space="preserve">1.22772037982941</t>
@@ -842,13 +842,13 @@
     <t xml:space="preserve">1.21455430984497</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21587109565735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23167014122009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25339376926422</t>
+    <t xml:space="preserve">1.21587097644806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23167026042938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25339388847351</t>
   </si>
   <si>
     <t xml:space="preserve">1.26853466033936</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">1.27182614803314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28696691989899</t>
+    <t xml:space="preserve">1.28696703910828</t>
   </si>
   <si>
     <t xml:space="preserve">1.3093489408493</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">1.35213804244995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35608792304993</t>
+    <t xml:space="preserve">1.35608780384064</t>
   </si>
   <si>
     <t xml:space="preserve">1.35872101783752</t>
@@ -890,13 +890,13 @@
     <t xml:space="preserve">1.39163589477539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40875148773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47721421718597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48116385936737</t>
+    <t xml:space="preserve">1.40875160694122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47721409797668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48116397857666</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169683456421</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">1.49169659614563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49031937122345</t>
+    <t xml:space="preserve">1.49031925201416</t>
   </si>
   <si>
     <t xml:space="preserve">1.4889417886734</t>
@@ -920,16 +920,16 @@
     <t xml:space="preserve">1.38701617717743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38288402557373</t>
+    <t xml:space="preserve">1.38288414478302</t>
   </si>
   <si>
     <t xml:space="preserve">1.48343241214752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44899809360504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43522441387177</t>
+    <t xml:space="preserve">1.44899821281433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43522429466248</t>
   </si>
   <si>
     <t xml:space="preserve">1.43246948719025</t>
@@ -938,10 +938,10 @@
     <t xml:space="preserve">1.45313012599945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51235747337341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57158446311951</t>
+    <t xml:space="preserve">1.51235723495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57158434391022</t>
   </si>
   <si>
     <t xml:space="preserve">1.53301799297333</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">1.53990483283997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51511204242706</t>
+    <t xml:space="preserve">1.51511216163635</t>
   </si>
   <si>
     <t xml:space="preserve">1.43935644626617</t>
@@ -962,34 +962,34 @@
     <t xml:space="preserve">1.45175290107727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45863974094391</t>
+    <t xml:space="preserve">1.45863962173462</t>
   </si>
   <si>
     <t xml:space="preserve">1.42282795906067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41594099998474</t>
+    <t xml:space="preserve">1.41594111919403</t>
   </si>
   <si>
     <t xml:space="preserve">1.40354478359222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45450747013092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44624316692352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4379791021347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45726227760315</t>
+    <t xml:space="preserve">1.45450758934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44624328613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43797922134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45726215839386</t>
   </si>
   <si>
     <t xml:space="preserve">1.42558264732361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42971479892731</t>
+    <t xml:space="preserve">1.4297149181366</t>
   </si>
   <si>
     <t xml:space="preserve">1.44073379039764</t>
@@ -1004,31 +1004,31 @@
     <t xml:space="preserve">1.47654557228088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51786673069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53164041042328</t>
+    <t xml:space="preserve">1.51786684989929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53164052963257</t>
   </si>
   <si>
     <t xml:space="preserve">1.53577268123627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55643332004547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54403710365295</t>
+    <t xml:space="preserve">1.55643320083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54403686523438</t>
   </si>
   <si>
     <t xml:space="preserve">1.52888584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33605325222015</t>
+    <t xml:space="preserve">1.33605337142944</t>
   </si>
   <si>
     <t xml:space="preserve">1.33811938762665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31194925308228</t>
+    <t xml:space="preserve">1.31194937229156</t>
   </si>
   <si>
     <t xml:space="preserve">1.27820360660553</t>
@@ -1055,10 +1055,10 @@
     <t xml:space="preserve">1.29748690128326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28233575820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29542076587677</t>
+    <t xml:space="preserve">1.28233563899994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29542088508606</t>
   </si>
   <si>
     <t xml:space="preserve">1.2899112701416</t>
@@ -1073,16 +1073,16 @@
     <t xml:space="preserve">1.32778906822205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3332986831665</t>
+    <t xml:space="preserve">1.33329856395721</t>
   </si>
   <si>
     <t xml:space="preserve">1.34018552303314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33880817890167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3739310503006</t>
+    <t xml:space="preserve">1.33880805969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37393116950989</t>
   </si>
   <si>
     <t xml:space="preserve">1.41180884838104</t>
@@ -1100,16 +1100,16 @@
     <t xml:space="preserve">1.44762063026428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4049220085144</t>
+    <t xml:space="preserve">1.40492212772369</t>
   </si>
   <si>
     <t xml:space="preserve">1.46414911746979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48618710041046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51098001003265</t>
+    <t xml:space="preserve">1.48618721961975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51097977161407</t>
   </si>
   <si>
     <t xml:space="preserve">1.56194281578064</t>
@@ -1118,19 +1118,19 @@
     <t xml:space="preserve">1.53852736949921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52613115310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55918800830841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57433927059174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51648926734924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51924419403076</t>
+    <t xml:space="preserve">1.5261310338974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5591881275177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57433903217316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51648938655853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51924431324005</t>
   </si>
   <si>
     <t xml:space="preserve">1.50684773921967</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">1.50822520256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52750837802887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55092370510101</t>
+    <t xml:space="preserve">1.52750849723816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5509238243103</t>
   </si>
   <si>
     <t xml:space="preserve">1.60050916671753</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">1.61841511726379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58949041366577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4848096370697</t>
+    <t xml:space="preserve">1.58949017524719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48480975627899</t>
   </si>
   <si>
     <t xml:space="preserve">1.52062153816223</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">1.55230104923248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52199900150299</t>
+    <t xml:space="preserve">1.5219988822937</t>
   </si>
   <si>
     <t xml:space="preserve">1.49720621109009</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">1.42145049571991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43384695053101</t>
+    <t xml:space="preserve">1.43384683132172</t>
   </si>
   <si>
     <t xml:space="preserve">1.4173184633255</t>
@@ -1199,40 +1199,40 @@
     <t xml:space="preserve">1.38839364051819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37530839443207</t>
+    <t xml:space="preserve">1.37530851364136</t>
   </si>
   <si>
     <t xml:space="preserve">1.36360085010529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35051572322845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37048768997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34087419509888</t>
+    <t xml:space="preserve">1.35051584243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37048757076263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34087407588959</t>
   </si>
   <si>
     <t xml:space="preserve">1.36222350597382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34294021129608</t>
+    <t xml:space="preserve">1.34294033050537</t>
   </si>
   <si>
     <t xml:space="preserve">1.36979901790619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36428952217102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36704421043396</t>
+    <t xml:space="preserve">1.36428940296173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36704432964325</t>
   </si>
   <si>
     <t xml:space="preserve">1.38977098464966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38012933731079</t>
+    <t xml:space="preserve">1.3801292181015</t>
   </si>
   <si>
     <t xml:space="preserve">1.35533654689789</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">1.36842167377472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36635541915894</t>
+    <t xml:space="preserve">1.36635565757751</t>
   </si>
   <si>
     <t xml:space="preserve">1.21966516971588</t>
@@ -1253,13 +1253,13 @@
     <t xml:space="preserve">1.23963701725006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25134491920471</t>
+    <t xml:space="preserve">1.25134479999542</t>
   </si>
   <si>
     <t xml:space="preserve">1.24927878379822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22586345672607</t>
+    <t xml:space="preserve">1.22586333751678</t>
   </si>
   <si>
     <t xml:space="preserve">1.25203347206116</t>
@@ -1268,43 +1268,43 @@
     <t xml:space="preserve">1.24721264839172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21553301811218</t>
+    <t xml:space="preserve">1.21553313732147</t>
   </si>
   <si>
     <t xml:space="preserve">1.19900453090668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22104263305664</t>
+    <t xml:space="preserve">1.22104251384735</t>
   </si>
   <si>
     <t xml:space="preserve">1.21002352237701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2058914899826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21140098571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19969320297241</t>
+    <t xml:space="preserve">1.20589137077332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21140086650848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1996933221817</t>
   </si>
   <si>
     <t xml:space="preserve">1.21277832984924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1645702123642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15699470043182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1521737575531</t>
+    <t xml:space="preserve">1.16457009315491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15699458122253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15217387676239</t>
   </si>
   <si>
     <t xml:space="preserve">1.12600374221802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12875843048096</t>
+    <t xml:space="preserve">1.12875854969025</t>
   </si>
   <si>
     <t xml:space="preserve">1.10052239894867</t>
@@ -1316,19 +1316,19 @@
     <t xml:space="preserve">1.11429607868195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13082456588745</t>
+    <t xml:space="preserve">1.13082444667816</t>
   </si>
   <si>
     <t xml:space="preserve">1.12669241428375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14322078227997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1335791349411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23137283325195</t>
+    <t xml:space="preserve">1.14322090148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13357925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23137295246124</t>
   </si>
   <si>
     <t xml:space="preserve">1.18936288356781</t>
@@ -1343,40 +1343,40 @@
     <t xml:space="preserve">1.1728343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17558932304382</t>
+    <t xml:space="preserve">1.17558920383453</t>
   </si>
   <si>
     <t xml:space="preserve">1.17696666717529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17076849937439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26029777526855</t>
+    <t xml:space="preserve">1.1707683801651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26029765605927</t>
   </si>
   <si>
     <t xml:space="preserve">1.3023077249527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27682638168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30988311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31126058101654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2547881603241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26649606227875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21071219444275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22792947292328</t>
+    <t xml:space="preserve">1.27682626247406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30988323688507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31126070022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25478827953339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26649594306946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21071231365204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22792935371399</t>
   </si>
   <si>
     <t xml:space="preserve">1.25065612792969</t>
@@ -1388,10 +1388,10 @@
     <t xml:space="preserve">1.27200543880463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29473197460175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.298175573349</t>
+    <t xml:space="preserve">1.29473209381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29817545413971</t>
   </si>
   <si>
     <t xml:space="preserve">1.3229683637619</t>
@@ -1406,31 +1406,31 @@
     <t xml:space="preserve">1.279580950737</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26718473434448</t>
+    <t xml:space="preserve">1.26718461513519</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26374113559723</t>
+    <t xml:space="preserve">1.26374125480652</t>
   </si>
   <si>
     <t xml:space="preserve">1.26993930339813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29955291748047</t>
+    <t xml:space="preserve">1.29955279827118</t>
   </si>
   <si>
     <t xml:space="preserve">1.32985520362854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39252579212189</t>
+    <t xml:space="preserve">1.3925256729126</t>
   </si>
   <si>
     <t xml:space="preserve">1.40905427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42007327079773</t>
+    <t xml:space="preserve">1.42007315158844</t>
   </si>
   <si>
     <t xml:space="preserve">1.39114820957184</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">1.3966578245163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3842613697052</t>
+    <t xml:space="preserve">1.38426148891449</t>
   </si>
   <si>
     <t xml:space="preserve">1.34156286716461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30781733989716</t>
+    <t xml:space="preserve">1.30781722068787</t>
   </si>
   <si>
     <t xml:space="preserve">1.38794767856598</t>
@@ -5244,6 +5244,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.62049996852875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62199997901917</t>
   </si>
 </sst>
 </file>
@@ -61797,7 +61800,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6495138889</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>1302622</v>
@@ -61818,6 +61821,32 @@
         <v>1743</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6495023148</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>1450110</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>1.61800003051758</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>1.62100005149841</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>1.62199997901917</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170564651489</t>
+    <t xml:space="preserve">1.00170576572418</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
@@ -47,19 +47,19 @@
     <t xml:space="preserve">0.982317805290222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985255479812622</t>
+    <t xml:space="preserve">0.985255599021912</t>
   </si>
   <si>
     <t xml:space="preserve">0.960579931735992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964104950428009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993480563163757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992893099784851</t>
+    <t xml:space="preserve">0.964105069637299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993480443954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992892980575562</t>
   </si>
   <si>
     <t xml:space="preserve">1.04576897621155</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">1.04165637493134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02814364433289</t>
+    <t xml:space="preserve">1.02814376354218</t>
   </si>
   <si>
     <t xml:space="preserve">1.03695631027222</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">1.05693161487579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02579379081726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07749450206757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08101952075958</t>
+    <t xml:space="preserve">1.02579367160797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07749462127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08101963996887</t>
   </si>
   <si>
     <t xml:space="preserve">1.13565802574158</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">1.11509525775909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12802052497864</t>
+    <t xml:space="preserve">1.12802040576935</t>
   </si>
   <si>
     <t xml:space="preserve">1.14035820960999</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">1.11098265647888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09100723266602</t>
+    <t xml:space="preserve">1.09100735187531</t>
   </si>
   <si>
     <t xml:space="preserve">1.02755618095398</t>
@@ -116,58 +116,58 @@
     <t xml:space="preserve">0.957642376422882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853653013706207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829565107822418</t>
+    <t xml:space="preserve">0.853652954101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829564929008484</t>
   </si>
   <si>
     <t xml:space="preserve">0.840140223503113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.810764670372009</t>
+    <t xml:space="preserve">0.810764849185944</t>
   </si>
   <si>
     <t xml:space="preserve">0.81663978099823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873040854930878</t>
+    <t xml:space="preserve">0.873040795326233</t>
   </si>
   <si>
     <t xml:space="preserve">0.863640666007996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872453331947327</t>
+    <t xml:space="preserve">0.872453272342682</t>
   </si>
   <si>
     <t xml:space="preserve">0.887728571891785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881853520870209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86070317029953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842490375041962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850127935409546</t>
+    <t xml:space="preserve">0.881853580474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860703229904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842490315437317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850127995014191</t>
   </si>
   <si>
     <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904179036617279</t>
+    <t xml:space="preserve">0.904178977012634</t>
   </si>
   <si>
     <t xml:space="preserve">0.916516602039337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895366251468658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851890563964844</t>
+    <t xml:space="preserve">0.895366311073303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851890504360199</t>
   </si>
   <si>
     <t xml:space="preserve">0.807827174663544</t>
@@ -179,19 +179,19 @@
     <t xml:space="preserve">0.764938950538635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757888734340668</t>
+    <t xml:space="preserve">0.757888674736023</t>
   </si>
   <si>
     <t xml:space="preserve">0.831915199756622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820164978504181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817814826965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828389942646027</t>
+    <t xml:space="preserve">0.820164859294891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817814886569977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828390061855316</t>
   </si>
   <si>
     <t xml:space="preserve">0.833677649497986</t>
@@ -200,31 +200,31 @@
     <t xml:space="preserve">0.823102414608002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817227363586426</t>
+    <t xml:space="preserve">0.817227303981781</t>
   </si>
   <si>
     <t xml:space="preserve">0.827215015888214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828977525234222</t>
+    <t xml:space="preserve">0.828977584838867</t>
   </si>
   <si>
     <t xml:space="preserve">0.843077778816223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865403294563293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837790250778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830740034580231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84660279750824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848953008651733</t>
+    <t xml:space="preserve">0.865403175354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837790191173553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830740094184875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846602916717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848952949047089</t>
   </si>
   <si>
     <t xml:space="preserve">0.860115647315979</t>
@@ -233,22 +233,22 @@
     <t xml:space="preserve">0.846015393733978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834265053272247</t>
+    <t xml:space="preserve">0.834265172481537</t>
   </si>
   <si>
     <t xml:space="preserve">0.822514891624451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845427870750427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868340790271759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920629143714905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915929019451141</t>
+    <t xml:space="preserve">0.845427811145782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868340730667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92062920331955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915929079055786</t>
   </si>
   <si>
     <t xml:space="preserve">0.905941486358643</t>
@@ -257,25 +257,25 @@
     <t xml:space="preserve">0.893016159534454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886553585529327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578280925751</t>
+    <t xml:space="preserve">0.886553525924683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578221321106</t>
   </si>
   <si>
     <t xml:space="preserve">0.869515776634216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88244092464447</t>
+    <t xml:space="preserve">0.882440984249115</t>
   </si>
   <si>
     <t xml:space="preserve">0.864228129386902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835440158843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826039910316467</t>
+    <t xml:space="preserve">0.835440099239349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826040029525757</t>
   </si>
   <si>
     <t xml:space="preserve">0.83015251159668</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">1.03483986854553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04010617733002</t>
+    <t xml:space="preserve">1.04010629653931</t>
   </si>
   <si>
     <t xml:space="preserve">1.04076445102692</t>
@@ -323,13 +323,13 @@
     <t xml:space="preserve">1.05327212810516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05261385440826</t>
+    <t xml:space="preserve">1.05261397361755</t>
   </si>
   <si>
     <t xml:space="preserve">1.05458867549896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05393040180206</t>
+    <t xml:space="preserve">1.05393052101135</t>
   </si>
   <si>
     <t xml:space="preserve">1.07367932796478</t>
@@ -338,31 +338,31 @@
     <t xml:space="preserve">1.11646842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0927699804306</t>
+    <t xml:space="preserve">1.09276986122131</t>
   </si>
   <si>
     <t xml:space="preserve">1.03878962993622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02299058437347</t>
+    <t xml:space="preserve">1.02299070358276</t>
   </si>
   <si>
     <t xml:space="preserve">0.98283463716507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01245784759521</t>
+    <t xml:space="preserve">1.0124579668045</t>
   </si>
   <si>
     <t xml:space="preserve">0.993367314338684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07894575595856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07565402984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07302093505859</t>
+    <t xml:space="preserve">1.07894563674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07565414905548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0730208158493</t>
   </si>
   <si>
     <t xml:space="preserve">1.10132765769958</t>
@@ -374,22 +374,22 @@
     <t xml:space="preserve">0.959135949611664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977568209171295</t>
+    <t xml:space="preserve">0.977568089962006</t>
   </si>
   <si>
     <t xml:space="preserve">0.97230190038681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02628195285797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04668939113617</t>
+    <t xml:space="preserve">1.02628207206726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04668927192688</t>
   </si>
   <si>
     <t xml:space="preserve">1.02035737037659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961110949516296</t>
+    <t xml:space="preserve">0.961110830307007</t>
   </si>
   <si>
     <t xml:space="preserve">0.938728868961334</t>
@@ -398,16 +398,16 @@
     <t xml:space="preserve">0.936095654964447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956502854824066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951894640922546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936753869056702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946628272533417</t>
+    <t xml:space="preserve">0.956502735614777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951894760131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936753928661346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946628212928772</t>
   </si>
   <si>
     <t xml:space="preserve">0.939387083053589</t>
@@ -416,10 +416,10 @@
     <t xml:space="preserve">0.949919760227203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948603093624115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974276781082153</t>
+    <t xml:space="preserve">0.948603272438049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974276661872864</t>
   </si>
   <si>
     <t xml:space="preserve">0.954527974128723</t>
@@ -431,49 +431,49 @@
     <t xml:space="preserve">0.923588037490845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836034834384918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809702932834625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832084953784943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851833939552307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88869833946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88409036397934</t>
+    <t xml:space="preserve">0.836034715175629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80970299243927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832085072994232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851833820343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888698399066925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884090423583984</t>
   </si>
   <si>
     <t xml:space="preserve">0.871582686901093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873557567596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880798935890198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886723399162292</t>
+    <t xml:space="preserve">0.873557507991791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880798876285553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886723518371582</t>
   </si>
   <si>
     <t xml:space="preserve">0.890673339366913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870924293994904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866974592208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884748518466949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88343209028244</t>
+    <t xml:space="preserve">0.870924353599548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866974651813507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884748637676239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883432030677795</t>
   </si>
   <si>
     <t xml:space="preserve">0.874215841293335</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">0.870266079902649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86434143781662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881457090377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882773697376251</t>
+    <t xml:space="preserve">0.864341497421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881457209587097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882773637771606</t>
   </si>
   <si>
     <t xml:space="preserve">0.887381911277771</t>
@@ -497,16 +497,16 @@
     <t xml:space="preserve">0.880140602588654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921613097190857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934778928756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947945058345795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94728672504425</t>
+    <t xml:space="preserve">0.921613156795502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934778988361359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947944939136505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947286605834961</t>
   </si>
   <si>
     <t xml:space="preserve">0.932145893573761</t>
@@ -515,16 +515,16 @@
     <t xml:space="preserve">0.902522563934326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895281255245209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903180778026581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917005002498627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940045297145844</t>
+    <t xml:space="preserve">0.895281314849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90318089723587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917005062103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940045416355133</t>
   </si>
   <si>
     <t xml:space="preserve">0.934120714664459</t>
@@ -533,34 +533,34 @@
     <t xml:space="preserve">0.911080360412598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912397086620331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91371363401413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931487560272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918980062007904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909763813018799</t>
+    <t xml:space="preserve">0.912397027015686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913713574409485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931487500667572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91897988319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909763753414154</t>
   </si>
   <si>
     <t xml:space="preserve">0.926879465579987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920296430587769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93807053565979</t>
+    <t xml:space="preserve">0.920296609401703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9380704164505</t>
   </si>
   <si>
     <t xml:space="preserve">0.964402377605438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970327019691467</t>
+    <t xml:space="preserve">0.970326900482178</t>
   </si>
   <si>
     <t xml:space="preserve">0.988759219646454</t>
@@ -569,13 +569,13 @@
     <t xml:space="preserve">0.984151184558868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992709100246429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0414229631424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03549802303314</t>
+    <t xml:space="preserve">0.99270898103714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04142284393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03549814224243</t>
   </si>
   <si>
     <t xml:space="preserve">1.03154838085175</t>
@@ -584,16 +584,16 @@
     <t xml:space="preserve">1.05919682979584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03813147544861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03023171424866</t>
+    <t xml:space="preserve">1.03813135623932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03023183345795</t>
   </si>
   <si>
     <t xml:space="preserve">1.02167403697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03418159484863</t>
+    <t xml:space="preserve">1.03418147563934</t>
   </si>
   <si>
     <t xml:space="preserve">1.01838254928589</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">1.09013676643372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0993527173996</t>
+    <t xml:space="preserve">1.09935283660889</t>
   </si>
   <si>
     <t xml:space="preserve">1.08750355243683</t>
@@ -626,13 +626,13 @@
     <t xml:space="preserve">1.07960391044617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05788028240204</t>
+    <t xml:space="preserve">1.05788016319275</t>
   </si>
   <si>
     <t xml:space="preserve">1.06380486488342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13819229602814</t>
+    <t xml:space="preserve">1.13819217681885</t>
   </si>
   <si>
     <t xml:space="preserve">1.11120212078094</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">1.123051404953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08421194553375</t>
+    <t xml:space="preserve">1.08421206474304</t>
   </si>
   <si>
     <t xml:space="preserve">1.07697069644928</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">1.09145331382751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09671974182129</t>
+    <t xml:space="preserve">1.096719622612</t>
   </si>
   <si>
     <t xml:space="preserve">1.11778509616852</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">1.13095092773438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11186027526855</t>
+    <t xml:space="preserve">1.11186039447784</t>
   </si>
   <si>
     <t xml:space="preserve">1.1256844997406</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">1.13226759433746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13885045051575</t>
+    <t xml:space="preserve">1.13885056972504</t>
   </si>
   <si>
     <t xml:space="preserve">1.13621723651886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14543330669403</t>
+    <t xml:space="preserve">1.14543342590332</t>
   </si>
   <si>
     <t xml:space="preserve">1.14740836620331</t>
@@ -683,10 +683,10 @@
     <t xml:space="preserve">1.15596616268158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14016699790955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14082551002502</t>
+    <t xml:space="preserve">1.14016711711884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14082539081573</t>
   </si>
   <si>
     <t xml:space="preserve">1.11910164356232</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">1.0973778963089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08684515953064</t>
+    <t xml:space="preserve">1.08684527873993</t>
   </si>
   <si>
     <t xml:space="preserve">1.01904082298279</t>
@@ -713,19 +713,19 @@
     <t xml:space="preserve">1.02364885807037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02496552467346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02562367916107</t>
+    <t xml:space="preserve">1.02496540546417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02562379837036</t>
   </si>
   <si>
     <t xml:space="preserve">0.988100945949554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940703630447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93346244096756</t>
+    <t xml:space="preserve">0.940703749656677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933462381362915</t>
   </si>
   <si>
     <t xml:space="preserve">0.935437381267548</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">0.953869521617889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999950170516968</t>
+    <t xml:space="preserve">0.999950408935547</t>
   </si>
   <si>
     <t xml:space="preserve">1.00521647930145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01706576347351</t>
+    <t xml:space="preserve">1.0170658826828</t>
   </si>
   <si>
     <t xml:space="preserve">1.00916635990143</t>
@@ -761,19 +761,19 @@
     <t xml:space="preserve">1.10396087169647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10066950321198</t>
+    <t xml:space="preserve">1.10066938400269</t>
   </si>
   <si>
     <t xml:space="preserve">1.09474468231201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12041819095612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12765955924988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12634301185608</t>
+    <t xml:space="preserve">1.12041831016541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12765967845917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12634289264679</t>
   </si>
   <si>
     <t xml:space="preserve">1.1223931312561</t>
@@ -788,34 +788,34 @@
     <t xml:space="preserve">1.16715717315674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16913223266602</t>
+    <t xml:space="preserve">1.16913211345673</t>
   </si>
   <si>
     <t xml:space="preserve">1.1803230047226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17176520824432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16584050655365</t>
+    <t xml:space="preserve">1.17176532745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16584062576294</t>
   </si>
   <si>
     <t xml:space="preserve">1.17374014854431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1790064573288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18229794502258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17308187484741</t>
+    <t xml:space="preserve">1.17900657653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18229806423187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17308175563812</t>
   </si>
   <si>
     <t xml:space="preserve">1.19941365718842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21652925014496</t>
+    <t xml:space="preserve">1.21652936935425</t>
   </si>
   <si>
     <t xml:space="preserve">1.21389603614807</t>
@@ -824,10 +824,10 @@
     <t xml:space="preserve">1.22706198692322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21784591674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.204021692276</t>
+    <t xml:space="preserve">1.21784579753876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20402181148529</t>
   </si>
   <si>
     <t xml:space="preserve">1.19546401500702</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">1.21455442905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21587097644806</t>
+    <t xml:space="preserve">1.21587109565735</t>
   </si>
   <si>
     <t xml:space="preserve">1.23167014122009</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">1.26853466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24417769908905</t>
+    <t xml:space="preserve">1.24417781829834</t>
   </si>
   <si>
     <t xml:space="preserve">1.26260995864868</t>
@@ -869,19 +869,19 @@
     <t xml:space="preserve">1.3093489408493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32448971271515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32843947410583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36135423183441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35213804244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35608768463135</t>
+    <t xml:space="preserve">1.32448983192444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32843935489655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3613543510437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35213816165924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35608780384064</t>
   </si>
   <si>
     <t xml:space="preserve">1.35872101783752</t>
@@ -890,19 +890,19 @@
     <t xml:space="preserve">1.39163589477539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40875148773193</t>
+    <t xml:space="preserve">1.40875160694122</t>
   </si>
   <si>
     <t xml:space="preserve">1.47721421718597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48116409778595</t>
+    <t xml:space="preserve">1.48116397857666</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169671535492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169659614563</t>
+    <t xml:space="preserve">1.49169647693634</t>
   </si>
   <si>
     <t xml:space="preserve">1.49031937122345</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">1.39803516864777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38701617717743</t>
+    <t xml:space="preserve">1.38701629638672</t>
   </si>
   <si>
     <t xml:space="preserve">1.38288402557373</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">1.48343253135681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44899809360504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43522429466248</t>
+    <t xml:space="preserve">1.44899821281433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43522441387177</t>
   </si>
   <si>
     <t xml:space="preserve">1.43246960639954</t>
@@ -947,16 +947,16 @@
     <t xml:space="preserve">1.53301787376404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53990483283997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51511216163635</t>
+    <t xml:space="preserve">1.53990471363068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51511228084564</t>
   </si>
   <si>
     <t xml:space="preserve">1.43935632705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47792279720306</t>
+    <t xml:space="preserve">1.47792291641235</t>
   </si>
   <si>
     <t xml:space="preserve">1.45175278186798</t>
@@ -965,10 +965,10 @@
     <t xml:space="preserve">1.45863974094391</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42282783985138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41594111919403</t>
+    <t xml:space="preserve">1.42282795906067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41594099998474</t>
   </si>
   <si>
     <t xml:space="preserve">1.40354478359222</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">1.43660163879395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45588493347168</t>
+    <t xml:space="preserve">1.45588505268097</t>
   </si>
   <si>
     <t xml:space="preserve">1.47654557228088</t>
@@ -1031,13 +1031,13 @@
     <t xml:space="preserve">1.31194925308228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27820348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25960898399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27062797546387</t>
+    <t xml:space="preserve">1.27820360660553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25960910320282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27062809467316</t>
   </si>
   <si>
     <t xml:space="preserve">1.28095841407776</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258185863495</t>
+    <t xml:space="preserve">1.35258173942566</t>
   </si>
   <si>
     <t xml:space="preserve">1.29748678207397</t>
@@ -1061,13 +1061,13 @@
     <t xml:space="preserve">1.29542088508606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28991138935089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31608152389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33674204349518</t>
+    <t xml:space="preserve">1.2899112701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31608140468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33674192428589</t>
   </si>
   <si>
     <t xml:space="preserve">1.32778906822205</t>
@@ -1079,31 +1079,31 @@
     <t xml:space="preserve">1.34018540382385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33880805969238</t>
+    <t xml:space="preserve">1.33880817890167</t>
   </si>
   <si>
     <t xml:space="preserve">1.37393116950989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41180896759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41869568824768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46001696586609</t>
+    <t xml:space="preserve">1.41180884838104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41869580745697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4600168466568</t>
   </si>
   <si>
     <t xml:space="preserve">1.45037531852722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44762074947357</t>
+    <t xml:space="preserve">1.44762063026428</t>
   </si>
   <si>
     <t xml:space="preserve">1.4049220085144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46414911746979</t>
+    <t xml:space="preserve">1.46414923667908</t>
   </si>
   <si>
     <t xml:space="preserve">1.48618721961975</t>
@@ -1118,13 +1118,13 @@
     <t xml:space="preserve">1.53852736949921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5261310338974</t>
+    <t xml:space="preserve">1.52613115310669</t>
   </si>
   <si>
     <t xml:space="preserve">1.55918800830841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57433915138245</t>
+    <t xml:space="preserve">1.57433927059174</t>
   </si>
   <si>
     <t xml:space="preserve">1.51648926734924</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">1.51924419403076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50684785842896</t>
+    <t xml:space="preserve">1.50684773921967</t>
   </si>
   <si>
     <t xml:space="preserve">1.49582874774933</t>
@@ -1145,25 +1145,25 @@
     <t xml:space="preserve">1.50822520256042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52750825881958</t>
+    <t xml:space="preserve">1.52750837802887</t>
   </si>
   <si>
     <t xml:space="preserve">1.5509238243103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60050916671753</t>
+    <t xml:space="preserve">1.60050904750824</t>
   </si>
   <si>
     <t xml:space="preserve">1.57847118377686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62116992473602</t>
+    <t xml:space="preserve">1.62117004394531</t>
   </si>
   <si>
     <t xml:space="preserve">1.6184149980545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58949017524719</t>
+    <t xml:space="preserve">1.58949029445648</t>
   </si>
   <si>
     <t xml:space="preserve">1.4848096370697</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">1.42145049571991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43384695053101</t>
+    <t xml:space="preserve">1.4338470697403</t>
   </si>
   <si>
     <t xml:space="preserve">1.4173184633255</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">1.37599730491638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37117636203766</t>
+    <t xml:space="preserve">1.37117648124695</t>
   </si>
   <si>
     <t xml:space="preserve">1.38839364051819</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">1.36360085010529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35051572322845</t>
+    <t xml:space="preserve">1.35051560401917</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">1.36842155456543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36635553836823</t>
+    <t xml:space="preserve">1.36635541915894</t>
   </si>
   <si>
     <t xml:space="preserve">1.21966516971588</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">1.22586333751678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25203347206116</t>
+    <t xml:space="preserve">1.25203359127045</t>
   </si>
   <si>
     <t xml:space="preserve">1.24721264839172</t>
@@ -1295,10 +1295,10 @@
     <t xml:space="preserve">1.1645702123642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15699458122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1521737575531</t>
+    <t xml:space="preserve">1.15699470043182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15217387676239</t>
   </si>
   <si>
     <t xml:space="preserve">1.12600374221802</t>
@@ -1310,28 +1310,28 @@
     <t xml:space="preserve">1.10052227973938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10534310340881</t>
+    <t xml:space="preserve">1.1053432226181</t>
   </si>
   <si>
     <t xml:space="preserve">1.11429595947266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13082456588745</t>
+    <t xml:space="preserve">1.13082444667816</t>
   </si>
   <si>
     <t xml:space="preserve">1.12669241428375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14322090148926</t>
+    <t xml:space="preserve">1.14322078227997</t>
   </si>
   <si>
     <t xml:space="preserve">1.13357925415039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23137283325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18936288356781</t>
+    <t xml:space="preserve">1.23137295246124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1893630027771</t>
   </si>
   <si>
     <t xml:space="preserve">1.17352318763733</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">1.13564538955688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17283451557159</t>
+    <t xml:space="preserve">1.1728343963623</t>
   </si>
   <si>
     <t xml:space="preserve">1.17558920383453</t>
@@ -1349,19 +1349,19 @@
     <t xml:space="preserve">1.17696666717529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1707683801651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26029777526855</t>
+    <t xml:space="preserve">1.17076849937439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26029765605927</t>
   </si>
   <si>
     <t xml:space="preserve">1.30230760574341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27682626247406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30988335609436</t>
+    <t xml:space="preserve">1.27682638168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30988323688507</t>
   </si>
   <si>
     <t xml:space="preserve">1.31126058101654</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">1.22792947292328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25065624713898</t>
+    <t xml:space="preserve">1.25065612792969</t>
   </si>
   <si>
     <t xml:space="preserve">1.24239182472229</t>
@@ -1403,10 +1403,10 @@
     <t xml:space="preserve">1.29335474967957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.279580950737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2671844959259</t>
+    <t xml:space="preserve">1.27958106994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26718461513519</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">1.29955291748047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32985508441925</t>
+    <t xml:space="preserve">1.32985520362854</t>
   </si>
   <si>
     <t xml:space="preserve">1.3925256729126</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">1.40905427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42007327079773</t>
+    <t xml:space="preserve">1.42007339000702</t>
   </si>
   <si>
     <t xml:space="preserve">1.39114832878113</t>
@@ -1445,10 +1445,10 @@
     <t xml:space="preserve">1.34156286716461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30781722068787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38794755935669</t>
+    <t xml:space="preserve">1.30781733989716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38794767856598</t>
   </si>
   <si>
     <t xml:space="preserve">1.41661822795868</t>
@@ -1460,19 +1460,19 @@
     <t xml:space="preserve">1.40265047550201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37692058086395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36001229286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38427186012268</t>
+    <t xml:space="preserve">1.37692046165466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36001217365265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38427197933197</t>
   </si>
   <si>
     <t xml:space="preserve">1.42543983459473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41000187397003</t>
+    <t xml:space="preserve">1.41000175476074</t>
   </si>
   <si>
     <t xml:space="preserve">1.42176413536072</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">1.43867242336273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47469449043274</t>
+    <t xml:space="preserve">1.47469437122345</t>
   </si>
   <si>
     <t xml:space="preserve">1.48645663261414</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">1.52468395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704061985016</t>
+    <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
     <t xml:space="preserve">1.49968910217285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4967485666275</t>
+    <t xml:space="preserve">1.49674868583679</t>
   </si>
   <si>
     <t xml:space="preserve">1.49086761474609</t>
@@ -1505,10 +1505,10 @@
     <t xml:space="preserve">1.52615427970886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51439189910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56585192680359</t>
+    <t xml:space="preserve">1.51439201831818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56585204601288</t>
   </si>
   <si>
     <t xml:space="preserve">1.55555987358093</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">1.55261945724487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5026296377182</t>
+    <t xml:space="preserve">1.50262975692749</t>
   </si>
   <si>
     <t xml:space="preserve">1.5349760055542</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">1.48792695999146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47910523414612</t>
+    <t xml:space="preserve">1.47910535335541</t>
   </si>
   <si>
     <t xml:space="preserve">1.50115954875946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50998115539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5232138633728</t>
+    <t xml:space="preserve">1.50998103618622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52321374416351</t>
   </si>
   <si>
     <t xml:space="preserve">1.44455361366272</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">1.46660780906677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46366727352142</t>
+    <t xml:space="preserve">1.46366739273071</t>
   </si>
   <si>
     <t xml:space="preserve">1.45558071136475</t>
@@ -1553,10 +1553,10 @@
     <t xml:space="preserve">1.45043480396271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44381844997406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42911553382874</t>
+    <t xml:space="preserve">1.44381833076477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42911565303802</t>
   </si>
   <si>
     <t xml:space="preserve">1.37912607192993</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">1.52762460708618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5614413022995</t>
+    <t xml:space="preserve">1.56144118309021</t>
   </si>
   <si>
     <t xml:space="preserve">1.57320332527161</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">1.55114912986755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5864360332489</t>
+    <t xml:space="preserve">1.58643591403961</t>
   </si>
   <si>
     <t xml:space="preserve">1.59672784805298</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.57173311710358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57026278972626</t>
+    <t xml:space="preserve">1.57026267051697</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025249004364</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">1.63495528697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64377701282501</t>
+    <t xml:space="preserve">1.64377689361572</t>
   </si>
   <si>
     <t xml:space="preserve">1.64524722099304</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">1.62466335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59525752067566</t>
+    <t xml:space="preserve">1.59525763988495</t>
   </si>
   <si>
     <t xml:space="preserve">1.37471508979797</t>
@@ -1655,19 +1655,19 @@
     <t xml:space="preserve">1.41147220134735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.408531665802</t>
+    <t xml:space="preserve">1.40853154659271</t>
   </si>
   <si>
     <t xml:space="preserve">1.39970993995667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40118014812469</t>
+    <t xml:space="preserve">1.40118026733398</t>
   </si>
   <si>
     <t xml:space="preserve">1.39897477626801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43279123306274</t>
+    <t xml:space="preserve">1.43279135227203</t>
   </si>
   <si>
     <t xml:space="preserve">1.44822931289673</t>
@@ -1682,22 +1682,22 @@
     <t xml:space="preserve">1.39088821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37250971794128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3607474565506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3548663854599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3453094959259</t>
+    <t xml:space="preserve">1.37250959873199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36074733734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35486626625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34530937671661</t>
   </si>
   <si>
     <t xml:space="preserve">1.28943860530853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27179527282715</t>
+    <t xml:space="preserve">1.27179515361786</t>
   </si>
   <si>
     <t xml:space="preserve">1.28649806976318</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">1.21665966510773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25562214851379</t>
+    <t xml:space="preserve">1.2556220293045</t>
   </si>
   <si>
     <t xml:space="preserve">1.25415182113647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28355765342712</t>
+    <t xml:space="preserve">1.28355753421783</t>
   </si>
   <si>
     <t xml:space="preserve">1.2975252866745</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">1.28576290607452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29017388820648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24974095821381</t>
+    <t xml:space="preserve">1.29017376899719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2497410774231</t>
   </si>
   <si>
     <t xml:space="preserve">1.27841150760651</t>
@@ -1742,10 +1742,10 @@
     <t xml:space="preserve">1.24091923236847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24459493160248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25121116638184</t>
+    <t xml:space="preserve">1.24459505081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25121128559113</t>
   </si>
   <si>
     <t xml:space="preserve">1.31222808361053</t>
@@ -1760,16 +1760,16 @@
     <t xml:space="preserve">1.26591420173645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30928754806519</t>
+    <t xml:space="preserve">1.3092874288559</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811957359314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25782763957977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22180545330048</t>
+    <t xml:space="preserve">1.25782752037048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22180557250977</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768664360046</t>
+    <t xml:space="preserve">1.22768676280975</t>
   </si>
   <si>
     <t xml:space="preserve">1.3225200176239</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">1.29164409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26150321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25856268405914</t>
+    <t xml:space="preserve">1.26150333881378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25856256484985</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1829,16 +1829,16 @@
     <t xml:space="preserve">1.29679012298584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24165439605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2401841878891</t>
+    <t xml:space="preserve">1.24165451526642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24018406867981</t>
   </si>
   <si>
     <t xml:space="preserve">1.28870344161987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27914655208588</t>
+    <t xml:space="preserve">1.27914667129517</t>
   </si>
   <si>
     <t xml:space="preserve">1.21004331111908</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">1.28502774238586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28135204315186</t>
+    <t xml:space="preserve">1.28135216236115</t>
   </si>
   <si>
     <t xml:space="preserve">1.29311430454254</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">1.38941788673401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36589336395264</t>
+    <t xml:space="preserve">1.36589348316193</t>
   </si>
   <si>
     <t xml:space="preserve">1.35119068622589</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">1.32325518131256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32693088054657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31810915470123</t>
+    <t xml:space="preserve">1.32693076133728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31810927391052</t>
   </si>
   <si>
     <t xml:space="preserve">1.31149291992188</t>
@@ -1892,31 +1892,31 @@
     <t xml:space="preserve">1.28429269790649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3129631280899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33060646057129</t>
+    <t xml:space="preserve">1.31296324729919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33060657978058</t>
   </si>
   <si>
     <t xml:space="preserve">1.36736369132996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33428227901459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35266077518463</t>
+    <t xml:space="preserve">1.33428239822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35266089439392</t>
   </si>
   <si>
     <t xml:space="preserve">1.31737411022186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27694129943848</t>
+    <t xml:space="preserve">1.27694118022919</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046582221985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27767646312714</t>
+    <t xml:space="preserve">1.27767634391785</t>
   </si>
   <si>
     <t xml:space="preserve">1.29826033115387</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">1.3034063577652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27326548099518</t>
+    <t xml:space="preserve">1.27326560020447</t>
   </si>
   <si>
     <t xml:space="preserve">1.27620601654053</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">1.27253031730652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26958978176117</t>
+    <t xml:space="preserve">1.26958990097046</t>
   </si>
   <si>
     <t xml:space="preserve">1.23797869682312</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">1.21371901035309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21592438220978</t>
+    <t xml:space="preserve">1.21592450141907</t>
   </si>
   <si>
     <t xml:space="preserve">1.20563244819641</t>
@@ -1970,10 +1970,10 @@
     <t xml:space="preserve">1.22915709018707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25194644927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22989213466644</t>
+    <t xml:space="preserve">1.2519463300705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22989225387573</t>
   </si>
   <si>
     <t xml:space="preserve">1.2306272983551</t>
@@ -1985,16 +1985,16 @@
     <t xml:space="preserve">1.21518933773041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22695159912109</t>
+    <t xml:space="preserve">1.2269514799118</t>
   </si>
   <si>
     <t xml:space="preserve">1.23724353313446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23871386051178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20857310295105</t>
+    <t xml:space="preserve">1.23871374130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20857298374176</t>
   </si>
   <si>
     <t xml:space="preserve">1.19313514232635</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711319446564</t>
+    <t xml:space="preserve">1.15711307525635</t>
   </si>
   <si>
     <t xml:space="preserve">1.13358867168427</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">1.03140389919281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0336092710495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06522035598755</t>
+    <t xml:space="preserve">1.03360939025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06522047519684</t>
   </si>
   <si>
     <t xml:space="preserve">1.10859382152557</t>
@@ -2039,10 +2039,10 @@
     <t xml:space="preserve">1.0872745513916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07624757289886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08713436126709</t>
+    <t xml:space="preserve">1.07624745368958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08713448047638</t>
   </si>
   <si>
     <t xml:space="preserve">1.10890829563141</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.05913960933685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0264790058136</t>
+    <t xml:space="preserve">1.02647888660431</t>
   </si>
   <si>
     <t xml:space="preserve">1.02181303501129</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.02259075641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995373487472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00548267364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00237226486206</t>
+    <t xml:space="preserve">0.995373427867889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00548279285431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00237214565277</t>
   </si>
   <si>
     <t xml:space="preserve">1.01248145103455</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.00159454345703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01714718341827</t>
+    <t xml:space="preserve">1.01714730262756</t>
   </si>
   <si>
     <t xml:space="preserve">1.03969871997833</t>
@@ -2093,31 +2093,31 @@
     <t xml:space="preserve">0.996151089668274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00081694126129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987597048282623</t>
+    <t xml:space="preserve">1.000816822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987597167491913</t>
   </si>
   <si>
     <t xml:space="preserve">0.965823292732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970489144325256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967378556728363</t>
+    <t xml:space="preserve">0.970489203929901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967378497123718</t>
   </si>
   <si>
     <t xml:space="preserve">0.998484075069427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991485238075256</t>
+    <t xml:space="preserve">0.991485297679901</t>
   </si>
   <si>
     <t xml:space="preserve">0.993040502071381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999261677265167</t>
+    <t xml:space="preserve">0.999261617660522</t>
   </si>
   <si>
     <t xml:space="preserve">1.02958941459656</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">1.0303670167923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581047058105</t>
+    <t xml:space="preserve">1.03581058979034</t>
   </si>
   <si>
     <t xml:space="preserve">1.08246862888336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05602896213531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10190963745117</t>
+    <t xml:space="preserve">1.0560290813446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10190951824188</t>
   </si>
   <si>
     <t xml:space="preserve">1.09413313865662</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">1.15789926052094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16645336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15090048313141</t>
+    <t xml:space="preserve">1.16645324230194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1509006023407</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612544536591</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">1.10968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13301491737366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13068199157715</t>
+    <t xml:space="preserve">1.13301503658295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13068211078644</t>
   </si>
   <si>
     <t xml:space="preserve">1.13145971298218</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">1.14467942714691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12368333339691</t>
+    <t xml:space="preserve">1.1236834526062</t>
   </si>
   <si>
     <t xml:space="preserve">1.10735297203064</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">1.11590695381165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12057280540466</t>
+    <t xml:space="preserve">1.12057268619537</t>
   </si>
   <si>
     <t xml:space="preserve">1.13534784317017</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.19678115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17345201969147</t>
+    <t xml:space="preserve">1.17345190048218</t>
   </si>
   <si>
     <t xml:space="preserve">1.18978226184845</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">1.22011005878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22088778018951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21077859401703</t>
+    <t xml:space="preserve">1.2208878993988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21077847480774</t>
   </si>
   <si>
     <t xml:space="preserve">1.19133758544922</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.25976955890656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27376699447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26987874507904</t>
+    <t xml:space="preserve">1.27376687526703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26987886428833</t>
   </si>
   <si>
     <t xml:space="preserve">1.27609992027283</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">1.33286726474762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34608697891235</t>
+    <t xml:space="preserve">1.34608709812164</t>
   </si>
   <si>
     <t xml:space="preserve">1.35852921009064</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">1.39896631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38807940483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37330424785614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35464096069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35619640350342</t>
+    <t xml:space="preserve">1.38807928562164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37330436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35464107990265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35619628429413</t>
   </si>
   <si>
     <t xml:space="preserve">1.33753311634064</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">1.3134263753891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28465378284454</t>
+    <t xml:space="preserve">1.28465390205383</t>
   </si>
   <si>
     <t xml:space="preserve">1.27143406867981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25821423530579</t>
+    <t xml:space="preserve">1.25821435451508</t>
   </si>
   <si>
     <t xml:space="preserve">1.25899183750153</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.25510370731354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23644053936005</t>
+    <t xml:space="preserve">1.23644042015076</t>
   </si>
   <si>
     <t xml:space="preserve">1.24343919754028</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">1.16412031650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15167808532715</t>
+    <t xml:space="preserve">1.15167820453644</t>
   </si>
   <si>
     <t xml:space="preserve">1.12757158279419</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">1.11823987960815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12135052680969</t>
+    <t xml:space="preserve">1.1213504076004</t>
   </si>
   <si>
     <t xml:space="preserve">1.12212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11357402801514</t>
+    <t xml:space="preserve">1.11357414722443</t>
   </si>
   <si>
     <t xml:space="preserve">1.10579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08868980407715</t>
+    <t xml:space="preserve">1.08868968486786</t>
   </si>
   <si>
     <t xml:space="preserve">1.11746227741241</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">1.14623475074768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10657525062561</t>
+    <t xml:space="preserve">1.1065753698349</t>
   </si>
   <si>
     <t xml:space="preserve">1.11201870441437</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.13923597335815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13379263877869</t>
+    <t xml:space="preserve">1.1337925195694</t>
   </si>
   <si>
     <t xml:space="preserve">1.05447375774384</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">1.04047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01403677463531</t>
+    <t xml:space="preserve">1.01403665542603</t>
   </si>
   <si>
     <t xml:space="preserve">1.01325905323029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996928691864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958824634552002</t>
+    <t xml:space="preserve">0.996928751468658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958824574947357</t>
   </si>
   <si>
     <t xml:space="preserve">0.942494213581085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948715388774872</t>
+    <t xml:space="preserve">0.948715329170227</t>
   </si>
   <si>
     <t xml:space="preserve">0.954936444759369</t>
@@ -2498,19 +2498,19 @@
     <t xml:space="preserve">1.00470507144928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990707635879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985264182090759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997706294059753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98370897769928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959602236747742</t>
+    <t xml:space="preserve">0.990707695484161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985264122486115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997706413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983708918094635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959602177143097</t>
   </si>
   <si>
     <t xml:space="preserve">0.884949207305908</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">0.88106107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894280850887299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855399072170258</t>
+    <t xml:space="preserve">0.894280791282654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855399131774902</t>
   </si>
   <si>
     <t xml:space="preserve">0.828181862831116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801742255687714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815739691257477</t>
+    <t xml:space="preserve">0.801742196083069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815739631652832</t>
   </si>
   <si>
     <t xml:space="preserve">0.752362310886383</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">0.678875803947449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.695594966411591</t>
+    <t xml:space="preserve">0.695595026016235</t>
   </si>
   <si>
     <t xml:space="preserve">0.687040984630585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683930456638336</t>
+    <t xml:space="preserve">0.683930397033691</t>
   </si>
   <si>
     <t xml:space="preserve">0.645048677921295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632217705249786</t>
+    <t xml:space="preserve">0.632217645645142</t>
   </si>
   <si>
     <t xml:space="preserve">0.592558324337006</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">0.612388014793396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611610352993011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575839042663574</t>
+    <t xml:space="preserve">0.611610293388367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575839102268219</t>
   </si>
   <si>
     <t xml:space="preserve">0.572339713573456</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">0.550177097320557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576227962970734</t>
+    <t xml:space="preserve">0.576227903366089</t>
   </si>
   <si>
     <t xml:space="preserve">0.565729856491089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.573506236076355</t>
+    <t xml:space="preserve">0.57350617647171</t>
   </si>
   <si>
     <t xml:space="preserve">0.567673921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660990178585052</t>
+    <t xml:space="preserve">0.660990238189697</t>
   </si>
   <si>
     <t xml:space="preserve">0.684319257736206</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.638049960136414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674209952354431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681208729743958</t>
+    <t xml:space="preserve">0.674210011959076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681208670139313</t>
   </si>
   <si>
     <t xml:space="preserve">0.657879650592804</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.643882215023041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640771687030792</t>
+    <t xml:space="preserve">0.640771627426147</t>
   </si>
   <si>
     <t xml:space="preserve">0.611999154090881</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">0.622108399868011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60577803850174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608111023902893</t>
+    <t xml:space="preserve">0.605778098106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608110964298248</t>
   </si>
   <si>
     <t xml:space="preserve">0.613165616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607333302497864</t>
+    <t xml:space="preserve">0.607333362102509</t>
   </si>
   <si>
     <t xml:space="preserve">0.626385390758514</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">0.621330797672272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598779380321503</t>
+    <t xml:space="preserve">0.598779320716858</t>
   </si>
   <si>
     <t xml:space="preserve">0.615498483181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559897541999817</t>
+    <t xml:space="preserve">0.559897601604462</t>
   </si>
   <si>
     <t xml:space="preserve">0.549399495124817</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">0.547844231128693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544344902038574</t>
+    <t xml:space="preserve">0.544344842433929</t>
   </si>
   <si>
     <t xml:space="preserve">0.547455430030823</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.57311737537384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59372466802597</t>
+    <t xml:space="preserve">0.593724727630615</t>
   </si>
   <si>
     <t xml:space="preserve">0.628329515457153</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">0.625996589660645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637661099433899</t>
+    <t xml:space="preserve">0.637661159038544</t>
   </si>
   <si>
     <t xml:space="preserve">0.61433207988739</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">0.654380261898041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632606446743011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585170686244965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586726009845734</t>
+    <t xml:space="preserve">0.632606506347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585170745849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586725950241089</t>
   </si>
   <si>
     <t xml:space="preserve">0.580893695354462</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">0.600334644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587892413139343</t>
+    <t xml:space="preserve">0.587892472743988</t>
   </si>
   <si>
     <t xml:space="preserve">0.580116093158722</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">0.576616764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583226680755615</t>
+    <t xml:space="preserve">0.58322662115097</t>
   </si>
   <si>
     <t xml:space="preserve">0.564563393592834</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">0.548233032226562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.541623175144196</t>
+    <t xml:space="preserve">0.541623115539551</t>
   </si>
   <si>
     <t xml:space="preserve">0.524903953075409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519460558891296</t>
+    <t xml:space="preserve">0.519460499286652</t>
   </si>
   <si>
     <t xml:space="preserve">0.515961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476690530776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489521533250809</t>
+    <t xml:space="preserve">0.4766905605793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489521563053131</t>
   </si>
   <si>
     <t xml:space="preserve">0.508962452411652</t>
@@ -2789,31 +2789,31 @@
     <t xml:space="preserve">0.491076827049255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50118613243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498464345932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486022174358368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497686743736267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48679980635643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477079421281815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474746435880661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459193736314774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444418698549271</t>
+    <t xml:space="preserve">0.501186072826385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498464375734329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48602220416069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497686713933945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486799836158752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477079391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474746465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459193795919418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444418668746948</t>
   </si>
   <si>
     <t xml:space="preserve">0.451806217432022</t>
@@ -2825,34 +2825,34 @@
     <t xml:space="preserve">0.485633373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478245824575424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49185448884964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508573591709137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467358946800232</t>
+    <t xml:space="preserve">0.478245854377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491854459047318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508573651313782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467358976602554</t>
   </si>
   <si>
     <t xml:space="preserve">0.455694437026978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463859558105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489132761955261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478634655475616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476301729679108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48252284526825</t>
+    <t xml:space="preserve">0.463859587907791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489132732152939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478634625673294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476301789283752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.482522875070572</t>
   </si>
   <si>
     <t xml:space="preserve">0.477857023477554</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">0.473580062389374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474357694387436</t>
+    <t xml:space="preserve">0.474357664585114</t>
   </si>
   <si>
     <t xml:space="preserve">0.46036022901535</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">0.464637249708176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463470757007599</t>
+    <t xml:space="preserve">0.463470786809921</t>
   </si>
   <si>
     <t xml:space="preserve">0.458027333021164</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">0.446751624345779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438975244760513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.436253517866135</t>
+    <t xml:space="preserve">0.438975214958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.436253547668457</t>
   </si>
   <si>
     <t xml:space="preserve">0.432754188776016</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">0.374820321798325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360200762748718</t>
+    <t xml:space="preserve">0.360200792551041</t>
   </si>
   <si>
     <t xml:space="preserve">0.355068385601044</t>
@@ -2933,22 +2933,22 @@
     <t xml:space="preserve">0.337649345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345892280340195</t>
+    <t xml:space="preserve">0.345892250537872</t>
   </si>
   <si>
     <t xml:space="preserve">0.331894844770432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346669912338257</t>
+    <t xml:space="preserve">0.346669942140579</t>
   </si>
   <si>
     <t xml:space="preserve">0.369376868009567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373576104640961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388040125370026</t>
+    <t xml:space="preserve">0.373576074838638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388040155172348</t>
   </si>
   <si>
     <t xml:space="preserve">0.396594107151031</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">0.36035630106926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34184855222702</t>
+    <t xml:space="preserve">0.341848582029343</t>
   </si>
   <si>
     <t xml:space="preserve">0.323962956666946</t>
@@ -2981,10 +2981,10 @@
     <t xml:space="preserve">0.337182760238647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359423130750656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351802289485931</t>
+    <t xml:space="preserve">0.359423100948334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351802319288254</t>
   </si>
   <si>
     <t xml:space="preserve">0.386484861373901</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">0.358645498752594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336405128240585</t>
+    <t xml:space="preserve">0.336405098438263</t>
   </si>
   <si>
     <t xml:space="preserve">0.341693043708801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356001526117325</t>
+    <t xml:space="preserve">0.356001555919647</t>
   </si>
   <si>
     <t xml:space="preserve">0.35413521528244</t>
@@ -3029,28 +3029,28 @@
     <t xml:space="preserve">0.390373021364212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417979091405869</t>
+    <t xml:space="preserve">0.417979121208191</t>
   </si>
   <si>
     <t xml:space="preserve">0.421478450298309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445585161447525</t>
+    <t xml:space="preserve">0.445585191249847</t>
   </si>
   <si>
     <t xml:space="preserve">0.437419980764389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440141677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462693154811859</t>
+    <t xml:space="preserve">0.440141707658768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462693125009537</t>
   </si>
   <si>
     <t xml:space="preserve">0.461137861013412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437031120061874</t>
+    <t xml:space="preserve">0.437031149864197</t>
   </si>
   <si>
     <t xml:space="preserve">0.419145524501801</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">0.45025098323822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446362763643265</t>
+    <t xml:space="preserve">0.446362793445587</t>
   </si>
   <si>
     <t xml:space="preserve">0.454139143228531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452972680330276</t>
+    <t xml:space="preserve">0.452972650527954</t>
   </si>
   <si>
     <t xml:space="preserve">0.457638502120972</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">0.472024768590927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448306888341904</t>
+    <t xml:space="preserve">0.448306858539581</t>
   </si>
   <si>
     <t xml:space="preserve">0.452583879232407</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">0.457249671220779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465803682804108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.461526721715927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462304323911667</t>
+    <t xml:space="preserve">0.465803653001785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.461526691913605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462304294109344</t>
   </si>
   <si>
     <t xml:space="preserve">0.472413599491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49613144993782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500408470630646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494187384843826</t>
+    <t xml:space="preserve">0.496131479740143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500408411026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494187414646149</t>
   </si>
   <si>
     <t xml:space="preserve">0.48213404417038</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">0.465414851903915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479801118373871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47046947479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.449084490537643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419923216104507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.432365328073502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430421262979507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431976497173309</t>
+    <t xml:space="preserve">0.479801088571548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.470469504594803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449084520339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419923186302185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.432365357875824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430421233177185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431976526975632</t>
   </si>
   <si>
     <t xml:space="preserve">0.421867281198502</t>
@@ -3146,19 +3146,19 @@
     <t xml:space="preserve">0.43119889497757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440919309854507</t>
+    <t xml:space="preserve">0.44091933965683</t>
   </si>
   <si>
     <t xml:space="preserve">0.442863434553146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466581344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566896319389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521404564380646</t>
+    <t xml:space="preserve">0.46658131480217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566896259784698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521404623985291</t>
   </si>
   <si>
     <t xml:space="preserve">0.530347406864166</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">0.500797271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494576156139374</t>
+    <t xml:space="preserve">0.494576185941696</t>
   </si>
   <si>
     <t xml:space="preserve">0.507795989513397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507018387317657</t>
+    <t xml:space="preserve">0.507018327713013</t>
   </si>
   <si>
     <t xml:space="preserve">0.504685461521149</t>
@@ -3209,40 +3209,40 @@
     <t xml:space="preserve">0.524126350879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513239502906799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50274133682251</t>
+    <t xml:space="preserve">0.513239443302155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502741396427155</t>
   </si>
   <si>
     <t xml:space="preserve">0.49652025103569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487577468156815</t>
+    <t xml:space="preserve">0.487577438354492</t>
   </si>
   <si>
     <t xml:space="preserve">0.480578750371933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493409782648087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485244572162628</t>
+    <t xml:space="preserve">0.493409723043442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485244601964951</t>
   </si>
   <si>
     <t xml:space="preserve">0.487188667058945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449473321437836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448695719242096</t>
+    <t xml:space="preserve">0.449473351240158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448695689439774</t>
   </si>
   <si>
     <t xml:space="preserve">0.44776251912117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446673840284348</t>
+    <t xml:space="preserve">0.44667387008667</t>
   </si>
   <si>
     <t xml:space="preserve">0.442630112171173</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">0.459427058696747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451184123754501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460982352495193</t>
+    <t xml:space="preserve">0.451184153556824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460982322692871</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096727132797</t>
@@ -3266,31 +3266,31 @@
     <t xml:space="preserve">0.449006766080856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450406521558762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456938624382019</t>
+    <t xml:space="preserve">0.450406551361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456938654184341</t>
   </si>
   <si>
     <t xml:space="preserve">0.442474603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461759984493256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446829348802567</t>
+    <t xml:space="preserve">0.461760014295578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446829319000244</t>
   </si>
   <si>
     <t xml:space="preserve">0.451961755752563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464714974164963</t>
+    <t xml:space="preserve">0.46471494436264</t>
   </si>
   <si>
     <t xml:space="preserve">0.458338350057602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453517019748688</t>
+    <t xml:space="preserve">0.453516989946365</t>
   </si>
   <si>
     <t xml:space="preserve">0.454916775226593</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">0.459115982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479178994894028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.495353817939758</t>
+    <t xml:space="preserve">0.479178965091705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.495353847742081</t>
   </si>
   <si>
     <t xml:space="preserve">0.527236878871918</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">0.526303708553314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534546673297882</t>
+    <t xml:space="preserve">0.534546613693237</t>
   </si>
   <si>
     <t xml:space="preserve">0.545589089393616</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">0.548077523708344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553209900856018</t>
+    <t xml:space="preserve">0.553209841251373</t>
   </si>
   <si>
     <t xml:space="preserve">0.57031786441803</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">0.57684999704361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60640013217926</t>
+    <t xml:space="preserve">0.606400191783905</t>
   </si>
   <si>
     <t xml:space="preserve">0.591003000736237</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">0.668610990047455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671566009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675143122673035</t>
+    <t xml:space="preserve">0.671566069126129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675143182277679</t>
   </si>
   <si>
     <t xml:space="preserve">0.671099424362183</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">0.655391216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649325668811798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650258839130402</t>
+    <t xml:space="preserve">0.649325609207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650258779525757</t>
   </si>
   <si>
     <t xml:space="preserve">0.629884779453278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613709986209869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590380907058716</t>
+    <t xml:space="preserve">0.613709926605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590380847454071</t>
   </si>
   <si>
     <t xml:space="preserve">0.586959302425385</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">0.597535133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58182692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552276790142059</t>
+    <t xml:space="preserve">0.581826865673065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552276730537415</t>
   </si>
   <si>
     <t xml:space="preserve">0.556009352207184</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">0.524592936038971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511839747428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500330686569214</t>
+    <t xml:space="preserve">0.511839687824249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500330746173859</t>
   </si>
   <si>
     <t xml:space="preserve">0.508729159832001</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">0.508107006549835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504529893398285</t>
+    <t xml:space="preserve">0.50452995300293</t>
   </si>
   <si>
     <t xml:space="preserve">0.507951498031616</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">0.506551802158356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497064620256424</t>
+    <t xml:space="preserve">0.497064590454102</t>
   </si>
   <si>
     <t xml:space="preserve">0.520860254764557</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">0.505774140357971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503285706043243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511995255947113</t>
+    <t xml:space="preserve">0.503285646438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511995196342468</t>
   </si>
   <si>
     <t xml:space="preserve">0.51246178150177</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">0.510595500469208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.52117133140564</t>
+    <t xml:space="preserve">0.521171271800995</t>
   </si>
   <si>
     <t xml:space="preserve">0.509817838668823</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">0.505463063716888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51743870973587</t>
+    <t xml:space="preserve">0.517438650131226</t>
   </si>
   <si>
     <t xml:space="preserve">0.517283141613007</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">0.500486195087433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494109630584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5203937292099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525215089321136</t>
+    <t xml:space="preserve">0.494109600782394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.520393669605255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525215029716492</t>
   </si>
   <si>
     <t xml:space="preserve">0.516038954257965</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">0.54496693611145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551965653896332</t>
+    <t xml:space="preserve">0.551965713500977</t>
   </si>
   <si>
     <t xml:space="preserve">0.541545391082764</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">0.549166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53781270980835</t>
+    <t xml:space="preserve">0.537812769412994</t>
   </si>
   <si>
     <t xml:space="preserve">0.553831994533539</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">0.567984998226166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583071112632751</t>
+    <t xml:space="preserve">0.583071172237396</t>
   </si>
   <si>
     <t xml:space="preserve">0.623663723468781</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">0.609821796417236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623352587223053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656168818473816</t>
+    <t xml:space="preserve">0.623352646827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656168878078461</t>
   </si>
   <si>
     <t xml:space="preserve">0.669388651847839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633928418159485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573583960533142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583848714828491</t>
+    <t xml:space="preserve">0.63392847776413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573584020137787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583848774433136</t>
   </si>
   <si>
     <t xml:space="preserve">0.589447736740112</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">0.552121222019196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557098150253296</t>
+    <t xml:space="preserve">0.557098090648651</t>
   </si>
   <si>
     <t xml:space="preserve">0.563008069992065</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">0.542167484760284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523659706115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522726595401764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502663612365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492865413427353</t>
+    <t xml:space="preserve">0.523659765720367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522726655006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502663552761078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492865383625031</t>
   </si>
   <si>
     <t xml:space="preserve">0.499553054571152</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">0.4955093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48975482583046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507484972476959</t>
+    <t xml:space="preserve">0.489754885435104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507484912872314</t>
   </si>
   <si>
     <t xml:space="preserve">0.523348689079285</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">0.52474844455719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513550460338593</t>
+    <t xml:space="preserve">0.513550519943237</t>
   </si>
   <si>
     <t xml:space="preserve">0.493643045425415</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">0.461293399333954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464092880487442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435786962509155</t>
+    <t xml:space="preserve">0.464092910289764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435786932706833</t>
   </si>
   <si>
     <t xml:space="preserve">0.432054281234741</t>
@@ -3683,19 +3683,19 @@
     <t xml:space="preserve">0.417745798826218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450095444917679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452739417552948</t>
+    <t xml:space="preserve">0.450095474720001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452739387750626</t>
   </si>
   <si>
     <t xml:space="preserve">0.43843087553978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435475885868073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430654525756836</t>
+    <t xml:space="preserve">0.43547585606575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430654555559158</t>
   </si>
   <si>
     <t xml:space="preserve">0.42536661028862</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">0.41525736451149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427232950925827</t>
+    <t xml:space="preserve">0.427232921123505</t>
   </si>
   <si>
     <t xml:space="preserve">0.424277931451797</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">0.412457853555679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422878175973892</t>
+    <t xml:space="preserve">0.422878205776215</t>
   </si>
   <si>
     <t xml:space="preserve">0.422722697257996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434542715549469</t>
+    <t xml:space="preserve">0.434542685747147</t>
   </si>
   <si>
     <t xml:space="preserve">0.424900054931641</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">0.43407616019249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436564594507217</t>
+    <t xml:space="preserve">0.436564564704895</t>
   </si>
   <si>
     <t xml:space="preserve">0.440608292818069</t>
@@ -3743,37 +3743,37 @@
     <t xml:space="preserve">0.443252235651016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462071001529694</t>
+    <t xml:space="preserve">0.462071031332016</t>
   </si>
   <si>
     <t xml:space="preserve">0.456005454063416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45647206902504</t>
+    <t xml:space="preserve">0.456472039222717</t>
   </si>
   <si>
     <t xml:space="preserve">0.446207284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453205943107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448851227760315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430032432079315</t>
+    <t xml:space="preserve">0.453205972909927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448851197957993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430032402276993</t>
   </si>
   <si>
     <t xml:space="preserve">0.443563312292099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457405209541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452117264270782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427543967962265</t>
+    <t xml:space="preserve">0.457405179738998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452117294073105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.427543997764587</t>
   </si>
   <si>
     <t xml:space="preserve">0.423344761133194</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">0.472802400588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466270238161087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480423212051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455227822065353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.441696971654892</t>
+    <t xml:space="preserve">0.466270297765732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480423241853714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455227792263031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441697001457214</t>
   </si>
   <si>
     <t xml:space="preserve">0.386173814535141</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">0.42863267660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40872523188591</t>
+    <t xml:space="preserve">0.408725261688232</t>
   </si>
   <si>
     <t xml:space="preserve">0.411058127880096</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">0.436098009347916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451495200395584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478401392698288</t>
+    <t xml:space="preserve">0.451495170593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478401362895966</t>
   </si>
   <si>
     <t xml:space="preserve">0.468914210796356</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">0.467203408479691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513083875179291</t>
+    <t xml:space="preserve">0.513083934783936</t>
   </si>
   <si>
     <t xml:space="preserve">0.515883386135101</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">0.54792195558548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542634010314941</t>
+    <t xml:space="preserve">0.542634069919586</t>
   </si>
   <si>
     <t xml:space="preserve">0.537346124649048</t>
@@ -3863,22 +3863,22 @@
     <t xml:space="preserve">0.551810145378113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572028696537018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619775474071503</t>
+    <t xml:space="preserve">0.572028636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619775533676147</t>
   </si>
   <si>
     <t xml:space="preserve">0.64403772354126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671877145767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705626487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705937564373016</t>
+    <t xml:space="preserve">0.671877086162567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705626428127289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705937504768372</t>
   </si>
   <si>
     <t xml:space="preserve">0.72786682844162</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">0.658968329429626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.639216363430023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662545502185822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682452976703644</t>
+    <t xml:space="preserve">0.639216423034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662545442581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682452917098999</t>
   </si>
   <si>
     <t xml:space="preserve">0.693650901317596</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">0.755084097385406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821183145046234</t>
+    <t xml:space="preserve">0.821183085441589</t>
   </si>
   <si>
     <t xml:space="preserve">0.744352698326111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771258890628815</t>
+    <t xml:space="preserve">0.771258950233459</t>
   </si>
   <si>
     <t xml:space="preserve">0.776546835899353</t>
@@ -3929,10 +3929,10 @@
     <t xml:space="preserve">0.765659928321838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835958182811737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880672216415405</t>
+    <t xml:space="preserve">0.835958242416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88067227602005</t>
   </si>
   <si>
     <t xml:space="preserve">0.936661899089813</t>
@@ -3944,22 +3944,22 @@
     <t xml:space="preserve">0.886893272399902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898168981075287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89155912399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918776392936707</t>
+    <t xml:space="preserve">0.898169040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891559064388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918776273727417</t>
   </si>
   <si>
     <t xml:space="preserve">0.897002577781677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925775170326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989152312278748</t>
+    <t xml:space="preserve">0.925775110721588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989152371883392</t>
   </si>
   <si>
     <t xml:space="preserve">0.989930033683777</t>
@@ -3986,10 +3986,10 @@
     <t xml:space="preserve">1.01442551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970877885818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976321339607239</t>
+    <t xml:space="preserve">0.970877945423126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976321399211884</t>
   </si>
   <si>
     <t xml:space="preserve">0.960768640041351</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">0.977487802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0241459608078</t>
+    <t xml:space="preserve">1.02414608001709</t>
   </si>
   <si>
     <t xml:space="preserve">1.11046350002289</t>
@@ -4028,19 +4028,19 @@
     <t xml:space="preserve">1.00859332084656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932598114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896224915981293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879116892814636</t>
+    <t xml:space="preserve">0.975932538509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896224975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879116952419281</t>
   </si>
   <si>
     <t xml:space="preserve">0.838291049003601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879505813121796</t>
+    <t xml:space="preserve">0.879505753517151</t>
   </si>
   <si>
     <t xml:space="preserve">0.903612434864044</t>
@@ -4055,37 +4055,37 @@
     <t xml:space="preserve">0.897780239582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919942855834961</t>
+    <t xml:space="preserve">0.919942796230316</t>
   </si>
   <si>
     <t xml:space="preserve">0.969711542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988763570785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961546361446381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04319798946381</t>
+    <t xml:space="preserve">0.988763511180878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961546301841736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0431981086731</t>
   </si>
   <si>
     <t xml:space="preserve">0.945604801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870951771736145</t>
+    <t xml:space="preserve">0.8709517121315</t>
   </si>
   <si>
     <t xml:space="preserve">0.827793002128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869785308837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839846432209015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845289766788483</t>
+    <t xml:space="preserve">0.869785368442535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83984637260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845289826393127</t>
   </si>
   <si>
     <t xml:space="preserve">0.862397789955139</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">0.908278286457062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924608647823334</t>
+    <t xml:space="preserve">0.924608588218689</t>
   </si>
   <si>
     <t xml:space="preserve">1.00314974784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05097448825836</t>
+    <t xml:space="preserve">1.05097436904907</t>
   </si>
   <si>
     <t xml:space="preserve">1.03658807277679</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">1.01831364631653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940938949584961</t>
+    <t xml:space="preserve">0.940939009189606</t>
   </si>
   <si>
     <t xml:space="preserve">0.949881851673126</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">0.854232609272003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874062240123749</t>
+    <t xml:space="preserve">0.874062299728394</t>
   </si>
   <si>
     <t xml:space="preserve">0.878339350223541</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">0.76690411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770325779914856</t>
+    <t xml:space="preserve">0.770325720310211</t>
   </si>
   <si>
     <t xml:space="preserve">0.770481288433075</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">0.78852242231369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779579699039459</t>
+    <t xml:space="preserve">0.779579639434814</t>
   </si>
   <si>
     <t xml:space="preserve">0.724911868572235</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">0.737353980541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.758194625377655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814962029457092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84956681728363</t>
+    <t xml:space="preserve">0.7581946849823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814961969852448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849566757678986</t>
   </si>
   <si>
     <t xml:space="preserve">0.807185649871826</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">0.797854006290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820016622543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81923907995224</t>
+    <t xml:space="preserve">0.82001668214798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819239020347595</t>
   </si>
   <si>
     <t xml:space="preserve">0.844901025295258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854621410369873</t>
+    <t xml:space="preserve">0.854621469974518</t>
   </si>
   <si>
     <t xml:space="preserve">0.865508377552032</t>
@@ -4229,16 +4229,16 @@
     <t xml:space="preserve">0.944049537181854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947548925876617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956102907657623</t>
+    <t xml:space="preserve">0.947548866271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956102848052979</t>
   </si>
   <si>
     <t xml:space="preserve">0.935106694698334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967767417430878</t>
+    <t xml:space="preserve">0.967767477035522</t>
   </si>
   <si>
     <t xml:space="preserve">0.926163911819458</t>
@@ -4259,25 +4259,25 @@
     <t xml:space="preserve">0.998872816562653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954158842563629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937439620494843</t>
+    <t xml:space="preserve">0.954158782958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937439560890198</t>
   </si>
   <si>
     <t xml:space="preserve">0.89194792509079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882616281509399</t>
+    <t xml:space="preserve">0.882616341114044</t>
   </si>
   <si>
     <t xml:space="preserve">0.858509600162506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836347043514252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815350770950317</t>
+    <t xml:space="preserve">0.836346983909607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815350830554962</t>
   </si>
   <si>
     <t xml:space="preserve">0.832070052623749</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">0.824682474136353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829348206520081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816906094551086</t>
+    <t xml:space="preserve">0.829348266124725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816906154155731</t>
   </si>
   <si>
     <t xml:space="preserve">0.849955677986145</t>
@@ -4298,13 +4298,13 @@
     <t xml:space="preserve">0.851510882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872507035732269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868618905544281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897391438484192</t>
+    <t xml:space="preserve">0.872507095336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868618845939636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897391378879547</t>
   </si>
   <si>
     <t xml:space="preserve">0.893503248691559</t>
@@ -4316,22 +4316,22 @@
     <t xml:space="preserve">0.926552653312683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912944138050079</t>
+    <t xml:space="preserve">0.912944078445435</t>
   </si>
   <si>
     <t xml:space="preserve">0.937828421592712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952214598655701</t>
+    <t xml:space="preserve">0.952214658260345</t>
   </si>
   <si>
     <t xml:space="preserve">0.971655607223511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988374769687653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0556401014328</t>
+    <t xml:space="preserve">0.988374829292297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05564022064209</t>
   </si>
   <si>
     <t xml:space="preserve">1.12290573120117</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">1.18006193637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19211530685425</t>
+    <t xml:space="preserve">1.19211518764496</t>
   </si>
   <si>
     <t xml:space="preserve">1.18667185306549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20494627952576</t>
+    <t xml:space="preserve">1.20494616031647</t>
   </si>
   <si>
     <t xml:space="preserve">1.15128934383392</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.23799574375153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698682785034</t>
+    <t xml:space="preserve">1.28698670864105</t>
   </si>
   <si>
     <t xml:space="preserve">1.14001369476318</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">1.12873804569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15362226963043</t>
+    <t xml:space="preserve">1.15362238883972</t>
   </si>
   <si>
     <t xml:space="preserve">1.16684210300446</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">1.16606450080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15245592594147</t>
+    <t xml:space="preserve">1.15245580673218</t>
   </si>
   <si>
     <t xml:space="preserve">1.10463130474091</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">1.10929703712463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0960773229599</t>
+    <t xml:space="preserve">1.09607720375061</t>
   </si>
   <si>
     <t xml:space="preserve">1.03853225708008</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">1.09491086006165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15401113033295</t>
+    <t xml:space="preserve">1.15401101112366</t>
   </si>
   <si>
     <t xml:space="preserve">1.08985614776611</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">1.08052456378937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02686774730682</t>
+    <t xml:space="preserve">1.02686762809753</t>
   </si>
   <si>
     <t xml:space="preserve">1.02064669132233</t>
@@ -4469,28 +4469,28 @@
     <t xml:space="preserve">1.02803421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00353860855103</t>
+    <t xml:space="preserve">1.00353872776031</t>
   </si>
   <si>
     <t xml:space="preserve">0.99459582567215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986819565296173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973210871219635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956491649150848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966212093830109</t>
+    <t xml:space="preserve">0.986819446086884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97321081161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956491708755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966212153434753</t>
   </si>
   <si>
     <t xml:space="preserve">0.953769981861115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940161347389221</t>
+    <t xml:space="preserve">0.940161287784576</t>
   </si>
   <si>
     <t xml:space="preserve">0.933551430702209</t>
@@ -4502,31 +4502,31 @@
     <t xml:space="preserve">0.912555277347565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880283355712891</t>
+    <t xml:space="preserve">0.880283415317535</t>
   </si>
   <si>
     <t xml:space="preserve">0.853066146373749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892336785793304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916832268238068</t>
+    <t xml:space="preserve">0.89233672618866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916832327842712</t>
   </si>
   <si>
     <t xml:space="preserve">0.889226198196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933162689208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933940172195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980987250804901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960379898548126</t>
+    <t xml:space="preserve">0.93316262960434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933940291404724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980987191200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960379838943481</t>
   </si>
   <si>
     <t xml:space="preserve">0.98448657989502</t>
@@ -61881,13 +61881,13 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6494328704</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>312357</v>
       </c>
       <c r="C2166" t="n">
-        <v>1.62399995326996</v>
+        <v>1.62450003623962</v>
       </c>
       <c r="D2166" t="n">
         <v>1.61849999427795</v>
@@ -61902,6 +61902,32 @@
         <v>1745</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6493055556</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>1257150</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>1.61249995231628</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>1.62000000476837</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170576572418</t>
+    <t xml:space="preserve">1.00170564651489</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982317805290222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985255599021912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960579931735992</t>
+    <t xml:space="preserve">0.982317924499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985255360603333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960579872131348</t>
   </si>
   <si>
     <t xml:space="preserve">0.964105069637299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993480443954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992892980575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04576897621155</t>
+    <t xml:space="preserve">0.993480503559113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992893099784851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04576909542084</t>
   </si>
   <si>
     <t xml:space="preserve">1.04165637493134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02814376354218</t>
+    <t xml:space="preserve">1.0281435251236</t>
   </si>
   <si>
     <t xml:space="preserve">1.03695631027222</t>
@@ -77,16 +77,16 @@
     <t xml:space="preserve">1.05693161487579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02579367160797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07749462127686</t>
+    <t xml:space="preserve">1.02579355239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07749450206757</t>
   </si>
   <si>
     <t xml:space="preserve">1.08101963996887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13565802574158</t>
+    <t xml:space="preserve">1.13565814495087</t>
   </si>
   <si>
     <t xml:space="preserve">1.1456458568573</t>
@@ -95,16 +95,16 @@
     <t xml:space="preserve">1.14682078361511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11509525775909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12802040576935</t>
+    <t xml:space="preserve">1.11509537696838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12802052497864</t>
   </si>
   <si>
     <t xml:space="preserve">1.14035820960999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11098265647888</t>
+    <t xml:space="preserve">1.11098277568817</t>
   </si>
   <si>
     <t xml:space="preserve">1.09100735187531</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">1.02755618095398</t>
   </si>
   <si>
-    <t xml:space="preserve">0.957642376422882</t>
+    <t xml:space="preserve">0.957642316818237</t>
   </si>
   <si>
     <t xml:space="preserve">0.853652954101562</t>
@@ -125,34 +125,34 @@
     <t xml:space="preserve">0.840140223503113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.810764849185944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81663978099823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873040795326233</t>
+    <t xml:space="preserve">0.810764729976654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816639840602875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873040854930878</t>
   </si>
   <si>
     <t xml:space="preserve">0.863640666007996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872453272342682</t>
+    <t xml:space="preserve">0.872453212738037</t>
   </si>
   <si>
     <t xml:space="preserve">0.887728571891785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881853580474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860703229904175</t>
+    <t xml:space="preserve">0.881853520870209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86070317029953</t>
   </si>
   <si>
     <t xml:space="preserve">0.842490315437317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850127995014191</t>
+    <t xml:space="preserve">0.850127935409546</t>
   </si>
   <si>
     <t xml:space="preserve">0.94001704454422</t>
@@ -161,67 +161,67 @@
     <t xml:space="preserve">0.904178977012634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916516602039337</t>
+    <t xml:space="preserve">0.916516661643982</t>
   </si>
   <si>
     <t xml:space="preserve">0.895366311073303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851890504360199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.807827174663544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776101589202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.764938950538635</t>
+    <t xml:space="preserve">0.851890563964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.807827234268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776101529598236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76493889093399</t>
   </si>
   <si>
     <t xml:space="preserve">0.757888674736023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831915199756622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820164859294891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817814886569977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828390061855316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.833677649497986</t>
+    <t xml:space="preserve">0.831915140151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820164799690247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817814767360687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828390002250671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833677589893341</t>
   </si>
   <si>
     <t xml:space="preserve">0.823102414608002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817227303981781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827215015888214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828977584838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.843077778816223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865403175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837790191173553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830740094184875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846602916717529</t>
+    <t xml:space="preserve">0.817227363586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827214956283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828977704048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.843077719211578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865403234958649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837790131568909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830740034580231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846602857112885</t>
   </si>
   <si>
     <t xml:space="preserve">0.848952949047089</t>
@@ -230,13 +230,13 @@
     <t xml:space="preserve">0.860115647315979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846015393733978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834265172481537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822514891624451</t>
+    <t xml:space="preserve">0.846015334129333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834265232086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82251501083374</t>
   </si>
   <si>
     <t xml:space="preserve">0.845427811145782</t>
@@ -248,43 +248,43 @@
     <t xml:space="preserve">0.92062920331955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915929079055786</t>
+    <t xml:space="preserve">0.915929138660431</t>
   </si>
   <si>
     <t xml:space="preserve">0.905941486358643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893016159534454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553525924683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578221321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869515776634216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882440984249115</t>
+    <t xml:space="preserve">0.89301609992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553585529327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578280925751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869515717029572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88244104385376</t>
   </si>
   <si>
     <t xml:space="preserve">0.864228129386902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835440099239349</t>
+    <t xml:space="preserve">0.835440218448639</t>
   </si>
   <si>
     <t xml:space="preserve">0.826040029525757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83015251159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831327617168427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9071164727211</t>
+    <t xml:space="preserve">0.830152630805969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831327557563782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907116532325745</t>
   </si>
   <si>
     <t xml:space="preserve">0.924741864204407</t>
@@ -293,16 +293,16 @@
     <t xml:space="preserve">0.945304572582245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.937079548835754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92885434627533</t>
+    <t xml:space="preserve">0.937079608440399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928854405879974</t>
   </si>
   <si>
     <t xml:space="preserve">0.961769163608551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98744261264801</t>
+    <t xml:space="preserve">0.987442553043365</t>
   </si>
   <si>
     <t xml:space="preserve">0.994025528430939</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">1.04010629653931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04076445102692</t>
+    <t xml:space="preserve">1.04076457023621</t>
   </si>
   <si>
     <t xml:space="preserve">1.03615653514862</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">1.07367932796478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11646842956543</t>
+    <t xml:space="preserve">1.11646854877472</t>
   </si>
   <si>
     <t xml:space="preserve">1.09276986122131</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">0.98283463716507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0124579668045</t>
+    <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
     <t xml:space="preserve">0.993367314338684</t>
@@ -359,10 +359,10 @@
     <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07565414905548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0730208158493</t>
+    <t xml:space="preserve">1.07565402984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07302093505859</t>
   </si>
   <si>
     <t xml:space="preserve">1.10132765769958</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">1.015749335289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959135949611664</t>
+    <t xml:space="preserve">0.959136068820953</t>
   </si>
   <si>
     <t xml:space="preserve">0.977568089962006</t>
@@ -386,16 +386,16 @@
     <t xml:space="preserve">1.04668927192688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02035737037659</t>
+    <t xml:space="preserve">1.02035748958588</t>
   </si>
   <si>
     <t xml:space="preserve">0.961110830307007</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938728868961334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936095654964447</t>
+    <t xml:space="preserve">0.938728749752045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936095714569092</t>
   </si>
   <si>
     <t xml:space="preserve">0.956502735614777</t>
@@ -404,10 +404,10 @@
     <t xml:space="preserve">0.951894760131836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936753928661346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946628212928772</t>
+    <t xml:space="preserve">0.936753809452057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946628391742706</t>
   </si>
   <si>
     <t xml:space="preserve">0.939387083053589</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">0.949919760227203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948603272438049</t>
+    <t xml:space="preserve">0.948603212833405</t>
   </si>
   <si>
     <t xml:space="preserve">0.974276661872864</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">0.997975409030914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923588037490845</t>
+    <t xml:space="preserve">0.9235879778862</t>
   </si>
   <si>
     <t xml:space="preserve">0.836034715175629</t>
@@ -437,25 +437,25 @@
     <t xml:space="preserve">0.80970299243927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.832085072994232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851833820343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888698399066925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884090423583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871582686901093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873557507991791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880798876285553</t>
+    <t xml:space="preserve">0.832085013389587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851833760738373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88869833946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884090304374695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871582627296448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87355762720108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880798935890198</t>
   </si>
   <si>
     <t xml:space="preserve">0.886723518371582</t>
@@ -479,28 +479,28 @@
     <t xml:space="preserve">0.874215841293335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870266079902649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864341497421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881457209587097</t>
+    <t xml:space="preserve">0.870266139507294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86434143781662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881457149982452</t>
   </si>
   <si>
     <t xml:space="preserve">0.882773637771606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887381911277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880140602588654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613156795502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934778988361359</t>
+    <t xml:space="preserve">0.887381851673126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880140542984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934779107570648</t>
   </si>
   <si>
     <t xml:space="preserve">0.947944939136505</t>
@@ -518,13 +518,13 @@
     <t xml:space="preserve">0.895281314849854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90318089723587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917005062103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940045416355133</t>
+    <t xml:space="preserve">0.903180837631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917005121707916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940045297145844</t>
   </si>
   <si>
     <t xml:space="preserve">0.934120714664459</t>
@@ -533,10 +533,10 @@
     <t xml:space="preserve">0.911080360412598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912397027015686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913713574409485</t>
+    <t xml:space="preserve">0.912396967411041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91371363401413</t>
   </si>
   <si>
     <t xml:space="preserve">0.931487500667572</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">0.909763753414154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926879465579987</t>
+    <t xml:space="preserve">0.926879405975342</t>
   </si>
   <si>
     <t xml:space="preserve">0.920296609401703</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">0.970326900482178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988759219646454</t>
+    <t xml:space="preserve">0.988759279251099</t>
   </si>
   <si>
     <t xml:space="preserve">0.984151184558868</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">0.99270898103714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04142284393311</t>
+    <t xml:space="preserve">1.04142272472382</t>
   </si>
   <si>
     <t xml:space="preserve">1.03549814224243</t>
@@ -581,25 +581,25 @@
     <t xml:space="preserve">1.03154838085175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05919682979584</t>
+    <t xml:space="preserve">1.05919671058655</t>
   </si>
   <si>
     <t xml:space="preserve">1.03813135623932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03023183345795</t>
+    <t xml:space="preserve">1.03023195266724</t>
   </si>
   <si>
     <t xml:space="preserve">1.02167403697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03418147563934</t>
+    <t xml:space="preserve">1.03418135643005</t>
   </si>
   <si>
     <t xml:space="preserve">1.01838254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03352332115173</t>
+    <t xml:space="preserve">1.03352344036102</t>
   </si>
   <si>
     <t xml:space="preserve">1.04208111763</t>
@@ -632,19 +632,19 @@
     <t xml:space="preserve">1.06380486488342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13819217681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11120212078094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.123051404953</t>
+    <t xml:space="preserve">1.13819229602814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11120223999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12305128574371</t>
   </si>
   <si>
     <t xml:space="preserve">1.08421206474304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07697069644928</t>
+    <t xml:space="preserve">1.07697081565857</t>
   </si>
   <si>
     <t xml:space="preserve">1.09145331382751</t>
@@ -653,22 +653,22 @@
     <t xml:space="preserve">1.096719622612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11778509616852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13095092773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11186039447784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1256844997406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13226759433746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13885056972504</t>
+    <t xml:space="preserve">1.11778497695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13095104694366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11186027526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12568461894989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13226747512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13885045051575</t>
   </si>
   <si>
     <t xml:space="preserve">1.13621723651886</t>
@@ -683,10 +683,10 @@
     <t xml:space="preserve">1.15596616268158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14016711711884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14082539081573</t>
+    <t xml:space="preserve">1.14016699790955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14082551002502</t>
   </si>
   <si>
     <t xml:space="preserve">1.11910164356232</t>
@@ -695,13 +695,13 @@
     <t xml:space="preserve">1.12436807155609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12831783294678</t>
+    <t xml:space="preserve">1.12831771373749</t>
   </si>
   <si>
     <t xml:space="preserve">1.09079492092133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0973778963089</t>
+    <t xml:space="preserve">1.09737801551819</t>
   </si>
   <si>
     <t xml:space="preserve">1.08684527873993</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">0.940703749656677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933462381362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935437381267548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953869521617889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999950408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00521647930145</t>
+    <t xml:space="preserve">0.933462500572205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935437321662903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953869640827179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999950289726257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00521659851074</t>
   </si>
   <si>
     <t xml:space="preserve">1.0170658826828</t>
@@ -755,22 +755,22 @@
     <t xml:space="preserve">1.07170438766479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13424241542816</t>
+    <t xml:space="preserve">1.13424253463745</t>
   </si>
   <si>
     <t xml:space="preserve">1.10396087169647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10066938400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09474468231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12041831016541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12765967845917</t>
+    <t xml:space="preserve">1.10066950321198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0947448015213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12041819095612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12765955924988</t>
   </si>
   <si>
     <t xml:space="preserve">1.12634289264679</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">1.16715717315674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16913211345673</t>
+    <t xml:space="preserve">1.16913223266602</t>
   </si>
   <si>
     <t xml:space="preserve">1.1803230047226</t>
@@ -803,19 +803,19 @@
     <t xml:space="preserve">1.17374014854431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17900657653809</t>
+    <t xml:space="preserve">1.1790064573288</t>
   </si>
   <si>
     <t xml:space="preserve">1.18229806423187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17308175563812</t>
+    <t xml:space="preserve">1.17308187484741</t>
   </si>
   <si>
     <t xml:space="preserve">1.19941365718842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21652936935425</t>
+    <t xml:space="preserve">1.21652925014496</t>
   </si>
   <si>
     <t xml:space="preserve">1.21389603614807</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">1.22706198692322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21784579753876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20402181148529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19546401500702</t>
+    <t xml:space="preserve">1.21784591674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.204021692276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19546389579773</t>
   </si>
   <si>
     <t xml:space="preserve">1.22179555892944</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">1.22772037982941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21455442905426</t>
+    <t xml:space="preserve">1.21455454826355</t>
   </si>
   <si>
     <t xml:space="preserve">1.21587109565735</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">1.26853466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24417781829834</t>
+    <t xml:space="preserve">1.24417769908905</t>
   </si>
   <si>
     <t xml:space="preserve">1.26260995864868</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">1.32448983192444</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32843935489655</t>
+    <t xml:space="preserve">1.32843947410583</t>
   </si>
   <si>
     <t xml:space="preserve">1.3613543510437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35213816165924</t>
+    <t xml:space="preserve">1.35213804244995</t>
   </si>
   <si>
     <t xml:space="preserve">1.35608780384064</t>
@@ -890,10 +890,10 @@
     <t xml:space="preserve">1.39163589477539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40875160694122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47721421718597</t>
+    <t xml:space="preserve">1.40875148773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47721409797668</t>
   </si>
   <si>
     <t xml:space="preserve">1.48116397857666</t>
@@ -902,40 +902,40 @@
     <t xml:space="preserve">1.49169671535492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169647693634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49031937122345</t>
+    <t xml:space="preserve">1.49169659614563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49031925201416</t>
   </si>
   <si>
     <t xml:space="preserve">1.48894190788269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47379076480865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39803516864777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38701629638672</t>
+    <t xml:space="preserve">1.47379088401794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39803528785706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38701617717743</t>
   </si>
   <si>
     <t xml:space="preserve">1.38288402557373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48343253135681</t>
+    <t xml:space="preserve">1.48343241214752</t>
   </si>
   <si>
     <t xml:space="preserve">1.44899821281433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43522441387177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43246960639954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45313024520874</t>
+    <t xml:space="preserve">1.43522429466248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43246948719025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45313012599945</t>
   </si>
   <si>
     <t xml:space="preserve">1.51235723495483</t>
@@ -944,40 +944,40 @@
     <t xml:space="preserve">1.57158434391022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53301787376404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53990471363068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51511228084564</t>
+    <t xml:space="preserve">1.53301799297333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53990483283997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51511216163635</t>
   </si>
   <si>
     <t xml:space="preserve">1.43935632705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47792291641235</t>
+    <t xml:space="preserve">1.47792279720306</t>
   </si>
   <si>
     <t xml:space="preserve">1.45175278186798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45863974094391</t>
+    <t xml:space="preserve">1.45863962173462</t>
   </si>
   <si>
     <t xml:space="preserve">1.42282795906067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41594099998474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40354478359222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45450758934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44624316692352</t>
+    <t xml:space="preserve">1.41594111919403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40354466438293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45450747013092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44624328613281</t>
   </si>
   <si>
     <t xml:space="preserve">1.4379791021347</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">1.45726215839386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42558252811432</t>
+    <t xml:space="preserve">1.42558264732361</t>
   </si>
   <si>
     <t xml:space="preserve">1.42971479892731</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">1.45588505268097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47654557228088</t>
+    <t xml:space="preserve">1.47654545307159</t>
   </si>
   <si>
     <t xml:space="preserve">1.51786684989929</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">1.54403698444366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52888596057892</t>
+    <t xml:space="preserve">1.52888584136963</t>
   </si>
   <si>
     <t xml:space="preserve">1.33605349063873</t>
@@ -1028,16 +1028,16 @@
     <t xml:space="preserve">1.33811938762665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31194925308228</t>
+    <t xml:space="preserve">1.31194937229156</t>
   </si>
   <si>
     <t xml:space="preserve">1.27820360660553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25960910320282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27062809467316</t>
+    <t xml:space="preserve">1.25960898399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27062797546387</t>
   </si>
   <si>
     <t xml:space="preserve">1.28095841407776</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258173942566</t>
+    <t xml:space="preserve">1.35258185863495</t>
   </si>
   <si>
     <t xml:space="preserve">1.29748678207397</t>
@@ -1058,28 +1058,28 @@
     <t xml:space="preserve">1.28233563899994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29542088508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2899112701416</t>
+    <t xml:space="preserve">1.29542076587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28991138935089</t>
   </si>
   <si>
     <t xml:space="preserve">1.31608140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33674192428589</t>
+    <t xml:space="preserve">1.33674204349518</t>
   </si>
   <si>
     <t xml:space="preserve">1.32778906822205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33329844474792</t>
+    <t xml:space="preserve">1.33329856395721</t>
   </si>
   <si>
     <t xml:space="preserve">1.34018540382385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33880817890167</t>
+    <t xml:space="preserve">1.33880805969238</t>
   </si>
   <si>
     <t xml:space="preserve">1.37393116950989</t>
@@ -1088,19 +1088,19 @@
     <t xml:space="preserve">1.41180884838104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41869580745697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4600168466568</t>
+    <t xml:space="preserve">1.41869568824768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46001708507538</t>
   </si>
   <si>
     <t xml:space="preserve">1.45037531852722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44762063026428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4049220085144</t>
+    <t xml:space="preserve">1.44762074947357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40492212772369</t>
   </si>
   <si>
     <t xml:space="preserve">1.46414923667908</t>
@@ -1109,22 +1109,22 @@
     <t xml:space="preserve">1.48618721961975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51098001003265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56194269657135</t>
+    <t xml:space="preserve">1.51097989082336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56194281578064</t>
   </si>
   <si>
     <t xml:space="preserve">1.53852736949921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52613115310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55918800830841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57433927059174</t>
+    <t xml:space="preserve">1.5261310338974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5591881275177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57433903217316</t>
   </si>
   <si>
     <t xml:space="preserve">1.51648926734924</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">1.49582874774933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48756444454193</t>
+    <t xml:space="preserve">1.48756456375122</t>
   </si>
   <si>
     <t xml:space="preserve">1.50822520256042</t>
@@ -1151,25 +1151,25 @@
     <t xml:space="preserve">1.5509238243103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60050904750824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57847118377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62117004394531</t>
+    <t xml:space="preserve">1.60050916671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57847142219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62116992473602</t>
   </si>
   <si>
     <t xml:space="preserve">1.6184149980545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58949029445648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4848096370697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52062141895294</t>
+    <t xml:space="preserve">1.58949017524719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48480975627899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52062153816223</t>
   </si>
   <si>
     <t xml:space="preserve">1.55230104923248</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">1.42145049571991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4338470697403</t>
+    <t xml:space="preserve">1.43384695053101</t>
   </si>
   <si>
     <t xml:space="preserve">1.4173184633255</t>
@@ -1193,19 +1193,19 @@
     <t xml:space="preserve">1.37599730491638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37117648124695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38839364051819</t>
+    <t xml:space="preserve">1.37117636203766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3883935213089</t>
   </si>
   <si>
     <t xml:space="preserve">1.37530839443207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36360085010529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35051560401917</t>
+    <t xml:space="preserve">1.363600730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35051572322845</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">1.34087419509888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36222350597382</t>
+    <t xml:space="preserve">1.36222338676453</t>
   </si>
   <si>
     <t xml:space="preserve">1.34294033050537</t>
@@ -1223,19 +1223,19 @@
     <t xml:space="preserve">1.36979901790619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36428952217102</t>
+    <t xml:space="preserve">1.36428940296173</t>
   </si>
   <si>
     <t xml:space="preserve">1.36704432964325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38977086544037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38012933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35533666610718</t>
+    <t xml:space="preserve">1.38977098464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3801292181015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35533654689789</t>
   </si>
   <si>
     <t xml:space="preserve">1.37737452983856</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">1.36842155456543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36635541915894</t>
+    <t xml:space="preserve">1.36635553836823</t>
   </si>
   <si>
     <t xml:space="preserve">1.21966516971588</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">1.22586333751678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25203359127045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24721264839172</t>
+    <t xml:space="preserve">1.25203347206116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24721276760101</t>
   </si>
   <si>
     <t xml:space="preserve">1.21553313732147</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">1.19900465011597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22104263305664</t>
+    <t xml:space="preserve">1.22104251384735</t>
   </si>
   <si>
     <t xml:space="preserve">1.2100236415863</t>
@@ -1292,10 +1292,10 @@
     <t xml:space="preserve">1.21277832984924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1645702123642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15699470043182</t>
+    <t xml:space="preserve">1.16457009315491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15699458122253</t>
   </si>
   <si>
     <t xml:space="preserve">1.15217387676239</t>
@@ -1310,13 +1310,13 @@
     <t xml:space="preserve">1.10052227973938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1053432226181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11429595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13082444667816</t>
+    <t xml:space="preserve">1.10534310340881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11429607868195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13082456588745</t>
   </si>
   <si>
     <t xml:space="preserve">1.12669241428375</t>
@@ -1328,19 +1328,19 @@
     <t xml:space="preserve">1.13357925415039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23137295246124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1893630027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17352318763733</t>
+    <t xml:space="preserve">1.23137283325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18936288356781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17352306842804</t>
   </si>
   <si>
     <t xml:space="preserve">1.13564538955688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1728343963623</t>
+    <t xml:space="preserve">1.17283451557159</t>
   </si>
   <si>
     <t xml:space="preserve">1.17558920383453</t>
@@ -1352,28 +1352,28 @@
     <t xml:space="preserve">1.17076849937439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26029765605927</t>
+    <t xml:space="preserve">1.26029777526855</t>
   </si>
   <si>
     <t xml:space="preserve">1.30230760574341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27682638168335</t>
+    <t xml:space="preserve">1.27682626247406</t>
   </si>
   <si>
     <t xml:space="preserve">1.30988323688507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31126058101654</t>
+    <t xml:space="preserve">1.31126070022583</t>
   </si>
   <si>
     <t xml:space="preserve">1.25478827953339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26649582386017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21071219444275</t>
+    <t xml:space="preserve">1.26649594306946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21071231365204</t>
   </si>
   <si>
     <t xml:space="preserve">1.22792947292328</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">1.24239182472229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27200543880463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29473209381104</t>
+    <t xml:space="preserve">1.27200555801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29473221302032</t>
   </si>
   <si>
     <t xml:space="preserve">1.29817545413971</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">1.27958106994629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26718461513519</t>
+    <t xml:space="preserve">1.2671844959259</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
@@ -1418,25 +1418,25 @@
     <t xml:space="preserve">1.26993930339813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29955291748047</t>
+    <t xml:space="preserve">1.29955279827118</t>
   </si>
   <si>
     <t xml:space="preserve">1.32985520362854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3925256729126</t>
+    <t xml:space="preserve">1.39252579212189</t>
   </si>
   <si>
     <t xml:space="preserve">1.40905427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42007339000702</t>
+    <t xml:space="preserve">1.42007315158844</t>
   </si>
   <si>
     <t xml:space="preserve">1.39114832878113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39665794372559</t>
+    <t xml:space="preserve">1.3966578245163</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">1.34156286716461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30781733989716</t>
+    <t xml:space="preserve">1.30781722068787</t>
   </si>
   <si>
     <t xml:space="preserve">1.38794767856598</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">1.40265047550201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37692046165466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36001217365265</t>
+    <t xml:space="preserve">1.37692058086395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36001229286194</t>
   </si>
   <si>
     <t xml:space="preserve">1.38427197933197</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">1.42543983459473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41000175476074</t>
+    <t xml:space="preserve">1.41000187397003</t>
   </si>
   <si>
     <t xml:space="preserve">1.42176413536072</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">1.47469437122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48645663261414</t>
+    <t xml:space="preserve">1.48645675182343</t>
   </si>
   <si>
     <t xml:space="preserve">1.52468395233154</t>
@@ -1493,19 +1493,19 @@
     <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49968910217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49674868583679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49086761474609</t>
+    <t xml:space="preserve">1.49968922138214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4967485666275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4908674955368</t>
   </si>
   <si>
     <t xml:space="preserve">1.52615427970886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51439201831818</t>
+    <t xml:space="preserve">1.51439189910889</t>
   </si>
   <si>
     <t xml:space="preserve">1.56585204601288</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">1.55555987358093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55261945724487</t>
+    <t xml:space="preserve">1.55261933803558</t>
   </si>
   <si>
     <t xml:space="preserve">1.50262975692749</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792695999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47910535335541</t>
+    <t xml:space="preserve">1.48792684078217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47910523414612</t>
   </si>
   <si>
     <t xml:space="preserve">1.50115954875946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50998103618622</t>
+    <t xml:space="preserve">1.50998115539551</t>
   </si>
   <si>
     <t xml:space="preserve">1.52321374416351</t>
@@ -1544,19 +1544,19 @@
     <t xml:space="preserve">1.46660780906677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46366739273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45558071136475</t>
+    <t xml:space="preserve">1.46366727352142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45558059215546</t>
   </si>
   <si>
     <t xml:space="preserve">1.45043480396271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44381833076477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42911565303802</t>
+    <t xml:space="preserve">1.44381844997406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42911553382874</t>
   </si>
   <si>
     <t xml:space="preserve">1.37912607192993</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">1.43058586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4239696264267</t>
+    <t xml:space="preserve">1.42396950721741</t>
   </si>
   <si>
     <t xml:space="preserve">1.43940758705139</t>
@@ -1583,28 +1583,28 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4467591047287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46146178245544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48498630523682</t>
+    <t xml:space="preserve">1.44675898551941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46146190166473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48498642444611</t>
   </si>
   <si>
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762460708618</t>
+    <t xml:space="preserve">1.52762472629547</t>
   </si>
   <si>
     <t xml:space="preserve">1.56144118309021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57320332527161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55114912986755</t>
+    <t xml:space="preserve">1.5732034444809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55114901065826</t>
   </si>
   <si>
     <t xml:space="preserve">1.58643591403961</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.57173311710358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57026267051697</t>
+    <t xml:space="preserve">1.57026278972626</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025249004364</t>
@@ -1625,16 +1625,16 @@
     <t xml:space="preserve">1.63495528697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64377689361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64524722099304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62760388851166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113871097565</t>
+    <t xml:space="preserve">1.64377701282501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64524710178375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62760376930237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113883018494</t>
   </si>
   <si>
     <t xml:space="preserve">1.62466335296631</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">1.37471508979797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.395299077034</t>
+    <t xml:space="preserve">1.39529895782471</t>
   </si>
   <si>
     <t xml:space="preserve">1.40191531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147220134735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40853154659271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39970993995667</t>
+    <t xml:space="preserve">1.41147208213806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.408531665802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39971005916595</t>
   </si>
   <si>
     <t xml:space="preserve">1.40118026733398</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">1.35486626625061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34530937671661</t>
+    <t xml:space="preserve">1.3453094959259</t>
   </si>
   <si>
     <t xml:space="preserve">1.28943860530853</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">1.28649806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21665966510773</t>
+    <t xml:space="preserve">1.21665954589844</t>
   </si>
   <si>
     <t xml:space="preserve">1.2556220293045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25415182113647</t>
+    <t xml:space="preserve">1.25415170192719</t>
   </si>
   <si>
     <t xml:space="preserve">1.28355753421783</t>
@@ -1718,19 +1718,19 @@
     <t xml:space="preserve">1.2975252866745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31590378284454</t>
+    <t xml:space="preserve">1.31590366363525</t>
   </si>
   <si>
     <t xml:space="preserve">1.30855226516724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31516861915588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28576290607452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29017376899719</t>
+    <t xml:space="preserve">1.31516873836517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28576278686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29017388820648</t>
   </si>
   <si>
     <t xml:space="preserve">1.2497410774231</t>
@@ -1739,16 +1739,16 @@
     <t xml:space="preserve">1.27841150760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24091923236847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24459505081177</t>
+    <t xml:space="preserve">1.24091935157776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24459493160248</t>
   </si>
   <si>
     <t xml:space="preserve">1.25121128559113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31222808361053</t>
+    <t xml:space="preserve">1.31222796440125</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">1.26591420173645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3092874288559</t>
+    <t xml:space="preserve">1.30928754806519</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811957359314</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327589988708</t>
+    <t xml:space="preserve">1.22327601909637</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23650848865509</t>
+    <t xml:space="preserve">1.2365083694458</t>
   </si>
   <si>
     <t xml:space="preserve">1.23356783390045</t>
@@ -1793,22 +1793,22 @@
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768676280975</t>
+    <t xml:space="preserve">1.22768664360046</t>
   </si>
   <si>
     <t xml:space="preserve">1.3225200176239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31663882732391</t>
+    <t xml:space="preserve">1.3166389465332</t>
   </si>
   <si>
     <t xml:space="preserve">1.29164409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26150333881378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25856256484985</t>
+    <t xml:space="preserve">1.26150321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25856280326843</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1817,25 +1817,25 @@
     <t xml:space="preserve">1.24680042266846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24312472343445</t>
+    <t xml:space="preserve">1.24312460422516</t>
   </si>
   <si>
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2879683971405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29679012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24165451526642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24018406867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28870344161987</t>
+    <t xml:space="preserve">1.28796827793121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29679000377655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24165439605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2401841878891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28870356082916</t>
   </si>
   <si>
     <t xml:space="preserve">1.27914667129517</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502774238586</t>
+    <t xml:space="preserve">1.28502786159515</t>
   </si>
   <si>
     <t xml:space="preserve">1.28135216236115</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">1.36589348316193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35119068622589</t>
+    <t xml:space="preserve">1.3511905670166</t>
   </si>
   <si>
     <t xml:space="preserve">1.32325518131256</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31810927391052</t>
+    <t xml:space="preserve">1.31810915470123</t>
   </si>
   <si>
     <t xml:space="preserve">1.31149291992188</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">1.28723323345184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28429269790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31296324729919</t>
+    <t xml:space="preserve">1.2842925786972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3129631280899</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060657978058</t>
@@ -1904,10 +1904,10 @@
     <t xml:space="preserve">1.33428239822388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35266089439392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31737411022186</t>
+    <t xml:space="preserve">1.35266077518463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31737399101257</t>
   </si>
   <si>
     <t xml:space="preserve">1.27694118022919</t>
@@ -1916,37 +1916,37 @@
     <t xml:space="preserve">1.30046582221985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27767634391785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29826033115387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3034063577652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27326560020447</t>
+    <t xml:space="preserve">1.27767646312714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29826045036316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30340623855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27326548099518</t>
   </si>
   <si>
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134174346924</t>
+    <t xml:space="preserve">1.33134186267853</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531979560852</t>
+    <t xml:space="preserve">1.29531967639923</t>
   </si>
   <si>
     <t xml:space="preserve">1.2747358083725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27253031730652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26958990097046</t>
+    <t xml:space="preserve">1.27253043651581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26958978176117</t>
   </si>
   <si>
     <t xml:space="preserve">1.23797869682312</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">1.21445417404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371901035309</t>
+    <t xml:space="preserve">1.21371912956238</t>
   </si>
   <si>
     <t xml:space="preserve">1.21592450141907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20563244819641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22915709018707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2519463300705</t>
+    <t xml:space="preserve">1.2056325674057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22915697097778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25194644927979</t>
   </si>
   <si>
     <t xml:space="preserve">1.22989225387573</t>
@@ -1985,22 +1985,22 @@
     <t xml:space="preserve">1.21518933773041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2269514799118</t>
+    <t xml:space="preserve">1.22695159912109</t>
   </si>
   <si>
     <t xml:space="preserve">1.23724353313446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23871374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20857298374176</t>
+    <t xml:space="preserve">1.23871386051178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20857310295105</t>
   </si>
   <si>
     <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18137288093567</t>
+    <t xml:space="preserve">1.18137276172638</t>
   </si>
   <si>
     <t xml:space="preserve">1.17034566402435</t>
@@ -2009,37 +2009,37 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711307525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13358867168427</t>
+    <t xml:space="preserve">1.15711319446564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13358855247498</t>
   </si>
   <si>
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448531150818</t>
+    <t xml:space="preserve">1.06448519229889</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03360939025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06522047519684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10859382152557</t>
+    <t xml:space="preserve">1.0336092710495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06522035598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10859370231628</t>
   </si>
   <si>
     <t xml:space="preserve">1.08653962612152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0872745513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07624745368958</t>
+    <t xml:space="preserve">1.08727467060089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07624757289886</t>
   </si>
   <si>
     <t xml:space="preserve">1.08713448047638</t>
@@ -61907,7 +61907,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6493055556</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>1257150</v>
@@ -61928,6 +61928,32 @@
         <v>1728</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6501388889</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>1184492</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>1.62600004673004</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>1.61450004577637</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>1.61450004577637</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>1.61800003051758</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170564651489</t>
+    <t xml:space="preserve">1.00170576572418</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982317924499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985255360603333</t>
+    <t xml:space="preserve">0.982317864894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985255300998688</t>
   </si>
   <si>
     <t xml:space="preserve">0.960579872131348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964105069637299</t>
+    <t xml:space="preserve">0.964105010032654</t>
   </si>
   <si>
     <t xml:space="preserve">0.993480503559113</t>
@@ -62,25 +62,25 @@
     <t xml:space="preserve">0.992893099784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04576909542084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04165637493134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0281435251236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03695631027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05693161487579</t>
+    <t xml:space="preserve">1.04576885700226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04165625572205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02814364433289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03695642948151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05693173408508</t>
   </si>
   <si>
     <t xml:space="preserve">1.02579355239868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07749450206757</t>
+    <t xml:space="preserve">1.07749462127686</t>
   </si>
   <si>
     <t xml:space="preserve">1.08101963996887</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">1.1456458568573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14682078361511</t>
+    <t xml:space="preserve">1.1468209028244</t>
   </si>
   <si>
     <t xml:space="preserve">1.11509537696838</t>
@@ -104,22 +104,22 @@
     <t xml:space="preserve">1.14035820960999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11098277568817</t>
+    <t xml:space="preserve">1.11098265647888</t>
   </si>
   <si>
     <t xml:space="preserve">1.09100735187531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02755618095398</t>
+    <t xml:space="preserve">1.02755606174469</t>
   </si>
   <si>
     <t xml:space="preserve">0.957642316818237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829564929008484</t>
+    <t xml:space="preserve">0.853653013706207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829564988613129</t>
   </si>
   <si>
     <t xml:space="preserve">0.840140223503113</t>
@@ -128,97 +128,97 @@
     <t xml:space="preserve">0.810764729976654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816639840602875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873040854930878</t>
+    <t xml:space="preserve">0.81663978099823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873040914535522</t>
   </si>
   <si>
     <t xml:space="preserve">0.863640666007996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872453212738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887728571891785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881853520870209</t>
+    <t xml:space="preserve">0.872453391551971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887728691101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881853580474854</t>
   </si>
   <si>
     <t xml:space="preserve">0.86070317029953</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842490315437317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850127935409546</t>
+    <t xml:space="preserve">0.842490255832672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850127875804901</t>
   </si>
   <si>
     <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904178977012634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916516661643982</t>
+    <t xml:space="preserve">0.904178857803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916516602039337</t>
   </si>
   <si>
     <t xml:space="preserve">0.895366311073303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851890563964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.807827234268188</t>
+    <t xml:space="preserve">0.851890504360199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.807827174663544</t>
   </si>
   <si>
     <t xml:space="preserve">0.776101529598236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76493889093399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.757888674736023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831915140151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820164799690247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817814767360687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828390002250671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.833677589893341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823102414608002</t>
+    <t xml:space="preserve">0.764938950538635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.757888734340668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831915080547333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820164918899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817814826965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828390061855316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833677709102631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823102474212646</t>
   </si>
   <si>
     <t xml:space="preserve">0.817227363586426</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827214956283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828977704048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.843077719211578</t>
+    <t xml:space="preserve">0.827215015888214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828977584838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.843077838420868</t>
   </si>
   <si>
     <t xml:space="preserve">0.865403234958649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837790131568909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830740034580231</t>
+    <t xml:space="preserve">0.837790191173553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830740094184875</t>
   </si>
   <si>
     <t xml:space="preserve">0.846602857112885</t>
@@ -227,49 +227,49 @@
     <t xml:space="preserve">0.848952949047089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860115647315979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846015334129333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834265232086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82251501083374</t>
+    <t xml:space="preserve">0.860115587711334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846015393733978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834265172481537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822514951229095</t>
   </si>
   <si>
     <t xml:space="preserve">0.845427811145782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868340730667114</t>
+    <t xml:space="preserve">0.868340790271759</t>
   </si>
   <si>
     <t xml:space="preserve">0.92062920331955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915929138660431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941486358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89301609992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553585529327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578280925751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869515717029572</t>
+    <t xml:space="preserve">0.915929198265076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941426753998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893016159534454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553645133972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578221321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869515836238861</t>
   </si>
   <si>
     <t xml:space="preserve">0.88244104385376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864228129386902</t>
+    <t xml:space="preserve">0.864228188991547</t>
   </si>
   <si>
     <t xml:space="preserve">0.835440218448639</t>
@@ -278,73 +278,73 @@
     <t xml:space="preserve">0.826040029525757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830152630805969</t>
+    <t xml:space="preserve">0.83015251159668</t>
   </si>
   <si>
     <t xml:space="preserve">0.831327557563782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907116532325745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924741864204407</t>
+    <t xml:space="preserve">0.9071164727211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924741804599762</t>
   </si>
   <si>
     <t xml:space="preserve">0.945304572582245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.937079608440399</t>
+    <t xml:space="preserve">0.93707948923111</t>
   </si>
   <si>
     <t xml:space="preserve">0.928854405879974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961769163608551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987442553043365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994025528430939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03483986854553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04010629653931</t>
+    <t xml:space="preserve">0.961769044399261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987442672252655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994025468826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03483974933624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0401064157486</t>
   </si>
   <si>
     <t xml:space="preserve">1.04076457023621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03615653514862</t>
+    <t xml:space="preserve">1.03615641593933</t>
   </si>
   <si>
     <t xml:space="preserve">1.05327212810516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05261397361755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05458867549896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05393052101135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07367932796478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11646854877472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09276986122131</t>
+    <t xml:space="preserve">1.05261373519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05458879470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05393040180206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07367920875549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11646842956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09276974201202</t>
   </si>
   <si>
     <t xml:space="preserve">1.03878962993622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02299070358276</t>
+    <t xml:space="preserve">1.02299046516418</t>
   </si>
   <si>
     <t xml:space="preserve">0.98283463716507</t>
@@ -353,28 +353,28 @@
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367314338684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07894563674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07565402984619</t>
+    <t xml:space="preserve">0.993367195129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07894575595856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07565426826477</t>
   </si>
   <si>
     <t xml:space="preserve">1.07302093505859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10132765769958</t>
+    <t xml:space="preserve">1.10132777690887</t>
   </si>
   <si>
     <t xml:space="preserve">1.015749335289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959136068820953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977568089962006</t>
+    <t xml:space="preserve">0.959135949611664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97756826877594</t>
   </si>
   <si>
     <t xml:space="preserve">0.97230190038681</t>
@@ -383,46 +383,46 @@
     <t xml:space="preserve">1.02628207206726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04668927192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02035748958588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961110830307007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938728749752045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936095714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956502735614777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951894760131836</t>
+    <t xml:space="preserve">1.04668915271759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02035737037659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961110770702362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938728809356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936095654964447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956502676010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951894700527191</t>
   </si>
   <si>
     <t xml:space="preserve">0.936753809452057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946628391742706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939387083053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949919760227203</t>
+    <t xml:space="preserve">0.946628272533417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939387142658234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949919819831848</t>
   </si>
   <si>
     <t xml:space="preserve">0.948603212833405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974276661872864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954527974128723</t>
+    <t xml:space="preserve">0.974276840686798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954527914524078</t>
   </si>
   <si>
     <t xml:space="preserve">0.997975409030914</t>
@@ -431,34 +431,34 @@
     <t xml:space="preserve">0.9235879778862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836034715175629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80970299243927</t>
+    <t xml:space="preserve">0.836034774780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.809702932834625</t>
   </si>
   <si>
     <t xml:space="preserve">0.832085013389587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851833760738373</t>
+    <t xml:space="preserve">0.851833879947662</t>
   </si>
   <si>
     <t xml:space="preserve">0.88869833946228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884090304374695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871582627296448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87355762720108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880798935890198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886723518371582</t>
+    <t xml:space="preserve">0.88409036397934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871582686901093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873557567596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880798876285553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886723458766937</t>
   </si>
   <si>
     <t xml:space="preserve">0.890673339366913</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">0.866974651813507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884748637676239</t>
+    <t xml:space="preserve">0.884748518466949</t>
   </si>
   <si>
     <t xml:space="preserve">0.883432030677795</t>
@@ -482,34 +482,34 @@
     <t xml:space="preserve">0.870266139507294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86434143781662</t>
+    <t xml:space="preserve">0.864341497421265</t>
   </si>
   <si>
     <t xml:space="preserve">0.881457149982452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882773637771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887381851673126</t>
+    <t xml:space="preserve">0.882773697376251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887381792068481</t>
   </si>
   <si>
     <t xml:space="preserve">0.880140542984009</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921613216400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934779107570648</t>
+    <t xml:space="preserve">0.921613097190857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934778988361359</t>
   </si>
   <si>
     <t xml:space="preserve">0.947944939136505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947286605834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932145893573761</t>
+    <t xml:space="preserve">0.947286665439606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932145833969116</t>
   </si>
   <si>
     <t xml:space="preserve">0.902522563934326</t>
@@ -518,16 +518,16 @@
     <t xml:space="preserve">0.895281314849854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903180837631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917005121707916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940045297145844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934120714664459</t>
+    <t xml:space="preserve">0.90318089723587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917004942893982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940045416355133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934120833873749</t>
   </si>
   <si>
     <t xml:space="preserve">0.911080360412598</t>
@@ -536,43 +536,43 @@
     <t xml:space="preserve">0.912396967411041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91371363401413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931487500667572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91897988319397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909763753414154</t>
+    <t xml:space="preserve">0.913713693618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931487441062927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918979942798615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909763813018799</t>
   </si>
   <si>
     <t xml:space="preserve">0.926879405975342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920296609401703</t>
+    <t xml:space="preserve">0.920296549797058</t>
   </si>
   <si>
     <t xml:space="preserve">0.9380704164505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964402377605438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970326900482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988759279251099</t>
+    <t xml:space="preserve">0.964402437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970326840877533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988759219646454</t>
   </si>
   <si>
     <t xml:space="preserve">0.984151184558868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99270898103714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04142272472382</t>
+    <t xml:space="preserve">0.992708921432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04142284393311</t>
   </si>
   <si>
     <t xml:space="preserve">1.03549814224243</t>
@@ -581,25 +581,25 @@
     <t xml:space="preserve">1.03154838085175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05919671058655</t>
+    <t xml:space="preserve">1.05919682979584</t>
   </si>
   <si>
     <t xml:space="preserve">1.03813135623932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03023195266724</t>
+    <t xml:space="preserve">1.03023183345795</t>
   </si>
   <si>
     <t xml:space="preserve">1.02167403697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03418135643005</t>
+    <t xml:space="preserve">1.03418147563934</t>
   </si>
   <si>
     <t xml:space="preserve">1.01838254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03352344036102</t>
+    <t xml:space="preserve">1.03352332115173</t>
   </si>
   <si>
     <t xml:space="preserve">1.04208111763</t>
@@ -611,16 +611,16 @@
     <t xml:space="preserve">1.09211158752441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08618688583374</t>
+    <t xml:space="preserve">1.08618676662445</t>
   </si>
   <si>
     <t xml:space="preserve">1.09013676643372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09935283660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08750355243683</t>
+    <t xml:space="preserve">1.09935259819031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08750343322754</t>
   </si>
   <si>
     <t xml:space="preserve">1.07960391044617</t>
@@ -632,16 +632,16 @@
     <t xml:space="preserve">1.06380486488342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13819229602814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11120223999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12305128574371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08421206474304</t>
+    <t xml:space="preserve">1.13819217681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11120200157166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.123051404953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08421194553375</t>
   </si>
   <si>
     <t xml:space="preserve">1.07697081565857</t>
@@ -653,22 +653,22 @@
     <t xml:space="preserve">1.096719622612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11778497695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13095104694366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11186027526855</t>
+    <t xml:space="preserve">1.11778509616852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13095092773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11186039447784</t>
   </si>
   <si>
     <t xml:space="preserve">1.12568461894989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13226747512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13885045051575</t>
+    <t xml:space="preserve">1.13226759433746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13885056972504</t>
   </si>
   <si>
     <t xml:space="preserve">1.13621723651886</t>
@@ -680,37 +680,37 @@
     <t xml:space="preserve">1.14740836620331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15596616268158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14016699790955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14082551002502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11910164356232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12436807155609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12831771373749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09079492092133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09737801551819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08684527873993</t>
+    <t xml:space="preserve">1.15596628189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14016711711884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14082539081573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11910176277161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1243679523468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12831783294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09079504013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0973778963089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08684515953064</t>
   </si>
   <si>
     <t xml:space="preserve">1.01904082298279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02364885807037</t>
+    <t xml:space="preserve">1.02364873886108</t>
   </si>
   <si>
     <t xml:space="preserve">1.02496540546417</t>
@@ -722,19 +722,19 @@
     <t xml:space="preserve">0.988100945949554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940703749656677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933462500572205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935437321662903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953869640827179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999950289726257</t>
+    <t xml:space="preserve">0.940703690052032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93346244096756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935437381267548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953869521617889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999950230121613</t>
   </si>
   <si>
     <t xml:space="preserve">1.00521659851074</t>
@@ -743,13 +743,13 @@
     <t xml:space="preserve">1.0170658826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00916635990143</t>
+    <t xml:space="preserve">1.00916624069214</t>
   </si>
   <si>
     <t xml:space="preserve">1.03089010715485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04603087902069</t>
+    <t xml:space="preserve">1.0460307598114</t>
   </si>
   <si>
     <t xml:space="preserve">1.07170438766479</t>
@@ -758,10 +758,10 @@
     <t xml:space="preserve">1.13424253463745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10396087169647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10066950321198</t>
+    <t xml:space="preserve">1.10396099090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10066938400269</t>
   </si>
   <si>
     <t xml:space="preserve">1.0947448015213</t>
@@ -779,43 +779,43 @@
     <t xml:space="preserve">1.1223931312561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11976003646851</t>
+    <t xml:space="preserve">1.11975991725922</t>
   </si>
   <si>
     <t xml:space="preserve">1.13490068912506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16715717315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16913223266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1803230047226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17176532745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16584062576294</t>
+    <t xml:space="preserve">1.16715729236603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16913211345673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18032312393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17176520824432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16584074497223</t>
   </si>
   <si>
     <t xml:space="preserve">1.17374014854431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1790064573288</t>
+    <t xml:space="preserve">1.17900657653809</t>
   </si>
   <si>
     <t xml:space="preserve">1.18229806423187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17308187484741</t>
+    <t xml:space="preserve">1.17308175563812</t>
   </si>
   <si>
     <t xml:space="preserve">1.19941365718842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21652925014496</t>
+    <t xml:space="preserve">1.21652936935425</t>
   </si>
   <si>
     <t xml:space="preserve">1.21389603614807</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">1.204021692276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19546389579773</t>
+    <t xml:space="preserve">1.19546377658844</t>
   </si>
   <si>
     <t xml:space="preserve">1.22179555892944</t>
@@ -839,19 +839,19 @@
     <t xml:space="preserve">1.22772037982941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21455454826355</t>
+    <t xml:space="preserve">1.21455442905426</t>
   </si>
   <si>
     <t xml:space="preserve">1.21587109565735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23167014122009</t>
+    <t xml:space="preserve">1.23167026042938</t>
   </si>
   <si>
     <t xml:space="preserve">1.25339388847351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26853466033936</t>
+    <t xml:space="preserve">1.26853454113007</t>
   </si>
   <si>
     <t xml:space="preserve">1.24417769908905</t>
@@ -863,25 +863,25 @@
     <t xml:space="preserve">1.27182614803314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28696703910828</t>
+    <t xml:space="preserve">1.28696691989899</t>
   </si>
   <si>
     <t xml:space="preserve">1.3093489408493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32448983192444</t>
+    <t xml:space="preserve">1.32448971271515</t>
   </si>
   <si>
     <t xml:space="preserve">1.32843947410583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3613543510437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35213804244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35608780384064</t>
+    <t xml:space="preserve">1.36135423183441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35213792324066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35608792304993</t>
   </si>
   <si>
     <t xml:space="preserve">1.35872101783752</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">1.40875148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47721409797668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48116397857666</t>
+    <t xml:space="preserve">1.47721421718597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48116385936737</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169671535492</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">1.48894190788269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47379088401794</t>
+    <t xml:space="preserve">1.47379076480865</t>
   </si>
   <si>
     <t xml:space="preserve">1.39803528785706</t>
@@ -923,13 +923,13 @@
     <t xml:space="preserve">1.38288402557373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48343241214752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44899821281433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43522429466248</t>
+    <t xml:space="preserve">1.48343229293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44899809360504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43522441387177</t>
   </si>
   <si>
     <t xml:space="preserve">1.43246948719025</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">1.45313012599945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51235723495483</t>
+    <t xml:space="preserve">1.51235747337341</t>
   </si>
   <si>
     <t xml:space="preserve">1.57158434391022</t>
@@ -950,13 +950,13 @@
     <t xml:space="preserve">1.53990483283997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51511216163635</t>
+    <t xml:space="preserve">1.51511192321777</t>
   </si>
   <si>
     <t xml:space="preserve">1.43935632705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47792279720306</t>
+    <t xml:space="preserve">1.47792291641235</t>
   </si>
   <si>
     <t xml:space="preserve">1.45175278186798</t>
@@ -965,25 +965,25 @@
     <t xml:space="preserve">1.45863962173462</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42282795906067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41594111919403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40354466438293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45450747013092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44624328613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4379791021347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45726215839386</t>
+    <t xml:space="preserve">1.42282783985138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41594099998474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40354478359222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45450758934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44624316692352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43797898292542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45726227760315</t>
   </si>
   <si>
     <t xml:space="preserve">1.42558264732361</t>
@@ -1001,37 +1001,37 @@
     <t xml:space="preserve">1.45588505268097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47654545307159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51786684989929</t>
+    <t xml:space="preserve">1.47654569149017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51786673069</t>
   </si>
   <si>
     <t xml:space="preserve">1.53164052963257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53577268123627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55643320083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54403698444366</t>
+    <t xml:space="preserve">1.53577256202698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55643332004547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54403710365295</t>
   </si>
   <si>
     <t xml:space="preserve">1.52888584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33605349063873</t>
+    <t xml:space="preserve">1.33605337142944</t>
   </si>
   <si>
     <t xml:space="preserve">1.33811938762665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31194937229156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27820360660553</t>
+    <t xml:space="preserve">1.31194925308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27820348739624</t>
   </si>
   <si>
     <t xml:space="preserve">1.25960898399353</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">1.27062797546387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28095841407776</t>
+    <t xml:space="preserve">1.28095829486847</t>
   </si>
   <si>
     <t xml:space="preserve">1.32021355628967</t>
@@ -1049,31 +1049,31 @@
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258185863495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29748678207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28233563899994</t>
+    <t xml:space="preserve">1.35258197784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29748690128326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28233575820923</t>
   </si>
   <si>
     <t xml:space="preserve">1.29542076587677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28991138935089</t>
+    <t xml:space="preserve">1.2899112701416</t>
   </si>
   <si>
     <t xml:space="preserve">1.31608140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33674204349518</t>
+    <t xml:space="preserve">1.33674192428589</t>
   </si>
   <si>
     <t xml:space="preserve">1.32778906822205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33329856395721</t>
+    <t xml:space="preserve">1.3332986831665</t>
   </si>
   <si>
     <t xml:space="preserve">1.34018540382385</t>
@@ -1082,22 +1082,22 @@
     <t xml:space="preserve">1.33880805969238</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37393116950989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41180884838104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41869568824768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46001708507538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45037531852722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44762074947357</t>
+    <t xml:space="preserve">1.3739310503006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41180896759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41869580745697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46001696586609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45037543773651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44762063026428</t>
   </si>
   <si>
     <t xml:space="preserve">1.40492212772369</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">1.48618721961975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51097989082336</t>
+    <t xml:space="preserve">1.51098001003265</t>
   </si>
   <si>
     <t xml:space="preserve">1.56194281578064</t>
@@ -1121,10 +1121,10 @@
     <t xml:space="preserve">1.5261310338974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5591881275177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57433903217316</t>
+    <t xml:space="preserve">1.55918800830841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57433915138245</t>
   </si>
   <si>
     <t xml:space="preserve">1.51648926734924</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">1.49582874774933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48756456375122</t>
+    <t xml:space="preserve">1.48756468296051</t>
   </si>
   <si>
     <t xml:space="preserve">1.50822520256042</t>
@@ -1148,31 +1148,31 @@
     <t xml:space="preserve">1.52750837802887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5509238243103</t>
+    <t xml:space="preserve">1.55092370510101</t>
   </si>
   <si>
     <t xml:space="preserve">1.60050916671753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57847142219543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62116992473602</t>
+    <t xml:space="preserve">1.57847130298615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62117004394531</t>
   </si>
   <si>
     <t xml:space="preserve">1.6184149980545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58949017524719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48480975627899</t>
+    <t xml:space="preserve">1.58949041366577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4848096370697</t>
   </si>
   <si>
     <t xml:space="preserve">1.52062153816223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55230104923248</t>
+    <t xml:space="preserve">1.55230116844177</t>
   </si>
   <si>
     <t xml:space="preserve">1.52199900150299</t>
@@ -1190,22 +1190,22 @@
     <t xml:space="preserve">1.4173184633255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37599730491638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37117636203766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3883935213089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37530839443207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.363600730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35051572322845</t>
+    <t xml:space="preserve">1.37599718570709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37117648124695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38839364051819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37530851364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36360096931458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35051560401917</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
@@ -1223,34 +1223,34 @@
     <t xml:space="preserve">1.36979901790619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36428940296173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36704432964325</t>
+    <t xml:space="preserve">1.36428952217102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36704421043396</t>
   </si>
   <si>
     <t xml:space="preserve">1.38977098464966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3801292181015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35533654689789</t>
+    <t xml:space="preserve">1.38012933731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35533666610718</t>
   </si>
   <si>
     <t xml:space="preserve">1.37737452983856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36842155456543</t>
+    <t xml:space="preserve">1.36842167377472</t>
   </si>
   <si>
     <t xml:space="preserve">1.36635553836823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21966516971588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23963713645935</t>
+    <t xml:space="preserve">1.21966528892517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23963701725006</t>
   </si>
   <si>
     <t xml:space="preserve">1.25134479999542</t>
@@ -1265,34 +1265,34 @@
     <t xml:space="preserve">1.25203347206116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24721276760101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21553313732147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19900465011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22104251384735</t>
+    <t xml:space="preserve">1.24721264839172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21553301811218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19900453090668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22104263305664</t>
   </si>
   <si>
     <t xml:space="preserve">1.2100236415863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2058914899826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21140086650848</t>
+    <t xml:space="preserve">1.20589137077332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21140098571777</t>
   </si>
   <si>
     <t xml:space="preserve">1.1996933221817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21277832984924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16457009315491</t>
+    <t xml:space="preserve">1.21277844905853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16457033157349</t>
   </si>
   <si>
     <t xml:space="preserve">1.15699458122253</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">1.15217387676239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12600374221802</t>
+    <t xml:space="preserve">1.12600362300873</t>
   </si>
   <si>
     <t xml:space="preserve">1.12875854969025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10052227973938</t>
+    <t xml:space="preserve">1.10052239894867</t>
   </si>
   <si>
     <t xml:space="preserve">1.10534310340881</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">1.14322078227997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13357925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23137283325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18936288356781</t>
+    <t xml:space="preserve">1.13357937335968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23137295246124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1893630027771</t>
   </si>
   <si>
     <t xml:space="preserve">1.17352306842804</t>
@@ -1340,13 +1340,13 @@
     <t xml:space="preserve">1.13564538955688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17283451557159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17558920383453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17696666717529</t>
+    <t xml:space="preserve">1.1728343963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17558932304382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.176966547966</t>
   </si>
   <si>
     <t xml:space="preserve">1.17076849937439</t>
@@ -1355,16 +1355,16 @@
     <t xml:space="preserve">1.26029777526855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30230760574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27682626247406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30988323688507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31126070022583</t>
+    <t xml:space="preserve">1.3023077249527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27682638168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30988311767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31126058101654</t>
   </si>
   <si>
     <t xml:space="preserve">1.25478827953339</t>
@@ -1379,19 +1379,19 @@
     <t xml:space="preserve">1.22792947292328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25065612792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24239182472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27200555801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29473221302032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29817545413971</t>
+    <t xml:space="preserve">1.2506560087204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24239194393158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27200543880463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29473197460175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.298175573349</t>
   </si>
   <si>
     <t xml:space="preserve">1.3229683637619</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">1.30161893367767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29335474967957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27958106994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2671844959259</t>
+    <t xml:space="preserve">1.29335463047028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.279580950737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26718473434448</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
@@ -1418,37 +1418,37 @@
     <t xml:space="preserve">1.26993930339813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29955279827118</t>
+    <t xml:space="preserve">1.29955291748047</t>
   </si>
   <si>
     <t xml:space="preserve">1.32985520362854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39252579212189</t>
+    <t xml:space="preserve">1.3925256729126</t>
   </si>
   <si>
     <t xml:space="preserve">1.40905427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42007315158844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39114832878113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3966578245163</t>
+    <t xml:space="preserve">1.42007339000702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39114820957184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39665794372559</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34156286716461</t>
+    <t xml:space="preserve">1.34156274795532</t>
   </si>
   <si>
     <t xml:space="preserve">1.30781722068787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38794767856598</t>
+    <t xml:space="preserve">1.38794755935669</t>
   </si>
   <si>
     <t xml:space="preserve">1.41661822795868</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">1.41882359981537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40265047550201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37692058086395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36001229286194</t>
+    <t xml:space="preserve">1.4026505947113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37692046165466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36001241207123</t>
   </si>
   <si>
     <t xml:space="preserve">1.38427197933197</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">1.41000187397003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42176413536072</t>
+    <t xml:space="preserve">1.42176425457001</t>
   </si>
   <si>
     <t xml:space="preserve">1.43867242336273</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">1.52468395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704050064087</t>
+    <t xml:space="preserve">1.50704061985016</t>
   </si>
   <si>
     <t xml:space="preserve">1.49968922138214</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">1.55555987358093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55261933803558</t>
+    <t xml:space="preserve">1.55261945724487</t>
   </si>
   <si>
     <t xml:space="preserve">1.50262975692749</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">1.44455361366272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46660780906677</t>
+    <t xml:space="preserve">1.46660768985748</t>
   </si>
   <si>
     <t xml:space="preserve">1.46366727352142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45558059215546</t>
+    <t xml:space="preserve">1.45558071136475</t>
   </si>
   <si>
     <t xml:space="preserve">1.45043480396271</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">1.40706133842468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43058586120605</t>
+    <t xml:space="preserve">1.43058574199677</t>
   </si>
   <si>
     <t xml:space="preserve">1.42396950721741</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">1.46146190166473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48498642444611</t>
+    <t xml:space="preserve">1.48498630523682</t>
   </si>
   <si>
     <t xml:space="preserve">1.53350567817688</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">1.5732034444809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55114901065826</t>
+    <t xml:space="preserve">1.55114912986755</t>
   </si>
   <si>
     <t xml:space="preserve">1.58643591403961</t>
@@ -1622,16 +1622,16 @@
     <t xml:space="preserve">1.62025249004364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63495528697968</t>
+    <t xml:space="preserve">1.63495516777039</t>
   </si>
   <si>
     <t xml:space="preserve">1.64377701282501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64524710178375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62760376930237</t>
+    <t xml:space="preserve">1.64524722099304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62760388851166</t>
   </si>
   <si>
     <t xml:space="preserve">1.60113883018494</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">1.37471508979797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39529895782471</t>
+    <t xml:space="preserve">1.395299077034</t>
   </si>
   <si>
     <t xml:space="preserve">1.40191531181335</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.408531665802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39971005916595</t>
+    <t xml:space="preserve">1.39970993995667</t>
   </si>
   <si>
     <t xml:space="preserve">1.40118026733398</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">1.43279135227203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44822931289673</t>
+    <t xml:space="preserve">1.44822919368744</t>
   </si>
   <si>
     <t xml:space="preserve">1.43205618858337</t>
@@ -1682,13 +1682,13 @@
     <t xml:space="preserve">1.39088821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37250959873199</t>
+    <t xml:space="preserve">1.37250971794128</t>
   </si>
   <si>
     <t xml:space="preserve">1.36074733734131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35486626625061</t>
+    <t xml:space="preserve">1.3548663854599</t>
   </si>
   <si>
     <t xml:space="preserve">1.3453094959259</t>
@@ -1697,25 +1697,25 @@
     <t xml:space="preserve">1.28943860530853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27179515361786</t>
+    <t xml:space="preserve">1.27179527282715</t>
   </si>
   <si>
     <t xml:space="preserve">1.28649806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21665954589844</t>
+    <t xml:space="preserve">1.21665966510773</t>
   </si>
   <si>
     <t xml:space="preserve">1.2556220293045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25415170192719</t>
+    <t xml:space="preserve">1.25415182113647</t>
   </si>
   <si>
     <t xml:space="preserve">1.28355753421783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2975252866745</t>
+    <t xml:space="preserve">1.29752516746521</t>
   </si>
   <si>
     <t xml:space="preserve">1.31590366363525</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">1.30855226516724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31516873836517</t>
+    <t xml:space="preserve">1.31516861915588</t>
   </si>
   <si>
     <t xml:space="preserve">1.28576278686523</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">1.29017388820648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2497410774231</t>
+    <t xml:space="preserve">1.24974095821381</t>
   </si>
   <si>
     <t xml:space="preserve">1.27841150760651</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">1.25121128559113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31222796440125</t>
+    <t xml:space="preserve">1.31222808361053</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">1.26076805591583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26591420173645</t>
+    <t xml:space="preserve">1.26591408252716</t>
   </si>
   <si>
     <t xml:space="preserve">1.30928754806519</t>
@@ -1769,13 +1769,13 @@
     <t xml:space="preserve">1.25782752037048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22180557250977</t>
+    <t xml:space="preserve">1.22180569171906</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327601909637</t>
+    <t xml:space="preserve">1.22327589988708</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768664360046</t>
+    <t xml:space="preserve">1.22768676280975</t>
   </si>
   <si>
     <t xml:space="preserve">1.3225200176239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3166389465332</t>
+    <t xml:space="preserve">1.31663882732391</t>
   </si>
   <si>
     <t xml:space="preserve">1.29164409637451</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28796827793121</t>
+    <t xml:space="preserve">1.2879683971405</t>
   </si>
   <si>
     <t xml:space="preserve">1.29679000377655</t>
@@ -1841,10 +1841,10 @@
     <t xml:space="preserve">1.27914667129517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21004331111908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27032494544983</t>
+    <t xml:space="preserve">1.21004343032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27032506465912</t>
   </si>
   <si>
     <t xml:space="preserve">1.27988183498383</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">1.28135216236115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29311430454254</t>
+    <t xml:space="preserve">1.29311442375183</t>
   </si>
   <si>
     <t xml:space="preserve">1.38059628009796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38941788673401</t>
+    <t xml:space="preserve">1.3894180059433</t>
   </si>
   <si>
     <t xml:space="preserve">1.36589348316193</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">1.36736369132996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33428239822388</t>
+    <t xml:space="preserve">1.33428227901459</t>
   </si>
   <si>
     <t xml:space="preserve">1.35266077518463</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">1.31737399101257</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27694118022919</t>
+    <t xml:space="preserve">1.27694129943848</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046582221985</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">1.27767646312714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29826045036316</t>
+    <t xml:space="preserve">1.29826033115387</t>
   </si>
   <si>
     <t xml:space="preserve">1.30340623855591</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134186267853</t>
+    <t xml:space="preserve">1.33134174346924</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
@@ -1940,13 +1940,13 @@
     <t xml:space="preserve">1.29531967639923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2747358083725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27253043651581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26958978176117</t>
+    <t xml:space="preserve">1.27473568916321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27253031730652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26958990097046</t>
   </si>
   <si>
     <t xml:space="preserve">1.23797869682312</t>
@@ -1955,19 +1955,19 @@
     <t xml:space="preserve">1.21886503696442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21445417404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21371912956238</t>
+    <t xml:space="preserve">1.21445405483246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21371901035309</t>
   </si>
   <si>
     <t xml:space="preserve">1.21592450141907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2056325674057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22915697097778</t>
+    <t xml:space="preserve">1.20563244819641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22915709018707</t>
   </si>
   <si>
     <t xml:space="preserve">1.25194644927979</t>
@@ -1991,10 +1991,10 @@
     <t xml:space="preserve">1.23724353313446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23871386051178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20857310295105</t>
+    <t xml:space="preserve">1.23871374130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20857298374176</t>
   </si>
   <si>
     <t xml:space="preserve">1.19313514232635</t>
@@ -2030,10 +2030,10 @@
     <t xml:space="preserve">1.06522035598755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10859370231628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08653962612152</t>
+    <t xml:space="preserve">1.10859382152557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08653950691223</t>
   </si>
   <si>
     <t xml:space="preserve">1.08727467060089</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">1.07624757289886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08713448047638</t>
+    <t xml:space="preserve">1.08713436126709</t>
   </si>
   <si>
     <t xml:space="preserve">1.10890829563141</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.05913960933685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02647888660431</t>
+    <t xml:space="preserve">1.0264790058136</t>
   </si>
   <si>
     <t xml:space="preserve">1.02181303501129</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.02259075641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995373427867889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00548279285431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00237214565277</t>
+    <t xml:space="preserve">0.995373487472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00548267364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00237226486206</t>
   </si>
   <si>
     <t xml:space="preserve">1.01248145103455</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.00159454345703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01714730262756</t>
+    <t xml:space="preserve">1.01714718341827</t>
   </si>
   <si>
     <t xml:space="preserve">1.03969871997833</t>
@@ -2093,31 +2093,31 @@
     <t xml:space="preserve">0.996151089668274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.000816822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987597167491913</t>
+    <t xml:space="preserve">1.00081694126129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987597048282623</t>
   </si>
   <si>
     <t xml:space="preserve">0.965823292732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970489203929901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967378497123718</t>
+    <t xml:space="preserve">0.970489144325256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967378556728363</t>
   </si>
   <si>
     <t xml:space="preserve">0.998484075069427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991485297679901</t>
+    <t xml:space="preserve">0.991485238075256</t>
   </si>
   <si>
     <t xml:space="preserve">0.993040502071381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999261617660522</t>
+    <t xml:space="preserve">0.999261677265167</t>
   </si>
   <si>
     <t xml:space="preserve">1.02958941459656</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">1.0303670167923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581058979034</t>
+    <t xml:space="preserve">1.03581047058105</t>
   </si>
   <si>
     <t xml:space="preserve">1.08246862888336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0560290813446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10190951824188</t>
+    <t xml:space="preserve">1.05602896213531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10190963745117</t>
   </si>
   <si>
     <t xml:space="preserve">1.09413313865662</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">1.15789926052094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16645324230194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1509006023407</t>
+    <t xml:space="preserve">1.16645336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15090048313141</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612544536591</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">1.10968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13301503658295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13068211078644</t>
+    <t xml:space="preserve">1.13301491737366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13068199157715</t>
   </si>
   <si>
     <t xml:space="preserve">1.13145971298218</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">1.14467942714691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1236834526062</t>
+    <t xml:space="preserve">1.12368333339691</t>
   </si>
   <si>
     <t xml:space="preserve">1.10735297203064</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">1.11590695381165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12057268619537</t>
+    <t xml:space="preserve">1.12057280540466</t>
   </si>
   <si>
     <t xml:space="preserve">1.13534784317017</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.19678115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17345190048218</t>
+    <t xml:space="preserve">1.17345201969147</t>
   </si>
   <si>
     <t xml:space="preserve">1.18978226184845</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">1.22011005878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2208878993988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21077847480774</t>
+    <t xml:space="preserve">1.22088778018951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21077859401703</t>
   </si>
   <si>
     <t xml:space="preserve">1.19133758544922</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.25976955890656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27376687526703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26987886428833</t>
+    <t xml:space="preserve">1.27376699447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26987874507904</t>
   </si>
   <si>
     <t xml:space="preserve">1.27609992027283</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">1.33286726474762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34608709812164</t>
+    <t xml:space="preserve">1.34608697891235</t>
   </si>
   <si>
     <t xml:space="preserve">1.35852921009064</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">1.39896631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38807928562164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37330436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35464107990265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35619628429413</t>
+    <t xml:space="preserve">1.38807940483093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37330424785614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35464096069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35619640350342</t>
   </si>
   <si>
     <t xml:space="preserve">1.33753311634064</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">1.3134263753891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28465390205383</t>
+    <t xml:space="preserve">1.28465378284454</t>
   </si>
   <si>
     <t xml:space="preserve">1.27143406867981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25821435451508</t>
+    <t xml:space="preserve">1.25821423530579</t>
   </si>
   <si>
     <t xml:space="preserve">1.25899183750153</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.25510370731354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23644042015076</t>
+    <t xml:space="preserve">1.23644053936005</t>
   </si>
   <si>
     <t xml:space="preserve">1.24343919754028</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">1.16412031650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15167820453644</t>
+    <t xml:space="preserve">1.15167808532715</t>
   </si>
   <si>
     <t xml:space="preserve">1.12757158279419</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">1.11823987960815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1213504076004</t>
+    <t xml:space="preserve">1.12135052680969</t>
   </si>
   <si>
     <t xml:space="preserve">1.12212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11357414722443</t>
+    <t xml:space="preserve">1.11357402801514</t>
   </si>
   <si>
     <t xml:space="preserve">1.10579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08868968486786</t>
+    <t xml:space="preserve">1.08868980407715</t>
   </si>
   <si>
     <t xml:space="preserve">1.11746227741241</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">1.14623475074768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1065753698349</t>
+    <t xml:space="preserve">1.10657525062561</t>
   </si>
   <si>
     <t xml:space="preserve">1.11201870441437</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.13923597335815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1337925195694</t>
+    <t xml:space="preserve">1.13379263877869</t>
   </si>
   <si>
     <t xml:space="preserve">1.05447375774384</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">1.04047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01403665542603</t>
+    <t xml:space="preserve">1.01403677463531</t>
   </si>
   <si>
     <t xml:space="preserve">1.01325905323029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996928751468658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958824574947357</t>
+    <t xml:space="preserve">0.996928691864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958824634552002</t>
   </si>
   <si>
     <t xml:space="preserve">0.942494213581085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948715329170227</t>
+    <t xml:space="preserve">0.948715388774872</t>
   </si>
   <si>
     <t xml:space="preserve">0.954936444759369</t>
@@ -2498,19 +2498,19 @@
     <t xml:space="preserve">1.00470507144928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990707695484161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985264122486115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997706413269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983708918094635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959602177143097</t>
+    <t xml:space="preserve">0.990707635879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985264182090759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997706294059753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98370897769928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959602236747742</t>
   </si>
   <si>
     <t xml:space="preserve">0.884949207305908</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">0.88106107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894280791282654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855399131774902</t>
+    <t xml:space="preserve">0.894280850887299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855399072170258</t>
   </si>
   <si>
     <t xml:space="preserve">0.828181862831116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801742196083069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815739631652832</t>
+    <t xml:space="preserve">0.801742255687714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815739691257477</t>
   </si>
   <si>
     <t xml:space="preserve">0.752362310886383</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">0.678875803947449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.695595026016235</t>
+    <t xml:space="preserve">0.695594966411591</t>
   </si>
   <si>
     <t xml:space="preserve">0.687040984630585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683930397033691</t>
+    <t xml:space="preserve">0.683930456638336</t>
   </si>
   <si>
     <t xml:space="preserve">0.645048677921295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632217645645142</t>
+    <t xml:space="preserve">0.632217705249786</t>
   </si>
   <si>
     <t xml:space="preserve">0.592558324337006</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">0.612388014793396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611610293388367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575839102268219</t>
+    <t xml:space="preserve">0.611610352993011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575839042663574</t>
   </si>
   <si>
     <t xml:space="preserve">0.572339713573456</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">0.550177097320557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576227903366089</t>
+    <t xml:space="preserve">0.576227962970734</t>
   </si>
   <si>
     <t xml:space="preserve">0.565729856491089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.57350617647171</t>
+    <t xml:space="preserve">0.573506236076355</t>
   </si>
   <si>
     <t xml:space="preserve">0.567673921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660990238189697</t>
+    <t xml:space="preserve">0.660990178585052</t>
   </si>
   <si>
     <t xml:space="preserve">0.684319257736206</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.638049960136414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674210011959076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681208670139313</t>
+    <t xml:space="preserve">0.674209952354431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681208729743958</t>
   </si>
   <si>
     <t xml:space="preserve">0.657879650592804</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.643882215023041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640771627426147</t>
+    <t xml:space="preserve">0.640771687030792</t>
   </si>
   <si>
     <t xml:space="preserve">0.611999154090881</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">0.622108399868011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.605778098106384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608110964298248</t>
+    <t xml:space="preserve">0.60577803850174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608111023902893</t>
   </si>
   <si>
     <t xml:space="preserve">0.613165616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607333362102509</t>
+    <t xml:space="preserve">0.607333302497864</t>
   </si>
   <si>
     <t xml:space="preserve">0.626385390758514</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">0.621330797672272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598779320716858</t>
+    <t xml:space="preserve">0.598779380321503</t>
   </si>
   <si>
     <t xml:space="preserve">0.615498483181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559897601604462</t>
+    <t xml:space="preserve">0.559897541999817</t>
   </si>
   <si>
     <t xml:space="preserve">0.549399495124817</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">0.547844231128693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544344842433929</t>
+    <t xml:space="preserve">0.544344902038574</t>
   </si>
   <si>
     <t xml:space="preserve">0.547455430030823</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.57311737537384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593724727630615</t>
+    <t xml:space="preserve">0.59372466802597</t>
   </si>
   <si>
     <t xml:space="preserve">0.628329515457153</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">0.625996589660645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637661159038544</t>
+    <t xml:space="preserve">0.637661099433899</t>
   </si>
   <si>
     <t xml:space="preserve">0.61433207988739</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">0.654380261898041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632606506347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585170745849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586725950241089</t>
+    <t xml:space="preserve">0.632606446743011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585170686244965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586726009845734</t>
   </si>
   <si>
     <t xml:space="preserve">0.580893695354462</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">0.600334644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587892472743988</t>
+    <t xml:space="preserve">0.587892413139343</t>
   </si>
   <si>
     <t xml:space="preserve">0.580116093158722</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">0.576616764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58322662115097</t>
+    <t xml:space="preserve">0.583226680755615</t>
   </si>
   <si>
     <t xml:space="preserve">0.564563393592834</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">0.548233032226562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.541623115539551</t>
+    <t xml:space="preserve">0.541623175144196</t>
   </si>
   <si>
     <t xml:space="preserve">0.524903953075409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519460499286652</t>
+    <t xml:space="preserve">0.519460558891296</t>
   </si>
   <si>
     <t xml:space="preserve">0.515961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4766905605793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489521563053131</t>
+    <t xml:space="preserve">0.476690530776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489521533250809</t>
   </si>
   <si>
     <t xml:space="preserve">0.508962452411652</t>
@@ -2789,31 +2789,31 @@
     <t xml:space="preserve">0.491076827049255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501186072826385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498464375734329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48602220416069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497686713933945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486799836158752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477079391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474746465682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459193795919418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444418668746948</t>
+    <t xml:space="preserve">0.50118613243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498464345932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486022174358368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497686743736267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48679980635643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477079421281815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474746435880661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459193736314774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444418698549271</t>
   </si>
   <si>
     <t xml:space="preserve">0.451806217432022</t>
@@ -2825,34 +2825,34 @@
     <t xml:space="preserve">0.485633373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478245854377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.491854459047318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508573651313782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467358976602554</t>
+    <t xml:space="preserve">0.478245824575424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49185448884964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508573591709137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467358946800232</t>
   </si>
   <si>
     <t xml:space="preserve">0.455694437026978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463859587907791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489132732152939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478634625673294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476301789283752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.482522875070572</t>
+    <t xml:space="preserve">0.463859558105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489132761955261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478634655475616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476301729679108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48252284526825</t>
   </si>
   <si>
     <t xml:space="preserve">0.477857023477554</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">0.473580062389374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474357664585114</t>
+    <t xml:space="preserve">0.474357694387436</t>
   </si>
   <si>
     <t xml:space="preserve">0.46036022901535</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">0.464637249708176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463470786809921</t>
+    <t xml:space="preserve">0.463470757007599</t>
   </si>
   <si>
     <t xml:space="preserve">0.458027333021164</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">0.446751624345779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438975214958191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.436253547668457</t>
+    <t xml:space="preserve">0.438975244760513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.436253517866135</t>
   </si>
   <si>
     <t xml:space="preserve">0.432754188776016</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">0.374820321798325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360200792551041</t>
+    <t xml:space="preserve">0.360200762748718</t>
   </si>
   <si>
     <t xml:space="preserve">0.355068385601044</t>
@@ -2933,22 +2933,22 @@
     <t xml:space="preserve">0.337649345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345892250537872</t>
+    <t xml:space="preserve">0.345892280340195</t>
   </si>
   <si>
     <t xml:space="preserve">0.331894844770432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346669942140579</t>
+    <t xml:space="preserve">0.346669912338257</t>
   </si>
   <si>
     <t xml:space="preserve">0.369376868009567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373576074838638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388040155172348</t>
+    <t xml:space="preserve">0.373576104640961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388040125370026</t>
   </si>
   <si>
     <t xml:space="preserve">0.396594107151031</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">0.36035630106926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341848582029343</t>
+    <t xml:space="preserve">0.34184855222702</t>
   </si>
   <si>
     <t xml:space="preserve">0.323962956666946</t>
@@ -2981,10 +2981,10 @@
     <t xml:space="preserve">0.337182760238647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359423100948334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351802319288254</t>
+    <t xml:space="preserve">0.359423130750656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351802289485931</t>
   </si>
   <si>
     <t xml:space="preserve">0.386484861373901</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">0.358645498752594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336405098438263</t>
+    <t xml:space="preserve">0.336405128240585</t>
   </si>
   <si>
     <t xml:space="preserve">0.341693043708801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356001555919647</t>
+    <t xml:space="preserve">0.356001526117325</t>
   </si>
   <si>
     <t xml:space="preserve">0.35413521528244</t>
@@ -3029,28 +3029,28 @@
     <t xml:space="preserve">0.390373021364212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417979121208191</t>
+    <t xml:space="preserve">0.417979091405869</t>
   </si>
   <si>
     <t xml:space="preserve">0.421478450298309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445585191249847</t>
+    <t xml:space="preserve">0.445585161447525</t>
   </si>
   <si>
     <t xml:space="preserve">0.437419980764389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440141707658768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462693125009537</t>
+    <t xml:space="preserve">0.440141677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462693154811859</t>
   </si>
   <si>
     <t xml:space="preserve">0.461137861013412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437031149864197</t>
+    <t xml:space="preserve">0.437031120061874</t>
   </si>
   <si>
     <t xml:space="preserve">0.419145524501801</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">0.45025098323822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446362793445587</t>
+    <t xml:space="preserve">0.446362763643265</t>
   </si>
   <si>
     <t xml:space="preserve">0.454139143228531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452972650527954</t>
+    <t xml:space="preserve">0.452972680330276</t>
   </si>
   <si>
     <t xml:space="preserve">0.457638502120972</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">0.472024768590927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448306858539581</t>
+    <t xml:space="preserve">0.448306888341904</t>
   </si>
   <si>
     <t xml:space="preserve">0.452583879232407</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">0.457249671220779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465803653001785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.461526691913605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462304294109344</t>
+    <t xml:space="preserve">0.465803682804108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.461526721715927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462304323911667</t>
   </si>
   <si>
     <t xml:space="preserve">0.472413599491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496131479740143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500408411026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494187414646149</t>
+    <t xml:space="preserve">0.49613144993782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500408470630646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494187384843826</t>
   </si>
   <si>
     <t xml:space="preserve">0.48213404417038</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">0.465414851903915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479801088571548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.470469504594803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.449084520339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419923186302185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.432365357875824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430421233177185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431976526975632</t>
+    <t xml:space="preserve">0.479801118373871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47046947479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449084490537643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419923216104507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.432365328073502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430421262979507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431976497173309</t>
   </si>
   <si>
     <t xml:space="preserve">0.421867281198502</t>
@@ -3146,19 +3146,19 @@
     <t xml:space="preserve">0.43119889497757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44091933965683</t>
+    <t xml:space="preserve">0.440919309854507</t>
   </si>
   <si>
     <t xml:space="preserve">0.442863434553146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46658131480217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566896259784698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521404623985291</t>
+    <t xml:space="preserve">0.466581344604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566896319389343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521404564380646</t>
   </si>
   <si>
     <t xml:space="preserve">0.530347406864166</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">0.500797271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494576185941696</t>
+    <t xml:space="preserve">0.494576156139374</t>
   </si>
   <si>
     <t xml:space="preserve">0.507795989513397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507018327713013</t>
+    <t xml:space="preserve">0.507018387317657</t>
   </si>
   <si>
     <t xml:space="preserve">0.504685461521149</t>
@@ -3209,40 +3209,40 @@
     <t xml:space="preserve">0.524126350879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513239443302155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502741396427155</t>
+    <t xml:space="preserve">0.513239502906799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50274133682251</t>
   </si>
   <si>
     <t xml:space="preserve">0.49652025103569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487577438354492</t>
+    <t xml:space="preserve">0.487577468156815</t>
   </si>
   <si>
     <t xml:space="preserve">0.480578750371933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493409723043442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485244601964951</t>
+    <t xml:space="preserve">0.493409782648087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485244572162628</t>
   </si>
   <si>
     <t xml:space="preserve">0.487188667058945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449473351240158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448695689439774</t>
+    <t xml:space="preserve">0.449473321437836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448695719242096</t>
   </si>
   <si>
     <t xml:space="preserve">0.44776251912117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44667387008667</t>
+    <t xml:space="preserve">0.446673840284348</t>
   </si>
   <si>
     <t xml:space="preserve">0.442630112171173</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">0.459427058696747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451184153556824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460982322692871</t>
+    <t xml:space="preserve">0.451184123754501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460982352495193</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096727132797</t>
@@ -3266,31 +3266,31 @@
     <t xml:space="preserve">0.449006766080856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450406551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456938654184341</t>
+    <t xml:space="preserve">0.450406521558762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456938624382019</t>
   </si>
   <si>
     <t xml:space="preserve">0.442474603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461760014295578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446829319000244</t>
+    <t xml:space="preserve">0.461759984493256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446829348802567</t>
   </si>
   <si>
     <t xml:space="preserve">0.451961755752563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46471494436264</t>
+    <t xml:space="preserve">0.464714974164963</t>
   </si>
   <si>
     <t xml:space="preserve">0.458338350057602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453516989946365</t>
+    <t xml:space="preserve">0.453517019748688</t>
   </si>
   <si>
     <t xml:space="preserve">0.454916775226593</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">0.459115982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479178965091705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.495353847742081</t>
+    <t xml:space="preserve">0.479178994894028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.495353817939758</t>
   </si>
   <si>
     <t xml:space="preserve">0.527236878871918</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">0.526303708553314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534546613693237</t>
+    <t xml:space="preserve">0.534546673297882</t>
   </si>
   <si>
     <t xml:space="preserve">0.545589089393616</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">0.548077523708344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553209841251373</t>
+    <t xml:space="preserve">0.553209900856018</t>
   </si>
   <si>
     <t xml:space="preserve">0.57031786441803</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">0.57684999704361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.606400191783905</t>
+    <t xml:space="preserve">0.60640013217926</t>
   </si>
   <si>
     <t xml:space="preserve">0.591003000736237</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">0.668610990047455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671566069126129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675143182277679</t>
+    <t xml:space="preserve">0.671566009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675143122673035</t>
   </si>
   <si>
     <t xml:space="preserve">0.671099424362183</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">0.655391216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649325609207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650258779525757</t>
+    <t xml:space="preserve">0.649325668811798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650258839130402</t>
   </si>
   <si>
     <t xml:space="preserve">0.629884779453278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613709926605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590380847454071</t>
+    <t xml:space="preserve">0.613709986209869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590380907058716</t>
   </si>
   <si>
     <t xml:space="preserve">0.586959302425385</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">0.597535133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.581826865673065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552276730537415</t>
+    <t xml:space="preserve">0.58182692527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552276790142059</t>
   </si>
   <si>
     <t xml:space="preserve">0.556009352207184</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">0.524592936038971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511839687824249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500330746173859</t>
+    <t xml:space="preserve">0.511839747428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500330686569214</t>
   </si>
   <si>
     <t xml:space="preserve">0.508729159832001</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">0.508107006549835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50452995300293</t>
+    <t xml:space="preserve">0.504529893398285</t>
   </si>
   <si>
     <t xml:space="preserve">0.507951498031616</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">0.506551802158356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497064590454102</t>
+    <t xml:space="preserve">0.497064620256424</t>
   </si>
   <si>
     <t xml:space="preserve">0.520860254764557</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">0.505774140357971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503285646438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511995196342468</t>
+    <t xml:space="preserve">0.503285706043243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511995255947113</t>
   </si>
   <si>
     <t xml:space="preserve">0.51246178150177</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">0.510595500469208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521171271800995</t>
+    <t xml:space="preserve">0.52117133140564</t>
   </si>
   <si>
     <t xml:space="preserve">0.509817838668823</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">0.505463063716888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517438650131226</t>
+    <t xml:space="preserve">0.51743870973587</t>
   </si>
   <si>
     <t xml:space="preserve">0.517283141613007</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">0.500486195087433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494109600782394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.520393669605255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525215029716492</t>
+    <t xml:space="preserve">0.494109630584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5203937292099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525215089321136</t>
   </si>
   <si>
     <t xml:space="preserve">0.516038954257965</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">0.54496693611145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551965713500977</t>
+    <t xml:space="preserve">0.551965653896332</t>
   </si>
   <si>
     <t xml:space="preserve">0.541545391082764</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">0.549166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.537812769412994</t>
+    <t xml:space="preserve">0.53781270980835</t>
   </si>
   <si>
     <t xml:space="preserve">0.553831994533539</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">0.567984998226166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583071172237396</t>
+    <t xml:space="preserve">0.583071112632751</t>
   </si>
   <si>
     <t xml:space="preserve">0.623663723468781</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">0.609821796417236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623352646827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656168878078461</t>
+    <t xml:space="preserve">0.623352587223053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656168818473816</t>
   </si>
   <si>
     <t xml:space="preserve">0.669388651847839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.63392847776413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573584020137787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583848774433136</t>
+    <t xml:space="preserve">0.633928418159485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573583960533142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583848714828491</t>
   </si>
   <si>
     <t xml:space="preserve">0.589447736740112</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">0.552121222019196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557098090648651</t>
+    <t xml:space="preserve">0.557098150253296</t>
   </si>
   <si>
     <t xml:space="preserve">0.563008069992065</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">0.542167484760284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523659765720367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522726655006409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502663552761078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492865383625031</t>
+    <t xml:space="preserve">0.523659706115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522726595401764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502663612365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492865413427353</t>
   </si>
   <si>
     <t xml:space="preserve">0.499553054571152</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">0.4955093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489754885435104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507484912872314</t>
+    <t xml:space="preserve">0.48975482583046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507484972476959</t>
   </si>
   <si>
     <t xml:space="preserve">0.523348689079285</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">0.52474844455719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513550519943237</t>
+    <t xml:space="preserve">0.513550460338593</t>
   </si>
   <si>
     <t xml:space="preserve">0.493643045425415</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">0.461293399333954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464092910289764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435786932706833</t>
+    <t xml:space="preserve">0.464092880487442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435786962509155</t>
   </si>
   <si>
     <t xml:space="preserve">0.432054281234741</t>
@@ -3683,19 +3683,19 @@
     <t xml:space="preserve">0.417745798826218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450095474720001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452739387750626</t>
+    <t xml:space="preserve">0.450095444917679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452739417552948</t>
   </si>
   <si>
     <t xml:space="preserve">0.43843087553978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43547585606575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430654555559158</t>
+    <t xml:space="preserve">0.435475885868073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430654525756836</t>
   </si>
   <si>
     <t xml:space="preserve">0.42536661028862</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">0.41525736451149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427232921123505</t>
+    <t xml:space="preserve">0.427232950925827</t>
   </si>
   <si>
     <t xml:space="preserve">0.424277931451797</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">0.412457853555679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422878205776215</t>
+    <t xml:space="preserve">0.422878175973892</t>
   </si>
   <si>
     <t xml:space="preserve">0.422722697257996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434542685747147</t>
+    <t xml:space="preserve">0.434542715549469</t>
   </si>
   <si>
     <t xml:space="preserve">0.424900054931641</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">0.43407616019249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436564564704895</t>
+    <t xml:space="preserve">0.436564594507217</t>
   </si>
   <si>
     <t xml:space="preserve">0.440608292818069</t>
@@ -3743,37 +3743,37 @@
     <t xml:space="preserve">0.443252235651016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462071031332016</t>
+    <t xml:space="preserve">0.462071001529694</t>
   </si>
   <si>
     <t xml:space="preserve">0.456005454063416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456472039222717</t>
+    <t xml:space="preserve">0.45647206902504</t>
   </si>
   <si>
     <t xml:space="preserve">0.446207284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453205972909927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448851197957993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430032402276993</t>
+    <t xml:space="preserve">0.453205943107605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448851227760315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430032432079315</t>
   </si>
   <si>
     <t xml:space="preserve">0.443563312292099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457405179738998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452117294073105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427543997764587</t>
+    <t xml:space="preserve">0.457405209541321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452117264270782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.427543967962265</t>
   </si>
   <si>
     <t xml:space="preserve">0.423344761133194</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">0.472802400588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466270297765732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480423241853714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455227792263031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.441697001457214</t>
+    <t xml:space="preserve">0.466270238161087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480423212051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455227822065353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441696971654892</t>
   </si>
   <si>
     <t xml:space="preserve">0.386173814535141</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">0.42863267660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408725261688232</t>
+    <t xml:space="preserve">0.40872523188591</t>
   </si>
   <si>
     <t xml:space="preserve">0.411058127880096</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">0.436098009347916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451495170593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478401362895966</t>
+    <t xml:space="preserve">0.451495200395584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478401392698288</t>
   </si>
   <si>
     <t xml:space="preserve">0.468914210796356</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">0.467203408479691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513083934783936</t>
+    <t xml:space="preserve">0.513083875179291</t>
   </si>
   <si>
     <t xml:space="preserve">0.515883386135101</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">0.54792195558548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542634069919586</t>
+    <t xml:space="preserve">0.542634010314941</t>
   </si>
   <si>
     <t xml:space="preserve">0.537346124649048</t>
@@ -3863,22 +3863,22 @@
     <t xml:space="preserve">0.551810145378113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572028636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619775533676147</t>
+    <t xml:space="preserve">0.572028696537018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619775474071503</t>
   </si>
   <si>
     <t xml:space="preserve">0.64403772354126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671877086162567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705626428127289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705937504768372</t>
+    <t xml:space="preserve">0.671877145767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705626487731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705937564373016</t>
   </si>
   <si>
     <t xml:space="preserve">0.72786682844162</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">0.658968329429626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.639216423034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662545442581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682452917098999</t>
+    <t xml:space="preserve">0.639216363430023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662545502185822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682452976703644</t>
   </si>
   <si>
     <t xml:space="preserve">0.693650901317596</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">0.755084097385406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821183085441589</t>
+    <t xml:space="preserve">0.821183145046234</t>
   </si>
   <si>
     <t xml:space="preserve">0.744352698326111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771258950233459</t>
+    <t xml:space="preserve">0.771258890628815</t>
   </si>
   <si>
     <t xml:space="preserve">0.776546835899353</t>
@@ -3929,10 +3929,10 @@
     <t xml:space="preserve">0.765659928321838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835958242416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88067227602005</t>
+    <t xml:space="preserve">0.835958182811737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880672216415405</t>
   </si>
   <si>
     <t xml:space="preserve">0.936661899089813</t>
@@ -3944,22 +3944,22 @@
     <t xml:space="preserve">0.886893272399902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898169040679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891559064388275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918776273727417</t>
+    <t xml:space="preserve">0.898168981075287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89155912399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918776392936707</t>
   </si>
   <si>
     <t xml:space="preserve">0.897002577781677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925775110721588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989152371883392</t>
+    <t xml:space="preserve">0.925775170326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989152312278748</t>
   </si>
   <si>
     <t xml:space="preserve">0.989930033683777</t>
@@ -3986,10 +3986,10 @@
     <t xml:space="preserve">1.01442551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970877945423126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976321399211884</t>
+    <t xml:space="preserve">0.970877885818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976321339607239</t>
   </si>
   <si>
     <t xml:space="preserve">0.960768640041351</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">0.977487802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02414608001709</t>
+    <t xml:space="preserve">1.0241459608078</t>
   </si>
   <si>
     <t xml:space="preserve">1.11046350002289</t>
@@ -4028,19 +4028,19 @@
     <t xml:space="preserve">1.00859332084656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932538509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896224975585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879116952419281</t>
+    <t xml:space="preserve">0.975932598114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896224915981293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879116892814636</t>
   </si>
   <si>
     <t xml:space="preserve">0.838291049003601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879505753517151</t>
+    <t xml:space="preserve">0.879505813121796</t>
   </si>
   <si>
     <t xml:space="preserve">0.903612434864044</t>
@@ -4055,37 +4055,37 @@
     <t xml:space="preserve">0.897780239582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919942796230316</t>
+    <t xml:space="preserve">0.919942855834961</t>
   </si>
   <si>
     <t xml:space="preserve">0.969711542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988763511180878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961546301841736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0431981086731</t>
+    <t xml:space="preserve">0.988763570785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961546361446381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04319798946381</t>
   </si>
   <si>
     <t xml:space="preserve">0.945604801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8709517121315</t>
+    <t xml:space="preserve">0.870951771736145</t>
   </si>
   <si>
     <t xml:space="preserve">0.827793002128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869785368442535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83984637260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845289826393127</t>
+    <t xml:space="preserve">0.869785308837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839846432209015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845289766788483</t>
   </si>
   <si>
     <t xml:space="preserve">0.862397789955139</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">0.908278286457062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924608588218689</t>
+    <t xml:space="preserve">0.924608647823334</t>
   </si>
   <si>
     <t xml:space="preserve">1.00314974784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05097436904907</t>
+    <t xml:space="preserve">1.05097448825836</t>
   </si>
   <si>
     <t xml:space="preserve">1.03658807277679</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">1.01831364631653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940939009189606</t>
+    <t xml:space="preserve">0.940938949584961</t>
   </si>
   <si>
     <t xml:space="preserve">0.949881851673126</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">0.854232609272003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874062299728394</t>
+    <t xml:space="preserve">0.874062240123749</t>
   </si>
   <si>
     <t xml:space="preserve">0.878339350223541</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">0.76690411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770325720310211</t>
+    <t xml:space="preserve">0.770325779914856</t>
   </si>
   <si>
     <t xml:space="preserve">0.770481288433075</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">0.78852242231369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779579639434814</t>
+    <t xml:space="preserve">0.779579699039459</t>
   </si>
   <si>
     <t xml:space="preserve">0.724911868572235</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">0.737353980541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7581946849823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814961969852448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849566757678986</t>
+    <t xml:space="preserve">0.758194625377655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814962029457092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84956681728363</t>
   </si>
   <si>
     <t xml:space="preserve">0.807185649871826</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">0.797854006290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82001668214798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819239020347595</t>
+    <t xml:space="preserve">0.820016622543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81923907995224</t>
   </si>
   <si>
     <t xml:space="preserve">0.844901025295258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854621469974518</t>
+    <t xml:space="preserve">0.854621410369873</t>
   </si>
   <si>
     <t xml:space="preserve">0.865508377552032</t>
@@ -4229,16 +4229,16 @@
     <t xml:space="preserve">0.944049537181854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947548866271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956102848052979</t>
+    <t xml:space="preserve">0.947548925876617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956102907657623</t>
   </si>
   <si>
     <t xml:space="preserve">0.935106694698334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967767477035522</t>
+    <t xml:space="preserve">0.967767417430878</t>
   </si>
   <si>
     <t xml:space="preserve">0.926163911819458</t>
@@ -4259,25 +4259,25 @@
     <t xml:space="preserve">0.998872816562653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954158782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937439560890198</t>
+    <t xml:space="preserve">0.954158842563629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937439620494843</t>
   </si>
   <si>
     <t xml:space="preserve">0.89194792509079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882616341114044</t>
+    <t xml:space="preserve">0.882616281509399</t>
   </si>
   <si>
     <t xml:space="preserve">0.858509600162506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836346983909607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815350830554962</t>
+    <t xml:space="preserve">0.836347043514252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815350770950317</t>
   </si>
   <si>
     <t xml:space="preserve">0.832070052623749</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">0.824682474136353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829348266124725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816906154155731</t>
+    <t xml:space="preserve">0.829348206520081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816906094551086</t>
   </si>
   <si>
     <t xml:space="preserve">0.849955677986145</t>
@@ -4298,13 +4298,13 @@
     <t xml:space="preserve">0.851510882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872507095336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868618845939636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897391378879547</t>
+    <t xml:space="preserve">0.872507035732269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868618905544281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897391438484192</t>
   </si>
   <si>
     <t xml:space="preserve">0.893503248691559</t>
@@ -4316,22 +4316,22 @@
     <t xml:space="preserve">0.926552653312683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912944078445435</t>
+    <t xml:space="preserve">0.912944138050079</t>
   </si>
   <si>
     <t xml:space="preserve">0.937828421592712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952214658260345</t>
+    <t xml:space="preserve">0.952214598655701</t>
   </si>
   <si>
     <t xml:space="preserve">0.971655607223511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988374829292297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05564022064209</t>
+    <t xml:space="preserve">0.988374769687653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0556401014328</t>
   </si>
   <si>
     <t xml:space="preserve">1.12290573120117</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">1.18006193637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19211518764496</t>
+    <t xml:space="preserve">1.19211530685425</t>
   </si>
   <si>
     <t xml:space="preserve">1.18667185306549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20494616031647</t>
+    <t xml:space="preserve">1.20494627952576</t>
   </si>
   <si>
     <t xml:space="preserve">1.15128934383392</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.23799574375153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698670864105</t>
+    <t xml:space="preserve">1.28698682785034</t>
   </si>
   <si>
     <t xml:space="preserve">1.14001369476318</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">1.12873804569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15362238883972</t>
+    <t xml:space="preserve">1.15362226963043</t>
   </si>
   <si>
     <t xml:space="preserve">1.16684210300446</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">1.16606450080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15245580673218</t>
+    <t xml:space="preserve">1.15245592594147</t>
   </si>
   <si>
     <t xml:space="preserve">1.10463130474091</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">1.10929703712463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09607720375061</t>
+    <t xml:space="preserve">1.0960773229599</t>
   </si>
   <si>
     <t xml:space="preserve">1.03853225708008</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">1.09491086006165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15401101112366</t>
+    <t xml:space="preserve">1.15401113033295</t>
   </si>
   <si>
     <t xml:space="preserve">1.08985614776611</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">1.08052456378937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02686762809753</t>
+    <t xml:space="preserve">1.02686774730682</t>
   </si>
   <si>
     <t xml:space="preserve">1.02064669132233</t>
@@ -4469,28 +4469,28 @@
     <t xml:space="preserve">1.02803421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00353872776031</t>
+    <t xml:space="preserve">1.00353860855103</t>
   </si>
   <si>
     <t xml:space="preserve">0.99459582567215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986819446086884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97321081161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956491708755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966212153434753</t>
+    <t xml:space="preserve">0.986819565296173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973210871219635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956491649150848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966212093830109</t>
   </si>
   <si>
     <t xml:space="preserve">0.953769981861115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940161287784576</t>
+    <t xml:space="preserve">0.940161347389221</t>
   </si>
   <si>
     <t xml:space="preserve">0.933551430702209</t>
@@ -4502,31 +4502,31 @@
     <t xml:space="preserve">0.912555277347565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880283415317535</t>
+    <t xml:space="preserve">0.880283355712891</t>
   </si>
   <si>
     <t xml:space="preserve">0.853066146373749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89233672618866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916832327842712</t>
+    <t xml:space="preserve">0.892336785793304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916832268238068</t>
   </si>
   <si>
     <t xml:space="preserve">0.889226198196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93316262960434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933940291404724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980987191200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960379838943481</t>
+    <t xml:space="preserve">0.933162689208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933940172195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980987250804901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960379898548126</t>
   </si>
   <si>
     <t xml:space="preserve">0.98448657989502</t>
@@ -61933,7 +61933,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6501388889</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>1184492</v>
@@ -61954,6 +61954,32 @@
         <v>1741</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6495486111</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>946352</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>1.62399995326996</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>1.61500000953674</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>1.61549997329712</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>1.61800003051758</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170576572418</t>
+    <t xml:space="preserve">1.00170564651489</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982317864894867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985255300998688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960579872131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964105010032654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993480503559113</t>
+    <t xml:space="preserve">0.982317924499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985255420207977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960579931735992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964105069637299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993480682373047</t>
   </si>
   <si>
     <t xml:space="preserve">0.992893099784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04576885700226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04165625572205</t>
+    <t xml:space="preserve">1.04576909542084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04165649414062</t>
   </si>
   <si>
     <t xml:space="preserve">1.02814364433289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03695642948151</t>
+    <t xml:space="preserve">1.03695631027222</t>
   </si>
   <si>
     <t xml:space="preserve">1.05693173408508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02579355239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07749462127686</t>
+    <t xml:space="preserve">1.02579367160797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07749438285828</t>
   </si>
   <si>
     <t xml:space="preserve">1.08101963996887</t>
@@ -89,58 +89,58 @@
     <t xml:space="preserve">1.13565814495087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1456458568573</t>
+    <t xml:space="preserve">1.14564573764801</t>
   </si>
   <si>
     <t xml:space="preserve">1.1468209028244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11509537696838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12802052497864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14035820960999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11098265647888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09100735187531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02755606174469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957642316818237</t>
+    <t xml:space="preserve">1.11509525775909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12802040576935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1403580904007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11098253726959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09100723266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02755618095398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957642376422882</t>
   </si>
   <si>
     <t xml:space="preserve">0.853653013706207</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829564988613129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840140223503113</t>
+    <t xml:space="preserve">0.829565048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840140163898468</t>
   </si>
   <si>
     <t xml:space="preserve">0.810764729976654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81663978099823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873040914535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863640666007996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872453391551971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887728691101074</t>
+    <t xml:space="preserve">0.816639840602875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873040795326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86364072561264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872453272342682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887728631496429</t>
   </si>
   <si>
     <t xml:space="preserve">0.881853580474854</t>
@@ -152,19 +152,19 @@
     <t xml:space="preserve">0.842490255832672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850127875804901</t>
+    <t xml:space="preserve">0.850127995014191</t>
   </si>
   <si>
     <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904178857803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916516602039337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895366311073303</t>
+    <t xml:space="preserve">0.90417891740799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916516542434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895366251468658</t>
   </si>
   <si>
     <t xml:space="preserve">0.851890504360199</t>
@@ -173,55 +173,55 @@
     <t xml:space="preserve">0.807827174663544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776101529598236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.764938950538635</t>
+    <t xml:space="preserve">0.776101589202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76493889093399</t>
   </si>
   <si>
     <t xml:space="preserve">0.757888734340668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831915080547333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820164918899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817814826965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828390061855316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.833677709102631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823102474212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817227363586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827215015888214</t>
+    <t xml:space="preserve">0.831914961338043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820164859294891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817814886569977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828390002250671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833677589893341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823102414608002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817227423191071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827214956283569</t>
   </si>
   <si>
     <t xml:space="preserve">0.828977584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843077838420868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865403234958649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837790191173553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830740094184875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846602857112885</t>
+    <t xml:space="preserve">0.843077719211578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865403115749359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837790131568909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830739915370941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84660279750824</t>
   </si>
   <si>
     <t xml:space="preserve">0.848952949047089</t>
@@ -230,43 +230,43 @@
     <t xml:space="preserve">0.860115587711334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846015393733978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834265172481537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822514951229095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845427811145782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868340790271759</t>
+    <t xml:space="preserve">0.846015334129333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834265053272247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822514891624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845427751541138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868340730667114</t>
   </si>
   <si>
     <t xml:space="preserve">0.92062920331955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915929198265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941426753998</t>
+    <t xml:space="preserve">0.915929138660431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941486358643</t>
   </si>
   <si>
     <t xml:space="preserve">0.893016159534454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886553645133972</t>
+    <t xml:space="preserve">0.886553585529327</t>
   </si>
   <si>
     <t xml:space="preserve">0.866578221321106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869515836238861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88244104385376</t>
+    <t xml:space="preserve">0.869515776634216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882440984249115</t>
   </si>
   <si>
     <t xml:space="preserve">0.864228188991547</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">0.835440218448639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826040029525757</t>
+    <t xml:space="preserve">0.826039969921112</t>
   </si>
   <si>
     <t xml:space="preserve">0.83015251159668</t>
@@ -287,55 +287,55 @@
     <t xml:space="preserve">0.9071164727211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924741804599762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945304572582245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93707948923111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928854405879974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961769044399261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987442672252655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994025468826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03483974933624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0401064157486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04076457023621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03615641593933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05327212810516</t>
+    <t xml:space="preserve">0.924741744995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945304691791534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937079548835754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92885434627533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961769104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98744261264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994025528430939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03483986854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04010629653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04076445102692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03615653514862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05327200889587</t>
   </si>
   <si>
     <t xml:space="preserve">1.05261373519897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05458879470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05393040180206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07367920875549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11646842956543</t>
+    <t xml:space="preserve">1.05458867549896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05393028259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07367932796478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11646854877472</t>
   </si>
   <si>
     <t xml:space="preserve">1.09276974201202</t>
@@ -344,85 +344,85 @@
     <t xml:space="preserve">1.03878962993622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02299046516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98283463716507</t>
+    <t xml:space="preserve">1.02299058437347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982834577560425</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367195129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07894575595856</t>
+    <t xml:space="preserve">0.993367254734039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
     <t xml:space="preserve">1.07565426826477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07302093505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10132777690887</t>
+    <t xml:space="preserve">1.07302105426788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10132765769958</t>
   </si>
   <si>
     <t xml:space="preserve">1.015749335289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959135949611664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97756826877594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97230190038681</t>
+    <t xml:space="preserve">0.959136009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977568209171295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972301840782166</t>
   </si>
   <si>
     <t xml:space="preserve">1.02628207206726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04668915271759</t>
+    <t xml:space="preserve">1.04668927192688</t>
   </si>
   <si>
     <t xml:space="preserve">1.02035737037659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961110770702362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938728809356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936095654964447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956502676010132</t>
+    <t xml:space="preserve">0.961110889911652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938728749752045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936095595359802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956502735614777</t>
   </si>
   <si>
     <t xml:space="preserve">0.951894700527191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936753809452057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946628272533417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939387142658234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949919819831848</t>
+    <t xml:space="preserve">0.936753928661346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946628212928772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939387083053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949919760227203</t>
   </si>
   <si>
     <t xml:space="preserve">0.948603212833405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974276840686798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954527914524078</t>
+    <t xml:space="preserve">0.974276721477509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954527854919434</t>
   </si>
   <si>
     <t xml:space="preserve">0.997975409030914</t>
@@ -431,40 +431,40 @@
     <t xml:space="preserve">0.9235879778862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836034774780273</t>
+    <t xml:space="preserve">0.836034834384918</t>
   </si>
   <si>
     <t xml:space="preserve">0.809702932834625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.832085013389587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851833879947662</t>
+    <t xml:space="preserve">0.832085072994232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851833999156952</t>
   </si>
   <si>
     <t xml:space="preserve">0.88869833946228</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88409036397934</t>
+    <t xml:space="preserve">0.884090304374695</t>
   </si>
   <si>
     <t xml:space="preserve">0.871582686901093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873557567596436</t>
+    <t xml:space="preserve">0.873557686805725</t>
   </si>
   <si>
     <t xml:space="preserve">0.880798876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886723458766937</t>
+    <t xml:space="preserve">0.886723399162292</t>
   </si>
   <si>
     <t xml:space="preserve">0.890673339366913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870924353599548</t>
+    <t xml:space="preserve">0.870924413204193</t>
   </si>
   <si>
     <t xml:space="preserve">0.866974651813507</t>
@@ -473,10 +473,10 @@
     <t xml:space="preserve">0.884748518466949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883432030677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874215841293335</t>
+    <t xml:space="preserve">0.88343209028244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87421590089798</t>
   </si>
   <si>
     <t xml:space="preserve">0.870266139507294</t>
@@ -488,91 +488,91 @@
     <t xml:space="preserve">0.881457149982452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882773697376251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887381792068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880140542984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613097190857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934778988361359</t>
+    <t xml:space="preserve">0.882773637771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887381732463837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880140602588654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934778928756714</t>
   </si>
   <si>
     <t xml:space="preserve">0.947944939136505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947286665439606</t>
+    <t xml:space="preserve">0.947286546230316</t>
   </si>
   <si>
     <t xml:space="preserve">0.932145833969116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902522563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281314849854</t>
+    <t xml:space="preserve">0.902522683143616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281255245209</t>
   </si>
   <si>
     <t xml:space="preserve">0.90318089723587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917004942893982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940045416355133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934120833873749</t>
+    <t xml:space="preserve">0.917005062103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940045297145844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934120714664459</t>
   </si>
   <si>
     <t xml:space="preserve">0.911080360412598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912396967411041</t>
+    <t xml:space="preserve">0.912397146224976</t>
   </si>
   <si>
     <t xml:space="preserve">0.913713693618774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931487441062927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918979942798615</t>
+    <t xml:space="preserve">0.931487560272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918980062007904</t>
   </si>
   <si>
     <t xml:space="preserve">0.909763813018799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926879405975342</t>
+    <t xml:space="preserve">0.926879465579987</t>
   </si>
   <si>
     <t xml:space="preserve">0.920296549797058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9380704164505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964402437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970326840877533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988759219646454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984151184558868</t>
+    <t xml:space="preserve">0.938070476055145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964402318000793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970327019691467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988759160041809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984151124954224</t>
   </si>
   <si>
     <t xml:space="preserve">0.992708921432495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04142284393311</t>
+    <t xml:space="preserve">1.04142272472382</t>
   </si>
   <si>
     <t xml:space="preserve">1.03549814224243</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">1.03154838085175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05919682979584</t>
+    <t xml:space="preserve">1.05919671058655</t>
   </si>
   <si>
     <t xml:space="preserve">1.03813135623932</t>
@@ -593,10 +593,10 @@
     <t xml:space="preserve">1.02167403697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03418147563934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01838254928589</t>
+    <t xml:space="preserve">1.03418159484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01838266849518</t>
   </si>
   <si>
     <t xml:space="preserve">1.03352332115173</t>
@@ -608,16 +608,16 @@
     <t xml:space="preserve">1.01443266868591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09211158752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08618676662445</t>
+    <t xml:space="preserve">1.09211146831512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08618688583374</t>
   </si>
   <si>
     <t xml:space="preserve">1.09013676643372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09935259819031</t>
+    <t xml:space="preserve">1.0993527173996</t>
   </si>
   <si>
     <t xml:space="preserve">1.08750343322754</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">1.07697081565857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09145331382751</t>
+    <t xml:space="preserve">1.09145319461823</t>
   </si>
   <si>
     <t xml:space="preserve">1.096719622612</t>
@@ -662,25 +662,25 @@
     <t xml:space="preserve">1.11186039447784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12568461894989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13226759433746</t>
+    <t xml:space="preserve">1.12568473815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13226747512817</t>
   </si>
   <si>
     <t xml:space="preserve">1.13885056972504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13621723651886</t>
+    <t xml:space="preserve">1.13621735572815</t>
   </si>
   <si>
     <t xml:space="preserve">1.14543342590332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14740836620331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15596628189087</t>
+    <t xml:space="preserve">1.14740824699402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15596616268158</t>
   </si>
   <si>
     <t xml:space="preserve">1.14016711711884</t>
@@ -692,25 +692,25 @@
     <t xml:space="preserve">1.11910176277161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1243679523468</t>
+    <t xml:space="preserve">1.12436807155609</t>
   </si>
   <si>
     <t xml:space="preserve">1.12831783294678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09079504013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0973778963089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08684515953064</t>
+    <t xml:space="preserve">1.09079492092133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09737801551819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08684527873993</t>
   </si>
   <si>
     <t xml:space="preserve">1.01904082298279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02364873886108</t>
+    <t xml:space="preserve">1.02364885807037</t>
   </si>
   <si>
     <t xml:space="preserve">1.02496540546417</t>
@@ -722,43 +722,43 @@
     <t xml:space="preserve">0.988100945949554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940703690052032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93346244096756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935437381267548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953869521617889</t>
+    <t xml:space="preserve">0.940703630447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933462381362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935437262058258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953869581222534</t>
   </si>
   <si>
     <t xml:space="preserve">0.999950230121613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00521659851074</t>
+    <t xml:space="preserve">1.00521647930145</t>
   </si>
   <si>
     <t xml:space="preserve">1.0170658826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00916624069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03089010715485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0460307598114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07170438766479</t>
+    <t xml:space="preserve">1.00916647911072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03088998794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04603087902069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07170450687408</t>
   </si>
   <si>
     <t xml:space="preserve">1.13424253463745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10396099090576</t>
+    <t xml:space="preserve">1.10396087169647</t>
   </si>
   <si>
     <t xml:space="preserve">1.10066938400269</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">1.0947448015213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12041819095612</t>
+    <t xml:space="preserve">1.12041831016541</t>
   </si>
   <si>
     <t xml:space="preserve">1.12765955924988</t>
@@ -779,40 +779,40 @@
     <t xml:space="preserve">1.1223931312561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11975991725922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13490068912506</t>
+    <t xml:space="preserve">1.11976003646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13490080833435</t>
   </si>
   <si>
     <t xml:space="preserve">1.16715729236603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16913211345673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18032312393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17176520824432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16584074497223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17374014854431</t>
+    <t xml:space="preserve">1.16913199424744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1803230047226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17176532745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16584062576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1737402677536</t>
   </si>
   <si>
     <t xml:space="preserve">1.17900657653809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18229806423187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17308175563812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19941365718842</t>
+    <t xml:space="preserve">1.18229818344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17308187484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19941353797913</t>
   </si>
   <si>
     <t xml:space="preserve">1.21652936935425</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">1.21389603614807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22706198692322</t>
+    <t xml:space="preserve">1.22706210613251</t>
   </si>
   <si>
     <t xml:space="preserve">1.21784591674805</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">1.204021692276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19546377658844</t>
+    <t xml:space="preserve">1.19546389579773</t>
   </si>
   <si>
     <t xml:space="preserve">1.22179555892944</t>
@@ -839,19 +839,19 @@
     <t xml:space="preserve">1.22772037982941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21455442905426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21587109565735</t>
+    <t xml:space="preserve">1.21455430984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21587097644806</t>
   </si>
   <si>
     <t xml:space="preserve">1.23167026042938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25339388847351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26853454113007</t>
+    <t xml:space="preserve">1.25339376926422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26853466033936</t>
   </si>
   <si>
     <t xml:space="preserve">1.24417769908905</t>
@@ -875,10 +875,10 @@
     <t xml:space="preserve">1.32843947410583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36135423183441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35213792324066</t>
+    <t xml:space="preserve">1.3613543510437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35213804244995</t>
   </si>
   <si>
     <t xml:space="preserve">1.35608792304993</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">1.39163589477539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40875148773193</t>
+    <t xml:space="preserve">1.40875160694122</t>
   </si>
   <si>
     <t xml:space="preserve">1.47721421718597</t>
@@ -905,16 +905,16 @@
     <t xml:space="preserve">1.49169659614563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49031925201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48894190788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47379076480865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39803528785706</t>
+    <t xml:space="preserve">1.49031937122345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4889417886734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47379088401794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39803516864777</t>
   </si>
   <si>
     <t xml:space="preserve">1.38701617717743</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">1.38288402557373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48343229293823</t>
+    <t xml:space="preserve">1.48343241214752</t>
   </si>
   <si>
     <t xml:space="preserve">1.44899809360504</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">1.51235747337341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57158434391022</t>
+    <t xml:space="preserve">1.57158446311951</t>
   </si>
   <si>
     <t xml:space="preserve">1.53301799297333</t>
@@ -950,22 +950,22 @@
     <t xml:space="preserve">1.53990483283997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51511192321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43935632705688</t>
+    <t xml:space="preserve">1.51511204242706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43935644626617</t>
   </si>
   <si>
     <t xml:space="preserve">1.47792291641235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45175278186798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45863962173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42282783985138</t>
+    <t xml:space="preserve">1.45175290107727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45863974094391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42282795906067</t>
   </si>
   <si>
     <t xml:space="preserve">1.41594099998474</t>
@@ -974,13 +974,13 @@
     <t xml:space="preserve">1.40354478359222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45450758934021</t>
+    <t xml:space="preserve">1.45450747013092</t>
   </si>
   <si>
     <t xml:space="preserve">1.44624316692352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43797898292542</t>
+    <t xml:space="preserve">1.4379791021347</t>
   </si>
   <si>
     <t xml:space="preserve">1.45726227760315</t>
@@ -998,19 +998,19 @@
     <t xml:space="preserve">1.43660163879395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45588505268097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47654569149017</t>
+    <t xml:space="preserve">1.45588493347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47654557228088</t>
   </si>
   <si>
     <t xml:space="preserve">1.51786673069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53164052963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53577256202698</t>
+    <t xml:space="preserve">1.53164041042328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53577268123627</t>
   </si>
   <si>
     <t xml:space="preserve">1.55643332004547</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">1.52888584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33605337142944</t>
+    <t xml:space="preserve">1.33605325222015</t>
   </si>
   <si>
     <t xml:space="preserve">1.33811938762665</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">1.31194925308228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27820348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25960898399353</t>
+    <t xml:space="preserve">1.27820360660553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25960910320282</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062797546387</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258197784424</t>
+    <t xml:space="preserve">1.35258185863495</t>
   </si>
   <si>
     <t xml:space="preserve">1.29748690128326</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">1.31608140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33674192428589</t>
+    <t xml:space="preserve">1.33674204349518</t>
   </si>
   <si>
     <t xml:space="preserve">1.32778906822205</t>
@@ -1076,22 +1076,22 @@
     <t xml:space="preserve">1.3332986831665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34018540382385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33880805969238</t>
+    <t xml:space="preserve">1.34018552303314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33880817890167</t>
   </si>
   <si>
     <t xml:space="preserve">1.3739310503006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41180896759033</t>
+    <t xml:space="preserve">1.41180884838104</t>
   </si>
   <si>
     <t xml:space="preserve">1.41869580745697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46001696586609</t>
+    <t xml:space="preserve">1.46001708507538</t>
   </si>
   <si>
     <t xml:space="preserve">1.45037543773651</t>
@@ -1100,13 +1100,13 @@
     <t xml:space="preserve">1.44762063026428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40492212772369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46414923667908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48618721961975</t>
+    <t xml:space="preserve">1.4049220085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46414911746979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48618710041046</t>
   </si>
   <si>
     <t xml:space="preserve">1.51098001003265</t>
@@ -1118,13 +1118,13 @@
     <t xml:space="preserve">1.53852736949921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5261310338974</t>
+    <t xml:space="preserve">1.52613115310669</t>
   </si>
   <si>
     <t xml:space="preserve">1.55918800830841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57433915138245</t>
+    <t xml:space="preserve">1.57433927059174</t>
   </si>
   <si>
     <t xml:space="preserve">1.51648926734924</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">1.49582874774933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48756468296051</t>
+    <t xml:space="preserve">1.48756456375122</t>
   </si>
   <si>
     <t xml:space="preserve">1.50822520256042</t>
@@ -1157,10 +1157,10 @@
     <t xml:space="preserve">1.57847130298615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62117004394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6184149980545</t>
+    <t xml:space="preserve">1.62116992473602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61841511726379</t>
   </si>
   <si>
     <t xml:space="preserve">1.58949041366577</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">1.52062153816223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55230116844177</t>
+    <t xml:space="preserve">1.55230104923248</t>
   </si>
   <si>
     <t xml:space="preserve">1.52199900150299</t>
@@ -1199,13 +1199,13 @@
     <t xml:space="preserve">1.38839364051819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37530851364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36360096931458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35051560401917</t>
+    <t xml:space="preserve">1.37530839443207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36360085010529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35051572322845</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
@@ -1214,10 +1214,10 @@
     <t xml:space="preserve">1.34087419509888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36222338676453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34294033050537</t>
+    <t xml:space="preserve">1.36222350597382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34294021129608</t>
   </si>
   <si>
     <t xml:space="preserve">1.36979901790619</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">1.38012933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35533666610718</t>
+    <t xml:space="preserve">1.35533654689789</t>
   </si>
   <si>
     <t xml:space="preserve">1.37737452983856</t>
@@ -1244,22 +1244,22 @@
     <t xml:space="preserve">1.36842167377472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36635553836823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21966528892517</t>
+    <t xml:space="preserve">1.36635541915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21966516971588</t>
   </si>
   <si>
     <t xml:space="preserve">1.23963701725006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25134479999542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24927866458893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22586333751678</t>
+    <t xml:space="preserve">1.25134491920471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24927878379822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22586345672607</t>
   </si>
   <si>
     <t xml:space="preserve">1.25203347206116</t>
@@ -1277,40 +1277,40 @@
     <t xml:space="preserve">1.22104263305664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2100236415863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20589137077332</t>
+    <t xml:space="preserve">1.21002352237701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2058914899826</t>
   </si>
   <si>
     <t xml:space="preserve">1.21140098571777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1996933221817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21277844905853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16457033157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15699458122253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15217387676239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12600362300873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12875854969025</t>
+    <t xml:space="preserve">1.19969320297241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21277832984924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1645702123642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15699470043182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1521737575531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12600374221802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12875843048096</t>
   </si>
   <si>
     <t xml:space="preserve">1.10052239894867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10534310340881</t>
+    <t xml:space="preserve">1.1053432226181</t>
   </si>
   <si>
     <t xml:space="preserve">1.11429607868195</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">1.14322078227997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13357937335968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23137295246124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1893630027771</t>
+    <t xml:space="preserve">1.1335791349411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23137283325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18936288356781</t>
   </si>
   <si>
     <t xml:space="preserve">1.17352306842804</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">1.17558932304382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.176966547966</t>
+    <t xml:space="preserve">1.17696666717529</t>
   </si>
   <si>
     <t xml:space="preserve">1.17076849937439</t>
@@ -1367,19 +1367,19 @@
     <t xml:space="preserve">1.31126058101654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25478827953339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26649594306946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21071231365204</t>
+    <t xml:space="preserve">1.2547881603241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26649606227875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21071219444275</t>
   </si>
   <si>
     <t xml:space="preserve">1.22792947292328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2506560087204</t>
+    <t xml:space="preserve">1.25065612792969</t>
   </si>
   <si>
     <t xml:space="preserve">1.24239194393158</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26374125480652</t>
+    <t xml:space="preserve">1.26374113559723</t>
   </si>
   <si>
     <t xml:space="preserve">1.26993930339813</t>
@@ -1424,31 +1424,31 @@
     <t xml:space="preserve">1.32985520362854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3925256729126</t>
+    <t xml:space="preserve">1.39252579212189</t>
   </si>
   <si>
     <t xml:space="preserve">1.40905427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42007339000702</t>
+    <t xml:space="preserve">1.42007327079773</t>
   </si>
   <si>
     <t xml:space="preserve">1.39114820957184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39665794372559</t>
+    <t xml:space="preserve">1.3966578245163</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34156274795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30781722068787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38794755935669</t>
+    <t xml:space="preserve">1.34156286716461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30781733989716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38794767856598</t>
   </si>
   <si>
     <t xml:space="preserve">1.41661822795868</t>
@@ -1457,25 +1457,25 @@
     <t xml:space="preserve">1.41882359981537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4026505947113</t>
+    <t xml:space="preserve">1.40265047550201</t>
   </si>
   <si>
     <t xml:space="preserve">1.37692046165466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36001241207123</t>
+    <t xml:space="preserve">1.36001229286194</t>
   </si>
   <si>
     <t xml:space="preserve">1.38427197933197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42543983459473</t>
+    <t xml:space="preserve">1.42543995380402</t>
   </si>
   <si>
     <t xml:space="preserve">1.41000187397003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42176425457001</t>
+    <t xml:space="preserve">1.42176413536072</t>
   </si>
   <si>
     <t xml:space="preserve">1.43867242336273</t>
@@ -1484,13 +1484,13 @@
     <t xml:space="preserve">1.47469437122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48645675182343</t>
+    <t xml:space="preserve">1.48645663261414</t>
   </si>
   <si>
     <t xml:space="preserve">1.52468395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704061985016</t>
+    <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
     <t xml:space="preserve">1.49968922138214</t>
@@ -1499,13 +1499,13 @@
     <t xml:space="preserve">1.4967485666275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4908674955368</t>
+    <t xml:space="preserve">1.49086761474609</t>
   </si>
   <si>
     <t xml:space="preserve">1.52615427970886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51439189910889</t>
+    <t xml:space="preserve">1.51439201831818</t>
   </si>
   <si>
     <t xml:space="preserve">1.56585204601288</t>
@@ -1520,19 +1520,19 @@
     <t xml:space="preserve">1.50262975692749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5349760055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48792684078217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47910523414612</t>
+    <t xml:space="preserve">1.53497612476349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48792695999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47910535335541</t>
   </si>
   <si>
     <t xml:space="preserve">1.50115954875946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50998115539551</t>
+    <t xml:space="preserve">1.50998103618622</t>
   </si>
   <si>
     <t xml:space="preserve">1.52321374416351</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">1.44455361366272</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46660768985748</t>
+    <t xml:space="preserve">1.46660780906677</t>
   </si>
   <si>
     <t xml:space="preserve">1.46366727352142</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">1.42911553382874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37912607192993</t>
+    <t xml:space="preserve">1.37912595272064</t>
   </si>
   <si>
     <t xml:space="preserve">1.3857421875</t>
@@ -1571,13 +1571,13 @@
     <t xml:space="preserve">1.40706133842468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43058574199677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42396950721741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43940758705139</t>
+    <t xml:space="preserve">1.43058586120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4239696264267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4394074678421</t>
   </si>
   <si>
     <t xml:space="preserve">1.4621969461441</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">1.44675898551941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46146190166473</t>
+    <t xml:space="preserve">1.46146178245544</t>
   </si>
   <si>
     <t xml:space="preserve">1.48498630523682</t>
@@ -1622,25 +1622,25 @@
     <t xml:space="preserve">1.62025249004364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63495516777039</t>
+    <t xml:space="preserve">1.63495528697968</t>
   </si>
   <si>
     <t xml:space="preserve">1.64377701282501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64524722099304</t>
+    <t xml:space="preserve">1.64524710178375</t>
   </si>
   <si>
     <t xml:space="preserve">1.62760388851166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60113883018494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62466335296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59525763988495</t>
+    <t xml:space="preserve">1.60113871097565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62466323375702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59525775909424</t>
   </si>
   <si>
     <t xml:space="preserve">1.37471508979797</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">1.40191531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147208213806</t>
+    <t xml:space="preserve">1.41147220134735</t>
   </si>
   <si>
     <t xml:space="preserve">1.408531665802</t>
@@ -1682,22 +1682,22 @@
     <t xml:space="preserve">1.39088821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37250971794128</t>
+    <t xml:space="preserve">1.37250959873199</t>
   </si>
   <si>
     <t xml:space="preserve">1.36074733734131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3548663854599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3453094959259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28943860530853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27179527282715</t>
+    <t xml:space="preserve">1.35486626625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34530937671661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28943872451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27179515361786</t>
   </si>
   <si>
     <t xml:space="preserve">1.28649806976318</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">1.21665966510773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2556220293045</t>
+    <t xml:space="preserve">1.25562214851379</t>
   </si>
   <si>
     <t xml:space="preserve">1.25415182113647</t>
@@ -1715,10 +1715,10 @@
     <t xml:space="preserve">1.28355753421783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29752516746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31590366363525</t>
+    <t xml:space="preserve">1.2975252866745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31590378284454</t>
   </si>
   <si>
     <t xml:space="preserve">1.30855226516724</t>
@@ -1727,19 +1727,19 @@
     <t xml:space="preserve">1.31516861915588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28576278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29017388820648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24974095821381</t>
+    <t xml:space="preserve">1.28576290607452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29017376899719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2497410774231</t>
   </si>
   <si>
     <t xml:space="preserve">1.27841150760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24091935157776</t>
+    <t xml:space="preserve">1.24091923236847</t>
   </si>
   <si>
     <t xml:space="preserve">1.24459493160248</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">1.25121128559113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31222808361053</t>
+    <t xml:space="preserve">1.31222796440125</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26076805591583</t>
+    <t xml:space="preserve">1.26076817512512</t>
   </si>
   <si>
     <t xml:space="preserve">1.26591408252716</t>
@@ -1769,19 +1769,19 @@
     <t xml:space="preserve">1.25782752037048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22180569171906</t>
+    <t xml:space="preserve">1.22180557250977</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327589988708</t>
+    <t xml:space="preserve">1.22327601909637</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2365083694458</t>
+    <t xml:space="preserve">1.23650848865509</t>
   </si>
   <si>
     <t xml:space="preserve">1.23356783390045</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768676280975</t>
+    <t xml:space="preserve">1.22768664360046</t>
   </si>
   <si>
     <t xml:space="preserve">1.3225200176239</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">1.26150321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25856280326843</t>
+    <t xml:space="preserve">1.25856268405914</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1817,25 +1817,25 @@
     <t xml:space="preserve">1.24680042266846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24312460422516</t>
+    <t xml:space="preserve">1.24312472343445</t>
   </si>
   <si>
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2879683971405</t>
+    <t xml:space="preserve">1.28796827793121</t>
   </si>
   <si>
     <t xml:space="preserve">1.29679000377655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24165439605713</t>
+    <t xml:space="preserve">1.24165451526642</t>
   </si>
   <si>
     <t xml:space="preserve">1.2401841878891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28870356082916</t>
+    <t xml:space="preserve">1.28870344161987</t>
   </si>
   <si>
     <t xml:space="preserve">1.27914667129517</t>
@@ -1844,31 +1844,31 @@
     <t xml:space="preserve">1.21004343032837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27032506465912</t>
+    <t xml:space="preserve">1.27032494544983</t>
   </si>
   <si>
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502786159515</t>
+    <t xml:space="preserve">1.28502774238586</t>
   </si>
   <si>
     <t xml:space="preserve">1.28135216236115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29311442375183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38059628009796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3894180059433</t>
+    <t xml:space="preserve">1.29311430454254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38059616088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38941788673401</t>
   </si>
   <si>
     <t xml:space="preserve">1.36589348316193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3511905670166</t>
+    <t xml:space="preserve">1.35119068622589</t>
   </si>
   <si>
     <t xml:space="preserve">1.32325518131256</t>
@@ -1889,10 +1889,10 @@
     <t xml:space="preserve">1.28723323345184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2842925786972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3129631280899</t>
+    <t xml:space="preserve">1.28429269790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31296324729919</t>
   </si>
   <si>
     <t xml:space="preserve">1.33060657978058</t>
@@ -1901,37 +1901,37 @@
     <t xml:space="preserve">1.36736369132996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33428227901459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35266077518463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31737399101257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27694129943848</t>
+    <t xml:space="preserve">1.33428239822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35266089439392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31737411022186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27694118022919</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046582221985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27767646312714</t>
+    <t xml:space="preserve">1.27767634391785</t>
   </si>
   <si>
     <t xml:space="preserve">1.29826033115387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30340623855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27326548099518</t>
+    <t xml:space="preserve">1.3034063577652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27326560020447</t>
   </si>
   <si>
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134174346924</t>
+    <t xml:space="preserve">1.33134186267853</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
@@ -1940,22 +1940,22 @@
     <t xml:space="preserve">1.29531967639923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27473568916321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27253031730652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26958990097046</t>
+    <t xml:space="preserve">1.2747358083725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27253043651581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26958978176117</t>
   </si>
   <si>
     <t xml:space="preserve">1.23797869682312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21886503696442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21445405483246</t>
+    <t xml:space="preserve">1.21886491775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21445417404175</t>
   </si>
   <si>
     <t xml:space="preserve">1.21371901035309</t>
@@ -1967,10 +1967,10 @@
     <t xml:space="preserve">1.20563244819641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22915709018707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25194644927979</t>
+    <t xml:space="preserve">1.22915697097778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2519463300705</t>
   </si>
   <si>
     <t xml:space="preserve">1.22989225387573</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">1.2306272983551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21224880218506</t>
+    <t xml:space="preserve">1.21224868297577</t>
   </si>
   <si>
     <t xml:space="preserve">1.21518933773041</t>
@@ -1991,16 +1991,16 @@
     <t xml:space="preserve">1.23724353313446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23871374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20857298374176</t>
+    <t xml:space="preserve">1.23871386051178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20857310295105</t>
   </si>
   <si>
     <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18137276172638</t>
+    <t xml:space="preserve">1.18137288093567</t>
   </si>
   <si>
     <t xml:space="preserve">1.17034566402435</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711319446564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13358855247498</t>
+    <t xml:space="preserve">1.15711307525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13358867168427</t>
   </si>
   <si>
     <t xml:space="preserve">1.09168553352356</t>
@@ -2024,25 +2024,25 @@
     <t xml:space="preserve">1.03140389919281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0336092710495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06522035598755</t>
+    <t xml:space="preserve">1.03360939025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06522047519684</t>
   </si>
   <si>
     <t xml:space="preserve">1.10859382152557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08653950691223</t>
+    <t xml:space="preserve">1.08653962612152</t>
   </si>
   <si>
     <t xml:space="preserve">1.08727467060089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07624757289886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08713436126709</t>
+    <t xml:space="preserve">1.07624745368958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08713448047638</t>
   </si>
   <si>
     <t xml:space="preserve">1.10890829563141</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.05913960933685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0264790058136</t>
+    <t xml:space="preserve">1.02647888660431</t>
   </si>
   <si>
     <t xml:space="preserve">1.02181303501129</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.02259075641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995373487472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00548267364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00237226486206</t>
+    <t xml:space="preserve">0.995373427867889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00548279285431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00237214565277</t>
   </si>
   <si>
     <t xml:space="preserve">1.01248145103455</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.00159454345703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01714718341827</t>
+    <t xml:space="preserve">1.01714730262756</t>
   </si>
   <si>
     <t xml:space="preserve">1.03969871997833</t>
@@ -2093,31 +2093,31 @@
     <t xml:space="preserve">0.996151089668274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00081694126129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987597048282623</t>
+    <t xml:space="preserve">1.000816822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987597167491913</t>
   </si>
   <si>
     <t xml:space="preserve">0.965823292732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970489144325256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967378556728363</t>
+    <t xml:space="preserve">0.970489203929901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967378497123718</t>
   </si>
   <si>
     <t xml:space="preserve">0.998484075069427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991485238075256</t>
+    <t xml:space="preserve">0.991485297679901</t>
   </si>
   <si>
     <t xml:space="preserve">0.993040502071381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999261677265167</t>
+    <t xml:space="preserve">0.999261617660522</t>
   </si>
   <si>
     <t xml:space="preserve">1.02958941459656</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">1.0303670167923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581047058105</t>
+    <t xml:space="preserve">1.03581058979034</t>
   </si>
   <si>
     <t xml:space="preserve">1.08246862888336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05602896213531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10190963745117</t>
+    <t xml:space="preserve">1.0560290813446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10190951824188</t>
   </si>
   <si>
     <t xml:space="preserve">1.09413313865662</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">1.15789926052094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16645336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15090048313141</t>
+    <t xml:space="preserve">1.16645324230194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1509006023407</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612544536591</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">1.10968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13301491737366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13068199157715</t>
+    <t xml:space="preserve">1.13301503658295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13068211078644</t>
   </si>
   <si>
     <t xml:space="preserve">1.13145971298218</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">1.14467942714691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12368333339691</t>
+    <t xml:space="preserve">1.1236834526062</t>
   </si>
   <si>
     <t xml:space="preserve">1.10735297203064</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">1.11590695381165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12057280540466</t>
+    <t xml:space="preserve">1.12057268619537</t>
   </si>
   <si>
     <t xml:space="preserve">1.13534784317017</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.19678115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17345201969147</t>
+    <t xml:space="preserve">1.17345190048218</t>
   </si>
   <si>
     <t xml:space="preserve">1.18978226184845</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">1.22011005878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22088778018951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21077859401703</t>
+    <t xml:space="preserve">1.2208878993988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21077847480774</t>
   </si>
   <si>
     <t xml:space="preserve">1.19133758544922</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.25976955890656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27376699447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26987874507904</t>
+    <t xml:space="preserve">1.27376687526703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26987886428833</t>
   </si>
   <si>
     <t xml:space="preserve">1.27609992027283</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">1.33286726474762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34608697891235</t>
+    <t xml:space="preserve">1.34608709812164</t>
   </si>
   <si>
     <t xml:space="preserve">1.35852921009064</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">1.39896631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38807940483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37330424785614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35464096069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35619640350342</t>
+    <t xml:space="preserve">1.38807928562164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37330436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35464107990265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35619628429413</t>
   </si>
   <si>
     <t xml:space="preserve">1.33753311634064</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">1.3134263753891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28465378284454</t>
+    <t xml:space="preserve">1.28465390205383</t>
   </si>
   <si>
     <t xml:space="preserve">1.27143406867981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25821423530579</t>
+    <t xml:space="preserve">1.25821435451508</t>
   </si>
   <si>
     <t xml:space="preserve">1.25899183750153</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.25510370731354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23644053936005</t>
+    <t xml:space="preserve">1.23644042015076</t>
   </si>
   <si>
     <t xml:space="preserve">1.24343919754028</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">1.16412031650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15167808532715</t>
+    <t xml:space="preserve">1.15167820453644</t>
   </si>
   <si>
     <t xml:space="preserve">1.12757158279419</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">1.11823987960815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12135052680969</t>
+    <t xml:space="preserve">1.1213504076004</t>
   </si>
   <si>
     <t xml:space="preserve">1.12212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11357402801514</t>
+    <t xml:space="preserve">1.11357414722443</t>
   </si>
   <si>
     <t xml:space="preserve">1.10579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08868980407715</t>
+    <t xml:space="preserve">1.08868968486786</t>
   </si>
   <si>
     <t xml:space="preserve">1.11746227741241</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">1.14623475074768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10657525062561</t>
+    <t xml:space="preserve">1.1065753698349</t>
   </si>
   <si>
     <t xml:space="preserve">1.11201870441437</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.13923597335815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13379263877869</t>
+    <t xml:space="preserve">1.1337925195694</t>
   </si>
   <si>
     <t xml:space="preserve">1.05447375774384</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">1.04047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01403677463531</t>
+    <t xml:space="preserve">1.01403665542603</t>
   </si>
   <si>
     <t xml:space="preserve">1.01325905323029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996928691864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958824634552002</t>
+    <t xml:space="preserve">0.996928751468658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958824574947357</t>
   </si>
   <si>
     <t xml:space="preserve">0.942494213581085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948715388774872</t>
+    <t xml:space="preserve">0.948715329170227</t>
   </si>
   <si>
     <t xml:space="preserve">0.954936444759369</t>
@@ -2498,19 +2498,19 @@
     <t xml:space="preserve">1.00470507144928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990707635879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985264182090759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997706294059753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98370897769928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959602236747742</t>
+    <t xml:space="preserve">0.990707695484161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985264122486115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997706413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983708918094635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959602177143097</t>
   </si>
   <si>
     <t xml:space="preserve">0.884949207305908</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">0.88106107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894280850887299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855399072170258</t>
+    <t xml:space="preserve">0.894280791282654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855399131774902</t>
   </si>
   <si>
     <t xml:space="preserve">0.828181862831116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801742255687714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815739691257477</t>
+    <t xml:space="preserve">0.801742196083069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815739631652832</t>
   </si>
   <si>
     <t xml:space="preserve">0.752362310886383</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">0.678875803947449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.695594966411591</t>
+    <t xml:space="preserve">0.695595026016235</t>
   </si>
   <si>
     <t xml:space="preserve">0.687040984630585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683930456638336</t>
+    <t xml:space="preserve">0.683930397033691</t>
   </si>
   <si>
     <t xml:space="preserve">0.645048677921295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632217705249786</t>
+    <t xml:space="preserve">0.632217645645142</t>
   </si>
   <si>
     <t xml:space="preserve">0.592558324337006</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">0.612388014793396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611610352993011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575839042663574</t>
+    <t xml:space="preserve">0.611610293388367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575839102268219</t>
   </si>
   <si>
     <t xml:space="preserve">0.572339713573456</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">0.550177097320557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576227962970734</t>
+    <t xml:space="preserve">0.576227903366089</t>
   </si>
   <si>
     <t xml:space="preserve">0.565729856491089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.573506236076355</t>
+    <t xml:space="preserve">0.57350617647171</t>
   </si>
   <si>
     <t xml:space="preserve">0.567673921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660990178585052</t>
+    <t xml:space="preserve">0.660990238189697</t>
   </si>
   <si>
     <t xml:space="preserve">0.684319257736206</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.638049960136414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674209952354431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681208729743958</t>
+    <t xml:space="preserve">0.674210011959076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681208670139313</t>
   </si>
   <si>
     <t xml:space="preserve">0.657879650592804</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.643882215023041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640771687030792</t>
+    <t xml:space="preserve">0.640771627426147</t>
   </si>
   <si>
     <t xml:space="preserve">0.611999154090881</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">0.622108399868011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60577803850174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608111023902893</t>
+    <t xml:space="preserve">0.605778098106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608110964298248</t>
   </si>
   <si>
     <t xml:space="preserve">0.613165616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607333302497864</t>
+    <t xml:space="preserve">0.607333362102509</t>
   </si>
   <si>
     <t xml:space="preserve">0.626385390758514</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">0.621330797672272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598779380321503</t>
+    <t xml:space="preserve">0.598779320716858</t>
   </si>
   <si>
     <t xml:space="preserve">0.615498483181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559897541999817</t>
+    <t xml:space="preserve">0.559897601604462</t>
   </si>
   <si>
     <t xml:space="preserve">0.549399495124817</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">0.547844231128693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544344902038574</t>
+    <t xml:space="preserve">0.544344842433929</t>
   </si>
   <si>
     <t xml:space="preserve">0.547455430030823</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.57311737537384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59372466802597</t>
+    <t xml:space="preserve">0.593724727630615</t>
   </si>
   <si>
     <t xml:space="preserve">0.628329515457153</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">0.625996589660645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637661099433899</t>
+    <t xml:space="preserve">0.637661159038544</t>
   </si>
   <si>
     <t xml:space="preserve">0.61433207988739</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">0.654380261898041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632606446743011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585170686244965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586726009845734</t>
+    <t xml:space="preserve">0.632606506347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585170745849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586725950241089</t>
   </si>
   <si>
     <t xml:space="preserve">0.580893695354462</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">0.600334644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587892413139343</t>
+    <t xml:space="preserve">0.587892472743988</t>
   </si>
   <si>
     <t xml:space="preserve">0.580116093158722</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">0.576616764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583226680755615</t>
+    <t xml:space="preserve">0.58322662115097</t>
   </si>
   <si>
     <t xml:space="preserve">0.564563393592834</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">0.548233032226562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.541623175144196</t>
+    <t xml:space="preserve">0.541623115539551</t>
   </si>
   <si>
     <t xml:space="preserve">0.524903953075409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519460558891296</t>
+    <t xml:space="preserve">0.519460499286652</t>
   </si>
   <si>
     <t xml:space="preserve">0.515961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476690530776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489521533250809</t>
+    <t xml:space="preserve">0.4766905605793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489521563053131</t>
   </si>
   <si>
     <t xml:space="preserve">0.508962452411652</t>
@@ -2789,31 +2789,31 @@
     <t xml:space="preserve">0.491076827049255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50118613243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498464345932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486022174358368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497686743736267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48679980635643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477079421281815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474746435880661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459193736314774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444418698549271</t>
+    <t xml:space="preserve">0.501186072826385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498464375734329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48602220416069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497686713933945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486799836158752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477079391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474746465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459193795919418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444418668746948</t>
   </si>
   <si>
     <t xml:space="preserve">0.451806217432022</t>
@@ -2825,34 +2825,34 @@
     <t xml:space="preserve">0.485633373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478245824575424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49185448884964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508573591709137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467358946800232</t>
+    <t xml:space="preserve">0.478245854377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491854459047318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508573651313782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467358976602554</t>
   </si>
   <si>
     <t xml:space="preserve">0.455694437026978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463859558105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489132761955261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478634655475616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476301729679108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48252284526825</t>
+    <t xml:space="preserve">0.463859587907791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489132732152939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478634625673294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476301789283752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.482522875070572</t>
   </si>
   <si>
     <t xml:space="preserve">0.477857023477554</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">0.473580062389374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474357694387436</t>
+    <t xml:space="preserve">0.474357664585114</t>
   </si>
   <si>
     <t xml:space="preserve">0.46036022901535</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">0.464637249708176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463470757007599</t>
+    <t xml:space="preserve">0.463470786809921</t>
   </si>
   <si>
     <t xml:space="preserve">0.458027333021164</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">0.446751624345779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438975244760513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.436253517866135</t>
+    <t xml:space="preserve">0.438975214958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.436253547668457</t>
   </si>
   <si>
     <t xml:space="preserve">0.432754188776016</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">0.374820321798325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360200762748718</t>
+    <t xml:space="preserve">0.360200792551041</t>
   </si>
   <si>
     <t xml:space="preserve">0.355068385601044</t>
@@ -2933,22 +2933,22 @@
     <t xml:space="preserve">0.337649345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345892280340195</t>
+    <t xml:space="preserve">0.345892250537872</t>
   </si>
   <si>
     <t xml:space="preserve">0.331894844770432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346669912338257</t>
+    <t xml:space="preserve">0.346669942140579</t>
   </si>
   <si>
     <t xml:space="preserve">0.369376868009567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373576104640961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388040125370026</t>
+    <t xml:space="preserve">0.373576074838638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388040155172348</t>
   </si>
   <si>
     <t xml:space="preserve">0.396594107151031</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">0.36035630106926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34184855222702</t>
+    <t xml:space="preserve">0.341848582029343</t>
   </si>
   <si>
     <t xml:space="preserve">0.323962956666946</t>
@@ -2981,10 +2981,10 @@
     <t xml:space="preserve">0.337182760238647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359423130750656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351802289485931</t>
+    <t xml:space="preserve">0.359423100948334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351802319288254</t>
   </si>
   <si>
     <t xml:space="preserve">0.386484861373901</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">0.358645498752594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336405128240585</t>
+    <t xml:space="preserve">0.336405098438263</t>
   </si>
   <si>
     <t xml:space="preserve">0.341693043708801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356001526117325</t>
+    <t xml:space="preserve">0.356001555919647</t>
   </si>
   <si>
     <t xml:space="preserve">0.35413521528244</t>
@@ -3029,28 +3029,28 @@
     <t xml:space="preserve">0.390373021364212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417979091405869</t>
+    <t xml:space="preserve">0.417979121208191</t>
   </si>
   <si>
     <t xml:space="preserve">0.421478450298309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445585161447525</t>
+    <t xml:space="preserve">0.445585191249847</t>
   </si>
   <si>
     <t xml:space="preserve">0.437419980764389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440141677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462693154811859</t>
+    <t xml:space="preserve">0.440141707658768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462693125009537</t>
   </si>
   <si>
     <t xml:space="preserve">0.461137861013412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437031120061874</t>
+    <t xml:space="preserve">0.437031149864197</t>
   </si>
   <si>
     <t xml:space="preserve">0.419145524501801</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">0.45025098323822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446362763643265</t>
+    <t xml:space="preserve">0.446362793445587</t>
   </si>
   <si>
     <t xml:space="preserve">0.454139143228531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452972680330276</t>
+    <t xml:space="preserve">0.452972650527954</t>
   </si>
   <si>
     <t xml:space="preserve">0.457638502120972</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">0.472024768590927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448306888341904</t>
+    <t xml:space="preserve">0.448306858539581</t>
   </si>
   <si>
     <t xml:space="preserve">0.452583879232407</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">0.457249671220779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465803682804108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.461526721715927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462304323911667</t>
+    <t xml:space="preserve">0.465803653001785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.461526691913605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462304294109344</t>
   </si>
   <si>
     <t xml:space="preserve">0.472413599491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49613144993782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500408470630646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494187384843826</t>
+    <t xml:space="preserve">0.496131479740143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500408411026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494187414646149</t>
   </si>
   <si>
     <t xml:space="preserve">0.48213404417038</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">0.465414851903915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479801118373871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47046947479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.449084490537643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419923216104507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.432365328073502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430421262979507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431976497173309</t>
+    <t xml:space="preserve">0.479801088571548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.470469504594803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449084520339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419923186302185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.432365357875824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430421233177185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431976526975632</t>
   </si>
   <si>
     <t xml:space="preserve">0.421867281198502</t>
@@ -3146,19 +3146,19 @@
     <t xml:space="preserve">0.43119889497757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440919309854507</t>
+    <t xml:space="preserve">0.44091933965683</t>
   </si>
   <si>
     <t xml:space="preserve">0.442863434553146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466581344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566896319389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521404564380646</t>
+    <t xml:space="preserve">0.46658131480217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566896259784698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521404623985291</t>
   </si>
   <si>
     <t xml:space="preserve">0.530347406864166</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">0.500797271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494576156139374</t>
+    <t xml:space="preserve">0.494576185941696</t>
   </si>
   <si>
     <t xml:space="preserve">0.507795989513397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507018387317657</t>
+    <t xml:space="preserve">0.507018327713013</t>
   </si>
   <si>
     <t xml:space="preserve">0.504685461521149</t>
@@ -3209,40 +3209,40 @@
     <t xml:space="preserve">0.524126350879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513239502906799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50274133682251</t>
+    <t xml:space="preserve">0.513239443302155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502741396427155</t>
   </si>
   <si>
     <t xml:space="preserve">0.49652025103569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487577468156815</t>
+    <t xml:space="preserve">0.487577438354492</t>
   </si>
   <si>
     <t xml:space="preserve">0.480578750371933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493409782648087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485244572162628</t>
+    <t xml:space="preserve">0.493409723043442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485244601964951</t>
   </si>
   <si>
     <t xml:space="preserve">0.487188667058945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449473321437836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448695719242096</t>
+    <t xml:space="preserve">0.449473351240158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448695689439774</t>
   </si>
   <si>
     <t xml:space="preserve">0.44776251912117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446673840284348</t>
+    <t xml:space="preserve">0.44667387008667</t>
   </si>
   <si>
     <t xml:space="preserve">0.442630112171173</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">0.459427058696747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451184123754501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460982352495193</t>
+    <t xml:space="preserve">0.451184153556824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460982322692871</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096727132797</t>
@@ -3266,31 +3266,31 @@
     <t xml:space="preserve">0.449006766080856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450406521558762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456938624382019</t>
+    <t xml:space="preserve">0.450406551361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456938654184341</t>
   </si>
   <si>
     <t xml:space="preserve">0.442474603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461759984493256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446829348802567</t>
+    <t xml:space="preserve">0.461760014295578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446829319000244</t>
   </si>
   <si>
     <t xml:space="preserve">0.451961755752563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464714974164963</t>
+    <t xml:space="preserve">0.46471494436264</t>
   </si>
   <si>
     <t xml:space="preserve">0.458338350057602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453517019748688</t>
+    <t xml:space="preserve">0.453516989946365</t>
   </si>
   <si>
     <t xml:space="preserve">0.454916775226593</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">0.459115982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479178994894028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.495353817939758</t>
+    <t xml:space="preserve">0.479178965091705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.495353847742081</t>
   </si>
   <si>
     <t xml:space="preserve">0.527236878871918</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">0.526303708553314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534546673297882</t>
+    <t xml:space="preserve">0.534546613693237</t>
   </si>
   <si>
     <t xml:space="preserve">0.545589089393616</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">0.548077523708344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553209900856018</t>
+    <t xml:space="preserve">0.553209841251373</t>
   </si>
   <si>
     <t xml:space="preserve">0.57031786441803</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">0.57684999704361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60640013217926</t>
+    <t xml:space="preserve">0.606400191783905</t>
   </si>
   <si>
     <t xml:space="preserve">0.591003000736237</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">0.668610990047455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671566009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675143122673035</t>
+    <t xml:space="preserve">0.671566069126129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675143182277679</t>
   </si>
   <si>
     <t xml:space="preserve">0.671099424362183</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">0.655391216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649325668811798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650258839130402</t>
+    <t xml:space="preserve">0.649325609207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650258779525757</t>
   </si>
   <si>
     <t xml:space="preserve">0.629884779453278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613709986209869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590380907058716</t>
+    <t xml:space="preserve">0.613709926605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590380847454071</t>
   </si>
   <si>
     <t xml:space="preserve">0.586959302425385</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">0.597535133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58182692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552276790142059</t>
+    <t xml:space="preserve">0.581826865673065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552276730537415</t>
   </si>
   <si>
     <t xml:space="preserve">0.556009352207184</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">0.524592936038971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511839747428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500330686569214</t>
+    <t xml:space="preserve">0.511839687824249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500330746173859</t>
   </si>
   <si>
     <t xml:space="preserve">0.508729159832001</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">0.508107006549835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504529893398285</t>
+    <t xml:space="preserve">0.50452995300293</t>
   </si>
   <si>
     <t xml:space="preserve">0.507951498031616</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">0.506551802158356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497064620256424</t>
+    <t xml:space="preserve">0.497064590454102</t>
   </si>
   <si>
     <t xml:space="preserve">0.520860254764557</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">0.505774140357971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503285706043243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511995255947113</t>
+    <t xml:space="preserve">0.503285646438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511995196342468</t>
   </si>
   <si>
     <t xml:space="preserve">0.51246178150177</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">0.510595500469208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.52117133140564</t>
+    <t xml:space="preserve">0.521171271800995</t>
   </si>
   <si>
     <t xml:space="preserve">0.509817838668823</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">0.505463063716888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51743870973587</t>
+    <t xml:space="preserve">0.517438650131226</t>
   </si>
   <si>
     <t xml:space="preserve">0.517283141613007</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">0.500486195087433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494109630584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5203937292099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525215089321136</t>
+    <t xml:space="preserve">0.494109600782394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.520393669605255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525215029716492</t>
   </si>
   <si>
     <t xml:space="preserve">0.516038954257965</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">0.54496693611145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551965653896332</t>
+    <t xml:space="preserve">0.551965713500977</t>
   </si>
   <si>
     <t xml:space="preserve">0.541545391082764</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">0.549166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53781270980835</t>
+    <t xml:space="preserve">0.537812769412994</t>
   </si>
   <si>
     <t xml:space="preserve">0.553831994533539</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">0.567984998226166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583071112632751</t>
+    <t xml:space="preserve">0.583071172237396</t>
   </si>
   <si>
     <t xml:space="preserve">0.623663723468781</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">0.609821796417236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623352587223053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656168818473816</t>
+    <t xml:space="preserve">0.623352646827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656168878078461</t>
   </si>
   <si>
     <t xml:space="preserve">0.669388651847839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633928418159485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573583960533142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583848714828491</t>
+    <t xml:space="preserve">0.63392847776413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573584020137787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583848774433136</t>
   </si>
   <si>
     <t xml:space="preserve">0.589447736740112</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">0.552121222019196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557098150253296</t>
+    <t xml:space="preserve">0.557098090648651</t>
   </si>
   <si>
     <t xml:space="preserve">0.563008069992065</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">0.542167484760284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523659706115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522726595401764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502663612365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492865413427353</t>
+    <t xml:space="preserve">0.523659765720367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522726655006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502663552761078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492865383625031</t>
   </si>
   <si>
     <t xml:space="preserve">0.499553054571152</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">0.4955093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48975482583046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507484972476959</t>
+    <t xml:space="preserve">0.489754885435104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507484912872314</t>
   </si>
   <si>
     <t xml:space="preserve">0.523348689079285</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">0.52474844455719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513550460338593</t>
+    <t xml:space="preserve">0.513550519943237</t>
   </si>
   <si>
     <t xml:space="preserve">0.493643045425415</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">0.461293399333954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464092880487442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435786962509155</t>
+    <t xml:space="preserve">0.464092910289764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435786932706833</t>
   </si>
   <si>
     <t xml:space="preserve">0.432054281234741</t>
@@ -3683,19 +3683,19 @@
     <t xml:space="preserve">0.417745798826218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450095444917679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452739417552948</t>
+    <t xml:space="preserve">0.450095474720001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452739387750626</t>
   </si>
   <si>
     <t xml:space="preserve">0.43843087553978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435475885868073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430654525756836</t>
+    <t xml:space="preserve">0.43547585606575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430654555559158</t>
   </si>
   <si>
     <t xml:space="preserve">0.42536661028862</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">0.41525736451149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427232950925827</t>
+    <t xml:space="preserve">0.427232921123505</t>
   </si>
   <si>
     <t xml:space="preserve">0.424277931451797</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">0.412457853555679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422878175973892</t>
+    <t xml:space="preserve">0.422878205776215</t>
   </si>
   <si>
     <t xml:space="preserve">0.422722697257996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434542715549469</t>
+    <t xml:space="preserve">0.434542685747147</t>
   </si>
   <si>
     <t xml:space="preserve">0.424900054931641</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">0.43407616019249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436564594507217</t>
+    <t xml:space="preserve">0.436564564704895</t>
   </si>
   <si>
     <t xml:space="preserve">0.440608292818069</t>
@@ -3743,37 +3743,37 @@
     <t xml:space="preserve">0.443252235651016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462071001529694</t>
+    <t xml:space="preserve">0.462071031332016</t>
   </si>
   <si>
     <t xml:space="preserve">0.456005454063416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45647206902504</t>
+    <t xml:space="preserve">0.456472039222717</t>
   </si>
   <si>
     <t xml:space="preserve">0.446207284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453205943107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448851227760315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430032432079315</t>
+    <t xml:space="preserve">0.453205972909927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448851197957993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430032402276993</t>
   </si>
   <si>
     <t xml:space="preserve">0.443563312292099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457405209541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452117264270782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427543967962265</t>
+    <t xml:space="preserve">0.457405179738998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452117294073105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.427543997764587</t>
   </si>
   <si>
     <t xml:space="preserve">0.423344761133194</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">0.472802400588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466270238161087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480423212051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455227822065353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.441696971654892</t>
+    <t xml:space="preserve">0.466270297765732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480423241853714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455227792263031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441697001457214</t>
   </si>
   <si>
     <t xml:space="preserve">0.386173814535141</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">0.42863267660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40872523188591</t>
+    <t xml:space="preserve">0.408725261688232</t>
   </si>
   <si>
     <t xml:space="preserve">0.411058127880096</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">0.436098009347916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451495200395584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478401392698288</t>
+    <t xml:space="preserve">0.451495170593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478401362895966</t>
   </si>
   <si>
     <t xml:space="preserve">0.468914210796356</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">0.467203408479691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513083875179291</t>
+    <t xml:space="preserve">0.513083934783936</t>
   </si>
   <si>
     <t xml:space="preserve">0.515883386135101</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">0.54792195558548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542634010314941</t>
+    <t xml:space="preserve">0.542634069919586</t>
   </si>
   <si>
     <t xml:space="preserve">0.537346124649048</t>
@@ -3863,22 +3863,22 @@
     <t xml:space="preserve">0.551810145378113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572028696537018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619775474071503</t>
+    <t xml:space="preserve">0.572028636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619775533676147</t>
   </si>
   <si>
     <t xml:space="preserve">0.64403772354126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671877145767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705626487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705937564373016</t>
+    <t xml:space="preserve">0.671877086162567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705626428127289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705937504768372</t>
   </si>
   <si>
     <t xml:space="preserve">0.72786682844162</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">0.658968329429626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.639216363430023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662545502185822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682452976703644</t>
+    <t xml:space="preserve">0.639216423034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662545442581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682452917098999</t>
   </si>
   <si>
     <t xml:space="preserve">0.693650901317596</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">0.755084097385406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821183145046234</t>
+    <t xml:space="preserve">0.821183085441589</t>
   </si>
   <si>
     <t xml:space="preserve">0.744352698326111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771258890628815</t>
+    <t xml:space="preserve">0.771258950233459</t>
   </si>
   <si>
     <t xml:space="preserve">0.776546835899353</t>
@@ -3929,10 +3929,10 @@
     <t xml:space="preserve">0.765659928321838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835958182811737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880672216415405</t>
+    <t xml:space="preserve">0.835958242416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88067227602005</t>
   </si>
   <si>
     <t xml:space="preserve">0.936661899089813</t>
@@ -3944,22 +3944,22 @@
     <t xml:space="preserve">0.886893272399902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898168981075287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89155912399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918776392936707</t>
+    <t xml:space="preserve">0.898169040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891559064388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918776273727417</t>
   </si>
   <si>
     <t xml:space="preserve">0.897002577781677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925775170326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989152312278748</t>
+    <t xml:space="preserve">0.925775110721588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989152371883392</t>
   </si>
   <si>
     <t xml:space="preserve">0.989930033683777</t>
@@ -3986,10 +3986,10 @@
     <t xml:space="preserve">1.01442551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970877885818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976321339607239</t>
+    <t xml:space="preserve">0.970877945423126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976321399211884</t>
   </si>
   <si>
     <t xml:space="preserve">0.960768640041351</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">0.977487802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0241459608078</t>
+    <t xml:space="preserve">1.02414608001709</t>
   </si>
   <si>
     <t xml:space="preserve">1.11046350002289</t>
@@ -4028,19 +4028,19 @@
     <t xml:space="preserve">1.00859332084656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932598114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896224915981293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879116892814636</t>
+    <t xml:space="preserve">0.975932538509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896224975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879116952419281</t>
   </si>
   <si>
     <t xml:space="preserve">0.838291049003601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879505813121796</t>
+    <t xml:space="preserve">0.879505753517151</t>
   </si>
   <si>
     <t xml:space="preserve">0.903612434864044</t>
@@ -4055,37 +4055,37 @@
     <t xml:space="preserve">0.897780239582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919942855834961</t>
+    <t xml:space="preserve">0.919942796230316</t>
   </si>
   <si>
     <t xml:space="preserve">0.969711542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988763570785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961546361446381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04319798946381</t>
+    <t xml:space="preserve">0.988763511180878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961546301841736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0431981086731</t>
   </si>
   <si>
     <t xml:space="preserve">0.945604801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870951771736145</t>
+    <t xml:space="preserve">0.8709517121315</t>
   </si>
   <si>
     <t xml:space="preserve">0.827793002128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869785308837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839846432209015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845289766788483</t>
+    <t xml:space="preserve">0.869785368442535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83984637260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845289826393127</t>
   </si>
   <si>
     <t xml:space="preserve">0.862397789955139</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">0.908278286457062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924608647823334</t>
+    <t xml:space="preserve">0.924608588218689</t>
   </si>
   <si>
     <t xml:space="preserve">1.00314974784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05097448825836</t>
+    <t xml:space="preserve">1.05097436904907</t>
   </si>
   <si>
     <t xml:space="preserve">1.03658807277679</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">1.01831364631653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940938949584961</t>
+    <t xml:space="preserve">0.940939009189606</t>
   </si>
   <si>
     <t xml:space="preserve">0.949881851673126</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">0.854232609272003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874062240123749</t>
+    <t xml:space="preserve">0.874062299728394</t>
   </si>
   <si>
     <t xml:space="preserve">0.878339350223541</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">0.76690411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770325779914856</t>
+    <t xml:space="preserve">0.770325720310211</t>
   </si>
   <si>
     <t xml:space="preserve">0.770481288433075</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">0.78852242231369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779579699039459</t>
+    <t xml:space="preserve">0.779579639434814</t>
   </si>
   <si>
     <t xml:space="preserve">0.724911868572235</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">0.737353980541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.758194625377655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814962029457092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84956681728363</t>
+    <t xml:space="preserve">0.7581946849823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814961969852448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849566757678986</t>
   </si>
   <si>
     <t xml:space="preserve">0.807185649871826</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">0.797854006290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820016622543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81923907995224</t>
+    <t xml:space="preserve">0.82001668214798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819239020347595</t>
   </si>
   <si>
     <t xml:space="preserve">0.844901025295258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854621410369873</t>
+    <t xml:space="preserve">0.854621469974518</t>
   </si>
   <si>
     <t xml:space="preserve">0.865508377552032</t>
@@ -4229,16 +4229,16 @@
     <t xml:space="preserve">0.944049537181854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947548925876617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956102907657623</t>
+    <t xml:space="preserve">0.947548866271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956102848052979</t>
   </si>
   <si>
     <t xml:space="preserve">0.935106694698334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967767417430878</t>
+    <t xml:space="preserve">0.967767477035522</t>
   </si>
   <si>
     <t xml:space="preserve">0.926163911819458</t>
@@ -4259,25 +4259,25 @@
     <t xml:space="preserve">0.998872816562653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954158842563629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937439620494843</t>
+    <t xml:space="preserve">0.954158782958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937439560890198</t>
   </si>
   <si>
     <t xml:space="preserve">0.89194792509079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882616281509399</t>
+    <t xml:space="preserve">0.882616341114044</t>
   </si>
   <si>
     <t xml:space="preserve">0.858509600162506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836347043514252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815350770950317</t>
+    <t xml:space="preserve">0.836346983909607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815350830554962</t>
   </si>
   <si>
     <t xml:space="preserve">0.832070052623749</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">0.824682474136353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829348206520081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816906094551086</t>
+    <t xml:space="preserve">0.829348266124725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816906154155731</t>
   </si>
   <si>
     <t xml:space="preserve">0.849955677986145</t>
@@ -4298,13 +4298,13 @@
     <t xml:space="preserve">0.851510882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872507035732269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868618905544281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897391438484192</t>
+    <t xml:space="preserve">0.872507095336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868618845939636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897391378879547</t>
   </si>
   <si>
     <t xml:space="preserve">0.893503248691559</t>
@@ -4316,22 +4316,22 @@
     <t xml:space="preserve">0.926552653312683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912944138050079</t>
+    <t xml:space="preserve">0.912944078445435</t>
   </si>
   <si>
     <t xml:space="preserve">0.937828421592712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952214598655701</t>
+    <t xml:space="preserve">0.952214658260345</t>
   </si>
   <si>
     <t xml:space="preserve">0.971655607223511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988374769687653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0556401014328</t>
+    <t xml:space="preserve">0.988374829292297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05564022064209</t>
   </si>
   <si>
     <t xml:space="preserve">1.12290573120117</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">1.18006193637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19211530685425</t>
+    <t xml:space="preserve">1.19211518764496</t>
   </si>
   <si>
     <t xml:space="preserve">1.18667185306549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20494627952576</t>
+    <t xml:space="preserve">1.20494616031647</t>
   </si>
   <si>
     <t xml:space="preserve">1.15128934383392</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.23799574375153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698682785034</t>
+    <t xml:space="preserve">1.28698670864105</t>
   </si>
   <si>
     <t xml:space="preserve">1.14001369476318</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">1.12873804569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15362226963043</t>
+    <t xml:space="preserve">1.15362238883972</t>
   </si>
   <si>
     <t xml:space="preserve">1.16684210300446</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">1.16606450080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15245592594147</t>
+    <t xml:space="preserve">1.15245580673218</t>
   </si>
   <si>
     <t xml:space="preserve">1.10463130474091</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">1.10929703712463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0960773229599</t>
+    <t xml:space="preserve">1.09607720375061</t>
   </si>
   <si>
     <t xml:space="preserve">1.03853225708008</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">1.09491086006165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15401113033295</t>
+    <t xml:space="preserve">1.15401101112366</t>
   </si>
   <si>
     <t xml:space="preserve">1.08985614776611</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">1.08052456378937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02686774730682</t>
+    <t xml:space="preserve">1.02686762809753</t>
   </si>
   <si>
     <t xml:space="preserve">1.02064669132233</t>
@@ -4469,28 +4469,28 @@
     <t xml:space="preserve">1.02803421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00353860855103</t>
+    <t xml:space="preserve">1.00353872776031</t>
   </si>
   <si>
     <t xml:space="preserve">0.99459582567215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986819565296173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973210871219635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956491649150848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966212093830109</t>
+    <t xml:space="preserve">0.986819446086884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97321081161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956491708755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966212153434753</t>
   </si>
   <si>
     <t xml:space="preserve">0.953769981861115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940161347389221</t>
+    <t xml:space="preserve">0.940161287784576</t>
   </si>
   <si>
     <t xml:space="preserve">0.933551430702209</t>
@@ -4502,31 +4502,31 @@
     <t xml:space="preserve">0.912555277347565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880283355712891</t>
+    <t xml:space="preserve">0.880283415317535</t>
   </si>
   <si>
     <t xml:space="preserve">0.853066146373749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892336785793304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916832268238068</t>
+    <t xml:space="preserve">0.89233672618866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916832327842712</t>
   </si>
   <si>
     <t xml:space="preserve">0.889226198196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933162689208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933940172195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980987250804901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960379898548126</t>
+    <t xml:space="preserve">0.93316262960434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933940291404724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980987191200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960379838943481</t>
   </si>
   <si>
     <t xml:space="preserve">0.98448657989502</t>
@@ -61959,7 +61959,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6495486111</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>946352</v>
@@ -61980,6 +61980,32 @@
         <v>1741</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6495023148</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>753287</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>1.62349998950958</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>1.61699998378754</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>1.61800003051758</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>1.62000000476837</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1747">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">SRS.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982317924499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985255420207977</t>
+    <t xml:space="preserve">0.982317805290222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985255360603333</t>
   </si>
   <si>
     <t xml:space="preserve">0.960579931735992</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964105069637299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993480682373047</t>
+    <t xml:space="preserve">0.964104950428009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993480563163757</t>
   </si>
   <si>
     <t xml:space="preserve">0.992893099784851</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">1.04576909542084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04165649414062</t>
+    <t xml:space="preserve">1.04165637493134</t>
   </si>
   <si>
     <t xml:space="preserve">1.02814364433289</t>
@@ -74,25 +74,25 @@
     <t xml:space="preserve">1.03695631027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05693173408508</t>
+    <t xml:space="preserve">1.0569314956665</t>
   </si>
   <si>
     <t xml:space="preserve">1.02579367160797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07749438285828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08101963996887</t>
+    <t xml:space="preserve">1.07749462127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08101952075958</t>
   </si>
   <si>
     <t xml:space="preserve">1.13565814495087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14564573764801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1468209028244</t>
+    <t xml:space="preserve">1.1456458568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14682078361511</t>
   </si>
   <si>
     <t xml:space="preserve">1.11509525775909</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">1.1403580904007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11098253726959</t>
+    <t xml:space="preserve">1.11098265647888</t>
   </si>
   <si>
     <t xml:space="preserve">1.09100723266602</t>
@@ -116,55 +116,55 @@
     <t xml:space="preserve">0.957642376422882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853653013706207</t>
+    <t xml:space="preserve">0.853652954101562</t>
   </si>
   <si>
     <t xml:space="preserve">0.829565048217773</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840140163898468</t>
+    <t xml:space="preserve">0.840140223503113</t>
   </si>
   <si>
     <t xml:space="preserve">0.810764729976654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816639840602875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873040795326233</t>
+    <t xml:space="preserve">0.81663978099823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873040854930878</t>
   </si>
   <si>
     <t xml:space="preserve">0.86364072561264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872453272342682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887728631496429</t>
+    <t xml:space="preserve">0.872453391551971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887728691101074</t>
   </si>
   <si>
     <t xml:space="preserve">0.881853580474854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86070317029953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842490255832672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850127995014191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94001704454422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90417891740799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916516542434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895366251468658</t>
+    <t xml:space="preserve">0.860703229904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842490315437317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850127935409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94001716375351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904178977012634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916516482830048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895366311073303</t>
   </si>
   <si>
     <t xml:space="preserve">0.851890504360199</t>
@@ -182,13 +182,13 @@
     <t xml:space="preserve">0.757888734340668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831914961338043</t>
+    <t xml:space="preserve">0.831915140151978</t>
   </si>
   <si>
     <t xml:space="preserve">0.820164859294891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817814886569977</t>
+    <t xml:space="preserve">0.817814826965332</t>
   </si>
   <si>
     <t xml:space="preserve">0.828390002250671</t>
@@ -197,49 +197,49 @@
     <t xml:space="preserve">0.833677589893341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823102414608002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817227423191071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827214956283569</t>
+    <t xml:space="preserve">0.823102474212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817227303981781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827215015888214</t>
   </si>
   <si>
     <t xml:space="preserve">0.828977584838867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843077719211578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865403115749359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837790131568909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830739915370941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84660279750824</t>
+    <t xml:space="preserve">0.843077778816223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865403234958649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837790191173553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830740094184875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846602857112885</t>
   </si>
   <si>
     <t xml:space="preserve">0.848952949047089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860115587711334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846015334129333</t>
+    <t xml:space="preserve">0.860115647315979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846015393733978</t>
   </si>
   <si>
     <t xml:space="preserve">0.834265053272247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822514891624451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845427751541138</t>
+    <t xml:space="preserve">0.82251501083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845427811145782</t>
   </si>
   <si>
     <t xml:space="preserve">0.868340730667114</t>
@@ -248,16 +248,16 @@
     <t xml:space="preserve">0.92062920331955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915929138660431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941486358643</t>
+    <t xml:space="preserve">0.915929198265076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941426753998</t>
   </si>
   <si>
     <t xml:space="preserve">0.893016159534454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886553585529327</t>
+    <t xml:space="preserve">0.886553406715393</t>
   </si>
   <si>
     <t xml:space="preserve">0.866578221321106</t>
@@ -269,13 +269,13 @@
     <t xml:space="preserve">0.882440984249115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864228188991547</t>
+    <t xml:space="preserve">0.864228069782257</t>
   </si>
   <si>
     <t xml:space="preserve">0.835440218448639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826039969921112</t>
+    <t xml:space="preserve">0.826040029525757</t>
   </si>
   <si>
     <t xml:space="preserve">0.83015251159668</t>
@@ -284,22 +284,22 @@
     <t xml:space="preserve">0.831327557563782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9071164727211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924741744995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945304691791534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937079548835754</t>
+    <t xml:space="preserve">0.907116591930389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924741864204407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945304572582245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937079668045044</t>
   </si>
   <si>
     <t xml:space="preserve">0.92885434627533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961769104003906</t>
+    <t xml:space="preserve">0.961769163608551</t>
   </si>
   <si>
     <t xml:space="preserve">0.98744261264801</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">0.994025528430939</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03483986854553</t>
+    <t xml:space="preserve">1.03483998775482</t>
   </si>
   <si>
     <t xml:space="preserve">1.04010629653931</t>
@@ -320,49 +320,49 @@
     <t xml:space="preserve">1.03615653514862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05327200889587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05261373519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05458867549896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05393028259277</t>
+    <t xml:space="preserve">1.05327224731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05261397361755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05458879470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05393052101135</t>
   </si>
   <si>
     <t xml:space="preserve">1.07367932796478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11646854877472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09276974201202</t>
+    <t xml:space="preserve">1.11646842956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09276986122131</t>
   </si>
   <si>
     <t xml:space="preserve">1.03878962993622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02299058437347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982834577560425</t>
+    <t xml:space="preserve">1.02299070358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98283463716507</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367254734039</t>
+    <t xml:space="preserve">0.993367195129395</t>
   </si>
   <si>
     <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07565426826477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07302105426788</t>
+    <t xml:space="preserve">1.07565414905548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07302093505859</t>
   </si>
   <si>
     <t xml:space="preserve">1.10132765769958</t>
@@ -371,13 +371,13 @@
     <t xml:space="preserve">1.015749335289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959136009216309</t>
+    <t xml:space="preserve">0.959135949611664</t>
   </si>
   <si>
     <t xml:space="preserve">0.977568209171295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972301840782166</t>
+    <t xml:space="preserve">0.972301781177521</t>
   </si>
   <si>
     <t xml:space="preserve">1.02628207206726</t>
@@ -389,28 +389,28 @@
     <t xml:space="preserve">1.02035737037659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961110889911652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938728749752045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936095595359802</t>
+    <t xml:space="preserve">0.961110949516296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938728868961334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936095654964447</t>
   </si>
   <si>
     <t xml:space="preserve">0.956502735614777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951894700527191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936753928661346</t>
+    <t xml:space="preserve">0.951894640922546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936753869056702</t>
   </si>
   <si>
     <t xml:space="preserve">0.946628212928772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939387083053589</t>
+    <t xml:space="preserve">0.939387202262878</t>
   </si>
   <si>
     <t xml:space="preserve">0.949919760227203</t>
@@ -419,94 +419,94 @@
     <t xml:space="preserve">0.948603212833405</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974276721477509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954527854919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997975409030914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9235879778862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836034834384918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809702932834625</t>
+    <t xml:space="preserve">0.974276661872864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954527974128723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997975528240204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923588037490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836034715175629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80970299243927</t>
   </si>
   <si>
     <t xml:space="preserve">0.832085072994232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851833999156952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88869833946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884090304374695</t>
+    <t xml:space="preserve">0.851833820343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888698399066925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884090423583984</t>
   </si>
   <si>
     <t xml:space="preserve">0.871582686901093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873557686805725</t>
+    <t xml:space="preserve">0.873557507991791</t>
   </si>
   <si>
     <t xml:space="preserve">0.880798876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886723399162292</t>
+    <t xml:space="preserve">0.886723518371582</t>
   </si>
   <si>
     <t xml:space="preserve">0.890673339366913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870924413204193</t>
+    <t xml:space="preserve">0.870924353599548</t>
   </si>
   <si>
     <t xml:space="preserve">0.866974651813507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884748518466949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88343209028244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87421590089798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870266139507294</t>
+    <t xml:space="preserve">0.884748637676239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883432030677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874215841293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870266079902649</t>
   </si>
   <si>
     <t xml:space="preserve">0.864341497421265</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881457149982452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882773637771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887381732463837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880140602588654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613216400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934778928756714</t>
+    <t xml:space="preserve">0.881457209587097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882773756980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887381911277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880140483379364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613156795502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934778988361359</t>
   </si>
   <si>
     <t xml:space="preserve">0.947944939136505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947286546230316</t>
+    <t xml:space="preserve">0.947286605834961</t>
   </si>
   <si>
     <t xml:space="preserve">0.932145833969116</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">0.902522683143616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895281255245209</t>
+    <t xml:space="preserve">0.895281314849854</t>
   </si>
   <si>
     <t xml:space="preserve">0.90318089723587</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">0.917005062103271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940045297145844</t>
+    <t xml:space="preserve">0.940045416355133</t>
   </si>
   <si>
     <t xml:space="preserve">0.934120714664459</t>
@@ -533,46 +533,46 @@
     <t xml:space="preserve">0.911080360412598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912397146224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913713693618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931487560272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918980062007904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909763813018799</t>
+    <t xml:space="preserve">0.912397027015686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913713574409485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931487500667572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91897988319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909763753414154</t>
   </si>
   <si>
     <t xml:space="preserve">0.926879465579987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920296549797058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938070476055145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964402318000793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970327019691467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988759160041809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984151124954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992708921432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04142272472382</t>
+    <t xml:space="preserve">0.920296609401703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9380704164505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964402377605438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970326900482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988759219646454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984151184558868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99270898103714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0414229631424</t>
   </si>
   <si>
     <t xml:space="preserve">1.03549814224243</t>
@@ -581,13 +581,13 @@
     <t xml:space="preserve">1.03154838085175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05919671058655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03813135623932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03023183345795</t>
+    <t xml:space="preserve">1.05919682979584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03813147544861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03023171424866</t>
   </si>
   <si>
     <t xml:space="preserve">1.02167403697968</t>
@@ -596,10 +596,10 @@
     <t xml:space="preserve">1.03418159484863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01838266849518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03352332115173</t>
+    <t xml:space="preserve">1.01838254928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03352320194244</t>
   </si>
   <si>
     <t xml:space="preserve">1.04208111763</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">1.01443266868591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09211146831512</t>
+    <t xml:space="preserve">1.09211158752441</t>
   </si>
   <si>
     <t xml:space="preserve">1.08618688583374</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">1.09013676643372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0993527173996</t>
+    <t xml:space="preserve">1.09935283660889</t>
   </si>
   <si>
     <t xml:space="preserve">1.08750343322754</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">1.07960391044617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05788016319275</t>
+    <t xml:space="preserve">1.05788028240204</t>
   </si>
   <si>
     <t xml:space="preserve">1.06380486488342</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">1.13819217681885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11120200157166</t>
+    <t xml:space="preserve">1.11120212078094</t>
   </si>
   <si>
     <t xml:space="preserve">1.123051404953</t>
@@ -644,13 +644,13 @@
     <t xml:space="preserve">1.08421194553375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07697081565857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09145319461823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.096719622612</t>
+    <t xml:space="preserve">1.07697069644928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09145331382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09671974182129</t>
   </si>
   <si>
     <t xml:space="preserve">1.11778509616852</t>
@@ -659,25 +659,25 @@
     <t xml:space="preserve">1.13095092773438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11186039447784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12568473815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13226747512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13885056972504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13621735572815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14543342590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14740824699402</t>
+    <t xml:space="preserve">1.11186051368713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1256844997406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13226759433746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13885045051575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13621723651886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14543330669403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14740836620331</t>
   </si>
   <si>
     <t xml:space="preserve">1.15596616268158</t>
@@ -689,31 +689,31 @@
     <t xml:space="preserve">1.14082539081573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11910176277161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12436807155609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12831783294678</t>
+    <t xml:space="preserve">1.11910164356232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1243679523468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12831771373749</t>
   </si>
   <si>
     <t xml:space="preserve">1.09079492092133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09737801551819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08684527873993</t>
+    <t xml:space="preserve">1.0973778963089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08684515953064</t>
   </si>
   <si>
     <t xml:space="preserve">1.01904082298279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02364885807037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02496540546417</t>
+    <t xml:space="preserve">1.02364873886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02496552467346</t>
   </si>
   <si>
     <t xml:space="preserve">1.02562379837036</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">0.988100945949554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940703630447388</t>
+    <t xml:space="preserve">0.940703749656677</t>
   </si>
   <si>
     <t xml:space="preserve">0.933462381362915</t>
@@ -731,10 +731,10 @@
     <t xml:space="preserve">0.935437262058258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953869581222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999950230121613</t>
+    <t xml:space="preserve">0.953869521617889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999950289726257</t>
   </si>
   <si>
     <t xml:space="preserve">1.00521647930145</t>
@@ -743,31 +743,31 @@
     <t xml:space="preserve">1.0170658826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00916647911072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03088998794556</t>
+    <t xml:space="preserve">1.00916635990143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03089010715485</t>
   </si>
   <si>
     <t xml:space="preserve">1.04603087902069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07170450687408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13424253463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10396087169647</t>
+    <t xml:space="preserve">1.07170438766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13424241542816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10396075248718</t>
   </si>
   <si>
     <t xml:space="preserve">1.10066938400269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0947448015213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12041831016541</t>
+    <t xml:space="preserve">1.09474468231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12041819095612</t>
   </si>
   <si>
     <t xml:space="preserve">1.12765955924988</t>
@@ -782,13 +782,13 @@
     <t xml:space="preserve">1.11976003646851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13490080833435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16715729236603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16913199424744</t>
+    <t xml:space="preserve">1.13490068912506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16715717315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16913211345673</t>
   </si>
   <si>
     <t xml:space="preserve">1.1803230047226</t>
@@ -797,22 +797,22 @@
     <t xml:space="preserve">1.17176532745361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16584062576294</t>
+    <t xml:space="preserve">1.16584050655365</t>
   </si>
   <si>
     <t xml:space="preserve">1.1737402677536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17900657653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18229818344116</t>
+    <t xml:space="preserve">1.1790064573288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18229794502258</t>
   </si>
   <si>
     <t xml:space="preserve">1.17308187484741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19941353797913</t>
+    <t xml:space="preserve">1.19941365718842</t>
   </si>
   <si>
     <t xml:space="preserve">1.21652936935425</t>
@@ -821,16 +821,16 @@
     <t xml:space="preserve">1.21389603614807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22706210613251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21784591674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.204021692276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19546389579773</t>
+    <t xml:space="preserve">1.22706198692322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21784579753876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20402181148529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19546401500702</t>
   </si>
   <si>
     <t xml:space="preserve">1.22179555892944</t>
@@ -839,22 +839,22 @@
     <t xml:space="preserve">1.22772037982941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21455430984497</t>
+    <t xml:space="preserve">1.21455442905426</t>
   </si>
   <si>
     <t xml:space="preserve">1.21587097644806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23167026042938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25339376926422</t>
+    <t xml:space="preserve">1.23167014122009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25339388847351</t>
   </si>
   <si>
     <t xml:space="preserve">1.26853466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24417769908905</t>
+    <t xml:space="preserve">1.24417781829834</t>
   </si>
   <si>
     <t xml:space="preserve">1.26260995864868</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">1.27182614803314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28696691989899</t>
+    <t xml:space="preserve">1.28696703910828</t>
   </si>
   <si>
     <t xml:space="preserve">1.3093489408493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32448971271515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32843947410583</t>
+    <t xml:space="preserve">1.32448983192444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32843935489655</t>
   </si>
   <si>
     <t xml:space="preserve">1.3613543510437</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">1.35213804244995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35608792304993</t>
+    <t xml:space="preserve">1.35608780384064</t>
   </si>
   <si>
     <t xml:space="preserve">1.35872101783752</t>
@@ -890,76 +890,76 @@
     <t xml:space="preserve">1.39163589477539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40875160694122</t>
+    <t xml:space="preserve">1.40875148773193</t>
   </si>
   <si>
     <t xml:space="preserve">1.47721421718597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48116385936737</t>
+    <t xml:space="preserve">1.48116397857666</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169671535492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169659614563</t>
+    <t xml:space="preserve">1.49169647693634</t>
   </si>
   <si>
     <t xml:space="preserve">1.49031937122345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4889417886734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47379088401794</t>
+    <t xml:space="preserve">1.48894190788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47379076480865</t>
   </si>
   <si>
     <t xml:space="preserve">1.39803516864777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38701617717743</t>
+    <t xml:space="preserve">1.38701629638672</t>
   </si>
   <si>
     <t xml:space="preserve">1.38288402557373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48343241214752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44899809360504</t>
+    <t xml:space="preserve">1.48343253135681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44899821281433</t>
   </si>
   <si>
     <t xml:space="preserve">1.43522441387177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43246948719025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45313012599945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51235747337341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57158446311951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53301799297333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53990483283997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51511204242706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43935644626617</t>
+    <t xml:space="preserve">1.43246960639954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45313024520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51235723495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57158434391022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53301787376404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53990471363068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51511228084564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43935632705688</t>
   </si>
   <si>
     <t xml:space="preserve">1.47792291641235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45175290107727</t>
+    <t xml:space="preserve">1.45175278186798</t>
   </si>
   <si>
     <t xml:space="preserve">1.45863974094391</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">1.40354478359222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45450747013092</t>
+    <t xml:space="preserve">1.45450758934021</t>
   </si>
   <si>
     <t xml:space="preserve">1.44624316692352</t>
@@ -983,10 +983,10 @@
     <t xml:space="preserve">1.4379791021347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45726227760315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42558264732361</t>
+    <t xml:space="preserve">1.45726215839386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42558252811432</t>
   </si>
   <si>
     <t xml:space="preserve">1.42971479892731</t>
@@ -998,31 +998,31 @@
     <t xml:space="preserve">1.43660163879395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45588493347168</t>
+    <t xml:space="preserve">1.45588505268097</t>
   </si>
   <si>
     <t xml:space="preserve">1.47654557228088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51786673069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53164041042328</t>
+    <t xml:space="preserve">1.51786684989929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53164052963257</t>
   </si>
   <si>
     <t xml:space="preserve">1.53577268123627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55643332004547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54403710365295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52888584136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33605325222015</t>
+    <t xml:space="preserve">1.55643320083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54403698444366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52888596057892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33605349063873</t>
   </si>
   <si>
     <t xml:space="preserve">1.33811938762665</t>
@@ -1037,10 +1037,10 @@
     <t xml:space="preserve">1.25960910320282</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27062797546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28095829486847</t>
+    <t xml:space="preserve">1.27062809467316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28095841407776</t>
   </si>
   <si>
     <t xml:space="preserve">1.32021355628967</t>
@@ -1049,16 +1049,16 @@
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258185863495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29748690128326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28233575820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29542076587677</t>
+    <t xml:space="preserve">1.35258173942566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29748678207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28233563899994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29542088508606</t>
   </si>
   <si>
     <t xml:space="preserve">1.2899112701416</t>
@@ -1067,22 +1067,22 @@
     <t xml:space="preserve">1.31608140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33674204349518</t>
+    <t xml:space="preserve">1.33674192428589</t>
   </si>
   <si>
     <t xml:space="preserve">1.32778906822205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3332986831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34018552303314</t>
+    <t xml:space="preserve">1.33329844474792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34018540382385</t>
   </si>
   <si>
     <t xml:space="preserve">1.33880817890167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3739310503006</t>
+    <t xml:space="preserve">1.37393116950989</t>
   </si>
   <si>
     <t xml:space="preserve">1.41180884838104</t>
@@ -1091,10 +1091,10 @@
     <t xml:space="preserve">1.41869580745697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46001708507538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45037543773651</t>
+    <t xml:space="preserve">1.4600168466568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45037531852722</t>
   </si>
   <si>
     <t xml:space="preserve">1.44762063026428</t>
@@ -1103,16 +1103,16 @@
     <t xml:space="preserve">1.4049220085144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46414911746979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48618710041046</t>
+    <t xml:space="preserve">1.46414923667908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48618721961975</t>
   </si>
   <si>
     <t xml:space="preserve">1.51098001003265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56194281578064</t>
+    <t xml:space="preserve">1.56194269657135</t>
   </si>
   <si>
     <t xml:space="preserve">1.53852736949921</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">1.49582874774933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48756456375122</t>
+    <t xml:space="preserve">1.48756444454193</t>
   </si>
   <si>
     <t xml:space="preserve">1.50822520256042</t>
@@ -1148,28 +1148,28 @@
     <t xml:space="preserve">1.52750837802887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55092370510101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60050916671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57847130298615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62116992473602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61841511726379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58949041366577</t>
+    <t xml:space="preserve">1.5509238243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60050904750824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57847118377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62117004394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6184149980545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58949029445648</t>
   </si>
   <si>
     <t xml:space="preserve">1.4848096370697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52062153816223</t>
+    <t xml:space="preserve">1.52062141895294</t>
   </si>
   <si>
     <t xml:space="preserve">1.55230104923248</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">1.42145049571991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43384695053101</t>
+    <t xml:space="preserve">1.4338470697403</t>
   </si>
   <si>
     <t xml:space="preserve">1.4173184633255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37599718570709</t>
+    <t xml:space="preserve">1.37599730491638</t>
   </si>
   <si>
     <t xml:space="preserve">1.37117648124695</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">1.36360085010529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35051572322845</t>
+    <t xml:space="preserve">1.35051560401917</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">1.36222350597382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34294021129608</t>
+    <t xml:space="preserve">1.34294033050537</t>
   </si>
   <si>
     <t xml:space="preserve">1.36979901790619</t>
@@ -1226,22 +1226,22 @@
     <t xml:space="preserve">1.36428952217102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36704421043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38977098464966</t>
+    <t xml:space="preserve">1.36704432964325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38977086544037</t>
   </si>
   <si>
     <t xml:space="preserve">1.38012933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35533654689789</t>
+    <t xml:space="preserve">1.35533666610718</t>
   </si>
   <si>
     <t xml:space="preserve">1.37737452983856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36842167377472</t>
+    <t xml:space="preserve">1.36842155456543</t>
   </si>
   <si>
     <t xml:space="preserve">1.36635541915894</t>
@@ -1250,43 +1250,43 @@
     <t xml:space="preserve">1.21966516971588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23963701725006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25134491920471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24927878379822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22586345672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25203347206116</t>
+    <t xml:space="preserve">1.23963713645935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25134479999542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24927866458893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22586333751678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25203359127045</t>
   </si>
   <si>
     <t xml:space="preserve">1.24721264839172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21553301811218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19900453090668</t>
+    <t xml:space="preserve">1.21553313732147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19900465011597</t>
   </si>
   <si>
     <t xml:space="preserve">1.22104263305664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21002352237701</t>
+    <t xml:space="preserve">1.2100236415863</t>
   </si>
   <si>
     <t xml:space="preserve">1.2058914899826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21140098571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19969320297241</t>
+    <t xml:space="preserve">1.21140086650848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1996933221817</t>
   </si>
   <si>
     <t xml:space="preserve">1.21277832984924</t>
@@ -1298,25 +1298,25 @@
     <t xml:space="preserve">1.15699470043182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1521737575531</t>
+    <t xml:space="preserve">1.15217387676239</t>
   </si>
   <si>
     <t xml:space="preserve">1.12600374221802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12875843048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10052239894867</t>
+    <t xml:space="preserve">1.12875854969025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10052227973938</t>
   </si>
   <si>
     <t xml:space="preserve">1.1053432226181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11429607868195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13082456588745</t>
+    <t xml:space="preserve">1.11429595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13082444667816</t>
   </si>
   <si>
     <t xml:space="preserve">1.12669241428375</t>
@@ -1325,16 +1325,16 @@
     <t xml:space="preserve">1.14322078227997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1335791349411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23137283325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18936288356781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17352306842804</t>
+    <t xml:space="preserve">1.13357925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23137295246124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1893630027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17352318763733</t>
   </si>
   <si>
     <t xml:space="preserve">1.13564538955688</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">1.1728343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17558932304382</t>
+    <t xml:space="preserve">1.17558920383453</t>
   </si>
   <si>
     <t xml:space="preserve">1.17696666717529</t>
@@ -1352,25 +1352,25 @@
     <t xml:space="preserve">1.17076849937439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26029777526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3023077249527</t>
+    <t xml:space="preserve">1.26029765605927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30230760574341</t>
   </si>
   <si>
     <t xml:space="preserve">1.27682638168335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30988311767578</t>
+    <t xml:space="preserve">1.30988323688507</t>
   </si>
   <si>
     <t xml:space="preserve">1.31126058101654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2547881603241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26649606227875</t>
+    <t xml:space="preserve">1.25478827953339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26649582386017</t>
   </si>
   <si>
     <t xml:space="preserve">1.21071219444275</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">1.25065612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24239194393158</t>
+    <t xml:space="preserve">1.24239182472229</t>
   </si>
   <si>
     <t xml:space="preserve">1.27200543880463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29473197460175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.298175573349</t>
+    <t xml:space="preserve">1.29473209381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29817545413971</t>
   </si>
   <si>
     <t xml:space="preserve">1.3229683637619</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">1.30161893367767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29335463047028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.279580950737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26718473434448</t>
+    <t xml:space="preserve">1.29335474967957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27958106994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26718461513519</t>
   </si>
   <si>
     <t xml:space="preserve">1.24583530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26374113559723</t>
+    <t xml:space="preserve">1.26374125480652</t>
   </si>
   <si>
     <t xml:space="preserve">1.26993930339813</t>
@@ -1424,19 +1424,19 @@
     <t xml:space="preserve">1.32985520362854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39252579212189</t>
+    <t xml:space="preserve">1.3925256729126</t>
   </si>
   <si>
     <t xml:space="preserve">1.40905427932739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42007327079773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39114820957184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3966578245163</t>
+    <t xml:space="preserve">1.42007339000702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39114832878113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39665794372559</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
@@ -1463,16 +1463,16 @@
     <t xml:space="preserve">1.37692046165466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36001229286194</t>
+    <t xml:space="preserve">1.36001217365265</t>
   </si>
   <si>
     <t xml:space="preserve">1.38427197933197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42543995380402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41000187397003</t>
+    <t xml:space="preserve">1.42543983459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41000175476074</t>
   </si>
   <si>
     <t xml:space="preserve">1.42176413536072</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">1.50704050064087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49968922138214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4967485666275</t>
+    <t xml:space="preserve">1.49968910217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49674868583679</t>
   </si>
   <si>
     <t xml:space="preserve">1.49086761474609</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">1.50262975692749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53497612476349</t>
+    <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
     <t xml:space="preserve">1.48792695999146</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">1.46660780906677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46366727352142</t>
+    <t xml:space="preserve">1.46366739273071</t>
   </si>
   <si>
     <t xml:space="preserve">1.45558071136475</t>
@@ -1553,13 +1553,13 @@
     <t xml:space="preserve">1.45043480396271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44381844997406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42911553382874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37912595272064</t>
+    <t xml:space="preserve">1.44381833076477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42911565303802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37912607192993</t>
   </si>
   <si>
     <t xml:space="preserve">1.3857421875</t>
@@ -1577,13 +1577,13 @@
     <t xml:space="preserve">1.4239696264267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4394074678421</t>
+    <t xml:space="preserve">1.43940758705139</t>
   </si>
   <si>
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44675898551941</t>
+    <t xml:space="preserve">1.4467591047287</t>
   </si>
   <si>
     <t xml:space="preserve">1.46146178245544</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762472629547</t>
+    <t xml:space="preserve">1.52762460708618</t>
   </si>
   <si>
     <t xml:space="preserve">1.56144118309021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5732034444809</t>
+    <t xml:space="preserve">1.57320332527161</t>
   </si>
   <si>
     <t xml:space="preserve">1.55114912986755</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.57173311710358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57026278972626</t>
+    <t xml:space="preserve">1.57026267051697</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025249004364</t>
@@ -1625,10 +1625,10 @@
     <t xml:space="preserve">1.63495528697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64377701282501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64524710178375</t>
+    <t xml:space="preserve">1.64377689361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64524722099304</t>
   </si>
   <si>
     <t xml:space="preserve">1.62760388851166</t>
@@ -1637,10 +1637,10 @@
     <t xml:space="preserve">1.60113871097565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62466323375702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59525775909424</t>
+    <t xml:space="preserve">1.62466335296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59525763988495</t>
   </si>
   <si>
     <t xml:space="preserve">1.37471508979797</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">1.41147220134735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.408531665802</t>
+    <t xml:space="preserve">1.40853154659271</t>
   </si>
   <si>
     <t xml:space="preserve">1.39970993995667</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">1.43279135227203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44822919368744</t>
+    <t xml:space="preserve">1.44822931289673</t>
   </si>
   <si>
     <t xml:space="preserve">1.43205618858337</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">1.34530937671661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28943872451782</t>
+    <t xml:space="preserve">1.28943860530853</t>
   </si>
   <si>
     <t xml:space="preserve">1.27179515361786</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">1.21665966510773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25562214851379</t>
+    <t xml:space="preserve">1.2556220293045</t>
   </si>
   <si>
     <t xml:space="preserve">1.25415182113647</t>
@@ -1742,25 +1742,25 @@
     <t xml:space="preserve">1.24091923236847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24459493160248</t>
+    <t xml:space="preserve">1.24459505081177</t>
   </si>
   <si>
     <t xml:space="preserve">1.25121128559113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31222796440125</t>
+    <t xml:space="preserve">1.31222808361053</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26076817512512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26591408252716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30928754806519</t>
+    <t xml:space="preserve">1.26076805591583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26591420173645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3092874288559</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811957359314</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327601909637</t>
+    <t xml:space="preserve">1.22327589988708</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768664360046</t>
+    <t xml:space="preserve">1.22768676280975</t>
   </si>
   <si>
     <t xml:space="preserve">1.3225200176239</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">1.29164409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26150321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25856268405914</t>
+    <t xml:space="preserve">1.26150333881378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25856256484985</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1823,16 +1823,16 @@
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28796827793121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29679000377655</t>
+    <t xml:space="preserve">1.2879683971405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29679012298584</t>
   </si>
   <si>
     <t xml:space="preserve">1.24165451526642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2401841878891</t>
+    <t xml:space="preserve">1.24018406867981</t>
   </si>
   <si>
     <t xml:space="preserve">1.28870344161987</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">1.27914667129517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21004343032837</t>
+    <t xml:space="preserve">1.21004331111908</t>
   </si>
   <si>
     <t xml:space="preserve">1.27032494544983</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">1.29311430454254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38059616088867</t>
+    <t xml:space="preserve">1.38059628009796</t>
   </si>
   <si>
     <t xml:space="preserve">1.38941788673401</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31810915470123</t>
+    <t xml:space="preserve">1.31810927391052</t>
   </si>
   <si>
     <t xml:space="preserve">1.31149291992188</t>
@@ -1931,28 +1931,28 @@
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134186267853</t>
+    <t xml:space="preserve">1.33134174346924</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531967639923</t>
+    <t xml:space="preserve">1.29531979560852</t>
   </si>
   <si>
     <t xml:space="preserve">1.2747358083725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27253043651581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26958978176117</t>
+    <t xml:space="preserve">1.27253031730652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26958990097046</t>
   </si>
   <si>
     <t xml:space="preserve">1.23797869682312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21886491775513</t>
+    <t xml:space="preserve">1.21886503696442</t>
   </si>
   <si>
     <t xml:space="preserve">1.21445417404175</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">1.20563244819641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22915697097778</t>
+    <t xml:space="preserve">1.22915709018707</t>
   </si>
   <si>
     <t xml:space="preserve">1.2519463300705</t>
@@ -1979,22 +1979,22 @@
     <t xml:space="preserve">1.2306272983551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21224868297577</t>
+    <t xml:space="preserve">1.21224880218506</t>
   </si>
   <si>
     <t xml:space="preserve">1.21518933773041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22695159912109</t>
+    <t xml:space="preserve">1.2269514799118</t>
   </si>
   <si>
     <t xml:space="preserve">1.23724353313446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23871386051178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20857310295105</t>
+    <t xml:space="preserve">1.23871374130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20857298374176</t>
   </si>
   <si>
     <t xml:space="preserve">1.19313514232635</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448519229889</t>
+    <t xml:space="preserve">1.06448531150818</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">1.08653962612152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08727467060089</t>
+    <t xml:space="preserve">1.0872745513916</t>
   </si>
   <si>
     <t xml:space="preserve">1.07624745368958</t>
@@ -5250,6 +5250,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.62450003623962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61650002002716</t>
   </si>
 </sst>
 </file>
@@ -61985,7 +61988,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6495023148</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>753287</v>
@@ -62006,6 +62009,32 @@
         <v>1739</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.649537037</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>2321573</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>1.62300002574921</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>1.60749995708466</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>1.62300002574921</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>1.61650002002716</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -50,19 +50,19 @@
     <t xml:space="preserve">0.985255360603333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960579931735992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964104950428009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993480563163757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992893099784851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04576909542084</t>
+    <t xml:space="preserve">0.960580050945282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964105010032654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993480503559113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992893040180206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04576885700226</t>
   </si>
   <si>
     <t xml:space="preserve">1.04165637493134</t>
@@ -74,16 +74,16 @@
     <t xml:space="preserve">1.03695631027222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0569314956665</t>
+    <t xml:space="preserve">1.05693173408508</t>
   </si>
   <si>
     <t xml:space="preserve">1.02579367160797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07749462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08101952075958</t>
+    <t xml:space="preserve">1.07749450206757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08101963996887</t>
   </si>
   <si>
     <t xml:space="preserve">1.13565814495087</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">1.1456458568573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14682078361511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11509525775909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12802040576935</t>
+    <t xml:space="preserve">1.1468209028244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1150951385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12802052497864</t>
   </si>
   <si>
     <t xml:space="preserve">1.1403580904007</t>
@@ -107,88 +107,88 @@
     <t xml:space="preserve">1.11098265647888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09100723266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02755618095398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957642376422882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829565048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840140223503113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810764729976654</t>
+    <t xml:space="preserve">1.09100735187531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02755606174469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957642316818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853652894496918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829564988613129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840140283107758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810764610767365</t>
   </si>
   <si>
     <t xml:space="preserve">0.81663978099823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873040854930878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86364072561264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872453391551971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887728691101074</t>
+    <t xml:space="preserve">0.873040795326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863640666007996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872453331947327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887728631496429</t>
   </si>
   <si>
     <t xml:space="preserve">0.881853580474854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860703229904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842490315437317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850127935409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94001716375351</t>
+    <t xml:space="preserve">0.860703110694885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842490255832672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850127875804901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
     <t xml:space="preserve">0.904178977012634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.916516482830048</t>
+    <t xml:space="preserve">0.916516602039337</t>
   </si>
   <si>
     <t xml:space="preserve">0.895366311073303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851890504360199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.807827174663544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776101589202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76493889093399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.757888734340668</t>
+    <t xml:space="preserve">0.851890623569489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.807827115058899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776101529598236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.764938950538635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.757888793945312</t>
   </si>
   <si>
     <t xml:space="preserve">0.831915140151978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820164859294891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817814826965332</t>
+    <t xml:space="preserve">0.820164918899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817814886569977</t>
   </si>
   <si>
     <t xml:space="preserve">0.828390002250671</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">0.823102474212646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817227303981781</t>
+    <t xml:space="preserve">0.817227423191071</t>
   </si>
   <si>
     <t xml:space="preserve">0.827215015888214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828977584838867</t>
+    <t xml:space="preserve">0.828977465629578</t>
   </si>
   <si>
     <t xml:space="preserve">0.843077778816223</t>
@@ -215,40 +215,40 @@
     <t xml:space="preserve">0.865403234958649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837790191173553</t>
+    <t xml:space="preserve">0.837790250778198</t>
   </si>
   <si>
     <t xml:space="preserve">0.830740094184875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846602857112885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848952949047089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860115647315979</t>
+    <t xml:space="preserve">0.846602737903595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848953008651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860115528106689</t>
   </si>
   <si>
     <t xml:space="preserve">0.846015393733978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834265053272247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82251501083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845427811145782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868340730667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92062920331955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915929198265076</t>
+    <t xml:space="preserve">0.834265112876892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822514891624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845427870750427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868340790271759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920629262924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915929079055786</t>
   </si>
   <si>
     <t xml:space="preserve">0.905941426753998</t>
@@ -257,16 +257,16 @@
     <t xml:space="preserve">0.893016159534454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886553406715393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578221321106</t>
+    <t xml:space="preserve">0.886553585529327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578280925751</t>
   </si>
   <si>
     <t xml:space="preserve">0.869515776634216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882440984249115</t>
+    <t xml:space="preserve">0.882440865039825</t>
   </si>
   <si>
     <t xml:space="preserve">0.864228069782257</t>
@@ -275,43 +275,43 @@
     <t xml:space="preserve">0.835440218448639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826040029525757</t>
+    <t xml:space="preserve">0.826039969921112</t>
   </si>
   <si>
     <t xml:space="preserve">0.83015251159668</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831327557563782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907116591930389</t>
+    <t xml:space="preserve">0.831327617168427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907116532325745</t>
   </si>
   <si>
     <t xml:space="preserve">0.924741864204407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.945304572582245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937079668045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92885434627533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961769163608551</t>
+    <t xml:space="preserve">0.94530463218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93707948923111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928854286670685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961768984794617</t>
   </si>
   <si>
     <t xml:space="preserve">0.98744261264801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.994025528430939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03483998775482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04010629653931</t>
+    <t xml:space="preserve">0.994025588035583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03483986854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04010617733002</t>
   </si>
   <si>
     <t xml:space="preserve">1.04076445102692</t>
@@ -320,40 +320,40 @@
     <t xml:space="preserve">1.03615653514862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05327224731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05261397361755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05458879470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05393052101135</t>
+    <t xml:space="preserve">1.05327212810516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05261385440826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05458867549896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05393040180206</t>
   </si>
   <si>
     <t xml:space="preserve">1.07367932796478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11646842956543</t>
+    <t xml:space="preserve">1.11646831035614</t>
   </si>
   <si>
     <t xml:space="preserve">1.09276986122131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03878962993622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02299070358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98283463716507</t>
+    <t xml:space="preserve">1.03878951072693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02299058437347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982834577560425</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367195129395</t>
+    <t xml:space="preserve">0.993367314338684</t>
   </si>
   <si>
     <t xml:space="preserve">1.07894563674927</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">1.015749335289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959135949611664</t>
+    <t xml:space="preserve">0.959136068820953</t>
   </si>
   <si>
     <t xml:space="preserve">0.977568209171295</t>
@@ -389,40 +389,40 @@
     <t xml:space="preserve">1.02035737037659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961110949516296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938728868961334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936095654964447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956502735614777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951894640922546</t>
+    <t xml:space="preserve">0.961110830307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938728809356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936095714569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956502676010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951894700527191</t>
   </si>
   <si>
     <t xml:space="preserve">0.936753869056702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946628212928772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939387202262878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949919760227203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948603212833405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974276661872864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954527974128723</t>
+    <t xml:space="preserve">0.946628272533417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939387142658234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949919819831848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94860315322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974276781082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954528033733368</t>
   </si>
   <si>
     <t xml:space="preserve">0.997975528240204</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">0.923588037490845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836034715175629</t>
+    <t xml:space="preserve">0.836034774780273</t>
   </si>
   <si>
     <t xml:space="preserve">0.80970299243927</t>
@@ -440,13 +440,13 @@
     <t xml:space="preserve">0.832085072994232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851833820343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888698399066925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884090423583984</t>
+    <t xml:space="preserve">0.851833760738373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88869845867157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88409036397934</t>
   </si>
   <si>
     <t xml:space="preserve">0.871582686901093</t>
@@ -458,46 +458,46 @@
     <t xml:space="preserve">0.880798876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886723518371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890673339366913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870924353599548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866974651813507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884748637676239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883432030677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874215841293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870266079902649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864341497421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881457209587097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882773756980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887381911277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880140483379364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613156795502</t>
+    <t xml:space="preserve">0.886723458766937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890673220157623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870924413204193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866974711418152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884748578071594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88343209028244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87421578168869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870266199111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86434143781662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881457090377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882773697376251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887381792068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880140542984009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613037586212</t>
   </si>
   <si>
     <t xml:space="preserve">0.934778988361359</t>
@@ -506,46 +506,46 @@
     <t xml:space="preserve">0.947944939136505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947286605834961</t>
+    <t xml:space="preserve">0.947286665439606</t>
   </si>
   <si>
     <t xml:space="preserve">0.932145833969116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902522683143616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281314849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90318089723587</t>
+    <t xml:space="preserve">0.902522623538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281255245209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903180778026581</t>
   </si>
   <si>
     <t xml:space="preserve">0.917005062103271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940045416355133</t>
+    <t xml:space="preserve">0.940045297145844</t>
   </si>
   <si>
     <t xml:space="preserve">0.934120714664459</t>
   </si>
   <si>
-    <t xml:space="preserve">0.911080360412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912397027015686</t>
+    <t xml:space="preserve">0.911080479621887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912396967411041</t>
   </si>
   <si>
     <t xml:space="preserve">0.913713574409485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931487500667572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91897988319397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909763753414154</t>
+    <t xml:space="preserve">0.931487560272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918980002403259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909763813018799</t>
   </si>
   <si>
     <t xml:space="preserve">0.926879465579987</t>
@@ -554,52 +554,52 @@
     <t xml:space="preserve">0.920296609401703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9380704164505</t>
+    <t xml:space="preserve">0.93807053565979</t>
   </si>
   <si>
     <t xml:space="preserve">0.964402377605438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970326900482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988759219646454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984151184558868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99270898103714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0414229631424</t>
+    <t xml:space="preserve">0.970326960086823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988759100437164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984151065349579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992709040641785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04142284393311</t>
   </si>
   <si>
     <t xml:space="preserve">1.03549814224243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03154838085175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05919682979584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03813147544861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03023171424866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02167403697968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03418159484863</t>
+    <t xml:space="preserve">1.03154850006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05919671058655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03813135623932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03023183345795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02167391777039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03418147563934</t>
   </si>
   <si>
     <t xml:space="preserve">1.01838254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03352320194244</t>
+    <t xml:space="preserve">1.03352332115173</t>
   </si>
   <si>
     <t xml:space="preserve">1.04208111763</t>
@@ -611,22 +611,22 @@
     <t xml:space="preserve">1.09211158752441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08618688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09013676643372</t>
+    <t xml:space="preserve">1.08618700504303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09013664722443</t>
   </si>
   <si>
     <t xml:space="preserve">1.09935283660889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08750343322754</t>
+    <t xml:space="preserve">1.08750355243683</t>
   </si>
   <si>
     <t xml:space="preserve">1.07960391044617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05788028240204</t>
+    <t xml:space="preserve">1.05788016319275</t>
   </si>
   <si>
     <t xml:space="preserve">1.06380486488342</t>
@@ -650,31 +650,31 @@
     <t xml:space="preserve">1.09145331382751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09671974182129</t>
+    <t xml:space="preserve">1.096719622612</t>
   </si>
   <si>
     <t xml:space="preserve">1.11778509616852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13095092773438</t>
+    <t xml:space="preserve">1.13095116615295</t>
   </si>
   <si>
     <t xml:space="preserve">1.11186051368713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1256844997406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13226759433746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13885045051575</t>
+    <t xml:space="preserve">1.12568473815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13226747512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13885056972504</t>
   </si>
   <si>
     <t xml:space="preserve">1.13621723651886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14543330669403</t>
+    <t xml:space="preserve">1.14543342590332</t>
   </si>
   <si>
     <t xml:space="preserve">1.14740836620331</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">1.14082539081573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11910164356232</t>
+    <t xml:space="preserve">1.11910176277161</t>
   </si>
   <si>
     <t xml:space="preserve">1.1243679523468</t>
@@ -704,40 +704,40 @@
     <t xml:space="preserve">1.0973778963089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08684515953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01904082298279</t>
+    <t xml:space="preserve">1.08684527873993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0190407037735</t>
   </si>
   <si>
     <t xml:space="preserve">1.02364873886108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02496552467346</t>
+    <t xml:space="preserve">1.02496564388275</t>
   </si>
   <si>
     <t xml:space="preserve">1.02562379837036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988100945949554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940703749656677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933462381362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935437262058258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953869521617889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999950289726257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00521647930145</t>
+    <t xml:space="preserve">0.988101005554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940703690052032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93346244096756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935437321662903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953869640827179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999950170516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00521659851074</t>
   </si>
   <si>
     <t xml:space="preserve">1.0170658826828</t>
@@ -758,13 +758,13 @@
     <t xml:space="preserve">1.13424241542816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10396075248718</t>
+    <t xml:space="preserve">1.10396087169647</t>
   </si>
   <si>
     <t xml:space="preserve">1.10066938400269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09474468231201</t>
+    <t xml:space="preserve">1.0947448015213</t>
   </si>
   <si>
     <t xml:space="preserve">1.12041819095612</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">1.11976003646851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13490068912506</t>
+    <t xml:space="preserve">1.13490080833435</t>
   </si>
   <si>
     <t xml:space="preserve">1.16715717315674</t>
@@ -791,16 +791,16 @@
     <t xml:space="preserve">1.16913211345673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1803230047226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17176532745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16584050655365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1737402677536</t>
+    <t xml:space="preserve">1.18032312393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17176520824432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16584062576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17374014854431</t>
   </si>
   <si>
     <t xml:space="preserve">1.1790064573288</t>
@@ -809,31 +809,31 @@
     <t xml:space="preserve">1.18229794502258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17308187484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19941365718842</t>
+    <t xml:space="preserve">1.17308175563812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19941353797913</t>
   </si>
   <si>
     <t xml:space="preserve">1.21652936935425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21389603614807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22706198692322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21784579753876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20402181148529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19546401500702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22179555892944</t>
+    <t xml:space="preserve">1.21389615535736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22706210613251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21784591674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20402157306671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19546389579773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22179567813873</t>
   </si>
   <si>
     <t xml:space="preserve">1.22772037982941</t>
@@ -854,25 +854,25 @@
     <t xml:space="preserve">1.26853466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24417781829834</t>
+    <t xml:space="preserve">1.24417769908905</t>
   </si>
   <si>
     <t xml:space="preserve">1.26260995864868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27182614803314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28696703910828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3093489408493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32448983192444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32843935489655</t>
+    <t xml:space="preserve">1.27182626724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28696691989899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30934882164001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32448971271515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32843947410583</t>
   </si>
   <si>
     <t xml:space="preserve">1.3613543510437</t>
@@ -893,16 +893,16 @@
     <t xml:space="preserve">1.40875148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47721421718597</t>
+    <t xml:space="preserve">1.47721409797668</t>
   </si>
   <si>
     <t xml:space="preserve">1.48116397857666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49169671535492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49169647693634</t>
+    <t xml:space="preserve">1.49169683456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49169659614563</t>
   </si>
   <si>
     <t xml:space="preserve">1.49031937122345</t>
@@ -911,37 +911,37 @@
     <t xml:space="preserve">1.48894190788269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47379076480865</t>
+    <t xml:space="preserve">1.47379088401794</t>
   </si>
   <si>
     <t xml:space="preserve">1.39803516864777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38701629638672</t>
+    <t xml:space="preserve">1.38701617717743</t>
   </si>
   <si>
     <t xml:space="preserve">1.38288402557373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48343253135681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44899821281433</t>
+    <t xml:space="preserve">1.48343241214752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44899809360504</t>
   </si>
   <si>
     <t xml:space="preserve">1.43522441387177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43246960639954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45313024520874</t>
+    <t xml:space="preserve">1.43246948719025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45313012599945</t>
   </si>
   <si>
     <t xml:space="preserve">1.51235723495483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57158434391022</t>
+    <t xml:space="preserve">1.57158446311951</t>
   </si>
   <si>
     <t xml:space="preserve">1.53301787376404</t>
@@ -950,13 +950,13 @@
     <t xml:space="preserve">1.53990471363068</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51511228084564</t>
+    <t xml:space="preserve">1.51511216163635</t>
   </si>
   <si>
     <t xml:space="preserve">1.43935632705688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47792291641235</t>
+    <t xml:space="preserve">1.47792279720306</t>
   </si>
   <si>
     <t xml:space="preserve">1.45175278186798</t>
@@ -968,25 +968,25 @@
     <t xml:space="preserve">1.42282795906067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41594099998474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40354478359222</t>
+    <t xml:space="preserve">1.41594111919403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40354466438293</t>
   </si>
   <si>
     <t xml:space="preserve">1.45450758934021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44624316692352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4379791021347</t>
+    <t xml:space="preserve">1.44624328613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43797898292542</t>
   </si>
   <si>
     <t xml:space="preserve">1.45726215839386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42558252811432</t>
+    <t xml:space="preserve">1.42558264732361</t>
   </si>
   <si>
     <t xml:space="preserve">1.42971479892731</t>
@@ -995,13 +995,13 @@
     <t xml:space="preserve">1.44073379039764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43660163879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45588505268097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47654557228088</t>
+    <t xml:space="preserve">1.43660175800323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45588493347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47654569149017</t>
   </si>
   <si>
     <t xml:space="preserve">1.51786684989929</t>
@@ -1013,13 +1013,13 @@
     <t xml:space="preserve">1.53577268123627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55643320083618</t>
+    <t xml:space="preserve">1.55643332004547</t>
   </si>
   <si>
     <t xml:space="preserve">1.54403698444366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52888596057892</t>
+    <t xml:space="preserve">1.52888584136963</t>
   </si>
   <si>
     <t xml:space="preserve">1.33605349063873</t>
@@ -1034,28 +1034,28 @@
     <t xml:space="preserve">1.27820360660553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25960910320282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27062809467316</t>
+    <t xml:space="preserve">1.25960898399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27062797546387</t>
   </si>
   <si>
     <t xml:space="preserve">1.28095841407776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32021355628967</t>
+    <t xml:space="preserve">1.32021367549896</t>
   </si>
   <si>
     <t xml:space="preserve">1.33743071556091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35258173942566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29748678207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28233563899994</t>
+    <t xml:space="preserve">1.35258185863495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29748690128326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28233575820923</t>
   </si>
   <si>
     <t xml:space="preserve">1.29542088508606</t>
@@ -1067,19 +1067,19 @@
     <t xml:space="preserve">1.31608140468597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33674192428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32778906822205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33329844474792</t>
+    <t xml:space="preserve">1.33674204349518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32778918743134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33329856395721</t>
   </si>
   <si>
     <t xml:space="preserve">1.34018540382385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33880817890167</t>
+    <t xml:space="preserve">1.33880805969238</t>
   </si>
   <si>
     <t xml:space="preserve">1.37393116950989</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">1.41869580745697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4600168466568</t>
+    <t xml:space="preserve">1.46001696586609</t>
   </si>
   <si>
     <t xml:space="preserve">1.45037531852722</t>
@@ -1103,28 +1103,28 @@
     <t xml:space="preserve">1.4049220085144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46414923667908</t>
+    <t xml:space="preserve">1.46414911746979</t>
   </si>
   <si>
     <t xml:space="preserve">1.48618721961975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51098001003265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56194269657135</t>
+    <t xml:space="preserve">1.51097989082336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56194257736206</t>
   </si>
   <si>
     <t xml:space="preserve">1.53852736949921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52613115310669</t>
+    <t xml:space="preserve">1.5261310338974</t>
   </si>
   <si>
     <t xml:space="preserve">1.55918800830841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57433927059174</t>
+    <t xml:space="preserve">1.57433915138245</t>
   </si>
   <si>
     <t xml:space="preserve">1.51648926734924</t>
@@ -1136,13 +1136,13 @@
     <t xml:space="preserve">1.50684773921967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49582874774933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48756444454193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50822520256042</t>
+    <t xml:space="preserve">1.49582862854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48756456375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50822532176971</t>
   </si>
   <si>
     <t xml:space="preserve">1.52750837802887</t>
@@ -1151,16 +1151,16 @@
     <t xml:space="preserve">1.5509238243103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60050904750824</t>
+    <t xml:space="preserve">1.60050916671753</t>
   </si>
   <si>
     <t xml:space="preserve">1.57847118377686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62117004394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6184149980545</t>
+    <t xml:space="preserve">1.62116980552673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61841511726379</t>
   </si>
   <si>
     <t xml:space="preserve">1.58949029445648</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">1.52062141895294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55230104923248</t>
+    <t xml:space="preserve">1.55230116844177</t>
   </si>
   <si>
     <t xml:space="preserve">1.52199900150299</t>
@@ -1181,16 +1181,16 @@
     <t xml:space="preserve">1.49720621109009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42145049571991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4338470697403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4173184633255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37599730491638</t>
+    <t xml:space="preserve">1.42145037651062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43384695053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41731858253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37599718570709</t>
   </si>
   <si>
     <t xml:space="preserve">1.37117648124695</t>
@@ -1199,13 +1199,13 @@
     <t xml:space="preserve">1.38839364051819</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37530839443207</t>
+    <t xml:space="preserve">1.37530851364136</t>
   </si>
   <si>
     <t xml:space="preserve">1.36360085010529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35051560401917</t>
+    <t xml:space="preserve">1.35051584243774</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">1.34294033050537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36979901790619</t>
+    <t xml:space="preserve">1.3697988986969</t>
   </si>
   <si>
     <t xml:space="preserve">1.36428952217102</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">1.38977086544037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38012933731079</t>
+    <t xml:space="preserve">1.3801292181015</t>
   </si>
   <si>
     <t xml:space="preserve">1.35533666610718</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">1.37737452983856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36842155456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36635541915894</t>
+    <t xml:space="preserve">1.36842167377472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36635553836823</t>
   </si>
   <si>
     <t xml:space="preserve">1.21966516971588</t>
@@ -1268,22 +1268,22 @@
     <t xml:space="preserve">1.24721264839172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21553313732147</t>
+    <t xml:space="preserve">1.21553301811218</t>
   </si>
   <si>
     <t xml:space="preserve">1.19900465011597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22104263305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2100236415863</t>
+    <t xml:space="preserve">1.22104251384735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21002352237701</t>
   </si>
   <si>
     <t xml:space="preserve">1.2058914899826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21140086650848</t>
+    <t xml:space="preserve">1.21140098571777</t>
   </si>
   <si>
     <t xml:space="preserve">1.1996933221817</t>
@@ -1295,10 +1295,10 @@
     <t xml:space="preserve">1.1645702123642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15699470043182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15217387676239</t>
+    <t xml:space="preserve">1.15699458122253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1521737575531</t>
   </si>
   <si>
     <t xml:space="preserve">1.12600374221802</t>
@@ -1310,10 +1310,10 @@
     <t xml:space="preserve">1.10052227973938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1053432226181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11429595947266</t>
+    <t xml:space="preserve">1.10534310340881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11429607868195</t>
   </si>
   <si>
     <t xml:space="preserve">1.13082444667816</t>
@@ -1322,19 +1322,19 @@
     <t xml:space="preserve">1.12669241428375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14322078227997</t>
+    <t xml:space="preserve">1.14322090148926</t>
   </si>
   <si>
     <t xml:space="preserve">1.13357925415039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23137295246124</t>
+    <t xml:space="preserve">1.23137283325195</t>
   </si>
   <si>
     <t xml:space="preserve">1.1893630027771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17352318763733</t>
+    <t xml:space="preserve">1.17352306842804</t>
   </si>
   <si>
     <t xml:space="preserve">1.13564538955688</t>
@@ -1352,13 +1352,13 @@
     <t xml:space="preserve">1.17076849937439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26029765605927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30230760574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27682638168335</t>
+    <t xml:space="preserve">1.26029777526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3023077249527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27682626247406</t>
   </si>
   <si>
     <t xml:space="preserve">1.30988323688507</t>
@@ -1385,22 +1385,22 @@
     <t xml:space="preserve">1.24239182472229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27200543880463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29473209381104</t>
+    <t xml:space="preserve">1.27200531959534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29473197460175</t>
   </si>
   <si>
     <t xml:space="preserve">1.29817545413971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3229683637619</t>
+    <t xml:space="preserve">1.32296824455261</t>
   </si>
   <si>
     <t xml:space="preserve">1.30161893367767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29335474967957</t>
+    <t xml:space="preserve">1.29335463047028</t>
   </si>
   <si>
     <t xml:space="preserve">1.27958106994629</t>
@@ -1421,19 +1421,19 @@
     <t xml:space="preserve">1.29955291748047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32985520362854</t>
+    <t xml:space="preserve">1.32985508441925</t>
   </si>
   <si>
     <t xml:space="preserve">1.3925256729126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40905427932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42007339000702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39114832878113</t>
+    <t xml:space="preserve">1.4090541601181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42007315158844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39114844799042</t>
   </si>
   <si>
     <t xml:space="preserve">1.39665794372559</t>
@@ -1445,10 +1445,10 @@
     <t xml:space="preserve">1.34156286716461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30781733989716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38794767856598</t>
+    <t xml:space="preserve">1.30781722068787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38794755935669</t>
   </si>
   <si>
     <t xml:space="preserve">1.41661822795868</t>
@@ -1460,19 +1460,19 @@
     <t xml:space="preserve">1.40265047550201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37692046165466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36001217365265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38427197933197</t>
+    <t xml:space="preserve">1.37692058086395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36001229286194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38427186012268</t>
   </si>
   <si>
     <t xml:space="preserve">1.42543983459473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41000175476074</t>
+    <t xml:space="preserve">1.41000187397003</t>
   </si>
   <si>
     <t xml:space="preserve">1.42176413536072</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">1.43867242336273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47469437122345</t>
+    <t xml:space="preserve">1.47469449043274</t>
   </si>
   <si>
     <t xml:space="preserve">1.48645663261414</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">1.52468395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704050064087</t>
+    <t xml:space="preserve">1.50704061985016</t>
   </si>
   <si>
     <t xml:space="preserve">1.49968910217285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49674868583679</t>
+    <t xml:space="preserve">1.4967485666275</t>
   </si>
   <si>
     <t xml:space="preserve">1.49086761474609</t>
@@ -1505,10 +1505,10 @@
     <t xml:space="preserve">1.52615427970886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51439201831818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56585204601288</t>
+    <t xml:space="preserve">1.51439189910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56585192680359</t>
   </si>
   <si>
     <t xml:space="preserve">1.55555987358093</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">1.55261945724487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50262975692749</t>
+    <t xml:space="preserve">1.5026296377182</t>
   </si>
   <si>
     <t xml:space="preserve">1.5349760055542</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">1.48792695999146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47910535335541</t>
+    <t xml:space="preserve">1.47910523414612</t>
   </si>
   <si>
     <t xml:space="preserve">1.50115954875946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50998103618622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52321374416351</t>
+    <t xml:space="preserve">1.50998115539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5232138633728</t>
   </si>
   <si>
     <t xml:space="preserve">1.44455361366272</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">1.46660780906677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46366739273071</t>
+    <t xml:space="preserve">1.46366727352142</t>
   </si>
   <si>
     <t xml:space="preserve">1.45558071136475</t>
@@ -1553,10 +1553,10 @@
     <t xml:space="preserve">1.45043480396271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44381833076477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42911565303802</t>
+    <t xml:space="preserve">1.44381844997406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42911553382874</t>
   </si>
   <si>
     <t xml:space="preserve">1.37912607192993</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">1.52762460708618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56144118309021</t>
+    <t xml:space="preserve">1.5614413022995</t>
   </si>
   <si>
     <t xml:space="preserve">1.57320332527161</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">1.55114912986755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58643591403961</t>
+    <t xml:space="preserve">1.5864360332489</t>
   </si>
   <si>
     <t xml:space="preserve">1.59672784805298</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.57173311710358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57026267051697</t>
+    <t xml:space="preserve">1.57026278972626</t>
   </si>
   <si>
     <t xml:space="preserve">1.62025249004364</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">1.63495528697968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64377689361572</t>
+    <t xml:space="preserve">1.64377701282501</t>
   </si>
   <si>
     <t xml:space="preserve">1.64524722099304</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">1.62466335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59525763988495</t>
+    <t xml:space="preserve">1.59525752067566</t>
   </si>
   <si>
     <t xml:space="preserve">1.37471508979797</t>
@@ -1655,19 +1655,19 @@
     <t xml:space="preserve">1.41147220134735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40853154659271</t>
+    <t xml:space="preserve">1.408531665802</t>
   </si>
   <si>
     <t xml:space="preserve">1.39970993995667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40118026733398</t>
+    <t xml:space="preserve">1.40118014812469</t>
   </si>
   <si>
     <t xml:space="preserve">1.39897477626801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43279135227203</t>
+    <t xml:space="preserve">1.43279123306274</t>
   </si>
   <si>
     <t xml:space="preserve">1.44822931289673</t>
@@ -1682,22 +1682,22 @@
     <t xml:space="preserve">1.39088821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37250959873199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36074733734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35486626625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34530937671661</t>
+    <t xml:space="preserve">1.37250971794128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3607474565506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3548663854599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3453094959259</t>
   </si>
   <si>
     <t xml:space="preserve">1.28943860530853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27179515361786</t>
+    <t xml:space="preserve">1.27179527282715</t>
   </si>
   <si>
     <t xml:space="preserve">1.28649806976318</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">1.21665966510773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2556220293045</t>
+    <t xml:space="preserve">1.25562214851379</t>
   </si>
   <si>
     <t xml:space="preserve">1.25415182113647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28355753421783</t>
+    <t xml:space="preserve">1.28355765342712</t>
   </si>
   <si>
     <t xml:space="preserve">1.2975252866745</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">1.28576290607452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29017376899719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2497410774231</t>
+    <t xml:space="preserve">1.29017388820648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24974095821381</t>
   </si>
   <si>
     <t xml:space="preserve">1.27841150760651</t>
@@ -1742,10 +1742,10 @@
     <t xml:space="preserve">1.24091923236847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24459505081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25121128559113</t>
+    <t xml:space="preserve">1.24459493160248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25121116638184</t>
   </si>
   <si>
     <t xml:space="preserve">1.31222808361053</t>
@@ -1760,16 +1760,16 @@
     <t xml:space="preserve">1.26591420173645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3092874288559</t>
+    <t xml:space="preserve">1.30928754806519</t>
   </si>
   <si>
     <t xml:space="preserve">1.26811957359314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25782752037048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22180557250977</t>
+    <t xml:space="preserve">1.25782763957977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22180545330048</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">1.21812987327576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22768676280975</t>
+    <t xml:space="preserve">1.22768664360046</t>
   </si>
   <si>
     <t xml:space="preserve">1.3225200176239</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">1.29164409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26150333881378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25856256484985</t>
+    <t xml:space="preserve">1.26150321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25856268405914</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1829,16 +1829,16 @@
     <t xml:space="preserve">1.29679012298584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24165451526642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24018406867981</t>
+    <t xml:space="preserve">1.24165439605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2401841878891</t>
   </si>
   <si>
     <t xml:space="preserve">1.28870344161987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27914667129517</t>
+    <t xml:space="preserve">1.27914655208588</t>
   </si>
   <si>
     <t xml:space="preserve">1.21004331111908</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">1.28502774238586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28135216236115</t>
+    <t xml:space="preserve">1.28135204315186</t>
   </si>
   <si>
     <t xml:space="preserve">1.29311430454254</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">1.38941788673401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36589348316193</t>
+    <t xml:space="preserve">1.36589336395264</t>
   </si>
   <si>
     <t xml:space="preserve">1.35119068622589</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">1.32325518131256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32693076133728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31810927391052</t>
+    <t xml:space="preserve">1.32693088054657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31810915470123</t>
   </si>
   <si>
     <t xml:space="preserve">1.31149291992188</t>
@@ -1892,31 +1892,31 @@
     <t xml:space="preserve">1.28429269790649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31296324729919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33060657978058</t>
+    <t xml:space="preserve">1.3129631280899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33060646057129</t>
   </si>
   <si>
     <t xml:space="preserve">1.36736369132996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33428239822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35266089439392</t>
+    <t xml:space="preserve">1.33428227901459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35266077518463</t>
   </si>
   <si>
     <t xml:space="preserve">1.31737411022186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27694118022919</t>
+    <t xml:space="preserve">1.27694129943848</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046582221985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27767634391785</t>
+    <t xml:space="preserve">1.27767646312714</t>
   </si>
   <si>
     <t xml:space="preserve">1.29826033115387</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">1.3034063577652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27326560020447</t>
+    <t xml:space="preserve">1.27326548099518</t>
   </si>
   <si>
     <t xml:space="preserve">1.27620601654053</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">1.27253031730652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26958990097046</t>
+    <t xml:space="preserve">1.26958978176117</t>
   </si>
   <si>
     <t xml:space="preserve">1.23797869682312</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">1.21371901035309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21592450141907</t>
+    <t xml:space="preserve">1.21592438220978</t>
   </si>
   <si>
     <t xml:space="preserve">1.20563244819641</t>
@@ -1970,10 +1970,10 @@
     <t xml:space="preserve">1.22915709018707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2519463300705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22989225387573</t>
+    <t xml:space="preserve">1.25194644927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22989213466644</t>
   </si>
   <si>
     <t xml:space="preserve">1.2306272983551</t>
@@ -1985,16 +1985,16 @@
     <t xml:space="preserve">1.21518933773041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2269514799118</t>
+    <t xml:space="preserve">1.22695159912109</t>
   </si>
   <si>
     <t xml:space="preserve">1.23724353313446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23871374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20857298374176</t>
+    <t xml:space="preserve">1.23871386051178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20857310295105</t>
   </si>
   <si>
     <t xml:space="preserve">1.19313514232635</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">1.16225910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15711307525635</t>
+    <t xml:space="preserve">1.15711319446564</t>
   </si>
   <si>
     <t xml:space="preserve">1.13358867168427</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">1.03140389919281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03360939025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06522047519684</t>
+    <t xml:space="preserve">1.0336092710495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06522035598755</t>
   </si>
   <si>
     <t xml:space="preserve">1.10859382152557</t>
@@ -2039,10 +2039,10 @@
     <t xml:space="preserve">1.0872745513916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07624745368958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08713448047638</t>
+    <t xml:space="preserve">1.07624757289886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08713436126709</t>
   </si>
   <si>
     <t xml:space="preserve">1.10890829563141</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.05913960933685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02647888660431</t>
+    <t xml:space="preserve">1.0264790058136</t>
   </si>
   <si>
     <t xml:space="preserve">1.02181303501129</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.02259075641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995373427867889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00548279285431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00237214565277</t>
+    <t xml:space="preserve">0.995373487472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00548267364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00237226486206</t>
   </si>
   <si>
     <t xml:space="preserve">1.01248145103455</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.00159454345703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01714730262756</t>
+    <t xml:space="preserve">1.01714718341827</t>
   </si>
   <si>
     <t xml:space="preserve">1.03969871997833</t>
@@ -2093,31 +2093,31 @@
     <t xml:space="preserve">0.996151089668274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.000816822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987597167491913</t>
+    <t xml:space="preserve">1.00081694126129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987597048282623</t>
   </si>
   <si>
     <t xml:space="preserve">0.965823292732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970489203929901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967378497123718</t>
+    <t xml:space="preserve">0.970489144325256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967378556728363</t>
   </si>
   <si>
     <t xml:space="preserve">0.998484075069427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991485297679901</t>
+    <t xml:space="preserve">0.991485238075256</t>
   </si>
   <si>
     <t xml:space="preserve">0.993040502071381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999261617660522</t>
+    <t xml:space="preserve">0.999261677265167</t>
   </si>
   <si>
     <t xml:space="preserve">1.02958941459656</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">1.0303670167923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581058979034</t>
+    <t xml:space="preserve">1.03581047058105</t>
   </si>
   <si>
     <t xml:space="preserve">1.08246862888336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0560290813446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10190951824188</t>
+    <t xml:space="preserve">1.05602896213531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10190963745117</t>
   </si>
   <si>
     <t xml:space="preserve">1.09413313865662</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">1.15789926052094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16645324230194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1509006023407</t>
+    <t xml:space="preserve">1.16645336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15090048313141</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612544536591</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">1.10968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13301503658295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13068211078644</t>
+    <t xml:space="preserve">1.13301491737366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13068199157715</t>
   </si>
   <si>
     <t xml:space="preserve">1.13145971298218</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">1.14467942714691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1236834526062</t>
+    <t xml:space="preserve">1.12368333339691</t>
   </si>
   <si>
     <t xml:space="preserve">1.10735297203064</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">1.11590695381165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12057268619537</t>
+    <t xml:space="preserve">1.12057280540466</t>
   </si>
   <si>
     <t xml:space="preserve">1.13534784317017</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.19678115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17345190048218</t>
+    <t xml:space="preserve">1.17345201969147</t>
   </si>
   <si>
     <t xml:space="preserve">1.18978226184845</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">1.22011005878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2208878993988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21077847480774</t>
+    <t xml:space="preserve">1.22088778018951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21077859401703</t>
   </si>
   <si>
     <t xml:space="preserve">1.19133758544922</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.25976955890656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27376687526703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26987886428833</t>
+    <t xml:space="preserve">1.27376699447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26987874507904</t>
   </si>
   <si>
     <t xml:space="preserve">1.27609992027283</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">1.33286726474762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34608709812164</t>
+    <t xml:space="preserve">1.34608697891235</t>
   </si>
   <si>
     <t xml:space="preserve">1.35852921009064</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">1.39896631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38807928562164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37330436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35464107990265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35619628429413</t>
+    <t xml:space="preserve">1.38807940483093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37330424785614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35464096069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35619640350342</t>
   </si>
   <si>
     <t xml:space="preserve">1.33753311634064</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">1.3134263753891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28465390205383</t>
+    <t xml:space="preserve">1.28465378284454</t>
   </si>
   <si>
     <t xml:space="preserve">1.27143406867981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25821435451508</t>
+    <t xml:space="preserve">1.25821423530579</t>
   </si>
   <si>
     <t xml:space="preserve">1.25899183750153</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.25510370731354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23644042015076</t>
+    <t xml:space="preserve">1.23644053936005</t>
   </si>
   <si>
     <t xml:space="preserve">1.24343919754028</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">1.16412031650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15167820453644</t>
+    <t xml:space="preserve">1.15167808532715</t>
   </si>
   <si>
     <t xml:space="preserve">1.12757158279419</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">1.11823987960815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1213504076004</t>
+    <t xml:space="preserve">1.12135052680969</t>
   </si>
   <si>
     <t xml:space="preserve">1.12212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11357414722443</t>
+    <t xml:space="preserve">1.11357402801514</t>
   </si>
   <si>
     <t xml:space="preserve">1.10579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08868968486786</t>
+    <t xml:space="preserve">1.08868980407715</t>
   </si>
   <si>
     <t xml:space="preserve">1.11746227741241</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">1.14623475074768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1065753698349</t>
+    <t xml:space="preserve">1.10657525062561</t>
   </si>
   <si>
     <t xml:space="preserve">1.11201870441437</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.13923597335815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1337925195694</t>
+    <t xml:space="preserve">1.13379263877869</t>
   </si>
   <si>
     <t xml:space="preserve">1.05447375774384</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">1.04047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01403665542603</t>
+    <t xml:space="preserve">1.01403677463531</t>
   </si>
   <si>
     <t xml:space="preserve">1.01325905323029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996928751468658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958824574947357</t>
+    <t xml:space="preserve">0.996928691864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958824634552002</t>
   </si>
   <si>
     <t xml:space="preserve">0.942494213581085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948715329170227</t>
+    <t xml:space="preserve">0.948715388774872</t>
   </si>
   <si>
     <t xml:space="preserve">0.954936444759369</t>
@@ -2498,19 +2498,19 @@
     <t xml:space="preserve">1.00470507144928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990707695484161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985264122486115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997706413269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983708918094635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959602177143097</t>
+    <t xml:space="preserve">0.990707635879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985264182090759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997706294059753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98370897769928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959602236747742</t>
   </si>
   <si>
     <t xml:space="preserve">0.884949207305908</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">0.88106107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894280791282654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855399131774902</t>
+    <t xml:space="preserve">0.894280850887299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855399072170258</t>
   </si>
   <si>
     <t xml:space="preserve">0.828181862831116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801742196083069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815739631652832</t>
+    <t xml:space="preserve">0.801742255687714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815739691257477</t>
   </si>
   <si>
     <t xml:space="preserve">0.752362310886383</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">0.678875803947449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.695595026016235</t>
+    <t xml:space="preserve">0.695594966411591</t>
   </si>
   <si>
     <t xml:space="preserve">0.687040984630585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683930397033691</t>
+    <t xml:space="preserve">0.683930456638336</t>
   </si>
   <si>
     <t xml:space="preserve">0.645048677921295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632217645645142</t>
+    <t xml:space="preserve">0.632217705249786</t>
   </si>
   <si>
     <t xml:space="preserve">0.592558324337006</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">0.612388014793396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611610293388367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575839102268219</t>
+    <t xml:space="preserve">0.611610352993011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575839042663574</t>
   </si>
   <si>
     <t xml:space="preserve">0.572339713573456</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">0.550177097320557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576227903366089</t>
+    <t xml:space="preserve">0.576227962970734</t>
   </si>
   <si>
     <t xml:space="preserve">0.565729856491089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.57350617647171</t>
+    <t xml:space="preserve">0.573506236076355</t>
   </si>
   <si>
     <t xml:space="preserve">0.567673921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660990238189697</t>
+    <t xml:space="preserve">0.660990178585052</t>
   </si>
   <si>
     <t xml:space="preserve">0.684319257736206</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.638049960136414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674210011959076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681208670139313</t>
+    <t xml:space="preserve">0.674209952354431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681208729743958</t>
   </si>
   <si>
     <t xml:space="preserve">0.657879650592804</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.643882215023041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640771627426147</t>
+    <t xml:space="preserve">0.640771687030792</t>
   </si>
   <si>
     <t xml:space="preserve">0.611999154090881</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">0.622108399868011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.605778098106384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608110964298248</t>
+    <t xml:space="preserve">0.60577803850174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608111023902893</t>
   </si>
   <si>
     <t xml:space="preserve">0.613165616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607333362102509</t>
+    <t xml:space="preserve">0.607333302497864</t>
   </si>
   <si>
     <t xml:space="preserve">0.626385390758514</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">0.621330797672272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598779320716858</t>
+    <t xml:space="preserve">0.598779380321503</t>
   </si>
   <si>
     <t xml:space="preserve">0.615498483181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559897601604462</t>
+    <t xml:space="preserve">0.559897541999817</t>
   </si>
   <si>
     <t xml:space="preserve">0.549399495124817</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">0.547844231128693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544344842433929</t>
+    <t xml:space="preserve">0.544344902038574</t>
   </si>
   <si>
     <t xml:space="preserve">0.547455430030823</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.57311737537384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.593724727630615</t>
+    <t xml:space="preserve">0.59372466802597</t>
   </si>
   <si>
     <t xml:space="preserve">0.628329515457153</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">0.625996589660645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637661159038544</t>
+    <t xml:space="preserve">0.637661099433899</t>
   </si>
   <si>
     <t xml:space="preserve">0.61433207988739</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">0.654380261898041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632606506347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585170745849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586725950241089</t>
+    <t xml:space="preserve">0.632606446743011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585170686244965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586726009845734</t>
   </si>
   <si>
     <t xml:space="preserve">0.580893695354462</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">0.600334644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587892472743988</t>
+    <t xml:space="preserve">0.587892413139343</t>
   </si>
   <si>
     <t xml:space="preserve">0.580116093158722</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">0.576616764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58322662115097</t>
+    <t xml:space="preserve">0.583226680755615</t>
   </si>
   <si>
     <t xml:space="preserve">0.564563393592834</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">0.548233032226562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.541623115539551</t>
+    <t xml:space="preserve">0.541623175144196</t>
   </si>
   <si>
     <t xml:space="preserve">0.524903953075409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519460499286652</t>
+    <t xml:space="preserve">0.519460558891296</t>
   </si>
   <si>
     <t xml:space="preserve">0.515961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4766905605793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489521563053131</t>
+    <t xml:space="preserve">0.476690530776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489521533250809</t>
   </si>
   <si>
     <t xml:space="preserve">0.508962452411652</t>
@@ -2789,31 +2789,31 @@
     <t xml:space="preserve">0.491076827049255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.501186072826385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498464375734329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48602220416069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497686713933945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486799836158752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477079391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474746465682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459193795919418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444418668746948</t>
+    <t xml:space="preserve">0.50118613243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498464345932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486022174358368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497686743736267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48679980635643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477079421281815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474746435880661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459193736314774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444418698549271</t>
   </si>
   <si>
     <t xml:space="preserve">0.451806217432022</t>
@@ -2825,34 +2825,34 @@
     <t xml:space="preserve">0.485633373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478245854377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.491854459047318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508573651313782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467358976602554</t>
+    <t xml:space="preserve">0.478245824575424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49185448884964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508573591709137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467358946800232</t>
   </si>
   <si>
     <t xml:space="preserve">0.455694437026978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463859587907791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489132732152939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478634625673294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476301789283752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.482522875070572</t>
+    <t xml:space="preserve">0.463859558105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489132761955261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478634655475616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476301729679108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48252284526825</t>
   </si>
   <si>
     <t xml:space="preserve">0.477857023477554</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">0.473580062389374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474357664585114</t>
+    <t xml:space="preserve">0.474357694387436</t>
   </si>
   <si>
     <t xml:space="preserve">0.46036022901535</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">0.464637249708176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463470786809921</t>
+    <t xml:space="preserve">0.463470757007599</t>
   </si>
   <si>
     <t xml:space="preserve">0.458027333021164</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">0.446751624345779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438975214958191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.436253547668457</t>
+    <t xml:space="preserve">0.438975244760513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.436253517866135</t>
   </si>
   <si>
     <t xml:space="preserve">0.432754188776016</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">0.374820321798325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360200792551041</t>
+    <t xml:space="preserve">0.360200762748718</t>
   </si>
   <si>
     <t xml:space="preserve">0.355068385601044</t>
@@ -2933,22 +2933,22 @@
     <t xml:space="preserve">0.337649345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345892250537872</t>
+    <t xml:space="preserve">0.345892280340195</t>
   </si>
   <si>
     <t xml:space="preserve">0.331894844770432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346669942140579</t>
+    <t xml:space="preserve">0.346669912338257</t>
   </si>
   <si>
     <t xml:space="preserve">0.369376868009567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373576074838638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388040155172348</t>
+    <t xml:space="preserve">0.373576104640961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388040125370026</t>
   </si>
   <si>
     <t xml:space="preserve">0.396594107151031</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">0.36035630106926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.341848582029343</t>
+    <t xml:space="preserve">0.34184855222702</t>
   </si>
   <si>
     <t xml:space="preserve">0.323962956666946</t>
@@ -2981,10 +2981,10 @@
     <t xml:space="preserve">0.337182760238647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359423100948334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351802319288254</t>
+    <t xml:space="preserve">0.359423130750656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351802289485931</t>
   </si>
   <si>
     <t xml:space="preserve">0.386484861373901</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">0.358645498752594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336405098438263</t>
+    <t xml:space="preserve">0.336405128240585</t>
   </si>
   <si>
     <t xml:space="preserve">0.341693043708801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356001555919647</t>
+    <t xml:space="preserve">0.356001526117325</t>
   </si>
   <si>
     <t xml:space="preserve">0.35413521528244</t>
@@ -3029,28 +3029,28 @@
     <t xml:space="preserve">0.390373021364212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417979121208191</t>
+    <t xml:space="preserve">0.417979091405869</t>
   </si>
   <si>
     <t xml:space="preserve">0.421478450298309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445585191249847</t>
+    <t xml:space="preserve">0.445585161447525</t>
   </si>
   <si>
     <t xml:space="preserve">0.437419980764389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440141707658768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462693125009537</t>
+    <t xml:space="preserve">0.440141677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462693154811859</t>
   </si>
   <si>
     <t xml:space="preserve">0.461137861013412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437031149864197</t>
+    <t xml:space="preserve">0.437031120061874</t>
   </si>
   <si>
     <t xml:space="preserve">0.419145524501801</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">0.45025098323822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446362793445587</t>
+    <t xml:space="preserve">0.446362763643265</t>
   </si>
   <si>
     <t xml:space="preserve">0.454139143228531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452972650527954</t>
+    <t xml:space="preserve">0.452972680330276</t>
   </si>
   <si>
     <t xml:space="preserve">0.457638502120972</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">0.472024768590927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448306858539581</t>
+    <t xml:space="preserve">0.448306888341904</t>
   </si>
   <si>
     <t xml:space="preserve">0.452583879232407</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">0.457249671220779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465803653001785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.461526691913605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462304294109344</t>
+    <t xml:space="preserve">0.465803682804108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.461526721715927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462304323911667</t>
   </si>
   <si>
     <t xml:space="preserve">0.472413599491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.496131479740143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500408411026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494187414646149</t>
+    <t xml:space="preserve">0.49613144993782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500408470630646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494187384843826</t>
   </si>
   <si>
     <t xml:space="preserve">0.48213404417038</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">0.465414851903915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479801088571548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.470469504594803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.449084520339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419923186302185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.432365357875824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430421233177185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431976526975632</t>
+    <t xml:space="preserve">0.479801118373871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47046947479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449084490537643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419923216104507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.432365328073502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430421262979507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431976497173309</t>
   </si>
   <si>
     <t xml:space="preserve">0.421867281198502</t>
@@ -3146,19 +3146,19 @@
     <t xml:space="preserve">0.43119889497757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44091933965683</t>
+    <t xml:space="preserve">0.440919309854507</t>
   </si>
   <si>
     <t xml:space="preserve">0.442863434553146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46658131480217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566896259784698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521404623985291</t>
+    <t xml:space="preserve">0.466581344604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566896319389343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521404564380646</t>
   </si>
   <si>
     <t xml:space="preserve">0.530347406864166</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">0.500797271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494576185941696</t>
+    <t xml:space="preserve">0.494576156139374</t>
   </si>
   <si>
     <t xml:space="preserve">0.507795989513397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507018327713013</t>
+    <t xml:space="preserve">0.507018387317657</t>
   </si>
   <si>
     <t xml:space="preserve">0.504685461521149</t>
@@ -3209,40 +3209,40 @@
     <t xml:space="preserve">0.524126350879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513239443302155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502741396427155</t>
+    <t xml:space="preserve">0.513239502906799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50274133682251</t>
   </si>
   <si>
     <t xml:space="preserve">0.49652025103569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487577438354492</t>
+    <t xml:space="preserve">0.487577468156815</t>
   </si>
   <si>
     <t xml:space="preserve">0.480578750371933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493409723043442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485244601964951</t>
+    <t xml:space="preserve">0.493409782648087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485244572162628</t>
   </si>
   <si>
     <t xml:space="preserve">0.487188667058945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449473351240158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448695689439774</t>
+    <t xml:space="preserve">0.449473321437836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448695719242096</t>
   </si>
   <si>
     <t xml:space="preserve">0.44776251912117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44667387008667</t>
+    <t xml:space="preserve">0.446673840284348</t>
   </si>
   <si>
     <t xml:space="preserve">0.442630112171173</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">0.459427058696747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451184153556824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460982322692871</t>
+    <t xml:space="preserve">0.451184123754501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460982352495193</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096727132797</t>
@@ -3266,31 +3266,31 @@
     <t xml:space="preserve">0.449006766080856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450406551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456938654184341</t>
+    <t xml:space="preserve">0.450406521558762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456938624382019</t>
   </si>
   <si>
     <t xml:space="preserve">0.442474603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461760014295578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446829319000244</t>
+    <t xml:space="preserve">0.461759984493256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446829348802567</t>
   </si>
   <si>
     <t xml:space="preserve">0.451961755752563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46471494436264</t>
+    <t xml:space="preserve">0.464714974164963</t>
   </si>
   <si>
     <t xml:space="preserve">0.458338350057602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453516989946365</t>
+    <t xml:space="preserve">0.453517019748688</t>
   </si>
   <si>
     <t xml:space="preserve">0.454916775226593</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">0.459115982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479178965091705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.495353847742081</t>
+    <t xml:space="preserve">0.479178994894028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.495353817939758</t>
   </si>
   <si>
     <t xml:space="preserve">0.527236878871918</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">0.526303708553314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534546613693237</t>
+    <t xml:space="preserve">0.534546673297882</t>
   </si>
   <si>
     <t xml:space="preserve">0.545589089393616</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">0.548077523708344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553209841251373</t>
+    <t xml:space="preserve">0.553209900856018</t>
   </si>
   <si>
     <t xml:space="preserve">0.57031786441803</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">0.57684999704361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.606400191783905</t>
+    <t xml:space="preserve">0.60640013217926</t>
   </si>
   <si>
     <t xml:space="preserve">0.591003000736237</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">0.668610990047455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671566069126129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675143182277679</t>
+    <t xml:space="preserve">0.671566009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675143122673035</t>
   </si>
   <si>
     <t xml:space="preserve">0.671099424362183</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">0.655391216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649325609207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650258779525757</t>
+    <t xml:space="preserve">0.649325668811798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650258839130402</t>
   </si>
   <si>
     <t xml:space="preserve">0.629884779453278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613709926605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590380847454071</t>
+    <t xml:space="preserve">0.613709986209869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590380907058716</t>
   </si>
   <si>
     <t xml:space="preserve">0.586959302425385</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">0.597535133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.581826865673065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552276730537415</t>
+    <t xml:space="preserve">0.58182692527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552276790142059</t>
   </si>
   <si>
     <t xml:space="preserve">0.556009352207184</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">0.524592936038971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511839687824249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500330746173859</t>
+    <t xml:space="preserve">0.511839747428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500330686569214</t>
   </si>
   <si>
     <t xml:space="preserve">0.508729159832001</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">0.508107006549835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50452995300293</t>
+    <t xml:space="preserve">0.504529893398285</t>
   </si>
   <si>
     <t xml:space="preserve">0.507951498031616</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">0.506551802158356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497064590454102</t>
+    <t xml:space="preserve">0.497064620256424</t>
   </si>
   <si>
     <t xml:space="preserve">0.520860254764557</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">0.505774140357971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503285646438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511995196342468</t>
+    <t xml:space="preserve">0.503285706043243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511995255947113</t>
   </si>
   <si>
     <t xml:space="preserve">0.51246178150177</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">0.510595500469208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.521171271800995</t>
+    <t xml:space="preserve">0.52117133140564</t>
   </si>
   <si>
     <t xml:space="preserve">0.509817838668823</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">0.505463063716888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517438650131226</t>
+    <t xml:space="preserve">0.51743870973587</t>
   </si>
   <si>
     <t xml:space="preserve">0.517283141613007</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">0.500486195087433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494109600782394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.520393669605255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525215029716492</t>
+    <t xml:space="preserve">0.494109630584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5203937292099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525215089321136</t>
   </si>
   <si>
     <t xml:space="preserve">0.516038954257965</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">0.54496693611145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551965713500977</t>
+    <t xml:space="preserve">0.551965653896332</t>
   </si>
   <si>
     <t xml:space="preserve">0.541545391082764</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">0.549166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.537812769412994</t>
+    <t xml:space="preserve">0.53781270980835</t>
   </si>
   <si>
     <t xml:space="preserve">0.553831994533539</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">0.567984998226166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583071172237396</t>
+    <t xml:space="preserve">0.583071112632751</t>
   </si>
   <si>
     <t xml:space="preserve">0.623663723468781</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">0.609821796417236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623352646827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656168878078461</t>
+    <t xml:space="preserve">0.623352587223053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656168818473816</t>
   </si>
   <si>
     <t xml:space="preserve">0.669388651847839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.63392847776413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573584020137787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583848774433136</t>
+    <t xml:space="preserve">0.633928418159485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573583960533142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583848714828491</t>
   </si>
   <si>
     <t xml:space="preserve">0.589447736740112</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">0.552121222019196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557098090648651</t>
+    <t xml:space="preserve">0.557098150253296</t>
   </si>
   <si>
     <t xml:space="preserve">0.563008069992065</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">0.542167484760284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523659765720367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522726655006409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502663552761078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492865383625031</t>
+    <t xml:space="preserve">0.523659706115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522726595401764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502663612365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492865413427353</t>
   </si>
   <si>
     <t xml:space="preserve">0.499553054571152</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">0.4955093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.489754885435104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507484912872314</t>
+    <t xml:space="preserve">0.48975482583046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507484972476959</t>
   </si>
   <si>
     <t xml:space="preserve">0.523348689079285</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">0.52474844455719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513550519943237</t>
+    <t xml:space="preserve">0.513550460338593</t>
   </si>
   <si>
     <t xml:space="preserve">0.493643045425415</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">0.461293399333954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464092910289764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435786932706833</t>
+    <t xml:space="preserve">0.464092880487442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435786962509155</t>
   </si>
   <si>
     <t xml:space="preserve">0.432054281234741</t>
@@ -3683,19 +3683,19 @@
     <t xml:space="preserve">0.417745798826218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450095474720001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452739387750626</t>
+    <t xml:space="preserve">0.450095444917679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452739417552948</t>
   </si>
   <si>
     <t xml:space="preserve">0.43843087553978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.43547585606575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430654555559158</t>
+    <t xml:space="preserve">0.435475885868073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430654525756836</t>
   </si>
   <si>
     <t xml:space="preserve">0.42536661028862</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">0.41525736451149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427232921123505</t>
+    <t xml:space="preserve">0.427232950925827</t>
   </si>
   <si>
     <t xml:space="preserve">0.424277931451797</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">0.412457853555679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422878205776215</t>
+    <t xml:space="preserve">0.422878175973892</t>
   </si>
   <si>
     <t xml:space="preserve">0.422722697257996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434542685747147</t>
+    <t xml:space="preserve">0.434542715549469</t>
   </si>
   <si>
     <t xml:space="preserve">0.424900054931641</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">0.43407616019249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436564564704895</t>
+    <t xml:space="preserve">0.436564594507217</t>
   </si>
   <si>
     <t xml:space="preserve">0.440608292818069</t>
@@ -3743,37 +3743,37 @@
     <t xml:space="preserve">0.443252235651016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462071031332016</t>
+    <t xml:space="preserve">0.462071001529694</t>
   </si>
   <si>
     <t xml:space="preserve">0.456005454063416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.456472039222717</t>
+    <t xml:space="preserve">0.45647206902504</t>
   </si>
   <si>
     <t xml:space="preserve">0.446207284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453205972909927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448851197957993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430032402276993</t>
+    <t xml:space="preserve">0.453205943107605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448851227760315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430032432079315</t>
   </si>
   <si>
     <t xml:space="preserve">0.443563312292099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457405179738998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452117294073105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427543997764587</t>
+    <t xml:space="preserve">0.457405209541321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452117264270782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.427543967962265</t>
   </si>
   <si>
     <t xml:space="preserve">0.423344761133194</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">0.472802400588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466270297765732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480423241853714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455227792263031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.441697001457214</t>
+    <t xml:space="preserve">0.466270238161087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480423212051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455227822065353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441696971654892</t>
   </si>
   <si>
     <t xml:space="preserve">0.386173814535141</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">0.42863267660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.408725261688232</t>
+    <t xml:space="preserve">0.40872523188591</t>
   </si>
   <si>
     <t xml:space="preserve">0.411058127880096</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">0.436098009347916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451495170593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478401362895966</t>
+    <t xml:space="preserve">0.451495200395584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478401392698288</t>
   </si>
   <si>
     <t xml:space="preserve">0.468914210796356</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">0.467203408479691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513083934783936</t>
+    <t xml:space="preserve">0.513083875179291</t>
   </si>
   <si>
     <t xml:space="preserve">0.515883386135101</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">0.54792195558548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542634069919586</t>
+    <t xml:space="preserve">0.542634010314941</t>
   </si>
   <si>
     <t xml:space="preserve">0.537346124649048</t>
@@ -3863,22 +3863,22 @@
     <t xml:space="preserve">0.551810145378113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572028636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619775533676147</t>
+    <t xml:space="preserve">0.572028696537018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619775474071503</t>
   </si>
   <si>
     <t xml:space="preserve">0.64403772354126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671877086162567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705626428127289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705937504768372</t>
+    <t xml:space="preserve">0.671877145767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705626487731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705937564373016</t>
   </si>
   <si>
     <t xml:space="preserve">0.72786682844162</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">0.658968329429626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.639216423034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662545442581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682452917098999</t>
+    <t xml:space="preserve">0.639216363430023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662545502185822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682452976703644</t>
   </si>
   <si>
     <t xml:space="preserve">0.693650901317596</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">0.755084097385406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821183085441589</t>
+    <t xml:space="preserve">0.821183145046234</t>
   </si>
   <si>
     <t xml:space="preserve">0.744352698326111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771258950233459</t>
+    <t xml:space="preserve">0.771258890628815</t>
   </si>
   <si>
     <t xml:space="preserve">0.776546835899353</t>
@@ -3929,10 +3929,10 @@
     <t xml:space="preserve">0.765659928321838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835958242416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88067227602005</t>
+    <t xml:space="preserve">0.835958182811737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.880672216415405</t>
   </si>
   <si>
     <t xml:space="preserve">0.936661899089813</t>
@@ -3944,22 +3944,22 @@
     <t xml:space="preserve">0.886893272399902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898169040679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891559064388275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918776273727417</t>
+    <t xml:space="preserve">0.898168981075287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89155912399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918776392936707</t>
   </si>
   <si>
     <t xml:space="preserve">0.897002577781677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925775110721588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989152371883392</t>
+    <t xml:space="preserve">0.925775170326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989152312278748</t>
   </si>
   <si>
     <t xml:space="preserve">0.989930033683777</t>
@@ -3986,10 +3986,10 @@
     <t xml:space="preserve">1.01442551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970877945423126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976321399211884</t>
+    <t xml:space="preserve">0.970877885818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976321339607239</t>
   </si>
   <si>
     <t xml:space="preserve">0.960768640041351</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">0.977487802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02414608001709</t>
+    <t xml:space="preserve">1.0241459608078</t>
   </si>
   <si>
     <t xml:space="preserve">1.11046350002289</t>
@@ -4028,19 +4028,19 @@
     <t xml:space="preserve">1.00859332084656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932538509369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896224975585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879116952419281</t>
+    <t xml:space="preserve">0.975932598114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896224915981293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879116892814636</t>
   </si>
   <si>
     <t xml:space="preserve">0.838291049003601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879505753517151</t>
+    <t xml:space="preserve">0.879505813121796</t>
   </si>
   <si>
     <t xml:space="preserve">0.903612434864044</t>
@@ -4055,37 +4055,37 @@
     <t xml:space="preserve">0.897780239582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919942796230316</t>
+    <t xml:space="preserve">0.919942855834961</t>
   </si>
   <si>
     <t xml:space="preserve">0.969711542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988763511180878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961546301841736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0431981086731</t>
+    <t xml:space="preserve">0.988763570785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961546361446381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04319798946381</t>
   </si>
   <si>
     <t xml:space="preserve">0.945604801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8709517121315</t>
+    <t xml:space="preserve">0.870951771736145</t>
   </si>
   <si>
     <t xml:space="preserve">0.827793002128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869785368442535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83984637260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845289826393127</t>
+    <t xml:space="preserve">0.869785308837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839846432209015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845289766788483</t>
   </si>
   <si>
     <t xml:space="preserve">0.862397789955139</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">0.908278286457062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924608588218689</t>
+    <t xml:space="preserve">0.924608647823334</t>
   </si>
   <si>
     <t xml:space="preserve">1.00314974784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05097436904907</t>
+    <t xml:space="preserve">1.05097448825836</t>
   </si>
   <si>
     <t xml:space="preserve">1.03658807277679</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">1.01831364631653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940939009189606</t>
+    <t xml:space="preserve">0.940938949584961</t>
   </si>
   <si>
     <t xml:space="preserve">0.949881851673126</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">0.854232609272003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874062299728394</t>
+    <t xml:space="preserve">0.874062240123749</t>
   </si>
   <si>
     <t xml:space="preserve">0.878339350223541</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">0.76690411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770325720310211</t>
+    <t xml:space="preserve">0.770325779914856</t>
   </si>
   <si>
     <t xml:space="preserve">0.770481288433075</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">0.78852242231369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779579639434814</t>
+    <t xml:space="preserve">0.779579699039459</t>
   </si>
   <si>
     <t xml:space="preserve">0.724911868572235</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">0.737353980541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7581946849823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814961969852448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849566757678986</t>
+    <t xml:space="preserve">0.758194625377655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814962029457092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84956681728363</t>
   </si>
   <si>
     <t xml:space="preserve">0.807185649871826</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">0.797854006290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82001668214798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819239020347595</t>
+    <t xml:space="preserve">0.820016622543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81923907995224</t>
   </si>
   <si>
     <t xml:space="preserve">0.844901025295258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854621469974518</t>
+    <t xml:space="preserve">0.854621410369873</t>
   </si>
   <si>
     <t xml:space="preserve">0.865508377552032</t>
@@ -4229,16 +4229,16 @@
     <t xml:space="preserve">0.944049537181854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947548866271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956102848052979</t>
+    <t xml:space="preserve">0.947548925876617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956102907657623</t>
   </si>
   <si>
     <t xml:space="preserve">0.935106694698334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967767477035522</t>
+    <t xml:space="preserve">0.967767417430878</t>
   </si>
   <si>
     <t xml:space="preserve">0.926163911819458</t>
@@ -4259,25 +4259,25 @@
     <t xml:space="preserve">0.998872816562653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954158782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937439560890198</t>
+    <t xml:space="preserve">0.954158842563629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937439620494843</t>
   </si>
   <si>
     <t xml:space="preserve">0.89194792509079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882616341114044</t>
+    <t xml:space="preserve">0.882616281509399</t>
   </si>
   <si>
     <t xml:space="preserve">0.858509600162506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836346983909607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815350830554962</t>
+    <t xml:space="preserve">0.836347043514252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815350770950317</t>
   </si>
   <si>
     <t xml:space="preserve">0.832070052623749</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">0.824682474136353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829348266124725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816906154155731</t>
+    <t xml:space="preserve">0.829348206520081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816906094551086</t>
   </si>
   <si>
     <t xml:space="preserve">0.849955677986145</t>
@@ -4298,13 +4298,13 @@
     <t xml:space="preserve">0.851510882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872507095336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868618845939636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897391378879547</t>
+    <t xml:space="preserve">0.872507035732269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868618905544281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897391438484192</t>
   </si>
   <si>
     <t xml:space="preserve">0.893503248691559</t>
@@ -4316,22 +4316,22 @@
     <t xml:space="preserve">0.926552653312683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912944078445435</t>
+    <t xml:space="preserve">0.912944138050079</t>
   </si>
   <si>
     <t xml:space="preserve">0.937828421592712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952214658260345</t>
+    <t xml:space="preserve">0.952214598655701</t>
   </si>
   <si>
     <t xml:space="preserve">0.971655607223511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988374829292297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05564022064209</t>
+    <t xml:space="preserve">0.988374769687653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0556401014328</t>
   </si>
   <si>
     <t xml:space="preserve">1.12290573120117</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">1.18006193637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19211518764496</t>
+    <t xml:space="preserve">1.19211530685425</t>
   </si>
   <si>
     <t xml:space="preserve">1.18667185306549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20494616031647</t>
+    <t xml:space="preserve">1.20494627952576</t>
   </si>
   <si>
     <t xml:space="preserve">1.15128934383392</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.23799574375153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698670864105</t>
+    <t xml:space="preserve">1.28698682785034</t>
   </si>
   <si>
     <t xml:space="preserve">1.14001369476318</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">1.12873804569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15362238883972</t>
+    <t xml:space="preserve">1.15362226963043</t>
   </si>
   <si>
     <t xml:space="preserve">1.16684210300446</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">1.16606450080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15245580673218</t>
+    <t xml:space="preserve">1.15245592594147</t>
   </si>
   <si>
     <t xml:space="preserve">1.10463130474091</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">1.10929703712463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09607720375061</t>
+    <t xml:space="preserve">1.0960773229599</t>
   </si>
   <si>
     <t xml:space="preserve">1.03853225708008</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">1.09491086006165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15401101112366</t>
+    <t xml:space="preserve">1.15401113033295</t>
   </si>
   <si>
     <t xml:space="preserve">1.08985614776611</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">1.08052456378937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02686762809753</t>
+    <t xml:space="preserve">1.02686774730682</t>
   </si>
   <si>
     <t xml:space="preserve">1.02064669132233</t>
@@ -4469,28 +4469,28 @@
     <t xml:space="preserve">1.02803421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00353872776031</t>
+    <t xml:space="preserve">1.00353860855103</t>
   </si>
   <si>
     <t xml:space="preserve">0.99459582567215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986819446086884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97321081161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956491708755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966212153434753</t>
+    <t xml:space="preserve">0.986819565296173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973210871219635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956491649150848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966212093830109</t>
   </si>
   <si>
     <t xml:space="preserve">0.953769981861115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940161287784576</t>
+    <t xml:space="preserve">0.940161347389221</t>
   </si>
   <si>
     <t xml:space="preserve">0.933551430702209</t>
@@ -4502,31 +4502,31 @@
     <t xml:space="preserve">0.912555277347565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880283415317535</t>
+    <t xml:space="preserve">0.880283355712891</t>
   </si>
   <si>
     <t xml:space="preserve">0.853066146373749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89233672618866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916832327842712</t>
+    <t xml:space="preserve">0.892336785793304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916832268238068</t>
   </si>
   <si>
     <t xml:space="preserve">0.889226198196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93316262960434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933940291404724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980987191200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960379838943481</t>
+    <t xml:space="preserve">0.933162689208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933940172195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980987250804901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960379898548126</t>
   </si>
   <si>
     <t xml:space="preserve">0.98448657989502</t>
@@ -62014,7 +62014,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.649537037</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>2321573</v>
@@ -62035,6 +62035,32 @@
         <v>1746</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.6494444444</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>1379490</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>1.62249994277954</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>1.61249995231628</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>1.62249994277954</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>1.62000000476837</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="1748">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170564651489</t>
+    <t xml:space="preserve">1.00170576572418</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
@@ -50,22 +50,22 @@
     <t xml:space="preserve">0.985255360603333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960580050945282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964105010032654</t>
+    <t xml:space="preserve">0.960579872131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964105069637299</t>
   </si>
   <si>
     <t xml:space="preserve">0.993480503559113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992893040180206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04576885700226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04165637493134</t>
+    <t xml:space="preserve">0.992893099784851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04576897621155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04165625572205</t>
   </si>
   <si>
     <t xml:space="preserve">1.02814364433289</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">1.02579367160797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07749450206757</t>
+    <t xml:space="preserve">1.07749462127686</t>
   </si>
   <si>
     <t xml:space="preserve">1.08101963996887</t>
@@ -92,22 +92,22 @@
     <t xml:space="preserve">1.1456458568573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1468209028244</t>
+    <t xml:space="preserve">1.14682078361511</t>
   </si>
   <si>
     <t xml:space="preserve">1.1150951385498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12802052497864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1403580904007</t>
+    <t xml:space="preserve">1.12802040576935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14035820960999</t>
   </si>
   <si>
     <t xml:space="preserve">1.11098265647888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09100735187531</t>
+    <t xml:space="preserve">1.09100723266602</t>
   </si>
   <si>
     <t xml:space="preserve">1.02755606174469</t>
@@ -116,76 +116,76 @@
     <t xml:space="preserve">0.957642316818237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853652894496918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829564988613129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.840140283107758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810764610767365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81663978099823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873040795326233</t>
+    <t xml:space="preserve">0.853652834892273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829565048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.840140223503113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810764789581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816639840602875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873040854930878</t>
   </si>
   <si>
     <t xml:space="preserve">0.863640666007996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872453331947327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887728631496429</t>
+    <t xml:space="preserve">0.872453391551971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887728571891785</t>
   </si>
   <si>
     <t xml:space="preserve">0.881853580474854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860703110694885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842490255832672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850127875804901</t>
+    <t xml:space="preserve">0.86070305109024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842490315437317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850127935409546</t>
   </si>
   <si>
     <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904178977012634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916516602039337</t>
+    <t xml:space="preserve">0.904178857803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916516661643982</t>
   </si>
   <si>
     <t xml:space="preserve">0.895366311073303</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851890623569489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.807827115058899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776101529598236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.764938950538635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.757888793945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831915140151978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820164918899536</t>
+    <t xml:space="preserve">0.851890444755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.807827234268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776101589202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76493889093399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.757888674736023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831915080547333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820164859294891</t>
   </si>
   <si>
     <t xml:space="preserve">0.817814886569977</t>
@@ -194,19 +194,19 @@
     <t xml:space="preserve">0.828390002250671</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833677589893341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823102474212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817227423191071</t>
+    <t xml:space="preserve">0.833677530288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823102414608002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817227363586426</t>
   </si>
   <si>
     <t xml:space="preserve">0.827215015888214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828977465629578</t>
+    <t xml:space="preserve">0.828977584838867</t>
   </si>
   <si>
     <t xml:space="preserve">0.843077778816223</t>
@@ -215,25 +215,25 @@
     <t xml:space="preserve">0.865403234958649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837790250778198</t>
+    <t xml:space="preserve">0.837790191173553</t>
   </si>
   <si>
     <t xml:space="preserve">0.830740094184875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846602737903595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848953008651733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860115528106689</t>
+    <t xml:space="preserve">0.84660279750824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848952949047089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860115587711334</t>
   </si>
   <si>
     <t xml:space="preserve">0.846015393733978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834265112876892</t>
+    <t xml:space="preserve">0.834265232086182</t>
   </si>
   <si>
     <t xml:space="preserve">0.822514891624451</t>
@@ -242,79 +242,79 @@
     <t xml:space="preserve">0.845427870750427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868340790271759</t>
+    <t xml:space="preserve">0.868340909481049</t>
   </si>
   <si>
     <t xml:space="preserve">0.920629262924194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915929079055786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905941426753998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893016159534454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553585529327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578280925751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869515776634216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882440865039825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864228069782257</t>
+    <t xml:space="preserve">0.915929138660431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905941486358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.893016219139099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553525924683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578161716461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869515836238861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88244104385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.864228188991547</t>
   </si>
   <si>
     <t xml:space="preserve">0.835440218448639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826039969921112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83015251159668</t>
+    <t xml:space="preserve">0.826040029525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830152571201324</t>
   </si>
   <si>
     <t xml:space="preserve">0.831327617168427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907116532325745</t>
+    <t xml:space="preserve">0.9071164727211</t>
   </si>
   <si>
     <t xml:space="preserve">0.924741864204407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94530463218689</t>
+    <t xml:space="preserve">0.945304691791534</t>
   </si>
   <si>
     <t xml:space="preserve">0.93707948923111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928854286670685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961768984794617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98744261264801</t>
+    <t xml:space="preserve">0.928854405879974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961769104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987442493438721</t>
   </si>
   <si>
     <t xml:space="preserve">0.994025588035583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03483986854553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04010617733002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04076445102692</t>
+    <t xml:space="preserve">1.03483998775482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04010629653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04076457023621</t>
   </si>
   <si>
     <t xml:space="preserve">1.03615653514862</t>
@@ -335,31 +335,31 @@
     <t xml:space="preserve">1.07367932796478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11646831035614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09276986122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03878951072693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02299058437347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982834577560425</t>
+    <t xml:space="preserve">1.11646854877472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09276974201202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03878962993622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02299046516418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98283463716507</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367314338684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07894563674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07565414905548</t>
+    <t xml:space="preserve">0.993367254734039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07894575595856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07565402984619</t>
   </si>
   <si>
     <t xml:space="preserve">1.07302093505859</t>
@@ -371,25 +371,25 @@
     <t xml:space="preserve">1.015749335289</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959136068820953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977568209171295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972301781177521</t>
+    <t xml:space="preserve">0.959136009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97756826877594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972301959991455</t>
   </si>
   <si>
     <t xml:space="preserve">1.02628207206726</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04668927192688</t>
+    <t xml:space="preserve">1.04668915271759</t>
   </si>
   <si>
     <t xml:space="preserve">1.02035737037659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961110830307007</t>
+    <t xml:space="preserve">0.961110770702362</t>
   </si>
   <si>
     <t xml:space="preserve">0.938728809356689</t>
@@ -398,22 +398,22 @@
     <t xml:space="preserve">0.936095714569092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956502676010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951894700527191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936753869056702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.946628272533417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939387142658234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949919819831848</t>
+    <t xml:space="preserve">0.956502616405487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951894760131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936753928661346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.946628391742706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939387083053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949919760227203</t>
   </si>
   <si>
     <t xml:space="preserve">0.94860315322876</t>
@@ -422,28 +422,28 @@
     <t xml:space="preserve">0.974276781082153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954528033733368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997975528240204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923588037490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836034774780273</t>
+    <t xml:space="preserve">0.954527854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99797534942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923587918281555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836034834384918</t>
   </si>
   <si>
     <t xml:space="preserve">0.80970299243927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.832085072994232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851833760738373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88869845867157</t>
+    <t xml:space="preserve">0.832085013389587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851833879947662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88869833946228</t>
   </si>
   <si>
     <t xml:space="preserve">0.88409036397934</t>
@@ -452,58 +452,58 @@
     <t xml:space="preserve">0.871582686901093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873557507991791</t>
+    <t xml:space="preserve">0.873557567596436</t>
   </si>
   <si>
     <t xml:space="preserve">0.880798876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886723458766937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890673220157623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870924413204193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866974711418152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884748578071594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88343209028244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87421578168869</t>
+    <t xml:space="preserve">0.886723518371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890673279762268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870924353599548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866974771022797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884748637676239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883432030677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874215841293335</t>
   </si>
   <si>
     <t xml:space="preserve">0.870266199111938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86434143781662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881457090377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882773697376251</t>
+    <t xml:space="preserve">0.864341497421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881457209587097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882773756980896</t>
   </si>
   <si>
     <t xml:space="preserve">0.887381792068481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880140542984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613037586212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934778988361359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947944939136505</t>
+    <t xml:space="preserve">0.880140602588654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613097190857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934779107570648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94794499874115</t>
   </si>
   <si>
     <t xml:space="preserve">0.947286665439606</t>
@@ -512,67 +512,67 @@
     <t xml:space="preserve">0.932145833969116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902522623538971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281255245209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903180778026581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917005062103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940045297145844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934120714664459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911080479621887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912396967411041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913713574409485</t>
+    <t xml:space="preserve">0.902522504329681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281314849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903180837631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917005002498627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940045416355133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93412059545517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911080300807953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912397027015686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91371363401413</t>
   </si>
   <si>
     <t xml:space="preserve">0.931487560272217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.918980002403259</t>
+    <t xml:space="preserve">0.918979942798615</t>
   </si>
   <si>
     <t xml:space="preserve">0.909763813018799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.926879465579987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920296609401703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93807053565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964402377605438</t>
+    <t xml:space="preserve">0.926879525184631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920296549797058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938070476055145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964402258396149</t>
   </si>
   <si>
     <t xml:space="preserve">0.970326960086823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988759100437164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984151065349579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992709040641785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04142284393311</t>
+    <t xml:space="preserve">0.988759279251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984151124954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99270886182785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0414229631424</t>
   </si>
   <si>
     <t xml:space="preserve">1.03549814224243</t>
@@ -581,25 +581,25 @@
     <t xml:space="preserve">1.03154850006104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05919671058655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03813135623932</t>
+    <t xml:space="preserve">1.05919682979584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03813147544861</t>
   </si>
   <si>
     <t xml:space="preserve">1.03023183345795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02167391777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03418147563934</t>
+    <t xml:space="preserve">1.02167403697968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03418159484863</t>
   </si>
   <si>
     <t xml:space="preserve">1.01838254928589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03352332115173</t>
+    <t xml:space="preserve">1.03352344036102</t>
   </si>
   <si>
     <t xml:space="preserve">1.04208111763</t>
@@ -611,25 +611,25 @@
     <t xml:space="preserve">1.09211158752441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08618700504303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09013664722443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09935283660889</t>
+    <t xml:space="preserve">1.08618688583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09013676643372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0993527173996</t>
   </si>
   <si>
     <t xml:space="preserve">1.08750355243683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07960391044617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05788016319275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06380486488342</t>
+    <t xml:space="preserve">1.07960402965546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05788028240204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06380498409271</t>
   </si>
   <si>
     <t xml:space="preserve">1.13819217681885</t>
@@ -641,34 +641,34 @@
     <t xml:space="preserve">1.123051404953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08421194553375</t>
+    <t xml:space="preserve">1.08421206474304</t>
   </si>
   <si>
     <t xml:space="preserve">1.07697069644928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09145331382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.096719622612</t>
+    <t xml:space="preserve">1.09145319461823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09671974182129</t>
   </si>
   <si>
     <t xml:space="preserve">1.11778509616852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13095116615295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11186051368713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12568473815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13226747512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13885056972504</t>
+    <t xml:space="preserve">1.13095080852509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11186039447784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12568461894989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13226759433746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13885045051575</t>
   </si>
   <si>
     <t xml:space="preserve">1.13621723651886</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">1.14740836620331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15596616268158</t>
+    <t xml:space="preserve">1.15596628189087</t>
   </si>
   <si>
     <t xml:space="preserve">1.14016711711884</t>
@@ -695,25 +695,25 @@
     <t xml:space="preserve">1.1243679523468</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12831771373749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09079492092133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0973778963089</t>
+    <t xml:space="preserve">1.12831783294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09079504013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09737801551819</t>
   </si>
   <si>
     <t xml:space="preserve">1.08684527873993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0190407037735</t>
+    <t xml:space="preserve">1.01904082298279</t>
   </si>
   <si>
     <t xml:space="preserve">1.02364873886108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02496564388275</t>
+    <t xml:space="preserve">1.02496540546417</t>
   </si>
   <si>
     <t xml:space="preserve">1.02562379837036</t>
@@ -725,31 +725,31 @@
     <t xml:space="preserve">0.940703690052032</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93346244096756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935437321662903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953869640827179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999950170516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00521659851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0170658826828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00916635990143</t>
+    <t xml:space="preserve">0.93346232175827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935437440872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953869521617889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999950349330902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00521671772003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01706576347351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00916647911072</t>
   </si>
   <si>
     <t xml:space="preserve">1.03089010715485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04603087902069</t>
+    <t xml:space="preserve">1.0460307598114</t>
   </si>
   <si>
     <t xml:space="preserve">1.07170438766479</t>
@@ -767,25 +767,25 @@
     <t xml:space="preserve">1.0947448015213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12041819095612</t>
+    <t xml:space="preserve">1.12041831016541</t>
   </si>
   <si>
     <t xml:space="preserve">1.12765955924988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12634289264679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1223931312561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11976003646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13490080833435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16715717315674</t>
+    <t xml:space="preserve">1.12634301185608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12239325046539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11975991725922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13490068912506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16715705394745</t>
   </si>
   <si>
     <t xml:space="preserve">1.16913211345673</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">1.16584062576294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17374014854431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1790064573288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18229794502258</t>
+    <t xml:space="preserve">1.17374002933502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17900657653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18229806423187</t>
   </si>
   <si>
     <t xml:space="preserve">1.17308175563812</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">1.21389615535736</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22706210613251</t>
+    <t xml:space="preserve">1.22706198692322</t>
   </si>
   <si>
     <t xml:space="preserve">1.21784591674805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20402157306671</t>
+    <t xml:space="preserve">1.204021692276</t>
   </si>
   <si>
     <t xml:space="preserve">1.19546389579773</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">1.21455442905426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21587097644806</t>
+    <t xml:space="preserve">1.21587109565735</t>
   </si>
   <si>
     <t xml:space="preserve">1.23167014122009</t>
@@ -854,22 +854,22 @@
     <t xml:space="preserve">1.26853466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24417769908905</t>
+    <t xml:space="preserve">1.24417781829834</t>
   </si>
   <si>
     <t xml:space="preserve">1.26260995864868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27182626724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28696691989899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30934882164001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32448971271515</t>
+    <t xml:space="preserve">1.27182614803314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28696703910828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3093489408493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32448983192444</t>
   </si>
   <si>
     <t xml:space="preserve">1.32843947410583</t>
@@ -878,13 +878,13 @@
     <t xml:space="preserve">1.3613543510437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35213804244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35608780384064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35872101783752</t>
+    <t xml:space="preserve">1.35213816165924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35608792304993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35872113704681</t>
   </si>
   <si>
     <t xml:space="preserve">1.39163589477539</t>
@@ -893,13 +893,13 @@
     <t xml:space="preserve">1.40875148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47721409797668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48116397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49169683456421</t>
+    <t xml:space="preserve">1.47721421718597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48116385936737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49169671535492</t>
   </si>
   <si>
     <t xml:space="preserve">1.49169659614563</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">1.47379088401794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39803516864777</t>
+    <t xml:space="preserve">1.39803528785706</t>
   </si>
   <si>
     <t xml:space="preserve">1.38701617717743</t>
@@ -932,19 +932,19 @@
     <t xml:space="preserve">1.43522441387177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43246948719025</t>
+    <t xml:space="preserve">1.43246960639954</t>
   </si>
   <si>
     <t xml:space="preserve">1.45313012599945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51235723495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57158446311951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53301787376404</t>
+    <t xml:space="preserve">1.51235735416412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57158434391022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53301799297333</t>
   </si>
   <si>
     <t xml:space="preserve">1.53990471363068</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">1.45175278186798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45863974094391</t>
+    <t xml:space="preserve">1.45863962173462</t>
   </si>
   <si>
     <t xml:space="preserve">1.42282795906067</t>
@@ -980,10 +980,10 @@
     <t xml:space="preserve">1.44624328613281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43797898292542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45726215839386</t>
+    <t xml:space="preserve">1.4379791021347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45726227760315</t>
   </si>
   <si>
     <t xml:space="preserve">1.42558264732361</t>
@@ -995,25 +995,25 @@
     <t xml:space="preserve">1.44073379039764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43660175800323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45588493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47654569149017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51786684989929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53164052963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53577268123627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55643332004547</t>
+    <t xml:space="preserve">1.43660163879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45588505268097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47654557228088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51786673069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53164064884186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53577256202698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55643320083618</t>
   </si>
   <si>
     <t xml:space="preserve">1.54403698444366</t>
@@ -1022,13 +1022,13 @@
     <t xml:space="preserve">1.52888584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33605349063873</t>
+    <t xml:space="preserve">1.33605337142944</t>
   </si>
   <si>
     <t xml:space="preserve">1.33811938762665</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31194925308228</t>
+    <t xml:space="preserve">1.31194937229156</t>
   </si>
   <si>
     <t xml:space="preserve">1.27820360660553</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">1.28095841407776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32021367549896</t>
+    <t xml:space="preserve">1.32021355628967</t>
   </si>
   <si>
     <t xml:space="preserve">1.33743071556091</t>
@@ -1052,16 +1052,16 @@
     <t xml:space="preserve">1.35258185863495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29748690128326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28233575820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29542088508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2899112701416</t>
+    <t xml:space="preserve">1.29748678207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28233563899994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29542076587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28991138935089</t>
   </si>
   <si>
     <t xml:space="preserve">1.31608140468597</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">1.33674204349518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32778918743134</t>
+    <t xml:space="preserve">1.32778906822205</t>
   </si>
   <si>
     <t xml:space="preserve">1.33329856395721</t>
@@ -1097,13 +1097,13 @@
     <t xml:space="preserve">1.45037531852722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44762063026428</t>
+    <t xml:space="preserve">1.44762074947357</t>
   </si>
   <si>
     <t xml:space="preserve">1.4049220085144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46414911746979</t>
+    <t xml:space="preserve">1.46414923667908</t>
   </si>
   <si>
     <t xml:space="preserve">1.48618721961975</t>
@@ -1112,13 +1112,13 @@
     <t xml:space="preserve">1.51097989082336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56194257736206</t>
+    <t xml:space="preserve">1.56194269657135</t>
   </si>
   <si>
     <t xml:space="preserve">1.53852736949921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5261310338974</t>
+    <t xml:space="preserve">1.52613091468811</t>
   </si>
   <si>
     <t xml:space="preserve">1.55918800830841</t>
@@ -1133,16 +1133,16 @@
     <t xml:space="preserve">1.51924419403076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50684773921967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49582862854004</t>
+    <t xml:space="preserve">1.50684762001038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49582874774933</t>
   </si>
   <si>
     <t xml:space="preserve">1.48756456375122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50822532176971</t>
+    <t xml:space="preserve">1.50822520256042</t>
   </si>
   <si>
     <t xml:space="preserve">1.52750837802887</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">1.60050916671753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57847118377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62116980552673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61841511726379</t>
+    <t xml:space="preserve">1.57847142219543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62116992473602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6184149980545</t>
   </si>
   <si>
     <t xml:space="preserve">1.58949029445648</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">1.4848096370697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52062141895294</t>
+    <t xml:space="preserve">1.52062153816223</t>
   </si>
   <si>
     <t xml:space="preserve">1.55230116844177</t>
@@ -1181,22 +1181,22 @@
     <t xml:space="preserve">1.49720621109009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42145037651062</t>
+    <t xml:space="preserve">1.4214506149292</t>
   </si>
   <si>
     <t xml:space="preserve">1.43384695053101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41731858253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37599718570709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37117648124695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38839364051819</t>
+    <t xml:space="preserve">1.4173184633255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37599730491638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37117636203766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3883935213089</t>
   </si>
   <si>
     <t xml:space="preserve">1.37530851364136</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">1.36360085010529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35051584243774</t>
+    <t xml:space="preserve">1.35051572322845</t>
   </si>
   <si>
     <t xml:space="preserve">1.37048768997192</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">1.34087419509888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36222350597382</t>
+    <t xml:space="preserve">1.36222338676453</t>
   </si>
   <si>
     <t xml:space="preserve">1.34294033050537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3697988986969</t>
+    <t xml:space="preserve">1.36979901790619</t>
   </si>
   <si>
     <t xml:space="preserve">1.36428952217102</t>
@@ -1229,28 +1229,28 @@
     <t xml:space="preserve">1.36704432964325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38977086544037</t>
+    <t xml:space="preserve">1.38977098464966</t>
   </si>
   <si>
     <t xml:space="preserve">1.3801292181015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35533666610718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37737452983856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36842167377472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36635553836823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21966516971588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23963713645935</t>
+    <t xml:space="preserve">1.35533654689789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37737464904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36842155456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36635565757751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21966528892517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23963701725006</t>
   </si>
   <si>
     <t xml:space="preserve">1.25134479999542</t>
@@ -1262,13 +1262,13 @@
     <t xml:space="preserve">1.22586333751678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25203359127045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24721264839172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21553301811218</t>
+    <t xml:space="preserve">1.25203347206116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24721276760101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21553313732147</t>
   </si>
   <si>
     <t xml:space="preserve">1.19900465011597</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">1.22104251384735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21002352237701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2058914899826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21140098571777</t>
+    <t xml:space="preserve">1.2100236415863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20589137077332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21140086650848</t>
   </si>
   <si>
     <t xml:space="preserve">1.1996933221817</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">1.15699458122253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1521737575531</t>
+    <t xml:space="preserve">1.15217387676239</t>
   </si>
   <si>
     <t xml:space="preserve">1.12600374221802</t>
@@ -1316,22 +1316,22 @@
     <t xml:space="preserve">1.11429607868195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13082444667816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12669241428375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14322090148926</t>
+    <t xml:space="preserve">1.13082456588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12669229507446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14322078227997</t>
   </si>
   <si>
     <t xml:space="preserve">1.13357925415039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23137283325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1893630027771</t>
+    <t xml:space="preserve">1.23137295246124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18936288356781</t>
   </si>
   <si>
     <t xml:space="preserve">1.17352306842804</t>
@@ -1355,28 +1355,28 @@
     <t xml:space="preserve">1.26029777526855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3023077249527</t>
+    <t xml:space="preserve">1.30230760574341</t>
   </si>
   <si>
     <t xml:space="preserve">1.27682626247406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30988323688507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31126058101654</t>
+    <t xml:space="preserve">1.30988335609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31126070022583</t>
   </si>
   <si>
     <t xml:space="preserve">1.25478827953339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26649582386017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21071219444275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22792947292328</t>
+    <t xml:space="preserve">1.26649594306946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21071231365204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22792935371399</t>
   </si>
   <si>
     <t xml:space="preserve">1.25065612792969</t>
@@ -1385,13 +1385,13 @@
     <t xml:space="preserve">1.24239182472229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27200531959534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29473197460175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29817545413971</t>
+    <t xml:space="preserve">1.27200543880463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29473209381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.298175573349</t>
   </si>
   <si>
     <t xml:space="preserve">1.32296824455261</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">1.30161893367767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29335463047028</t>
+    <t xml:space="preserve">1.29335474967957</t>
   </si>
   <si>
     <t xml:space="preserve">1.27958106994629</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">1.26718461513519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24583530426025</t>
+    <t xml:space="preserve">1.24583518505096</t>
   </si>
   <si>
     <t xml:space="preserve">1.26374125480652</t>
@@ -1421,34 +1421,34 @@
     <t xml:space="preserve">1.29955291748047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32985508441925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3925256729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4090541601181</t>
+    <t xml:space="preserve">1.32985520362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39252579212189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40905427932739</t>
   </si>
   <si>
     <t xml:space="preserve">1.42007315158844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39114844799042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39665794372559</t>
+    <t xml:space="preserve">1.39114832878113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3966578245163</t>
   </si>
   <si>
     <t xml:space="preserve">1.3842613697052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34156286716461</t>
+    <t xml:space="preserve">1.3415629863739</t>
   </si>
   <si>
     <t xml:space="preserve">1.30781722068787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38794755935669</t>
+    <t xml:space="preserve">1.38794767856598</t>
   </si>
   <si>
     <t xml:space="preserve">1.41661822795868</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">1.36001229286194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38427186012268</t>
+    <t xml:space="preserve">1.38427197933197</t>
   </si>
   <si>
     <t xml:space="preserve">1.42543983459473</t>
@@ -1481,25 +1481,25 @@
     <t xml:space="preserve">1.43867242336273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47469449043274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48645663261414</t>
+    <t xml:space="preserve">1.47469437122345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48645675182343</t>
   </si>
   <si>
     <t xml:space="preserve">1.52468395233154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50704061985016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49968910217285</t>
+    <t xml:space="preserve">1.50704050064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49968922138214</t>
   </si>
   <si>
     <t xml:space="preserve">1.4967485666275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49086761474609</t>
+    <t xml:space="preserve">1.4908674955368</t>
   </si>
   <si>
     <t xml:space="preserve">1.52615427970886</t>
@@ -1508,22 +1508,22 @@
     <t xml:space="preserve">1.51439189910889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56585192680359</t>
+    <t xml:space="preserve">1.56585204601288</t>
   </si>
   <si>
     <t xml:space="preserve">1.55555987358093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55261945724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5026296377182</t>
+    <t xml:space="preserve">1.55261933803558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50262975692749</t>
   </si>
   <si>
     <t xml:space="preserve">1.5349760055542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48792695999146</t>
+    <t xml:space="preserve">1.48792684078217</t>
   </si>
   <si>
     <t xml:space="preserve">1.47910523414612</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">1.50998115539551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5232138633728</t>
+    <t xml:space="preserve">1.52321374416351</t>
   </si>
   <si>
     <t xml:space="preserve">1.44455361366272</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">1.46366727352142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45558071136475</t>
+    <t xml:space="preserve">1.45558059215546</t>
   </si>
   <si>
     <t xml:space="preserve">1.45043480396271</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">1.43058586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4239696264267</t>
+    <t xml:space="preserve">1.42396950721741</t>
   </si>
   <si>
     <t xml:space="preserve">1.43940758705139</t>
@@ -1583,31 +1583,31 @@
     <t xml:space="preserve">1.4621969461441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4467591047287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46146178245544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48498630523682</t>
+    <t xml:space="preserve">1.44675898551941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46146190166473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48498642444611</t>
   </si>
   <si>
     <t xml:space="preserve">1.53350567817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52762460708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5614413022995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57320332527161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55114912986755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5864360332489</t>
+    <t xml:space="preserve">1.52762472629547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56144118309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5732034444809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55114901065826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58643591403961</t>
   </si>
   <si>
     <t xml:space="preserve">1.59672784805298</t>
@@ -1628,46 +1628,46 @@
     <t xml:space="preserve">1.64377701282501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64524722099304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62760388851166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60113871097565</t>
+    <t xml:space="preserve">1.64524710178375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62760376930237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60113883018494</t>
   </si>
   <si>
     <t xml:space="preserve">1.62466335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59525752067566</t>
+    <t xml:space="preserve">1.59525763988495</t>
   </si>
   <si>
     <t xml:space="preserve">1.37471508979797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.395299077034</t>
+    <t xml:space="preserve">1.39529895782471</t>
   </si>
   <si>
     <t xml:space="preserve">1.40191531181335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41147220134735</t>
+    <t xml:space="preserve">1.41147208213806</t>
   </si>
   <si>
     <t xml:space="preserve">1.408531665802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39970993995667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40118014812469</t>
+    <t xml:space="preserve">1.39971005916595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40118026733398</t>
   </si>
   <si>
     <t xml:space="preserve">1.39897477626801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43279123306274</t>
+    <t xml:space="preserve">1.43279135227203</t>
   </si>
   <si>
     <t xml:space="preserve">1.44822931289673</t>
@@ -1682,13 +1682,13 @@
     <t xml:space="preserve">1.39088821411133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37250971794128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3607474565506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3548663854599</t>
+    <t xml:space="preserve">1.37250959873199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36074733734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35486626625061</t>
   </si>
   <si>
     <t xml:space="preserve">1.3453094959259</t>
@@ -1697,58 +1697,58 @@
     <t xml:space="preserve">1.28943860530853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27179527282715</t>
+    <t xml:space="preserve">1.27179515361786</t>
   </si>
   <si>
     <t xml:space="preserve">1.28649806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21665966510773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25562214851379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25415182113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28355765342712</t>
+    <t xml:space="preserve">1.21665954589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2556220293045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25415170192719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28355753421783</t>
   </si>
   <si>
     <t xml:space="preserve">1.2975252866745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31590378284454</t>
+    <t xml:space="preserve">1.31590366363525</t>
   </si>
   <si>
     <t xml:space="preserve">1.30855226516724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31516861915588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28576290607452</t>
+    <t xml:space="preserve">1.31516873836517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28576278686523</t>
   </si>
   <si>
     <t xml:space="preserve">1.29017388820648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24974095821381</t>
+    <t xml:space="preserve">1.2497410774231</t>
   </si>
   <si>
     <t xml:space="preserve">1.27841150760651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24091923236847</t>
+    <t xml:space="preserve">1.24091935157776</t>
   </si>
   <si>
     <t xml:space="preserve">1.24459493160248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25121116638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31222808361053</t>
+    <t xml:space="preserve">1.25121128559113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31222796440125</t>
   </si>
   <si>
     <t xml:space="preserve">1.26664924621582</t>
@@ -1766,22 +1766,22 @@
     <t xml:space="preserve">1.26811957359314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25782763957977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22180545330048</t>
+    <t xml:space="preserve">1.25782752037048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22180557250977</t>
   </si>
   <si>
     <t xml:space="preserve">1.22254073619843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22327589988708</t>
+    <t xml:space="preserve">1.22327601909637</t>
   </si>
   <si>
     <t xml:space="preserve">1.23283278942108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23650848865509</t>
+    <t xml:space="preserve">1.2365083694458</t>
   </si>
   <si>
     <t xml:space="preserve">1.23356783390045</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">1.3225200176239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31663882732391</t>
+    <t xml:space="preserve">1.3166389465332</t>
   </si>
   <si>
     <t xml:space="preserve">1.29164409637451</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">1.26150321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25856268405914</t>
+    <t xml:space="preserve">1.25856280326843</t>
   </si>
   <si>
     <t xml:space="preserve">1.26370871067047</t>
@@ -1817,16 +1817,16 @@
     <t xml:space="preserve">1.24680042266846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24312472343445</t>
+    <t xml:space="preserve">1.24312460422516</t>
   </si>
   <si>
     <t xml:space="preserve">1.26885461807251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2879683971405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29679012298584</t>
+    <t xml:space="preserve">1.28796827793121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29679000377655</t>
   </si>
   <si>
     <t xml:space="preserve">1.24165439605713</t>
@@ -1835,10 +1835,10 @@
     <t xml:space="preserve">1.2401841878891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28870344161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27914655208588</t>
+    <t xml:space="preserve">1.28870356082916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27914667129517</t>
   </si>
   <si>
     <t xml:space="preserve">1.21004331111908</t>
@@ -1850,10 +1850,10 @@
     <t xml:space="preserve">1.27988183498383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28502774238586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28135204315186</t>
+    <t xml:space="preserve">1.28502786159515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28135216236115</t>
   </si>
   <si>
     <t xml:space="preserve">1.29311430454254</t>
@@ -1865,16 +1865,16 @@
     <t xml:space="preserve">1.38941788673401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36589336395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35119068622589</t>
+    <t xml:space="preserve">1.36589348316193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3511905670166</t>
   </si>
   <si>
     <t xml:space="preserve">1.32325518131256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32693088054657</t>
+    <t xml:space="preserve">1.32693076133728</t>
   </si>
   <si>
     <t xml:space="preserve">1.31810915470123</t>
@@ -1889,28 +1889,28 @@
     <t xml:space="preserve">1.28723323345184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28429269790649</t>
+    <t xml:space="preserve">1.2842925786972</t>
   </si>
   <si>
     <t xml:space="preserve">1.3129631280899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33060646057129</t>
+    <t xml:space="preserve">1.33060657978058</t>
   </si>
   <si>
     <t xml:space="preserve">1.36736369132996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33428227901459</t>
+    <t xml:space="preserve">1.33428239822388</t>
   </si>
   <si>
     <t xml:space="preserve">1.35266077518463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31737411022186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27694129943848</t>
+    <t xml:space="preserve">1.31737399101257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27694118022919</t>
   </si>
   <si>
     <t xml:space="preserve">1.30046582221985</t>
@@ -1919,10 +1919,10 @@
     <t xml:space="preserve">1.27767646312714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29826033115387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3034063577652</t>
+    <t xml:space="preserve">1.29826045036316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30340623855591</t>
   </si>
   <si>
     <t xml:space="preserve">1.27326548099518</t>
@@ -1931,19 +1931,19 @@
     <t xml:space="preserve">1.27620601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33134174346924</t>
+    <t xml:space="preserve">1.33134186267853</t>
   </si>
   <si>
     <t xml:space="preserve">1.30267119407654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29531979560852</t>
+    <t xml:space="preserve">1.29531967639923</t>
   </si>
   <si>
     <t xml:space="preserve">1.2747358083725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27253031730652</t>
+    <t xml:space="preserve">1.27253043651581</t>
   </si>
   <si>
     <t xml:space="preserve">1.26958978176117</t>
@@ -1958,22 +1958,22 @@
     <t xml:space="preserve">1.21445417404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21371901035309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21592438220978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20563244819641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22915709018707</t>
+    <t xml:space="preserve">1.21371912956238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21592450141907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2056325674057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22915697097778</t>
   </si>
   <si>
     <t xml:space="preserve">1.25194644927979</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22989213466644</t>
+    <t xml:space="preserve">1.22989225387573</t>
   </si>
   <si>
     <t xml:space="preserve">1.2306272983551</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">1.19313514232635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18137288093567</t>
+    <t xml:space="preserve">1.18137276172638</t>
   </si>
   <si>
     <t xml:space="preserve">1.17034566402435</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">1.15711319446564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13358867168427</t>
+    <t xml:space="preserve">1.13358855247498</t>
   </si>
   <si>
     <t xml:space="preserve">1.09168553352356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06448531150818</t>
+    <t xml:space="preserve">1.06448519229889</t>
   </si>
   <si>
     <t xml:space="preserve">1.03140389919281</t>
@@ -2030,19 +2030,19 @@
     <t xml:space="preserve">1.06522035598755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10859382152557</t>
+    <t xml:space="preserve">1.10859370231628</t>
   </si>
   <si>
     <t xml:space="preserve">1.08653962612152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0872745513916</t>
+    <t xml:space="preserve">1.08727467060089</t>
   </si>
   <si>
     <t xml:space="preserve">1.07624757289886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08713436126709</t>
+    <t xml:space="preserve">1.08713448047638</t>
   </si>
   <si>
     <t xml:space="preserve">1.10890829563141</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">1.05913960933685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0264790058136</t>
+    <t xml:space="preserve">1.02647888660431</t>
   </si>
   <si>
     <t xml:space="preserve">1.02181303501129</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">1.02259075641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995373487472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00548267364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00237226486206</t>
+    <t xml:space="preserve">0.995373427867889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00548279285431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00237214565277</t>
   </si>
   <si>
     <t xml:space="preserve">1.01248145103455</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">1.00159454345703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01714718341827</t>
+    <t xml:space="preserve">1.01714730262756</t>
   </si>
   <si>
     <t xml:space="preserve">1.03969871997833</t>
@@ -2093,31 +2093,31 @@
     <t xml:space="preserve">0.996151089668274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00081694126129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987597048282623</t>
+    <t xml:space="preserve">1.000816822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987597167491913</t>
   </si>
   <si>
     <t xml:space="preserve">0.965823292732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970489144325256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967378556728363</t>
+    <t xml:space="preserve">0.970489203929901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967378497123718</t>
   </si>
   <si>
     <t xml:space="preserve">0.998484075069427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991485238075256</t>
+    <t xml:space="preserve">0.991485297679901</t>
   </si>
   <si>
     <t xml:space="preserve">0.993040502071381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999261677265167</t>
+    <t xml:space="preserve">0.999261617660522</t>
   </si>
   <si>
     <t xml:space="preserve">1.02958941459656</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">1.0303670167923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03581047058105</t>
+    <t xml:space="preserve">1.03581058979034</t>
   </si>
   <si>
     <t xml:space="preserve">1.08246862888336</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05602896213531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10190963745117</t>
+    <t xml:space="preserve">1.0560290813446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10190951824188</t>
   </si>
   <si>
     <t xml:space="preserve">1.09413313865662</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">1.15789926052094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16645336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15090048313141</t>
+    <t xml:space="preserve">1.16645324230194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1509006023407</t>
   </si>
   <si>
     <t xml:space="preserve">1.13612544536591</t>
@@ -2162,10 +2162,10 @@
     <t xml:space="preserve">1.10968589782715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13301491737366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13068199157715</t>
+    <t xml:space="preserve">1.13301503658295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13068211078644</t>
   </si>
   <si>
     <t xml:space="preserve">1.13145971298218</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">1.14467942714691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12368333339691</t>
+    <t xml:space="preserve">1.1236834526062</t>
   </si>
   <si>
     <t xml:space="preserve">1.10735297203064</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">1.11590695381165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12057280540466</t>
+    <t xml:space="preserve">1.12057268619537</t>
   </si>
   <si>
     <t xml:space="preserve">1.13534784317017</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">1.19678115844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17345201969147</t>
+    <t xml:space="preserve">1.17345190048218</t>
   </si>
   <si>
     <t xml:space="preserve">1.18978226184845</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">1.22011005878448</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22088778018951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21077859401703</t>
+    <t xml:space="preserve">1.2208878993988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21077847480774</t>
   </si>
   <si>
     <t xml:space="preserve">1.19133758544922</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">1.25976955890656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27376699447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26987874507904</t>
+    <t xml:space="preserve">1.27376687526703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26987886428833</t>
   </si>
   <si>
     <t xml:space="preserve">1.27609992027283</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">1.33286726474762</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34608697891235</t>
+    <t xml:space="preserve">1.34608709812164</t>
   </si>
   <si>
     <t xml:space="preserve">1.35852921009064</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">1.39896631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38807940483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37330424785614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35464096069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35619640350342</t>
+    <t xml:space="preserve">1.38807928562164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37330436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35464107990265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35619628429413</t>
   </si>
   <si>
     <t xml:space="preserve">1.33753311634064</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">1.3134263753891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28465378284454</t>
+    <t xml:space="preserve">1.28465390205383</t>
   </si>
   <si>
     <t xml:space="preserve">1.27143406867981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25821423530579</t>
+    <t xml:space="preserve">1.25821435451508</t>
   </si>
   <si>
     <t xml:space="preserve">1.25899183750153</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.25510370731354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23644053936005</t>
+    <t xml:space="preserve">1.23644042015076</t>
   </si>
   <si>
     <t xml:space="preserve">1.24343919754028</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">1.16412031650543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15167808532715</t>
+    <t xml:space="preserve">1.15167820453644</t>
   </si>
   <si>
     <t xml:space="preserve">1.12757158279419</t>
@@ -2423,19 +2423,19 @@
     <t xml:space="preserve">1.11823987960815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12135052680969</t>
+    <t xml:space="preserve">1.1213504076004</t>
   </si>
   <si>
     <t xml:space="preserve">1.12212800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11357402801514</t>
+    <t xml:space="preserve">1.11357414722443</t>
   </si>
   <si>
     <t xml:space="preserve">1.10579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08868980407715</t>
+    <t xml:space="preserve">1.08868968486786</t>
   </si>
   <si>
     <t xml:space="preserve">1.11746227741241</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">1.14623475074768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10657525062561</t>
+    <t xml:space="preserve">1.1065753698349</t>
   </si>
   <si>
     <t xml:space="preserve">1.11201870441437</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">1.13923597335815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13379263877869</t>
+    <t xml:space="preserve">1.1337925195694</t>
   </si>
   <si>
     <t xml:space="preserve">1.05447375774384</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">1.04047632217407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01403677463531</t>
+    <t xml:space="preserve">1.01403665542603</t>
   </si>
   <si>
     <t xml:space="preserve">1.01325905323029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996928691864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958824634552002</t>
+    <t xml:space="preserve">0.996928751468658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958824574947357</t>
   </si>
   <si>
     <t xml:space="preserve">0.942494213581085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948715388774872</t>
+    <t xml:space="preserve">0.948715329170227</t>
   </si>
   <si>
     <t xml:space="preserve">0.954936444759369</t>
@@ -2498,19 +2498,19 @@
     <t xml:space="preserve">1.00470507144928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.990707635879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985264182090759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.997706294059753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98370897769928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959602236747742</t>
+    <t xml:space="preserve">0.990707695484161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.985264122486115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.997706413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983708918094635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959602177143097</t>
   </si>
   <si>
     <t xml:space="preserve">0.884949207305908</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">0.88106107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894280850887299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855399072170258</t>
+    <t xml:space="preserve">0.894280791282654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855399131774902</t>
   </si>
   <si>
     <t xml:space="preserve">0.828181862831116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801742255687714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815739691257477</t>
+    <t xml:space="preserve">0.801742196083069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815739631652832</t>
   </si>
   <si>
     <t xml:space="preserve">0.752362310886383</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">0.678875803947449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.695594966411591</t>
+    <t xml:space="preserve">0.695595026016235</t>
   </si>
   <si>
     <t xml:space="preserve">0.687040984630585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.683930456638336</t>
+    <t xml:space="preserve">0.683930397033691</t>
   </si>
   <si>
     <t xml:space="preserve">0.645048677921295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632217705249786</t>
+    <t xml:space="preserve">0.632217645645142</t>
   </si>
   <si>
     <t xml:space="preserve">0.592558324337006</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">0.612388014793396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.611610352993011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575839042663574</t>
+    <t xml:space="preserve">0.611610293388367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575839102268219</t>
   </si>
   <si>
     <t xml:space="preserve">0.572339713573456</t>
@@ -2576,19 +2576,19 @@
     <t xml:space="preserve">0.550177097320557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.576227962970734</t>
+    <t xml:space="preserve">0.576227903366089</t>
   </si>
   <si>
     <t xml:space="preserve">0.565729856491089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.573506236076355</t>
+    <t xml:space="preserve">0.57350617647171</t>
   </si>
   <si>
     <t xml:space="preserve">0.567673921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660990178585052</t>
+    <t xml:space="preserve">0.660990238189697</t>
   </si>
   <si>
     <t xml:space="preserve">0.684319257736206</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.638049960136414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674209952354431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681208729743958</t>
+    <t xml:space="preserve">0.674210011959076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681208670139313</t>
   </si>
   <si>
     <t xml:space="preserve">0.657879650592804</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">0.643882215023041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.640771687030792</t>
+    <t xml:space="preserve">0.640771627426147</t>
   </si>
   <si>
     <t xml:space="preserve">0.611999154090881</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">0.622108399868011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60577803850174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608111023902893</t>
+    <t xml:space="preserve">0.605778098106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608110964298248</t>
   </si>
   <si>
     <t xml:space="preserve">0.613165616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607333302497864</t>
+    <t xml:space="preserve">0.607333362102509</t>
   </si>
   <si>
     <t xml:space="preserve">0.626385390758514</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">0.621330797672272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598779380321503</t>
+    <t xml:space="preserve">0.598779320716858</t>
   </si>
   <si>
     <t xml:space="preserve">0.615498483181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.559897541999817</t>
+    <t xml:space="preserve">0.559897601604462</t>
   </si>
   <si>
     <t xml:space="preserve">0.549399495124817</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">0.547844231128693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.544344902038574</t>
+    <t xml:space="preserve">0.544344842433929</t>
   </si>
   <si>
     <t xml:space="preserve">0.547455430030823</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.57311737537384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59372466802597</t>
+    <t xml:space="preserve">0.593724727630615</t>
   </si>
   <si>
     <t xml:space="preserve">0.628329515457153</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">0.625996589660645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.637661099433899</t>
+    <t xml:space="preserve">0.637661159038544</t>
   </si>
   <si>
     <t xml:space="preserve">0.61433207988739</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">0.654380261898041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.632606446743011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585170686244965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586726009845734</t>
+    <t xml:space="preserve">0.632606506347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585170745849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586725950241089</t>
   </si>
   <si>
     <t xml:space="preserve">0.580893695354462</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">0.600334644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.587892413139343</t>
+    <t xml:space="preserve">0.587892472743988</t>
   </si>
   <si>
     <t xml:space="preserve">0.580116093158722</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">0.576616764068604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583226680755615</t>
+    <t xml:space="preserve">0.58322662115097</t>
   </si>
   <si>
     <t xml:space="preserve">0.564563393592834</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">0.548233032226562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.541623175144196</t>
+    <t xml:space="preserve">0.541623115539551</t>
   </si>
   <si>
     <t xml:space="preserve">0.524903953075409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.519460558891296</t>
+    <t xml:space="preserve">0.519460499286652</t>
   </si>
   <si>
     <t xml:space="preserve">0.515961170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.476690530776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489521533250809</t>
+    <t xml:space="preserve">0.4766905605793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489521563053131</t>
   </si>
   <si>
     <t xml:space="preserve">0.508962452411652</t>
@@ -2789,31 +2789,31 @@
     <t xml:space="preserve">0.491076827049255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.50118613243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.498464345932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.486022174358368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.497686743736267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48679980635643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477079421281815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.474746435880661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459193736314774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.444418698549271</t>
+    <t xml:space="preserve">0.501186072826385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.498464375734329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48602220416069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.497686713933945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.486799836158752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477079391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474746465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459193795919418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.444418668746948</t>
   </si>
   <si>
     <t xml:space="preserve">0.451806217432022</t>
@@ -2825,34 +2825,34 @@
     <t xml:space="preserve">0.485633373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.478245824575424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49185448884964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508573591709137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467358946800232</t>
+    <t xml:space="preserve">0.478245854377747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491854459047318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508573651313782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467358976602554</t>
   </si>
   <si>
     <t xml:space="preserve">0.455694437026978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463859558105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.489132761955261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478634655475616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.476301729679108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48252284526825</t>
+    <t xml:space="preserve">0.463859587907791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.489132732152939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478634625673294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.476301789283752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.482522875070572</t>
   </si>
   <si>
     <t xml:space="preserve">0.477857023477554</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">0.473580062389374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.474357694387436</t>
+    <t xml:space="preserve">0.474357664585114</t>
   </si>
   <si>
     <t xml:space="preserve">0.46036022901535</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">0.464637249708176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.463470757007599</t>
+    <t xml:space="preserve">0.463470786809921</t>
   </si>
   <si>
     <t xml:space="preserve">0.458027333021164</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">0.446751624345779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.438975244760513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.436253517866135</t>
+    <t xml:space="preserve">0.438975214958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.436253547668457</t>
   </si>
   <si>
     <t xml:space="preserve">0.432754188776016</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">0.374820321798325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.360200762748718</t>
+    <t xml:space="preserve">0.360200792551041</t>
   </si>
   <si>
     <t xml:space="preserve">0.355068385601044</t>
@@ -2933,22 +2933,22 @@
     <t xml:space="preserve">0.337649345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.345892280340195</t>
+    <t xml:space="preserve">0.345892250537872</t>
   </si>
   <si>
     <t xml:space="preserve">0.331894844770432</t>
   </si>
   <si>
-    <t xml:space="preserve">0.346669912338257</t>
+    <t xml:space="preserve">0.346669942140579</t>
   </si>
   <si>
     <t xml:space="preserve">0.369376868009567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373576104640961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388040125370026</t>
+    <t xml:space="preserve">0.373576074838638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.388040155172348</t>
   </si>
   <si>
     <t xml:space="preserve">0.396594107151031</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">0.36035630106926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.34184855222702</t>
+    <t xml:space="preserve">0.341848582029343</t>
   </si>
   <si>
     <t xml:space="preserve">0.323962956666946</t>
@@ -2981,10 +2981,10 @@
     <t xml:space="preserve">0.337182760238647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.359423130750656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.351802289485931</t>
+    <t xml:space="preserve">0.359423100948334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.351802319288254</t>
   </si>
   <si>
     <t xml:space="preserve">0.386484861373901</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">0.358645498752594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.336405128240585</t>
+    <t xml:space="preserve">0.336405098438263</t>
   </si>
   <si>
     <t xml:space="preserve">0.341693043708801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.356001526117325</t>
+    <t xml:space="preserve">0.356001555919647</t>
   </si>
   <si>
     <t xml:space="preserve">0.35413521528244</t>
@@ -3029,28 +3029,28 @@
     <t xml:space="preserve">0.390373021364212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.417979091405869</t>
+    <t xml:space="preserve">0.417979121208191</t>
   </si>
   <si>
     <t xml:space="preserve">0.421478450298309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.445585161447525</t>
+    <t xml:space="preserve">0.445585191249847</t>
   </si>
   <si>
     <t xml:space="preserve">0.437419980764389</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440141677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462693154811859</t>
+    <t xml:space="preserve">0.440141707658768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462693125009537</t>
   </si>
   <si>
     <t xml:space="preserve">0.461137861013412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.437031120061874</t>
+    <t xml:space="preserve">0.437031149864197</t>
   </si>
   <si>
     <t xml:space="preserve">0.419145524501801</t>
@@ -3059,13 +3059,13 @@
     <t xml:space="preserve">0.45025098323822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446362763643265</t>
+    <t xml:space="preserve">0.446362793445587</t>
   </si>
   <si>
     <t xml:space="preserve">0.454139143228531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.452972680330276</t>
+    <t xml:space="preserve">0.452972650527954</t>
   </si>
   <si>
     <t xml:space="preserve">0.457638502120972</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">0.472024768590927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.448306888341904</t>
+    <t xml:space="preserve">0.448306858539581</t>
   </si>
   <si>
     <t xml:space="preserve">0.452583879232407</t>
@@ -3086,25 +3086,25 @@
     <t xml:space="preserve">0.457249671220779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.465803682804108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.461526721715927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.462304323911667</t>
+    <t xml:space="preserve">0.465803653001785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.461526691913605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.462304294109344</t>
   </si>
   <si>
     <t xml:space="preserve">0.472413599491119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.49613144993782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500408470630646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494187384843826</t>
+    <t xml:space="preserve">0.496131479740143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500408411026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494187414646149</t>
   </si>
   <si>
     <t xml:space="preserve">0.48213404417038</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">0.465414851903915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479801118373871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47046947479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.449084490537643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.419923216104507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.432365328073502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430421262979507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431976497173309</t>
+    <t xml:space="preserve">0.479801088571548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.470469504594803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449084520339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.419923186302185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.432365357875824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430421233177185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431976526975632</t>
   </si>
   <si>
     <t xml:space="preserve">0.421867281198502</t>
@@ -3146,19 +3146,19 @@
     <t xml:space="preserve">0.43119889497757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.440919309854507</t>
+    <t xml:space="preserve">0.44091933965683</t>
   </si>
   <si>
     <t xml:space="preserve">0.442863434553146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466581344604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.566896319389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521404564380646</t>
+    <t xml:space="preserve">0.46658131480217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.566896259784698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521404623985291</t>
   </si>
   <si>
     <t xml:space="preserve">0.530347406864166</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">0.500797271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494576156139374</t>
+    <t xml:space="preserve">0.494576185941696</t>
   </si>
   <si>
     <t xml:space="preserve">0.507795989513397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.507018387317657</t>
+    <t xml:space="preserve">0.507018327713013</t>
   </si>
   <si>
     <t xml:space="preserve">0.504685461521149</t>
@@ -3209,40 +3209,40 @@
     <t xml:space="preserve">0.524126350879669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513239502906799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50274133682251</t>
+    <t xml:space="preserve">0.513239443302155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502741396427155</t>
   </si>
   <si>
     <t xml:space="preserve">0.49652025103569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.487577468156815</t>
+    <t xml:space="preserve">0.487577438354492</t>
   </si>
   <si>
     <t xml:space="preserve">0.480578750371933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.493409782648087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485244572162628</t>
+    <t xml:space="preserve">0.493409723043442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485244601964951</t>
   </si>
   <si>
     <t xml:space="preserve">0.487188667058945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.449473321437836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448695719242096</t>
+    <t xml:space="preserve">0.449473351240158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448695689439774</t>
   </si>
   <si>
     <t xml:space="preserve">0.44776251912117</t>
   </si>
   <si>
-    <t xml:space="preserve">0.446673840284348</t>
+    <t xml:space="preserve">0.44667387008667</t>
   </si>
   <si>
     <t xml:space="preserve">0.442630112171173</t>
@@ -3254,10 +3254,10 @@
     <t xml:space="preserve">0.459427058696747</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451184123754501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460982352495193</t>
+    <t xml:space="preserve">0.451184153556824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460982322692871</t>
   </si>
   <si>
     <t xml:space="preserve">0.443096727132797</t>
@@ -3266,31 +3266,31 @@
     <t xml:space="preserve">0.449006766080856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450406521558762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456938624382019</t>
+    <t xml:space="preserve">0.450406551361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456938654184341</t>
   </si>
   <si>
     <t xml:space="preserve">0.442474603652954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461759984493256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446829348802567</t>
+    <t xml:space="preserve">0.461760014295578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446829319000244</t>
   </si>
   <si>
     <t xml:space="preserve">0.451961755752563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464714974164963</t>
+    <t xml:space="preserve">0.46471494436264</t>
   </si>
   <si>
     <t xml:space="preserve">0.458338350057602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453517019748688</t>
+    <t xml:space="preserve">0.453516989946365</t>
   </si>
   <si>
     <t xml:space="preserve">0.454916775226593</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">0.459115982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.479178994894028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.495353817939758</t>
+    <t xml:space="preserve">0.479178965091705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.495353847742081</t>
   </si>
   <si>
     <t xml:space="preserve">0.527236878871918</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">0.526303708553314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.534546673297882</t>
+    <t xml:space="preserve">0.534546613693237</t>
   </si>
   <si>
     <t xml:space="preserve">0.545589089393616</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">0.548077523708344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553209900856018</t>
+    <t xml:space="preserve">0.553209841251373</t>
   </si>
   <si>
     <t xml:space="preserve">0.57031786441803</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">0.57684999704361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60640013217926</t>
+    <t xml:space="preserve">0.606400191783905</t>
   </si>
   <si>
     <t xml:space="preserve">0.591003000736237</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">0.668610990047455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671566009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675143122673035</t>
+    <t xml:space="preserve">0.671566069126129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675143182277679</t>
   </si>
   <si>
     <t xml:space="preserve">0.671099424362183</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">0.655391216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.649325668811798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650258839130402</t>
+    <t xml:space="preserve">0.649325609207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650258779525757</t>
   </si>
   <si>
     <t xml:space="preserve">0.629884779453278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.613709986209869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590380907058716</t>
+    <t xml:space="preserve">0.613709926605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590380847454071</t>
   </si>
   <si>
     <t xml:space="preserve">0.586959302425385</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">0.597535133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58182692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552276790142059</t>
+    <t xml:space="preserve">0.581826865673065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552276730537415</t>
   </si>
   <si>
     <t xml:space="preserve">0.556009352207184</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">0.524592936038971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.511839747428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500330686569214</t>
+    <t xml:space="preserve">0.511839687824249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500330746173859</t>
   </si>
   <si>
     <t xml:space="preserve">0.508729159832001</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">0.508107006549835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.504529893398285</t>
+    <t xml:space="preserve">0.50452995300293</t>
   </si>
   <si>
     <t xml:space="preserve">0.507951498031616</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">0.506551802158356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.497064620256424</t>
+    <t xml:space="preserve">0.497064590454102</t>
   </si>
   <si>
     <t xml:space="preserve">0.520860254764557</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">0.505774140357971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.503285706043243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511995255947113</t>
+    <t xml:space="preserve">0.503285646438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511995196342468</t>
   </si>
   <si>
     <t xml:space="preserve">0.51246178150177</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">0.510595500469208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.52117133140564</t>
+    <t xml:space="preserve">0.521171271800995</t>
   </si>
   <si>
     <t xml:space="preserve">0.509817838668823</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">0.505463063716888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.51743870973587</t>
+    <t xml:space="preserve">0.517438650131226</t>
   </si>
   <si>
     <t xml:space="preserve">0.517283141613007</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">0.500486195087433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.494109630584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5203937292099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525215089321136</t>
+    <t xml:space="preserve">0.494109600782394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.520393669605255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525215029716492</t>
   </si>
   <si>
     <t xml:space="preserve">0.516038954257965</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">0.54496693611145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551965653896332</t>
+    <t xml:space="preserve">0.551965713500977</t>
   </si>
   <si>
     <t xml:space="preserve">0.541545391082764</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">0.549166202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.53781270980835</t>
+    <t xml:space="preserve">0.537812769412994</t>
   </si>
   <si>
     <t xml:space="preserve">0.553831994533539</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">0.567984998226166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.583071112632751</t>
+    <t xml:space="preserve">0.583071172237396</t>
   </si>
   <si>
     <t xml:space="preserve">0.623663723468781</t>
@@ -3554,22 +3554,22 @@
     <t xml:space="preserve">0.609821796417236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.623352587223053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656168818473816</t>
+    <t xml:space="preserve">0.623352646827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656168878078461</t>
   </si>
   <si>
     <t xml:space="preserve">0.669388651847839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633928418159485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573583960533142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583848714828491</t>
+    <t xml:space="preserve">0.63392847776413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573584020137787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583848774433136</t>
   </si>
   <si>
     <t xml:space="preserve">0.589447736740112</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">0.552121222019196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.557098150253296</t>
+    <t xml:space="preserve">0.557098090648651</t>
   </si>
   <si>
     <t xml:space="preserve">0.563008069992065</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">0.542167484760284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.523659706115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522726595401764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502663612365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492865413427353</t>
+    <t xml:space="preserve">0.523659765720367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522726655006409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502663552761078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492865383625031</t>
   </si>
   <si>
     <t xml:space="preserve">0.499553054571152</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">0.4955093562603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.48975482583046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.507484972476959</t>
+    <t xml:space="preserve">0.489754885435104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507484912872314</t>
   </si>
   <si>
     <t xml:space="preserve">0.523348689079285</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">0.52474844455719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513550460338593</t>
+    <t xml:space="preserve">0.513550519943237</t>
   </si>
   <si>
     <t xml:space="preserve">0.493643045425415</t>
@@ -3662,10 +3662,10 @@
     <t xml:space="preserve">0.461293399333954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.464092880487442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.435786962509155</t>
+    <t xml:space="preserve">0.464092910289764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.435786932706833</t>
   </si>
   <si>
     <t xml:space="preserve">0.432054281234741</t>
@@ -3683,19 +3683,19 @@
     <t xml:space="preserve">0.417745798826218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.450095444917679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452739417552948</t>
+    <t xml:space="preserve">0.450095474720001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452739387750626</t>
   </si>
   <si>
     <t xml:space="preserve">0.43843087553978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.435475885868073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430654525756836</t>
+    <t xml:space="preserve">0.43547585606575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430654555559158</t>
   </si>
   <si>
     <t xml:space="preserve">0.42536661028862</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">0.41525736451149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.427232950925827</t>
+    <t xml:space="preserve">0.427232921123505</t>
   </si>
   <si>
     <t xml:space="preserve">0.424277931451797</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">0.412457853555679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.422878175973892</t>
+    <t xml:space="preserve">0.422878205776215</t>
   </si>
   <si>
     <t xml:space="preserve">0.422722697257996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.434542715549469</t>
+    <t xml:space="preserve">0.434542685747147</t>
   </si>
   <si>
     <t xml:space="preserve">0.424900054931641</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">0.43407616019249</t>
   </si>
   <si>
-    <t xml:space="preserve">0.436564594507217</t>
+    <t xml:space="preserve">0.436564564704895</t>
   </si>
   <si>
     <t xml:space="preserve">0.440608292818069</t>
@@ -3743,37 +3743,37 @@
     <t xml:space="preserve">0.443252235651016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.462071001529694</t>
+    <t xml:space="preserve">0.462071031332016</t>
   </si>
   <si>
     <t xml:space="preserve">0.456005454063416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.45647206902504</t>
+    <t xml:space="preserve">0.456472039222717</t>
   </si>
   <si>
     <t xml:space="preserve">0.446207284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.453205943107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.448851227760315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.430032432079315</t>
+    <t xml:space="preserve">0.453205972909927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.448851197957993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.430032402276993</t>
   </si>
   <si>
     <t xml:space="preserve">0.443563312292099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.457405209541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452117264270782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.427543967962265</t>
+    <t xml:space="preserve">0.457405179738998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452117294073105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.427543997764587</t>
   </si>
   <si>
     <t xml:space="preserve">0.423344761133194</t>
@@ -3788,16 +3788,16 @@
     <t xml:space="preserve">0.472802400588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.466270238161087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480423212051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.455227822065353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.441696971654892</t>
+    <t xml:space="preserve">0.466270297765732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480423241853714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.455227792263031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.441697001457214</t>
   </si>
   <si>
     <t xml:space="preserve">0.386173814535141</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">0.42863267660141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.40872523188591</t>
+    <t xml:space="preserve">0.408725261688232</t>
   </si>
   <si>
     <t xml:space="preserve">0.411058127880096</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">0.436098009347916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.451495200395584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.478401392698288</t>
+    <t xml:space="preserve">0.451495170593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.478401362895966</t>
   </si>
   <si>
     <t xml:space="preserve">0.468914210796356</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">0.467203408479691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.513083875179291</t>
+    <t xml:space="preserve">0.513083934783936</t>
   </si>
   <si>
     <t xml:space="preserve">0.515883386135101</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">0.54792195558548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.542634010314941</t>
+    <t xml:space="preserve">0.542634069919586</t>
   </si>
   <si>
     <t xml:space="preserve">0.537346124649048</t>
@@ -3863,22 +3863,22 @@
     <t xml:space="preserve">0.551810145378113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572028696537018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619775474071503</t>
+    <t xml:space="preserve">0.572028636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619775533676147</t>
   </si>
   <si>
     <t xml:space="preserve">0.64403772354126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671877145767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705626487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705937564373016</t>
+    <t xml:space="preserve">0.671877086162567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705626428127289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705937504768372</t>
   </si>
   <si>
     <t xml:space="preserve">0.72786682844162</t>
@@ -3890,13 +3890,13 @@
     <t xml:space="preserve">0.658968329429626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.639216363430023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662545502185822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.682452976703644</t>
+    <t xml:space="preserve">0.639216423034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662545442581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.682452917098999</t>
   </si>
   <si>
     <t xml:space="preserve">0.693650901317596</t>
@@ -3914,13 +3914,13 @@
     <t xml:space="preserve">0.755084097385406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.821183145046234</t>
+    <t xml:space="preserve">0.821183085441589</t>
   </si>
   <si>
     <t xml:space="preserve">0.744352698326111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.771258890628815</t>
+    <t xml:space="preserve">0.771258950233459</t>
   </si>
   <si>
     <t xml:space="preserve">0.776546835899353</t>
@@ -3929,10 +3929,10 @@
     <t xml:space="preserve">0.765659928321838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835958182811737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.880672216415405</t>
+    <t xml:space="preserve">0.835958242416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88067227602005</t>
   </si>
   <si>
     <t xml:space="preserve">0.936661899089813</t>
@@ -3944,22 +3944,22 @@
     <t xml:space="preserve">0.886893272399902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898168981075287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89155912399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918776392936707</t>
+    <t xml:space="preserve">0.898169040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891559064388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918776273727417</t>
   </si>
   <si>
     <t xml:space="preserve">0.897002577781677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.925775170326233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989152312278748</t>
+    <t xml:space="preserve">0.925775110721588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989152371883392</t>
   </si>
   <si>
     <t xml:space="preserve">0.989930033683777</t>
@@ -3986,10 +3986,10 @@
     <t xml:space="preserve">1.01442551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970877885818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976321339607239</t>
+    <t xml:space="preserve">0.970877945423126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976321399211884</t>
   </si>
   <si>
     <t xml:space="preserve">0.960768640041351</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">0.977487802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0241459608078</t>
+    <t xml:space="preserve">1.02414608001709</t>
   </si>
   <si>
     <t xml:space="preserve">1.11046350002289</t>
@@ -4028,19 +4028,19 @@
     <t xml:space="preserve">1.00859332084656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.975932598114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896224915981293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879116892814636</t>
+    <t xml:space="preserve">0.975932538509369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896224975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879116952419281</t>
   </si>
   <si>
     <t xml:space="preserve">0.838291049003601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879505813121796</t>
+    <t xml:space="preserve">0.879505753517151</t>
   </si>
   <si>
     <t xml:space="preserve">0.903612434864044</t>
@@ -4055,37 +4055,37 @@
     <t xml:space="preserve">0.897780239582062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919942855834961</t>
+    <t xml:space="preserve">0.919942796230316</t>
   </si>
   <si>
     <t xml:space="preserve">0.969711542129517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988763570785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961546361446381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04319798946381</t>
+    <t xml:space="preserve">0.988763511180878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961546301841736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0431981086731</t>
   </si>
   <si>
     <t xml:space="preserve">0.945604801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870951771736145</t>
+    <t xml:space="preserve">0.8709517121315</t>
   </si>
   <si>
     <t xml:space="preserve">0.827793002128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869785308837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.839846432209015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845289766788483</t>
+    <t xml:space="preserve">0.869785368442535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83984637260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845289826393127</t>
   </si>
   <si>
     <t xml:space="preserve">0.862397789955139</t>
@@ -4094,13 +4094,13 @@
     <t xml:space="preserve">0.908278286457062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924608647823334</t>
+    <t xml:space="preserve">0.924608588218689</t>
   </si>
   <si>
     <t xml:space="preserve">1.00314974784851</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05097448825836</t>
+    <t xml:space="preserve">1.05097436904907</t>
   </si>
   <si>
     <t xml:space="preserve">1.03658807277679</t>
@@ -4112,7 +4112,7 @@
     <t xml:space="preserve">1.01831364631653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940938949584961</t>
+    <t xml:space="preserve">0.940939009189606</t>
   </si>
   <si>
     <t xml:space="preserve">0.949881851673126</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">0.854232609272003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874062240123749</t>
+    <t xml:space="preserve">0.874062299728394</t>
   </si>
   <si>
     <t xml:space="preserve">0.878339350223541</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">0.76690411567688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.770325779914856</t>
+    <t xml:space="preserve">0.770325720310211</t>
   </si>
   <si>
     <t xml:space="preserve">0.770481288433075</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">0.78852242231369</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779579699039459</t>
+    <t xml:space="preserve">0.779579639434814</t>
   </si>
   <si>
     <t xml:space="preserve">0.724911868572235</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">0.737353980541229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.758194625377655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814962029457092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84956681728363</t>
+    <t xml:space="preserve">0.7581946849823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814961969852448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849566757678986</t>
   </si>
   <si>
     <t xml:space="preserve">0.807185649871826</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">0.797854006290436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820016622543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81923907995224</t>
+    <t xml:space="preserve">0.82001668214798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.819239020347595</t>
   </si>
   <si>
     <t xml:space="preserve">0.844901025295258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854621410369873</t>
+    <t xml:space="preserve">0.854621469974518</t>
   </si>
   <si>
     <t xml:space="preserve">0.865508377552032</t>
@@ -4229,16 +4229,16 @@
     <t xml:space="preserve">0.944049537181854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947548925876617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956102907657623</t>
+    <t xml:space="preserve">0.947548866271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956102848052979</t>
   </si>
   <si>
     <t xml:space="preserve">0.935106694698334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967767417430878</t>
+    <t xml:space="preserve">0.967767477035522</t>
   </si>
   <si>
     <t xml:space="preserve">0.926163911819458</t>
@@ -4259,25 +4259,25 @@
     <t xml:space="preserve">0.998872816562653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954158842563629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937439620494843</t>
+    <t xml:space="preserve">0.954158782958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937439560890198</t>
   </si>
   <si>
     <t xml:space="preserve">0.89194792509079</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882616281509399</t>
+    <t xml:space="preserve">0.882616341114044</t>
   </si>
   <si>
     <t xml:space="preserve">0.858509600162506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836347043514252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.815350770950317</t>
+    <t xml:space="preserve">0.836346983909607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.815350830554962</t>
   </si>
   <si>
     <t xml:space="preserve">0.832070052623749</t>
@@ -4286,10 +4286,10 @@
     <t xml:space="preserve">0.824682474136353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829348206520081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816906094551086</t>
+    <t xml:space="preserve">0.829348266124725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816906154155731</t>
   </si>
   <si>
     <t xml:space="preserve">0.849955677986145</t>
@@ -4298,13 +4298,13 @@
     <t xml:space="preserve">0.851510882377625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872507035732269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868618905544281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897391438484192</t>
+    <t xml:space="preserve">0.872507095336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868618845939636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897391378879547</t>
   </si>
   <si>
     <t xml:space="preserve">0.893503248691559</t>
@@ -4316,22 +4316,22 @@
     <t xml:space="preserve">0.926552653312683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912944138050079</t>
+    <t xml:space="preserve">0.912944078445435</t>
   </si>
   <si>
     <t xml:space="preserve">0.937828421592712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.952214598655701</t>
+    <t xml:space="preserve">0.952214658260345</t>
   </si>
   <si>
     <t xml:space="preserve">0.971655607223511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988374769687653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0556401014328</t>
+    <t xml:space="preserve">0.988374829292297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05564022064209</t>
   </si>
   <si>
     <t xml:space="preserve">1.12290573120117</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">1.18006193637848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19211530685425</t>
+    <t xml:space="preserve">1.19211518764496</t>
   </si>
   <si>
     <t xml:space="preserve">1.18667185306549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20494627952576</t>
+    <t xml:space="preserve">1.20494616031647</t>
   </si>
   <si>
     <t xml:space="preserve">1.15128934383392</t>
@@ -4364,7 +4364,7 @@
     <t xml:space="preserve">1.23799574375153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28698682785034</t>
+    <t xml:space="preserve">1.28698670864105</t>
   </si>
   <si>
     <t xml:space="preserve">1.14001369476318</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">1.12873804569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15362226963043</t>
+    <t xml:space="preserve">1.15362238883972</t>
   </si>
   <si>
     <t xml:space="preserve">1.16684210300446</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">1.16606450080872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15245592594147</t>
+    <t xml:space="preserve">1.15245580673218</t>
   </si>
   <si>
     <t xml:space="preserve">1.10463130474091</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">1.10929703712463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0960773229599</t>
+    <t xml:space="preserve">1.09607720375061</t>
   </si>
   <si>
     <t xml:space="preserve">1.03853225708008</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">1.09491086006165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15401113033295</t>
+    <t xml:space="preserve">1.15401101112366</t>
   </si>
   <si>
     <t xml:space="preserve">1.08985614776611</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">1.08052456378937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02686774730682</t>
+    <t xml:space="preserve">1.02686762809753</t>
   </si>
   <si>
     <t xml:space="preserve">1.02064669132233</t>
@@ -4469,28 +4469,28 @@
     <t xml:space="preserve">1.02803421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00353860855103</t>
+    <t xml:space="preserve">1.00353872776031</t>
   </si>
   <si>
     <t xml:space="preserve">0.99459582567215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.986819565296173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973210871219635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956491649150848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.966212093830109</t>
+    <t xml:space="preserve">0.986819446086884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97321081161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956491708755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.966212153434753</t>
   </si>
   <si>
     <t xml:space="preserve">0.953769981861115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940161347389221</t>
+    <t xml:space="preserve">0.940161287784576</t>
   </si>
   <si>
     <t xml:space="preserve">0.933551430702209</t>
@@ -4502,31 +4502,31 @@
     <t xml:space="preserve">0.912555277347565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880283355712891</t>
+    <t xml:space="preserve">0.880283415317535</t>
   </si>
   <si>
     <t xml:space="preserve">0.853066146373749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892336785793304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.916832268238068</t>
+    <t xml:space="preserve">0.89233672618866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.916832327842712</t>
   </si>
   <si>
     <t xml:space="preserve">0.889226198196411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933162689208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933940172195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980987250804901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960379898548126</t>
+    <t xml:space="preserve">0.93316262960434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933940291404724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980987191200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960379838943481</t>
   </si>
   <si>
     <t xml:space="preserve">0.98448657989502</t>
@@ -5253,6 +5253,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.61650002002716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61600005626678</t>
   </si>
 </sst>
 </file>
@@ -62040,7 +62043,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.6494444444</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>1379490</v>
@@ -62061,6 +62064,32 @@
         <v>1739</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.6494791667</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>2497048</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>1.61849999427795</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>1.61049997806549</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>1.61500000953674</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>1.61600005626678</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SRS.MI.xlsx
+++ b/data/SRS.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00170576572418</t>
+    <t xml:space="preserve">1.0017055273056</t>
   </si>
   <si>
     <t xml:space="preserve">SRS.MI</t>
@@ -47,25 +47,25 @@
     <t xml:space="preserve">0.982317805290222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.985255360603333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960579872131348</t>
+    <t xml:space="preserve">0.985255420207977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960579931735992</t>
   </si>
   <si>
     <t xml:space="preserve">0.964105069637299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993480503559113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992893099784851</t>
+    <t xml:space="preserve">0.993480622768402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992892980575562</t>
   </si>
   <si>
     <t xml:space="preserve">1.04576897621155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04165625572205</t>
+    <t xml:space="preserve">1.04165637493134</t>
   </si>
   <si>
     <t xml:space="preserve">1.02814364433289</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">1.02579367160797</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07749462127686</t>
+    <t xml:space="preserve">1.07749450206757</t>
   </si>
   <si>
     <t xml:space="preserve">1.08101963996887</t>
@@ -89,34 +89,34 @@
     <t xml:space="preserve">1.13565814495087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1456458568573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14682078361511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1150951385498</t>
+    <t xml:space="preserve">1.14564573764801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1468209028244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11509537696838</t>
   </si>
   <si>
     <t xml:space="preserve">1.12802040576935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14035820960999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11098265647888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09100723266602</t>
+    <t xml:space="preserve">1.1403580904007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11098253726959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09100735187531</t>
   </si>
   <si>
     <t xml:space="preserve">1.02755606174469</t>
   </si>
   <si>
-    <t xml:space="preserve">0.957642316818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853652834892273</t>
+    <t xml:space="preserve">0.957642376422882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853652894496918</t>
   </si>
   <si>
     <t xml:space="preserve">0.829565048217773</t>
@@ -125,52 +125,52 @@
     <t xml:space="preserve">0.840140223503113</t>
   </si>
   <si>
-    <t xml:space="preserve">0.810764789581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816639840602875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873040854930878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863640666007996</t>
+    <t xml:space="preserve">0.810764670372009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816639721393585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873040795326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86364072561264</t>
   </si>
   <si>
     <t xml:space="preserve">0.872453391551971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887728571891785</t>
+    <t xml:space="preserve">0.887728631496429</t>
   </si>
   <si>
     <t xml:space="preserve">0.881853580474854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86070305109024</t>
+    <t xml:space="preserve">0.86070317029953</t>
   </si>
   <si>
     <t xml:space="preserve">0.842490315437317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850127935409546</t>
+    <t xml:space="preserve">0.850127995014191</t>
   </si>
   <si>
     <t xml:space="preserve">0.94001704454422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904178857803345</t>
+    <t xml:space="preserve">0.904179036617279</t>
   </si>
   <si>
     <t xml:space="preserve">0.916516661643982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.895366311073303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851890444755554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.807827234268188</t>
+    <t xml:space="preserve">0.895366370677948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851890504360199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.807827115058899</t>
   </si>
   <si>
     <t xml:space="preserve">0.776101589202881</t>
@@ -179,25 +179,25 @@
     <t xml:space="preserve">0.76493889093399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757888674736023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831915080547333</t>
+    <t xml:space="preserve">0.757888734340668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831915020942688</t>
   </si>
   <si>
     <t xml:space="preserve">0.820164859294891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817814886569977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828390002250671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.833677530288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823102414608002</t>
+    <t xml:space="preserve">0.817814826965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828390061855316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.833677649497986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823102474212646</t>
   </si>
   <si>
     <t xml:space="preserve">0.817227363586426</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">0.827215015888214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828977584838867</t>
+    <t xml:space="preserve">0.828977525234222</t>
   </si>
   <si>
     <t xml:space="preserve">0.843077778816223</t>
   </si>
   <si>
-    <t xml:space="preserve">0.865403234958649</t>
+    <t xml:space="preserve">0.865403115749359</t>
   </si>
   <si>
     <t xml:space="preserve">0.837790191173553</t>
@@ -221,31 +221,31 @@
     <t xml:space="preserve">0.830740094184875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84660279750824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.848952949047089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.860115587711334</t>
+    <t xml:space="preserve">0.846602857112885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848953008651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.860115647315979</t>
   </si>
   <si>
     <t xml:space="preserve">0.846015393733978</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834265232086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822514891624451</t>
+    <t xml:space="preserve">0.834265112876892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822514951229095</t>
   </si>
   <si>
     <t xml:space="preserve">0.845427870750427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868340909481049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920629262924194</t>
+    <t xml:space="preserve">0.868340730667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92062920331955</t>
   </si>
   <si>
     <t xml:space="preserve">0.915929138660431</t>
@@ -254,58 +254,58 @@
     <t xml:space="preserve">0.905941486358643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.893016219139099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886553525924683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866578161716461</t>
+    <t xml:space="preserve">0.893016159534454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886553585529327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866578221321106</t>
   </si>
   <si>
     <t xml:space="preserve">0.869515836238861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88244104385376</t>
+    <t xml:space="preserve">0.882440984249115</t>
   </si>
   <si>
     <t xml:space="preserve">0.864228188991547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835440218448639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826040029525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830152571201324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831327617168427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9071164727211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924741864204407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945304691791534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93707948923111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928854405879974</t>
+    <t xml:space="preserve">0.835440099239349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826039969921112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83015251159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831327557563782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907116591930389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924741744995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945304572582245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937079548835754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92885422706604</t>
   </si>
   <si>
     <t xml:space="preserve">0.961769104003906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.987442493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994025588035583</t>
+    <t xml:space="preserve">0.98744261264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994025528430939</t>
   </si>
   <si>
     <t xml:space="preserve">1.03483998775482</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">1.04010629653931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04076457023621</t>
+    <t xml:space="preserve">1.04076445102692</t>
   </si>
   <si>
     <t xml:space="preserve">1.03615653514862</t>
@@ -323,7 +323,7 @@
     <t xml:space="preserve">1.05327212810516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05261385440826</t>
+    <t xml:space="preserve">1.05261373519897</t>
   </si>
   <si>
     <t xml:space="preserve">1.05458867549896</t>
@@ -332,58 +332,58 @@
     <t xml:space="preserve">1.05393040180206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07367932796478</t>
+    <t xml:space="preserve">1.07367944717407</t>
   </si>
   <si>
     <t xml:space="preserve">1.11646854877472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09276974201202</t>
+    <t xml:space="preserve">1.09276986122131</t>
   </si>
   <si>
     <t xml:space="preserve">1.03878962993622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02299046516418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98283463716507</t>
+    <t xml:space="preserve">1.02299058437347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982834577560425</t>
   </si>
   <si>
     <t xml:space="preserve">1.01245784759521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993367254734039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07894575595856</t>
+    <t xml:space="preserve">0.993367314338684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07894563674927</t>
   </si>
   <si>
     <t xml:space="preserve">1.07565402984619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07302093505859</t>
+    <t xml:space="preserve">1.07302105426788</t>
   </si>
   <si>
     <t xml:space="preserve">1.10132765769958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.015749335289</t>
+    <t xml:space="preserve">1.01574921607971</t>
   </si>
   <si>
     <t xml:space="preserve">0.959136009216309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97756826877594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972301959991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02628207206726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04668915271759</t>
+    <t xml:space="preserve">0.977568209171295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972301840782166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02628195285797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04668927192688</t>
   </si>
   <si>
     <t xml:space="preserve">1.02035737037659</t>
@@ -392,22 +392,22 @@
     <t xml:space="preserve">0.961110770702362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938728809356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936095714569092</t>
+    <t xml:space="preserve">0.938728749752045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936095595359802</t>
   </si>
   <si>
     <t xml:space="preserve">0.956502616405487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.951894760131836</t>
+    <t xml:space="preserve">0.951894700527191</t>
   </si>
   <si>
     <t xml:space="preserve">0.936753928661346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946628391742706</t>
+    <t xml:space="preserve">0.946628332138062</t>
   </si>
   <si>
     <t xml:space="preserve">0.939387083053589</t>
@@ -416,37 +416,37 @@
     <t xml:space="preserve">0.949919760227203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94860315322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974276781082153</t>
+    <t xml:space="preserve">0.948603212833405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974276840686798</t>
   </si>
   <si>
     <t xml:space="preserve">0.954527854919434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99797534942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923587918281555</t>
+    <t xml:space="preserve">0.997975409030914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9235879778862</t>
   </si>
   <si>
     <t xml:space="preserve">0.836034834384918</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80970299243927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832085013389587</t>
+    <t xml:space="preserve">0.809702932834625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832085072994232</t>
   </si>
   <si>
     <t xml:space="preserve">0.851833879947662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88869833946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88409036397934</t>
+    <t xml:space="preserve">0.88869845867157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884090304374695</t>
   </si>
   <si>
     <t xml:space="preserve">0.871582686901093</t>
@@ -458,52 +458,52 @@
     <t xml:space="preserve">0.880798876285553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886723518371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890673279762268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870924353599548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866974771022797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884748637676239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883432030677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874215841293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870266199111938</t>
+    <t xml:space="preserve">0.886723399162292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890673339366913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870924413204193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866974651813507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884748518466949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883431971073151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87421590089798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870266079902649</t>
   </si>
   <si>
     <t xml:space="preserve">0.864341497421265</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881457209587097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882773756980896</t>
+    <t xml:space="preserve">0.881457149982452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882773637771606</t>
   </si>
   <si>
     <t xml:space="preserve">0.887381792068481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880140602588654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921613097190857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934779107570648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94794499874115</t>
+    <t xml:space="preserve">0.880140483379364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921613216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934779047966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947944939136505</t>
   </si>
   <si>
     <t xml:space="preserve">0.947286665439606</t>
@@ -512,79 +512,79 @@
     <t xml:space="preserve">0.932145833969116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902522504329681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895281314849854</t>
+    <t xml:space="preserve">0.902522623538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895281374454498</t>
   </si>
   <si>
     <t xml:space="preserve">0.903180837631226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917005002498627</t>
+    <t xml:space="preserve">0.917005